--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3515" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4131" uniqueCount="1050">
   <si>
     <r>
       <rPr>
@@ -1885,7 +1885,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-23</t>
+    <t>2020-07-24</t>
   </si>
   <si>
     <t>hzero</t>
@@ -7049,22 +7049,22 @@
     <t>hmsg_template_server-87</t>
   </si>
   <si>
+    <t>hmsg_template_server-89</t>
+  </si>
+  <si>
     <t>hmsg_template_server-88</t>
   </si>
   <si>
-    <t>发送配置(邮箱)</t>
-  </si>
-  <si>
     <t>hmsg_template_server_line</t>
   </si>
   <si>
-    <t>*temp_server_line_id</t>
-  </si>
-  <si>
-    <t>#temp_server_id</t>
-  </si>
-  <si>
-    <t>#type_code</t>
+    <t>temp_server_line_id</t>
+  </si>
+  <si>
+    <t>temp_server_id</t>
+  </si>
+  <si>
+    <t>type_code</t>
   </si>
   <si>
     <t>template_code</t>
@@ -7079,301 +7079,457 @@
     <t>server_code</t>
   </si>
   <si>
-    <t>发送配置(短信)</t>
+    <t>try_times</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-91</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>CHOERODON-EMAIL</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-92</t>
   </si>
   <si>
     <t>hmsg_template_server_line-93</t>
   </si>
   <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-94</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-95</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-96</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-97</t>
+  </si>
+  <si>
+    <t>WEB_HOOK</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-98</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-99</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-100</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-101</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-102</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-103</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-104</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-105</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-106</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-107</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-108</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-109</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-110</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-111</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-112</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-113</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-114</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-115</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-116</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-117</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-118</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-119</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-120</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-121</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-122</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-123</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-124</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-125</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-126</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-127</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-128</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-133</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-134</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-135</t>
+  </si>
+  <si>
     <t>SMS</t>
   </si>
   <si>
+    <t>CHOERODON-SMS</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-140</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-141</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-142</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-143</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-144</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-145</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-146</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-147</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-148</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-149</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-150</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-151</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-152</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-153</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-154</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-155</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-157</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-160</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-161</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-162</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-163</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-164</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-165</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-166</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-167</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-168</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-169</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-170</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-171</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-172</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-173</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-174</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-175</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-176</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-177</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-178</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-179</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-180</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-181</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-182</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-183</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-184</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-185</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-186</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-187</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-188</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-189</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-190</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-191</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-192</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-193</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-194</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-195</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-196</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-197</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-198</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-199</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-200</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-201</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-202</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-203</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-204</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-205</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-206</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-207</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-208</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-209</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-210</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-211</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-212</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-213</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-214</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-215</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-216</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-217</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-218</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-219</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-220</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-221</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-222</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-223</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-224</t>
+  </si>
+  <si>
     <t>HZERO</t>
   </si>
   <si>
-    <t>发送配置(其它)</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-96</t>
-  </si>
-  <si>
-    <t>WEB</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-97</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-98</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-99</t>
-  </si>
-  <si>
-    <t>WEB_HOOK</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-100</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-101</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-102</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-103</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-104</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-105</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-106</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-107</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-108</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-109</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-110</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-111</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-112</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-113</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-114</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-115</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-116</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-117</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-118</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-119</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-120</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-121</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-122</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-123</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-124</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-125</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-129</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-130</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-131</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-132</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-133</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-134</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-135</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-136</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-137</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-138</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-139</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-141</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-142</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-143</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-144</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-145</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-146</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-147</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-148</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-149</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-150</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-151</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-152</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-153</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-154</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-155</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-156</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-157</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-158</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-159</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-160</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-161</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-162</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-163</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-164</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-165</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-166</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-167</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-168</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-169</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-170</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-171</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-172</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-173</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-174</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-175</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-176</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-177</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-178</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-179</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-180</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-181</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-182</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-183</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-184</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-185</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-186</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-187</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-188</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-189</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-190</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-191</t>
+    <t>hmsg_template_server_line-225</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-226</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-227</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-228</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-229</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-230</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-231</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-232</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-233</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-234</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-235</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-236</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-237</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-238</t>
+  </si>
+  <si>
+    <t>HZERO_BAIDU</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-239</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-240</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-241</t>
   </si>
 </sst>
 </file>
@@ -7382,8 +7538,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
@@ -7456,14 +7612,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7480,20 +7636,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7508,17 +7664,62 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7539,50 +7740,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7596,20 +7762,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -7701,49 +7857,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7755,19 +7905,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7785,7 +7935,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7797,37 +8001,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7839,49 +8025,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8012,6 +8168,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -8027,13 +8203,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8056,183 +8236,159 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -8939,14 +9095,16 @@
   <sheetPr/>
   <dimension ref="A1:P792"/>
   <sheetViews>
-    <sheetView topLeftCell="A740" workbookViewId="0">
-      <selection activeCell="A640" sqref="$A635:$XFD635 $A636:$XFD636 $A637:$XFD637 $A638:$XFD638 $A639:$XFD639 $A640:$XFD640"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="F133" sqref="F133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="6" max="6" width="26.75" customWidth="1"/>
-    <col min="7" max="7" width="34.8333333333333" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="27.9166666666667" customWidth="1"/>
+    <col min="6" max="6" width="45.25" customWidth="1"/>
+    <col min="7" max="7" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -20653,16 +20811,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M180"/>
+  <dimension ref="A1:M224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C74" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" topLeftCell="B208" workbookViewId="0">
+      <selection activeCell="E224" sqref="E224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="6" max="6" width="35.1666666666667" customWidth="1"/>
-    <col min="8" max="8" width="36.75" customWidth="1"/>
+    <col min="5" max="5" width="48.1666666666667" customWidth="1"/>
+    <col min="6" max="6" width="33.1666666666667" customWidth="1"/>
+    <col min="7" max="7" width="44.4166666666667" customWidth="1"/>
+    <col min="8" max="8" width="49.5" customWidth="1"/>
+    <col min="11" max="11" width="31.5833333333333" customWidth="1"/>
+    <col min="12" max="12" width="26.0833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -22740,231 +22902,306 @@
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="5:12">
+    <row r="81" spans="5:13">
       <c r="E81" t="s">
         <v>889</v>
       </c>
-      <c r="F81" t="s">
-        <v>74</v>
+      <c r="F81">
+        <v>0</v>
       </c>
       <c r="G81" t="s">
+        <v>525</v>
+      </c>
+      <c r="H81" t="s">
+        <v>717</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81" t="s">
+        <v>661</v>
+      </c>
+      <c r="K81" t="s">
+        <v>707</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="82" spans="5:12">
+      <c r="E82" t="s">
+        <v>890</v>
+      </c>
+      <c r="F82" t="s">
+        <v>74</v>
+      </c>
+      <c r="G82" t="s">
         <v>343</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H82" t="s">
         <v>344</v>
       </c>
-      <c r="I81" t="s">
-        <v>73</v>
-      </c>
-      <c r="L81" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" t="s">
+      <c r="I82" t="s">
+        <v>73</v>
+      </c>
+      <c r="L82" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" t="s">
         <v>50</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>51</v>
       </c>
-      <c r="C83" t="s">
-        <v>890</v>
-      </c>
-      <c r="D83" s="1" t="s">
+      <c r="C84" t="s">
+        <v>649</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E84" t="s">
         <v>892</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="F84" t="s">
         <v>893</v>
       </c>
-      <c r="G83" s="3" t="s">
+      <c r="G84" t="s">
         <v>894</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H84" t="s">
         <v>895</v>
       </c>
-      <c r="I83" s="4" t="s">
+      <c r="I84" t="s">
         <v>896</v>
       </c>
-      <c r="J83" t="s">
+      <c r="J84" t="s">
         <v>897</v>
       </c>
-      <c r="K83" t="s">
+      <c r="K84" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85" t="s">
-        <v>50</v>
-      </c>
-      <c r="B85" t="s">
-        <v>51</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="L84" t="s">
         <v>899</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>892</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>893</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>894</v>
+      <c r="M84" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="85" spans="5:13">
+      <c r="E85" t="s">
+        <v>900</v>
+      </c>
+      <c r="F85" t="s">
+        <v>658</v>
+      </c>
+      <c r="G85" t="s">
+        <v>901</v>
       </c>
       <c r="H85" t="s">
-        <v>895</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="J85" t="s">
-        <v>897</v>
+        <v>267</v>
+      </c>
+      <c r="I85" t="s">
+        <v>73</v>
       </c>
       <c r="K85" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="86" spans="5:11">
+        <v>902</v>
+      </c>
+      <c r="L85" t="s">
+        <v>74</v>
+      </c>
+      <c r="M85" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86" spans="5:13">
       <c r="E86" t="s">
-        <v>900</v>
-      </c>
-      <c r="F86" t="str">
-        <f>发送配置!$E$80</f>
-        <v>hmsg_template_server-87</v>
+        <v>903</v>
+      </c>
+      <c r="F86" t="s">
+        <v>664</v>
       </c>
       <c r="G86" t="s">
         <v>901</v>
       </c>
       <c r="H86" t="s">
-        <v>337</v>
+        <v>89</v>
+      </c>
+      <c r="I86" t="s">
+        <v>73</v>
       </c>
       <c r="K86" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" t="s">
-        <v>50</v>
-      </c>
-      <c r="B88" t="s">
-        <v>51</v>
-      </c>
-      <c r="C88" t="s">
-        <v>903</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>892</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>893</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>894</v>
+      <c r="L86" t="s">
+        <v>74</v>
+      </c>
+      <c r="M86" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87" spans="5:13">
+      <c r="E87" t="s">
+        <v>904</v>
+      </c>
+      <c r="F87" t="s">
+        <v>664</v>
+      </c>
+      <c r="G87" t="s">
+        <v>905</v>
+      </c>
+      <c r="H87" t="s">
+        <v>93</v>
+      </c>
+      <c r="L87" t="s">
+        <v>74</v>
+      </c>
+      <c r="M87" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" spans="5:13">
+      <c r="E88" t="s">
+        <v>906</v>
+      </c>
+      <c r="F88" t="s">
+        <v>673</v>
+      </c>
+      <c r="G88" t="s">
+        <v>905</v>
       </c>
       <c r="H88" t="s">
-        <v>895</v>
-      </c>
-      <c r="I88" t="s">
-        <v>896</v>
-      </c>
-      <c r="J88" t="s">
-        <v>897</v>
-      </c>
-      <c r="K88" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="89" spans="5:8">
+        <v>426</v>
+      </c>
+      <c r="L88" t="s">
+        <v>74</v>
+      </c>
+      <c r="M88" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="89" spans="5:13">
       <c r="E89" t="s">
-        <v>904</v>
-      </c>
-      <c r="F89" t="str">
-        <f>发送配置!$E$9</f>
-        <v>hmsg_template_server-9</v>
+        <v>907</v>
+      </c>
+      <c r="F89" t="s">
+        <v>673</v>
       </c>
       <c r="G89" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="H89" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="90" spans="5:8">
+        <v>262</v>
+      </c>
+      <c r="I89" t="s">
+        <v>73</v>
+      </c>
+      <c r="K89" t="s">
+        <v>902</v>
+      </c>
+      <c r="L89" t="s">
+        <v>74</v>
+      </c>
+      <c r="M89" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="90" spans="5:13">
       <c r="E90" t="s">
-        <v>906</v>
-      </c>
-      <c r="F90" t="str">
-        <f>发送配置!$E$10</f>
-        <v>hmsg_template_server-10</v>
+        <v>908</v>
+      </c>
+      <c r="F90" t="s">
+        <v>673</v>
       </c>
       <c r="G90" t="s">
         <v>905</v>
       </c>
       <c r="H90" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="91" spans="5:8">
+        <v>265</v>
+      </c>
+      <c r="L90" t="s">
+        <v>74</v>
+      </c>
+      <c r="M90" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" spans="5:13">
       <c r="E91" t="s">
-        <v>907</v>
-      </c>
-      <c r="F91" t="str">
-        <f>发送配置!$E$11</f>
-        <v>hmsg_template_server-11</v>
+        <v>909</v>
+      </c>
+      <c r="F91" t="s">
+        <v>673</v>
       </c>
       <c r="G91" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="H91" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="92" spans="5:8">
+        <v>258</v>
+      </c>
+      <c r="L91" t="s">
+        <v>74</v>
+      </c>
+      <c r="M91" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="92" spans="5:13">
       <c r="E92" t="s">
-        <v>908</v>
-      </c>
-      <c r="F92" t="str">
-        <f>发送配置!$E$11</f>
-        <v>hmsg_template_server-11</v>
+        <v>911</v>
+      </c>
+      <c r="F92" t="s">
+        <v>673</v>
       </c>
       <c r="G92" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H92" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="93" spans="5:8">
+        <v>255</v>
+      </c>
+      <c r="L92" t="s">
+        <v>74</v>
+      </c>
+      <c r="M92" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="93" spans="5:13">
       <c r="E93" t="s">
-        <v>910</v>
-      </c>
-      <c r="F93" t="str">
-        <f>发送配置!$E$11</f>
-        <v>hmsg_template_server-11</v>
+        <v>912</v>
+      </c>
+      <c r="F93" t="s">
+        <v>678</v>
       </c>
       <c r="G93" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="H93" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="94" spans="5:8">
+        <v>225</v>
+      </c>
+      <c r="I93" t="s">
+        <v>73</v>
+      </c>
+      <c r="K93" t="s">
+        <v>902</v>
+      </c>
+      <c r="L93" t="s">
+        <v>74</v>
+      </c>
+      <c r="M93" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94" spans="5:13">
       <c r="E94" t="s">
-        <v>911</v>
-      </c>
-      <c r="F94" t="str">
-        <f>发送配置!$E$12</f>
-        <v>hmsg_template_server-12</v>
+        <v>913</v>
+      </c>
+      <c r="F94" t="s">
+        <v>678</v>
       </c>
       <c r="G94" t="s">
         <v>905</v>
@@ -22972,44 +23209,59 @@
       <c r="H94" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="95" spans="5:8">
+      <c r="L94" t="s">
+        <v>74</v>
+      </c>
+      <c r="M94" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="95" spans="5:13">
       <c r="E95" t="s">
-        <v>912</v>
-      </c>
-      <c r="F95" t="str">
-        <f>发送配置!$E$12</f>
-        <v>hmsg_template_server-12</v>
+        <v>914</v>
+      </c>
+      <c r="F95" t="s">
+        <v>678</v>
       </c>
       <c r="G95" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H95" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="96" spans="5:8">
+      <c r="L95" t="s">
+        <v>74</v>
+      </c>
+      <c r="M95" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="96" spans="5:13">
       <c r="E96" t="s">
-        <v>913</v>
-      </c>
-      <c r="F96" t="str">
-        <f>发送配置!$E$12</f>
-        <v>hmsg_template_server-12</v>
+        <v>915</v>
+      </c>
+      <c r="F96" t="s">
+        <v>678</v>
       </c>
       <c r="G96" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H96" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="97" spans="5:8">
+      <c r="L96" t="s">
+        <v>74</v>
+      </c>
+      <c r="M96" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="97" spans="5:13">
       <c r="E97" t="s">
-        <v>914</v>
-      </c>
-      <c r="F97" t="str">
-        <f>发送配置!$E$13</f>
-        <v>hmsg_template_server-13</v>
+        <v>916</v>
+      </c>
+      <c r="F97" t="s">
+        <v>681</v>
       </c>
       <c r="G97" t="s">
         <v>905</v>
@@ -23017,44 +23269,59 @@
       <c r="H97" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="98" spans="5:8">
+      <c r="L97" t="s">
+        <v>74</v>
+      </c>
+      <c r="M97" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="98" spans="5:13">
       <c r="E98" t="s">
-        <v>915</v>
-      </c>
-      <c r="F98" t="str">
-        <f>发送配置!$E$13</f>
-        <v>hmsg_template_server-13</v>
+        <v>917</v>
+      </c>
+      <c r="F98" t="s">
+        <v>681</v>
       </c>
       <c r="G98" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H98" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="99" spans="5:8">
+      <c r="L98" t="s">
+        <v>74</v>
+      </c>
+      <c r="M98" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="99" spans="5:13">
       <c r="E99" t="s">
-        <v>916</v>
-      </c>
-      <c r="F99" t="str">
-        <f>发送配置!$E$13</f>
-        <v>hmsg_template_server-13</v>
+        <v>918</v>
+      </c>
+      <c r="F99" t="s">
+        <v>681</v>
       </c>
       <c r="G99" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H99" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="100" spans="5:8">
+      <c r="L99" t="s">
+        <v>74</v>
+      </c>
+      <c r="M99" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100" spans="5:13">
       <c r="E100" t="s">
-        <v>917</v>
-      </c>
-      <c r="F100" t="str">
-        <f>发送配置!$E$14</f>
-        <v>hmsg_template_server-14</v>
+        <v>919</v>
+      </c>
+      <c r="F100" t="s">
+        <v>685</v>
       </c>
       <c r="G100" t="s">
         <v>905</v>
@@ -23062,1205 +23329,2683 @@
       <c r="H100" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="101" spans="5:8">
+      <c r="L100" t="s">
+        <v>74</v>
+      </c>
+      <c r="M100" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="101" spans="5:13">
       <c r="E101" t="s">
-        <v>918</v>
-      </c>
-      <c r="F101" t="str">
-        <f>发送配置!$E$14</f>
-        <v>hmsg_template_server-14</v>
+        <v>920</v>
+      </c>
+      <c r="F101" t="s">
+        <v>685</v>
       </c>
       <c r="G101" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H101" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="102" spans="5:8">
+      <c r="L101" t="s">
+        <v>74</v>
+      </c>
+      <c r="M101" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="102" spans="5:13">
       <c r="E102" t="s">
-        <v>919</v>
-      </c>
-      <c r="F102" t="str">
-        <f>发送配置!$E$14</f>
-        <v>hmsg_template_server-14</v>
+        <v>921</v>
+      </c>
+      <c r="F102" t="s">
+        <v>685</v>
       </c>
       <c r="G102" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H102" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="103" spans="5:8">
+      <c r="L102" t="s">
+        <v>74</v>
+      </c>
+      <c r="M102" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="103" spans="5:13">
       <c r="E103" t="s">
-        <v>920</v>
-      </c>
-      <c r="F103" t="str">
-        <f>发送配置!$E$15</f>
-        <v>hmsg_template_server-15</v>
+        <v>922</v>
+      </c>
+      <c r="F103" t="s">
+        <v>689</v>
       </c>
       <c r="G103" t="s">
+        <v>901</v>
+      </c>
+      <c r="H103" t="s">
+        <v>385</v>
+      </c>
+      <c r="I103" t="s">
+        <v>73</v>
+      </c>
+      <c r="K103" t="s">
+        <v>902</v>
+      </c>
+      <c r="L103" t="s">
+        <v>73</v>
+      </c>
+      <c r="M103" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="104" spans="5:13">
+      <c r="E104" t="s">
+        <v>923</v>
+      </c>
+      <c r="F104" t="s">
+        <v>689</v>
+      </c>
+      <c r="G104" t="s">
         <v>905</v>
       </c>
-      <c r="H103" t="s">
+      <c r="H104" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="104" spans="5:8">
-      <c r="E104" t="s">
-        <v>921</v>
-      </c>
-      <c r="F104" t="str">
-        <f>发送配置!$E$15</f>
-        <v>hmsg_template_server-15</v>
-      </c>
-      <c r="G104" t="s">
-        <v>909</v>
-      </c>
-      <c r="H104" t="s">
+      <c r="L104" t="s">
+        <v>73</v>
+      </c>
+      <c r="M104" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="105" spans="5:13">
+      <c r="E105" t="s">
+        <v>924</v>
+      </c>
+      <c r="F105" t="s">
+        <v>689</v>
+      </c>
+      <c r="G105" t="s">
+        <v>910</v>
+      </c>
+      <c r="H105" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="105" spans="5:8">
-      <c r="E105" t="s">
-        <v>922</v>
-      </c>
-      <c r="F105" t="str">
-        <f>发送配置!$E$15</f>
-        <v>hmsg_template_server-15</v>
-      </c>
-      <c r="G105" t="s">
-        <v>909</v>
-      </c>
-      <c r="H105" t="s">
+      <c r="L105" t="s">
+        <v>73</v>
+      </c>
+      <c r="M105" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="106" spans="5:13">
+      <c r="E106" t="s">
+        <v>925</v>
+      </c>
+      <c r="F106" t="s">
+        <v>689</v>
+      </c>
+      <c r="G106" t="s">
+        <v>910</v>
+      </c>
+      <c r="H106" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="106" spans="5:8">
-      <c r="E106" t="s">
-        <v>923</v>
-      </c>
-      <c r="F106" t="str">
-        <f>发送配置!$E$16</f>
-        <v>hmsg_template_server-16</v>
-      </c>
-      <c r="G106" t="s">
+      <c r="L106" t="s">
+        <v>73</v>
+      </c>
+      <c r="M106" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="107" spans="5:13">
+      <c r="E107" t="s">
+        <v>926</v>
+      </c>
+      <c r="F107" t="s">
+        <v>693</v>
+      </c>
+      <c r="G107" t="s">
+        <v>901</v>
+      </c>
+      <c r="H107" t="s">
+        <v>373</v>
+      </c>
+      <c r="I107" t="s">
+        <v>73</v>
+      </c>
+      <c r="K107" t="s">
+        <v>902</v>
+      </c>
+      <c r="L107" t="s">
+        <v>73</v>
+      </c>
+      <c r="M107" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="108" spans="5:13">
+      <c r="E108" t="s">
+        <v>927</v>
+      </c>
+      <c r="F108" t="s">
+        <v>693</v>
+      </c>
+      <c r="G108" t="s">
         <v>905</v>
       </c>
-      <c r="H106" t="s">
+      <c r="H108" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="107" spans="5:8">
-      <c r="E107" t="s">
-        <v>924</v>
-      </c>
-      <c r="F107" t="str">
-        <f>发送配置!$E$16</f>
-        <v>hmsg_template_server-16</v>
-      </c>
-      <c r="G107" t="s">
-        <v>909</v>
-      </c>
-      <c r="H107" t="s">
+      <c r="L108" t="s">
+        <v>73</v>
+      </c>
+      <c r="M108" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="109" spans="5:13">
+      <c r="E109" t="s">
+        <v>928</v>
+      </c>
+      <c r="F109" t="s">
+        <v>693</v>
+      </c>
+      <c r="G109" t="s">
+        <v>910</v>
+      </c>
+      <c r="H109" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="108" spans="5:8">
-      <c r="E108" t="s">
-        <v>925</v>
-      </c>
-      <c r="F108" t="str">
-        <f>发送配置!$E$16</f>
-        <v>hmsg_template_server-16</v>
-      </c>
-      <c r="G108" t="s">
-        <v>909</v>
-      </c>
-      <c r="H108" t="s">
+      <c r="L109" t="s">
+        <v>73</v>
+      </c>
+      <c r="M109" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="110" spans="5:13">
+      <c r="E110" t="s">
+        <v>929</v>
+      </c>
+      <c r="F110" t="s">
+        <v>693</v>
+      </c>
+      <c r="G110" t="s">
+        <v>910</v>
+      </c>
+      <c r="H110" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="109" spans="5:8">
-      <c r="E109" t="s">
-        <v>926</v>
-      </c>
-      <c r="F109" t="str">
-        <f>发送配置!$E$17</f>
-        <v>hmsg_template_server-17</v>
-      </c>
-      <c r="G109" t="s">
-        <v>905</v>
-      </c>
-      <c r="H109" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="110" spans="5:8">
-      <c r="E110" t="s">
-        <v>927</v>
-      </c>
-      <c r="F110" t="str">
-        <f>发送配置!$E$17</f>
-        <v>hmsg_template_server-17</v>
-      </c>
-      <c r="G110" t="s">
-        <v>909</v>
-      </c>
-      <c r="H110" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="111" spans="5:8">
+      <c r="L110" t="s">
+        <v>73</v>
+      </c>
+      <c r="M110" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="111" spans="5:13">
       <c r="E111" t="s">
-        <v>928</v>
-      </c>
-      <c r="F111" t="str">
-        <f>发送配置!$E$17</f>
-        <v>hmsg_template_server-17</v>
+        <v>930</v>
+      </c>
+      <c r="F111" t="s">
+        <v>696</v>
       </c>
       <c r="G111" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="H111" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="112" spans="5:8">
+        <v>397</v>
+      </c>
+      <c r="I111" t="s">
+        <v>73</v>
+      </c>
+      <c r="K111" t="s">
+        <v>902</v>
+      </c>
+      <c r="L111" t="s">
+        <v>73</v>
+      </c>
+      <c r="M111" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="112" spans="5:13">
       <c r="E112" t="s">
-        <v>929</v>
-      </c>
-      <c r="F112" t="str">
-        <f>发送配置!$E$19</f>
-        <v>hmsg_template_server-19</v>
+        <v>931</v>
+      </c>
+      <c r="F112" t="s">
+        <v>696</v>
       </c>
       <c r="G112" t="s">
         <v>905</v>
       </c>
       <c r="H112" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="113" spans="5:8">
+        <v>400</v>
+      </c>
+      <c r="L112" t="s">
+        <v>73</v>
+      </c>
+      <c r="M112" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="113" spans="5:13">
       <c r="E113" t="s">
-        <v>930</v>
-      </c>
-      <c r="F113" t="str">
-        <f>发送配置!$E$20</f>
-        <v>hmsg_template_server-20</v>
+        <v>932</v>
+      </c>
+      <c r="F113" t="s">
+        <v>696</v>
       </c>
       <c r="G113" t="s">
+        <v>910</v>
+      </c>
+      <c r="H113" t="s">
+        <v>393</v>
+      </c>
+      <c r="L113" t="s">
+        <v>73</v>
+      </c>
+      <c r="M113" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="114" spans="5:13">
+      <c r="E114" t="s">
+        <v>933</v>
+      </c>
+      <c r="F114" t="s">
+        <v>696</v>
+      </c>
+      <c r="G114" t="s">
+        <v>910</v>
+      </c>
+      <c r="H114" t="s">
+        <v>390</v>
+      </c>
+      <c r="L114" t="s">
+        <v>73</v>
+      </c>
+      <c r="M114" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="115" spans="5:13">
+      <c r="E115" t="s">
+        <v>934</v>
+      </c>
+      <c r="F115" t="s">
+        <v>699</v>
+      </c>
+      <c r="G115" t="s">
         <v>905</v>
       </c>
-      <c r="H113" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="114" spans="5:8">
-      <c r="E114" t="s">
-        <v>931</v>
-      </c>
-      <c r="F114" t="str">
-        <f>发送配置!$E$20</f>
-        <v>hmsg_template_server-20</v>
-      </c>
-      <c r="G114" t="s">
-        <v>909</v>
-      </c>
-      <c r="H114" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="115" spans="5:8">
-      <c r="E115" t="s">
-        <v>932</v>
-      </c>
-      <c r="F115" t="str">
-        <f>发送配置!$E$20</f>
-        <v>hmsg_template_server-20</v>
-      </c>
-      <c r="G115" t="s">
-        <v>909</v>
-      </c>
       <c r="H115" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="116" spans="5:8">
+        <v>554</v>
+      </c>
+      <c r="L115" t="s">
+        <v>74</v>
+      </c>
+      <c r="M115" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="116" spans="5:13">
       <c r="E116" t="s">
-        <v>933</v>
-      </c>
-      <c r="F116" t="str">
-        <f>发送配置!$E$21</f>
-        <v>hmsg_template_server-21</v>
+        <v>935</v>
+      </c>
+      <c r="F116" t="s">
+        <v>704</v>
       </c>
       <c r="G116" t="s">
         <v>905</v>
       </c>
       <c r="H116" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="117" spans="5:8">
+        <v>412</v>
+      </c>
+      <c r="L116" t="s">
+        <v>74</v>
+      </c>
+      <c r="M116" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="117" spans="5:13">
       <c r="E117" t="s">
-        <v>934</v>
-      </c>
-      <c r="F117" t="str">
-        <f>发送配置!$E$22</f>
-        <v>hmsg_template_server-22</v>
+        <v>936</v>
+      </c>
+      <c r="F117" t="s">
+        <v>709</v>
       </c>
       <c r="G117" t="s">
         <v>905</v>
       </c>
       <c r="H117" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="118" spans="5:8">
+        <v>410</v>
+      </c>
+      <c r="L117" t="s">
+        <v>74</v>
+      </c>
+      <c r="M117" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="118" spans="5:13">
       <c r="E118" t="s">
-        <v>935</v>
-      </c>
-      <c r="F118" t="str">
-        <f>发送配置!$E$23</f>
-        <v>hmsg_template_server-27</v>
+        <v>937</v>
+      </c>
+      <c r="F118" t="s">
+        <v>709</v>
       </c>
       <c r="G118" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="H118" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="119" spans="5:8">
+        <v>406</v>
+      </c>
+      <c r="L118" t="s">
+        <v>74</v>
+      </c>
+      <c r="M118" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="119" spans="5:13">
       <c r="E119" t="s">
-        <v>936</v>
-      </c>
-      <c r="F119" t="str">
-        <f>发送配置!$E$24</f>
-        <v>hmsg_template_server-29</v>
+        <v>938</v>
+      </c>
+      <c r="F119" t="s">
+        <v>709</v>
       </c>
       <c r="G119" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="H119" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="120" spans="5:8">
+        <v>402</v>
+      </c>
+      <c r="L119" t="s">
+        <v>74</v>
+      </c>
+      <c r="M119" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="120" spans="5:13">
       <c r="E120" t="s">
-        <v>937</v>
-      </c>
-      <c r="F120" t="str">
-        <f>发送配置!$E$24</f>
-        <v>hmsg_template_server-29</v>
+        <v>939</v>
+      </c>
+      <c r="F120" t="s">
+        <v>712</v>
       </c>
       <c r="G120" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="H120" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="121" spans="5:8">
+        <v>503</v>
+      </c>
+      <c r="I120" t="s">
+        <v>73</v>
+      </c>
+      <c r="K120" t="s">
+        <v>902</v>
+      </c>
+      <c r="L120" t="s">
+        <v>74</v>
+      </c>
+      <c r="M120" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="121" spans="5:13">
       <c r="E121" t="s">
-        <v>938</v>
-      </c>
-      <c r="F121" t="str">
-        <f>发送配置!$E$25</f>
-        <v>hmsg_template_server-30</v>
+        <v>940</v>
+      </c>
+      <c r="F121" t="s">
+        <v>712</v>
       </c>
       <c r="G121" t="s">
         <v>905</v>
       </c>
       <c r="H121" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="122" spans="5:8">
+        <v>507</v>
+      </c>
+      <c r="L121" t="s">
+        <v>74</v>
+      </c>
+      <c r="M121" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="122" spans="5:13">
       <c r="E122" t="s">
-        <v>939</v>
-      </c>
-      <c r="F122" t="str">
-        <f>发送配置!$E$25</f>
-        <v>hmsg_template_server-30</v>
+        <v>941</v>
+      </c>
+      <c r="F122" t="s">
+        <v>715</v>
       </c>
       <c r="G122" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="H122" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="123" spans="5:8">
+        <v>529</v>
+      </c>
+      <c r="L122" t="s">
+        <v>74</v>
+      </c>
+      <c r="M122" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="123" spans="5:13">
       <c r="E123" t="s">
-        <v>940</v>
-      </c>
-      <c r="F123" t="str">
-        <f>发送配置!$E$26</f>
-        <v>hmsg_template_server-31</v>
+        <v>942</v>
+      </c>
+      <c r="F123" t="s">
+        <v>719</v>
       </c>
       <c r="G123" t="s">
+        <v>901</v>
+      </c>
+      <c r="H123" t="s">
+        <v>510</v>
+      </c>
+      <c r="I123" t="s">
+        <v>73</v>
+      </c>
+      <c r="K123" t="s">
+        <v>902</v>
+      </c>
+      <c r="L123" t="s">
+        <v>74</v>
+      </c>
+      <c r="M123" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="124" spans="5:13">
+      <c r="E124" t="s">
+        <v>943</v>
+      </c>
+      <c r="F124" t="s">
+        <v>719</v>
+      </c>
+      <c r="G124" t="s">
         <v>905</v>
       </c>
-      <c r="H123" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="124" spans="5:8">
-      <c r="E124" t="s">
-        <v>941</v>
-      </c>
-      <c r="F124" t="str">
-        <f>发送配置!$E$26</f>
-        <v>hmsg_template_server-31</v>
-      </c>
-      <c r="G124" t="s">
-        <v>909</v>
-      </c>
       <c r="H124" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="125" spans="5:8">
+        <v>519</v>
+      </c>
+      <c r="L124" t="s">
+        <v>74</v>
+      </c>
+      <c r="M124" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="125" spans="5:13">
       <c r="E125" t="s">
-        <v>942</v>
-      </c>
-      <c r="F125" t="str">
-        <f>发送配置!$E$26</f>
-        <v>hmsg_template_server-31</v>
+        <v>944</v>
+      </c>
+      <c r="F125" t="s">
+        <v>719</v>
       </c>
       <c r="G125" t="s">
-        <v>909</v>
+        <v>945</v>
       </c>
       <c r="H125" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="126" spans="5:8">
+        <v>514</v>
+      </c>
+      <c r="I125" t="s">
+        <v>73</v>
+      </c>
+      <c r="K125" t="s">
+        <v>946</v>
+      </c>
+      <c r="L125" t="s">
+        <v>74</v>
+      </c>
+      <c r="M125" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="126" spans="5:13">
       <c r="E126" t="s">
-        <v>943</v>
-      </c>
-      <c r="F126" t="str">
-        <f>发送配置!$E$27</f>
-        <v>hmsg_template_server-32</v>
+        <v>947</v>
+      </c>
+      <c r="F126" t="s">
+        <v>723</v>
       </c>
       <c r="G126" t="s">
+        <v>901</v>
+      </c>
+      <c r="H126" t="s">
+        <v>454</v>
+      </c>
+      <c r="I126" t="s">
+        <v>73</v>
+      </c>
+      <c r="K126" t="s">
+        <v>902</v>
+      </c>
+      <c r="L126" t="s">
+        <v>74</v>
+      </c>
+      <c r="M126" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="127" spans="5:13">
+      <c r="E127" t="s">
+        <v>948</v>
+      </c>
+      <c r="F127" t="s">
+        <v>723</v>
+      </c>
+      <c r="G127" t="s">
         <v>905</v>
       </c>
-      <c r="H126" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="127" spans="5:8">
-      <c r="E127" t="s">
-        <v>944</v>
-      </c>
-      <c r="F127" t="str">
-        <f>发送配置!$E$27</f>
-        <v>hmsg_template_server-32</v>
-      </c>
-      <c r="G127" t="s">
-        <v>909</v>
-      </c>
       <c r="H127" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="128" spans="5:8">
+        <v>457</v>
+      </c>
+      <c r="L127" t="s">
+        <v>74</v>
+      </c>
+      <c r="M127" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="128" spans="5:13">
       <c r="E128" t="s">
-        <v>945</v>
-      </c>
-      <c r="F128" t="str">
-        <f>发送配置!$E$27</f>
-        <v>hmsg_template_server-32</v>
+        <v>949</v>
+      </c>
+      <c r="F128" t="s">
+        <v>723</v>
       </c>
       <c r="G128" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H128" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="129" spans="5:8">
+        <v>450</v>
+      </c>
+      <c r="L128" t="s">
+        <v>74</v>
+      </c>
+      <c r="M128" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="129" spans="5:13">
       <c r="E129" t="s">
-        <v>946</v>
-      </c>
-      <c r="F129" t="str">
-        <f>发送配置!$E$28</f>
-        <v>hmsg_template_server-33</v>
+        <v>950</v>
+      </c>
+      <c r="F129" t="s">
+        <v>727</v>
       </c>
       <c r="G129" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="H129" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="130" spans="5:8">
+        <v>464</v>
+      </c>
+      <c r="I129" t="s">
+        <v>73</v>
+      </c>
+      <c r="K129" t="s">
+        <v>902</v>
+      </c>
+      <c r="L129" t="s">
+        <v>74</v>
+      </c>
+      <c r="M129" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="130" spans="5:13">
       <c r="E130" t="s">
-        <v>947</v>
-      </c>
-      <c r="F130" t="str">
-        <f>发送配置!$E$30</f>
-        <v>hmsg_template_server-37</v>
+        <v>951</v>
+      </c>
+      <c r="F130" t="s">
+        <v>727</v>
       </c>
       <c r="G130" t="s">
         <v>905</v>
       </c>
       <c r="H130" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="131" spans="5:8">
+        <v>467</v>
+      </c>
+      <c r="L130" t="s">
+        <v>74</v>
+      </c>
+      <c r="M130" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="131" spans="5:13">
       <c r="E131" t="s">
-        <v>948</v>
-      </c>
-      <c r="F131" t="str">
-        <f>发送配置!$E$30</f>
-        <v>hmsg_template_server-37</v>
+        <v>952</v>
+      </c>
+      <c r="F131" t="s">
+        <v>727</v>
       </c>
       <c r="G131" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H131" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="132" spans="5:8">
+        <v>461</v>
+      </c>
+      <c r="L131" t="s">
+        <v>74</v>
+      </c>
+      <c r="M131" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="132" spans="5:13">
       <c r="E132" t="s">
-        <v>949</v>
-      </c>
-      <c r="F132" t="str">
-        <f>发送配置!$E$30</f>
-        <v>hmsg_template_server-37</v>
+        <v>953</v>
+      </c>
+      <c r="F132" t="s">
+        <v>730</v>
       </c>
       <c r="G132" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="H132" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="133" spans="5:8">
+        <v>477</v>
+      </c>
+      <c r="I132" t="s">
+        <v>73</v>
+      </c>
+      <c r="K132" t="s">
+        <v>902</v>
+      </c>
+      <c r="L132" t="s">
+        <v>74</v>
+      </c>
+      <c r="M132" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="133" spans="5:13">
       <c r="E133" t="s">
-        <v>950</v>
-      </c>
-      <c r="F133" t="str">
-        <f>发送配置!$E$31</f>
-        <v>hmsg_template_server-38</v>
+        <v>954</v>
+      </c>
+      <c r="F133" t="s">
+        <v>730</v>
       </c>
       <c r="G133" t="s">
         <v>905</v>
       </c>
       <c r="H133" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="134" spans="5:8">
+        <v>480</v>
+      </c>
+      <c r="L133" t="s">
+        <v>74</v>
+      </c>
+      <c r="M133" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="134" spans="5:13">
       <c r="E134" t="s">
-        <v>951</v>
-      </c>
-      <c r="F134" t="str">
-        <f>发送配置!$E$32</f>
-        <v>hmsg_template_server-39</v>
+        <v>955</v>
+      </c>
+      <c r="F134" t="s">
+        <v>730</v>
       </c>
       <c r="G134" t="s">
+        <v>910</v>
+      </c>
+      <c r="H134" t="s">
+        <v>473</v>
+      </c>
+      <c r="L134" t="s">
+        <v>74</v>
+      </c>
+      <c r="M134" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="135" spans="5:13">
+      <c r="E135" t="s">
+        <v>956</v>
+      </c>
+      <c r="F135" t="s">
+        <v>730</v>
+      </c>
+      <c r="G135" t="s">
+        <v>910</v>
+      </c>
+      <c r="H135" t="s">
+        <v>470</v>
+      </c>
+      <c r="L135" t="s">
+        <v>74</v>
+      </c>
+      <c r="M135" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="136" spans="5:13">
+      <c r="E136" t="s">
+        <v>957</v>
+      </c>
+      <c r="F136" t="s">
+        <v>733</v>
+      </c>
+      <c r="G136" t="s">
+        <v>901</v>
+      </c>
+      <c r="H136" t="s">
+        <v>445</v>
+      </c>
+      <c r="I136" t="s">
+        <v>73</v>
+      </c>
+      <c r="K136" t="s">
+        <v>902</v>
+      </c>
+      <c r="L136" t="s">
+        <v>74</v>
+      </c>
+      <c r="M136" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="137" spans="5:13">
+      <c r="E137" t="s">
+        <v>958</v>
+      </c>
+      <c r="F137" t="s">
+        <v>733</v>
+      </c>
+      <c r="G137" t="s">
         <v>905</v>
       </c>
-      <c r="H134" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="135" spans="5:8">
-      <c r="E135" t="s">
-        <v>952</v>
-      </c>
-      <c r="F135" t="str">
-        <f>发送配置!$E$33</f>
-        <v>hmsg_template_server-40</v>
-      </c>
-      <c r="G135" t="s">
-        <v>905</v>
-      </c>
-      <c r="H135" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="136" spans="5:8">
-      <c r="E136" t="s">
-        <v>953</v>
-      </c>
-      <c r="F136" t="str">
-        <f>发送配置!$E$34</f>
-        <v>hmsg_template_server-41</v>
-      </c>
-      <c r="G136" t="s">
-        <v>905</v>
-      </c>
-      <c r="H136" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="137" spans="5:8">
-      <c r="E137" t="s">
-        <v>954</v>
-      </c>
-      <c r="F137" t="str">
-        <f>发送配置!$E$34</f>
-        <v>hmsg_template_server-41</v>
-      </c>
-      <c r="G137" t="s">
-        <v>909</v>
-      </c>
       <c r="H137" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="138" spans="5:8">
+        <v>448</v>
+      </c>
+      <c r="L137" t="s">
+        <v>74</v>
+      </c>
+      <c r="M137" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="138" spans="5:13">
       <c r="E138" t="s">
-        <v>955</v>
-      </c>
-      <c r="F138" t="str">
-        <f>发送配置!$E$35</f>
-        <v>hmsg_template_server-42</v>
+        <v>959</v>
+      </c>
+      <c r="F138" t="s">
+        <v>733</v>
       </c>
       <c r="G138" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="H138" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="139" spans="5:8">
+        <v>441</v>
+      </c>
+      <c r="L138" t="s">
+        <v>74</v>
+      </c>
+      <c r="M138" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="139" spans="5:13">
       <c r="E139" t="s">
-        <v>956</v>
-      </c>
-      <c r="F139" t="str">
-        <f>发送配置!$E$36</f>
-        <v>hmsg_template_server-43</v>
+        <v>960</v>
+      </c>
+      <c r="F139" t="s">
+        <v>733</v>
       </c>
       <c r="G139" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="H139" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="140" spans="5:8">
+        <v>436</v>
+      </c>
+      <c r="L139" t="s">
+        <v>74</v>
+      </c>
+      <c r="M139" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="140" spans="5:13">
       <c r="E140" t="s">
-        <v>957</v>
-      </c>
-      <c r="F140" t="str">
-        <f>发送配置!$E$37</f>
-        <v>hmsg_template_server-44</v>
+        <v>961</v>
+      </c>
+      <c r="F140" t="s">
+        <v>736</v>
       </c>
       <c r="G140" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="H140" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="141" spans="5:8">
+        <v>429</v>
+      </c>
+      <c r="I140" t="s">
+        <v>73</v>
+      </c>
+      <c r="K140" t="s">
+        <v>902</v>
+      </c>
+      <c r="L140" t="s">
+        <v>74</v>
+      </c>
+      <c r="M140" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="141" spans="5:13">
       <c r="E141" t="s">
-        <v>958</v>
-      </c>
-      <c r="F141" t="str">
-        <f>发送配置!$E$38</f>
-        <v>hmsg_template_server-45</v>
+        <v>962</v>
+      </c>
+      <c r="F141" t="s">
+        <v>736</v>
       </c>
       <c r="G141" t="s">
         <v>905</v>
       </c>
       <c r="H141" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="142" spans="5:8">
+        <v>432</v>
+      </c>
+      <c r="L141" t="s">
+        <v>74</v>
+      </c>
+      <c r="M141" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="142" spans="5:13">
       <c r="E142" t="s">
-        <v>959</v>
-      </c>
-      <c r="F142" t="str">
-        <f>发送配置!$E$39</f>
-        <v>hmsg_template_server-46</v>
+        <v>963</v>
+      </c>
+      <c r="F142" t="s">
+        <v>739</v>
       </c>
       <c r="G142" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="H142" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="143" spans="5:8">
+        <v>360</v>
+      </c>
+      <c r="I142" t="s">
+        <v>73</v>
+      </c>
+      <c r="K142" t="s">
+        <v>902</v>
+      </c>
+      <c r="L142" t="s">
+        <v>74</v>
+      </c>
+      <c r="M142" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="143" spans="5:13">
       <c r="E143" t="s">
-        <v>960</v>
-      </c>
-      <c r="F143" t="str">
-        <f>发送配置!$E$39</f>
-        <v>hmsg_template_server-46</v>
+        <v>964</v>
+      </c>
+      <c r="F143" t="s">
+        <v>743</v>
       </c>
       <c r="G143" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="H143" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="144" spans="5:8">
+        <v>238</v>
+      </c>
+      <c r="I143" t="s">
+        <v>73</v>
+      </c>
+      <c r="K143" t="s">
+        <v>902</v>
+      </c>
+      <c r="L143" t="s">
+        <v>74</v>
+      </c>
+      <c r="M143" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="144" spans="5:13">
       <c r="E144" t="s">
-        <v>961</v>
-      </c>
-      <c r="F144" t="str">
-        <f>发送配置!$E$40</f>
-        <v>hmsg_template_server-47</v>
+        <v>965</v>
+      </c>
+      <c r="F144" t="s">
+        <v>743</v>
       </c>
       <c r="G144" t="s">
         <v>905</v>
       </c>
       <c r="H144" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="145" spans="5:8">
+        <v>241</v>
+      </c>
+      <c r="L144" t="s">
+        <v>74</v>
+      </c>
+      <c r="M144" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="145" spans="5:13">
       <c r="E145" t="s">
-        <v>962</v>
-      </c>
-      <c r="F145" t="str">
-        <f>发送配置!$E$40</f>
-        <v>hmsg_template_server-47</v>
+        <v>966</v>
+      </c>
+      <c r="F145" t="s">
+        <v>743</v>
       </c>
       <c r="G145" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H145" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="146" spans="5:8">
+        <v>234</v>
+      </c>
+      <c r="L145" t="s">
+        <v>74</v>
+      </c>
+      <c r="M145" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="146" spans="5:13">
       <c r="E146" t="s">
-        <v>963</v>
-      </c>
-      <c r="F146" t="str">
-        <f>发送配置!$E$40</f>
-        <v>hmsg_template_server-47</v>
+        <v>967</v>
+      </c>
+      <c r="F146" t="s">
+        <v>743</v>
       </c>
       <c r="G146" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H146" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="147" spans="5:8">
+        <v>231</v>
+      </c>
+      <c r="L146" t="s">
+        <v>74</v>
+      </c>
+      <c r="M146" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="147" spans="5:13">
       <c r="E147" t="s">
-        <v>964</v>
-      </c>
-      <c r="F147" t="str">
-        <f>发送配置!$E$41</f>
-        <v>hmsg_template_server-48</v>
+        <v>968</v>
+      </c>
+      <c r="F147" t="s">
+        <v>748</v>
       </c>
       <c r="G147" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="H147" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="148" spans="5:8">
+        <v>420</v>
+      </c>
+      <c r="I147" t="s">
+        <v>73</v>
+      </c>
+      <c r="K147" t="s">
+        <v>902</v>
+      </c>
+      <c r="L147" t="s">
+        <v>74</v>
+      </c>
+      <c r="M147" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="148" spans="5:13">
       <c r="E148" t="s">
-        <v>965</v>
-      </c>
-      <c r="F148" t="str">
-        <f>发送配置!$E$42</f>
-        <v>hmsg_template_server-49</v>
+        <v>969</v>
+      </c>
+      <c r="F148" t="s">
+        <v>748</v>
       </c>
       <c r="G148" t="s">
         <v>905</v>
       </c>
       <c r="H148" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="149" spans="5:8">
+        <v>423</v>
+      </c>
+      <c r="L148" t="s">
+        <v>74</v>
+      </c>
+      <c r="M148" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="149" spans="5:13">
       <c r="E149" t="s">
-        <v>966</v>
-      </c>
-      <c r="F149" t="str">
-        <f>发送配置!$E$42</f>
-        <v>hmsg_template_server-49</v>
+        <v>970</v>
+      </c>
+      <c r="F149" t="s">
+        <v>753</v>
       </c>
       <c r="G149" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="H149" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="150" spans="5:8">
+        <v>354</v>
+      </c>
+      <c r="I149" t="s">
+        <v>73</v>
+      </c>
+      <c r="K149" t="s">
+        <v>902</v>
+      </c>
+      <c r="L149" t="s">
+        <v>74</v>
+      </c>
+      <c r="M149" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="150" spans="5:13">
       <c r="E150" t="s">
-        <v>967</v>
-      </c>
-      <c r="F150" t="str">
-        <f>发送配置!$E$43</f>
-        <v>hmsg_template_server-50</v>
+        <v>971</v>
+      </c>
+      <c r="F150" t="s">
+        <v>753</v>
       </c>
       <c r="G150" t="s">
         <v>905</v>
       </c>
       <c r="H150" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="151" spans="5:8">
+        <v>357</v>
+      </c>
+      <c r="L150" t="s">
+        <v>74</v>
+      </c>
+      <c r="M150" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="151" spans="5:13">
       <c r="E151" t="s">
-        <v>968</v>
-      </c>
-      <c r="F151" t="str">
-        <f>发送配置!$E$44</f>
-        <v>hmsg_template_server-51</v>
+        <v>972</v>
+      </c>
+      <c r="F151" t="s">
+        <v>758</v>
       </c>
       <c r="G151" t="s">
+        <v>901</v>
+      </c>
+      <c r="H151" t="s">
+        <v>414</v>
+      </c>
+      <c r="I151" t="s">
+        <v>73</v>
+      </c>
+      <c r="K151" t="s">
+        <v>902</v>
+      </c>
+      <c r="L151" t="s">
+        <v>74</v>
+      </c>
+      <c r="M151" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="152" spans="5:13">
+      <c r="E152" t="s">
+        <v>973</v>
+      </c>
+      <c r="F152" t="s">
+        <v>758</v>
+      </c>
+      <c r="G152" t="s">
         <v>905</v>
       </c>
-      <c r="H151" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="152" spans="5:8">
-      <c r="E152" t="s">
-        <v>969</v>
-      </c>
-      <c r="F152" t="str">
-        <f>发送配置!$E$44</f>
-        <v>hmsg_template_server-51</v>
-      </c>
-      <c r="G152" t="s">
-        <v>909</v>
-      </c>
       <c r="H152" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="153" spans="5:8">
+        <v>417</v>
+      </c>
+      <c r="L152" t="s">
+        <v>74</v>
+      </c>
+      <c r="M152" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="153" spans="5:13">
       <c r="E153" t="s">
-        <v>970</v>
-      </c>
-      <c r="F153" t="str">
-        <f>发送配置!$E$45</f>
-        <v>hmsg_template_server-52</v>
+        <v>974</v>
+      </c>
+      <c r="F153" t="s">
+        <v>762</v>
       </c>
       <c r="G153" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="H153" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="154" spans="5:8">
+        <v>274</v>
+      </c>
+      <c r="I153" t="s">
+        <v>73</v>
+      </c>
+      <c r="K153" t="s">
+        <v>902</v>
+      </c>
+      <c r="L153" t="s">
+        <v>74</v>
+      </c>
+      <c r="M153" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="154" spans="5:13">
       <c r="E154" t="s">
-        <v>971</v>
-      </c>
-      <c r="F154" t="str">
-        <f>发送配置!$E$46</f>
-        <v>hmsg_template_server-53</v>
+        <v>975</v>
+      </c>
+      <c r="F154" t="s">
+        <v>762</v>
       </c>
       <c r="G154" t="s">
         <v>905</v>
       </c>
       <c r="H154" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="155" spans="5:8">
+        <v>277</v>
+      </c>
+      <c r="L154" t="s">
+        <v>74</v>
+      </c>
+      <c r="M154" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="155" spans="5:13">
       <c r="E155" t="s">
-        <v>972</v>
-      </c>
-      <c r="F155" t="str">
-        <f>发送配置!$E$46</f>
-        <v>hmsg_template_server-53</v>
+        <v>976</v>
+      </c>
+      <c r="F155" t="s">
+        <v>762</v>
       </c>
       <c r="G155" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H155" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="156" spans="5:8">
+        <v>271</v>
+      </c>
+      <c r="L155" t="s">
+        <v>74</v>
+      </c>
+      <c r="M155" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="156" spans="5:13">
       <c r="E156" t="s">
-        <v>973</v>
-      </c>
-      <c r="F156" t="str">
-        <f>发送配置!$E$47</f>
-        <v>hmsg_template_server-54</v>
+        <v>977</v>
+      </c>
+      <c r="F156" t="s">
+        <v>765</v>
       </c>
       <c r="G156" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="H156" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="157" spans="5:8">
+        <v>113</v>
+      </c>
+      <c r="I156" t="s">
+        <v>73</v>
+      </c>
+      <c r="K156" t="s">
+        <v>902</v>
+      </c>
+      <c r="L156" t="s">
+        <v>74</v>
+      </c>
+      <c r="M156" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="157" spans="5:13">
       <c r="E157" t="s">
-        <v>974</v>
-      </c>
-      <c r="F157" t="str">
-        <f>发送配置!$E$48</f>
-        <v>hmsg_template_server-55</v>
+        <v>978</v>
+      </c>
+      <c r="F157" t="s">
+        <v>765</v>
       </c>
       <c r="G157" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="H157" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="158" spans="5:8">
+        <v>117</v>
+      </c>
+      <c r="L157" t="s">
+        <v>74</v>
+      </c>
+      <c r="M157" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="158" spans="5:13">
       <c r="E158" t="s">
-        <v>975</v>
-      </c>
-      <c r="F158" t="str">
-        <f>发送配置!$E$49</f>
-        <v>hmsg_template_server-56</v>
+        <v>979</v>
+      </c>
+      <c r="F158" t="s">
+        <v>768</v>
       </c>
       <c r="G158" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="H158" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="159" spans="5:8">
+        <v>348</v>
+      </c>
+      <c r="I158" t="s">
+        <v>73</v>
+      </c>
+      <c r="K158" t="s">
+        <v>902</v>
+      </c>
+      <c r="L158" t="s">
+        <v>74</v>
+      </c>
+      <c r="M158" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="159" spans="5:13">
       <c r="E159" t="s">
-        <v>976</v>
-      </c>
-      <c r="F159" t="str">
-        <f>发送配置!$E$50</f>
-        <v>hmsg_template_server-57</v>
+        <v>980</v>
+      </c>
+      <c r="F159" t="s">
+        <v>768</v>
       </c>
       <c r="G159" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="H159" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="160" spans="5:8">
+        <v>351</v>
+      </c>
+      <c r="L159" t="s">
+        <v>74</v>
+      </c>
+      <c r="M159" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="160" spans="5:13">
       <c r="E160" t="s">
-        <v>977</v>
-      </c>
-      <c r="F160" t="str">
-        <f>发送配置!$E$51</f>
-        <v>hmsg_template_server-58</v>
+        <v>981</v>
+      </c>
+      <c r="F160" t="s">
+        <v>771</v>
       </c>
       <c r="G160" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="H160" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="161" spans="5:8">
+        <v>120</v>
+      </c>
+      <c r="I160" t="s">
+        <v>73</v>
+      </c>
+      <c r="K160" t="s">
+        <v>902</v>
+      </c>
+      <c r="L160" t="s">
+        <v>74</v>
+      </c>
+      <c r="M160" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="161" spans="5:13">
       <c r="E161" t="s">
-        <v>978</v>
-      </c>
-      <c r="F161" t="str">
-        <f>发送配置!$E$52</f>
-        <v>hmsg_template_server-59</v>
+        <v>982</v>
+      </c>
+      <c r="F161" t="s">
+        <v>771</v>
       </c>
       <c r="G161" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="H161" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="162" spans="5:8">
+        <v>123</v>
+      </c>
+      <c r="L161" t="s">
+        <v>74</v>
+      </c>
+      <c r="M161" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="162" spans="5:13">
       <c r="E162" t="s">
-        <v>979</v>
-      </c>
-      <c r="F162" t="str">
-        <f>发送配置!$E$53</f>
-        <v>hmsg_template_server-60</v>
+        <v>983</v>
+      </c>
+      <c r="F162" t="s">
+        <v>774</v>
       </c>
       <c r="G162" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="H162" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="163" spans="5:8">
+        <v>531</v>
+      </c>
+      <c r="I162" t="s">
+        <v>73</v>
+      </c>
+      <c r="K162" t="s">
+        <v>902</v>
+      </c>
+      <c r="L162" t="s">
+        <v>74</v>
+      </c>
+      <c r="M162" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="163" spans="5:13">
       <c r="E163" t="s">
-        <v>980</v>
-      </c>
-      <c r="F163" t="str">
-        <f>发送配置!$E$54</f>
-        <v>hmsg_template_server-61</v>
+        <v>984</v>
+      </c>
+      <c r="F163" t="s">
+        <v>774</v>
       </c>
       <c r="G163" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="H163" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="164" spans="5:8">
+        <v>534</v>
+      </c>
+      <c r="L163" t="s">
+        <v>74</v>
+      </c>
+      <c r="M163" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="164" spans="5:13">
       <c r="E164" t="s">
-        <v>981</v>
-      </c>
-      <c r="F164" t="str">
-        <f>发送配置!$E$55</f>
-        <v>hmsg_template_server-62</v>
+        <v>985</v>
+      </c>
+      <c r="F164" t="s">
+        <v>777</v>
       </c>
       <c r="G164" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="H164" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="165" spans="5:8">
+        <v>105</v>
+      </c>
+      <c r="I164" t="s">
+        <v>73</v>
+      </c>
+      <c r="K164" t="s">
+        <v>902</v>
+      </c>
+      <c r="L164" t="s">
+        <v>74</v>
+      </c>
+      <c r="M164" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="165" spans="5:13">
       <c r="E165" t="s">
-        <v>982</v>
-      </c>
-      <c r="F165" t="str">
-        <f>发送配置!$E$56</f>
-        <v>hmsg_template_server-63</v>
+        <v>986</v>
+      </c>
+      <c r="F165" t="s">
+        <v>777</v>
       </c>
       <c r="G165" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="H165" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="166" spans="5:8">
+        <v>109</v>
+      </c>
+      <c r="L165" t="s">
+        <v>74</v>
+      </c>
+      <c r="M165" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="166" spans="5:13">
       <c r="E166" t="s">
-        <v>983</v>
-      </c>
-      <c r="F166" t="str">
-        <f>发送配置!$E$57</f>
-        <v>hmsg_template_server-64</v>
+        <v>987</v>
+      </c>
+      <c r="F166" t="s">
+        <v>777</v>
       </c>
       <c r="G166" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H166" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="167" spans="5:8">
+        <v>100</v>
+      </c>
+      <c r="L166" t="s">
+        <v>74</v>
+      </c>
+      <c r="M166" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="167" spans="5:13">
       <c r="E167" t="s">
-        <v>984</v>
-      </c>
-      <c r="F167" t="str">
-        <f>发送配置!$E$58</f>
-        <v>hmsg_template_server-65</v>
+        <v>988</v>
+      </c>
+      <c r="F167" t="s">
+        <v>781</v>
       </c>
       <c r="G167" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="H167" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="168" spans="5:8">
+        <v>199</v>
+      </c>
+      <c r="I167" t="s">
+        <v>73</v>
+      </c>
+      <c r="K167" t="s">
+        <v>902</v>
+      </c>
+      <c r="L167" t="s">
+        <v>74</v>
+      </c>
+      <c r="M167" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="168" spans="5:13">
       <c r="E168" t="s">
-        <v>985</v>
-      </c>
-      <c r="F168" t="str">
-        <f>发送配置!$E$60</f>
-        <v>hmsg_template_server-67</v>
+        <v>989</v>
+      </c>
+      <c r="F168" t="s">
+        <v>781</v>
       </c>
       <c r="G168" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="H168" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="169" spans="5:8">
+        <v>202</v>
+      </c>
+      <c r="L168" t="s">
+        <v>74</v>
+      </c>
+      <c r="M168" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="169" spans="5:13">
       <c r="E169" t="s">
-        <v>986</v>
-      </c>
-      <c r="F169" t="str">
-        <f>发送配置!$E$61</f>
-        <v>hmsg_template_server-68</v>
+        <v>990</v>
+      </c>
+      <c r="F169" t="s">
+        <v>781</v>
       </c>
       <c r="G169" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H169" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="170" spans="5:8">
+        <v>195</v>
+      </c>
+      <c r="L169" t="s">
+        <v>74</v>
+      </c>
+      <c r="M169" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="170" spans="5:13">
       <c r="E170" t="s">
-        <v>987</v>
-      </c>
-      <c r="F170" t="str">
-        <f>发送配置!$E$63</f>
-        <v>hmsg_template_server-70</v>
+        <v>991</v>
+      </c>
+      <c r="F170" t="s">
+        <v>781</v>
       </c>
       <c r="G170" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H170" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="171" spans="5:8">
+        <v>191</v>
+      </c>
+      <c r="L170" t="s">
+        <v>74</v>
+      </c>
+      <c r="M170" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="171" spans="5:13">
       <c r="E171" t="s">
-        <v>988</v>
-      </c>
-      <c r="F171" t="str">
-        <f>发送配置!$E$64</f>
-        <v>hmsg_template_server-71</v>
+        <v>992</v>
+      </c>
+      <c r="F171" t="s">
+        <v>785</v>
       </c>
       <c r="G171" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="H171" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="172" spans="5:8">
+        <v>281</v>
+      </c>
+      <c r="L171" t="s">
+        <v>74</v>
+      </c>
+      <c r="M171" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="172" spans="5:13">
       <c r="E172" t="s">
-        <v>989</v>
-      </c>
-      <c r="F172" t="str">
-        <f>发送配置!$E$65</f>
-        <v>hmsg_template_server-72</v>
+        <v>993</v>
+      </c>
+      <c r="F172" t="s">
+        <v>787</v>
       </c>
       <c r="G172" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="H172" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="173" spans="5:8">
+        <v>82</v>
+      </c>
+      <c r="I172" t="s">
+        <v>73</v>
+      </c>
+      <c r="K172" t="s">
+        <v>902</v>
+      </c>
+      <c r="L172" t="s">
+        <v>74</v>
+      </c>
+      <c r="M172" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="173" spans="5:13">
       <c r="E173" t="s">
-        <v>990</v>
-      </c>
-      <c r="F173" t="str">
-        <f>发送配置!$E$66</f>
-        <v>hmsg_template_server-73</v>
+        <v>994</v>
+      </c>
+      <c r="F173" t="s">
+        <v>787</v>
       </c>
       <c r="G173" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="H173" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="174" spans="5:8">
+        <v>86</v>
+      </c>
+      <c r="L173" t="s">
+        <v>74</v>
+      </c>
+      <c r="M173" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="174" spans="5:13">
       <c r="E174" t="s">
-        <v>991</v>
-      </c>
-      <c r="F174" t="str">
-        <f>发送配置!$E$67</f>
-        <v>hmsg_template_server-74</v>
+        <v>995</v>
+      </c>
+      <c r="F174" t="s">
+        <v>787</v>
       </c>
       <c r="G174" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H174" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="175" spans="5:8">
+        <v>76</v>
+      </c>
+      <c r="L174" t="s">
+        <v>74</v>
+      </c>
+      <c r="M174" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="175" spans="5:13">
       <c r="E175" t="s">
-        <v>992</v>
-      </c>
-      <c r="F175" t="str">
-        <f>发送配置!$E$68</f>
-        <v>hmsg_template_server-75</v>
+        <v>996</v>
+      </c>
+      <c r="F175" t="s">
+        <v>791</v>
       </c>
       <c r="G175" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="H175" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="176" spans="5:8">
+        <v>543</v>
+      </c>
+      <c r="I175" t="s">
+        <v>73</v>
+      </c>
+      <c r="K175" t="s">
+        <v>902</v>
+      </c>
+      <c r="L175" t="s">
+        <v>74</v>
+      </c>
+      <c r="M175" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="176" spans="5:13">
       <c r="E176" t="s">
-        <v>993</v>
-      </c>
-      <c r="F176" t="str">
-        <f>发送配置!$E$69</f>
-        <v>hmsg_template_server-76</v>
+        <v>997</v>
+      </c>
+      <c r="F176" t="s">
+        <v>791</v>
       </c>
       <c r="G176" t="s">
         <v>905</v>
       </c>
       <c r="H176" t="s">
+        <v>547</v>
+      </c>
+      <c r="L176" t="s">
+        <v>74</v>
+      </c>
+      <c r="M176" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="177" spans="5:13">
+      <c r="E177" t="s">
+        <v>998</v>
+      </c>
+      <c r="F177" t="s">
+        <v>796</v>
+      </c>
+      <c r="G177" t="s">
+        <v>901</v>
+      </c>
+      <c r="H177" t="s">
+        <v>486</v>
+      </c>
+      <c r="I177" t="s">
+        <v>73</v>
+      </c>
+      <c r="K177" t="s">
+        <v>902</v>
+      </c>
+      <c r="L177" t="s">
+        <v>74</v>
+      </c>
+      <c r="M177" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="178" spans="5:13">
+      <c r="E178" t="s">
+        <v>999</v>
+      </c>
+      <c r="F178" t="s">
+        <v>796</v>
+      </c>
+      <c r="G178" t="s">
+        <v>905</v>
+      </c>
+      <c r="H178" t="s">
+        <v>490</v>
+      </c>
+      <c r="L178" t="s">
+        <v>74</v>
+      </c>
+      <c r="M178" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="179" spans="5:13">
+      <c r="E179" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F179" t="s">
+        <v>796</v>
+      </c>
+      <c r="G179" t="s">
+        <v>910</v>
+      </c>
+      <c r="H179" t="s">
+        <v>482</v>
+      </c>
+      <c r="L179" t="s">
+        <v>74</v>
+      </c>
+      <c r="M179" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="180" spans="5:13">
+      <c r="E180" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F180" t="s">
+        <v>799</v>
+      </c>
+      <c r="G180" t="s">
+        <v>901</v>
+      </c>
+      <c r="H180" t="s">
+        <v>537</v>
+      </c>
+      <c r="I180" t="s">
+        <v>73</v>
+      </c>
+      <c r="K180" t="s">
+        <v>902</v>
+      </c>
+      <c r="L180" t="s">
+        <v>74</v>
+      </c>
+      <c r="M180" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="181" spans="5:13">
+      <c r="E181" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F181" t="s">
+        <v>799</v>
+      </c>
+      <c r="G181" t="s">
+        <v>905</v>
+      </c>
+      <c r="H181" t="s">
+        <v>540</v>
+      </c>
+      <c r="L181" t="s">
+        <v>74</v>
+      </c>
+      <c r="M181" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="182" spans="5:13">
+      <c r="E182" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F182" t="s">
+        <v>803</v>
+      </c>
+      <c r="G182" t="s">
+        <v>901</v>
+      </c>
+      <c r="H182" t="s">
+        <v>171</v>
+      </c>
+      <c r="I182" t="s">
+        <v>73</v>
+      </c>
+      <c r="K182" t="s">
+        <v>902</v>
+      </c>
+      <c r="L182" t="s">
+        <v>74</v>
+      </c>
+      <c r="M182" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="183" spans="5:13">
+      <c r="E183" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F183" t="s">
+        <v>803</v>
+      </c>
+      <c r="G183" t="s">
+        <v>905</v>
+      </c>
+      <c r="H183" t="s">
+        <v>174</v>
+      </c>
+      <c r="L183" t="s">
+        <v>74</v>
+      </c>
+      <c r="M183" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="184" spans="5:13">
+      <c r="E184" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F184" t="s">
+        <v>803</v>
+      </c>
+      <c r="G184" t="s">
+        <v>910</v>
+      </c>
+      <c r="H184" t="s">
+        <v>168</v>
+      </c>
+      <c r="L184" t="s">
+        <v>74</v>
+      </c>
+      <c r="M184" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="185" spans="5:13">
+      <c r="E185" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F185" t="s">
+        <v>807</v>
+      </c>
+      <c r="G185" t="s">
+        <v>910</v>
+      </c>
+      <c r="H185" t="s">
+        <v>165</v>
+      </c>
+      <c r="L185" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M185" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="186" spans="5:13">
+      <c r="E186" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F186" t="s">
+        <v>810</v>
+      </c>
+      <c r="G186" t="s">
+        <v>910</v>
+      </c>
+      <c r="H186" t="s">
+        <v>243</v>
+      </c>
+      <c r="L186" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M186" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="187" spans="5:13">
+      <c r="E187" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F187" t="s">
+        <v>813</v>
+      </c>
+      <c r="G187" t="s">
+        <v>910</v>
+      </c>
+      <c r="H187" t="s">
+        <v>184</v>
+      </c>
+      <c r="L187" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M187" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="188" spans="5:13">
+      <c r="E188" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F188" t="s">
+        <v>815</v>
+      </c>
+      <c r="G188" t="s">
+        <v>910</v>
+      </c>
+      <c r="H188" t="s">
+        <v>204</v>
+      </c>
+      <c r="L188" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M188" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="189" spans="5:13">
+      <c r="E189" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F189" t="s">
+        <v>818</v>
+      </c>
+      <c r="G189" t="s">
+        <v>910</v>
+      </c>
+      <c r="H189" t="s">
+        <v>135</v>
+      </c>
+      <c r="L189" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M189" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="190" spans="5:13">
+      <c r="E190" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F190" t="s">
+        <v>821</v>
+      </c>
+      <c r="G190" t="s">
+        <v>910</v>
+      </c>
+      <c r="H190" t="s">
+        <v>139</v>
+      </c>
+      <c r="L190" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M190" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="191" spans="5:13">
+      <c r="E191" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F191" t="s">
+        <v>824</v>
+      </c>
+      <c r="G191" t="s">
+        <v>910</v>
+      </c>
+      <c r="H191" t="s">
+        <v>142</v>
+      </c>
+      <c r="L191" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M191" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="192" spans="5:13">
+      <c r="E192" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F192" t="s">
+        <v>827</v>
+      </c>
+      <c r="G192" t="s">
+        <v>910</v>
+      </c>
+      <c r="H192" t="s">
+        <v>147</v>
+      </c>
+      <c r="L192" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M192" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="193" spans="5:13">
+      <c r="E193" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F193" t="s">
+        <v>830</v>
+      </c>
+      <c r="G193" t="s">
+        <v>910</v>
+      </c>
+      <c r="H193" t="s">
+        <v>181</v>
+      </c>
+      <c r="L193" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M193" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="194" spans="5:13">
+      <c r="E194" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F194" t="s">
+        <v>833</v>
+      </c>
+      <c r="G194" t="s">
+        <v>910</v>
+      </c>
+      <c r="H194" t="s">
+        <v>155</v>
+      </c>
+      <c r="L194" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M194" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="195" spans="5:13">
+      <c r="E195" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F195" t="s">
+        <v>836</v>
+      </c>
+      <c r="G195" t="s">
+        <v>910</v>
+      </c>
+      <c r="H195" t="s">
+        <v>126</v>
+      </c>
+      <c r="L195" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M195" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="196" spans="5:13">
+      <c r="E196" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F196" t="s">
+        <v>838</v>
+      </c>
+      <c r="G196" t="s">
+        <v>910</v>
+      </c>
+      <c r="H196" t="s">
+        <v>187</v>
+      </c>
+      <c r="L196" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M196" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="197" spans="5:13">
+      <c r="E197" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F197" t="s">
+        <v>843</v>
+      </c>
+      <c r="G197" t="s">
+        <v>910</v>
+      </c>
+      <c r="H197" t="s">
+        <v>160</v>
+      </c>
+      <c r="L197" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M197" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="198" spans="5:13">
+      <c r="E198" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F198" t="s">
+        <v>846</v>
+      </c>
+      <c r="G198" t="s">
+        <v>910</v>
+      </c>
+      <c r="H198" t="s">
+        <v>482</v>
+      </c>
+      <c r="L198" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M198" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="199" spans="5:13">
+      <c r="E199" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F199" t="s">
+        <v>851</v>
+      </c>
+      <c r="G199" t="s">
+        <v>910</v>
+      </c>
+      <c r="H199" t="s">
+        <v>550</v>
+      </c>
+      <c r="L199" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M199" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="200" spans="5:13">
+      <c r="E200" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F200" t="s">
+        <v>854</v>
+      </c>
+      <c r="G200" t="s">
+        <v>910</v>
+      </c>
+      <c r="H200" t="s">
+        <v>131</v>
+      </c>
+      <c r="L200" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M200" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="201" spans="5:13">
+      <c r="E201" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F201" t="s">
+        <v>857</v>
+      </c>
+      <c r="G201" t="s">
+        <v>910</v>
+      </c>
+      <c r="H201" t="s">
+        <v>558</v>
+      </c>
+      <c r="L201" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M201" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="202" spans="5:13">
+      <c r="E202" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F202" t="s">
+        <v>860</v>
+      </c>
+      <c r="G202" t="s">
+        <v>910</v>
+      </c>
+      <c r="H202" t="s">
+        <v>67</v>
+      </c>
+      <c r="L202" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M202" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="203" spans="5:13">
+      <c r="E203" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F203" t="s">
+        <v>863</v>
+      </c>
+      <c r="G203" t="s">
+        <v>910</v>
+      </c>
+      <c r="H203" t="s">
+        <v>178</v>
+      </c>
+      <c r="L203" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M203" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="204" spans="5:13">
+      <c r="E204" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F204" t="s">
+        <v>866</v>
+      </c>
+      <c r="G204" t="s">
+        <v>910</v>
+      </c>
+      <c r="H204" t="s">
+        <v>521</v>
+      </c>
+      <c r="L204" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M204" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="205" spans="5:13">
+      <c r="E205" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F205" t="s">
+        <v>869</v>
+      </c>
+      <c r="G205" t="s">
+        <v>905</v>
+      </c>
+      <c r="H205" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="177" spans="5:8">
-      <c r="E177" t="s">
-        <v>994</v>
-      </c>
-      <c r="F177" t="str">
-        <f>发送配置!$E$70</f>
-        <v>hmsg_template_server-77</v>
-      </c>
-      <c r="G177" t="s">
+      <c r="M205" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="206" spans="5:13">
+      <c r="E206" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F206" t="s">
+        <v>872</v>
+      </c>
+      <c r="G206" t="s">
         <v>905</v>
       </c>
-      <c r="H177" t="s">
+      <c r="H206" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="178" spans="5:8">
-      <c r="E178" t="s">
-        <v>995</v>
-      </c>
-      <c r="F178" t="str">
-        <f>发送配置!$E$62</f>
-        <v>hmsg_template_server-69</v>
-      </c>
-      <c r="G178" t="s">
-        <v>909</v>
-      </c>
-      <c r="H178" t="s">
+      <c r="M206" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="207" spans="5:13">
+      <c r="E207" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F207" t="s">
+        <v>888</v>
+      </c>
+      <c r="G207" t="s">
+        <v>945</v>
+      </c>
+      <c r="H207" t="s">
+        <v>337</v>
+      </c>
+      <c r="K207" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M207" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="208" spans="5:13">
+      <c r="E208" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F208" t="s">
+        <v>848</v>
+      </c>
+      <c r="G208" t="s">
+        <v>910</v>
+      </c>
+      <c r="H208" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="179" spans="5:8">
-      <c r="E179" t="s">
-        <v>996</v>
-      </c>
-      <c r="F179" t="str">
-        <f>发送配置!$E$75</f>
-        <v>hmsg_template_server-82</v>
-      </c>
-      <c r="G179" t="s">
+      <c r="M208" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="209" spans="5:13">
+      <c r="E209" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F209" t="s">
+        <v>880</v>
+      </c>
+      <c r="G209" t="s">
         <v>905</v>
       </c>
-      <c r="H179" t="s">
+      <c r="H209" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="180" spans="5:8">
-      <c r="E180" t="s">
-        <v>997</v>
-      </c>
-      <c r="F180" t="str">
-        <f>发送配置!$E$59</f>
-        <v>hmsg_template_server-66</v>
-      </c>
-      <c r="G180" t="s">
-        <v>909</v>
-      </c>
-      <c r="H180" t="s">
+      <c r="M209" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="210" spans="5:13">
+      <c r="E210" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F210" t="s">
+        <v>889</v>
+      </c>
+      <c r="G210" t="s">
+        <v>910</v>
+      </c>
+      <c r="H210" t="s">
         <v>525</v>
+      </c>
+      <c r="M210" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="211" spans="5:13">
+      <c r="E211" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F211" t="s">
+        <v>890</v>
+      </c>
+      <c r="G211" t="s">
+        <v>901</v>
+      </c>
+      <c r="H211" t="s">
+        <v>343</v>
+      </c>
+      <c r="I211" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K211" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M211" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="212" spans="5:13">
+      <c r="E212" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F212" t="s">
+        <v>883</v>
+      </c>
+      <c r="G212" t="s">
+        <v>901</v>
+      </c>
+      <c r="H212" t="s">
+        <v>322</v>
+      </c>
+      <c r="I212" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K212" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M212" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="213" spans="5:13">
+      <c r="E213" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F213" t="s">
+        <v>879</v>
+      </c>
+      <c r="G213" t="s">
+        <v>901</v>
+      </c>
+      <c r="H213" t="s">
+        <v>303</v>
+      </c>
+      <c r="I213" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K213" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M213" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="214" spans="5:13">
+      <c r="E214" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F214" t="s">
+        <v>885</v>
+      </c>
+      <c r="G214" t="s">
+        <v>901</v>
+      </c>
+      <c r="H214" t="s">
+        <v>329</v>
+      </c>
+      <c r="I214" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K214" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M214" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="215" spans="5:13">
+      <c r="E215" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F215" t="s">
+        <v>876</v>
+      </c>
+      <c r="G215" t="s">
+        <v>901</v>
+      </c>
+      <c r="H215" t="s">
+        <v>296</v>
+      </c>
+      <c r="I215" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K215" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M215" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="216" spans="5:13">
+      <c r="E216" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F216" t="s">
+        <v>883</v>
+      </c>
+      <c r="G216" t="s">
+        <v>901</v>
+      </c>
+      <c r="H216" t="s">
+        <v>290</v>
+      </c>
+      <c r="I216" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K216" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M216" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="217" spans="5:13">
+      <c r="E217" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F217" t="s">
+        <v>875</v>
+      </c>
+      <c r="G217" t="s">
+        <v>945</v>
+      </c>
+      <c r="H217" t="s">
+        <v>285</v>
+      </c>
+      <c r="I217" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K217" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M217" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="218" spans="5:13">
+      <c r="E218" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F218" t="s">
+        <v>890</v>
+      </c>
+      <c r="G218" t="s">
+        <v>945</v>
+      </c>
+      <c r="H218" t="s">
+        <v>343</v>
+      </c>
+      <c r="I218" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K218" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M218" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="219" spans="5:13">
+      <c r="E219" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F219" t="s">
+        <v>883</v>
+      </c>
+      <c r="G219" t="s">
+        <v>945</v>
+      </c>
+      <c r="H219" t="s">
+        <v>322</v>
+      </c>
+      <c r="I219" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K219" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M219" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="220" spans="5:13">
+      <c r="E220" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F220" t="s">
+        <v>882</v>
+      </c>
+      <c r="G220" t="s">
+        <v>945</v>
+      </c>
+      <c r="H220" t="s">
+        <v>317</v>
+      </c>
+      <c r="I220" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K220" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M220" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="221" spans="5:13">
+      <c r="E221" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F221" t="s">
+        <v>886</v>
+      </c>
+      <c r="G221" t="s">
+        <v>945</v>
+      </c>
+      <c r="H221" t="s">
+        <v>333</v>
+      </c>
+      <c r="I221" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K221" t="s">
+        <v>1046</v>
+      </c>
+      <c r="M221" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="222" spans="5:13">
+      <c r="E222" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F222" t="s">
+        <v>878</v>
+      </c>
+      <c r="G222" t="s">
+        <v>945</v>
+      </c>
+      <c r="H222" t="s">
+        <v>296</v>
+      </c>
+      <c r="I222" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K222" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M222" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="223" spans="5:13">
+      <c r="E223" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F223" t="s">
+        <v>876</v>
+      </c>
+      <c r="G223" t="s">
+        <v>945</v>
+      </c>
+      <c r="H223" t="s">
+        <v>290</v>
+      </c>
+      <c r="I223" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K223" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M223" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="224" spans="5:13">
+      <c r="E224" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F224" t="s">
+        <v>841</v>
+      </c>
+      <c r="G224" t="s">
+        <v>905</v>
+      </c>
+      <c r="H224" t="s">
+        <v>842</v>
+      </c>
+      <c r="L224">
+        <v>3</v>
+      </c>
+      <c r="M224">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4131" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3977" uniqueCount="1048">
   <si>
     <r>
       <rPr>
@@ -7049,22 +7049,22 @@
     <t>hmsg_template_server-87</t>
   </si>
   <si>
-    <t>hmsg_template_server-89</t>
-  </si>
-  <si>
     <t>hmsg_template_server-88</t>
   </si>
   <si>
+    <t>发送配置(其它)</t>
+  </si>
+  <si>
     <t>hmsg_template_server_line</t>
   </si>
   <si>
-    <t>temp_server_line_id</t>
-  </si>
-  <si>
-    <t>temp_server_id</t>
-  </si>
-  <si>
-    <t>type_code</t>
+    <t>*temp_server_line_id</t>
+  </si>
+  <si>
+    <t>#temp_server_id</t>
+  </si>
+  <si>
+    <t>#type_code</t>
   </si>
   <si>
     <t>template_code</t>
@@ -7205,7 +7205,7 @@
     <t>hmsg_template_server_line-127</t>
   </si>
   <si>
-    <t>hmsg_template_server_line-128</t>
+    <t>hmsg_template_server_line-132</t>
   </si>
   <si>
     <t>hmsg_template_server_line-133</t>
@@ -7214,15 +7214,15 @@
     <t>hmsg_template_server_line-134</t>
   </si>
   <si>
-    <t>hmsg_template_server_line-135</t>
-  </si>
-  <si>
     <t>SMS</t>
   </si>
   <si>
     <t>CHOERODON-SMS</t>
   </si>
   <si>
+    <t>hmsg_template_server_line-139</t>
+  </si>
+  <si>
     <t>hmsg_template_server_line-140</t>
   </si>
   <si>
@@ -7268,10 +7268,10 @@
     <t>hmsg_template_server_line-154</t>
   </si>
   <si>
-    <t>hmsg_template_server_line-155</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-157</t>
+    <t>hmsg_template_server_line-156</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-159</t>
   </si>
   <si>
     <t>hmsg_template_server_line-160</t>
@@ -7400,12 +7400,12 @@
     <t>hmsg_template_server_line-201</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>hmsg_template_server_line-202</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>hmsg_template_server_line-203</t>
   </si>
   <si>
@@ -7469,12 +7469,12 @@
     <t>hmsg_template_server_line-223</t>
   </si>
   <si>
+    <t>HZERO</t>
+  </si>
+  <si>
     <t>hmsg_template_server_line-224</t>
   </si>
   <si>
-    <t>HZERO</t>
-  </si>
-  <si>
     <t>hmsg_template_server_line-225</t>
   </si>
   <si>
@@ -7484,12 +7484,12 @@
     <t>hmsg_template_server_line-227</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>hmsg_template_server_line-228</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>hmsg_template_server_line-229</t>
   </si>
   <si>
@@ -7517,19 +7517,13 @@
     <t>hmsg_template_server_line-237</t>
   </si>
   <si>
+    <t>HZERO_BAIDU</t>
+  </si>
+  <si>
     <t>hmsg_template_server_line-238</t>
   </si>
   <si>
-    <t>HZERO_BAIDU</t>
-  </si>
-  <si>
     <t>hmsg_template_server_line-239</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-240</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-241</t>
   </si>
 </sst>
 </file>
@@ -7537,10 +7531,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -7611,6 +7605,44 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -7625,18 +7657,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7655,8 +7679,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7680,44 +7720,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7731,11 +7734,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7743,22 +7753,6 @@
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7857,7 +7851,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7869,13 +7995,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7887,157 +8031,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8148,6 +8142,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -8168,26 +8171,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -8199,21 +8182,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8236,156 +8204,182 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
@@ -9096,15 +9090,14 @@
   <dimension ref="A1:P792"/>
   <sheetViews>
     <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="F133" sqref="F133"/>
+      <selection activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="27.9166666666667" customWidth="1"/>
-    <col min="6" max="6" width="45.25" customWidth="1"/>
-    <col min="7" max="7" width="29.75" customWidth="1"/>
+    <col min="5" max="5" width="29.5" customWidth="1"/>
+    <col min="6" max="6" width="32.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -20811,20 +20804,18 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M224"/>
+  <dimension ref="A1:M221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B208" workbookViewId="0">
-      <selection activeCell="E224" sqref="E224"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A142" sqref="$A141:$XFD141 $A142:$XFD142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="5" max="5" width="48.1666666666667" customWidth="1"/>
-    <col min="6" max="6" width="33.1666666666667" customWidth="1"/>
-    <col min="7" max="7" width="44.4166666666667" customWidth="1"/>
-    <col min="8" max="8" width="49.5" customWidth="1"/>
-    <col min="11" max="11" width="31.5833333333333" customWidth="1"/>
-    <col min="12" max="12" width="26.0833333333333" customWidth="1"/>
+    <col min="5" max="5" width="27.8333333333333" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="29.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -22902,108 +22893,107 @@
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="5:13">
+    <row r="81" spans="5:12">
       <c r="E81" t="s">
         <v>889</v>
       </c>
-      <c r="F81">
-        <v>0</v>
+      <c r="F81" t="s">
+        <v>74</v>
       </c>
       <c r="G81" t="s">
-        <v>525</v>
+        <v>343</v>
       </c>
       <c r="H81" t="s">
-        <v>717</v>
-      </c>
-      <c r="I81">
-        <v>1</v>
-      </c>
-      <c r="J81" t="s">
-        <v>661</v>
-      </c>
-      <c r="K81" t="s">
-        <v>707</v>
-      </c>
-      <c r="L81">
-        <v>1</v>
-      </c>
-      <c r="M81" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="82" spans="5:12">
-      <c r="E82" t="s">
+        <v>344</v>
+      </c>
+      <c r="I81" t="s">
+        <v>73</v>
+      </c>
+      <c r="L81" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" t="s">
+        <v>50</v>
+      </c>
+      <c r="B83" t="s">
+        <v>51</v>
+      </c>
+      <c r="C83" t="s">
         <v>890</v>
       </c>
-      <c r="F82" t="s">
-        <v>74</v>
-      </c>
-      <c r="G82" t="s">
-        <v>343</v>
-      </c>
-      <c r="H82" t="s">
-        <v>344</v>
-      </c>
-      <c r="I82" t="s">
-        <v>73</v>
-      </c>
-      <c r="L82" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
-      <c r="A84" t="s">
-        <v>50</v>
-      </c>
-      <c r="B84" t="s">
-        <v>51</v>
-      </c>
-      <c r="C84" t="s">
-        <v>649</v>
-      </c>
-      <c r="D84" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>891</v>
       </c>
+      <c r="E83" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="H83" t="s">
+        <v>895</v>
+      </c>
+      <c r="I83" t="s">
+        <v>896</v>
+      </c>
+      <c r="J83" t="s">
+        <v>897</v>
+      </c>
+      <c r="K83" t="s">
+        <v>898</v>
+      </c>
+      <c r="L83" t="s">
+        <v>899</v>
+      </c>
+      <c r="M83" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="5:13">
       <c r="E84" t="s">
-        <v>892</v>
-      </c>
-      <c r="F84" t="s">
-        <v>893</v>
+        <v>900</v>
+      </c>
+      <c r="F84" t="str">
+        <f>发送配置!$E$8</f>
+        <v>hmsg_template_server-8</v>
       </c>
       <c r="G84" t="s">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="H84" t="s">
-        <v>895</v>
+        <v>267</v>
       </c>
       <c r="I84" t="s">
-        <v>896</v>
-      </c>
-      <c r="J84" t="s">
-        <v>897</v>
+        <v>73</v>
       </c>
       <c r="K84" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="L84" t="s">
-        <v>899</v>
+        <v>74</v>
       </c>
       <c r="M84" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" spans="5:13">
       <c r="E85" t="s">
-        <v>900</v>
-      </c>
-      <c r="F85" t="s">
-        <v>658</v>
+        <v>903</v>
+      </c>
+      <c r="F85" t="str">
+        <f>发送配置!$E$9</f>
+        <v>hmsg_template_server-9</v>
       </c>
       <c r="G85" t="s">
         <v>901</v>
       </c>
       <c r="H85" t="s">
-        <v>267</v>
+        <v>89</v>
       </c>
       <c r="I85" t="s">
         <v>73</v>
@@ -23015,47 +23005,43 @@
         <v>74</v>
       </c>
       <c r="M85" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="86" spans="5:13">
       <c r="E86" t="s">
-        <v>903</v>
-      </c>
-      <c r="F86" t="s">
-        <v>664</v>
+        <v>904</v>
+      </c>
+      <c r="F86" t="str">
+        <f>发送配置!$E$9</f>
+        <v>hmsg_template_server-9</v>
       </c>
       <c r="G86" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="H86" t="s">
-        <v>89</v>
-      </c>
-      <c r="I86" t="s">
-        <v>73</v>
-      </c>
-      <c r="K86" t="s">
-        <v>902</v>
+        <v>93</v>
       </c>
       <c r="L86" t="s">
         <v>74</v>
       </c>
       <c r="M86" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" spans="5:13">
       <c r="E87" t="s">
-        <v>904</v>
-      </c>
-      <c r="F87" t="s">
-        <v>664</v>
+        <v>906</v>
+      </c>
+      <c r="F87" t="str">
+        <f>发送配置!$E$10</f>
+        <v>hmsg_template_server-10</v>
       </c>
       <c r="G87" t="s">
         <v>905</v>
       </c>
       <c r="H87" t="s">
-        <v>93</v>
+        <v>426</v>
       </c>
       <c r="L87" t="s">
         <v>74</v>
@@ -23066,62 +23052,65 @@
     </row>
     <row r="88" spans="5:13">
       <c r="E88" t="s">
-        <v>906</v>
-      </c>
-      <c r="F88" t="s">
-        <v>673</v>
+        <v>907</v>
+      </c>
+      <c r="F88" t="str">
+        <f>发送配置!$E$11</f>
+        <v>hmsg_template_server-11</v>
       </c>
       <c r="G88" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="H88" t="s">
-        <v>426</v>
+        <v>262</v>
+      </c>
+      <c r="I88" t="s">
+        <v>73</v>
+      </c>
+      <c r="K88" t="s">
+        <v>902</v>
       </c>
       <c r="L88" t="s">
         <v>74</v>
       </c>
       <c r="M88" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="89" spans="5:13">
       <c r="E89" t="s">
-        <v>907</v>
-      </c>
-      <c r="F89" t="s">
-        <v>673</v>
+        <v>908</v>
+      </c>
+      <c r="F89" t="str">
+        <f>发送配置!$E$11</f>
+        <v>hmsg_template_server-11</v>
       </c>
       <c r="G89" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="H89" t="s">
-        <v>262</v>
-      </c>
-      <c r="I89" t="s">
-        <v>73</v>
-      </c>
-      <c r="K89" t="s">
-        <v>902</v>
+        <v>265</v>
       </c>
       <c r="L89" t="s">
         <v>74</v>
       </c>
       <c r="M89" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90" spans="5:13">
       <c r="E90" t="s">
-        <v>908</v>
-      </c>
-      <c r="F90" t="s">
-        <v>673</v>
+        <v>909</v>
+      </c>
+      <c r="F90" t="str">
+        <f>发送配置!$E$11</f>
+        <v>hmsg_template_server-11</v>
       </c>
       <c r="G90" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="H90" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="L90" t="s">
         <v>74</v>
@@ -23132,16 +23121,17 @@
     </row>
     <row r="91" spans="5:13">
       <c r="E91" t="s">
-        <v>909</v>
-      </c>
-      <c r="F91" t="s">
-        <v>673</v>
+        <v>911</v>
+      </c>
+      <c r="F91" t="str">
+        <f>发送配置!$E$11</f>
+        <v>hmsg_template_server-11</v>
       </c>
       <c r="G91" t="s">
         <v>910</v>
       </c>
       <c r="H91" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L91" t="s">
         <v>74</v>
@@ -23152,62 +23142,65 @@
     </row>
     <row r="92" spans="5:13">
       <c r="E92" t="s">
-        <v>911</v>
-      </c>
-      <c r="F92" t="s">
-        <v>673</v>
+        <v>912</v>
+      </c>
+      <c r="F92" t="str">
+        <f>发送配置!$E$12</f>
+        <v>hmsg_template_server-12</v>
       </c>
       <c r="G92" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="H92" t="s">
-        <v>255</v>
+        <v>225</v>
+      </c>
+      <c r="I92" t="s">
+        <v>73</v>
+      </c>
+      <c r="K92" t="s">
+        <v>902</v>
       </c>
       <c r="L92" t="s">
         <v>74</v>
       </c>
       <c r="M92" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="93" spans="5:13">
       <c r="E93" t="s">
-        <v>912</v>
-      </c>
-      <c r="F93" t="s">
-        <v>678</v>
+        <v>913</v>
+      </c>
+      <c r="F93" t="str">
+        <f>发送配置!$E$12</f>
+        <v>hmsg_template_server-12</v>
       </c>
       <c r="G93" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="H93" t="s">
-        <v>225</v>
-      </c>
-      <c r="I93" t="s">
-        <v>73</v>
-      </c>
-      <c r="K93" t="s">
-        <v>902</v>
+        <v>229</v>
       </c>
       <c r="L93" t="s">
         <v>74</v>
       </c>
       <c r="M93" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="94" spans="5:13">
       <c r="E94" t="s">
-        <v>913</v>
-      </c>
-      <c r="F94" t="s">
-        <v>678</v>
+        <v>914</v>
+      </c>
+      <c r="F94" t="str">
+        <f>发送配置!$E$12</f>
+        <v>hmsg_template_server-12</v>
       </c>
       <c r="G94" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="H94" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="L94" t="s">
         <v>74</v>
@@ -23218,16 +23211,17 @@
     </row>
     <row r="95" spans="5:13">
       <c r="E95" t="s">
-        <v>914</v>
-      </c>
-      <c r="F95" t="s">
-        <v>678</v>
+        <v>915</v>
+      </c>
+      <c r="F95" t="str">
+        <f>发送配置!$E$12</f>
+        <v>hmsg_template_server-12</v>
       </c>
       <c r="G95" t="s">
         <v>910</v>
       </c>
       <c r="H95" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L95" t="s">
         <v>74</v>
@@ -23238,16 +23232,17 @@
     </row>
     <row r="96" spans="5:13">
       <c r="E96" t="s">
-        <v>915</v>
-      </c>
-      <c r="F96" t="s">
-        <v>678</v>
+        <v>916</v>
+      </c>
+      <c r="F96" t="str">
+        <f>发送配置!$E$13</f>
+        <v>hmsg_template_server-13</v>
       </c>
       <c r="G96" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="H96" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="L96" t="s">
         <v>74</v>
@@ -23258,16 +23253,17 @@
     </row>
     <row r="97" spans="5:13">
       <c r="E97" t="s">
-        <v>916</v>
-      </c>
-      <c r="F97" t="s">
-        <v>681</v>
+        <v>917</v>
+      </c>
+      <c r="F97" t="str">
+        <f>发送配置!$E$13</f>
+        <v>hmsg_template_server-13</v>
       </c>
       <c r="G97" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="H97" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L97" t="s">
         <v>74</v>
@@ -23278,16 +23274,17 @@
     </row>
     <row r="98" spans="5:13">
       <c r="E98" t="s">
-        <v>917</v>
-      </c>
-      <c r="F98" t="s">
-        <v>681</v>
+        <v>918</v>
+      </c>
+      <c r="F98" t="str">
+        <f>发送配置!$E$13</f>
+        <v>hmsg_template_server-13</v>
       </c>
       <c r="G98" t="s">
         <v>910</v>
       </c>
       <c r="H98" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L98" t="s">
         <v>74</v>
@@ -23298,16 +23295,17 @@
     </row>
     <row r="99" spans="5:13">
       <c r="E99" t="s">
-        <v>918</v>
-      </c>
-      <c r="F99" t="s">
-        <v>681</v>
+        <v>919</v>
+      </c>
+      <c r="F99" t="str">
+        <f>发送配置!$E$14</f>
+        <v>hmsg_template_server-14</v>
       </c>
       <c r="G99" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="H99" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="L99" t="s">
         <v>74</v>
@@ -23318,16 +23316,17 @@
     </row>
     <row r="100" spans="5:13">
       <c r="E100" t="s">
-        <v>919</v>
-      </c>
-      <c r="F100" t="s">
-        <v>685</v>
+        <v>920</v>
+      </c>
+      <c r="F100" t="str">
+        <f>发送配置!$E$14</f>
+        <v>hmsg_template_server-14</v>
       </c>
       <c r="G100" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="H100" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L100" t="s">
         <v>74</v>
@@ -23338,16 +23337,17 @@
     </row>
     <row r="101" spans="5:13">
       <c r="E101" t="s">
-        <v>920</v>
-      </c>
-      <c r="F101" t="s">
-        <v>685</v>
+        <v>921</v>
+      </c>
+      <c r="F101" t="str">
+        <f>发送配置!$E$14</f>
+        <v>hmsg_template_server-14</v>
       </c>
       <c r="G101" t="s">
         <v>910</v>
       </c>
       <c r="H101" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L101" t="s">
         <v>74</v>
@@ -23358,19 +23358,26 @@
     </row>
     <row r="102" spans="5:13">
       <c r="E102" t="s">
-        <v>921</v>
-      </c>
-      <c r="F102" t="s">
-        <v>685</v>
+        <v>922</v>
+      </c>
+      <c r="F102" t="str">
+        <f>发送配置!$E$15</f>
+        <v>hmsg_template_server-15</v>
       </c>
       <c r="G102" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="H102" t="s">
-        <v>207</v>
+        <v>385</v>
+      </c>
+      <c r="I102" t="s">
+        <v>73</v>
+      </c>
+      <c r="K102" t="s">
+        <v>902</v>
       </c>
       <c r="L102" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M102" t="s">
         <v>73</v>
@@ -23378,22 +23385,17 @@
     </row>
     <row r="103" spans="5:13">
       <c r="E103" t="s">
-        <v>922</v>
-      </c>
-      <c r="F103" t="s">
-        <v>689</v>
+        <v>923</v>
+      </c>
+      <c r="F103" t="str">
+        <f>发送配置!$E$15</f>
+        <v>hmsg_template_server-15</v>
       </c>
       <c r="G103" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="H103" t="s">
-        <v>385</v>
-      </c>
-      <c r="I103" t="s">
-        <v>73</v>
-      </c>
-      <c r="K103" t="s">
-        <v>902</v>
+        <v>388</v>
       </c>
       <c r="L103" t="s">
         <v>73</v>
@@ -23404,16 +23406,17 @@
     </row>
     <row r="104" spans="5:13">
       <c r="E104" t="s">
-        <v>923</v>
-      </c>
-      <c r="F104" t="s">
-        <v>689</v>
+        <v>924</v>
+      </c>
+      <c r="F104" t="str">
+        <f>发送配置!$E$15</f>
+        <v>hmsg_template_server-15</v>
       </c>
       <c r="G104" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="H104" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="L104" t="s">
         <v>73</v>
@@ -23424,16 +23427,17 @@
     </row>
     <row r="105" spans="5:13">
       <c r="E105" t="s">
-        <v>924</v>
-      </c>
-      <c r="F105" t="s">
-        <v>689</v>
+        <v>925</v>
+      </c>
+      <c r="F105" t="str">
+        <f>发送配置!$E$15</f>
+        <v>hmsg_template_server-15</v>
       </c>
       <c r="G105" t="s">
         <v>910</v>
       </c>
       <c r="H105" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="L105" t="s">
         <v>73</v>
@@ -23444,16 +23448,23 @@
     </row>
     <row r="106" spans="5:13">
       <c r="E106" t="s">
-        <v>925</v>
-      </c>
-      <c r="F106" t="s">
-        <v>689</v>
+        <v>926</v>
+      </c>
+      <c r="F106" t="str">
+        <f>发送配置!$E$16</f>
+        <v>hmsg_template_server-16</v>
       </c>
       <c r="G106" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="H106" t="s">
-        <v>378</v>
+        <v>373</v>
+      </c>
+      <c r="I106" t="s">
+        <v>73</v>
+      </c>
+      <c r="K106" t="s">
+        <v>902</v>
       </c>
       <c r="L106" t="s">
         <v>73</v>
@@ -23464,22 +23475,17 @@
     </row>
     <row r="107" spans="5:13">
       <c r="E107" t="s">
-        <v>926</v>
-      </c>
-      <c r="F107" t="s">
-        <v>693</v>
+        <v>927</v>
+      </c>
+      <c r="F107" t="str">
+        <f>发送配置!$E$16</f>
+        <v>hmsg_template_server-16</v>
       </c>
       <c r="G107" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="H107" t="s">
-        <v>373</v>
-      </c>
-      <c r="I107" t="s">
-        <v>73</v>
-      </c>
-      <c r="K107" t="s">
-        <v>902</v>
+        <v>376</v>
       </c>
       <c r="L107" t="s">
         <v>73</v>
@@ -23490,16 +23496,17 @@
     </row>
     <row r="108" spans="5:13">
       <c r="E108" t="s">
-        <v>927</v>
-      </c>
-      <c r="F108" t="s">
-        <v>693</v>
+        <v>928</v>
+      </c>
+      <c r="F108" t="str">
+        <f>发送配置!$E$16</f>
+        <v>hmsg_template_server-16</v>
       </c>
       <c r="G108" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="H108" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="L108" t="s">
         <v>73</v>
@@ -23510,16 +23517,17 @@
     </row>
     <row r="109" spans="5:13">
       <c r="E109" t="s">
-        <v>928</v>
-      </c>
-      <c r="F109" t="s">
-        <v>693</v>
+        <v>929</v>
+      </c>
+      <c r="F109" t="str">
+        <f>发送配置!$E$16</f>
+        <v>hmsg_template_server-16</v>
       </c>
       <c r="G109" t="s">
         <v>910</v>
       </c>
       <c r="H109" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="L109" t="s">
         <v>73</v>
@@ -23530,16 +23538,23 @@
     </row>
     <row r="110" spans="5:13">
       <c r="E110" t="s">
-        <v>929</v>
-      </c>
-      <c r="F110" t="s">
-        <v>693</v>
+        <v>930</v>
+      </c>
+      <c r="F110" t="str">
+        <f>发送配置!$E$17</f>
+        <v>hmsg_template_server-17</v>
       </c>
       <c r="G110" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="H110" t="s">
-        <v>364</v>
+        <v>397</v>
+      </c>
+      <c r="I110" t="s">
+        <v>73</v>
+      </c>
+      <c r="K110" t="s">
+        <v>902</v>
       </c>
       <c r="L110" t="s">
         <v>73</v>
@@ -23550,22 +23565,17 @@
     </row>
     <row r="111" spans="5:13">
       <c r="E111" t="s">
-        <v>930</v>
-      </c>
-      <c r="F111" t="s">
-        <v>696</v>
+        <v>931</v>
+      </c>
+      <c r="F111" t="str">
+        <f>发送配置!$E$17</f>
+        <v>hmsg_template_server-17</v>
       </c>
       <c r="G111" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="H111" t="s">
-        <v>397</v>
-      </c>
-      <c r="I111" t="s">
-        <v>73</v>
-      </c>
-      <c r="K111" t="s">
-        <v>902</v>
+        <v>400</v>
       </c>
       <c r="L111" t="s">
         <v>73</v>
@@ -23576,16 +23586,17 @@
     </row>
     <row r="112" spans="5:13">
       <c r="E112" t="s">
-        <v>931</v>
-      </c>
-      <c r="F112" t="s">
-        <v>696</v>
+        <v>932</v>
+      </c>
+      <c r="F112" t="str">
+        <f>发送配置!$E$17</f>
+        <v>hmsg_template_server-17</v>
       </c>
       <c r="G112" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="H112" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="L112" t="s">
         <v>73</v>
@@ -23596,16 +23607,17 @@
     </row>
     <row r="113" spans="5:13">
       <c r="E113" t="s">
-        <v>932</v>
-      </c>
-      <c r="F113" t="s">
-        <v>696</v>
+        <v>933</v>
+      </c>
+      <c r="F113" t="str">
+        <f>发送配置!$E$17</f>
+        <v>hmsg_template_server-17</v>
       </c>
       <c r="G113" t="s">
         <v>910</v>
       </c>
       <c r="H113" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L113" t="s">
         <v>73</v>
@@ -23616,19 +23628,20 @@
     </row>
     <row r="114" spans="5:13">
       <c r="E114" t="s">
-        <v>933</v>
-      </c>
-      <c r="F114" t="s">
-        <v>696</v>
+        <v>934</v>
+      </c>
+      <c r="F114" t="str">
+        <f>发送配置!$E$19</f>
+        <v>hmsg_template_server-19</v>
       </c>
       <c r="G114" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="H114" t="s">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="L114" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M114" t="s">
         <v>73</v>
@@ -23636,16 +23649,17 @@
     </row>
     <row r="115" spans="5:13">
       <c r="E115" t="s">
-        <v>934</v>
-      </c>
-      <c r="F115" t="s">
-        <v>699</v>
+        <v>935</v>
+      </c>
+      <c r="F115" t="str">
+        <f>发送配置!$E$20</f>
+        <v>hmsg_template_server-20</v>
       </c>
       <c r="G115" t="s">
         <v>905</v>
       </c>
       <c r="H115" t="s">
-        <v>554</v>
+        <v>410</v>
       </c>
       <c r="L115" t="s">
         <v>74</v>
@@ -23656,16 +23670,17 @@
     </row>
     <row r="116" spans="5:13">
       <c r="E116" t="s">
-        <v>935</v>
-      </c>
-      <c r="F116" t="s">
-        <v>704</v>
+        <v>936</v>
+      </c>
+      <c r="F116" t="str">
+        <f>发送配置!$E$20</f>
+        <v>hmsg_template_server-20</v>
       </c>
       <c r="G116" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="H116" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="L116" t="s">
         <v>74</v>
@@ -23676,16 +23691,17 @@
     </row>
     <row r="117" spans="5:13">
       <c r="E117" t="s">
-        <v>936</v>
-      </c>
-      <c r="F117" t="s">
-        <v>709</v>
+        <v>937</v>
+      </c>
+      <c r="F117" t="str">
+        <f>发送配置!$E$20</f>
+        <v>hmsg_template_server-20</v>
       </c>
       <c r="G117" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="H117" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="L117" t="s">
         <v>74</v>
@@ -23696,16 +23712,23 @@
     </row>
     <row r="118" spans="5:13">
       <c r="E118" t="s">
-        <v>937</v>
-      </c>
-      <c r="F118" t="s">
-        <v>709</v>
+        <v>938</v>
+      </c>
+      <c r="F118" t="str">
+        <f>发送配置!$E$21</f>
+        <v>hmsg_template_server-21</v>
       </c>
       <c r="G118" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="H118" t="s">
-        <v>406</v>
+        <v>503</v>
+      </c>
+      <c r="I118" t="s">
+        <v>73</v>
+      </c>
+      <c r="K118" t="s">
+        <v>902</v>
       </c>
       <c r="L118" t="s">
         <v>74</v>
@@ -23716,16 +23739,17 @@
     </row>
     <row r="119" spans="5:13">
       <c r="E119" t="s">
-        <v>938</v>
-      </c>
-      <c r="F119" t="s">
-        <v>709</v>
+        <v>939</v>
+      </c>
+      <c r="F119" t="str">
+        <f>发送配置!$E$21</f>
+        <v>hmsg_template_server-21</v>
       </c>
       <c r="G119" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="H119" t="s">
-        <v>402</v>
+        <v>507</v>
       </c>
       <c r="L119" t="s">
         <v>74</v>
@@ -23736,22 +23760,17 @@
     </row>
     <row r="120" spans="5:13">
       <c r="E120" t="s">
-        <v>939</v>
-      </c>
-      <c r="F120" t="s">
-        <v>712</v>
+        <v>940</v>
+      </c>
+      <c r="F120" t="str">
+        <f>发送配置!$E$22</f>
+        <v>hmsg_template_server-22</v>
       </c>
       <c r="G120" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="H120" t="s">
-        <v>503</v>
-      </c>
-      <c r="I120" t="s">
-        <v>73</v>
-      </c>
-      <c r="K120" t="s">
-        <v>902</v>
+        <v>529</v>
       </c>
       <c r="L120" t="s">
         <v>74</v>
@@ -23762,16 +23781,23 @@
     </row>
     <row r="121" spans="5:13">
       <c r="E121" t="s">
-        <v>940</v>
-      </c>
-      <c r="F121" t="s">
-        <v>712</v>
+        <v>941</v>
+      </c>
+      <c r="F121" t="str">
+        <f>发送配置!$E$23</f>
+        <v>hmsg_template_server-27</v>
       </c>
       <c r="G121" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="H121" t="s">
-        <v>507</v>
+        <v>510</v>
+      </c>
+      <c r="I121" t="s">
+        <v>73</v>
+      </c>
+      <c r="K121" t="s">
+        <v>902</v>
       </c>
       <c r="L121" t="s">
         <v>74</v>
@@ -23782,16 +23808,17 @@
     </row>
     <row r="122" spans="5:13">
       <c r="E122" t="s">
-        <v>941</v>
-      </c>
-      <c r="F122" t="s">
-        <v>715</v>
+        <v>942</v>
+      </c>
+      <c r="F122" t="str">
+        <f>发送配置!$E$23</f>
+        <v>hmsg_template_server-27</v>
       </c>
       <c r="G122" t="s">
         <v>905</v>
       </c>
       <c r="H122" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="L122" t="s">
         <v>74</v>
@@ -23802,42 +23829,50 @@
     </row>
     <row r="123" spans="5:13">
       <c r="E123" t="s">
-        <v>942</v>
-      </c>
-      <c r="F123" t="s">
-        <v>719</v>
+        <v>943</v>
+      </c>
+      <c r="F123" t="str">
+        <f>发送配置!$E$23</f>
+        <v>hmsg_template_server-27</v>
       </c>
       <c r="G123" t="s">
-        <v>901</v>
+        <v>944</v>
       </c>
       <c r="H123" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="I123" t="s">
         <v>73</v>
       </c>
       <c r="K123" t="s">
-        <v>902</v>
+        <v>945</v>
       </c>
       <c r="L123" t="s">
         <v>74</v>
       </c>
       <c r="M123" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="124" spans="5:13">
       <c r="E124" t="s">
-        <v>943</v>
-      </c>
-      <c r="F124" t="s">
-        <v>719</v>
+        <v>946</v>
+      </c>
+      <c r="F124" t="str">
+        <f>发送配置!$E$24</f>
+        <v>hmsg_template_server-29</v>
       </c>
       <c r="G124" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="H124" t="s">
-        <v>519</v>
+        <v>454</v>
+      </c>
+      <c r="I124" t="s">
+        <v>73</v>
+      </c>
+      <c r="K124" t="s">
+        <v>902</v>
       </c>
       <c r="L124" t="s">
         <v>74</v>
@@ -23848,48 +23883,38 @@
     </row>
     <row r="125" spans="5:13">
       <c r="E125" t="s">
-        <v>944</v>
-      </c>
-      <c r="F125" t="s">
-        <v>719</v>
+        <v>947</v>
+      </c>
+      <c r="F125" t="str">
+        <f>发送配置!$E$24</f>
+        <v>hmsg_template_server-29</v>
       </c>
       <c r="G125" t="s">
-        <v>945</v>
+        <v>905</v>
       </c>
       <c r="H125" t="s">
-        <v>514</v>
-      </c>
-      <c r="I125" t="s">
-        <v>73</v>
-      </c>
-      <c r="K125" t="s">
-        <v>946</v>
+        <v>457</v>
       </c>
       <c r="L125" t="s">
         <v>74</v>
       </c>
       <c r="M125" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="126" spans="5:13">
       <c r="E126" t="s">
-        <v>947</v>
-      </c>
-      <c r="F126" t="s">
-        <v>723</v>
+        <v>948</v>
+      </c>
+      <c r="F126" t="str">
+        <f>发送配置!$E$24</f>
+        <v>hmsg_template_server-29</v>
       </c>
       <c r="G126" t="s">
-        <v>901</v>
+        <v>910</v>
       </c>
       <c r="H126" t="s">
-        <v>454</v>
-      </c>
-      <c r="I126" t="s">
-        <v>73</v>
-      </c>
-      <c r="K126" t="s">
-        <v>902</v>
+        <v>450</v>
       </c>
       <c r="L126" t="s">
         <v>74</v>
@@ -23900,16 +23925,23 @@
     </row>
     <row r="127" spans="5:13">
       <c r="E127" t="s">
-        <v>948</v>
-      </c>
-      <c r="F127" t="s">
-        <v>723</v>
+        <v>949</v>
+      </c>
+      <c r="F127" t="str">
+        <f>发送配置!$E$25</f>
+        <v>hmsg_template_server-30</v>
       </c>
       <c r="G127" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="H127" t="s">
-        <v>457</v>
+        <v>464</v>
+      </c>
+      <c r="I127" t="s">
+        <v>73</v>
+      </c>
+      <c r="K127" t="s">
+        <v>902</v>
       </c>
       <c r="L127" t="s">
         <v>74</v>
@@ -23920,16 +23952,17 @@
     </row>
     <row r="128" spans="5:13">
       <c r="E128" t="s">
-        <v>949</v>
-      </c>
-      <c r="F128" t="s">
-        <v>723</v>
+        <v>950</v>
+      </c>
+      <c r="F128" t="str">
+        <f>发送配置!$E$25</f>
+        <v>hmsg_template_server-30</v>
       </c>
       <c r="G128" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="H128" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="L128" t="s">
         <v>74</v>
@@ -23940,22 +23973,17 @@
     </row>
     <row r="129" spans="5:13">
       <c r="E129" t="s">
-        <v>950</v>
-      </c>
-      <c r="F129" t="s">
-        <v>727</v>
+        <v>951</v>
+      </c>
+      <c r="F129" t="str">
+        <f>发送配置!$E$25</f>
+        <v>hmsg_template_server-30</v>
       </c>
       <c r="G129" t="s">
-        <v>901</v>
+        <v>910</v>
       </c>
       <c r="H129" t="s">
-        <v>464</v>
-      </c>
-      <c r="I129" t="s">
-        <v>73</v>
-      </c>
-      <c r="K129" t="s">
-        <v>902</v>
+        <v>461</v>
       </c>
       <c r="L129" t="s">
         <v>74</v>
@@ -23966,16 +23994,23 @@
     </row>
     <row r="130" spans="5:13">
       <c r="E130" t="s">
-        <v>951</v>
-      </c>
-      <c r="F130" t="s">
-        <v>727</v>
+        <v>952</v>
+      </c>
+      <c r="F130" t="str">
+        <f>发送配置!$E$26</f>
+        <v>hmsg_template_server-31</v>
       </c>
       <c r="G130" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="H130" t="s">
-        <v>467</v>
+        <v>477</v>
+      </c>
+      <c r="I130" t="s">
+        <v>73</v>
+      </c>
+      <c r="K130" t="s">
+        <v>902</v>
       </c>
       <c r="L130" t="s">
         <v>74</v>
@@ -23986,16 +24021,17 @@
     </row>
     <row r="131" spans="5:13">
       <c r="E131" t="s">
-        <v>952</v>
-      </c>
-      <c r="F131" t="s">
-        <v>727</v>
+        <v>953</v>
+      </c>
+      <c r="F131" t="str">
+        <f>发送配置!$E$26</f>
+        <v>hmsg_template_server-31</v>
       </c>
       <c r="G131" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="H131" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="L131" t="s">
         <v>74</v>
@@ -24006,22 +24042,17 @@
     </row>
     <row r="132" spans="5:13">
       <c r="E132" t="s">
-        <v>953</v>
-      </c>
-      <c r="F132" t="s">
-        <v>730</v>
+        <v>954</v>
+      </c>
+      <c r="F132" t="str">
+        <f>发送配置!$E$26</f>
+        <v>hmsg_template_server-31</v>
       </c>
       <c r="G132" t="s">
-        <v>901</v>
+        <v>910</v>
       </c>
       <c r="H132" t="s">
-        <v>477</v>
-      </c>
-      <c r="I132" t="s">
-        <v>73</v>
-      </c>
-      <c r="K132" t="s">
-        <v>902</v>
+        <v>473</v>
       </c>
       <c r="L132" t="s">
         <v>74</v>
@@ -24032,16 +24063,17 @@
     </row>
     <row r="133" spans="5:13">
       <c r="E133" t="s">
-        <v>954</v>
-      </c>
-      <c r="F133" t="s">
-        <v>730</v>
+        <v>955</v>
+      </c>
+      <c r="F133" t="str">
+        <f>发送配置!$E$26</f>
+        <v>hmsg_template_server-31</v>
       </c>
       <c r="G133" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="H133" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="L133" t="s">
         <v>74</v>
@@ -24052,16 +24084,23 @@
     </row>
     <row r="134" spans="5:13">
       <c r="E134" t="s">
-        <v>955</v>
-      </c>
-      <c r="F134" t="s">
-        <v>730</v>
+        <v>956</v>
+      </c>
+      <c r="F134" t="str">
+        <f>发送配置!$E$27</f>
+        <v>hmsg_template_server-32</v>
       </c>
       <c r="G134" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="H134" t="s">
-        <v>473</v>
+        <v>445</v>
+      </c>
+      <c r="I134" t="s">
+        <v>73</v>
+      </c>
+      <c r="K134" t="s">
+        <v>902</v>
       </c>
       <c r="L134" t="s">
         <v>74</v>
@@ -24072,16 +24111,17 @@
     </row>
     <row r="135" spans="5:13">
       <c r="E135" t="s">
-        <v>956</v>
-      </c>
-      <c r="F135" t="s">
-        <v>730</v>
+        <v>957</v>
+      </c>
+      <c r="F135" t="str">
+        <f>发送配置!$E$27</f>
+        <v>hmsg_template_server-32</v>
       </c>
       <c r="G135" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="H135" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="L135" t="s">
         <v>74</v>
@@ -24092,22 +24132,17 @@
     </row>
     <row r="136" spans="5:13">
       <c r="E136" t="s">
-        <v>957</v>
-      </c>
-      <c r="F136" t="s">
-        <v>733</v>
+        <v>958</v>
+      </c>
+      <c r="F136" t="str">
+        <f>发送配置!$E$27</f>
+        <v>hmsg_template_server-32</v>
       </c>
       <c r="G136" t="s">
-        <v>901</v>
+        <v>910</v>
       </c>
       <c r="H136" t="s">
-        <v>445</v>
-      </c>
-      <c r="I136" t="s">
-        <v>73</v>
-      </c>
-      <c r="K136" t="s">
-        <v>902</v>
+        <v>441</v>
       </c>
       <c r="L136" t="s">
         <v>74</v>
@@ -24118,16 +24153,17 @@
     </row>
     <row r="137" spans="5:13">
       <c r="E137" t="s">
-        <v>958</v>
-      </c>
-      <c r="F137" t="s">
-        <v>733</v>
+        <v>959</v>
+      </c>
+      <c r="F137" t="str">
+        <f>发送配置!$E$27</f>
+        <v>hmsg_template_server-32</v>
       </c>
       <c r="G137" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="H137" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="L137" t="s">
         <v>74</v>
@@ -24138,16 +24174,23 @@
     </row>
     <row r="138" spans="5:13">
       <c r="E138" t="s">
-        <v>959</v>
-      </c>
-      <c r="F138" t="s">
-        <v>733</v>
+        <v>960</v>
+      </c>
+      <c r="F138" t="str">
+        <f>发送配置!$E$28</f>
+        <v>hmsg_template_server-33</v>
       </c>
       <c r="G138" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="H138" t="s">
-        <v>441</v>
+        <v>429</v>
+      </c>
+      <c r="I138" t="s">
+        <v>73</v>
+      </c>
+      <c r="K138" t="s">
+        <v>902</v>
       </c>
       <c r="L138" t="s">
         <v>74</v>
@@ -24158,16 +24201,17 @@
     </row>
     <row r="139" spans="5:13">
       <c r="E139" t="s">
-        <v>960</v>
-      </c>
-      <c r="F139" t="s">
-        <v>733</v>
+        <v>961</v>
+      </c>
+      <c r="F139" t="str">
+        <f>发送配置!$E$28</f>
+        <v>hmsg_template_server-33</v>
       </c>
       <c r="G139" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="H139" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="L139" t="s">
         <v>74</v>
@@ -24178,16 +24222,17 @@
     </row>
     <row r="140" spans="5:13">
       <c r="E140" t="s">
-        <v>961</v>
-      </c>
-      <c r="F140" t="s">
-        <v>736</v>
+        <v>962</v>
+      </c>
+      <c r="F140" t="str">
+        <f>发送配置!$E$29</f>
+        <v>hmsg_template_server-35</v>
       </c>
       <c r="G140" t="s">
         <v>901</v>
       </c>
       <c r="H140" t="s">
-        <v>429</v>
+        <v>360</v>
       </c>
       <c r="I140" t="s">
         <v>73</v>
@@ -24204,16 +24249,23 @@
     </row>
     <row r="141" spans="5:13">
       <c r="E141" t="s">
-        <v>962</v>
-      </c>
-      <c r="F141" t="s">
-        <v>736</v>
+        <v>963</v>
+      </c>
+      <c r="F141" t="str">
+        <f>发送配置!$E$30</f>
+        <v>hmsg_template_server-37</v>
       </c>
       <c r="G141" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="H141" t="s">
-        <v>432</v>
+        <v>238</v>
+      </c>
+      <c r="I141" t="s">
+        <v>73</v>
+      </c>
+      <c r="K141" t="s">
+        <v>902</v>
       </c>
       <c r="L141" t="s">
         <v>74</v>
@@ -24224,22 +24276,17 @@
     </row>
     <row r="142" spans="5:13">
       <c r="E142" t="s">
-        <v>963</v>
-      </c>
-      <c r="F142" t="s">
-        <v>739</v>
+        <v>964</v>
+      </c>
+      <c r="F142" t="str">
+        <f>发送配置!$E$30</f>
+        <v>hmsg_template_server-37</v>
       </c>
       <c r="G142" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="H142" t="s">
-        <v>360</v>
-      </c>
-      <c r="I142" t="s">
-        <v>73</v>
-      </c>
-      <c r="K142" t="s">
-        <v>902</v>
+        <v>241</v>
       </c>
       <c r="L142" t="s">
         <v>74</v>
@@ -24250,22 +24297,17 @@
     </row>
     <row r="143" spans="5:13">
       <c r="E143" t="s">
-        <v>964</v>
-      </c>
-      <c r="F143" t="s">
-        <v>743</v>
+        <v>965</v>
+      </c>
+      <c r="F143" t="str">
+        <f>发送配置!$E$30</f>
+        <v>hmsg_template_server-37</v>
       </c>
       <c r="G143" t="s">
-        <v>901</v>
+        <v>910</v>
       </c>
       <c r="H143" t="s">
-        <v>238</v>
-      </c>
-      <c r="I143" t="s">
-        <v>73</v>
-      </c>
-      <c r="K143" t="s">
-        <v>902</v>
+        <v>234</v>
       </c>
       <c r="L143" t="s">
         <v>74</v>
@@ -24276,16 +24318,17 @@
     </row>
     <row r="144" spans="5:13">
       <c r="E144" t="s">
-        <v>965</v>
-      </c>
-      <c r="F144" t="s">
-        <v>743</v>
+        <v>966</v>
+      </c>
+      <c r="F144" t="str">
+        <f>发送配置!$E$30</f>
+        <v>hmsg_template_server-37</v>
       </c>
       <c r="G144" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="H144" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="L144" t="s">
         <v>74</v>
@@ -24296,16 +24339,23 @@
     </row>
     <row r="145" spans="5:13">
       <c r="E145" t="s">
-        <v>966</v>
-      </c>
-      <c r="F145" t="s">
-        <v>743</v>
+        <v>967</v>
+      </c>
+      <c r="F145" t="str">
+        <f>发送配置!$E$31</f>
+        <v>hmsg_template_server-38</v>
       </c>
       <c r="G145" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="H145" t="s">
-        <v>234</v>
+        <v>420</v>
+      </c>
+      <c r="I145" t="s">
+        <v>73</v>
+      </c>
+      <c r="K145" t="s">
+        <v>902</v>
       </c>
       <c r="L145" t="s">
         <v>74</v>
@@ -24316,16 +24366,17 @@
     </row>
     <row r="146" spans="5:13">
       <c r="E146" t="s">
-        <v>967</v>
-      </c>
-      <c r="F146" t="s">
-        <v>743</v>
+        <v>968</v>
+      </c>
+      <c r="F146" t="str">
+        <f>发送配置!$E$31</f>
+        <v>hmsg_template_server-38</v>
       </c>
       <c r="G146" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="H146" t="s">
-        <v>231</v>
+        <v>423</v>
       </c>
       <c r="L146" t="s">
         <v>74</v>
@@ -24336,16 +24387,17 @@
     </row>
     <row r="147" spans="5:13">
       <c r="E147" t="s">
-        <v>968</v>
-      </c>
-      <c r="F147" t="s">
-        <v>748</v>
+        <v>969</v>
+      </c>
+      <c r="F147" t="str">
+        <f>发送配置!$E$32</f>
+        <v>hmsg_template_server-39</v>
       </c>
       <c r="G147" t="s">
         <v>901</v>
       </c>
       <c r="H147" t="s">
-        <v>420</v>
+        <v>354</v>
       </c>
       <c r="I147" t="s">
         <v>73</v>
@@ -24362,16 +24414,17 @@
     </row>
     <row r="148" spans="5:13">
       <c r="E148" t="s">
-        <v>969</v>
-      </c>
-      <c r="F148" t="s">
-        <v>748</v>
+        <v>970</v>
+      </c>
+      <c r="F148" t="str">
+        <f>发送配置!$E$32</f>
+        <v>hmsg_template_server-39</v>
       </c>
       <c r="G148" t="s">
         <v>905</v>
       </c>
       <c r="H148" t="s">
-        <v>423</v>
+        <v>357</v>
       </c>
       <c r="L148" t="s">
         <v>74</v>
@@ -24382,16 +24435,17 @@
     </row>
     <row r="149" spans="5:13">
       <c r="E149" t="s">
-        <v>970</v>
-      </c>
-      <c r="F149" t="s">
-        <v>753</v>
+        <v>971</v>
+      </c>
+      <c r="F149" t="str">
+        <f>发送配置!$E$33</f>
+        <v>hmsg_template_server-40</v>
       </c>
       <c r="G149" t="s">
         <v>901</v>
       </c>
       <c r="H149" t="s">
-        <v>354</v>
+        <v>414</v>
       </c>
       <c r="I149" t="s">
         <v>73</v>
@@ -24408,16 +24462,17 @@
     </row>
     <row r="150" spans="5:13">
       <c r="E150" t="s">
-        <v>971</v>
-      </c>
-      <c r="F150" t="s">
-        <v>753</v>
+        <v>972</v>
+      </c>
+      <c r="F150" t="str">
+        <f>发送配置!$E$33</f>
+        <v>hmsg_template_server-40</v>
       </c>
       <c r="G150" t="s">
         <v>905</v>
       </c>
       <c r="H150" t="s">
-        <v>357</v>
+        <v>417</v>
       </c>
       <c r="L150" t="s">
         <v>74</v>
@@ -24428,16 +24483,17 @@
     </row>
     <row r="151" spans="5:13">
       <c r="E151" t="s">
-        <v>972</v>
-      </c>
-      <c r="F151" t="s">
-        <v>758</v>
+        <v>973</v>
+      </c>
+      <c r="F151" t="str">
+        <f>发送配置!$E$34</f>
+        <v>hmsg_template_server-41</v>
       </c>
       <c r="G151" t="s">
         <v>901</v>
       </c>
       <c r="H151" t="s">
-        <v>414</v>
+        <v>274</v>
       </c>
       <c r="I151" t="s">
         <v>73</v>
@@ -24454,16 +24510,17 @@
     </row>
     <row r="152" spans="5:13">
       <c r="E152" t="s">
-        <v>973</v>
-      </c>
-      <c r="F152" t="s">
-        <v>758</v>
+        <v>974</v>
+      </c>
+      <c r="F152" t="str">
+        <f>发送配置!$E$34</f>
+        <v>hmsg_template_server-41</v>
       </c>
       <c r="G152" t="s">
         <v>905</v>
       </c>
       <c r="H152" t="s">
-        <v>417</v>
+        <v>277</v>
       </c>
       <c r="L152" t="s">
         <v>74</v>
@@ -24474,22 +24531,17 @@
     </row>
     <row r="153" spans="5:13">
       <c r="E153" t="s">
-        <v>974</v>
-      </c>
-      <c r="F153" t="s">
-        <v>762</v>
+        <v>975</v>
+      </c>
+      <c r="F153" t="str">
+        <f>发送配置!$E$34</f>
+        <v>hmsg_template_server-41</v>
       </c>
       <c r="G153" t="s">
-        <v>901</v>
+        <v>910</v>
       </c>
       <c r="H153" t="s">
-        <v>274</v>
-      </c>
-      <c r="I153" t="s">
-        <v>73</v>
-      </c>
-      <c r="K153" t="s">
-        <v>902</v>
+        <v>271</v>
       </c>
       <c r="L153" t="s">
         <v>74</v>
@@ -24500,16 +24552,23 @@
     </row>
     <row r="154" spans="5:13">
       <c r="E154" t="s">
-        <v>975</v>
-      </c>
-      <c r="F154" t="s">
-        <v>762</v>
+        <v>976</v>
+      </c>
+      <c r="F154" t="str">
+        <f>发送配置!$E$35</f>
+        <v>hmsg_template_server-42</v>
       </c>
       <c r="G154" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="H154" t="s">
-        <v>277</v>
+        <v>113</v>
+      </c>
+      <c r="I154" t="s">
+        <v>73</v>
+      </c>
+      <c r="K154" t="s">
+        <v>902</v>
       </c>
       <c r="L154" t="s">
         <v>74</v>
@@ -24520,16 +24579,17 @@
     </row>
     <row r="155" spans="5:13">
       <c r="E155" t="s">
-        <v>976</v>
-      </c>
-      <c r="F155" t="s">
-        <v>762</v>
+        <v>977</v>
+      </c>
+      <c r="F155" t="str">
+        <f>发送配置!$E$35</f>
+        <v>hmsg_template_server-42</v>
       </c>
       <c r="G155" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="H155" t="s">
-        <v>271</v>
+        <v>117</v>
       </c>
       <c r="L155" t="s">
         <v>74</v>
@@ -24540,16 +24600,17 @@
     </row>
     <row r="156" spans="5:13">
       <c r="E156" t="s">
-        <v>977</v>
-      </c>
-      <c r="F156" t="s">
-        <v>765</v>
+        <v>978</v>
+      </c>
+      <c r="F156" t="str">
+        <f>发送配置!$E$36</f>
+        <v>hmsg_template_server-43</v>
       </c>
       <c r="G156" t="s">
         <v>901</v>
       </c>
       <c r="H156" t="s">
-        <v>113</v>
+        <v>348</v>
       </c>
       <c r="I156" t="s">
         <v>73</v>
@@ -24566,16 +24627,17 @@
     </row>
     <row r="157" spans="5:13">
       <c r="E157" t="s">
-        <v>978</v>
-      </c>
-      <c r="F157" t="s">
-        <v>765</v>
+        <v>979</v>
+      </c>
+      <c r="F157" t="str">
+        <f>发送配置!$E$36</f>
+        <v>hmsg_template_server-43</v>
       </c>
       <c r="G157" t="s">
         <v>905</v>
       </c>
       <c r="H157" t="s">
-        <v>117</v>
+        <v>351</v>
       </c>
       <c r="L157" t="s">
         <v>74</v>
@@ -24586,16 +24648,17 @@
     </row>
     <row r="158" spans="5:13">
       <c r="E158" t="s">
-        <v>979</v>
-      </c>
-      <c r="F158" t="s">
-        <v>768</v>
+        <v>980</v>
+      </c>
+      <c r="F158" t="str">
+        <f>发送配置!$E$37</f>
+        <v>hmsg_template_server-44</v>
       </c>
       <c r="G158" t="s">
         <v>901</v>
       </c>
       <c r="H158" t="s">
-        <v>348</v>
+        <v>120</v>
       </c>
       <c r="I158" t="s">
         <v>73</v>
@@ -24612,16 +24675,17 @@
     </row>
     <row r="159" spans="5:13">
       <c r="E159" t="s">
-        <v>980</v>
-      </c>
-      <c r="F159" t="s">
-        <v>768</v>
+        <v>981</v>
+      </c>
+      <c r="F159" t="str">
+        <f>发送配置!$E$37</f>
+        <v>hmsg_template_server-44</v>
       </c>
       <c r="G159" t="s">
         <v>905</v>
       </c>
       <c r="H159" t="s">
-        <v>351</v>
+        <v>123</v>
       </c>
       <c r="L159" t="s">
         <v>74</v>
@@ -24632,16 +24696,17 @@
     </row>
     <row r="160" spans="5:13">
       <c r="E160" t="s">
-        <v>981</v>
-      </c>
-      <c r="F160" t="s">
-        <v>771</v>
+        <v>982</v>
+      </c>
+      <c r="F160" t="str">
+        <f>发送配置!$E$38</f>
+        <v>hmsg_template_server-45</v>
       </c>
       <c r="G160" t="s">
         <v>901</v>
       </c>
       <c r="H160" t="s">
-        <v>120</v>
+        <v>531</v>
       </c>
       <c r="I160" t="s">
         <v>73</v>
@@ -24658,16 +24723,17 @@
     </row>
     <row r="161" spans="5:13">
       <c r="E161" t="s">
-        <v>982</v>
-      </c>
-      <c r="F161" t="s">
-        <v>771</v>
+        <v>983</v>
+      </c>
+      <c r="F161" t="str">
+        <f>发送配置!$E$38</f>
+        <v>hmsg_template_server-45</v>
       </c>
       <c r="G161" t="s">
         <v>905</v>
       </c>
       <c r="H161" t="s">
-        <v>123</v>
+        <v>534</v>
       </c>
       <c r="L161" t="s">
         <v>74</v>
@@ -24678,16 +24744,17 @@
     </row>
     <row r="162" spans="5:13">
       <c r="E162" t="s">
-        <v>983</v>
-      </c>
-      <c r="F162" t="s">
-        <v>774</v>
+        <v>984</v>
+      </c>
+      <c r="F162" t="str">
+        <f>发送配置!$E$39</f>
+        <v>hmsg_template_server-46</v>
       </c>
       <c r="G162" t="s">
         <v>901</v>
       </c>
       <c r="H162" t="s">
-        <v>531</v>
+        <v>105</v>
       </c>
       <c r="I162" t="s">
         <v>73</v>
@@ -24704,16 +24771,17 @@
     </row>
     <row r="163" spans="5:13">
       <c r="E163" t="s">
-        <v>984</v>
-      </c>
-      <c r="F163" t="s">
-        <v>774</v>
+        <v>985</v>
+      </c>
+      <c r="F163" t="str">
+        <f>发送配置!$E$39</f>
+        <v>hmsg_template_server-46</v>
       </c>
       <c r="G163" t="s">
         <v>905</v>
       </c>
       <c r="H163" t="s">
-        <v>534</v>
+        <v>109</v>
       </c>
       <c r="L163" t="s">
         <v>74</v>
@@ -24724,22 +24792,17 @@
     </row>
     <row r="164" spans="5:13">
       <c r="E164" t="s">
-        <v>985</v>
-      </c>
-      <c r="F164" t="s">
-        <v>777</v>
+        <v>986</v>
+      </c>
+      <c r="F164" t="str">
+        <f>发送配置!$E$39</f>
+        <v>hmsg_template_server-46</v>
       </c>
       <c r="G164" t="s">
-        <v>901</v>
+        <v>910</v>
       </c>
       <c r="H164" t="s">
-        <v>105</v>
-      </c>
-      <c r="I164" t="s">
-        <v>73</v>
-      </c>
-      <c r="K164" t="s">
-        <v>902</v>
+        <v>100</v>
       </c>
       <c r="L164" t="s">
         <v>74</v>
@@ -24750,16 +24813,23 @@
     </row>
     <row r="165" spans="5:13">
       <c r="E165" t="s">
-        <v>986</v>
-      </c>
-      <c r="F165" t="s">
-        <v>777</v>
+        <v>987</v>
+      </c>
+      <c r="F165" t="str">
+        <f>发送配置!$E$40</f>
+        <v>hmsg_template_server-47</v>
       </c>
       <c r="G165" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="H165" t="s">
-        <v>109</v>
+        <v>199</v>
+      </c>
+      <c r="I165" t="s">
+        <v>73</v>
+      </c>
+      <c r="K165" t="s">
+        <v>902</v>
       </c>
       <c r="L165" t="s">
         <v>74</v>
@@ -24770,16 +24840,17 @@
     </row>
     <row r="166" spans="5:13">
       <c r="E166" t="s">
-        <v>987</v>
-      </c>
-      <c r="F166" t="s">
-        <v>777</v>
+        <v>988</v>
+      </c>
+      <c r="F166" t="str">
+        <f>发送配置!$E$40</f>
+        <v>hmsg_template_server-47</v>
       </c>
       <c r="G166" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="H166" t="s">
-        <v>100</v>
+        <v>202</v>
       </c>
       <c r="L166" t="s">
         <v>74</v>
@@ -24790,22 +24861,17 @@
     </row>
     <row r="167" spans="5:13">
       <c r="E167" t="s">
-        <v>988</v>
-      </c>
-      <c r="F167" t="s">
-        <v>781</v>
+        <v>989</v>
+      </c>
+      <c r="F167" t="str">
+        <f>发送配置!$E$40</f>
+        <v>hmsg_template_server-47</v>
       </c>
       <c r="G167" t="s">
-        <v>901</v>
+        <v>910</v>
       </c>
       <c r="H167" t="s">
-        <v>199</v>
-      </c>
-      <c r="I167" t="s">
-        <v>73</v>
-      </c>
-      <c r="K167" t="s">
-        <v>902</v>
+        <v>195</v>
       </c>
       <c r="L167" t="s">
         <v>74</v>
@@ -24816,16 +24882,17 @@
     </row>
     <row r="168" spans="5:13">
       <c r="E168" t="s">
-        <v>989</v>
-      </c>
-      <c r="F168" t="s">
-        <v>781</v>
+        <v>990</v>
+      </c>
+      <c r="F168" t="str">
+        <f>发送配置!$E$40</f>
+        <v>hmsg_template_server-47</v>
       </c>
       <c r="G168" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="H168" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="L168" t="s">
         <v>74</v>
@@ -24836,16 +24903,17 @@
     </row>
     <row r="169" spans="5:13">
       <c r="E169" t="s">
-        <v>990</v>
-      </c>
-      <c r="F169" t="s">
-        <v>781</v>
+        <v>991</v>
+      </c>
+      <c r="F169" t="str">
+        <f>发送配置!$E$41</f>
+        <v>hmsg_template_server-48</v>
       </c>
       <c r="G169" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="H169" t="s">
-        <v>195</v>
+        <v>281</v>
       </c>
       <c r="L169" t="s">
         <v>74</v>
@@ -24856,16 +24924,23 @@
     </row>
     <row r="170" spans="5:13">
       <c r="E170" t="s">
-        <v>991</v>
-      </c>
-      <c r="F170" t="s">
-        <v>781</v>
+        <v>992</v>
+      </c>
+      <c r="F170" t="str">
+        <f>发送配置!$E$42</f>
+        <v>hmsg_template_server-49</v>
       </c>
       <c r="G170" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="H170" t="s">
-        <v>191</v>
+        <v>82</v>
+      </c>
+      <c r="I170" t="s">
+        <v>73</v>
+      </c>
+      <c r="K170" t="s">
+        <v>902</v>
       </c>
       <c r="L170" t="s">
         <v>74</v>
@@ -24876,16 +24951,17 @@
     </row>
     <row r="171" spans="5:13">
       <c r="E171" t="s">
-        <v>992</v>
-      </c>
-      <c r="F171" t="s">
-        <v>785</v>
+        <v>993</v>
+      </c>
+      <c r="F171" t="str">
+        <f>发送配置!$E$42</f>
+        <v>hmsg_template_server-49</v>
       </c>
       <c r="G171" t="s">
         <v>905</v>
       </c>
       <c r="H171" t="s">
-        <v>281</v>
+        <v>86</v>
       </c>
       <c r="L171" t="s">
         <v>74</v>
@@ -24896,22 +24972,17 @@
     </row>
     <row r="172" spans="5:13">
       <c r="E172" t="s">
-        <v>993</v>
-      </c>
-      <c r="F172" t="s">
-        <v>787</v>
+        <v>994</v>
+      </c>
+      <c r="F172" t="str">
+        <f>发送配置!$E$42</f>
+        <v>hmsg_template_server-49</v>
       </c>
       <c r="G172" t="s">
-        <v>901</v>
+        <v>910</v>
       </c>
       <c r="H172" t="s">
-        <v>82</v>
-      </c>
-      <c r="I172" t="s">
-        <v>73</v>
-      </c>
-      <c r="K172" t="s">
-        <v>902</v>
+        <v>76</v>
       </c>
       <c r="L172" t="s">
         <v>74</v>
@@ -24922,16 +24993,23 @@
     </row>
     <row r="173" spans="5:13">
       <c r="E173" t="s">
-        <v>994</v>
-      </c>
-      <c r="F173" t="s">
-        <v>787</v>
+        <v>995</v>
+      </c>
+      <c r="F173" t="str">
+        <f>发送配置!$E$43</f>
+        <v>hmsg_template_server-50</v>
       </c>
       <c r="G173" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="H173" t="s">
-        <v>86</v>
+        <v>543</v>
+      </c>
+      <c r="I173" t="s">
+        <v>73</v>
+      </c>
+      <c r="K173" t="s">
+        <v>902</v>
       </c>
       <c r="L173" t="s">
         <v>74</v>
@@ -24942,16 +25020,17 @@
     </row>
     <row r="174" spans="5:13">
       <c r="E174" t="s">
-        <v>995</v>
-      </c>
-      <c r="F174" t="s">
-        <v>787</v>
+        <v>996</v>
+      </c>
+      <c r="F174" t="str">
+        <f>发送配置!$E$43</f>
+        <v>hmsg_template_server-50</v>
       </c>
       <c r="G174" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="H174" t="s">
-        <v>76</v>
+        <v>547</v>
       </c>
       <c r="L174" t="s">
         <v>74</v>
@@ -24962,16 +25041,17 @@
     </row>
     <row r="175" spans="5:13">
       <c r="E175" t="s">
-        <v>996</v>
-      </c>
-      <c r="F175" t="s">
-        <v>791</v>
+        <v>997</v>
+      </c>
+      <c r="F175" t="str">
+        <f>发送配置!$E$44</f>
+        <v>hmsg_template_server-51</v>
       </c>
       <c r="G175" t="s">
         <v>901</v>
       </c>
       <c r="H175" t="s">
-        <v>543</v>
+        <v>486</v>
       </c>
       <c r="I175" t="s">
         <v>73</v>
@@ -24988,16 +25068,17 @@
     </row>
     <row r="176" spans="5:13">
       <c r="E176" t="s">
-        <v>997</v>
-      </c>
-      <c r="F176" t="s">
-        <v>791</v>
+        <v>998</v>
+      </c>
+      <c r="F176" t="str">
+        <f>发送配置!$E$44</f>
+        <v>hmsg_template_server-51</v>
       </c>
       <c r="G176" t="s">
         <v>905</v>
       </c>
       <c r="H176" t="s">
-        <v>547</v>
+        <v>490</v>
       </c>
       <c r="L176" t="s">
         <v>74</v>
@@ -25008,22 +25089,17 @@
     </row>
     <row r="177" spans="5:13">
       <c r="E177" t="s">
-        <v>998</v>
-      </c>
-      <c r="F177" t="s">
-        <v>796</v>
+        <v>999</v>
+      </c>
+      <c r="F177" t="str">
+        <f>发送配置!$E$44</f>
+        <v>hmsg_template_server-51</v>
       </c>
       <c r="G177" t="s">
-        <v>901</v>
+        <v>910</v>
       </c>
       <c r="H177" t="s">
-        <v>486</v>
-      </c>
-      <c r="I177" t="s">
-        <v>73</v>
-      </c>
-      <c r="K177" t="s">
-        <v>902</v>
+        <v>482</v>
       </c>
       <c r="L177" t="s">
         <v>74</v>
@@ -25034,16 +25110,23 @@
     </row>
     <row r="178" spans="5:13">
       <c r="E178" t="s">
-        <v>999</v>
-      </c>
-      <c r="F178" t="s">
-        <v>796</v>
+        <v>1000</v>
+      </c>
+      <c r="F178" t="str">
+        <f>发送配置!$E$45</f>
+        <v>hmsg_template_server-52</v>
       </c>
       <c r="G178" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="H178" t="s">
-        <v>490</v>
+        <v>537</v>
+      </c>
+      <c r="I178" t="s">
+        <v>73</v>
+      </c>
+      <c r="K178" t="s">
+        <v>902</v>
       </c>
       <c r="L178" t="s">
         <v>74</v>
@@ -25054,16 +25137,17 @@
     </row>
     <row r="179" spans="5:13">
       <c r="E179" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F179" t="s">
-        <v>796</v>
+        <v>1001</v>
+      </c>
+      <c r="F179" t="str">
+        <f>发送配置!$E$45</f>
+        <v>hmsg_template_server-52</v>
       </c>
       <c r="G179" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="H179" t="s">
-        <v>482</v>
+        <v>540</v>
       </c>
       <c r="L179" t="s">
         <v>74</v>
@@ -25074,16 +25158,17 @@
     </row>
     <row r="180" spans="5:13">
       <c r="E180" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F180" t="s">
-        <v>799</v>
+        <v>1002</v>
+      </c>
+      <c r="F180" t="str">
+        <f>发送配置!$E$46</f>
+        <v>hmsg_template_server-53</v>
       </c>
       <c r="G180" t="s">
         <v>901</v>
       </c>
       <c r="H180" t="s">
-        <v>537</v>
+        <v>171</v>
       </c>
       <c r="I180" t="s">
         <v>73</v>
@@ -25100,16 +25185,17 @@
     </row>
     <row r="181" spans="5:13">
       <c r="E181" t="s">
-        <v>1002</v>
-      </c>
-      <c r="F181" t="s">
-        <v>799</v>
+        <v>1003</v>
+      </c>
+      <c r="F181" t="str">
+        <f>发送配置!$E$46</f>
+        <v>hmsg_template_server-53</v>
       </c>
       <c r="G181" t="s">
         <v>905</v>
       </c>
       <c r="H181" t="s">
-        <v>540</v>
+        <v>174</v>
       </c>
       <c r="L181" t="s">
         <v>74</v>
@@ -25120,22 +25206,17 @@
     </row>
     <row r="182" spans="5:13">
       <c r="E182" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F182" t="s">
-        <v>803</v>
+        <v>1004</v>
+      </c>
+      <c r="F182" t="str">
+        <f>发送配置!$E$46</f>
+        <v>hmsg_template_server-53</v>
       </c>
       <c r="G182" t="s">
-        <v>901</v>
+        <v>910</v>
       </c>
       <c r="H182" t="s">
-        <v>171</v>
-      </c>
-      <c r="I182" t="s">
-        <v>73</v>
-      </c>
-      <c r="K182" t="s">
-        <v>902</v>
+        <v>168</v>
       </c>
       <c r="L182" t="s">
         <v>74</v>
@@ -25146,19 +25227,20 @@
     </row>
     <row r="183" spans="5:13">
       <c r="E183" t="s">
-        <v>1004</v>
-      </c>
-      <c r="F183" t="s">
-        <v>803</v>
+        <v>1005</v>
+      </c>
+      <c r="F183" t="str">
+        <f>发送配置!$E$47</f>
+        <v>hmsg_template_server-54</v>
       </c>
       <c r="G183" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="H183" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="L183" t="s">
-        <v>74</v>
+        <v>1006</v>
       </c>
       <c r="M183" t="s">
         <v>73</v>
@@ -25166,19 +25248,20 @@
     </row>
     <row r="184" spans="5:13">
       <c r="E184" t="s">
-        <v>1005</v>
-      </c>
-      <c r="F184" t="s">
-        <v>803</v>
+        <v>1007</v>
+      </c>
+      <c r="F184" t="str">
+        <f>发送配置!$E$48</f>
+        <v>hmsg_template_server-55</v>
       </c>
       <c r="G184" t="s">
         <v>910</v>
       </c>
       <c r="H184" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="L184" t="s">
-        <v>74</v>
+        <v>1006</v>
       </c>
       <c r="M184" t="s">
         <v>73</v>
@@ -25186,19 +25269,20 @@
     </row>
     <row r="185" spans="5:13">
       <c r="E185" t="s">
-        <v>1006</v>
-      </c>
-      <c r="F185" t="s">
-        <v>807</v>
+        <v>1008</v>
+      </c>
+      <c r="F185" t="str">
+        <f>发送配置!$E$49</f>
+        <v>hmsg_template_server-56</v>
       </c>
       <c r="G185" t="s">
         <v>910</v>
       </c>
       <c r="H185" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="L185" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M185" t="s">
         <v>73</v>
@@ -25206,19 +25290,20 @@
     </row>
     <row r="186" spans="5:13">
       <c r="E186" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F186" t="s">
-        <v>810</v>
+        <v>1009</v>
+      </c>
+      <c r="F186" t="str">
+        <f>发送配置!$E$50</f>
+        <v>hmsg_template_server-57</v>
       </c>
       <c r="G186" t="s">
         <v>910</v>
       </c>
       <c r="H186" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="L186" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M186" t="s">
         <v>73</v>
@@ -25226,19 +25311,20 @@
     </row>
     <row r="187" spans="5:13">
       <c r="E187" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F187" t="s">
-        <v>813</v>
+        <v>1010</v>
+      </c>
+      <c r="F187" t="str">
+        <f>发送配置!$E$51</f>
+        <v>hmsg_template_server-58</v>
       </c>
       <c r="G187" t="s">
         <v>910</v>
       </c>
       <c r="H187" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="L187" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M187" t="s">
         <v>73</v>
@@ -25246,19 +25332,20 @@
     </row>
     <row r="188" spans="5:13">
       <c r="E188" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F188" t="s">
-        <v>815</v>
+        <v>1011</v>
+      </c>
+      <c r="F188" t="str">
+        <f>发送配置!$E$52</f>
+        <v>hmsg_template_server-59</v>
       </c>
       <c r="G188" t="s">
         <v>910</v>
       </c>
       <c r="H188" t="s">
-        <v>204</v>
+        <v>139</v>
       </c>
       <c r="L188" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M188" t="s">
         <v>73</v>
@@ -25266,19 +25353,20 @@
     </row>
     <row r="189" spans="5:13">
       <c r="E189" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F189" t="s">
-        <v>818</v>
+        <v>1012</v>
+      </c>
+      <c r="F189" t="str">
+        <f>发送配置!$E$53</f>
+        <v>hmsg_template_server-60</v>
       </c>
       <c r="G189" t="s">
         <v>910</v>
       </c>
       <c r="H189" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="L189" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M189" t="s">
         <v>73</v>
@@ -25286,19 +25374,20 @@
     </row>
     <row r="190" spans="5:13">
       <c r="E190" t="s">
-        <v>1012</v>
-      </c>
-      <c r="F190" t="s">
-        <v>821</v>
+        <v>1013</v>
+      </c>
+      <c r="F190" t="str">
+        <f>发送配置!$E$54</f>
+        <v>hmsg_template_server-61</v>
       </c>
       <c r="G190" t="s">
         <v>910</v>
       </c>
       <c r="H190" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="L190" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M190" t="s">
         <v>73</v>
@@ -25306,19 +25395,20 @@
     </row>
     <row r="191" spans="5:13">
       <c r="E191" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F191" t="s">
-        <v>824</v>
+        <v>1014</v>
+      </c>
+      <c r="F191" t="str">
+        <f>发送配置!$E$55</f>
+        <v>hmsg_template_server-62</v>
       </c>
       <c r="G191" t="s">
         <v>910</v>
       </c>
       <c r="H191" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="L191" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M191" t="s">
         <v>73</v>
@@ -25326,19 +25416,20 @@
     </row>
     <row r="192" spans="5:13">
       <c r="E192" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F192" t="s">
-        <v>827</v>
+        <v>1015</v>
+      </c>
+      <c r="F192" t="str">
+        <f>发送配置!$E$56</f>
+        <v>hmsg_template_server-63</v>
       </c>
       <c r="G192" t="s">
         <v>910</v>
       </c>
       <c r="H192" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="L192" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M192" t="s">
         <v>73</v>
@@ -25346,19 +25437,20 @@
     </row>
     <row r="193" spans="5:13">
       <c r="E193" t="s">
-        <v>1015</v>
-      </c>
-      <c r="F193" t="s">
-        <v>830</v>
+        <v>1016</v>
+      </c>
+      <c r="F193" t="str">
+        <f>发送配置!$E$57</f>
+        <v>hmsg_template_server-64</v>
       </c>
       <c r="G193" t="s">
         <v>910</v>
       </c>
       <c r="H193" t="s">
-        <v>181</v>
+        <v>126</v>
       </c>
       <c r="L193" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M193" t="s">
         <v>73</v>
@@ -25366,19 +25458,20 @@
     </row>
     <row r="194" spans="5:13">
       <c r="E194" t="s">
-        <v>1016</v>
-      </c>
-      <c r="F194" t="s">
-        <v>833</v>
+        <v>1017</v>
+      </c>
+      <c r="F194" t="str">
+        <f>发送配置!$E$58</f>
+        <v>hmsg_template_server-65</v>
       </c>
       <c r="G194" t="s">
         <v>910</v>
       </c>
       <c r="H194" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="L194" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M194" t="s">
         <v>73</v>
@@ -25386,19 +25479,20 @@
     </row>
     <row r="195" spans="5:13">
       <c r="E195" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F195" t="s">
-        <v>836</v>
+        <v>1018</v>
+      </c>
+      <c r="F195" t="str">
+        <f>发送配置!$E$60</f>
+        <v>hmsg_template_server-67</v>
       </c>
       <c r="G195" t="s">
         <v>910</v>
       </c>
       <c r="H195" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="L195" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M195" t="s">
         <v>73</v>
@@ -25406,19 +25500,20 @@
     </row>
     <row r="196" spans="5:13">
       <c r="E196" t="s">
-        <v>1018</v>
-      </c>
-      <c r="F196" t="s">
-        <v>838</v>
+        <v>1019</v>
+      </c>
+      <c r="F196" t="str">
+        <f>发送配置!$E$61</f>
+        <v>hmsg_template_server-68</v>
       </c>
       <c r="G196" t="s">
         <v>910</v>
       </c>
       <c r="H196" t="s">
-        <v>187</v>
+        <v>482</v>
       </c>
       <c r="L196" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M196" t="s">
         <v>73</v>
@@ -25426,19 +25521,20 @@
     </row>
     <row r="197" spans="5:13">
       <c r="E197" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F197" t="s">
-        <v>843</v>
+        <v>1020</v>
+      </c>
+      <c r="F197" t="str">
+        <f>发送配置!$E$63</f>
+        <v>hmsg_template_server-70</v>
       </c>
       <c r="G197" t="s">
         <v>910</v>
       </c>
       <c r="H197" t="s">
-        <v>160</v>
+        <v>550</v>
       </c>
       <c r="L197" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M197" t="s">
         <v>73</v>
@@ -25446,19 +25542,20 @@
     </row>
     <row r="198" spans="5:13">
       <c r="E198" t="s">
-        <v>1020</v>
-      </c>
-      <c r="F198" t="s">
-        <v>846</v>
+        <v>1021</v>
+      </c>
+      <c r="F198" t="str">
+        <f>发送配置!$E$64</f>
+        <v>hmsg_template_server-71</v>
       </c>
       <c r="G198" t="s">
         <v>910</v>
       </c>
       <c r="H198" t="s">
-        <v>482</v>
+        <v>131</v>
       </c>
       <c r="L198" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M198" t="s">
         <v>73</v>
@@ -25466,19 +25563,20 @@
     </row>
     <row r="199" spans="5:13">
       <c r="E199" t="s">
-        <v>1021</v>
-      </c>
-      <c r="F199" t="s">
-        <v>851</v>
+        <v>1022</v>
+      </c>
+      <c r="F199" t="str">
+        <f>发送配置!$E$65</f>
+        <v>hmsg_template_server-72</v>
       </c>
       <c r="G199" t="s">
         <v>910</v>
       </c>
       <c r="H199" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="L199" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M199" t="s">
         <v>73</v>
@@ -25486,19 +25584,20 @@
     </row>
     <row r="200" spans="5:13">
       <c r="E200" t="s">
-        <v>1022</v>
-      </c>
-      <c r="F200" t="s">
-        <v>854</v>
+        <v>1023</v>
+      </c>
+      <c r="F200" t="str">
+        <f>发送配置!$E$66</f>
+        <v>hmsg_template_server-73</v>
       </c>
       <c r="G200" t="s">
         <v>910</v>
       </c>
       <c r="H200" t="s">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="L200" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M200" t="s">
         <v>73</v>
@@ -25506,19 +25605,20 @@
     </row>
     <row r="201" spans="5:13">
       <c r="E201" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F201" t="s">
-        <v>857</v>
+        <v>1024</v>
+      </c>
+      <c r="F201" t="str">
+        <f>发送配置!$E$67</f>
+        <v>hmsg_template_server-74</v>
       </c>
       <c r="G201" t="s">
         <v>910</v>
       </c>
       <c r="H201" t="s">
-        <v>558</v>
+        <v>178</v>
       </c>
       <c r="L201" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M201" t="s">
         <v>73</v>
@@ -25526,19 +25626,20 @@
     </row>
     <row r="202" spans="5:13">
       <c r="E202" t="s">
-        <v>1024</v>
-      </c>
-      <c r="F202" t="s">
-        <v>860</v>
+        <v>1025</v>
+      </c>
+      <c r="F202" t="str">
+        <f>发送配置!$E$68</f>
+        <v>hmsg_template_server-75</v>
       </c>
       <c r="G202" t="s">
         <v>910</v>
       </c>
       <c r="H202" t="s">
-        <v>67</v>
+        <v>521</v>
       </c>
       <c r="L202" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M202" t="s">
         <v>73</v>
@@ -25546,19 +25647,17 @@
     </row>
     <row r="203" spans="5:13">
       <c r="E203" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F203" t="s">
-        <v>863</v>
+        <v>1026</v>
+      </c>
+      <c r="F203" t="str">
+        <f>发送配置!$E$69</f>
+        <v>hmsg_template_server-76</v>
       </c>
       <c r="G203" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="H203" t="s">
-        <v>178</v>
-      </c>
-      <c r="L203" t="s">
-        <v>1007</v>
+        <v>493</v>
       </c>
       <c r="M203" t="s">
         <v>73</v>
@@ -25566,19 +25665,17 @@
     </row>
     <row r="204" spans="5:13">
       <c r="E204" t="s">
-        <v>1026</v>
-      </c>
-      <c r="F204" t="s">
-        <v>866</v>
+        <v>1027</v>
+      </c>
+      <c r="F204" t="str">
+        <f>发送配置!$E$70</f>
+        <v>hmsg_template_server-77</v>
       </c>
       <c r="G204" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="H204" t="s">
-        <v>521</v>
-      </c>
-      <c r="L204" t="s">
-        <v>1007</v>
+        <v>498</v>
       </c>
       <c r="M204" t="s">
         <v>73</v>
@@ -25586,16 +25683,20 @@
     </row>
     <row r="205" spans="5:13">
       <c r="E205" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F205" t="s">
-        <v>869</v>
+        <v>1028</v>
+      </c>
+      <c r="F205" t="str">
+        <f>发送配置!$E$80</f>
+        <v>hmsg_template_server-87</v>
       </c>
       <c r="G205" t="s">
-        <v>905</v>
+        <v>944</v>
       </c>
       <c r="H205" t="s">
-        <v>493</v>
+        <v>337</v>
+      </c>
+      <c r="K205" t="s">
+        <v>1029</v>
       </c>
       <c r="M205" t="s">
         <v>73</v>
@@ -25603,16 +25704,17 @@
     </row>
     <row r="206" spans="5:13">
       <c r="E206" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F206" t="s">
-        <v>872</v>
+        <v>1030</v>
+      </c>
+      <c r="F206" t="str">
+        <f>发送配置!$E$62</f>
+        <v>hmsg_template_server-69</v>
       </c>
       <c r="G206" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="H206" t="s">
-        <v>498</v>
+        <v>96</v>
       </c>
       <c r="M206" t="s">
         <v>73</v>
@@ -25620,19 +25722,17 @@
     </row>
     <row r="207" spans="5:13">
       <c r="E207" t="s">
-        <v>1029</v>
-      </c>
-      <c r="F207" t="s">
-        <v>888</v>
+        <v>1031</v>
+      </c>
+      <c r="F207" t="str">
+        <f>发送配置!$E$75</f>
+        <v>hmsg_template_server-82</v>
       </c>
       <c r="G207" t="s">
-        <v>945</v>
+        <v>905</v>
       </c>
       <c r="H207" t="s">
-        <v>337</v>
-      </c>
-      <c r="K207" t="s">
-        <v>1030</v>
+        <v>313</v>
       </c>
       <c r="M207" t="s">
         <v>73</v>
@@ -25640,16 +25740,17 @@
     </row>
     <row r="208" spans="5:13">
       <c r="E208" t="s">
-        <v>1031</v>
-      </c>
-      <c r="F208" t="s">
-        <v>848</v>
+        <v>1032</v>
+      </c>
+      <c r="F208" t="str">
+        <f>发送配置!$E$59</f>
+        <v>hmsg_template_server-66</v>
       </c>
       <c r="G208" t="s">
         <v>910</v>
       </c>
       <c r="H208" t="s">
-        <v>96</v>
+        <v>525</v>
       </c>
       <c r="M208" t="s">
         <v>73</v>
@@ -25657,16 +25758,23 @@
     </row>
     <row r="209" spans="5:13">
       <c r="E209" t="s">
-        <v>1032</v>
-      </c>
-      <c r="F209" t="s">
-        <v>880</v>
+        <v>1033</v>
+      </c>
+      <c r="F209" t="str">
+        <f>发送配置!$E$81</f>
+        <v>hmsg_template_server-88</v>
       </c>
       <c r="G209" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="H209" t="s">
-        <v>313</v>
+        <v>343</v>
+      </c>
+      <c r="I209" t="s">
+        <v>1034</v>
+      </c>
+      <c r="K209" t="s">
+        <v>1029</v>
       </c>
       <c r="M209" t="s">
         <v>73</v>
@@ -25674,16 +25782,23 @@
     </row>
     <row r="210" spans="5:13">
       <c r="E210" t="s">
-        <v>1033</v>
-      </c>
-      <c r="F210" t="s">
-        <v>889</v>
+        <v>1035</v>
+      </c>
+      <c r="F210" t="str">
+        <f>发送配置!$E$77</f>
+        <v>hmsg_template_server-84</v>
       </c>
       <c r="G210" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="H210" t="s">
-        <v>525</v>
+        <v>322</v>
+      </c>
+      <c r="I210" t="s">
+        <v>1034</v>
+      </c>
+      <c r="K210" t="s">
+        <v>1029</v>
       </c>
       <c r="M210" t="s">
         <v>73</v>
@@ -25691,22 +25806,23 @@
     </row>
     <row r="211" spans="5:13">
       <c r="E211" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F211" t="s">
-        <v>890</v>
+        <v>1036</v>
+      </c>
+      <c r="F211" t="str">
+        <f>发送配置!$E$74</f>
+        <v>hmsg_template_server-81</v>
       </c>
       <c r="G211" t="s">
         <v>901</v>
       </c>
       <c r="H211" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="I211" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="K211" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="M211" t="s">
         <v>73</v>
@@ -25714,22 +25830,23 @@
     </row>
     <row r="212" spans="5:13">
       <c r="E212" t="s">
-        <v>1036</v>
-      </c>
-      <c r="F212" t="s">
-        <v>883</v>
+        <v>1037</v>
+      </c>
+      <c r="F212" t="str">
+        <f>发送配置!$E$78</f>
+        <v>hmsg_template_server-85</v>
       </c>
       <c r="G212" t="s">
         <v>901</v>
       </c>
       <c r="H212" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="I212" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="K212" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="M212" t="s">
         <v>73</v>
@@ -25737,22 +25854,23 @@
     </row>
     <row r="213" spans="5:13">
       <c r="E213" t="s">
-        <v>1037</v>
-      </c>
-      <c r="F213" t="s">
-        <v>879</v>
+        <v>1038</v>
+      </c>
+      <c r="F213" t="str">
+        <f>发送配置!$E$73</f>
+        <v>hmsg_template_server-80</v>
       </c>
       <c r="G213" t="s">
         <v>901</v>
       </c>
       <c r="H213" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="I213" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="K213" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="M213" t="s">
         <v>73</v>
@@ -25760,22 +25878,23 @@
     </row>
     <row r="214" spans="5:13">
       <c r="E214" t="s">
-        <v>1038</v>
-      </c>
-      <c r="F214" t="s">
-        <v>885</v>
+        <v>1039</v>
+      </c>
+      <c r="F214" t="str">
+        <f>发送配置!$E$72</f>
+        <v>hmsg_template_server-79</v>
       </c>
       <c r="G214" t="s">
         <v>901</v>
       </c>
       <c r="H214" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="I214" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="K214" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="M214" t="s">
         <v>73</v>
@@ -25783,22 +25902,23 @@
     </row>
     <row r="215" spans="5:13">
       <c r="E215" t="s">
-        <v>1039</v>
-      </c>
-      <c r="F215" t="s">
-        <v>876</v>
+        <v>1040</v>
+      </c>
+      <c r="F215" t="str">
+        <f>发送配置!$E$71</f>
+        <v>hmsg_template_server-78</v>
       </c>
       <c r="G215" t="s">
-        <v>901</v>
+        <v>944</v>
       </c>
       <c r="H215" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="I215" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="K215" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="M215" t="s">
         <v>73</v>
@@ -25806,22 +25926,23 @@
     </row>
     <row r="216" spans="5:13">
       <c r="E216" t="s">
-        <v>1040</v>
-      </c>
-      <c r="F216" t="s">
-        <v>883</v>
+        <v>1041</v>
+      </c>
+      <c r="F216" t="str">
+        <f>发送配置!$E$81</f>
+        <v>hmsg_template_server-88</v>
       </c>
       <c r="G216" t="s">
-        <v>901</v>
+        <v>944</v>
       </c>
       <c r="H216" t="s">
-        <v>290</v>
+        <v>343</v>
       </c>
       <c r="I216" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="K216" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="M216" t="s">
         <v>73</v>
@@ -25829,22 +25950,23 @@
     </row>
     <row r="217" spans="5:13">
       <c r="E217" t="s">
-        <v>1041</v>
-      </c>
-      <c r="F217" t="s">
-        <v>875</v>
+        <v>1042</v>
+      </c>
+      <c r="F217" t="str">
+        <f>发送配置!$E$77</f>
+        <v>hmsg_template_server-84</v>
       </c>
       <c r="G217" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H217" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="I217" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="K217" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="M217" t="s">
         <v>73</v>
@@ -25852,22 +25974,23 @@
     </row>
     <row r="218" spans="5:13">
       <c r="E218" t="s">
-        <v>1042</v>
-      </c>
-      <c r="F218" t="s">
-        <v>890</v>
+        <v>1043</v>
+      </c>
+      <c r="F218" t="str">
+        <f>发送配置!$E$76</f>
+        <v>hmsg_template_server-83</v>
       </c>
       <c r="G218" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H218" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="I218" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="K218" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="M218" t="s">
         <v>73</v>
@@ -25875,22 +25998,23 @@
     </row>
     <row r="219" spans="5:13">
       <c r="E219" t="s">
-        <v>1043</v>
-      </c>
-      <c r="F219" t="s">
-        <v>883</v>
+        <v>1044</v>
+      </c>
+      <c r="F219" t="str">
+        <f>发送配置!$E$79</f>
+        <v>hmsg_template_server-86</v>
       </c>
       <c r="G219" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H219" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="I219" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="K219" t="s">
-        <v>1030</v>
+        <v>1045</v>
       </c>
       <c r="M219" t="s">
         <v>73</v>
@@ -25898,22 +26022,23 @@
     </row>
     <row r="220" spans="5:13">
       <c r="E220" t="s">
-        <v>1044</v>
-      </c>
-      <c r="F220" t="s">
-        <v>882</v>
+        <v>1046</v>
+      </c>
+      <c r="F220" t="str">
+        <f>发送配置!$E$73</f>
+        <v>hmsg_template_server-80</v>
       </c>
       <c r="G220" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H220" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="I220" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="K220" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="M220" t="s">
         <v>73</v>
@@ -25921,91 +26046,26 @@
     </row>
     <row r="221" spans="5:13">
       <c r="E221" t="s">
-        <v>1045</v>
-      </c>
-      <c r="F221" t="s">
-        <v>886</v>
+        <v>1047</v>
+      </c>
+      <c r="F221" t="str">
+        <f>发送配置!$E$72</f>
+        <v>hmsg_template_server-79</v>
       </c>
       <c r="G221" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H221" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
       <c r="I221" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="K221" t="s">
-        <v>1046</v>
+        <v>1029</v>
       </c>
       <c r="M221" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="222" spans="5:13">
-      <c r="E222" t="s">
-        <v>1047</v>
-      </c>
-      <c r="F222" t="s">
-        <v>878</v>
-      </c>
-      <c r="G222" t="s">
-        <v>945</v>
-      </c>
-      <c r="H222" t="s">
-        <v>296</v>
-      </c>
-      <c r="I222" t="s">
-        <v>1035</v>
-      </c>
-      <c r="K222" t="s">
-        <v>1030</v>
-      </c>
-      <c r="M222" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="223" spans="5:13">
-      <c r="E223" t="s">
-        <v>1048</v>
-      </c>
-      <c r="F223" t="s">
-        <v>876</v>
-      </c>
-      <c r="G223" t="s">
-        <v>945</v>
-      </c>
-      <c r="H223" t="s">
-        <v>290</v>
-      </c>
-      <c r="I223" t="s">
-        <v>1035</v>
-      </c>
-      <c r="K223" t="s">
-        <v>1030</v>
-      </c>
-      <c r="M223" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="224" spans="5:13">
-      <c r="E224" t="s">
-        <v>1049</v>
-      </c>
-      <c r="F224" t="s">
-        <v>841</v>
-      </c>
-      <c r="G224" t="s">
-        <v>905</v>
-      </c>
-      <c r="H224" t="s">
-        <v>842</v>
-      </c>
-      <c r="L224">
-        <v>3</v>
-      </c>
-      <c r="M224">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3977" uniqueCount="1048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4048" uniqueCount="1084">
   <si>
     <r>
       <rPr>
@@ -7525,18 +7525,126 @@
   <si>
     <t>hmsg_template_server_line-239</t>
   </si>
+  <si>
+    <t>notify_message_setting_config</t>
+  </si>
+  <si>
+    <t>*id</t>
+  </si>
+  <si>
+    <t>#edit</t>
+  </si>
+  <si>
+    <t>#TENANT_ID</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-224</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-225</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-226</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-227</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-228</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-229</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-230</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-231</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-232</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-233</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-234</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-235</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-236</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-237</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-238</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-239</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-240</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-241</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-242</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-243</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-244</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-245</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-246</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-247</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-248</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-249</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-250</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-251</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-252</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-253</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-254</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-255</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -7606,65 +7714,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -7679,6 +7728,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -7689,7 +7783,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7704,15 +7835,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7720,22 +7843,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7754,12 +7862,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -7783,13 +7885,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -7802,12 +7897,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -7851,7 +7940,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7863,7 +7952,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7875,13 +7994,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7893,19 +8018,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7917,37 +8054,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7959,13 +8066,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7977,37 +8090,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8025,13 +8120,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8142,31 +8231,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8186,17 +8251,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8225,6 +8299,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -8238,158 +8327,160 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8851,10 +8942,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15.5555555555556" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="8" customWidth="1"/>
     <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="7" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="9" customWidth="1"/>
     <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
     <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
     <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
@@ -8868,79 +8959,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="8"/>
-      <c r="C1" s="9" t="s">
+      <c r="A1" s="10"/>
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="11"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="8"/>
+      <c r="A5" s="10"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -8948,56 +9039,56 @@
       </c>
     </row>
     <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="28" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
     </row>
     <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9007,64 +9098,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="12"/>
+      <c r="E25" s="14"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="14"/>
     </row>
     <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="37" t="s">
         <v>43</v>
       </c>
     </row>
@@ -9089,12 +9180,13 @@
   <sheetPr/>
   <dimension ref="A1:P792"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
+    <col min="4" max="4" width="22.5833333333333" customWidth="1"/>
     <col min="5" max="5" width="29.5" customWidth="1"/>
     <col min="6" max="6" width="32.3333333333333" customWidth="1"/>
     <col min="7" max="7" width="29.5" customWidth="1"/>
@@ -20804,17 +20896,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M221"/>
+  <dimension ref="A1:M255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A142" sqref="$A141:$XFD141 $A142:$XFD142"/>
+    <sheetView tabSelected="1" topLeftCell="E240" workbookViewId="0">
+      <selection activeCell="H255" sqref="H255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="5" max="5" width="27.8333333333333" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="22.4166666666667" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="22.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
+    <col min="5" max="5" width="34.9166666666667" customWidth="1"/>
+    <col min="6" max="6" width="34.5" customWidth="1"/>
+    <col min="7" max="7" width="33.9166666666667" customWidth="1"/>
     <col min="8" max="8" width="29.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -26068,6 +26164,477 @@
         <v>73</v>
       </c>
     </row>
+    <row r="223" spans="1:8">
+      <c r="A223" s="5">
+        <v>44036</v>
+      </c>
+      <c r="B223" t="s">
+        <v>51</v>
+      </c>
+      <c r="C223" t="s">
+        <v>649</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H223" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="224" spans="5:8">
+      <c r="E224" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F224" t="s">
+        <v>659</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="5:8">
+      <c r="E225" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F225" t="s">
+        <v>665</v>
+      </c>
+      <c r="G225">
+        <v>1</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="5:8">
+      <c r="E226" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F226" t="s">
+        <v>671</v>
+      </c>
+      <c r="G226">
+        <v>1</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="5:8">
+      <c r="E227" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F227" t="s">
+        <v>674</v>
+      </c>
+      <c r="G227">
+        <v>1</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="5:8">
+      <c r="E228" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F228" t="s">
+        <v>679</v>
+      </c>
+      <c r="G228">
+        <v>1</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="5:8">
+      <c r="E229" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F229" t="s">
+        <v>682</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="5:8">
+      <c r="E230" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F230" t="s">
+        <v>686</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="5:8">
+      <c r="E231" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F231" t="s">
+        <v>690</v>
+      </c>
+      <c r="G231">
+        <v>1</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="5:8">
+      <c r="E232" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F232" t="s">
+        <v>694</v>
+      </c>
+      <c r="G232">
+        <v>1</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="5:8">
+      <c r="E233" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F233" t="s">
+        <v>697</v>
+      </c>
+      <c r="G233">
+        <v>1</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="5:8">
+      <c r="E234" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F234" t="s">
+        <v>700</v>
+      </c>
+      <c r="G234">
+        <v>1</v>
+      </c>
+      <c r="H234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="5:8">
+      <c r="E235" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F235" t="s">
+        <v>705</v>
+      </c>
+      <c r="G235">
+        <v>1</v>
+      </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="5:8">
+      <c r="E236" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F236" t="s">
+        <v>710</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="H236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="5:8">
+      <c r="E237" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F237" t="s">
+        <v>713</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="5:8">
+      <c r="E238" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F238" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="5:8">
+      <c r="E239" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F239" t="s">
+        <v>720</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+      <c r="H239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="5:8">
+      <c r="E240" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F240" t="s">
+        <v>724</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+      <c r="H240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="5:8">
+      <c r="E241" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F241" t="s">
+        <v>728</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+      <c r="H241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="5:8">
+      <c r="E242" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F242" t="s">
+        <v>731</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="5:8">
+      <c r="E243" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F243" t="s">
+        <v>734</v>
+      </c>
+      <c r="G243">
+        <v>1</v>
+      </c>
+      <c r="H243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="5:8">
+      <c r="E244" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F244" t="s">
+        <v>737</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+      <c r="H244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="5:8">
+      <c r="E245" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F245" t="s">
+        <v>740</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+      <c r="H245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="5:8">
+      <c r="E246" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F246" t="s">
+        <v>744</v>
+      </c>
+      <c r="G246">
+        <v>1</v>
+      </c>
+      <c r="H246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="5:8">
+      <c r="E247" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F247" t="s">
+        <v>749</v>
+      </c>
+      <c r="G247">
+        <v>1</v>
+      </c>
+      <c r="H247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="5:8">
+      <c r="E248" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F248" t="s">
+        <v>754</v>
+      </c>
+      <c r="G248">
+        <v>1</v>
+      </c>
+      <c r="H248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="5:8">
+      <c r="E249" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F249" t="s">
+        <v>759</v>
+      </c>
+      <c r="G249">
+        <v>1</v>
+      </c>
+      <c r="H249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="5:8">
+      <c r="E250" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F250" t="s">
+        <v>763</v>
+      </c>
+      <c r="G250">
+        <v>1</v>
+      </c>
+      <c r="H250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="5:8">
+      <c r="E251" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F251" t="s">
+        <v>766</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+      <c r="H251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="5:8">
+      <c r="E252" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F252" t="s">
+        <v>769</v>
+      </c>
+      <c r="G252">
+        <v>1</v>
+      </c>
+      <c r="H252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="5:8">
+      <c r="E253" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F253" t="s">
+        <v>772</v>
+      </c>
+      <c r="G253">
+        <v>1</v>
+      </c>
+      <c r="H253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="5:8">
+      <c r="E254" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F254" t="s">
+        <v>775</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+      <c r="H254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="5:7">
+      <c r="E255" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F255" t="s">
+        <v>778</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4048" uniqueCount="1084">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4108" uniqueCount="1114">
   <si>
     <r>
       <rPr>
@@ -7633,6 +7633,96 @@
   <si>
     <t>notify_message_setting_config-255</t>
   </si>
+  <si>
+    <t>notify_message_setting_config-256</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-257</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-258</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-259</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-260</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-261</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-262</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-263</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-264</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-265</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-266</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-267</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-268</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-269</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-270</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-271</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-272</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-273</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-274</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-275</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-276</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-277</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-278</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-279</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-280</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-281</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-282</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-283</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-284</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-285</t>
+  </si>
 </sst>
 </file>
 
@@ -7640,9 +7730,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -7735,25 +7825,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7781,9 +7857,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7797,6 +7872,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -7804,7 +7893,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7826,8 +7915,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7843,7 +7933,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7851,14 +7948,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7940,13 +8030,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7958,7 +8120,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7970,55 +8156,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8030,13 +8174,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8048,25 +8192,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8078,49 +8210,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8277,9 +8367,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8299,6 +8391,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -8313,27 +8414,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8342,19 +8432,19 @@
     <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8363,112 +8453,112 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -20896,10 +20986,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M255"/>
+  <dimension ref="A1:M285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E240" workbookViewId="0">
-      <selection activeCell="H255" sqref="H255"/>
+    <sheetView tabSelected="1" topLeftCell="E267" workbookViewId="0">
+      <selection activeCell="H285" sqref="H285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -26624,7 +26714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="5:7">
+    <row r="255" spans="5:8">
       <c r="E255" t="s">
         <v>1083</v>
       </c>
@@ -26633,6 +26723,429 @@
       </c>
       <c r="G255">
         <v>1</v>
+      </c>
+      <c r="H255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="5:8">
+      <c r="E256" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F256" t="s">
+        <v>782</v>
+      </c>
+      <c r="G256">
+        <v>1</v>
+      </c>
+      <c r="H256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="5:8">
+      <c r="E257" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F257" t="s">
+        <v>786</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+      <c r="H257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="5:8">
+      <c r="E258" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F258" t="s">
+        <v>788</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+      <c r="H258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="5:8">
+      <c r="E259" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F259" t="s">
+        <v>792</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+      <c r="H259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="5:8">
+      <c r="E260" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F260" t="s">
+        <v>797</v>
+      </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+      <c r="H260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="5:8">
+      <c r="E261" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F261" t="s">
+        <v>800</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+      <c r="H261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="5:8">
+      <c r="E262" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F262" t="s">
+        <v>804</v>
+      </c>
+      <c r="G262">
+        <v>1</v>
+      </c>
+      <c r="H262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="5:8">
+      <c r="E263" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F263" t="s">
+        <v>808</v>
+      </c>
+      <c r="G263">
+        <v>1</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="5:8">
+      <c r="E264" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F264" t="s">
+        <v>811</v>
+      </c>
+      <c r="G264">
+        <v>1</v>
+      </c>
+      <c r="H264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="5:8">
+      <c r="E265" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F265" t="s">
+        <v>814</v>
+      </c>
+      <c r="G265">
+        <v>1</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="5:8">
+      <c r="E266" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F266" t="s">
+        <v>816</v>
+      </c>
+      <c r="G266">
+        <v>1</v>
+      </c>
+      <c r="H266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="5:8">
+      <c r="E267" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F267" t="s">
+        <v>819</v>
+      </c>
+      <c r="G267">
+        <v>1</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="5:8">
+      <c r="E268" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F268" t="s">
+        <v>822</v>
+      </c>
+      <c r="G268">
+        <v>1</v>
+      </c>
+      <c r="H268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="5:8">
+      <c r="E269" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F269" t="s">
+        <v>825</v>
+      </c>
+      <c r="G269">
+        <v>1</v>
+      </c>
+      <c r="H269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="5:8">
+      <c r="E270" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F270" t="s">
+        <v>831</v>
+      </c>
+      <c r="G270">
+        <v>1</v>
+      </c>
+      <c r="H270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="5:8">
+      <c r="E271" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F271" t="s">
+        <v>828</v>
+      </c>
+      <c r="G271">
+        <v>1</v>
+      </c>
+      <c r="H271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="5:8">
+      <c r="E272" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F272" t="s">
+        <v>834</v>
+      </c>
+      <c r="G272">
+        <v>1</v>
+      </c>
+      <c r="H272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="5:8">
+      <c r="E273" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F273" t="s">
+        <v>837</v>
+      </c>
+      <c r="G273">
+        <v>1</v>
+      </c>
+      <c r="H273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="5:8">
+      <c r="E274" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F274" t="s">
+        <v>839</v>
+      </c>
+      <c r="G274">
+        <v>1</v>
+      </c>
+      <c r="H274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="5:8">
+      <c r="E275" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F275" t="s">
+        <v>842</v>
+      </c>
+      <c r="G275">
+        <v>1</v>
+      </c>
+      <c r="H275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="5:8">
+      <c r="E276" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F276" t="s">
+        <v>844</v>
+      </c>
+      <c r="G276">
+        <v>1</v>
+      </c>
+      <c r="H276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="5:8">
+      <c r="E277" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F277" t="s">
+        <v>847</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+      <c r="H277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="5:8">
+      <c r="E278" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F278" t="s">
+        <v>849</v>
+      </c>
+      <c r="G278">
+        <v>1</v>
+      </c>
+      <c r="H278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="5:8">
+      <c r="E279" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F279" t="s">
+        <v>852</v>
+      </c>
+      <c r="G279">
+        <v>1</v>
+      </c>
+      <c r="H279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="5:8">
+      <c r="E280" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F280" t="s">
+        <v>855</v>
+      </c>
+      <c r="G280">
+        <v>1</v>
+      </c>
+      <c r="H280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="5:8">
+      <c r="E281" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F281" t="s">
+        <v>858</v>
+      </c>
+      <c r="G281">
+        <v>1</v>
+      </c>
+      <c r="H281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="5:8">
+      <c r="E282" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F282" t="s">
+        <v>861</v>
+      </c>
+      <c r="G282">
+        <v>1</v>
+      </c>
+      <c r="H282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="5:8">
+      <c r="E283" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F283" t="s">
+        <v>864</v>
+      </c>
+      <c r="G283">
+        <v>1</v>
+      </c>
+      <c r="H283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="5:8">
+      <c r="E284" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F284" t="s">
+        <v>864</v>
+      </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
+      <c r="H284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="5:8">
+      <c r="E285" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F285" t="s">
+        <v>867</v>
+      </c>
+      <c r="G285">
+        <v>1</v>
+      </c>
+      <c r="H285">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4108" uniqueCount="1114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4108" uniqueCount="1113">
   <si>
     <r>
       <rPr>
@@ -7067,9 +7067,6 @@
     <t>#type_code</t>
   </si>
   <si>
-    <t>template_code</t>
-  </si>
-  <si>
     <t>server_id</t>
   </si>
   <si>
@@ -7729,12 +7726,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -7762,6 +7759,12 @@
     <font>
       <sz val="11"/>
       <color indexed="42"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -7803,6 +7806,57 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -7819,17 +7873,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7857,43 +7925,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7916,41 +7950,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8030,7 +8033,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8042,19 +8063,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8066,25 +8075,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8096,25 +8087,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8132,7 +8105,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8144,19 +8177,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8168,49 +8213,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8319,24 +8322,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8345,7 +8350,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8367,11 +8372,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8394,183 +8397,184 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8579,44 +8583,44 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -8629,7 +8633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -9032,10 +9036,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="8" customWidth="1"/>
+    <col min="1" max="1" width="15.5555555555556" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="9" customWidth="1"/>
     <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="9" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="10" customWidth="1"/>
     <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
     <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
     <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
@@ -9049,79 +9053,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="13"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="11"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="26"/>
     </row>
     <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="29" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -9129,56 +9133,56 @@
       </c>
     </row>
     <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="29" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
     </row>
     <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="34" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9188,64 +9192,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="15"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="15"/>
     </row>
     <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="38" t="s">
         <v>43</v>
       </c>
     </row>
@@ -20988,8 +20992,8 @@
   <sheetPr/>
   <dimension ref="A1:M285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E267" workbookViewId="0">
-      <selection activeCell="H285" sqref="H285"/>
+    <sheetView tabSelected="1" topLeftCell="B63" workbookViewId="0">
+      <selection activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -23121,20 +23125,20 @@
       <c r="G83" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H83" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I83" t="s">
         <v>895</v>
       </c>
-      <c r="I83" t="s">
+      <c r="J83" t="s">
         <v>896</v>
       </c>
-      <c r="J83" t="s">
+      <c r="K83" t="s">
         <v>897</v>
       </c>
-      <c r="K83" t="s">
+      <c r="L83" t="s">
         <v>898</v>
-      </c>
-      <c r="L83" t="s">
-        <v>899</v>
       </c>
       <c r="M83" t="s">
         <v>64</v>
@@ -23142,14 +23146,14 @@
     </row>
     <row r="84" spans="5:13">
       <c r="E84" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F84" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G84" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H84" t="s">
         <v>267</v>
@@ -23158,7 +23162,7 @@
         <v>73</v>
       </c>
       <c r="K84" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L84" t="s">
         <v>74</v>
@@ -23169,14 +23173,14 @@
     </row>
     <row r="85" spans="5:13">
       <c r="E85" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F85" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G85" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H85" t="s">
         <v>89</v>
@@ -23185,7 +23189,7 @@
         <v>73</v>
       </c>
       <c r="K85" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L85" t="s">
         <v>74</v>
@@ -23196,14 +23200,14 @@
     </row>
     <row r="86" spans="5:13">
       <c r="E86" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F86" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G86" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H86" t="s">
         <v>93</v>
@@ -23217,14 +23221,14 @@
     </row>
     <row r="87" spans="5:13">
       <c r="E87" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F87" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G87" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H87" t="s">
         <v>426</v>
@@ -23238,14 +23242,14 @@
     </row>
     <row r="88" spans="5:13">
       <c r="E88" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F88" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G88" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H88" t="s">
         <v>262</v>
@@ -23254,7 +23258,7 @@
         <v>73</v>
       </c>
       <c r="K88" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L88" t="s">
         <v>74</v>
@@ -23265,14 +23269,14 @@
     </row>
     <row r="89" spans="5:13">
       <c r="E89" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F89" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G89" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H89" t="s">
         <v>265</v>
@@ -23286,14 +23290,14 @@
     </row>
     <row r="90" spans="5:13">
       <c r="E90" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F90" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G90" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H90" t="s">
         <v>258</v>
@@ -23307,14 +23311,14 @@
     </row>
     <row r="91" spans="5:13">
       <c r="E91" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F91" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G91" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H91" t="s">
         <v>255</v>
@@ -23328,14 +23332,14 @@
     </row>
     <row r="92" spans="5:13">
       <c r="E92" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F92" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G92" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H92" t="s">
         <v>225</v>
@@ -23344,7 +23348,7 @@
         <v>73</v>
       </c>
       <c r="K92" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L92" t="s">
         <v>74</v>
@@ -23355,14 +23359,14 @@
     </row>
     <row r="93" spans="5:13">
       <c r="E93" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F93" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G93" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H93" t="s">
         <v>229</v>
@@ -23376,14 +23380,14 @@
     </row>
     <row r="94" spans="5:13">
       <c r="E94" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F94" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G94" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H94" t="s">
         <v>221</v>
@@ -23397,14 +23401,14 @@
     </row>
     <row r="95" spans="5:13">
       <c r="E95" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F95" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G95" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H95" t="s">
         <v>217</v>
@@ -23418,14 +23422,14 @@
     </row>
     <row r="96" spans="5:13">
       <c r="E96" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F96" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G96" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H96" t="s">
         <v>253</v>
@@ -23439,14 +23443,14 @@
     </row>
     <row r="97" spans="5:13">
       <c r="E97" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F97" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G97" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H97" t="s">
         <v>249</v>
@@ -23460,14 +23464,14 @@
     </row>
     <row r="98" spans="5:13">
       <c r="E98" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F98" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G98" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H98" t="s">
         <v>246</v>
@@ -23481,14 +23485,14 @@
     </row>
     <row r="99" spans="5:13">
       <c r="E99" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F99" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G99" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H99" t="s">
         <v>215</v>
@@ -23502,14 +23506,14 @@
     </row>
     <row r="100" spans="5:13">
       <c r="E100" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F100" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G100" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H100" t="s">
         <v>211</v>
@@ -23523,14 +23527,14 @@
     </row>
     <row r="101" spans="5:13">
       <c r="E101" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F101" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G101" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H101" t="s">
         <v>207</v>
@@ -23544,14 +23548,14 @@
     </row>
     <row r="102" spans="5:13">
       <c r="E102" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F102" t="str">
         <f>发送配置!$E$15</f>
         <v>hmsg_template_server-15</v>
       </c>
       <c r="G102" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H102" t="s">
         <v>385</v>
@@ -23560,7 +23564,7 @@
         <v>73</v>
       </c>
       <c r="K102" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L102" t="s">
         <v>73</v>
@@ -23571,14 +23575,14 @@
     </row>
     <row r="103" spans="5:13">
       <c r="E103" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F103" t="str">
         <f>发送配置!$E$15</f>
         <v>hmsg_template_server-15</v>
       </c>
       <c r="G103" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H103" t="s">
         <v>388</v>
@@ -23592,14 +23596,14 @@
     </row>
     <row r="104" spans="5:13">
       <c r="E104" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F104" t="str">
         <f>发送配置!$E$15</f>
         <v>hmsg_template_server-15</v>
       </c>
       <c r="G104" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H104" t="s">
         <v>381</v>
@@ -23613,14 +23617,14 @@
     </row>
     <row r="105" spans="5:13">
       <c r="E105" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F105" t="str">
         <f>发送配置!$E$15</f>
         <v>hmsg_template_server-15</v>
       </c>
       <c r="G105" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H105" t="s">
         <v>378</v>
@@ -23634,14 +23638,14 @@
     </row>
     <row r="106" spans="5:13">
       <c r="E106" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F106" t="str">
         <f>发送配置!$E$16</f>
         <v>hmsg_template_server-16</v>
       </c>
       <c r="G106" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H106" t="s">
         <v>373</v>
@@ -23650,7 +23654,7 @@
         <v>73</v>
       </c>
       <c r="K106" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L106" t="s">
         <v>73</v>
@@ -23661,14 +23665,14 @@
     </row>
     <row r="107" spans="5:13">
       <c r="E107" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F107" t="str">
         <f>发送配置!$E$16</f>
         <v>hmsg_template_server-16</v>
       </c>
       <c r="G107" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H107" t="s">
         <v>376</v>
@@ -23682,14 +23686,14 @@
     </row>
     <row r="108" spans="5:13">
       <c r="E108" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F108" t="str">
         <f>发送配置!$E$16</f>
         <v>hmsg_template_server-16</v>
       </c>
       <c r="G108" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H108" t="s">
         <v>369</v>
@@ -23703,14 +23707,14 @@
     </row>
     <row r="109" spans="5:13">
       <c r="E109" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F109" t="str">
         <f>发送配置!$E$16</f>
         <v>hmsg_template_server-16</v>
       </c>
       <c r="G109" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H109" t="s">
         <v>364</v>
@@ -23724,14 +23728,14 @@
     </row>
     <row r="110" spans="5:13">
       <c r="E110" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F110" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-17</v>
       </c>
       <c r="G110" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H110" t="s">
         <v>397</v>
@@ -23740,7 +23744,7 @@
         <v>73</v>
       </c>
       <c r="K110" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L110" t="s">
         <v>73</v>
@@ -23751,14 +23755,14 @@
     </row>
     <row r="111" spans="5:13">
       <c r="E111" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F111" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-17</v>
       </c>
       <c r="G111" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H111" t="s">
         <v>400</v>
@@ -23772,14 +23776,14 @@
     </row>
     <row r="112" spans="5:13">
       <c r="E112" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F112" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-17</v>
       </c>
       <c r="G112" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H112" t="s">
         <v>393</v>
@@ -23793,14 +23797,14 @@
     </row>
     <row r="113" spans="5:13">
       <c r="E113" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F113" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-17</v>
       </c>
       <c r="G113" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H113" t="s">
         <v>390</v>
@@ -23814,14 +23818,14 @@
     </row>
     <row r="114" spans="5:13">
       <c r="E114" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F114" t="str">
         <f>发送配置!$E$19</f>
         <v>hmsg_template_server-19</v>
       </c>
       <c r="G114" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H114" t="s">
         <v>412</v>
@@ -23835,14 +23839,14 @@
     </row>
     <row r="115" spans="5:13">
       <c r="E115" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F115" t="str">
         <f>发送配置!$E$20</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G115" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H115" t="s">
         <v>410</v>
@@ -23856,14 +23860,14 @@
     </row>
     <row r="116" spans="5:13">
       <c r="E116" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F116" t="str">
         <f>发送配置!$E$20</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G116" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H116" t="s">
         <v>406</v>
@@ -23877,14 +23881,14 @@
     </row>
     <row r="117" spans="5:13">
       <c r="E117" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F117" t="str">
         <f>发送配置!$E$20</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G117" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H117" t="s">
         <v>402</v>
@@ -23898,14 +23902,14 @@
     </row>
     <row r="118" spans="5:13">
       <c r="E118" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F118" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-21</v>
       </c>
       <c r="G118" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H118" t="s">
         <v>503</v>
@@ -23914,7 +23918,7 @@
         <v>73</v>
       </c>
       <c r="K118" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L118" t="s">
         <v>74</v>
@@ -23925,14 +23929,14 @@
     </row>
     <row r="119" spans="5:13">
       <c r="E119" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F119" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-21</v>
       </c>
       <c r="G119" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H119" t="s">
         <v>507</v>
@@ -23946,14 +23950,14 @@
     </row>
     <row r="120" spans="5:13">
       <c r="E120" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F120" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-22</v>
       </c>
       <c r="G120" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H120" t="s">
         <v>529</v>
@@ -23967,14 +23971,14 @@
     </row>
     <row r="121" spans="5:13">
       <c r="E121" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F121" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-27</v>
       </c>
       <c r="G121" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H121" t="s">
         <v>510</v>
@@ -23983,7 +23987,7 @@
         <v>73</v>
       </c>
       <c r="K121" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L121" t="s">
         <v>74</v>
@@ -23994,14 +23998,14 @@
     </row>
     <row r="122" spans="5:13">
       <c r="E122" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F122" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-27</v>
       </c>
       <c r="G122" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H122" t="s">
         <v>519</v>
@@ -24015,14 +24019,14 @@
     </row>
     <row r="123" spans="5:13">
       <c r="E123" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F123" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-27</v>
       </c>
       <c r="G123" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H123" t="s">
         <v>514</v>
@@ -24031,7 +24035,7 @@
         <v>73</v>
       </c>
       <c r="K123" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L123" t="s">
         <v>74</v>
@@ -24042,14 +24046,14 @@
     </row>
     <row r="124" spans="5:13">
       <c r="E124" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F124" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-29</v>
       </c>
       <c r="G124" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H124" t="s">
         <v>454</v>
@@ -24058,7 +24062,7 @@
         <v>73</v>
       </c>
       <c r="K124" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L124" t="s">
         <v>74</v>
@@ -24069,14 +24073,14 @@
     </row>
     <row r="125" spans="5:13">
       <c r="E125" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F125" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-29</v>
       </c>
       <c r="G125" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H125" t="s">
         <v>457</v>
@@ -24090,14 +24094,14 @@
     </row>
     <row r="126" spans="5:13">
       <c r="E126" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F126" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-29</v>
       </c>
       <c r="G126" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H126" t="s">
         <v>450</v>
@@ -24111,14 +24115,14 @@
     </row>
     <row r="127" spans="5:13">
       <c r="E127" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F127" t="str">
         <f>发送配置!$E$25</f>
         <v>hmsg_template_server-30</v>
       </c>
       <c r="G127" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H127" t="s">
         <v>464</v>
@@ -24127,7 +24131,7 @@
         <v>73</v>
       </c>
       <c r="K127" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L127" t="s">
         <v>74</v>
@@ -24138,14 +24142,14 @@
     </row>
     <row r="128" spans="5:13">
       <c r="E128" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F128" t="str">
         <f>发送配置!$E$25</f>
         <v>hmsg_template_server-30</v>
       </c>
       <c r="G128" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H128" t="s">
         <v>467</v>
@@ -24159,14 +24163,14 @@
     </row>
     <row r="129" spans="5:13">
       <c r="E129" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F129" t="str">
         <f>发送配置!$E$25</f>
         <v>hmsg_template_server-30</v>
       </c>
       <c r="G129" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H129" t="s">
         <v>461</v>
@@ -24180,14 +24184,14 @@
     </row>
     <row r="130" spans="5:13">
       <c r="E130" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F130" t="str">
         <f>发送配置!$E$26</f>
         <v>hmsg_template_server-31</v>
       </c>
       <c r="G130" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H130" t="s">
         <v>477</v>
@@ -24196,7 +24200,7 @@
         <v>73</v>
       </c>
       <c r="K130" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L130" t="s">
         <v>74</v>
@@ -24207,14 +24211,14 @@
     </row>
     <row r="131" spans="5:13">
       <c r="E131" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F131" t="str">
         <f>发送配置!$E$26</f>
         <v>hmsg_template_server-31</v>
       </c>
       <c r="G131" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H131" t="s">
         <v>480</v>
@@ -24228,14 +24232,14 @@
     </row>
     <row r="132" spans="5:13">
       <c r="E132" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F132" t="str">
         <f>发送配置!$E$26</f>
         <v>hmsg_template_server-31</v>
       </c>
       <c r="G132" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H132" t="s">
         <v>473</v>
@@ -24249,14 +24253,14 @@
     </row>
     <row r="133" spans="5:13">
       <c r="E133" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F133" t="str">
         <f>发送配置!$E$26</f>
         <v>hmsg_template_server-31</v>
       </c>
       <c r="G133" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H133" t="s">
         <v>470</v>
@@ -24270,14 +24274,14 @@
     </row>
     <row r="134" spans="5:13">
       <c r="E134" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F134" t="str">
         <f>发送配置!$E$27</f>
         <v>hmsg_template_server-32</v>
       </c>
       <c r="G134" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H134" t="s">
         <v>445</v>
@@ -24286,7 +24290,7 @@
         <v>73</v>
       </c>
       <c r="K134" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L134" t="s">
         <v>74</v>
@@ -24297,14 +24301,14 @@
     </row>
     <row r="135" spans="5:13">
       <c r="E135" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F135" t="str">
         <f>发送配置!$E$27</f>
         <v>hmsg_template_server-32</v>
       </c>
       <c r="G135" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H135" t="s">
         <v>448</v>
@@ -24318,14 +24322,14 @@
     </row>
     <row r="136" spans="5:13">
       <c r="E136" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F136" t="str">
         <f>发送配置!$E$27</f>
         <v>hmsg_template_server-32</v>
       </c>
       <c r="G136" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H136" t="s">
         <v>441</v>
@@ -24339,14 +24343,14 @@
     </row>
     <row r="137" spans="5:13">
       <c r="E137" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F137" t="str">
         <f>发送配置!$E$27</f>
         <v>hmsg_template_server-32</v>
       </c>
       <c r="G137" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H137" t="s">
         <v>436</v>
@@ -24360,14 +24364,14 @@
     </row>
     <row r="138" spans="5:13">
       <c r="E138" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F138" t="str">
         <f>发送配置!$E$28</f>
         <v>hmsg_template_server-33</v>
       </c>
       <c r="G138" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H138" t="s">
         <v>429</v>
@@ -24376,7 +24380,7 @@
         <v>73</v>
       </c>
       <c r="K138" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L138" t="s">
         <v>74</v>
@@ -24387,14 +24391,14 @@
     </row>
     <row r="139" spans="5:13">
       <c r="E139" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F139" t="str">
         <f>发送配置!$E$28</f>
         <v>hmsg_template_server-33</v>
       </c>
       <c r="G139" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H139" t="s">
         <v>432</v>
@@ -24408,14 +24412,14 @@
     </row>
     <row r="140" spans="5:13">
       <c r="E140" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F140" t="str">
         <f>发送配置!$E$29</f>
         <v>hmsg_template_server-35</v>
       </c>
       <c r="G140" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H140" t="s">
         <v>360</v>
@@ -24424,7 +24428,7 @@
         <v>73</v>
       </c>
       <c r="K140" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L140" t="s">
         <v>74</v>
@@ -24435,14 +24439,14 @@
     </row>
     <row r="141" spans="5:13">
       <c r="E141" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F141" t="str">
         <f>发送配置!$E$30</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G141" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H141" t="s">
         <v>238</v>
@@ -24451,7 +24455,7 @@
         <v>73</v>
       </c>
       <c r="K141" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L141" t="s">
         <v>74</v>
@@ -24462,14 +24466,14 @@
     </row>
     <row r="142" spans="5:13">
       <c r="E142" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F142" t="str">
         <f>发送配置!$E$30</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G142" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H142" t="s">
         <v>241</v>
@@ -24483,14 +24487,14 @@
     </row>
     <row r="143" spans="5:13">
       <c r="E143" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F143" t="str">
         <f>发送配置!$E$30</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G143" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H143" t="s">
         <v>234</v>
@@ -24504,14 +24508,14 @@
     </row>
     <row r="144" spans="5:13">
       <c r="E144" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F144" t="str">
         <f>发送配置!$E$30</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G144" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H144" t="s">
         <v>231</v>
@@ -24525,14 +24529,14 @@
     </row>
     <row r="145" spans="5:13">
       <c r="E145" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F145" t="str">
         <f>发送配置!$E$31</f>
         <v>hmsg_template_server-38</v>
       </c>
       <c r="G145" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H145" t="s">
         <v>420</v>
@@ -24541,7 +24545,7 @@
         <v>73</v>
       </c>
       <c r="K145" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L145" t="s">
         <v>74</v>
@@ -24552,14 +24556,14 @@
     </row>
     <row r="146" spans="5:13">
       <c r="E146" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F146" t="str">
         <f>发送配置!$E$31</f>
         <v>hmsg_template_server-38</v>
       </c>
       <c r="G146" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H146" t="s">
         <v>423</v>
@@ -24573,14 +24577,14 @@
     </row>
     <row r="147" spans="5:13">
       <c r="E147" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F147" t="str">
         <f>发送配置!$E$32</f>
         <v>hmsg_template_server-39</v>
       </c>
       <c r="G147" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H147" t="s">
         <v>354</v>
@@ -24589,7 +24593,7 @@
         <v>73</v>
       </c>
       <c r="K147" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L147" t="s">
         <v>74</v>
@@ -24600,14 +24604,14 @@
     </row>
     <row r="148" spans="5:13">
       <c r="E148" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F148" t="str">
         <f>发送配置!$E$32</f>
         <v>hmsg_template_server-39</v>
       </c>
       <c r="G148" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H148" t="s">
         <v>357</v>
@@ -24621,14 +24625,14 @@
     </row>
     <row r="149" spans="5:13">
       <c r="E149" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F149" t="str">
         <f>发送配置!$E$33</f>
         <v>hmsg_template_server-40</v>
       </c>
       <c r="G149" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H149" t="s">
         <v>414</v>
@@ -24637,7 +24641,7 @@
         <v>73</v>
       </c>
       <c r="K149" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L149" t="s">
         <v>74</v>
@@ -24648,14 +24652,14 @@
     </row>
     <row r="150" spans="5:13">
       <c r="E150" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F150" t="str">
         <f>发送配置!$E$33</f>
         <v>hmsg_template_server-40</v>
       </c>
       <c r="G150" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H150" t="s">
         <v>417</v>
@@ -24669,14 +24673,14 @@
     </row>
     <row r="151" spans="5:13">
       <c r="E151" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F151" t="str">
         <f>发送配置!$E$34</f>
         <v>hmsg_template_server-41</v>
       </c>
       <c r="G151" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H151" t="s">
         <v>274</v>
@@ -24685,7 +24689,7 @@
         <v>73</v>
       </c>
       <c r="K151" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L151" t="s">
         <v>74</v>
@@ -24696,14 +24700,14 @@
     </row>
     <row r="152" spans="5:13">
       <c r="E152" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F152" t="str">
         <f>发送配置!$E$34</f>
         <v>hmsg_template_server-41</v>
       </c>
       <c r="G152" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H152" t="s">
         <v>277</v>
@@ -24717,14 +24721,14 @@
     </row>
     <row r="153" spans="5:13">
       <c r="E153" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F153" t="str">
         <f>发送配置!$E$34</f>
         <v>hmsg_template_server-41</v>
       </c>
       <c r="G153" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H153" t="s">
         <v>271</v>
@@ -24738,14 +24742,14 @@
     </row>
     <row r="154" spans="5:13">
       <c r="E154" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F154" t="str">
         <f>发送配置!$E$35</f>
         <v>hmsg_template_server-42</v>
       </c>
       <c r="G154" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H154" t="s">
         <v>113</v>
@@ -24754,7 +24758,7 @@
         <v>73</v>
       </c>
       <c r="K154" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L154" t="s">
         <v>74</v>
@@ -24765,14 +24769,14 @@
     </row>
     <row r="155" spans="5:13">
       <c r="E155" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F155" t="str">
         <f>发送配置!$E$35</f>
         <v>hmsg_template_server-42</v>
       </c>
       <c r="G155" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H155" t="s">
         <v>117</v>
@@ -24786,14 +24790,14 @@
     </row>
     <row r="156" spans="5:13">
       <c r="E156" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F156" t="str">
         <f>发送配置!$E$36</f>
         <v>hmsg_template_server-43</v>
       </c>
       <c r="G156" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H156" t="s">
         <v>348</v>
@@ -24802,7 +24806,7 @@
         <v>73</v>
       </c>
       <c r="K156" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L156" t="s">
         <v>74</v>
@@ -24813,14 +24817,14 @@
     </row>
     <row r="157" spans="5:13">
       <c r="E157" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F157" t="str">
         <f>发送配置!$E$36</f>
         <v>hmsg_template_server-43</v>
       </c>
       <c r="G157" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H157" t="s">
         <v>351</v>
@@ -24834,14 +24838,14 @@
     </row>
     <row r="158" spans="5:13">
       <c r="E158" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F158" t="str">
         <f>发送配置!$E$37</f>
         <v>hmsg_template_server-44</v>
       </c>
       <c r="G158" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H158" t="s">
         <v>120</v>
@@ -24850,7 +24854,7 @@
         <v>73</v>
       </c>
       <c r="K158" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L158" t="s">
         <v>74</v>
@@ -24861,14 +24865,14 @@
     </row>
     <row r="159" spans="5:13">
       <c r="E159" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F159" t="str">
         <f>发送配置!$E$37</f>
         <v>hmsg_template_server-44</v>
       </c>
       <c r="G159" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H159" t="s">
         <v>123</v>
@@ -24882,14 +24886,14 @@
     </row>
     <row r="160" spans="5:13">
       <c r="E160" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F160" t="str">
         <f>发送配置!$E$38</f>
         <v>hmsg_template_server-45</v>
       </c>
       <c r="G160" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H160" t="s">
         <v>531</v>
@@ -24898,7 +24902,7 @@
         <v>73</v>
       </c>
       <c r="K160" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L160" t="s">
         <v>74</v>
@@ -24909,14 +24913,14 @@
     </row>
     <row r="161" spans="5:13">
       <c r="E161" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F161" t="str">
         <f>发送配置!$E$38</f>
         <v>hmsg_template_server-45</v>
       </c>
       <c r="G161" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H161" t="s">
         <v>534</v>
@@ -24930,14 +24934,14 @@
     </row>
     <row r="162" spans="5:13">
       <c r="E162" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F162" t="str">
         <f>发送配置!$E$39</f>
         <v>hmsg_template_server-46</v>
       </c>
       <c r="G162" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H162" t="s">
         <v>105</v>
@@ -24946,7 +24950,7 @@
         <v>73</v>
       </c>
       <c r="K162" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L162" t="s">
         <v>74</v>
@@ -24957,14 +24961,14 @@
     </row>
     <row r="163" spans="5:13">
       <c r="E163" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F163" t="str">
         <f>发送配置!$E$39</f>
         <v>hmsg_template_server-46</v>
       </c>
       <c r="G163" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H163" t="s">
         <v>109</v>
@@ -24978,14 +24982,14 @@
     </row>
     <row r="164" spans="5:13">
       <c r="E164" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F164" t="str">
         <f>发送配置!$E$39</f>
         <v>hmsg_template_server-46</v>
       </c>
       <c r="G164" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H164" t="s">
         <v>100</v>
@@ -24999,14 +25003,14 @@
     </row>
     <row r="165" spans="5:13">
       <c r="E165" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F165" t="str">
         <f>发送配置!$E$40</f>
         <v>hmsg_template_server-47</v>
       </c>
       <c r="G165" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H165" t="s">
         <v>199</v>
@@ -25015,7 +25019,7 @@
         <v>73</v>
       </c>
       <c r="K165" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L165" t="s">
         <v>74</v>
@@ -25026,14 +25030,14 @@
     </row>
     <row r="166" spans="5:13">
       <c r="E166" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F166" t="str">
         <f>发送配置!$E$40</f>
         <v>hmsg_template_server-47</v>
       </c>
       <c r="G166" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H166" t="s">
         <v>202</v>
@@ -25047,14 +25051,14 @@
     </row>
     <row r="167" spans="5:13">
       <c r="E167" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F167" t="str">
         <f>发送配置!$E$40</f>
         <v>hmsg_template_server-47</v>
       </c>
       <c r="G167" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H167" t="s">
         <v>195</v>
@@ -25068,14 +25072,14 @@
     </row>
     <row r="168" spans="5:13">
       <c r="E168" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F168" t="str">
         <f>发送配置!$E$40</f>
         <v>hmsg_template_server-47</v>
       </c>
       <c r="G168" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H168" t="s">
         <v>191</v>
@@ -25089,14 +25093,14 @@
     </row>
     <row r="169" spans="5:13">
       <c r="E169" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F169" t="str">
         <f>发送配置!$E$41</f>
         <v>hmsg_template_server-48</v>
       </c>
       <c r="G169" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H169" t="s">
         <v>281</v>
@@ -25110,14 +25114,14 @@
     </row>
     <row r="170" spans="5:13">
       <c r="E170" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F170" t="str">
         <f>发送配置!$E$42</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G170" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H170" t="s">
         <v>82</v>
@@ -25126,7 +25130,7 @@
         <v>73</v>
       </c>
       <c r="K170" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L170" t="s">
         <v>74</v>
@@ -25137,14 +25141,14 @@
     </row>
     <row r="171" spans="5:13">
       <c r="E171" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F171" t="str">
         <f>发送配置!$E$42</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G171" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H171" t="s">
         <v>86</v>
@@ -25158,14 +25162,14 @@
     </row>
     <row r="172" spans="5:13">
       <c r="E172" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F172" t="str">
         <f>发送配置!$E$42</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G172" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H172" t="s">
         <v>76</v>
@@ -25179,14 +25183,14 @@
     </row>
     <row r="173" spans="5:13">
       <c r="E173" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F173" t="str">
         <f>发送配置!$E$43</f>
         <v>hmsg_template_server-50</v>
       </c>
       <c r="G173" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H173" t="s">
         <v>543</v>
@@ -25195,7 +25199,7 @@
         <v>73</v>
       </c>
       <c r="K173" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L173" t="s">
         <v>74</v>
@@ -25206,14 +25210,14 @@
     </row>
     <row r="174" spans="5:13">
       <c r="E174" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F174" t="str">
         <f>发送配置!$E$43</f>
         <v>hmsg_template_server-50</v>
       </c>
       <c r="G174" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H174" t="s">
         <v>547</v>
@@ -25227,14 +25231,14 @@
     </row>
     <row r="175" spans="5:13">
       <c r="E175" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F175" t="str">
         <f>发送配置!$E$44</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G175" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H175" t="s">
         <v>486</v>
@@ -25243,7 +25247,7 @@
         <v>73</v>
       </c>
       <c r="K175" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L175" t="s">
         <v>74</v>
@@ -25254,14 +25258,14 @@
     </row>
     <row r="176" spans="5:13">
       <c r="E176" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F176" t="str">
         <f>发送配置!$E$44</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G176" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H176" t="s">
         <v>490</v>
@@ -25275,14 +25279,14 @@
     </row>
     <row r="177" spans="5:13">
       <c r="E177" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F177" t="str">
         <f>发送配置!$E$44</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G177" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H177" t="s">
         <v>482</v>
@@ -25296,14 +25300,14 @@
     </row>
     <row r="178" spans="5:13">
       <c r="E178" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F178" t="str">
         <f>发送配置!$E$45</f>
         <v>hmsg_template_server-52</v>
       </c>
       <c r="G178" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H178" t="s">
         <v>537</v>
@@ -25312,7 +25316,7 @@
         <v>73</v>
       </c>
       <c r="K178" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L178" t="s">
         <v>74</v>
@@ -25323,14 +25327,14 @@
     </row>
     <row r="179" spans="5:13">
       <c r="E179" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F179" t="str">
         <f>发送配置!$E$45</f>
         <v>hmsg_template_server-52</v>
       </c>
       <c r="G179" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H179" t="s">
         <v>540</v>
@@ -25344,14 +25348,14 @@
     </row>
     <row r="180" spans="5:13">
       <c r="E180" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F180" t="str">
         <f>发送配置!$E$46</f>
         <v>hmsg_template_server-53</v>
       </c>
       <c r="G180" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H180" t="s">
         <v>171</v>
@@ -25360,7 +25364,7 @@
         <v>73</v>
       </c>
       <c r="K180" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L180" t="s">
         <v>74</v>
@@ -25371,14 +25375,14 @@
     </row>
     <row r="181" spans="5:13">
       <c r="E181" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F181" t="str">
         <f>发送配置!$E$46</f>
         <v>hmsg_template_server-53</v>
       </c>
       <c r="G181" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H181" t="s">
         <v>174</v>
@@ -25392,14 +25396,14 @@
     </row>
     <row r="182" spans="5:13">
       <c r="E182" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F182" t="str">
         <f>发送配置!$E$46</f>
         <v>hmsg_template_server-53</v>
       </c>
       <c r="G182" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H182" t="s">
         <v>168</v>
@@ -25413,20 +25417,20 @@
     </row>
     <row r="183" spans="5:13">
       <c r="E183" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F183" t="str">
         <f>发送配置!$E$47</f>
         <v>hmsg_template_server-54</v>
       </c>
       <c r="G183" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H183" t="s">
         <v>165</v>
       </c>
       <c r="L183" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="M183" t="s">
         <v>73</v>
@@ -25434,20 +25438,20 @@
     </row>
     <row r="184" spans="5:13">
       <c r="E184" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F184" t="str">
         <f>发送配置!$E$48</f>
         <v>hmsg_template_server-55</v>
       </c>
       <c r="G184" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H184" t="s">
         <v>243</v>
       </c>
       <c r="L184" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="M184" t="s">
         <v>73</v>
@@ -25455,20 +25459,20 @@
     </row>
     <row r="185" spans="5:13">
       <c r="E185" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F185" t="str">
         <f>发送配置!$E$49</f>
         <v>hmsg_template_server-56</v>
       </c>
       <c r="G185" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H185" t="s">
         <v>184</v>
       </c>
       <c r="L185" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="M185" t="s">
         <v>73</v>
@@ -25476,20 +25480,20 @@
     </row>
     <row r="186" spans="5:13">
       <c r="E186" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F186" t="str">
         <f>发送配置!$E$50</f>
         <v>hmsg_template_server-57</v>
       </c>
       <c r="G186" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H186" t="s">
         <v>204</v>
       </c>
       <c r="L186" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="M186" t="s">
         <v>73</v>
@@ -25497,20 +25501,20 @@
     </row>
     <row r="187" spans="5:13">
       <c r="E187" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F187" t="str">
         <f>发送配置!$E$51</f>
         <v>hmsg_template_server-58</v>
       </c>
       <c r="G187" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H187" t="s">
         <v>135</v>
       </c>
       <c r="L187" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="M187" t="s">
         <v>73</v>
@@ -25518,20 +25522,20 @@
     </row>
     <row r="188" spans="5:13">
       <c r="E188" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F188" t="str">
         <f>发送配置!$E$52</f>
         <v>hmsg_template_server-59</v>
       </c>
       <c r="G188" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H188" t="s">
         <v>139</v>
       </c>
       <c r="L188" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="M188" t="s">
         <v>73</v>
@@ -25539,20 +25543,20 @@
     </row>
     <row r="189" spans="5:13">
       <c r="E189" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F189" t="str">
         <f>发送配置!$E$53</f>
         <v>hmsg_template_server-60</v>
       </c>
       <c r="G189" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H189" t="s">
         <v>142</v>
       </c>
       <c r="L189" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="M189" t="s">
         <v>73</v>
@@ -25560,20 +25564,20 @@
     </row>
     <row r="190" spans="5:13">
       <c r="E190" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F190" t="str">
         <f>发送配置!$E$54</f>
         <v>hmsg_template_server-61</v>
       </c>
       <c r="G190" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H190" t="s">
         <v>147</v>
       </c>
       <c r="L190" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="M190" t="s">
         <v>73</v>
@@ -25581,20 +25585,20 @@
     </row>
     <row r="191" spans="5:13">
       <c r="E191" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F191" t="str">
         <f>发送配置!$E$55</f>
         <v>hmsg_template_server-62</v>
       </c>
       <c r="G191" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H191" t="s">
         <v>181</v>
       </c>
       <c r="L191" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="M191" t="s">
         <v>73</v>
@@ -25602,20 +25606,20 @@
     </row>
     <row r="192" spans="5:13">
       <c r="E192" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F192" t="str">
         <f>发送配置!$E$56</f>
         <v>hmsg_template_server-63</v>
       </c>
       <c r="G192" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H192" t="s">
         <v>155</v>
       </c>
       <c r="L192" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="M192" t="s">
         <v>73</v>
@@ -25623,20 +25627,20 @@
     </row>
     <row r="193" spans="5:13">
       <c r="E193" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F193" t="str">
         <f>发送配置!$E$57</f>
         <v>hmsg_template_server-64</v>
       </c>
       <c r="G193" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H193" t="s">
         <v>126</v>
       </c>
       <c r="L193" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="M193" t="s">
         <v>73</v>
@@ -25644,20 +25648,20 @@
     </row>
     <row r="194" spans="5:13">
       <c r="E194" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F194" t="str">
         <f>发送配置!$E$58</f>
         <v>hmsg_template_server-65</v>
       </c>
       <c r="G194" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H194" t="s">
         <v>187</v>
       </c>
       <c r="L194" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="M194" t="s">
         <v>73</v>
@@ -25665,20 +25669,20 @@
     </row>
     <row r="195" spans="5:13">
       <c r="E195" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F195" t="str">
         <f>发送配置!$E$60</f>
         <v>hmsg_template_server-67</v>
       </c>
       <c r="G195" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H195" t="s">
         <v>160</v>
       </c>
       <c r="L195" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="M195" t="s">
         <v>73</v>
@@ -25686,20 +25690,20 @@
     </row>
     <row r="196" spans="5:13">
       <c r="E196" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F196" t="str">
         <f>发送配置!$E$61</f>
         <v>hmsg_template_server-68</v>
       </c>
       <c r="G196" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H196" t="s">
         <v>482</v>
       </c>
       <c r="L196" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="M196" t="s">
         <v>73</v>
@@ -25707,20 +25711,20 @@
     </row>
     <row r="197" spans="5:13">
       <c r="E197" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F197" t="str">
         <f>发送配置!$E$63</f>
         <v>hmsg_template_server-70</v>
       </c>
       <c r="G197" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H197" t="s">
         <v>550</v>
       </c>
       <c r="L197" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="M197" t="s">
         <v>73</v>
@@ -25728,20 +25732,20 @@
     </row>
     <row r="198" spans="5:13">
       <c r="E198" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F198" t="str">
         <f>发送配置!$E$64</f>
         <v>hmsg_template_server-71</v>
       </c>
       <c r="G198" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H198" t="s">
         <v>131</v>
       </c>
       <c r="L198" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="M198" t="s">
         <v>73</v>
@@ -25749,20 +25753,20 @@
     </row>
     <row r="199" spans="5:13">
       <c r="E199" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F199" t="str">
         <f>发送配置!$E$65</f>
         <v>hmsg_template_server-72</v>
       </c>
       <c r="G199" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H199" t="s">
         <v>558</v>
       </c>
       <c r="L199" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="M199" t="s">
         <v>73</v>
@@ -25770,20 +25774,20 @@
     </row>
     <row r="200" spans="5:13">
       <c r="E200" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F200" t="str">
         <f>发送配置!$E$66</f>
         <v>hmsg_template_server-73</v>
       </c>
       <c r="G200" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H200" t="s">
         <v>67</v>
       </c>
       <c r="L200" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="M200" t="s">
         <v>73</v>
@@ -25791,20 +25795,20 @@
     </row>
     <row r="201" spans="5:13">
       <c r="E201" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F201" t="str">
         <f>发送配置!$E$67</f>
         <v>hmsg_template_server-74</v>
       </c>
       <c r="G201" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H201" t="s">
         <v>178</v>
       </c>
       <c r="L201" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="M201" t="s">
         <v>73</v>
@@ -25812,20 +25816,20 @@
     </row>
     <row r="202" spans="5:13">
       <c r="E202" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F202" t="str">
         <f>发送配置!$E$68</f>
         <v>hmsg_template_server-75</v>
       </c>
       <c r="G202" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H202" t="s">
         <v>521</v>
       </c>
       <c r="L202" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="M202" t="s">
         <v>73</v>
@@ -25833,14 +25837,14 @@
     </row>
     <row r="203" spans="5:13">
       <c r="E203" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F203" t="str">
         <f>发送配置!$E$69</f>
         <v>hmsg_template_server-76</v>
       </c>
       <c r="G203" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H203" t="s">
         <v>493</v>
@@ -25851,14 +25855,14 @@
     </row>
     <row r="204" spans="5:13">
       <c r="E204" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F204" t="str">
         <f>发送配置!$E$70</f>
         <v>hmsg_template_server-77</v>
       </c>
       <c r="G204" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H204" t="s">
         <v>498</v>
@@ -25869,20 +25873,20 @@
     </row>
     <row r="205" spans="5:13">
       <c r="E205" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F205" t="str">
         <f>发送配置!$E$80</f>
         <v>hmsg_template_server-87</v>
       </c>
       <c r="G205" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H205" t="s">
         <v>337</v>
       </c>
       <c r="K205" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="M205" t="s">
         <v>73</v>
@@ -25890,14 +25894,14 @@
     </row>
     <row r="206" spans="5:13">
       <c r="E206" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F206" t="str">
         <f>发送配置!$E$62</f>
         <v>hmsg_template_server-69</v>
       </c>
       <c r="G206" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H206" t="s">
         <v>96</v>
@@ -25908,14 +25912,14 @@
     </row>
     <row r="207" spans="5:13">
       <c r="E207" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F207" t="str">
         <f>发送配置!$E$75</f>
         <v>hmsg_template_server-82</v>
       </c>
       <c r="G207" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H207" t="s">
         <v>313</v>
@@ -25926,14 +25930,14 @@
     </row>
     <row r="208" spans="5:13">
       <c r="E208" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F208" t="str">
         <f>发送配置!$E$59</f>
         <v>hmsg_template_server-66</v>
       </c>
       <c r="G208" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H208" t="s">
         <v>525</v>
@@ -25944,23 +25948,23 @@
     </row>
     <row r="209" spans="5:13">
       <c r="E209" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F209" t="str">
         <f>发送配置!$E$81</f>
         <v>hmsg_template_server-88</v>
       </c>
       <c r="G209" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H209" t="s">
         <v>343</v>
       </c>
       <c r="I209" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="K209" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="M209" t="s">
         <v>73</v>
@@ -25968,23 +25972,23 @@
     </row>
     <row r="210" spans="5:13">
       <c r="E210" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F210" t="str">
         <f>发送配置!$E$77</f>
         <v>hmsg_template_server-84</v>
       </c>
       <c r="G210" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H210" t="s">
         <v>322</v>
       </c>
       <c r="I210" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="K210" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="M210" t="s">
         <v>73</v>
@@ -25992,23 +25996,23 @@
     </row>
     <row r="211" spans="5:13">
       <c r="E211" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F211" t="str">
         <f>发送配置!$E$74</f>
         <v>hmsg_template_server-81</v>
       </c>
       <c r="G211" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H211" t="s">
         <v>303</v>
       </c>
       <c r="I211" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="K211" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="M211" t="s">
         <v>73</v>
@@ -26016,23 +26020,23 @@
     </row>
     <row r="212" spans="5:13">
       <c r="E212" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F212" t="str">
         <f>发送配置!$E$78</f>
         <v>hmsg_template_server-85</v>
       </c>
       <c r="G212" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H212" t="s">
         <v>329</v>
       </c>
       <c r="I212" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="K212" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="M212" t="s">
         <v>73</v>
@@ -26040,23 +26044,23 @@
     </row>
     <row r="213" spans="5:13">
       <c r="E213" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F213" t="str">
         <f>发送配置!$E$73</f>
         <v>hmsg_template_server-80</v>
       </c>
       <c r="G213" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H213" t="s">
         <v>296</v>
       </c>
       <c r="I213" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="K213" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="M213" t="s">
         <v>73</v>
@@ -26064,23 +26068,23 @@
     </row>
     <row r="214" spans="5:13">
       <c r="E214" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F214" t="str">
         <f>发送配置!$E$72</f>
         <v>hmsg_template_server-79</v>
       </c>
       <c r="G214" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H214" t="s">
         <v>290</v>
       </c>
       <c r="I214" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="K214" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="M214" t="s">
         <v>73</v>
@@ -26088,23 +26092,23 @@
     </row>
     <row r="215" spans="5:13">
       <c r="E215" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F215" t="str">
         <f>发送配置!$E$71</f>
         <v>hmsg_template_server-78</v>
       </c>
       <c r="G215" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H215" t="s">
         <v>285</v>
       </c>
       <c r="I215" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="K215" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="M215" t="s">
         <v>73</v>
@@ -26112,23 +26116,23 @@
     </row>
     <row r="216" spans="5:13">
       <c r="E216" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F216" t="str">
         <f>发送配置!$E$81</f>
         <v>hmsg_template_server-88</v>
       </c>
       <c r="G216" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H216" t="s">
         <v>343</v>
       </c>
       <c r="I216" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="K216" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="M216" t="s">
         <v>73</v>
@@ -26136,23 +26140,23 @@
     </row>
     <row r="217" spans="5:13">
       <c r="E217" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F217" t="str">
         <f>发送配置!$E$77</f>
         <v>hmsg_template_server-84</v>
       </c>
       <c r="G217" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H217" t="s">
         <v>322</v>
       </c>
       <c r="I217" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="K217" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="M217" t="s">
         <v>73</v>
@@ -26160,23 +26164,23 @@
     </row>
     <row r="218" spans="5:13">
       <c r="E218" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F218" t="str">
         <f>发送配置!$E$76</f>
         <v>hmsg_template_server-83</v>
       </c>
       <c r="G218" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H218" t="s">
         <v>317</v>
       </c>
       <c r="I218" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="K218" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="M218" t="s">
         <v>73</v>
@@ -26184,23 +26188,23 @@
     </row>
     <row r="219" spans="5:13">
       <c r="E219" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F219" t="str">
         <f>发送配置!$E$79</f>
         <v>hmsg_template_server-86</v>
       </c>
       <c r="G219" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H219" t="s">
         <v>333</v>
       </c>
       <c r="I219" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="K219" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M219" t="s">
         <v>73</v>
@@ -26208,23 +26212,23 @@
     </row>
     <row r="220" spans="5:13">
       <c r="E220" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F220" t="str">
         <f>发送配置!$E$73</f>
         <v>hmsg_template_server-80</v>
       </c>
       <c r="G220" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H220" t="s">
         <v>296</v>
       </c>
       <c r="I220" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="K220" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="M220" t="s">
         <v>73</v>
@@ -26232,30 +26236,30 @@
     </row>
     <row r="221" spans="5:13">
       <c r="E221" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F221" t="str">
         <f>发送配置!$E$72</f>
         <v>hmsg_template_server-79</v>
       </c>
       <c r="G221" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H221" t="s">
         <v>290</v>
       </c>
       <c r="I221" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="K221" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="M221" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="223" spans="1:8">
-      <c r="A223" s="5">
+      <c r="A223" s="6">
         <v>44036</v>
       </c>
       <c r="B223" t="s">
@@ -26265,24 +26269,24 @@
         <v>649</v>
       </c>
       <c r="D223" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E223" s="2" t="s">
         <v>1048</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>1049</v>
       </c>
       <c r="F223" s="3" t="s">
         <v>652</v>
       </c>
       <c r="G223" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H223" t="s">
         <v>1050</v>
-      </c>
-      <c r="H223" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="224" spans="5:8">
       <c r="E224" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F224" t="s">
         <v>659</v>
@@ -26296,7 +26300,7 @@
     </row>
     <row r="225" spans="5:8">
       <c r="E225" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F225" t="s">
         <v>665</v>
@@ -26310,7 +26314,7 @@
     </row>
     <row r="226" spans="5:8">
       <c r="E226" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F226" t="s">
         <v>671</v>
@@ -26324,7 +26328,7 @@
     </row>
     <row r="227" spans="5:8">
       <c r="E227" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F227" t="s">
         <v>674</v>
@@ -26338,7 +26342,7 @@
     </row>
     <row r="228" spans="5:8">
       <c r="E228" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F228" t="s">
         <v>679</v>
@@ -26352,7 +26356,7 @@
     </row>
     <row r="229" spans="5:8">
       <c r="E229" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F229" t="s">
         <v>682</v>
@@ -26366,7 +26370,7 @@
     </row>
     <row r="230" spans="5:8">
       <c r="E230" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F230" t="s">
         <v>686</v>
@@ -26380,7 +26384,7 @@
     </row>
     <row r="231" spans="5:8">
       <c r="E231" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F231" t="s">
         <v>690</v>
@@ -26394,7 +26398,7 @@
     </row>
     <row r="232" spans="5:8">
       <c r="E232" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F232" t="s">
         <v>694</v>
@@ -26408,7 +26412,7 @@
     </row>
     <row r="233" spans="5:8">
       <c r="E233" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F233" t="s">
         <v>697</v>
@@ -26422,7 +26426,7 @@
     </row>
     <row r="234" spans="5:8">
       <c r="E234" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F234" t="s">
         <v>700</v>
@@ -26436,7 +26440,7 @@
     </row>
     <row r="235" spans="5:8">
       <c r="E235" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F235" t="s">
         <v>705</v>
@@ -26450,7 +26454,7 @@
     </row>
     <row r="236" spans="5:8">
       <c r="E236" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F236" t="s">
         <v>710</v>
@@ -26464,7 +26468,7 @@
     </row>
     <row r="237" spans="5:8">
       <c r="E237" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F237" t="s">
         <v>713</v>
@@ -26478,9 +26482,9 @@
     </row>
     <row r="238" spans="5:8">
       <c r="E238" t="s">
-        <v>1066</v>
-      </c>
-      <c r="F238" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F238" s="7" t="s">
         <v>716</v>
       </c>
       <c r="G238">
@@ -26492,7 +26496,7 @@
     </row>
     <row r="239" spans="5:8">
       <c r="E239" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="F239" t="s">
         <v>720</v>
@@ -26506,7 +26510,7 @@
     </row>
     <row r="240" spans="5:8">
       <c r="E240" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="F240" t="s">
         <v>724</v>
@@ -26520,7 +26524,7 @@
     </row>
     <row r="241" spans="5:8">
       <c r="E241" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F241" t="s">
         <v>728</v>
@@ -26534,7 +26538,7 @@
     </row>
     <row r="242" spans="5:8">
       <c r="E242" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F242" t="s">
         <v>731</v>
@@ -26548,7 +26552,7 @@
     </row>
     <row r="243" spans="5:8">
       <c r="E243" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F243" t="s">
         <v>734</v>
@@ -26562,7 +26566,7 @@
     </row>
     <row r="244" spans="5:8">
       <c r="E244" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F244" t="s">
         <v>737</v>
@@ -26576,7 +26580,7 @@
     </row>
     <row r="245" spans="5:8">
       <c r="E245" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F245" t="s">
         <v>740</v>
@@ -26590,7 +26594,7 @@
     </row>
     <row r="246" spans="5:8">
       <c r="E246" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F246" t="s">
         <v>744</v>
@@ -26604,7 +26608,7 @@
     </row>
     <row r="247" spans="5:8">
       <c r="E247" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F247" t="s">
         <v>749</v>
@@ -26618,7 +26622,7 @@
     </row>
     <row r="248" spans="5:8">
       <c r="E248" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="F248" t="s">
         <v>754</v>
@@ -26632,7 +26636,7 @@
     </row>
     <row r="249" spans="5:8">
       <c r="E249" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="F249" t="s">
         <v>759</v>
@@ -26646,7 +26650,7 @@
     </row>
     <row r="250" spans="5:8">
       <c r="E250" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F250" t="s">
         <v>763</v>
@@ -26660,7 +26664,7 @@
     </row>
     <row r="251" spans="5:8">
       <c r="E251" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="F251" t="s">
         <v>766</v>
@@ -26674,7 +26678,7 @@
     </row>
     <row r="252" spans="5:8">
       <c r="E252" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="F252" t="s">
         <v>769</v>
@@ -26688,7 +26692,7 @@
     </row>
     <row r="253" spans="5:8">
       <c r="E253" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F253" t="s">
         <v>772</v>
@@ -26702,7 +26706,7 @@
     </row>
     <row r="254" spans="5:8">
       <c r="E254" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F254" t="s">
         <v>775</v>
@@ -26716,7 +26720,7 @@
     </row>
     <row r="255" spans="5:8">
       <c r="E255" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="F255" t="s">
         <v>778</v>
@@ -26730,7 +26734,7 @@
     </row>
     <row r="256" spans="5:8">
       <c r="E256" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="F256" t="s">
         <v>782</v>
@@ -26744,7 +26748,7 @@
     </row>
     <row r="257" spans="5:8">
       <c r="E257" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F257" t="s">
         <v>786</v>
@@ -26758,7 +26762,7 @@
     </row>
     <row r="258" spans="5:8">
       <c r="E258" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F258" t="s">
         <v>788</v>
@@ -26772,7 +26776,7 @@
     </row>
     <row r="259" spans="5:8">
       <c r="E259" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F259" t="s">
         <v>792</v>
@@ -26786,7 +26790,7 @@
     </row>
     <row r="260" spans="5:8">
       <c r="E260" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F260" t="s">
         <v>797</v>
@@ -26800,7 +26804,7 @@
     </row>
     <row r="261" spans="5:8">
       <c r="E261" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F261" t="s">
         <v>800</v>
@@ -26814,7 +26818,7 @@
     </row>
     <row r="262" spans="5:8">
       <c r="E262" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="F262" t="s">
         <v>804</v>
@@ -26828,7 +26832,7 @@
     </row>
     <row r="263" spans="5:8">
       <c r="E263" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="F263" t="s">
         <v>808</v>
@@ -26842,7 +26846,7 @@
     </row>
     <row r="264" spans="5:8">
       <c r="E264" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F264" t="s">
         <v>811</v>
@@ -26856,7 +26860,7 @@
     </row>
     <row r="265" spans="5:8">
       <c r="E265" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F265" t="s">
         <v>814</v>
@@ -26870,7 +26874,7 @@
     </row>
     <row r="266" spans="5:8">
       <c r="E266" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F266" t="s">
         <v>816</v>
@@ -26884,7 +26888,7 @@
     </row>
     <row r="267" spans="5:8">
       <c r="E267" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F267" t="s">
         <v>819</v>
@@ -26898,7 +26902,7 @@
     </row>
     <row r="268" spans="5:8">
       <c r="E268" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F268" t="s">
         <v>822</v>
@@ -26912,7 +26916,7 @@
     </row>
     <row r="269" spans="5:8">
       <c r="E269" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F269" t="s">
         <v>825</v>
@@ -26926,7 +26930,7 @@
     </row>
     <row r="270" spans="5:8">
       <c r="E270" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F270" t="s">
         <v>831</v>
@@ -26940,7 +26944,7 @@
     </row>
     <row r="271" spans="5:8">
       <c r="E271" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F271" t="s">
         <v>828</v>
@@ -26954,7 +26958,7 @@
     </row>
     <row r="272" spans="5:8">
       <c r="E272" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F272" t="s">
         <v>834</v>
@@ -26968,7 +26972,7 @@
     </row>
     <row r="273" spans="5:8">
       <c r="E273" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F273" t="s">
         <v>837</v>
@@ -26982,7 +26986,7 @@
     </row>
     <row r="274" spans="5:8">
       <c r="E274" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F274" t="s">
         <v>839</v>
@@ -26996,7 +27000,7 @@
     </row>
     <row r="275" spans="5:8">
       <c r="E275" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F275" t="s">
         <v>842</v>
@@ -27010,7 +27014,7 @@
     </row>
     <row r="276" spans="5:8">
       <c r="E276" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F276" t="s">
         <v>844</v>
@@ -27024,7 +27028,7 @@
     </row>
     <row r="277" spans="5:8">
       <c r="E277" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F277" t="s">
         <v>847</v>
@@ -27038,7 +27042,7 @@
     </row>
     <row r="278" spans="5:8">
       <c r="E278" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F278" t="s">
         <v>849</v>
@@ -27052,7 +27056,7 @@
     </row>
     <row r="279" spans="5:8">
       <c r="E279" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F279" t="s">
         <v>852</v>
@@ -27066,7 +27070,7 @@
     </row>
     <row r="280" spans="5:8">
       <c r="E280" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F280" t="s">
         <v>855</v>
@@ -27080,7 +27084,7 @@
     </row>
     <row r="281" spans="5:8">
       <c r="E281" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F281" t="s">
         <v>858</v>
@@ -27094,7 +27098,7 @@
     </row>
     <row r="282" spans="5:8">
       <c r="E282" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F282" t="s">
         <v>861</v>
@@ -27108,7 +27112,7 @@
     </row>
     <row r="283" spans="5:8">
       <c r="E283" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F283" t="s">
         <v>864</v>
@@ -27122,7 +27126,7 @@
     </row>
     <row r="284" spans="5:8">
       <c r="E284" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F284" t="s">
         <v>864</v>
@@ -27136,7 +27140,7 @@
     </row>
     <row r="285" spans="5:8">
       <c r="E285" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="F285" t="s">
         <v>867</v>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -3300,7 +3300,7 @@
     <t>GitLab默认密码</t>
   </si>
   <si>
-    <t>您的GitLab仓库密码为: ${gitlabPassword}。为了您的账户安全，请尽快前往Choerodon&lt;a href='#/base/user-info?type=site&amp;organizationId=${organizationId}'&gt;个人信息&lt;/a&gt;页面修改默认的GitLab密码</t>
+    <t>您的GitLab仓库密码为: ${gitlabPassword}。为了您的账户安全，请尽快前往Choerodon&lt;a href='#/iam/user-info?type=site&amp;organizationId=${organizationId}'&gt;个人信息&lt;/a&gt;页面修改默认的GitLab密码</t>
   </si>
   <si>
     <t>hmsg_message_template-70</t>
@@ -7726,8 +7726,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -7807,13 +7807,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -7821,7 +7814,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7834,24 +7827,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7879,13 +7863,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -7901,11 +7879,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7927,23 +7936,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8033,19 +8033,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8057,61 +8087,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8123,49 +8111,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8183,13 +8129,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8208,6 +8190,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8322,11 +8322,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8350,22 +8378,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8375,30 +8399,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8420,148 +8420,148 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -9274,8 +9274,8 @@
   <sheetPr/>
   <dimension ref="A1:P792"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E147" sqref="E147"/>
+    <sheetView tabSelected="1" topLeftCell="F58" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -9284,6 +9284,7 @@
     <col min="5" max="5" width="29.5" customWidth="1"/>
     <col min="6" max="6" width="32.3333333333333" customWidth="1"/>
     <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="22.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -20992,8 +20993,8 @@
   <sheetPr/>
   <dimension ref="A1:M285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B63" workbookViewId="0">
-      <selection activeCell="J86" sqref="J86"/>
+    <sheetView topLeftCell="D41" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4108" uniqueCount="1113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4110" uniqueCount="1115">
   <si>
     <r>
       <rPr>
@@ -7720,16 +7720,22 @@
   <si>
     <t>notify_message_setting_config-285</t>
   </si>
+  <si>
+    <t>notify_message_setting_config-286</t>
+  </si>
+  <si>
+    <t>SYSTEMNOTIFICATION</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -7806,118 +7812,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -7934,6 +7828,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -7942,6 +7918,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -7954,6 +7946,20 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8033,31 +8039,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8069,7 +8051,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8081,25 +8075,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8111,19 +8111,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8141,7 +8129,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8153,25 +8171,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8189,31 +8213,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8329,6 +8335,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -8340,6 +8361,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8359,50 +8391,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -8417,16 +8405,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8435,133 +8441,133 @@
     <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -9274,7 +9280,7 @@
   <sheetPr/>
   <dimension ref="A1:P792"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F58" workbookViewId="0">
+    <sheetView topLeftCell="F58" workbookViewId="0">
       <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
@@ -20991,10 +20997,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M285"/>
+  <dimension ref="A1:M286"/>
   <sheetViews>
-    <sheetView topLeftCell="D41" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="F272" workbookViewId="0">
+      <selection activeCell="H293" sqref="H292:H293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -27153,6 +27159,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="286" spans="5:8">
+      <c r="E286" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F286" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G286">
+        <v>1</v>
+      </c>
+      <c r="H286">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
@@ -3300,7 +3300,7 @@
     <t>GitLab默认密码</t>
   </si>
   <si>
-    <t>您的GitLab仓库密码为: ${gitlabPassword}。为了您的账户安全，请尽快前往Choerodon&lt;a href='#/base/user-info?type=site&amp;organizationId=${organizationId}'&gt;个人信息&lt;/a&gt;页面修改默认的GitLab密码</t>
+    <t>您的GitLab仓库密码为: ${gitlabPassword}。为了您的账户安全，请尽快前往Choerodon&lt;a href='#/iam/user-info?type=site&amp;organizationId=${organizationId}'&gt;个人信息&lt;/a&gt;页面修改默认的GitLab密码</t>
   </si>
   <si>
     <t>hmsg_message_template-70</t>
@@ -6078,7 +6078,7 @@
 &lt;a href=#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;
 name=${projectName}&amp;category=GENERAL&amp;organizationId=${organizationId}&amp;
 pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId}&gt;
-点击查看详情&lt;/a &gt;</t>
+点击查看&lt;/a &gt;</t>
   </si>
   <si>
     <t>STREAM-CHANGE-NOTICE</t>
@@ -7851,14 +7851,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7872,15 +7903,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7891,6 +7929,36 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7918,16 +7986,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7937,67 +7998,6 @@
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8077,7 +8077,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8089,13 +8173,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8107,37 +8215,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8149,19 +8239,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8173,91 +8257,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8383,18 +8383,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8410,15 +8408,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8440,9 +8429,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8467,10 +8467,10 @@
     <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8479,133 +8479,133 @@
     <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -9321,8 +9321,8 @@
   <sheetPr/>
   <dimension ref="A1:P800"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F132" workbookViewId="0">
-      <selection activeCell="I144" sqref="I144"/>
+    <sheetView tabSelected="1" topLeftCell="F67" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4141" uniqueCount="1126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4142" uniqueCount="1126">
   <si>
     <r>
       <rPr>
@@ -4701,7 +4701,10 @@
     <t>流水线任务待审核</t>
   </si>
   <si>
-    <t>&lt;p&gt;流水线“${pipelineName}”目前暂停于【${stageName}】阶段，需要您进行审核。&lt;p&gt;&lt;p&gt;&lt;a href=#/devops/deployment-operation?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;category=undefined&amp;organizationId=${organizationId}&amp;orgId=${organizationId}&amp;pipelineRecordId=${pipelineRecordId}&gt;查看详情&lt;/a &gt;</t>
+    <t>&lt;p&gt;流水线“${pipelineName}”目前暂停于【${stageName}】阶段，需要您进行审核。
+&lt;p&gt;&lt;p&gt;&lt;a href=#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;
+name=${projectName}&amp;category=GENERAL&amp;organizationId=${organizationId}&amp;
+pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId}&gt;查看详情&lt;/a &gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-114</t>
@@ -6276,6 +6279,9 @@
     <t>pipelineRecordId</t>
   </si>
   <si>
+    <t>pipelineIdRecordId</t>
+  </si>
+  <si>
     <t>auditName</t>
   </si>
   <si>
@@ -6346,9 +6352,6 @@
   </si>
   <si>
     <t>Verification code</t>
-  </si>
-  <si>
-    <t>pipelineIdRecordId</t>
   </si>
   <si>
     <t>发送配置</t>
@@ -7857,19 +7860,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7880,16 +7881,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7902,8 +7896,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7917,48 +7912,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7980,7 +7938,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7994,8 +7981,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8077,7 +8080,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8089,13 +8146,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8107,73 +8218,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8197,7 +8242,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8209,55 +8260,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8364,6 +8367,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -8384,6 +8411,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8412,21 +8454,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -8437,40 +8464,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8479,138 +8482,138 @@
     <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8622,6 +8625,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9083,10 +9089,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="10" customWidth="1"/>
+    <col min="1" max="1" width="15.5555555555556" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="11" customWidth="1"/>
     <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="11" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="12" customWidth="1"/>
     <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
     <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
     <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
@@ -9100,79 +9106,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="12"/>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="13"/>
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="15"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="27"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="31" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -9180,56 +9186,56 @@
       </c>
     </row>
     <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="31" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
     </row>
     <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="36" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9239,64 +9245,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="16"/>
+      <c r="E25" s="17"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="16"/>
+      <c r="E26" s="17"/>
     </row>
     <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="40" t="s">
         <v>43</v>
       </c>
     </row>
@@ -9319,10 +9325,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P800"/>
+  <dimension ref="A1:P801"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F67" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView tabSelected="1" topLeftCell="A579" workbookViewId="0">
+      <selection activeCell="G592" sqref="G592"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -12227,7 +12233,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="107" spans="5:16">
+    <row r="107" ht="139.2" spans="5:16">
       <c r="E107" t="s">
         <v>431</v>
       </c>
@@ -12240,7 +12246,7 @@
       <c r="H107" t="s">
         <v>433</v>
       </c>
-      <c r="I107" t="s">
+      <c r="I107" s="9" t="s">
         <v>434</v>
       </c>
       <c r="N107" t="s">
@@ -18575,7 +18581,7 @@
         <v>hmsg_message_template-113</v>
       </c>
       <c r="G586" t="s">
-        <v>581</v>
+        <v>615</v>
       </c>
     </row>
     <row r="587" spans="5:7">
@@ -18587,7 +18593,7 @@
         <v>hmsg_message_template-113</v>
       </c>
       <c r="G587" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="588" spans="5:7">
@@ -18599,7 +18605,7 @@
         <v>hmsg_message_template-113</v>
       </c>
       <c r="G588" t="s">
-        <v>629</v>
+        <v>590</v>
       </c>
     </row>
     <row r="589" spans="5:7">
@@ -18611,7 +18617,7 @@
         <v>hmsg_message_template-113</v>
       </c>
       <c r="G589" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
     </row>
     <row r="590" spans="5:7">
@@ -18623,28 +18629,25 @@
         <v>hmsg_message_template-113</v>
       </c>
       <c r="G590" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="591" spans="5:7">
-      <c r="E591" t="s">
-        <v>573</v>
-      </c>
+        <v>581</v>
+      </c>
+    </row>
+    <row r="591" spans="6:7">
       <c r="F591" t="str">
+        <f>E107</f>
+        <v>hmsg_message_template-113</v>
+      </c>
+      <c r="G591" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="592" spans="5:7">
+      <c r="E592" t="s">
+        <v>573</v>
+      </c>
+      <c r="F592" t="str">
         <f>消息模板!$E$107</f>
         <v>hmsg_message_template-113</v>
-      </c>
-      <c r="G591" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="592" spans="5:7">
-      <c r="E592" t="s">
-        <v>573</v>
-      </c>
-      <c r="F592" t="str">
-        <f>消息模板!$E$117</f>
-        <v>hmsg_message_template-123</v>
       </c>
       <c r="G592" t="s">
         <v>630</v>
@@ -18659,7 +18662,7 @@
         <v>hmsg_message_template-123</v>
       </c>
       <c r="G593" t="s">
-        <v>581</v>
+        <v>631</v>
       </c>
     </row>
     <row r="594" spans="5:7">
@@ -18671,7 +18674,7 @@
         <v>hmsg_message_template-123</v>
       </c>
       <c r="G594" t="s">
-        <v>615</v>
+        <v>581</v>
       </c>
     </row>
     <row r="595" spans="5:7">
@@ -18683,7 +18686,7 @@
         <v>hmsg_message_template-123</v>
       </c>
       <c r="G595" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
     </row>
     <row r="596" spans="5:7">
@@ -18695,7 +18698,7 @@
         <v>hmsg_message_template-123</v>
       </c>
       <c r="G596" t="s">
-        <v>590</v>
+        <v>629</v>
       </c>
     </row>
     <row r="597" spans="5:7">
@@ -18707,7 +18710,7 @@
         <v>hmsg_message_template-123</v>
       </c>
       <c r="G597" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
     </row>
     <row r="598" spans="5:7">
@@ -18719,7 +18722,7 @@
         <v>hmsg_message_template-123</v>
       </c>
       <c r="G598" t="s">
-        <v>631</v>
+        <v>601</v>
       </c>
     </row>
     <row r="599" spans="5:7">
@@ -18731,7 +18734,7 @@
         <v>hmsg_message_template-123</v>
       </c>
       <c r="G599" t="s">
-        <v>618</v>
+        <v>632</v>
       </c>
     </row>
     <row r="600" spans="5:7">
@@ -18739,11 +18742,11 @@
         <v>573</v>
       </c>
       <c r="F600" t="str">
-        <f>消息模板!$E$114</f>
-        <v>hmsg_message_template-120</v>
+        <f>消息模板!$E$117</f>
+        <v>hmsg_message_template-123</v>
       </c>
       <c r="G600" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
     </row>
     <row r="601" spans="5:7">
@@ -18755,7 +18758,7 @@
         <v>hmsg_message_template-120</v>
       </c>
       <c r="G601" t="s">
-        <v>581</v>
+        <v>631</v>
       </c>
     </row>
     <row r="602" spans="5:7">
@@ -18767,7 +18770,7 @@
         <v>hmsg_message_template-120</v>
       </c>
       <c r="G602" t="s">
-        <v>615</v>
+        <v>581</v>
       </c>
     </row>
     <row r="603" spans="5:7">
@@ -18779,7 +18782,7 @@
         <v>hmsg_message_template-120</v>
       </c>
       <c r="G603" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
     </row>
     <row r="604" spans="5:7">
@@ -18791,7 +18794,7 @@
         <v>hmsg_message_template-120</v>
       </c>
       <c r="G604" t="s">
-        <v>590</v>
+        <v>629</v>
       </c>
     </row>
     <row r="605" spans="5:7">
@@ -18803,7 +18806,7 @@
         <v>hmsg_message_template-120</v>
       </c>
       <c r="G605" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
     </row>
     <row r="606" spans="5:7">
@@ -18815,7 +18818,7 @@
         <v>hmsg_message_template-120</v>
       </c>
       <c r="G606" t="s">
-        <v>631</v>
+        <v>601</v>
       </c>
     </row>
     <row r="607" spans="5:7">
@@ -18827,7 +18830,7 @@
         <v>hmsg_message_template-120</v>
       </c>
       <c r="G607" t="s">
-        <v>618</v>
+        <v>632</v>
       </c>
     </row>
     <row r="608" spans="5:7">
@@ -18835,11 +18838,11 @@
         <v>573</v>
       </c>
       <c r="F608" t="str">
-        <f>消息模板!$E$100</f>
-        <v>hmsg_message_template-102</v>
+        <f>消息模板!$E$114</f>
+        <v>hmsg_message_template-120</v>
       </c>
       <c r="G608" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
     </row>
     <row r="609" spans="5:7">
@@ -18851,7 +18854,7 @@
         <v>hmsg_message_template-102</v>
       </c>
       <c r="G609" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="610" spans="5:7">
@@ -18863,7 +18866,7 @@
         <v>hmsg_message_template-102</v>
       </c>
       <c r="G610" t="s">
-        <v>582</v>
+        <v>612</v>
       </c>
     </row>
     <row r="611" spans="5:7">
@@ -18871,11 +18874,11 @@
         <v>573</v>
       </c>
       <c r="F611" t="str">
-        <f>消息模板!$E$99</f>
-        <v>hmsg_message_template-101</v>
+        <f>消息模板!$E$100</f>
+        <v>hmsg_message_template-102</v>
       </c>
       <c r="G611" t="s">
-        <v>611</v>
+        <v>582</v>
       </c>
     </row>
     <row r="612" spans="5:7">
@@ -18887,7 +18890,7 @@
         <v>hmsg_message_template-101</v>
       </c>
       <c r="G612" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="613" spans="5:7">
@@ -18899,7 +18902,7 @@
         <v>hmsg_message_template-101</v>
       </c>
       <c r="G613" t="s">
-        <v>582</v>
+        <v>612</v>
       </c>
     </row>
     <row r="614" spans="5:7">
@@ -18907,11 +18910,11 @@
         <v>573</v>
       </c>
       <c r="F614" t="str">
-        <f>消息模板!$E$98</f>
-        <v>hmsg_message_template-100</v>
+        <f>消息模板!$E$99</f>
+        <v>hmsg_message_template-101</v>
       </c>
       <c r="G614" t="s">
-        <v>611</v>
+        <v>582</v>
       </c>
     </row>
     <row r="615" spans="5:7">
@@ -18923,7 +18926,7 @@
         <v>hmsg_message_template-100</v>
       </c>
       <c r="G615" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="616" spans="5:7">
@@ -18935,7 +18938,7 @@
         <v>hmsg_message_template-100</v>
       </c>
       <c r="G616" t="s">
-        <v>582</v>
+        <v>612</v>
       </c>
     </row>
     <row r="617" spans="5:7">
@@ -18943,11 +18946,11 @@
         <v>573</v>
       </c>
       <c r="F617" t="str">
-        <f>消息模板!$E$134</f>
-        <v>hmsg_message_template-145</v>
+        <f>消息模板!$E$98</f>
+        <v>hmsg_message_template-100</v>
       </c>
       <c r="G617" t="s">
-        <v>632</v>
+        <v>582</v>
       </c>
     </row>
     <row r="618" spans="5:7">
@@ -18983,7 +18986,7 @@
         <v>hmsg_message_template-145</v>
       </c>
       <c r="G620" t="s">
-        <v>582</v>
+        <v>635</v>
       </c>
     </row>
     <row r="621" spans="5:7">
@@ -18991,11 +18994,11 @@
         <v>573</v>
       </c>
       <c r="F621" t="str">
-        <f>消息模板!$E$133</f>
-        <v>hmsg_message_template-144</v>
+        <f>消息模板!$E$134</f>
+        <v>hmsg_message_template-145</v>
       </c>
       <c r="G621" t="s">
-        <v>632</v>
+        <v>582</v>
       </c>
     </row>
     <row r="622" spans="5:7">
@@ -19031,7 +19034,7 @@
         <v>hmsg_message_template-144</v>
       </c>
       <c r="G624" t="s">
-        <v>582</v>
+        <v>635</v>
       </c>
     </row>
     <row r="625" spans="5:7">
@@ -19039,11 +19042,11 @@
         <v>573</v>
       </c>
       <c r="F625" t="str">
-        <f>消息模板!$E$130</f>
-        <v>hmsg_message_template-141</v>
+        <f>消息模板!$E$133</f>
+        <v>hmsg_message_template-144</v>
       </c>
       <c r="G625" t="s">
-        <v>624</v>
+        <v>582</v>
       </c>
     </row>
     <row r="626" spans="5:7">
@@ -19055,7 +19058,7 @@
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G626" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="627" spans="5:7">
@@ -19067,7 +19070,7 @@
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G627" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
     </row>
     <row r="628" spans="5:7">
@@ -19115,7 +19118,7 @@
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G631" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
     </row>
     <row r="632" spans="5:7">
@@ -19123,11 +19126,11 @@
         <v>573</v>
       </c>
       <c r="F632" t="str">
-        <f>消息模板!$E$84</f>
-        <v>hmsg_message_template-86</v>
+        <f>消息模板!$E$130</f>
+        <v>hmsg_message_template-141</v>
       </c>
       <c r="G632" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
     </row>
     <row r="633" spans="5:7">
@@ -19163,7 +19166,7 @@
         <v>hmsg_message_template-86</v>
       </c>
       <c r="G635" t="s">
-        <v>70</v>
+        <v>642</v>
       </c>
     </row>
     <row r="636" spans="5:7">
@@ -19171,11 +19174,11 @@
         <v>573</v>
       </c>
       <c r="F636" t="str">
-        <f>消息模板!$E$66</f>
-        <v>hmsg_message_template-68</v>
+        <f>消息模板!$E$84</f>
+        <v>hmsg_message_template-86</v>
       </c>
       <c r="G636" t="s">
-        <v>642</v>
+        <v>70</v>
       </c>
     </row>
     <row r="637" spans="5:7">
@@ -19187,7 +19190,7 @@
         <v>hmsg_message_template-68</v>
       </c>
       <c r="G637" t="s">
-        <v>605</v>
+        <v>643</v>
       </c>
     </row>
     <row r="638" spans="5:7">
@@ -19199,7 +19202,7 @@
         <v>hmsg_message_template-68</v>
       </c>
       <c r="G638" t="s">
-        <v>643</v>
+        <v>605</v>
       </c>
     </row>
     <row r="639" spans="5:7">
@@ -19247,7 +19250,7 @@
         <v>hmsg_message_template-68</v>
       </c>
       <c r="G642" t="s">
-        <v>601</v>
+        <v>647</v>
       </c>
     </row>
     <row r="643" spans="5:7">
@@ -19255,11 +19258,11 @@
         <v>573</v>
       </c>
       <c r="F643" t="str">
-        <f>消息模板!$E$81</f>
-        <v>hmsg_message_template-83</v>
+        <f>消息模板!$E$66</f>
+        <v>hmsg_message_template-68</v>
       </c>
       <c r="G643" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
     </row>
     <row r="644" spans="5:7">
@@ -19271,7 +19274,7 @@
         <v>hmsg_message_template-83</v>
       </c>
       <c r="G644" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
     </row>
     <row r="645" spans="5:7">
@@ -19283,7 +19286,7 @@
         <v>hmsg_message_template-83</v>
       </c>
       <c r="G645" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="646" spans="5:7">
@@ -19291,11 +19294,11 @@
         <v>573</v>
       </c>
       <c r="F646" t="str">
-        <f>消息模板!$E$54</f>
-        <v>hmsg_message_template-56</v>
+        <f>消息模板!$E$81</f>
+        <v>hmsg_message_template-83</v>
       </c>
       <c r="G646" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="647" spans="5:7">
@@ -19307,7 +19310,7 @@
         <v>hmsg_message_template-56</v>
       </c>
       <c r="G647" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
     </row>
     <row r="648" spans="5:7">
@@ -19319,7 +19322,7 @@
         <v>hmsg_message_template-56</v>
       </c>
       <c r="G648" t="s">
-        <v>647</v>
+        <v>581</v>
       </c>
     </row>
     <row r="649" spans="5:7">
@@ -19331,7 +19334,7 @@
         <v>hmsg_message_template-56</v>
       </c>
       <c r="G649" t="s">
-        <v>590</v>
+        <v>648</v>
       </c>
     </row>
     <row r="650" spans="5:7">
@@ -19343,7 +19346,7 @@
         <v>hmsg_message_template-56</v>
       </c>
       <c r="G650" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
     </row>
     <row r="651" spans="5:7">
@@ -19351,11 +19354,11 @@
         <v>573</v>
       </c>
       <c r="F651" t="str">
-        <f>消息模板!$E$52</f>
-        <v>hmsg_message_template-54</v>
+        <f>消息模板!$E$54</f>
+        <v>hmsg_message_template-56</v>
       </c>
       <c r="G651" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="652" spans="5:7">
@@ -19367,7 +19370,7 @@
         <v>hmsg_message_template-54</v>
       </c>
       <c r="G652" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
     </row>
     <row r="653" spans="5:7">
@@ -19379,7 +19382,7 @@
         <v>hmsg_message_template-54</v>
       </c>
       <c r="G653" t="s">
-        <v>647</v>
+        <v>581</v>
       </c>
     </row>
     <row r="654" spans="5:7">
@@ -19391,7 +19394,7 @@
         <v>hmsg_message_template-54</v>
       </c>
       <c r="G654" t="s">
-        <v>590</v>
+        <v>648</v>
       </c>
     </row>
     <row r="655" spans="5:7">
@@ -19403,7 +19406,7 @@
         <v>hmsg_message_template-54</v>
       </c>
       <c r="G655" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
     </row>
     <row r="656" spans="5:7">
@@ -19411,11 +19414,11 @@
         <v>573</v>
       </c>
       <c r="F656" t="str">
-        <f>消息模板!$E$136</f>
-        <v>hmsg_message_template-147</v>
+        <f>消息模板!$E$52</f>
+        <v>hmsg_message_template-54</v>
       </c>
       <c r="G656" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
     </row>
     <row r="657" spans="5:7">
@@ -19427,7 +19430,7 @@
         <v>hmsg_message_template-147</v>
       </c>
       <c r="G657" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
     </row>
     <row r="658" spans="5:7">
@@ -19439,7 +19442,7 @@
         <v>hmsg_message_template-147</v>
       </c>
       <c r="G658" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="659" spans="5:7">
@@ -19447,11 +19450,11 @@
         <v>573</v>
       </c>
       <c r="F659" t="str">
-        <f>消息模板!$E$83</f>
-        <v>hmsg_message_template-85</v>
+        <f>消息模板!$E$136</f>
+        <v>hmsg_message_template-147</v>
       </c>
       <c r="G659" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
     </row>
     <row r="660" spans="5:7">
@@ -19463,7 +19466,7 @@
         <v>hmsg_message_template-85</v>
       </c>
       <c r="G660" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
     </row>
     <row r="661" spans="5:7">
@@ -19475,7 +19478,7 @@
         <v>hmsg_message_template-85</v>
       </c>
       <c r="G661" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="662" spans="5:7">
@@ -19483,11 +19486,11 @@
         <v>573</v>
       </c>
       <c r="F662" t="str">
-        <f>消息模板!$E$42</f>
-        <v>hmsg_message_template-44</v>
+        <f>消息模板!$E$83</f>
+        <v>hmsg_message_template-85</v>
       </c>
       <c r="G662" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="663" spans="5:7">
@@ -19499,7 +19502,7 @@
         <v>hmsg_message_template-44</v>
       </c>
       <c r="G663" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
     </row>
     <row r="664" spans="5:7">
@@ -19511,7 +19514,7 @@
         <v>hmsg_message_template-44</v>
       </c>
       <c r="G664" t="s">
-        <v>647</v>
+        <v>581</v>
       </c>
     </row>
     <row r="665" spans="5:7">
@@ -19523,7 +19526,7 @@
         <v>hmsg_message_template-44</v>
       </c>
       <c r="G665" t="s">
-        <v>590</v>
+        <v>648</v>
       </c>
     </row>
     <row r="666" spans="5:7">
@@ -19535,7 +19538,7 @@
         <v>hmsg_message_template-44</v>
       </c>
       <c r="G666" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
     </row>
     <row r="667" spans="5:7">
@@ -19543,11 +19546,11 @@
         <v>573</v>
       </c>
       <c r="F667" t="str">
-        <f>消息模板!$E$40</f>
-        <v>hmsg_message_template-42</v>
+        <f>消息模板!$E$42</f>
+        <v>hmsg_message_template-44</v>
       </c>
       <c r="G667" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="668" spans="5:7">
@@ -19559,7 +19562,7 @@
         <v>hmsg_message_template-42</v>
       </c>
       <c r="G668" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
     </row>
     <row r="669" spans="5:7">
@@ -19571,7 +19574,7 @@
         <v>hmsg_message_template-42</v>
       </c>
       <c r="G669" t="s">
-        <v>647</v>
+        <v>581</v>
       </c>
     </row>
     <row r="670" spans="5:7">
@@ -19583,7 +19586,7 @@
         <v>hmsg_message_template-42</v>
       </c>
       <c r="G670" t="s">
-        <v>590</v>
+        <v>648</v>
       </c>
     </row>
     <row r="671" spans="5:7">
@@ -19595,7 +19598,7 @@
         <v>hmsg_message_template-42</v>
       </c>
       <c r="G671" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
     </row>
     <row r="672" spans="5:7">
@@ -19603,11 +19606,11 @@
         <v>573</v>
       </c>
       <c r="F672" t="str">
-        <f>消息模板!$E$104</f>
-        <v>hmsg_message_template-106</v>
+        <f>消息模板!$E$40</f>
+        <v>hmsg_message_template-42</v>
       </c>
       <c r="G672" t="s">
-        <v>642</v>
+        <v>601</v>
       </c>
     </row>
     <row r="673" spans="5:7">
@@ -19619,7 +19622,7 @@
         <v>hmsg_message_template-106</v>
       </c>
       <c r="G673" t="s">
-        <v>605</v>
+        <v>643</v>
       </c>
     </row>
     <row r="674" spans="5:7">
@@ -19631,7 +19634,7 @@
         <v>hmsg_message_template-106</v>
       </c>
       <c r="G674" t="s">
-        <v>644</v>
+        <v>605</v>
       </c>
     </row>
     <row r="675" spans="5:7">
@@ -19643,7 +19646,7 @@
         <v>hmsg_message_template-106</v>
       </c>
       <c r="G675" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="676" spans="5:7">
@@ -19655,7 +19658,7 @@
         <v>hmsg_message_template-106</v>
       </c>
       <c r="G676" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="677" spans="5:7">
@@ -19679,7 +19682,7 @@
         <v>hmsg_message_template-106</v>
       </c>
       <c r="G678" t="s">
-        <v>601</v>
+        <v>647</v>
       </c>
     </row>
     <row r="679" spans="5:7">
@@ -19691,7 +19694,7 @@
         <v>hmsg_message_template-106</v>
       </c>
       <c r="G679" t="s">
-        <v>631</v>
+        <v>601</v>
       </c>
     </row>
     <row r="680" spans="5:7">
@@ -19699,11 +19702,11 @@
         <v>573</v>
       </c>
       <c r="F680" t="str">
-        <f>消息模板!$E$19</f>
-        <v>hmsg_message_template-21</v>
+        <f>消息模板!$E$104</f>
+        <v>hmsg_message_template-106</v>
       </c>
       <c r="G680" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
     </row>
     <row r="681" spans="5:7">
@@ -19715,7 +19718,7 @@
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G681" t="s">
-        <v>605</v>
+        <v>643</v>
       </c>
     </row>
     <row r="682" spans="5:7">
@@ -19727,7 +19730,7 @@
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G682" t="s">
-        <v>644</v>
+        <v>605</v>
       </c>
     </row>
     <row r="683" spans="5:7">
@@ -19739,7 +19742,7 @@
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G683" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="684" spans="5:7">
@@ -19751,7 +19754,7 @@
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G684" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="685" spans="5:7">
@@ -19775,7 +19778,7 @@
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G686" t="s">
-        <v>601</v>
+        <v>647</v>
       </c>
     </row>
     <row r="687" spans="5:7">
@@ -19787,7 +19790,7 @@
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G687" t="s">
-        <v>631</v>
+        <v>601</v>
       </c>
     </row>
     <row r="688" spans="5:7">
@@ -19795,11 +19798,11 @@
         <v>573</v>
       </c>
       <c r="F688" t="str">
-        <f>消息模板!$E$102</f>
-        <v>hmsg_message_template-104</v>
+        <f>消息模板!$E$19</f>
+        <v>hmsg_message_template-21</v>
       </c>
       <c r="G688" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
     </row>
     <row r="689" spans="5:7">
@@ -19811,7 +19814,7 @@
         <v>hmsg_message_template-104</v>
       </c>
       <c r="G689" t="s">
-        <v>605</v>
+        <v>643</v>
       </c>
     </row>
     <row r="690" spans="5:7">
@@ -19823,7 +19826,7 @@
         <v>hmsg_message_template-104</v>
       </c>
       <c r="G690" t="s">
-        <v>644</v>
+        <v>605</v>
       </c>
     </row>
     <row r="691" spans="5:7">
@@ -19835,7 +19838,7 @@
         <v>hmsg_message_template-104</v>
       </c>
       <c r="G691" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="692" spans="5:7">
@@ -19847,7 +19850,7 @@
         <v>hmsg_message_template-104</v>
       </c>
       <c r="G692" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="693" spans="5:7">
@@ -19871,7 +19874,7 @@
         <v>hmsg_message_template-104</v>
       </c>
       <c r="G694" t="s">
-        <v>601</v>
+        <v>647</v>
       </c>
     </row>
     <row r="695" spans="5:7">
@@ -19883,7 +19886,7 @@
         <v>hmsg_message_template-104</v>
       </c>
       <c r="G695" t="s">
-        <v>631</v>
+        <v>601</v>
       </c>
     </row>
     <row r="696" spans="5:7">
@@ -19891,11 +19894,11 @@
         <v>573</v>
       </c>
       <c r="F696" t="str">
-        <f>消息模板!$E$17</f>
-        <v>hmsg_message_template-17</v>
+        <f>消息模板!$E$102</f>
+        <v>hmsg_message_template-104</v>
       </c>
       <c r="G696" t="s">
-        <v>605</v>
+        <v>632</v>
       </c>
     </row>
     <row r="697" spans="5:7">
@@ -19907,7 +19910,7 @@
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G697" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
     </row>
     <row r="698" spans="5:7">
@@ -19919,7 +19922,7 @@
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G698" t="s">
-        <v>647</v>
+        <v>581</v>
       </c>
     </row>
     <row r="699" spans="5:7">
@@ -19931,7 +19934,7 @@
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G699" t="s">
-        <v>590</v>
+        <v>648</v>
       </c>
     </row>
     <row r="700" spans="5:7">
@@ -19943,7 +19946,7 @@
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G700" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
     </row>
     <row r="701" spans="5:7">
@@ -19951,11 +19954,11 @@
         <v>573</v>
       </c>
       <c r="F701" t="str">
-        <f>消息模板!$E$21</f>
-        <v>hmsg_message_template-23</v>
+        <f>消息模板!$E$17</f>
+        <v>hmsg_message_template-17</v>
       </c>
       <c r="G701" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
     </row>
     <row r="702" spans="5:7">
@@ -19967,7 +19970,7 @@
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G702" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
     </row>
     <row r="703" spans="5:7">
@@ -19979,7 +19982,7 @@
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G703" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="704" spans="5:7">
@@ -19987,11 +19990,11 @@
         <v>573</v>
       </c>
       <c r="F704" t="str">
-        <f>消息模板!$E$82</f>
-        <v>hmsg_message_template-84</v>
+        <f>消息模板!$E$21</f>
+        <v>hmsg_message_template-23</v>
       </c>
       <c r="G704" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
     </row>
     <row r="705" spans="5:7">
@@ -20003,7 +20006,7 @@
         <v>hmsg_message_template-84</v>
       </c>
       <c r="G705" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
     </row>
     <row r="706" spans="5:7">
@@ -20015,7 +20018,7 @@
         <v>hmsg_message_template-84</v>
       </c>
       <c r="G706" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="707" spans="5:7">
@@ -20023,11 +20026,11 @@
         <v>573</v>
       </c>
       <c r="F707" t="str">
-        <f>消息模板!$E$53</f>
-        <v>hmsg_message_template-55</v>
+        <f>消息模板!$E$82</f>
+        <v>hmsg_message_template-84</v>
       </c>
       <c r="G707" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="708" spans="5:7">
@@ -20039,7 +20042,7 @@
         <v>hmsg_message_template-55</v>
       </c>
       <c r="G708" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="709" spans="5:7">
@@ -20047,11 +20050,11 @@
         <v>573</v>
       </c>
       <c r="F709" t="str">
-        <f>消息模板!$E$113</f>
-        <v>hmsg_message_template-119</v>
+        <f>消息模板!$E$53</f>
+        <v>hmsg_message_template-55</v>
       </c>
       <c r="G709" t="s">
-        <v>630</v>
+        <v>601</v>
       </c>
     </row>
     <row r="710" spans="5:7">
@@ -20063,7 +20066,7 @@
         <v>hmsg_message_template-119</v>
       </c>
       <c r="G710" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
     </row>
     <row r="711" spans="5:7">
@@ -20075,7 +20078,7 @@
         <v>hmsg_message_template-119</v>
       </c>
       <c r="G711" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
     </row>
     <row r="712" spans="5:7">
@@ -20087,7 +20090,7 @@
         <v>hmsg_message_template-119</v>
       </c>
       <c r="G712" t="s">
-        <v>631</v>
+        <v>601</v>
       </c>
     </row>
     <row r="713" spans="5:7">
@@ -20099,7 +20102,7 @@
         <v>hmsg_message_template-119</v>
       </c>
       <c r="G713" t="s">
-        <v>618</v>
+        <v>632</v>
       </c>
     </row>
     <row r="714" spans="5:7">
@@ -20107,11 +20110,11 @@
         <v>573</v>
       </c>
       <c r="F714" t="str">
-        <f>消息模板!$E$18</f>
-        <v>hmsg_message_template-20</v>
+        <f>消息模板!$E$113</f>
+        <v>hmsg_message_template-119</v>
       </c>
       <c r="G714" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
     </row>
     <row r="715" spans="5:7">
@@ -20123,7 +20126,7 @@
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G715" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="716" spans="5:7">
@@ -20135,7 +20138,7 @@
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G716" t="s">
-        <v>631</v>
+        <v>601</v>
       </c>
     </row>
     <row r="717" spans="5:7">
@@ -20143,11 +20146,11 @@
         <v>573</v>
       </c>
       <c r="F717" t="str">
-        <f>消息模板!$E$110</f>
-        <v>hmsg_message_template-116</v>
+        <f>消息模板!$E$18</f>
+        <v>hmsg_message_template-20</v>
       </c>
       <c r="G717" t="s">
-        <v>615</v>
+        <v>632</v>
       </c>
     </row>
     <row r="718" spans="5:7">
@@ -20159,7 +20162,7 @@
         <v>hmsg_message_template-116</v>
       </c>
       <c r="G718" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
     </row>
     <row r="719" spans="5:7">
@@ -20167,11 +20170,11 @@
         <v>573</v>
       </c>
       <c r="F719" t="str">
-        <f>消息模板!$E$65</f>
-        <v>hmsg_message_template-67</v>
+        <f>消息模板!$E$110</f>
+        <v>hmsg_message_template-116</v>
       </c>
       <c r="G719" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="720" spans="5:7">
@@ -20183,7 +20186,7 @@
         <v>hmsg_message_template-67</v>
       </c>
       <c r="G720" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="721" spans="5:7">
@@ -20191,11 +20194,11 @@
         <v>573</v>
       </c>
       <c r="F721" t="str">
-        <f>消息模板!$E$101</f>
-        <v>hmsg_message_template-103</v>
+        <f>消息模板!$E$65</f>
+        <v>hmsg_message_template-67</v>
       </c>
       <c r="G721" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="722" spans="5:7">
@@ -20207,7 +20210,7 @@
         <v>hmsg_message_template-103</v>
       </c>
       <c r="G722" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="723" spans="5:7">
@@ -20219,7 +20222,7 @@
         <v>hmsg_message_template-103</v>
       </c>
       <c r="G723" t="s">
-        <v>631</v>
+        <v>601</v>
       </c>
     </row>
     <row r="724" spans="5:7">
@@ -20227,11 +20230,11 @@
         <v>573</v>
       </c>
       <c r="F724" t="str">
-        <f>消息模板!$E$103</f>
-        <v>hmsg_message_template-105</v>
+        <f>消息模板!$E$101</f>
+        <v>hmsg_message_template-103</v>
       </c>
       <c r="G724" t="s">
-        <v>605</v>
+        <v>632</v>
       </c>
     </row>
     <row r="725" spans="5:7">
@@ -20243,7 +20246,7 @@
         <v>hmsg_message_template-105</v>
       </c>
       <c r="G725" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="726" spans="5:7">
@@ -20255,7 +20258,7 @@
         <v>hmsg_message_template-105</v>
       </c>
       <c r="G726" t="s">
-        <v>631</v>
+        <v>601</v>
       </c>
     </row>
     <row r="727" spans="5:7">
@@ -20263,11 +20266,11 @@
         <v>573</v>
       </c>
       <c r="F727" t="str">
-        <f>消息模板!$E$106</f>
-        <v>hmsg_message_template-112</v>
+        <f>消息模板!$E$103</f>
+        <v>hmsg_message_template-105</v>
       </c>
       <c r="G727" t="s">
-        <v>615</v>
+        <v>632</v>
       </c>
     </row>
     <row r="728" spans="5:7">
@@ -20279,7 +20282,7 @@
         <v>hmsg_message_template-112</v>
       </c>
       <c r="G728" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
     </row>
     <row r="729" spans="5:7">
@@ -20291,7 +20294,7 @@
         <v>hmsg_message_template-112</v>
       </c>
       <c r="G729" t="s">
-        <v>618</v>
+        <v>601</v>
       </c>
     </row>
     <row r="730" spans="5:7">
@@ -20299,11 +20302,11 @@
         <v>573</v>
       </c>
       <c r="F730" t="str">
-        <f>消息模板!$E$80</f>
-        <v>hmsg_message_template-82</v>
+        <f>消息模板!$E$106</f>
+        <v>hmsg_message_template-112</v>
       </c>
       <c r="G730" t="s">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
     <row r="731" spans="5:7">
@@ -20315,7 +20318,7 @@
         <v>hmsg_message_template-82</v>
       </c>
       <c r="G731" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
     </row>
     <row r="732" spans="5:7">
@@ -20327,7 +20330,7 @@
         <v>hmsg_message_template-82</v>
       </c>
       <c r="G732" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="733" spans="5:7">
@@ -20335,11 +20338,11 @@
         <v>573</v>
       </c>
       <c r="F733" t="str">
-        <f>消息模板!$E$20</f>
-        <v>hmsg_message_template-22</v>
+        <f>消息模板!$E$80</f>
+        <v>hmsg_message_template-82</v>
       </c>
       <c r="G733" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
     </row>
     <row r="734" spans="5:7">
@@ -20351,7 +20354,7 @@
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G734" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
     </row>
     <row r="735" spans="5:7">
@@ -20363,7 +20366,7 @@
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G735" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="736" spans="5:7">
@@ -20371,11 +20374,11 @@
         <v>573</v>
       </c>
       <c r="F736" t="str">
-        <f>消息模板!$E$135</f>
-        <v>hmsg_message_template-146</v>
+        <f>消息模板!$E$20</f>
+        <v>hmsg_message_template-22</v>
       </c>
       <c r="G736" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
     </row>
     <row r="737" spans="5:7">
@@ -20387,7 +20390,7 @@
         <v>hmsg_message_template-146</v>
       </c>
       <c r="G737" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
     </row>
     <row r="738" spans="5:7">
@@ -20399,7 +20402,7 @@
         <v>hmsg_message_template-146</v>
       </c>
       <c r="G738" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="739" spans="5:7">
@@ -20407,11 +20410,11 @@
         <v>573</v>
       </c>
       <c r="F739" t="str">
-        <f>消息模板!$E$120</f>
-        <v>hmsg_message_template-126</v>
+        <f>消息模板!$E$135</f>
+        <v>hmsg_message_template-146</v>
       </c>
       <c r="G739" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
     </row>
     <row r="740" spans="5:7">
@@ -20423,7 +20426,7 @@
         <v>hmsg_message_template-126</v>
       </c>
       <c r="G740" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
     </row>
     <row r="741" spans="5:7">
@@ -20431,11 +20434,11 @@
         <v>573</v>
       </c>
       <c r="F741" t="str">
-        <f>消息模板!$E$16</f>
-        <v>hmsg_message_template-16</v>
+        <f>消息模板!$E$120</f>
+        <v>hmsg_message_template-126</v>
       </c>
       <c r="G741" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="742" spans="5:7">
@@ -20447,7 +20450,7 @@
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G742" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="743" spans="5:7">
@@ -20455,11 +20458,11 @@
         <v>573</v>
       </c>
       <c r="F743" t="str">
-        <f>消息模板!$E$41</f>
-        <v>hmsg_message_template-43</v>
+        <f>消息模板!$E$16</f>
+        <v>hmsg_message_template-16</v>
       </c>
       <c r="G743" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="744" spans="5:7">
@@ -20471,7 +20474,7 @@
         <v>hmsg_message_template-43</v>
       </c>
       <c r="G744" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="745" spans="5:7">
@@ -20479,11 +20482,11 @@
         <v>573</v>
       </c>
       <c r="F745" t="str">
-        <f>消息模板!$E$116</f>
-        <v>hmsg_message_template-122</v>
+        <f>消息模板!$E$41</f>
+        <v>hmsg_message_template-43</v>
       </c>
       <c r="G745" t="s">
-        <v>630</v>
+        <v>601</v>
       </c>
     </row>
     <row r="746" spans="5:7">
@@ -20495,7 +20498,7 @@
         <v>hmsg_message_template-122</v>
       </c>
       <c r="G746" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
     </row>
     <row r="747" spans="5:7">
@@ -20507,7 +20510,7 @@
         <v>hmsg_message_template-122</v>
       </c>
       <c r="G747" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
     </row>
     <row r="748" spans="5:7">
@@ -20519,7 +20522,7 @@
         <v>hmsg_message_template-122</v>
       </c>
       <c r="G748" t="s">
-        <v>631</v>
+        <v>601</v>
       </c>
     </row>
     <row r="749" spans="5:7">
@@ -20531,7 +20534,7 @@
         <v>hmsg_message_template-122</v>
       </c>
       <c r="G749" t="s">
-        <v>618</v>
+        <v>632</v>
       </c>
     </row>
     <row r="750" spans="5:7">
@@ -20539,11 +20542,11 @@
         <v>573</v>
       </c>
       <c r="F750" t="str">
-        <f>消息模板!$E$67</f>
-        <v>hmsg_message_template-69</v>
+        <f>消息模板!$E$116</f>
+        <v>hmsg_message_template-122</v>
       </c>
       <c r="G750" t="s">
-        <v>649</v>
+        <v>618</v>
       </c>
     </row>
     <row r="751" spans="5:7">
@@ -20555,7 +20558,7 @@
         <v>hmsg_message_template-69</v>
       </c>
       <c r="G751" t="s">
-        <v>581</v>
+        <v>650</v>
       </c>
     </row>
     <row r="752" spans="5:7">
@@ -20563,11 +20566,11 @@
         <v>573</v>
       </c>
       <c r="F752" t="str">
-        <f>消息模板!$E$95</f>
-        <v>hmsg_message_template-97</v>
+        <f>消息模板!$E$67</f>
+        <v>hmsg_message_template-69</v>
       </c>
       <c r="G752" t="s">
-        <v>607</v>
+        <v>581</v>
       </c>
     </row>
     <row r="753" spans="5:7">
@@ -20579,7 +20582,7 @@
         <v>hmsg_message_template-97</v>
       </c>
       <c r="G753" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="754" spans="5:7">
@@ -20587,11 +20590,11 @@
         <v>573</v>
       </c>
       <c r="F754" t="str">
-        <f>消息模板!$E$91</f>
-        <v>hmsg_message_template-93</v>
+        <f>消息模板!$E$95</f>
+        <v>hmsg_message_template-97</v>
       </c>
       <c r="G754" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="755" spans="5:7">
@@ -20603,7 +20606,7 @@
         <v>hmsg_message_template-93</v>
       </c>
       <c r="G755" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="756" spans="5:7">
@@ -20611,11 +20614,11 @@
         <v>573</v>
       </c>
       <c r="F756" t="str">
-        <f>消息模板!$E$11</f>
-        <v>hmsg_message_template-11</v>
+        <f>消息模板!$E$91</f>
+        <v>hmsg_message_template-93</v>
       </c>
       <c r="G756" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
     </row>
     <row r="757" spans="5:7">
@@ -20627,7 +20630,7 @@
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G757" t="s">
-        <v>650</v>
+        <v>620</v>
       </c>
     </row>
     <row r="758" spans="5:7">
@@ -20635,23 +20638,23 @@
         <v>573</v>
       </c>
       <c r="F758" t="str">
+        <f>消息模板!$E$11</f>
+        <v>hmsg_message_template-11</v>
+      </c>
+      <c r="G758" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="759" spans="5:7">
+      <c r="E759" t="s">
+        <v>573</v>
+      </c>
+      <c r="F759" t="str">
         <f>消息模板!$E$140</f>
         <v>hmsg_message_template-151</v>
       </c>
-      <c r="G758" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="759" spans="5:7">
-      <c r="E759" t="s">
-        <v>573</v>
-      </c>
-      <c r="F759" t="str">
-        <f>消息模板!$E$124</f>
-        <v>hmsg_message_template-130</v>
-      </c>
       <c r="G759" t="s">
-        <v>601</v>
+        <v>651</v>
       </c>
     </row>
     <row r="760" spans="5:7">
@@ -20663,7 +20666,7 @@
         <v>hmsg_message_template-130</v>
       </c>
       <c r="G760" t="s">
-        <v>650</v>
+        <v>601</v>
       </c>
     </row>
     <row r="761" spans="5:7">
@@ -20671,23 +20674,23 @@
         <v>573</v>
       </c>
       <c r="F761" t="str">
+        <f>消息模板!$E$124</f>
+        <v>hmsg_message_template-130</v>
+      </c>
+      <c r="G761" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="762" spans="5:7">
+      <c r="E762" t="s">
+        <v>573</v>
+      </c>
+      <c r="F762" t="str">
         <f>消息模板!$E$128</f>
         <v>hmsg_message_template-139</v>
       </c>
-      <c r="G761" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="762" spans="5:7">
-      <c r="E762" t="s">
-        <v>573</v>
-      </c>
-      <c r="F762" t="str">
-        <f>消息模板!$E$10</f>
-        <v>hmsg_message_template-10</v>
-      </c>
       <c r="G762" t="s">
-        <v>620</v>
+        <v>652</v>
       </c>
     </row>
     <row r="763" spans="5:7">
@@ -20699,7 +20702,7 @@
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G763" t="s">
-        <v>650</v>
+        <v>620</v>
       </c>
     </row>
     <row r="764" spans="5:7">
@@ -20707,11 +20710,11 @@
         <v>573</v>
       </c>
       <c r="F764" t="str">
-        <f>消息模板!$E$123</f>
-        <v>hmsg_message_template-129</v>
+        <f>消息模板!$E$10</f>
+        <v>hmsg_message_template-10</v>
       </c>
       <c r="G764" t="s">
-        <v>601</v>
+        <v>651</v>
       </c>
     </row>
     <row r="765" spans="5:7">
@@ -20723,7 +20726,7 @@
         <v>hmsg_message_template-129</v>
       </c>
       <c r="G765" t="s">
-        <v>650</v>
+        <v>601</v>
       </c>
     </row>
     <row r="766" spans="5:7">
@@ -20731,47 +20734,47 @@
         <v>573</v>
       </c>
       <c r="F766" t="str">
+        <f>消息模板!$E$123</f>
+        <v>hmsg_message_template-129</v>
+      </c>
+      <c r="G766" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="767" spans="5:7">
+      <c r="E767" t="s">
+        <v>573</v>
+      </c>
+      <c r="F767" t="str">
         <f>消息模板!$E$127</f>
         <v>hmsg_message_template-138</v>
       </c>
-      <c r="G766" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="767" spans="5:7">
-      <c r="E767" t="s">
-        <v>573</v>
-      </c>
-      <c r="F767" t="str">
+      <c r="G767" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="768" spans="5:7">
+      <c r="E768" t="s">
+        <v>573</v>
+      </c>
+      <c r="F768" t="str">
         <f>消息模板!$E$139</f>
         <v>hmsg_message_template-150</v>
       </c>
-      <c r="G767" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="768" spans="5:7">
-      <c r="E768" t="s">
-        <v>573</v>
-      </c>
-      <c r="F768" t="str">
+      <c r="G768" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="769" spans="5:7">
+      <c r="E769" t="s">
+        <v>573</v>
+      </c>
+      <c r="F769" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-12</v>
       </c>
-      <c r="G768" t="s">
+      <c r="G769" t="s">
         <v>583</v>
-      </c>
-    </row>
-    <row r="769" spans="5:7">
-      <c r="E769" t="s">
-        <v>573</v>
-      </c>
-      <c r="F769" t="str">
-        <f>消息模板!$E$34</f>
-        <v>hmsg_message_template-36</v>
-      </c>
-      <c r="G769" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="770" spans="5:7">
@@ -20783,7 +20786,7 @@
         <v>hmsg_message_template-36</v>
       </c>
       <c r="G770" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
     </row>
     <row r="771" spans="5:7">
@@ -20795,7 +20798,7 @@
         <v>hmsg_message_template-36</v>
       </c>
       <c r="G771" t="s">
-        <v>647</v>
+        <v>581</v>
       </c>
     </row>
     <row r="772" spans="5:7">
@@ -20807,7 +20810,7 @@
         <v>hmsg_message_template-36</v>
       </c>
       <c r="G772" t="s">
-        <v>590</v>
+        <v>648</v>
       </c>
     </row>
     <row r="773" spans="5:7">
@@ -20819,7 +20822,7 @@
         <v>hmsg_message_template-36</v>
       </c>
       <c r="G773" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
     </row>
     <row r="774" spans="5:7">
@@ -20827,11 +20830,11 @@
         <v>573</v>
       </c>
       <c r="F774" t="str">
-        <f>消息模板!$E$33</f>
-        <v>hmsg_message_template-35</v>
+        <f>消息模板!$E$34</f>
+        <v>hmsg_message_template-36</v>
       </c>
       <c r="G774" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="775" spans="5:7">
@@ -20843,7 +20846,7 @@
         <v>hmsg_message_template-35</v>
       </c>
       <c r="G775" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="776" spans="5:7">
@@ -20851,11 +20854,11 @@
         <v>573</v>
       </c>
       <c r="F776" t="str">
-        <f>消息模板!$E$14</f>
-        <v>hmsg_message_template-14</v>
+        <f>消息模板!$E$33</f>
+        <v>hmsg_message_template-35</v>
       </c>
       <c r="G776" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
     </row>
     <row r="777" spans="5:7">
@@ -20867,7 +20870,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G777" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="778" spans="5:7">
@@ -20879,7 +20882,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G778" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="779" spans="5:7">
@@ -20891,7 +20894,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G779" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="780" spans="5:7">
@@ -20903,7 +20906,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G780" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
     </row>
     <row r="781" spans="5:7">
@@ -20915,7 +20918,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G781" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
     </row>
     <row r="782" spans="5:7">
@@ -20927,7 +20930,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G782" t="s">
-        <v>578</v>
+        <v>597</v>
       </c>
     </row>
     <row r="783" spans="5:7">
@@ -20939,7 +20942,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G783" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="784" spans="5:7">
@@ -20951,7 +20954,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G784" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="785" spans="5:7">
@@ -20963,7 +20966,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G785" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
     </row>
     <row r="786" spans="5:7">
@@ -20975,7 +20978,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G786" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
     </row>
     <row r="787" spans="5:7">
@@ -20987,97 +20990,97 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G787" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="788" spans="5:9">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="788" spans="5:7">
       <c r="E788" t="s">
         <v>573</v>
       </c>
       <c r="F788" t="str">
+        <f>消息模板!$E$14</f>
+        <v>hmsg_message_template-14</v>
+      </c>
+      <c r="G788" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="789" spans="5:9">
+      <c r="E789" t="s">
+        <v>573</v>
+      </c>
+      <c r="F789" t="str">
         <f>消息模板!$E$68</f>
         <v>hmsg_message_template-70</v>
       </c>
-      <c r="G788" t="s">
+      <c r="G789" t="s">
         <v>624</v>
       </c>
-      <c r="H788" t="s">
+      <c r="H789" t="s">
         <v>286</v>
       </c>
-      <c r="I788" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="789" spans="5:7">
-      <c r="E789" t="s">
-        <v>573</v>
-      </c>
-      <c r="F789" t="str">
+      <c r="I789" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="790" spans="5:7">
+      <c r="E790" t="s">
+        <v>573</v>
+      </c>
+      <c r="F790" t="str">
         <f>消息模板!$E$70</f>
         <v>hmsg_message_template-72</v>
       </c>
-      <c r="G789" t="s">
+      <c r="G790" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="790" spans="5:7">
-      <c r="E790" t="s">
-        <v>573</v>
-      </c>
-      <c r="F790" t="str">
+    <row r="791" spans="5:7">
+      <c r="E791" t="s">
+        <v>573</v>
+      </c>
+      <c r="F791" t="str">
         <f>消息模板!$E$71</f>
         <v>hmsg_message_template-73</v>
       </c>
-      <c r="G790" t="s">
+      <c r="G791" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="791" spans="5:7">
-      <c r="E791" t="s">
-        <v>573</v>
-      </c>
-      <c r="F791" t="str">
+    <row r="792" spans="5:7">
+      <c r="E792" t="s">
+        <v>573</v>
+      </c>
+      <c r="F792" t="str">
         <f>消息模板!$E$72</f>
         <v>hmsg_message_template-74</v>
       </c>
-      <c r="G791" t="s">
+      <c r="G792" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="792" spans="5:7">
-      <c r="E792" t="s">
-        <v>573</v>
-      </c>
-      <c r="F792" t="str">
+    <row r="793" spans="5:7">
+      <c r="E793" t="s">
+        <v>573</v>
+      </c>
+      <c r="F793" t="str">
         <f>消息模板!$E$74</f>
         <v>hmsg_message_template-76</v>
       </c>
-      <c r="G792" t="s">
+      <c r="G793" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="793" spans="5:7">
-      <c r="E793" t="s">
-        <v>573</v>
-      </c>
-      <c r="F793" t="str">
+    <row r="794" spans="5:7">
+      <c r="E794" t="s">
+        <v>573</v>
+      </c>
+      <c r="F794" t="str">
         <f>消息模板!$E$78</f>
         <v>hmsg_message_template-80</v>
       </c>
-      <c r="G793" t="s">
+      <c r="G794" t="s">
         <v>624</v>
-      </c>
-    </row>
-    <row r="794" spans="5:7">
-      <c r="E794" t="s">
-        <v>573</v>
-      </c>
-      <c r="F794" t="str">
-        <f>E144</f>
-        <v>hmsg_message_template-155</v>
-      </c>
-      <c r="G794" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="795" spans="5:7">
@@ -21089,7 +21092,7 @@
         <v>hmsg_message_template-155</v>
       </c>
       <c r="G795" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="796" spans="5:7">
@@ -21101,7 +21104,7 @@
         <v>hmsg_message_template-155</v>
       </c>
       <c r="G796" t="s">
-        <v>590</v>
+        <v>618</v>
       </c>
     </row>
     <row r="797" spans="5:7">
@@ -21113,7 +21116,7 @@
         <v>hmsg_message_template-155</v>
       </c>
       <c r="G797" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
     </row>
     <row r="798" spans="5:7">
@@ -21125,7 +21128,7 @@
         <v>hmsg_message_template-155</v>
       </c>
       <c r="G798" t="s">
-        <v>581</v>
+        <v>601</v>
       </c>
     </row>
     <row r="799" spans="5:7">
@@ -21137,7 +21140,7 @@
         <v>hmsg_message_template-155</v>
       </c>
       <c r="G799" t="s">
-        <v>614</v>
+        <v>581</v>
       </c>
     </row>
     <row r="800" spans="5:7">
@@ -21149,7 +21152,19 @@
         <v>hmsg_message_template-155</v>
       </c>
       <c r="G800" t="s">
-        <v>654</v>
+        <v>614</v>
+      </c>
+    </row>
+    <row r="801" spans="5:7">
+      <c r="E801" t="s">
+        <v>573</v>
+      </c>
+      <c r="F801" t="str">
+        <f>E144</f>
+        <v>hmsg_message_template-155</v>
+      </c>
+      <c r="G801" t="s">
+        <v>630</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
@@ -4749,6 +4749,12 @@
     <t>PIPELINEFAILED.WEB</t>
   </si>
   <si>
+    <t>&lt;p&gt;流水线“${pipelineName}”执行失败。
+&lt;p&gt;&lt;p&gt;&lt;a href=#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;
+name=${projectName}&amp;category=GENERAL&amp;organizationId=${organizationId}&amp;
+pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId}&gt;查看详情&lt;/a &gt;</t>
+  </si>
+  <si>
     <t>hmsg_message_template-118</t>
   </si>
   <si>
@@ -4779,7 +4785,10 @@
     <t>或签任务已通过</t>
   </si>
   <si>
-    <t>&lt;p&gt;流水线“${pipelineName}”在【${stageName}】阶段中的或签任务已被${auditName}:${realName}审核。&lt;p&gt;&lt;p&gt;&lt;a href=#/devops/deployment-operation?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;category=undefined&amp;organizationId=${organizationId}&amp;orgId=${organizationId}&amp;pipelineRecordId=${pipelineRecordId}&gt;查看详情&lt;/a &gt;</t>
+    <t>&lt;p&gt;流水线“${pipelineName}”在【${stageName}】阶段被${auditName}:${realName}终止。
+&lt;p&gt;&lt;p&gt;&lt;a href=#/devops/pipeline-manage?type=project&amp;id=${projectId}&amp;
+name=${projectName}&amp;category=GENERAL&amp;organizationId=${organizationId}&amp;
+pipelineId=${pipelineId}&amp;pipelineIdRecordId=${pipelineIdRecordId}&gt;查看详情&lt;/a &gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-121</t>
@@ -4806,9 +4815,6 @@
     <t>PIPELINESTOP.WEB</t>
   </si>
   <si>
-    <t>&lt;p&gt;流水线“${pipelineName}”在【${stageName}】阶段被${auditName}:${realName}终止。&lt;p&gt;&lt;p&gt;&lt;a href=#/devops/deployment-operation?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;category=undefined&amp;organizationId=${organizationId}&amp;orgId=${organizationId}&amp;pipelineRecordId=${pipelineRecordId}&gt;查看详情&lt;/a &gt;</t>
-  </si>
-  <si>
     <t>hmsg_message_template-124</t>
   </si>
   <si>
@@ -4827,22 +4833,22 @@
     <t>流水线成功</t>
   </si>
   <si>
+    <t>hmsg_message_template-126</t>
+  </si>
+  <si>
+    <t>PIPELINESUCCESS.EMAIL</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;项目“${projectName}”中的流水线“${pipelineName}”执行成功。&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-127</t>
+  </si>
+  <si>
+    <t>PIPELINESUCCESS.WEB</t>
+  </si>
+  <si>
     <t>&lt;p&gt;流水线“${pipelineName}”执行成功。&lt;/p&gt;&lt;p&gt;&lt;a href=#/devops/deployment-operation?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;category=undefined&amp;organizationId=${organizationId}&amp;orgId=${organizationId}&amp;pipelineRecordId=${pipelineRecordId}&gt;查看详情&lt;/a &gt;;</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-126</t>
-  </si>
-  <si>
-    <t>PIPELINESUCCESS.EMAIL</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;项目“${projectName}”中的流水线“${pipelineName}”执行成功。&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-127</t>
-  </si>
-  <si>
-    <t>PIPELINESUCCESS.WEB</t>
   </si>
   <si>
     <t>hmsg_message_template-128</t>
@@ -7773,10 +7779,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -7853,15 +7859,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7881,16 +7881,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7901,14 +7893,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7928,9 +7912,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7938,7 +7928,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7989,6 +7987,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -7997,10 +8003,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8080,13 +8086,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8104,7 +8110,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8116,49 +8176,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8170,25 +8188,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8218,25 +8218,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8248,19 +8260,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8369,24 +8375,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8410,22 +8403,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8434,7 +8436,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8454,161 +8456,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -9327,15 +9333,15 @@
   <sheetPr/>
   <dimension ref="A1:P801"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A579" workbookViewId="0">
-      <selection activeCell="G592" sqref="G592"/>
+    <sheetView tabSelected="1" topLeftCell="F111" workbookViewId="0">
+      <selection activeCell="I117" sqref="I117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
     <col min="4" max="4" width="22.5833333333333" customWidth="1"/>
     <col min="5" max="5" width="29.5" customWidth="1"/>
-    <col min="6" max="6" width="32.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="44.8333333333333" customWidth="1"/>
     <col min="7" max="7" width="29.5" customWidth="1"/>
     <col min="8" max="8" width="24.25" customWidth="1"/>
     <col min="9" max="9" width="51.0833333333333" customWidth="1"/>
@@ -10182,7 +10188,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="5:16">
+    <row r="34" ht="104.4" spans="5:16">
       <c r="E34" t="s">
         <v>173</v>
       </c>
@@ -10195,7 +10201,7 @@
       <c r="H34" t="s">
         <v>175</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="9" t="s">
         <v>176</v>
       </c>
       <c r="N34" t="s">
@@ -10756,7 +10762,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="5:16">
+    <row r="54" ht="104.4" spans="5:16">
       <c r="E54" t="s">
         <v>240</v>
       </c>
@@ -10769,7 +10775,7 @@
       <c r="H54" t="s">
         <v>235</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="9" t="s">
         <v>236</v>
       </c>
       <c r="N54" t="s">
@@ -11092,7 +11098,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="5:16">
+    <row r="66" ht="87" spans="5:16">
       <c r="E66" t="s">
         <v>276</v>
       </c>
@@ -11105,7 +11111,7 @@
       <c r="H66" t="s">
         <v>278</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I66" s="9" t="s">
         <v>279</v>
       </c>
       <c r="N66" t="s">
@@ -12103,7 +12109,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="102" spans="5:16">
+    <row r="102" ht="104.4" spans="5:16">
       <c r="E102" t="s">
         <v>416</v>
       </c>
@@ -12116,7 +12122,7 @@
       <c r="H102" t="s">
         <v>114</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I102" s="9" t="s">
         <v>418</v>
       </c>
       <c r="N102" t="s">
@@ -12246,7 +12252,7 @@
       <c r="H107" t="s">
         <v>433</v>
       </c>
-      <c r="I107" s="9" t="s">
+      <c r="I107" s="5" t="s">
         <v>434</v>
       </c>
       <c r="N107" t="s">
@@ -12343,7 +12349,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="111" spans="5:16">
+    <row r="111" ht="121.8" spans="5:16">
       <c r="E111" t="s">
         <v>447</v>
       </c>
@@ -12356,8 +12362,8 @@
       <c r="H111" t="s">
         <v>442</v>
       </c>
-      <c r="I111" t="s">
-        <v>443</v>
+      <c r="I111" s="9" t="s">
+        <v>449</v>
       </c>
       <c r="N111" t="s">
         <v>72</v>
@@ -12371,19 +12377,19 @@
     </row>
     <row r="112" spans="5:16">
       <c r="E112" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F112" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G112" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H112" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I112" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J112" t="s">
         <v>70</v>
@@ -12403,10 +12409,10 @@
     </row>
     <row r="113" spans="5:16">
       <c r="E113" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F113" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G113" t="s">
         <v>106</v>
@@ -12415,7 +12421,7 @@
         <v>106</v>
       </c>
       <c r="I113" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N113" t="s">
         <v>72</v>
@@ -12427,21 +12433,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="114" spans="5:16">
+    <row r="114" ht="139.2" spans="5:16">
       <c r="E114" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F114" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G114" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H114" t="s">
-        <v>458</v>
-      </c>
-      <c r="I114" t="s">
         <v>459</v>
+      </c>
+      <c r="I114" s="9" t="s">
+        <v>460</v>
       </c>
       <c r="N114" t="s">
         <v>72</v>
@@ -12455,19 +12461,19 @@
     </row>
     <row r="115" spans="5:16">
       <c r="E115" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F115" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G115" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H115" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I115" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J115" t="s">
         <v>70</v>
@@ -12487,10 +12493,10 @@
     </row>
     <row r="116" spans="5:16">
       <c r="E116" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F116" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G116" t="s">
         <v>106</v>
@@ -12499,7 +12505,7 @@
         <v>106</v>
       </c>
       <c r="I116" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N116" t="s">
         <v>72</v>
@@ -12511,21 +12517,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="117" spans="5:16">
+    <row r="117" ht="139.2" spans="5:16">
       <c r="E117" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F117" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G117" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H117" t="s">
-        <v>462</v>
-      </c>
-      <c r="I117" t="s">
-        <v>468</v>
+        <v>463</v>
+      </c>
+      <c r="I117" s="9" t="s">
+        <v>460</v>
       </c>
       <c r="N117" t="s">
         <v>72</v>
@@ -12569,7 +12575,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="119" spans="5:16">
+    <row r="119" ht="139.2" spans="5:16">
       <c r="E119" t="s">
         <v>472</v>
       </c>
@@ -12582,8 +12588,8 @@
       <c r="H119" t="s">
         <v>474</v>
       </c>
-      <c r="I119" t="s">
-        <v>475</v>
+      <c r="I119" s="9" t="s">
+        <v>460</v>
       </c>
       <c r="N119" t="s">
         <v>72</v>
@@ -12597,10 +12603,10 @@
     </row>
     <row r="120" spans="5:16">
       <c r="E120" t="s">
+        <v>475</v>
+      </c>
+      <c r="F120" t="s">
         <v>476</v>
-      </c>
-      <c r="F120" t="s">
-        <v>477</v>
       </c>
       <c r="G120" t="s">
         <v>106</v>
@@ -12609,7 +12615,7 @@
         <v>106</v>
       </c>
       <c r="I120" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N120" t="s">
         <v>72</v>
@@ -12623,10 +12629,10 @@
     </row>
     <row r="121" spans="5:16">
       <c r="E121" t="s">
+        <v>478</v>
+      </c>
+      <c r="F121" t="s">
         <v>479</v>
-      </c>
-      <c r="F121" t="s">
-        <v>480</v>
       </c>
       <c r="G121" t="s">
         <v>474</v>
@@ -12635,7 +12641,7 @@
         <v>474</v>
       </c>
       <c r="I121" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="N121" t="s">
         <v>72</v>
@@ -24275,7 +24281,7 @@
         <v>909</v>
       </c>
       <c r="H125" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I125" t="s">
         <v>73</v>
@@ -24302,7 +24308,7 @@
         <v>913</v>
       </c>
       <c r="H126" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L126" t="s">
         <v>74</v>
@@ -24323,7 +24329,7 @@
         <v>918</v>
       </c>
       <c r="H127" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L127" t="s">
         <v>74</v>
@@ -24344,7 +24350,7 @@
         <v>909</v>
       </c>
       <c r="H128" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I128" t="s">
         <v>73</v>
@@ -24371,7 +24377,7 @@
         <v>913</v>
       </c>
       <c r="H129" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L129" t="s">
         <v>74</v>
@@ -24392,7 +24398,7 @@
         <v>918</v>
       </c>
       <c r="H130" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L130" t="s">
         <v>74</v>
@@ -24413,7 +24419,7 @@
         <v>909</v>
       </c>
       <c r="H131" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I131" t="s">
         <v>73</v>
@@ -24440,7 +24446,7 @@
         <v>913</v>
       </c>
       <c r="H132" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L132" t="s">
         <v>74</v>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6065" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6077" uniqueCount="1196">
   <si>
     <r>
       <rPr>
@@ -7302,6 +7302,18 @@
     <t>停用实例</t>
   </si>
   <si>
+    <t>hmsg_template_server-96</t>
+  </si>
+  <si>
+    <t>SYSTEMNOTIFICATION</t>
+  </si>
+  <si>
+    <t>系统公告</t>
+  </si>
+  <si>
+    <t>系统全平台公告</t>
+  </si>
+  <si>
     <t>发送配置(其它)</t>
   </si>
   <si>
@@ -7794,6 +7806,15 @@
     <t>hmsg_template_server_line-246</t>
   </si>
   <si>
+    <t>hmsg_template_server_line-247</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-248</t>
+  </si>
+  <si>
+    <t>SYSTEM_NOTIFICATION.SMS</t>
+  </si>
+  <si>
     <t>notify_message_setting_config</t>
   </si>
   <si>
@@ -7996,9 +8017,6 @@
   </si>
   <si>
     <t>notify_message_setting_config-286</t>
-  </si>
-  <si>
-    <t>SYSTEMNOTIFICATION</t>
   </si>
   <si>
     <t>notify_message_setting_config-287</t>
@@ -8027,9 +8045,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
@@ -8113,19 +8131,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8137,7 +8146,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8165,19 +8174,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8188,23 +8188,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8219,6 +8227,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -8226,23 +8242,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8258,7 +8260,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8346,6 +8364,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -8358,25 +8406,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8388,13 +8484,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8406,127 +8544,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8633,17 +8651,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8651,8 +8678,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8668,21 +8695,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8707,15 +8719,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -8730,151 +8733,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -9594,8 +9612,8 @@
   <sheetPr/>
   <dimension ref="A1:Q876"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G150" workbookViewId="0">
-      <selection activeCell="I1053" sqref="I1053"/>
+    <sheetView topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="F141" sqref="F141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -27271,10 +27289,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O306"/>
+  <dimension ref="A1:O309"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="D227" workbookViewId="0">
+      <selection activeCell="F239" sqref="F239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -30050,104 +30068,112 @@
         <v>949</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
-      <c r="A89" t="s">
+    <row r="88" spans="5:15">
+      <c r="E88" t="s">
+        <v>950</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88" t="s">
+        <v>951</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>952</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>952</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="M88" t="s">
+        <v>750</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" t="s">
         <v>50</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>51</v>
       </c>
-      <c r="C89" t="s">
-        <v>950</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>952</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>953</v>
-      </c>
-      <c r="G89" s="3" t="s">
+      <c r="C90" t="s">
         <v>954</v>
       </c>
-      <c r="H89" s="6" t="s">
+      <c r="D90" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="H90" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I89" t="s">
-        <v>955</v>
-      </c>
-      <c r="J89" t="s">
-        <v>956</v>
-      </c>
-      <c r="K89" t="s">
-        <v>957</v>
-      </c>
-      <c r="L89" t="s">
-        <v>958</v>
-      </c>
-      <c r="M89" t="s">
+      <c r="I90" t="s">
+        <v>959</v>
+      </c>
+      <c r="J90" t="s">
+        <v>960</v>
+      </c>
+      <c r="K90" t="s">
+        <v>961</v>
+      </c>
+      <c r="L90" t="s">
+        <v>962</v>
+      </c>
+      <c r="M90" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="5:13">
-      <c r="E90" t="s">
-        <v>959</v>
-      </c>
-      <c r="F90" t="str">
+    <row r="91" spans="5:13">
+      <c r="E91" t="s">
+        <v>963</v>
+      </c>
+      <c r="F91" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
-      <c r="G90" t="s">
-        <v>960</v>
-      </c>
-      <c r="H90" t="s">
+      <c r="G91" t="s">
+        <v>964</v>
+      </c>
+      <c r="H91" t="s">
         <v>269</v>
       </c>
-      <c r="I90" t="s">
-        <v>74</v>
-      </c>
-      <c r="K90" t="s">
-        <v>961</v>
-      </c>
-      <c r="L90" t="s">
-        <v>75</v>
-      </c>
-      <c r="M90" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="91" spans="5:13">
-      <c r="E91" t="s">
-        <v>962</v>
-      </c>
-      <c r="F91" t="str">
-        <f>发送配置!$E$9</f>
-        <v>hmsg_template_server-9</v>
-      </c>
-      <c r="G91" t="s">
-        <v>960</v>
-      </c>
-      <c r="H91" t="s">
-        <v>91</v>
-      </c>
       <c r="I91" t="s">
         <v>74</v>
       </c>
       <c r="K91" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="L91" t="s">
         <v>75</v>
       </c>
       <c r="M91" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92" spans="5:13">
       <c r="E92" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="F92" t="str">
         <f>发送配置!$E$9</f>
@@ -30157,66 +30183,66 @@
         <v>964</v>
       </c>
       <c r="H92" t="s">
-        <v>95</v>
-      </c>
-      <c r="L92" t="s">
-        <v>75</v>
+        <v>91</v>
+      </c>
+      <c r="I92" t="s">
+        <v>74</v>
+      </c>
+      <c r="K92" t="s">
+        <v>965</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
       </c>
       <c r="M92" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93" spans="5:13">
       <c r="E93" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="F93" t="str">
+        <f>发送配置!$E$9</f>
+        <v>hmsg_template_server-9</v>
+      </c>
+      <c r="G93" t="s">
+        <v>968</v>
+      </c>
+      <c r="H93" t="s">
+        <v>95</v>
+      </c>
+      <c r="L93" t="s">
+        <v>75</v>
+      </c>
+      <c r="M93" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94" spans="5:13">
+      <c r="E94" t="s">
+        <v>969</v>
+      </c>
+      <c r="F94" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
-      <c r="G93" t="s">
-        <v>964</v>
-      </c>
-      <c r="H93" t="s">
+      <c r="G94" t="s">
+        <v>968</v>
+      </c>
+      <c r="H94" t="s">
         <v>427</v>
       </c>
-      <c r="L93" t="s">
-        <v>75</v>
-      </c>
-      <c r="M93" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="94" spans="5:13">
-      <c r="E94" t="s">
-        <v>966</v>
-      </c>
-      <c r="F94" t="str">
-        <f>发送配置!$E$11</f>
-        <v>hmsg_template_server-11</v>
-      </c>
-      <c r="G94" t="s">
-        <v>960</v>
-      </c>
-      <c r="H94" t="s">
-        <v>264</v>
-      </c>
-      <c r="I94" t="s">
-        <v>74</v>
-      </c>
-      <c r="K94" t="s">
-        <v>961</v>
-      </c>
       <c r="L94" t="s">
         <v>75</v>
       </c>
       <c r="M94" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95" spans="5:13">
       <c r="E95" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="F95" t="str">
         <f>发送配置!$E$11</f>
@@ -30226,28 +30252,34 @@
         <v>964</v>
       </c>
       <c r="H95" t="s">
-        <v>267</v>
+        <v>264</v>
+      </c>
+      <c r="I95" t="s">
+        <v>74</v>
+      </c>
+      <c r="K95" t="s">
+        <v>965</v>
       </c>
       <c r="L95" t="s">
         <v>75</v>
       </c>
       <c r="M95" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96" spans="5:13">
       <c r="E96" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="F96" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G96" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H96" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="L96" t="s">
         <v>75</v>
@@ -30258,17 +30290,17 @@
     </row>
     <row r="97" spans="5:13">
       <c r="E97" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="F97" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G97" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H97" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L97" t="s">
         <v>75</v>
@@ -30279,34 +30311,28 @@
     </row>
     <row r="98" spans="5:13">
       <c r="E98" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="F98" t="str">
-        <f>发送配置!$E$12</f>
-        <v>hmsg_template_server-12</v>
+        <f>发送配置!$E$11</f>
+        <v>hmsg_template_server-11</v>
       </c>
       <c r="G98" t="s">
-        <v>960</v>
+        <v>973</v>
       </c>
       <c r="H98" t="s">
-        <v>227</v>
-      </c>
-      <c r="I98" t="s">
-        <v>74</v>
-      </c>
-      <c r="K98" t="s">
-        <v>961</v>
+        <v>257</v>
       </c>
       <c r="L98" t="s">
         <v>75</v>
       </c>
       <c r="M98" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99" spans="5:13">
       <c r="E99" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="F99" t="str">
         <f>发送配置!$E$12</f>
@@ -30316,28 +30342,34 @@
         <v>964</v>
       </c>
       <c r="H99" t="s">
-        <v>231</v>
+        <v>227</v>
+      </c>
+      <c r="I99" t="s">
+        <v>74</v>
+      </c>
+      <c r="K99" t="s">
+        <v>965</v>
       </c>
       <c r="L99" t="s">
         <v>75</v>
       </c>
       <c r="M99" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100" spans="5:13">
       <c r="E100" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="F100" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G100" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H100" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="L100" t="s">
         <v>75</v>
@@ -30348,17 +30380,17 @@
     </row>
     <row r="101" spans="5:13">
       <c r="E101" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="F101" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G101" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H101" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L101" t="s">
         <v>75</v>
@@ -30369,17 +30401,17 @@
     </row>
     <row r="102" spans="5:13">
       <c r="E102" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="F102" t="str">
-        <f>发送配置!$E$13</f>
-        <v>hmsg_template_server-13</v>
+        <f>发送配置!$E$12</f>
+        <v>hmsg_template_server-12</v>
       </c>
       <c r="G102" t="s">
-        <v>964</v>
+        <v>973</v>
       </c>
       <c r="H102" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="L102" t="s">
         <v>75</v>
@@ -30390,17 +30422,17 @@
     </row>
     <row r="103" spans="5:13">
       <c r="E103" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="F103" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G103" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H103" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L103" t="s">
         <v>75</v>
@@ -30411,17 +30443,17 @@
     </row>
     <row r="104" spans="5:13">
       <c r="E104" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="F104" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G104" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H104" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L104" t="s">
         <v>75</v>
@@ -30432,17 +30464,17 @@
     </row>
     <row r="105" spans="5:13">
       <c r="E105" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="F105" t="str">
-        <f>发送配置!$E$14</f>
-        <v>hmsg_template_server-14</v>
+        <f>发送配置!$E$13</f>
+        <v>hmsg_template_server-13</v>
       </c>
       <c r="G105" t="s">
-        <v>964</v>
+        <v>973</v>
       </c>
       <c r="H105" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="L105" t="s">
         <v>75</v>
@@ -30453,17 +30485,17 @@
     </row>
     <row r="106" spans="5:13">
       <c r="E106" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="F106" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G106" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H106" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L106" t="s">
         <v>75</v>
@@ -30474,17 +30506,17 @@
     </row>
     <row r="107" spans="5:13">
       <c r="E107" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="F107" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G107" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H107" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L107" t="s">
         <v>75</v>
@@ -30495,26 +30527,20 @@
     </row>
     <row r="108" spans="5:13">
       <c r="E108" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="F108" t="str">
-        <f>发送配置!$E$15</f>
-        <v>hmsg_template_server-15</v>
+        <f>发送配置!$E$14</f>
+        <v>hmsg_template_server-14</v>
       </c>
       <c r="G108" t="s">
-        <v>960</v>
+        <v>973</v>
       </c>
       <c r="H108" t="s">
-        <v>385</v>
-      </c>
-      <c r="I108" t="s">
-        <v>74</v>
-      </c>
-      <c r="K108" t="s">
-        <v>961</v>
+        <v>209</v>
       </c>
       <c r="L108" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M108" t="s">
         <v>74</v>
@@ -30522,7 +30548,7 @@
     </row>
     <row r="109" spans="5:13">
       <c r="E109" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="F109" t="str">
         <f>发送配置!$E$15</f>
@@ -30532,7 +30558,13 @@
         <v>964</v>
       </c>
       <c r="H109" t="s">
-        <v>388</v>
+        <v>385</v>
+      </c>
+      <c r="I109" t="s">
+        <v>74</v>
+      </c>
+      <c r="K109" t="s">
+        <v>965</v>
       </c>
       <c r="L109" t="s">
         <v>74</v>
@@ -30543,17 +30575,17 @@
     </row>
     <row r="110" spans="5:13">
       <c r="E110" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="F110" t="str">
         <f>发送配置!$E$15</f>
         <v>hmsg_template_server-15</v>
       </c>
       <c r="G110" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H110" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="L110" t="s">
         <v>74</v>
@@ -30564,17 +30596,17 @@
     </row>
     <row r="111" spans="5:13">
       <c r="E111" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="F111" t="str">
         <f>发送配置!$E$15</f>
         <v>hmsg_template_server-15</v>
       </c>
       <c r="G111" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H111" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="L111" t="s">
         <v>74</v>
@@ -30585,23 +30617,17 @@
     </row>
     <row r="112" spans="5:13">
       <c r="E112" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="F112" t="str">
-        <f>发送配置!$E$16</f>
-        <v>hmsg_template_server-16</v>
+        <f>发送配置!$E$15</f>
+        <v>hmsg_template_server-15</v>
       </c>
       <c r="G112" t="s">
-        <v>960</v>
+        <v>973</v>
       </c>
       <c r="H112" t="s">
-        <v>372</v>
-      </c>
-      <c r="I112" t="s">
-        <v>74</v>
-      </c>
-      <c r="K112" t="s">
-        <v>961</v>
+        <v>378</v>
       </c>
       <c r="L112" t="s">
         <v>74</v>
@@ -30612,7 +30638,7 @@
     </row>
     <row r="113" spans="5:13">
       <c r="E113" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="F113" t="str">
         <f>发送配置!$E$16</f>
@@ -30622,7 +30648,13 @@
         <v>964</v>
       </c>
       <c r="H113" t="s">
-        <v>375</v>
+        <v>372</v>
+      </c>
+      <c r="I113" t="s">
+        <v>74</v>
+      </c>
+      <c r="K113" t="s">
+        <v>965</v>
       </c>
       <c r="L113" t="s">
         <v>74</v>
@@ -30633,17 +30665,17 @@
     </row>
     <row r="114" spans="5:13">
       <c r="E114" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="F114" t="str">
         <f>发送配置!$E$16</f>
         <v>hmsg_template_server-16</v>
       </c>
       <c r="G114" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H114" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="L114" t="s">
         <v>74</v>
@@ -30654,17 +30686,17 @@
     </row>
     <row r="115" spans="5:13">
       <c r="E115" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="F115" t="str">
         <f>发送配置!$E$16</f>
         <v>hmsg_template_server-16</v>
       </c>
       <c r="G115" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H115" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="L115" t="s">
         <v>74</v>
@@ -30675,23 +30707,17 @@
     </row>
     <row r="116" spans="5:13">
       <c r="E116" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="F116" t="str">
-        <f>发送配置!$E$17</f>
-        <v>hmsg_template_server-17</v>
+        <f>发送配置!$E$16</f>
+        <v>hmsg_template_server-16</v>
       </c>
       <c r="G116" t="s">
-        <v>960</v>
+        <v>973</v>
       </c>
       <c r="H116" t="s">
-        <v>397</v>
-      </c>
-      <c r="I116" t="s">
-        <v>74</v>
-      </c>
-      <c r="K116" t="s">
-        <v>961</v>
+        <v>363</v>
       </c>
       <c r="L116" t="s">
         <v>74</v>
@@ -30702,7 +30728,7 @@
     </row>
     <row r="117" spans="5:13">
       <c r="E117" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="F117" t="str">
         <f>发送配置!$E$17</f>
@@ -30712,7 +30738,13 @@
         <v>964</v>
       </c>
       <c r="H117" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="I117" t="s">
+        <v>74</v>
+      </c>
+      <c r="K117" t="s">
+        <v>965</v>
       </c>
       <c r="L117" t="s">
         <v>74</v>
@@ -30723,17 +30755,17 @@
     </row>
     <row r="118" spans="5:13">
       <c r="E118" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="F118" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-17</v>
       </c>
       <c r="G118" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H118" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="L118" t="s">
         <v>74</v>
@@ -30744,17 +30776,17 @@
     </row>
     <row r="119" spans="5:13">
       <c r="E119" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="F119" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-17</v>
       </c>
       <c r="G119" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H119" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="L119" t="s">
         <v>74</v>
@@ -30765,38 +30797,38 @@
     </row>
     <row r="120" spans="5:13">
       <c r="E120" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="F120" t="str">
+        <f>发送配置!$E$17</f>
+        <v>hmsg_template_server-17</v>
+      </c>
+      <c r="G120" t="s">
+        <v>973</v>
+      </c>
+      <c r="H120" t="s">
+        <v>390</v>
+      </c>
+      <c r="L120" t="s">
+        <v>74</v>
+      </c>
+      <c r="M120" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="121" spans="5:13">
+      <c r="E121" t="s">
+        <v>997</v>
+      </c>
+      <c r="F121" t="str">
         <f>发送配置!$E$19</f>
         <v>hmsg_template_server-19</v>
       </c>
-      <c r="G120" t="s">
-        <v>964</v>
-      </c>
-      <c r="H120" t="s">
+      <c r="G121" t="s">
+        <v>968</v>
+      </c>
+      <c r="H121" t="s">
         <v>413</v>
-      </c>
-      <c r="L120" t="s">
-        <v>75</v>
-      </c>
-      <c r="M120" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="121" spans="5:13">
-      <c r="E121" t="s">
-        <v>994</v>
-      </c>
-      <c r="F121" t="str">
-        <f>发送配置!$E$20</f>
-        <v>hmsg_template_server-20</v>
-      </c>
-      <c r="G121" t="s">
-        <v>964</v>
-      </c>
-      <c r="H121" t="s">
-        <v>411</v>
       </c>
       <c r="L121" t="s">
         <v>75</v>
@@ -30807,17 +30839,17 @@
     </row>
     <row r="122" spans="5:13">
       <c r="E122" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="F122" t="str">
         <f>发送配置!$E$20</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G122" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H122" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="L122" t="s">
         <v>75</v>
@@ -30828,17 +30860,17 @@
     </row>
     <row r="123" spans="5:13">
       <c r="E123" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="F123" t="str">
         <f>发送配置!$E$20</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G123" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H123" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="L123" t="s">
         <v>75</v>
@@ -30849,23 +30881,17 @@
     </row>
     <row r="124" spans="5:13">
       <c r="E124" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="F124" t="str">
-        <f>发送配置!$E$21</f>
-        <v>hmsg_template_server-21</v>
+        <f>发送配置!$E$20</f>
+        <v>hmsg_template_server-20</v>
       </c>
       <c r="G124" t="s">
-        <v>960</v>
+        <v>973</v>
       </c>
       <c r="H124" t="s">
-        <v>505</v>
-      </c>
-      <c r="I124" t="s">
-        <v>74</v>
-      </c>
-      <c r="K124" t="s">
-        <v>961</v>
+        <v>403</v>
       </c>
       <c r="L124" t="s">
         <v>75</v>
@@ -30876,7 +30902,7 @@
     </row>
     <row r="125" spans="5:13">
       <c r="E125" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="F125" t="str">
         <f>发送配置!$E$21</f>
@@ -30886,7 +30912,13 @@
         <v>964</v>
       </c>
       <c r="H125" t="s">
-        <v>509</v>
+        <v>505</v>
+      </c>
+      <c r="I125" t="s">
+        <v>74</v>
+      </c>
+      <c r="K125" t="s">
+        <v>965</v>
       </c>
       <c r="L125" t="s">
         <v>75</v>
@@ -30897,44 +30929,38 @@
     </row>
     <row r="126" spans="5:13">
       <c r="E126" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="F126" t="str">
+        <f>发送配置!$E$21</f>
+        <v>hmsg_template_server-21</v>
+      </c>
+      <c r="G126" t="s">
+        <v>968</v>
+      </c>
+      <c r="H126" t="s">
+        <v>509</v>
+      </c>
+      <c r="L126" t="s">
+        <v>75</v>
+      </c>
+      <c r="M126" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="127" spans="5:13">
+      <c r="E127" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F127" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-22</v>
       </c>
-      <c r="G126" t="s">
-        <v>964</v>
-      </c>
-      <c r="H126" t="s">
+      <c r="G127" t="s">
+        <v>968</v>
+      </c>
+      <c r="H127" t="s">
         <v>531</v>
-      </c>
-      <c r="L126" t="s">
-        <v>75</v>
-      </c>
-      <c r="M126" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="127" spans="5:13">
-      <c r="E127" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F127" t="str">
-        <f>发送配置!$E$23</f>
-        <v>hmsg_template_server-27</v>
-      </c>
-      <c r="G127" t="s">
-        <v>960</v>
-      </c>
-      <c r="H127" t="s">
-        <v>512</v>
-      </c>
-      <c r="I127" t="s">
-        <v>74</v>
-      </c>
-      <c r="K127" t="s">
-        <v>961</v>
       </c>
       <c r="L127" t="s">
         <v>75</v>
@@ -30945,7 +30971,7 @@
     </row>
     <row r="128" spans="5:13">
       <c r="E128" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="F128" t="str">
         <f>发送配置!$E$23</f>
@@ -30955,7 +30981,13 @@
         <v>964</v>
       </c>
       <c r="H128" t="s">
-        <v>521</v>
+        <v>512</v>
+      </c>
+      <c r="I128" t="s">
+        <v>74</v>
+      </c>
+      <c r="K128" t="s">
+        <v>965</v>
       </c>
       <c r="L128" t="s">
         <v>75</v>
@@ -30966,61 +30998,55 @@
     </row>
     <row r="129" spans="5:13">
       <c r="E129" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="F129" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-27</v>
       </c>
       <c r="G129" t="s">
-        <v>1003</v>
+        <v>968</v>
       </c>
       <c r="H129" t="s">
-        <v>516</v>
-      </c>
-      <c r="I129" t="s">
-        <v>74</v>
-      </c>
-      <c r="K129" t="s">
-        <v>1004</v>
+        <v>521</v>
       </c>
       <c r="L129" t="s">
         <v>75</v>
       </c>
       <c r="M129" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="130" spans="5:13">
       <c r="E130" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="F130" t="str">
-        <f>发送配置!$E$24</f>
-        <v>hmsg_template_server-29</v>
+        <f>发送配置!$E$23</f>
+        <v>hmsg_template_server-27</v>
       </c>
       <c r="G130" t="s">
-        <v>960</v>
+        <v>1007</v>
       </c>
       <c r="H130" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="I130" t="s">
         <v>74</v>
       </c>
       <c r="K130" t="s">
-        <v>961</v>
+        <v>1008</v>
       </c>
       <c r="L130" t="s">
         <v>75</v>
       </c>
       <c r="M130" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="131" spans="5:13">
       <c r="E131" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="F131" t="str">
         <f>发送配置!$E$24</f>
@@ -31030,7 +31056,13 @@
         <v>964</v>
       </c>
       <c r="H131" t="s">
-        <v>459</v>
+        <v>456</v>
+      </c>
+      <c r="I131" t="s">
+        <v>74</v>
+      </c>
+      <c r="K131" t="s">
+        <v>965</v>
       </c>
       <c r="L131" t="s">
         <v>75</v>
@@ -31041,17 +31073,17 @@
     </row>
     <row r="132" spans="5:13">
       <c r="E132" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="F132" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-29</v>
       </c>
       <c r="G132" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H132" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="L132" t="s">
         <v>75</v>
@@ -31062,23 +31094,17 @@
     </row>
     <row r="133" spans="5:13">
       <c r="E133" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="F133" t="str">
-        <f>发送配置!$E$25</f>
-        <v>hmsg_template_server-30</v>
+        <f>发送配置!$E$24</f>
+        <v>hmsg_template_server-29</v>
       </c>
       <c r="G133" t="s">
-        <v>960</v>
+        <v>973</v>
       </c>
       <c r="H133" t="s">
-        <v>466</v>
-      </c>
-      <c r="I133" t="s">
-        <v>74</v>
-      </c>
-      <c r="K133" t="s">
-        <v>961</v>
+        <v>452</v>
       </c>
       <c r="L133" t="s">
         <v>75</v>
@@ -31089,7 +31115,7 @@
     </row>
     <row r="134" spans="5:13">
       <c r="E134" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="F134" t="str">
         <f>发送配置!$E$25</f>
@@ -31099,7 +31125,13 @@
         <v>964</v>
       </c>
       <c r="H134" t="s">
-        <v>469</v>
+        <v>466</v>
+      </c>
+      <c r="I134" t="s">
+        <v>74</v>
+      </c>
+      <c r="K134" t="s">
+        <v>965</v>
       </c>
       <c r="L134" t="s">
         <v>75</v>
@@ -31110,17 +31142,17 @@
     </row>
     <row r="135" spans="5:13">
       <c r="E135" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="F135" t="str">
         <f>发送配置!$E$25</f>
         <v>hmsg_template_server-30</v>
       </c>
       <c r="G135" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H135" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="L135" t="s">
         <v>75</v>
@@ -31131,23 +31163,17 @@
     </row>
     <row r="136" spans="5:13">
       <c r="E136" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="F136" t="str">
-        <f>发送配置!$E$26</f>
-        <v>hmsg_template_server-31</v>
+        <f>发送配置!$E$25</f>
+        <v>hmsg_template_server-30</v>
       </c>
       <c r="G136" t="s">
-        <v>960</v>
+        <v>973</v>
       </c>
       <c r="H136" t="s">
-        <v>479</v>
-      </c>
-      <c r="I136" t="s">
-        <v>74</v>
-      </c>
-      <c r="K136" t="s">
-        <v>961</v>
+        <v>463</v>
       </c>
       <c r="L136" t="s">
         <v>75</v>
@@ -31158,7 +31184,7 @@
     </row>
     <row r="137" spans="5:13">
       <c r="E137" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="F137" t="str">
         <f>发送配置!$E$26</f>
@@ -31168,7 +31194,13 @@
         <v>964</v>
       </c>
       <c r="H137" t="s">
-        <v>482</v>
+        <v>479</v>
+      </c>
+      <c r="I137" t="s">
+        <v>74</v>
+      </c>
+      <c r="K137" t="s">
+        <v>965</v>
       </c>
       <c r="L137" t="s">
         <v>75</v>
@@ -31179,17 +31211,17 @@
     </row>
     <row r="138" spans="5:13">
       <c r="E138" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="F138" t="str">
         <f>发送配置!$E$26</f>
         <v>hmsg_template_server-31</v>
       </c>
       <c r="G138" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H138" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="L138" t="s">
         <v>75</v>
@@ -31200,17 +31232,17 @@
     </row>
     <row r="139" spans="5:13">
       <c r="E139" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="F139" t="str">
         <f>发送配置!$E$26</f>
         <v>hmsg_template_server-31</v>
       </c>
       <c r="G139" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H139" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="L139" t="s">
         <v>75</v>
@@ -31221,23 +31253,17 @@
     </row>
     <row r="140" spans="5:13">
       <c r="E140" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="F140" t="str">
-        <f>发送配置!$E$27</f>
-        <v>hmsg_template_server-32</v>
+        <f>发送配置!$E$26</f>
+        <v>hmsg_template_server-31</v>
       </c>
       <c r="G140" t="s">
-        <v>960</v>
+        <v>973</v>
       </c>
       <c r="H140" t="s">
-        <v>446</v>
-      </c>
-      <c r="I140" t="s">
-        <v>74</v>
-      </c>
-      <c r="K140" t="s">
-        <v>961</v>
+        <v>472</v>
       </c>
       <c r="L140" t="s">
         <v>75</v>
@@ -31248,7 +31274,7 @@
     </row>
     <row r="141" spans="5:13">
       <c r="E141" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="F141" t="str">
         <f>发送配置!$E$27</f>
@@ -31258,7 +31284,13 @@
         <v>964</v>
       </c>
       <c r="H141" t="s">
-        <v>449</v>
+        <v>446</v>
+      </c>
+      <c r="I141" t="s">
+        <v>74</v>
+      </c>
+      <c r="K141" t="s">
+        <v>965</v>
       </c>
       <c r="L141" t="s">
         <v>75</v>
@@ -31269,17 +31301,17 @@
     </row>
     <row r="142" spans="5:13">
       <c r="E142" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="F142" t="str">
         <f>发送配置!$E$27</f>
         <v>hmsg_template_server-32</v>
       </c>
       <c r="G142" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H142" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="L142" t="s">
         <v>75</v>
@@ -31290,17 +31322,17 @@
     </row>
     <row r="143" spans="5:13">
       <c r="E143" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="F143" t="str">
         <f>发送配置!$E$27</f>
         <v>hmsg_template_server-32</v>
       </c>
       <c r="G143" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H143" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="L143" t="s">
         <v>75</v>
@@ -31311,23 +31343,17 @@
     </row>
     <row r="144" spans="5:13">
       <c r="E144" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="F144" t="str">
-        <f>发送配置!$E$28</f>
-        <v>hmsg_template_server-33</v>
+        <f>发送配置!$E$27</f>
+        <v>hmsg_template_server-32</v>
       </c>
       <c r="G144" t="s">
-        <v>960</v>
+        <v>973</v>
       </c>
       <c r="H144" t="s">
-        <v>430</v>
-      </c>
-      <c r="I144" t="s">
-        <v>74</v>
-      </c>
-      <c r="K144" t="s">
-        <v>961</v>
+        <v>437</v>
       </c>
       <c r="L144" t="s">
         <v>75</v>
@@ -31338,7 +31364,7 @@
     </row>
     <row r="145" spans="5:13">
       <c r="E145" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="F145" t="str">
         <f>发送配置!$E$28</f>
@@ -31348,7 +31374,13 @@
         <v>964</v>
       </c>
       <c r="H145" t="s">
-        <v>433</v>
+        <v>430</v>
+      </c>
+      <c r="I145" t="s">
+        <v>74</v>
+      </c>
+      <c r="K145" t="s">
+        <v>965</v>
       </c>
       <c r="L145" t="s">
         <v>75</v>
@@ -31359,50 +31391,44 @@
     </row>
     <row r="146" spans="5:13">
       <c r="E146" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="F146" t="str">
+        <f>发送配置!$E$28</f>
+        <v>hmsg_template_server-33</v>
+      </c>
+      <c r="G146" t="s">
+        <v>968</v>
+      </c>
+      <c r="H146" t="s">
+        <v>433</v>
+      </c>
+      <c r="L146" t="s">
+        <v>75</v>
+      </c>
+      <c r="M146" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="147" spans="5:13">
+      <c r="E147" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F147" t="str">
         <f>发送配置!$E$29</f>
         <v>hmsg_template_server-35</v>
       </c>
-      <c r="G146" t="s">
-        <v>960</v>
-      </c>
-      <c r="H146" t="s">
+      <c r="G147" t="s">
+        <v>964</v>
+      </c>
+      <c r="H147" t="s">
         <v>359</v>
       </c>
-      <c r="I146" t="s">
-        <v>74</v>
-      </c>
-      <c r="K146" t="s">
-        <v>961</v>
-      </c>
-      <c r="L146" t="s">
-        <v>75</v>
-      </c>
-      <c r="M146" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="147" spans="5:13">
-      <c r="E147" t="s">
-        <v>1022</v>
-      </c>
-      <c r="F147" t="str">
-        <f>发送配置!$E$30</f>
-        <v>hmsg_template_server-37</v>
-      </c>
-      <c r="G147" t="s">
-        <v>960</v>
-      </c>
-      <c r="H147" t="s">
-        <v>240</v>
-      </c>
       <c r="I147" t="s">
         <v>74</v>
       </c>
       <c r="K147" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="L147" t="s">
         <v>75</v>
@@ -31413,7 +31439,7 @@
     </row>
     <row r="148" spans="5:13">
       <c r="E148" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="F148" t="str">
         <f>发送配置!$E$30</f>
@@ -31423,7 +31449,13 @@
         <v>964</v>
       </c>
       <c r="H148" t="s">
-        <v>243</v>
+        <v>240</v>
+      </c>
+      <c r="I148" t="s">
+        <v>74</v>
+      </c>
+      <c r="K148" t="s">
+        <v>965</v>
       </c>
       <c r="L148" t="s">
         <v>75</v>
@@ -31434,17 +31466,17 @@
     </row>
     <row r="149" spans="5:13">
       <c r="E149" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="F149" t="str">
         <f>发送配置!$E$30</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G149" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H149" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="L149" t="s">
         <v>75</v>
@@ -31455,17 +31487,17 @@
     </row>
     <row r="150" spans="5:13">
       <c r="E150" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="F150" t="str">
         <f>发送配置!$E$30</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G150" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H150" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L150" t="s">
         <v>75</v>
@@ -31476,23 +31508,17 @@
     </row>
     <row r="151" spans="5:13">
       <c r="E151" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="F151" t="str">
-        <f>发送配置!$E$31</f>
-        <v>hmsg_template_server-38</v>
+        <f>发送配置!$E$30</f>
+        <v>hmsg_template_server-37</v>
       </c>
       <c r="G151" t="s">
-        <v>960</v>
+        <v>973</v>
       </c>
       <c r="H151" t="s">
-        <v>421</v>
-      </c>
-      <c r="I151" t="s">
-        <v>74</v>
-      </c>
-      <c r="K151" t="s">
-        <v>961</v>
+        <v>233</v>
       </c>
       <c r="L151" t="s">
         <v>75</v>
@@ -31503,7 +31529,7 @@
     </row>
     <row r="152" spans="5:13">
       <c r="E152" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="F152" t="str">
         <f>发送配置!$E$31</f>
@@ -31513,7 +31539,13 @@
         <v>964</v>
       </c>
       <c r="H152" t="s">
-        <v>424</v>
+        <v>421</v>
+      </c>
+      <c r="I152" t="s">
+        <v>74</v>
+      </c>
+      <c r="K152" t="s">
+        <v>965</v>
       </c>
       <c r="L152" t="s">
         <v>75</v>
@@ -31524,23 +31556,17 @@
     </row>
     <row r="153" spans="5:13">
       <c r="E153" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="F153" t="str">
-        <f>E83</f>
-        <v>hmsg_template_server-91</v>
+        <f>发送配置!$E$31</f>
+        <v>hmsg_template_server-38</v>
       </c>
       <c r="G153" t="s">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="H153" t="s">
-        <v>594</v>
-      </c>
-      <c r="I153" t="s">
-        <v>74</v>
-      </c>
-      <c r="K153" t="s">
-        <v>961</v>
+        <v>424</v>
       </c>
       <c r="L153" t="s">
         <v>75</v>
@@ -31551,7 +31577,7 @@
     </row>
     <row r="154" spans="5:13">
       <c r="E154" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="F154" t="str">
         <f>E83</f>
@@ -31561,7 +31587,13 @@
         <v>964</v>
       </c>
       <c r="H154" t="s">
-        <v>590</v>
+        <v>594</v>
+      </c>
+      <c r="I154" t="s">
+        <v>74</v>
+      </c>
+      <c r="K154" t="s">
+        <v>965</v>
       </c>
       <c r="L154" t="s">
         <v>75</v>
@@ -31572,23 +31604,17 @@
     </row>
     <row r="155" spans="5:13">
       <c r="E155" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="F155" t="str">
-        <f>发送配置!$E$32</f>
-        <v>hmsg_template_server-40</v>
+        <f>E83</f>
+        <v>hmsg_template_server-91</v>
       </c>
       <c r="G155" t="s">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="H155" t="s">
-        <v>415</v>
-      </c>
-      <c r="I155" t="s">
-        <v>74</v>
-      </c>
-      <c r="K155" t="s">
-        <v>961</v>
+        <v>590</v>
       </c>
       <c r="L155" t="s">
         <v>75</v>
@@ -31599,7 +31625,7 @@
     </row>
     <row r="156" spans="5:13">
       <c r="E156" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="F156" t="str">
         <f>发送配置!$E$32</f>
@@ -31609,7 +31635,13 @@
         <v>964</v>
       </c>
       <c r="H156" t="s">
-        <v>418</v>
+        <v>415</v>
+      </c>
+      <c r="I156" t="s">
+        <v>74</v>
+      </c>
+      <c r="K156" t="s">
+        <v>965</v>
       </c>
       <c r="L156" t="s">
         <v>75</v>
@@ -31620,23 +31652,17 @@
     </row>
     <row r="157" spans="5:13">
       <c r="E157" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="F157" t="str">
-        <f>发送配置!$E$33</f>
-        <v>hmsg_template_server-41</v>
+        <f>发送配置!$E$32</f>
+        <v>hmsg_template_server-40</v>
       </c>
       <c r="G157" t="s">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="H157" t="s">
-        <v>276</v>
-      </c>
-      <c r="I157" t="s">
-        <v>74</v>
-      </c>
-      <c r="K157" t="s">
-        <v>961</v>
+        <v>418</v>
       </c>
       <c r="L157" t="s">
         <v>75</v>
@@ -31647,7 +31673,7 @@
     </row>
     <row r="158" spans="5:13">
       <c r="E158" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="F158" t="str">
         <f>发送配置!$E$33</f>
@@ -31657,7 +31683,13 @@
         <v>964</v>
       </c>
       <c r="H158" t="s">
-        <v>279</v>
+        <v>276</v>
+      </c>
+      <c r="I158" t="s">
+        <v>74</v>
+      </c>
+      <c r="K158" t="s">
+        <v>965</v>
       </c>
       <c r="L158" t="s">
         <v>75</v>
@@ -31668,17 +31700,17 @@
     </row>
     <row r="159" spans="5:13">
       <c r="E159" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="F159" t="str">
         <f>发送配置!$E$33</f>
         <v>hmsg_template_server-41</v>
       </c>
       <c r="G159" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H159" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="L159" t="s">
         <v>75</v>
@@ -31689,23 +31721,17 @@
     </row>
     <row r="160" spans="5:13">
       <c r="E160" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="F160" t="str">
-        <f>发送配置!$E$34</f>
-        <v>hmsg_template_server-42</v>
+        <f>发送配置!$E$33</f>
+        <v>hmsg_template_server-41</v>
       </c>
       <c r="G160" t="s">
-        <v>960</v>
+        <v>973</v>
       </c>
       <c r="H160" t="s">
-        <v>115</v>
-      </c>
-      <c r="I160" t="s">
-        <v>74</v>
-      </c>
-      <c r="K160" t="s">
-        <v>961</v>
+        <v>273</v>
       </c>
       <c r="L160" t="s">
         <v>75</v>
@@ -31716,7 +31742,7 @@
     </row>
     <row r="161" spans="5:13">
       <c r="E161" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="F161" t="str">
         <f>发送配置!$E$34</f>
@@ -31726,7 +31752,13 @@
         <v>964</v>
       </c>
       <c r="H161" t="s">
-        <v>119</v>
+        <v>115</v>
+      </c>
+      <c r="I161" t="s">
+        <v>74</v>
+      </c>
+      <c r="K161" t="s">
+        <v>965</v>
       </c>
       <c r="L161" t="s">
         <v>75</v>
@@ -31737,23 +31769,17 @@
     </row>
     <row r="162" spans="5:13">
       <c r="E162" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="F162" t="str">
-        <f>发送配置!$E$35</f>
-        <v>hmsg_template_server-43</v>
+        <f>发送配置!$E$34</f>
+        <v>hmsg_template_server-42</v>
       </c>
       <c r="G162" t="s">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="H162" t="s">
-        <v>350</v>
-      </c>
-      <c r="I162" t="s">
-        <v>74</v>
-      </c>
-      <c r="K162" t="s">
-        <v>961</v>
+        <v>119</v>
       </c>
       <c r="L162" t="s">
         <v>75</v>
@@ -31764,7 +31790,7 @@
     </row>
     <row r="163" spans="5:13">
       <c r="E163" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="F163" t="str">
         <f>发送配置!$E$35</f>
@@ -31774,7 +31800,13 @@
         <v>964</v>
       </c>
       <c r="H163" t="s">
-        <v>353</v>
+        <v>350</v>
+      </c>
+      <c r="I163" t="s">
+        <v>74</v>
+      </c>
+      <c r="K163" t="s">
+        <v>965</v>
       </c>
       <c r="L163" t="s">
         <v>75</v>
@@ -31785,23 +31817,17 @@
     </row>
     <row r="164" spans="5:13">
       <c r="E164" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="F164" t="str">
-        <f>发送配置!$E$36</f>
-        <v>hmsg_template_server-44</v>
+        <f>发送配置!$E$35</f>
+        <v>hmsg_template_server-43</v>
       </c>
       <c r="G164" t="s">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="H164" t="s">
-        <v>122</v>
-      </c>
-      <c r="I164" t="s">
-        <v>74</v>
-      </c>
-      <c r="K164" t="s">
-        <v>961</v>
+        <v>353</v>
       </c>
       <c r="L164" t="s">
         <v>75</v>
@@ -31812,7 +31838,7 @@
     </row>
     <row r="165" spans="5:13">
       <c r="E165" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="F165" t="str">
         <f>发送配置!$E$36</f>
@@ -31822,7 +31848,13 @@
         <v>964</v>
       </c>
       <c r="H165" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="I165" t="s">
+        <v>74</v>
+      </c>
+      <c r="K165" t="s">
+        <v>965</v>
       </c>
       <c r="L165" t="s">
         <v>75</v>
@@ -31833,23 +31865,17 @@
     </row>
     <row r="166" spans="5:13">
       <c r="E166" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="F166" t="str">
-        <f>发送配置!$E$37</f>
-        <v>hmsg_template_server-45</v>
+        <f>发送配置!$E$36</f>
+        <v>hmsg_template_server-44</v>
       </c>
       <c r="G166" t="s">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="H166" t="s">
-        <v>533</v>
-      </c>
-      <c r="I166" t="s">
-        <v>74</v>
-      </c>
-      <c r="K166" t="s">
-        <v>961</v>
+        <v>125</v>
       </c>
       <c r="L166" t="s">
         <v>75</v>
@@ -31860,7 +31886,7 @@
     </row>
     <row r="167" spans="5:13">
       <c r="E167" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="F167" t="str">
         <f>发送配置!$E$37</f>
@@ -31870,7 +31896,13 @@
         <v>964</v>
       </c>
       <c r="H167" t="s">
-        <v>536</v>
+        <v>533</v>
+      </c>
+      <c r="I167" t="s">
+        <v>74</v>
+      </c>
+      <c r="K167" t="s">
+        <v>965</v>
       </c>
       <c r="L167" t="s">
         <v>75</v>
@@ -31881,23 +31913,17 @@
     </row>
     <row r="168" spans="5:13">
       <c r="E168" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="F168" t="str">
-        <f>发送配置!$E$38</f>
-        <v>hmsg_template_server-46</v>
+        <f>发送配置!$E$37</f>
+        <v>hmsg_template_server-45</v>
       </c>
       <c r="G168" t="s">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="H168" t="s">
-        <v>107</v>
-      </c>
-      <c r="I168" t="s">
-        <v>74</v>
-      </c>
-      <c r="K168" t="s">
-        <v>961</v>
+        <v>536</v>
       </c>
       <c r="L168" t="s">
         <v>75</v>
@@ -31908,7 +31934,7 @@
     </row>
     <row r="169" spans="5:13">
       <c r="E169" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="F169" t="str">
         <f>发送配置!$E$38</f>
@@ -31918,7 +31944,13 @@
         <v>964</v>
       </c>
       <c r="H169" t="s">
-        <v>111</v>
+        <v>107</v>
+      </c>
+      <c r="I169" t="s">
+        <v>74</v>
+      </c>
+      <c r="K169" t="s">
+        <v>965</v>
       </c>
       <c r="L169" t="s">
         <v>75</v>
@@ -31929,17 +31961,17 @@
     </row>
     <row r="170" spans="5:13">
       <c r="E170" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="F170" t="str">
         <f>发送配置!$E$38</f>
         <v>hmsg_template_server-46</v>
       </c>
       <c r="G170" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H170" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="L170" t="s">
         <v>75</v>
@@ -31950,23 +31982,17 @@
     </row>
     <row r="171" spans="5:13">
       <c r="E171" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="F171" t="str">
-        <f>发送配置!$E$39</f>
-        <v>hmsg_template_server-47</v>
+        <f>发送配置!$E$38</f>
+        <v>hmsg_template_server-46</v>
       </c>
       <c r="G171" t="s">
-        <v>960</v>
+        <v>973</v>
       </c>
       <c r="H171" t="s">
-        <v>201</v>
-      </c>
-      <c r="I171" t="s">
-        <v>74</v>
-      </c>
-      <c r="K171" t="s">
-        <v>961</v>
+        <v>102</v>
       </c>
       <c r="L171" t="s">
         <v>75</v>
@@ -31977,7 +32003,7 @@
     </row>
     <row r="172" spans="5:13">
       <c r="E172" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="F172" t="str">
         <f>发送配置!$E$39</f>
@@ -31987,7 +32013,13 @@
         <v>964</v>
       </c>
       <c r="H172" t="s">
-        <v>204</v>
+        <v>201</v>
+      </c>
+      <c r="I172" t="s">
+        <v>74</v>
+      </c>
+      <c r="K172" t="s">
+        <v>965</v>
       </c>
       <c r="L172" t="s">
         <v>75</v>
@@ -31998,17 +32030,17 @@
     </row>
     <row r="173" spans="5:13">
       <c r="E173" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="F173" t="str">
         <f>发送配置!$E$39</f>
         <v>hmsg_template_server-47</v>
       </c>
       <c r="G173" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H173" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L173" t="s">
         <v>75</v>
@@ -32019,17 +32051,17 @@
     </row>
     <row r="174" spans="5:13">
       <c r="E174" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="F174" t="str">
         <f>发送配置!$E$39</f>
         <v>hmsg_template_server-47</v>
       </c>
       <c r="G174" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H174" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L174" t="s">
         <v>75</v>
@@ -32040,44 +32072,38 @@
     </row>
     <row r="175" spans="5:13">
       <c r="E175" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="F175" t="str">
+        <f>发送配置!$E$39</f>
+        <v>hmsg_template_server-47</v>
+      </c>
+      <c r="G175" t="s">
+        <v>973</v>
+      </c>
+      <c r="H175" t="s">
+        <v>193</v>
+      </c>
+      <c r="L175" t="s">
+        <v>75</v>
+      </c>
+      <c r="M175" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="176" spans="5:13">
+      <c r="E176" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F176" t="str">
         <f>发送配置!$E$40</f>
         <v>hmsg_template_server-48</v>
       </c>
-      <c r="G175" t="s">
-        <v>964</v>
-      </c>
-      <c r="H175" t="s">
+      <c r="G176" t="s">
+        <v>968</v>
+      </c>
+      <c r="H176" t="s">
         <v>283</v>
-      </c>
-      <c r="L175" t="s">
-        <v>75</v>
-      </c>
-      <c r="M175" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="176" spans="5:13">
-      <c r="E176" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F176" t="str">
-        <f>发送配置!$E$41</f>
-        <v>hmsg_template_server-49</v>
-      </c>
-      <c r="G176" t="s">
-        <v>960</v>
-      </c>
-      <c r="H176" t="s">
-        <v>84</v>
-      </c>
-      <c r="I176" t="s">
-        <v>74</v>
-      </c>
-      <c r="K176" t="s">
-        <v>961</v>
       </c>
       <c r="L176" t="s">
         <v>75</v>
@@ -32088,7 +32114,7 @@
     </row>
     <row r="177" spans="5:13">
       <c r="E177" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="F177" t="str">
         <f>发送配置!$E$41</f>
@@ -32098,7 +32124,13 @@
         <v>964</v>
       </c>
       <c r="H177" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="I177" t="s">
+        <v>74</v>
+      </c>
+      <c r="K177" t="s">
+        <v>965</v>
       </c>
       <c r="L177" t="s">
         <v>75</v>
@@ -32109,17 +32141,17 @@
     </row>
     <row r="178" spans="5:13">
       <c r="E178" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="F178" t="str">
         <f>发送配置!$E$41</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G178" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H178" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="L178" t="s">
         <v>75</v>
@@ -32130,23 +32162,17 @@
     </row>
     <row r="179" spans="5:13">
       <c r="E179" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="F179" t="str">
-        <f>发送配置!$E$42</f>
-        <v>hmsg_template_server-50</v>
+        <f>发送配置!$E$41</f>
+        <v>hmsg_template_server-49</v>
       </c>
       <c r="G179" t="s">
-        <v>960</v>
+        <v>973</v>
       </c>
       <c r="H179" t="s">
-        <v>545</v>
-      </c>
-      <c r="I179" t="s">
-        <v>74</v>
-      </c>
-      <c r="K179" t="s">
-        <v>961</v>
+        <v>78</v>
       </c>
       <c r="L179" t="s">
         <v>75</v>
@@ -32157,7 +32183,7 @@
     </row>
     <row r="180" spans="5:13">
       <c r="E180" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="F180" t="str">
         <f>发送配置!$E$42</f>
@@ -32167,7 +32193,13 @@
         <v>964</v>
       </c>
       <c r="H180" t="s">
-        <v>549</v>
+        <v>545</v>
+      </c>
+      <c r="I180" t="s">
+        <v>74</v>
+      </c>
+      <c r="K180" t="s">
+        <v>965</v>
       </c>
       <c r="L180" t="s">
         <v>75</v>
@@ -32178,23 +32210,17 @@
     </row>
     <row r="181" spans="5:13">
       <c r="E181" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="F181" t="str">
-        <f>发送配置!$E$43</f>
-        <v>hmsg_template_server-51</v>
+        <f>发送配置!$E$42</f>
+        <v>hmsg_template_server-50</v>
       </c>
       <c r="G181" t="s">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="H181" t="s">
-        <v>488</v>
-      </c>
-      <c r="I181" t="s">
-        <v>74</v>
-      </c>
-      <c r="K181" t="s">
-        <v>961</v>
+        <v>549</v>
       </c>
       <c r="L181" t="s">
         <v>75</v>
@@ -32205,7 +32231,7 @@
     </row>
     <row r="182" spans="5:13">
       <c r="E182" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="F182" t="str">
         <f>发送配置!$E$43</f>
@@ -32215,7 +32241,13 @@
         <v>964</v>
       </c>
       <c r="H182" t="s">
-        <v>492</v>
+        <v>488</v>
+      </c>
+      <c r="I182" t="s">
+        <v>74</v>
+      </c>
+      <c r="K182" t="s">
+        <v>965</v>
       </c>
       <c r="L182" t="s">
         <v>75</v>
@@ -32226,17 +32258,17 @@
     </row>
     <row r="183" spans="5:13">
       <c r="E183" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="F183" t="str">
         <f>发送配置!$E$43</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G183" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H183" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="L183" t="s">
         <v>75</v>
@@ -32247,23 +32279,17 @@
     </row>
     <row r="184" spans="5:13">
       <c r="E184" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="F184" t="str">
-        <f>发送配置!$E$44</f>
-        <v>hmsg_template_server-52</v>
+        <f>发送配置!$E$43</f>
+        <v>hmsg_template_server-51</v>
       </c>
       <c r="G184" t="s">
-        <v>960</v>
+        <v>973</v>
       </c>
       <c r="H184" t="s">
-        <v>539</v>
-      </c>
-      <c r="I184" t="s">
-        <v>74</v>
-      </c>
-      <c r="K184" t="s">
-        <v>961</v>
+        <v>484</v>
       </c>
       <c r="L184" t="s">
         <v>75</v>
@@ -32274,7 +32300,7 @@
     </row>
     <row r="185" spans="5:13">
       <c r="E185" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="F185" t="str">
         <f>发送配置!$E$44</f>
@@ -32284,7 +32310,13 @@
         <v>964</v>
       </c>
       <c r="H185" t="s">
-        <v>542</v>
+        <v>539</v>
+      </c>
+      <c r="I185" t="s">
+        <v>74</v>
+      </c>
+      <c r="K185" t="s">
+        <v>965</v>
       </c>
       <c r="L185" t="s">
         <v>75</v>
@@ -32295,23 +32327,17 @@
     </row>
     <row r="186" spans="5:13">
       <c r="E186" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="F186" t="str">
-        <f>发送配置!$E$45</f>
-        <v>hmsg_template_server-53</v>
+        <f>发送配置!$E$44</f>
+        <v>hmsg_template_server-52</v>
       </c>
       <c r="G186" t="s">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="H186" t="s">
-        <v>173</v>
-      </c>
-      <c r="I186" t="s">
-        <v>74</v>
-      </c>
-      <c r="K186" t="s">
-        <v>961</v>
+        <v>542</v>
       </c>
       <c r="L186" t="s">
         <v>75</v>
@@ -32322,7 +32348,7 @@
     </row>
     <row r="187" spans="5:13">
       <c r="E187" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="F187" t="str">
         <f>发送配置!$E$45</f>
@@ -32332,7 +32358,13 @@
         <v>964</v>
       </c>
       <c r="H187" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="I187" t="s">
+        <v>74</v>
+      </c>
+      <c r="K187" t="s">
+        <v>965</v>
       </c>
       <c r="L187" t="s">
         <v>75</v>
@@ -32343,17 +32375,17 @@
     </row>
     <row r="188" spans="5:13">
       <c r="E188" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="F188" t="str">
         <f>发送配置!$E$45</f>
         <v>hmsg_template_server-53</v>
       </c>
       <c r="G188" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H188" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="L188" t="s">
         <v>75</v>
@@ -32364,1071 +32396,1092 @@
     </row>
     <row r="189" spans="5:13">
       <c r="E189" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="F189" t="str">
+        <f>发送配置!$E$45</f>
+        <v>hmsg_template_server-53</v>
+      </c>
+      <c r="G189" t="s">
+        <v>973</v>
+      </c>
+      <c r="H189" t="s">
+        <v>170</v>
+      </c>
+      <c r="L189" t="s">
+        <v>75</v>
+      </c>
+      <c r="M189" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="190" spans="5:13">
+      <c r="E190" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F190" t="str">
         <f>发送配置!$E$46</f>
         <v>hmsg_template_server-54</v>
       </c>
-      <c r="G189" t="s">
-        <v>969</v>
-      </c>
-      <c r="H189" t="s">
+      <c r="G190" t="s">
+        <v>973</v>
+      </c>
+      <c r="H190" t="s">
         <v>167</v>
       </c>
-      <c r="L189" t="s">
-        <v>1065</v>
-      </c>
-      <c r="M189" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="190" spans="5:13">
-      <c r="E190" t="s">
-        <v>1066</v>
-      </c>
-      <c r="F190" t="str">
+      <c r="L190" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M190" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="191" spans="5:13">
+      <c r="E191" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F191" t="str">
         <f>发送配置!$E$47</f>
         <v>hmsg_template_server-55</v>
       </c>
-      <c r="G190" t="s">
-        <v>969</v>
-      </c>
-      <c r="H190" t="s">
+      <c r="G191" t="s">
+        <v>973</v>
+      </c>
+      <c r="H191" t="s">
         <v>245</v>
       </c>
-      <c r="L190" t="s">
-        <v>1065</v>
-      </c>
-      <c r="M190" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="191" spans="5:13">
-      <c r="E191" t="s">
-        <v>1067</v>
-      </c>
-      <c r="F191" t="str">
+      <c r="L191" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M191" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="192" spans="5:13">
+      <c r="E192" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F192" t="str">
         <f>发送配置!$E$48</f>
         <v>hmsg_template_server-56</v>
       </c>
-      <c r="G191" t="s">
-        <v>969</v>
-      </c>
-      <c r="H191" t="s">
+      <c r="G192" t="s">
+        <v>973</v>
+      </c>
+      <c r="H192" t="s">
         <v>186</v>
       </c>
-      <c r="L191" t="s">
-        <v>1065</v>
-      </c>
-      <c r="M191" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="192" spans="5:13">
-      <c r="E192" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F192" t="str">
+      <c r="L192" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M192" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="193" spans="5:13">
+      <c r="E193" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F193" t="str">
         <f>发送配置!$E$49</f>
         <v>hmsg_template_server-57</v>
       </c>
-      <c r="G192" t="s">
-        <v>969</v>
-      </c>
-      <c r="H192" t="s">
+      <c r="G193" t="s">
+        <v>973</v>
+      </c>
+      <c r="H193" t="s">
         <v>206</v>
       </c>
-      <c r="L192" t="s">
-        <v>1065</v>
-      </c>
-      <c r="M192" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="193" spans="5:13">
-      <c r="E193" t="s">
+      <c r="L193" t="s">
         <v>1069</v>
       </c>
-      <c r="F193" t="str">
+      <c r="M193" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="194" spans="5:13">
+      <c r="E194" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F194" t="str">
         <f>发送配置!$E$50</f>
         <v>hmsg_template_server-58</v>
       </c>
-      <c r="G193" t="s">
-        <v>969</v>
-      </c>
-      <c r="H193" t="s">
+      <c r="G194" t="s">
+        <v>973</v>
+      </c>
+      <c r="H194" t="s">
         <v>137</v>
       </c>
-      <c r="L193" t="s">
-        <v>1065</v>
-      </c>
-      <c r="M193" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="194" spans="5:13">
-      <c r="E194" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F194" t="str">
+      <c r="L194" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M194" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="195" spans="5:13">
+      <c r="E195" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F195" t="str">
         <f>发送配置!$E$51</f>
         <v>hmsg_template_server-59</v>
       </c>
-      <c r="G194" t="s">
-        <v>969</v>
-      </c>
-      <c r="H194" t="s">
+      <c r="G195" t="s">
+        <v>973</v>
+      </c>
+      <c r="H195" t="s">
         <v>141</v>
       </c>
-      <c r="L194" t="s">
-        <v>1065</v>
-      </c>
-      <c r="M194" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="195" spans="5:13">
-      <c r="E195" t="s">
-        <v>1071</v>
-      </c>
-      <c r="F195" t="str">
+      <c r="L195" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M195" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="196" spans="5:13">
+      <c r="E196" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F196" t="str">
         <f>发送配置!$E$52</f>
         <v>hmsg_template_server-60</v>
       </c>
-      <c r="G195" t="s">
-        <v>969</v>
-      </c>
-      <c r="H195" t="s">
+      <c r="G196" t="s">
+        <v>973</v>
+      </c>
+      <c r="H196" t="s">
         <v>144</v>
       </c>
-      <c r="L195" t="s">
-        <v>1065</v>
-      </c>
-      <c r="M195" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="196" spans="5:13">
-      <c r="E196" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F196" t="str">
+      <c r="L196" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M196" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="197" spans="5:13">
+      <c r="E197" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F197" t="str">
         <f>发送配置!$E$53</f>
         <v>hmsg_template_server-61</v>
       </c>
-      <c r="G196" t="s">
-        <v>969</v>
-      </c>
-      <c r="H196" t="s">
+      <c r="G197" t="s">
+        <v>973</v>
+      </c>
+      <c r="H197" t="s">
         <v>149</v>
       </c>
-      <c r="L196" t="s">
-        <v>1065</v>
-      </c>
-      <c r="M196" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="197" spans="5:13">
-      <c r="E197" t="s">
-        <v>1073</v>
-      </c>
-      <c r="F197" t="str">
+      <c r="L197" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M197" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="198" spans="5:13">
+      <c r="E198" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F198" t="str">
         <f>发送配置!$E$54</f>
         <v>hmsg_template_server-62</v>
       </c>
-      <c r="G197" t="s">
-        <v>969</v>
-      </c>
-      <c r="H197" t="s">
+      <c r="G198" t="s">
+        <v>973</v>
+      </c>
+      <c r="H198" t="s">
         <v>183</v>
       </c>
-      <c r="L197" t="s">
-        <v>1065</v>
-      </c>
-      <c r="M197" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="198" spans="5:13">
-      <c r="E198" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F198" t="str">
+      <c r="L198" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M198" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="199" spans="5:13">
+      <c r="E199" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F199" t="str">
         <f>发送配置!$E$55</f>
         <v>hmsg_template_server-63</v>
       </c>
-      <c r="G198" t="s">
-        <v>969</v>
-      </c>
-      <c r="H198" t="s">
+      <c r="G199" t="s">
+        <v>973</v>
+      </c>
+      <c r="H199" t="s">
         <v>157</v>
       </c>
-      <c r="L198" t="s">
-        <v>1065</v>
-      </c>
-      <c r="M198" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="199" spans="5:13">
-      <c r="E199" t="s">
-        <v>1075</v>
-      </c>
-      <c r="F199" t="str">
+      <c r="L199" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M199" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="200" spans="5:13">
+      <c r="E200" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F200" t="str">
         <f>发送配置!$E$56</f>
         <v>hmsg_template_server-64</v>
       </c>
-      <c r="G199" t="s">
-        <v>969</v>
-      </c>
-      <c r="H199" t="s">
+      <c r="G200" t="s">
+        <v>973</v>
+      </c>
+      <c r="H200" t="s">
         <v>128</v>
       </c>
-      <c r="L199" t="s">
-        <v>1065</v>
-      </c>
-      <c r="M199" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="200" spans="5:13">
-      <c r="E200" t="s">
-        <v>1076</v>
-      </c>
-      <c r="F200" t="str">
+      <c r="L200" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M200" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="201" spans="5:13">
+      <c r="E201" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F201" t="str">
         <f>发送配置!$E$57</f>
         <v>hmsg_template_server-65</v>
       </c>
-      <c r="G200" t="s">
-        <v>969</v>
-      </c>
-      <c r="H200" t="s">
+      <c r="G201" t="s">
+        <v>973</v>
+      </c>
+      <c r="H201" t="s">
         <v>189</v>
       </c>
-      <c r="L200" t="s">
-        <v>1065</v>
-      </c>
-      <c r="M200" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="201" spans="5:13">
-      <c r="E201" t="s">
-        <v>1077</v>
-      </c>
-      <c r="F201" t="str">
+      <c r="L201" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M201" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="202" spans="5:13">
+      <c r="E202" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F202" t="str">
         <f>发送配置!$E$59</f>
         <v>hmsg_template_server-67</v>
       </c>
-      <c r="G201" t="s">
-        <v>969</v>
-      </c>
-      <c r="H201" t="s">
+      <c r="G202" t="s">
+        <v>973</v>
+      </c>
+      <c r="H202" t="s">
         <v>162</v>
       </c>
-      <c r="L201" t="s">
-        <v>1065</v>
-      </c>
-      <c r="M201" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="202" spans="5:13">
-      <c r="E202" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F202" t="str">
+      <c r="L202" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M202" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="203" spans="5:13">
+      <c r="E203" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F203" t="str">
         <f>发送配置!$E$60</f>
         <v>hmsg_template_server-68</v>
       </c>
-      <c r="G202" t="s">
-        <v>969</v>
-      </c>
-      <c r="H202" t="s">
+      <c r="G203" t="s">
+        <v>973</v>
+      </c>
+      <c r="H203" t="s">
         <v>484</v>
       </c>
-      <c r="L202" t="s">
-        <v>1065</v>
-      </c>
-      <c r="M202" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="203" spans="5:13">
-      <c r="E203" t="s">
-        <v>1079</v>
-      </c>
-      <c r="F203" t="str">
+      <c r="L203" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M203" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="204" spans="5:13">
+      <c r="E204" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F204" t="str">
         <f>发送配置!$E$62</f>
         <v>hmsg_template_server-70</v>
       </c>
-      <c r="G203" t="s">
-        <v>969</v>
-      </c>
-      <c r="H203" t="s">
+      <c r="G204" t="s">
+        <v>973</v>
+      </c>
+      <c r="H204" t="s">
         <v>552</v>
       </c>
-      <c r="L203" t="s">
-        <v>1065</v>
-      </c>
-      <c r="M203" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="204" spans="5:13">
-      <c r="E204" t="s">
-        <v>1080</v>
-      </c>
-      <c r="F204" t="str">
+      <c r="L204" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M204" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="205" spans="5:13">
+      <c r="E205" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F205" t="str">
         <f>发送配置!$E$63</f>
         <v>hmsg_template_server-71</v>
       </c>
-      <c r="G204" t="s">
-        <v>969</v>
-      </c>
-      <c r="H204" t="s">
+      <c r="G205" t="s">
+        <v>973</v>
+      </c>
+      <c r="H205" t="s">
         <v>133</v>
       </c>
-      <c r="L204" t="s">
-        <v>1065</v>
-      </c>
-      <c r="M204" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="205" spans="5:13">
-      <c r="E205" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F205" t="str">
+      <c r="L205" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M205" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="206" spans="5:13">
+      <c r="E206" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F206" t="str">
         <f>发送配置!$E$64</f>
         <v>hmsg_template_server-72</v>
       </c>
-      <c r="G205" t="s">
-        <v>969</v>
-      </c>
-      <c r="H205" t="s">
+      <c r="G206" t="s">
+        <v>973</v>
+      </c>
+      <c r="H206" t="s">
         <v>560</v>
       </c>
-      <c r="L205" t="s">
-        <v>1065</v>
-      </c>
-      <c r="M205" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="206" spans="5:13">
-      <c r="E206" t="s">
-        <v>1082</v>
-      </c>
-      <c r="F206" t="str">
+      <c r="L206" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M206" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="207" spans="5:13">
+      <c r="E207" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F207" t="str">
         <f>发送配置!$E$65</f>
         <v>hmsg_template_server-73</v>
       </c>
-      <c r="G206" t="s">
-        <v>969</v>
-      </c>
-      <c r="H206" t="s">
+      <c r="G207" t="s">
+        <v>973</v>
+      </c>
+      <c r="H207" t="s">
         <v>68</v>
       </c>
-      <c r="L206" t="s">
-        <v>1065</v>
-      </c>
-      <c r="M206" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="207" spans="5:13">
-      <c r="E207" t="s">
-        <v>1083</v>
-      </c>
-      <c r="F207" t="str">
+      <c r="L207" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M207" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="208" spans="5:13">
+      <c r="E208" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F208" t="str">
         <f>发送配置!$E$66</f>
         <v>hmsg_template_server-74</v>
       </c>
-      <c r="G207" t="s">
-        <v>969</v>
-      </c>
-      <c r="H207" t="s">
+      <c r="G208" t="s">
+        <v>973</v>
+      </c>
+      <c r="H208" t="s">
         <v>180</v>
       </c>
-      <c r="L207" t="s">
-        <v>1065</v>
-      </c>
-      <c r="M207" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="208" spans="5:13">
-      <c r="E208" t="s">
-        <v>1084</v>
-      </c>
-      <c r="F208" t="str">
+      <c r="L208" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M208" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="209" spans="5:13">
+      <c r="E209" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F209" t="str">
         <f>发送配置!$E$67</f>
         <v>hmsg_template_server-75</v>
       </c>
-      <c r="G208" t="s">
-        <v>969</v>
-      </c>
-      <c r="H208" t="s">
+      <c r="G209" t="s">
+        <v>973</v>
+      </c>
+      <c r="H209" t="s">
         <v>523</v>
       </c>
-      <c r="L208" t="s">
-        <v>1065</v>
-      </c>
-      <c r="M208" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="209" spans="5:13">
-      <c r="E209" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F209" t="str">
+      <c r="L209" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M209" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="210" spans="5:13">
+      <c r="E210" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F210" t="str">
         <f>发送配置!$E$68</f>
         <v>hmsg_template_server-76</v>
       </c>
-      <c r="G209" t="s">
-        <v>964</v>
-      </c>
-      <c r="H209" t="s">
+      <c r="G210" t="s">
+        <v>968</v>
+      </c>
+      <c r="H210" t="s">
         <v>495</v>
       </c>
-      <c r="M209" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="210" spans="5:13">
-      <c r="E210" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F210" t="str">
+      <c r="M210" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="211" spans="5:13">
+      <c r="E211" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F211" t="str">
         <f>发送配置!$E$69</f>
         <v>hmsg_template_server-77</v>
       </c>
-      <c r="G210" t="s">
-        <v>964</v>
-      </c>
-      <c r="H210" t="s">
+      <c r="G211" t="s">
+        <v>968</v>
+      </c>
+      <c r="H211" t="s">
         <v>500</v>
       </c>
-      <c r="M210" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="211" spans="5:13">
-      <c r="E211" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F211" t="str">
+      <c r="M211" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="212" spans="5:13">
+      <c r="E212" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F212" t="str">
         <f>发送配置!$E$79</f>
         <v>hmsg_template_server-87</v>
       </c>
-      <c r="G211" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H211" t="s">
+      <c r="G212" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H212" t="s">
         <v>339</v>
       </c>
-      <c r="K211" t="s">
-        <v>1088</v>
-      </c>
-      <c r="M211" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="212" spans="5:13">
-      <c r="E212" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F212" t="str">
+      <c r="K212" t="s">
+        <v>1092</v>
+      </c>
+      <c r="M212" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="213" spans="5:13">
+      <c r="E213" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F213" t="str">
         <f>发送配置!$E$61</f>
         <v>hmsg_template_server-69</v>
       </c>
-      <c r="G212" t="s">
-        <v>969</v>
-      </c>
-      <c r="H212" t="s">
+      <c r="G213" t="s">
+        <v>973</v>
+      </c>
+      <c r="H213" t="s">
         <v>98</v>
       </c>
-      <c r="M212" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="213" spans="5:13">
-      <c r="E213" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F213" t="str">
+      <c r="M213" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="214" spans="5:13">
+      <c r="E214" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F214" t="str">
         <f>发送配置!$E$74</f>
         <v>hmsg_template_server-82</v>
       </c>
-      <c r="G213" t="s">
-        <v>964</v>
-      </c>
-      <c r="H213" t="s">
+      <c r="G214" t="s">
+        <v>968</v>
+      </c>
+      <c r="H214" t="s">
         <v>315</v>
       </c>
-      <c r="M213" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="214" spans="5:13">
-      <c r="E214" t="s">
-        <v>1091</v>
-      </c>
-      <c r="F214" t="str">
+      <c r="M214" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="215" spans="5:13">
+      <c r="E215" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F215" t="str">
         <f>发送配置!$E$58</f>
         <v>hmsg_template_server-66</v>
       </c>
-      <c r="G214" t="s">
-        <v>969</v>
-      </c>
-      <c r="H214" t="s">
+      <c r="G215" t="s">
+        <v>973</v>
+      </c>
+      <c r="H215" t="s">
         <v>527</v>
       </c>
-      <c r="M214" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="215" spans="5:13">
-      <c r="E215" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F215" t="str">
+      <c r="M215" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="216" spans="5:13">
+      <c r="E216" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F216" t="str">
         <f>发送配置!$E$80</f>
         <v>hmsg_template_server-88</v>
       </c>
-      <c r="G215" t="s">
-        <v>960</v>
-      </c>
-      <c r="H215" t="s">
+      <c r="G216" t="s">
+        <v>964</v>
+      </c>
+      <c r="H216" t="s">
         <v>345</v>
       </c>
-      <c r="I215" t="s">
-        <v>1093</v>
-      </c>
-      <c r="K215" t="s">
-        <v>1088</v>
-      </c>
-      <c r="M215" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="216" spans="5:13">
-      <c r="E216" t="s">
-        <v>1094</v>
-      </c>
-      <c r="F216" t="str">
+      <c r="I216" t="s">
+        <v>1097</v>
+      </c>
+      <c r="K216" t="s">
+        <v>1092</v>
+      </c>
+      <c r="M216" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="217" spans="5:13">
+      <c r="E217" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F217" t="str">
         <f>发送配置!$E$76</f>
         <v>hmsg_template_server-84</v>
       </c>
-      <c r="G216" t="s">
-        <v>960</v>
-      </c>
-      <c r="H216" t="s">
+      <c r="G217" t="s">
+        <v>964</v>
+      </c>
+      <c r="H217" t="s">
         <v>324</v>
       </c>
-      <c r="I216" t="s">
-        <v>1093</v>
-      </c>
-      <c r="K216" t="s">
-        <v>1088</v>
-      </c>
-      <c r="M216" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="217" spans="5:13">
-      <c r="E217" t="s">
-        <v>1095</v>
-      </c>
-      <c r="F217" t="str">
+      <c r="I217" t="s">
+        <v>1097</v>
+      </c>
+      <c r="K217" t="s">
+        <v>1092</v>
+      </c>
+      <c r="M217" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="218" spans="5:13">
+      <c r="E218" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F218" t="str">
         <f>发送配置!$E$73</f>
         <v>hmsg_template_server-81</v>
       </c>
-      <c r="G217" t="s">
-        <v>960</v>
-      </c>
-      <c r="H217" t="s">
+      <c r="G218" t="s">
+        <v>964</v>
+      </c>
+      <c r="H218" t="s">
         <v>305</v>
       </c>
-      <c r="I217" t="s">
-        <v>1093</v>
-      </c>
-      <c r="K217" t="s">
-        <v>1088</v>
-      </c>
-      <c r="M217" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="218" spans="5:13">
-      <c r="E218" t="s">
-        <v>1096</v>
-      </c>
-      <c r="F218" t="str">
+      <c r="I218" t="s">
+        <v>1097</v>
+      </c>
+      <c r="K218" t="s">
+        <v>1092</v>
+      </c>
+      <c r="M218" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="219" spans="5:13">
+      <c r="E219" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F219" t="str">
         <f>发送配置!$E$77</f>
         <v>hmsg_template_server-85</v>
       </c>
-      <c r="G218" t="s">
-        <v>960</v>
-      </c>
-      <c r="H218" t="s">
+      <c r="G219" t="s">
+        <v>964</v>
+      </c>
+      <c r="H219" t="s">
         <v>331</v>
       </c>
-      <c r="I218" t="s">
-        <v>1093</v>
-      </c>
-      <c r="K218" t="s">
-        <v>1088</v>
-      </c>
-      <c r="M218" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="219" spans="5:13">
-      <c r="E219" t="s">
+      <c r="I219" t="s">
         <v>1097</v>
       </c>
-      <c r="F219" t="str">
+      <c r="K219" t="s">
+        <v>1092</v>
+      </c>
+      <c r="M219" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="220" spans="5:13">
+      <c r="E220" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F220" t="str">
         <f>发送配置!$E$72</f>
         <v>hmsg_template_server-80</v>
       </c>
-      <c r="G219" t="s">
-        <v>960</v>
-      </c>
-      <c r="H219" t="s">
+      <c r="G220" t="s">
+        <v>964</v>
+      </c>
+      <c r="H220" t="s">
         <v>298</v>
       </c>
-      <c r="I219" t="s">
-        <v>1093</v>
-      </c>
-      <c r="K219" t="s">
-        <v>1088</v>
-      </c>
-      <c r="M219" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="220" spans="5:13">
-      <c r="E220" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F220" t="str">
+      <c r="I220" t="s">
+        <v>1097</v>
+      </c>
+      <c r="K220" t="s">
+        <v>1092</v>
+      </c>
+      <c r="M220" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="221" spans="5:13">
+      <c r="E221" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F221" t="str">
         <f>发送配置!$E$71</f>
         <v>hmsg_template_server-79</v>
       </c>
-      <c r="G220" t="s">
-        <v>960</v>
-      </c>
-      <c r="H220" t="s">
+      <c r="G221" t="s">
+        <v>964</v>
+      </c>
+      <c r="H221" t="s">
         <v>292</v>
       </c>
-      <c r="I220" t="s">
-        <v>1093</v>
-      </c>
-      <c r="K220" t="s">
-        <v>1088</v>
-      </c>
-      <c r="M220" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="221" spans="5:13">
-      <c r="E221" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F221" t="str">
+      <c r="I221" t="s">
+        <v>1097</v>
+      </c>
+      <c r="K221" t="s">
+        <v>1092</v>
+      </c>
+      <c r="M221" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="222" spans="5:13">
+      <c r="E222" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F222" t="str">
         <f>发送配置!$E$70</f>
         <v>hmsg_template_server-78</v>
       </c>
-      <c r="G221" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H221" t="s">
+      <c r="G222" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H222" t="s">
         <v>287</v>
       </c>
-      <c r="I221" t="s">
-        <v>1093</v>
-      </c>
-      <c r="K221" t="s">
-        <v>1088</v>
-      </c>
-      <c r="M221" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="222" spans="5:13">
-      <c r="E222" t="s">
-        <v>1100</v>
-      </c>
-      <c r="F222" t="str">
+      <c r="I222" t="s">
+        <v>1097</v>
+      </c>
+      <c r="K222" t="s">
+        <v>1092</v>
+      </c>
+      <c r="M222" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="223" spans="5:13">
+      <c r="E223" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F223" t="str">
         <f>发送配置!$E$80</f>
         <v>hmsg_template_server-88</v>
       </c>
-      <c r="G222" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H222" t="s">
+      <c r="G223" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H223" t="s">
         <v>345</v>
       </c>
-      <c r="I222" t="s">
-        <v>1093</v>
-      </c>
-      <c r="K222" t="s">
-        <v>1088</v>
-      </c>
-      <c r="M222" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="223" spans="5:13">
-      <c r="E223" t="s">
-        <v>1101</v>
-      </c>
-      <c r="F223" t="str">
+      <c r="I223" t="s">
+        <v>1097</v>
+      </c>
+      <c r="K223" t="s">
+        <v>1092</v>
+      </c>
+      <c r="M223" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="224" spans="5:13">
+      <c r="E224" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F224" t="str">
         <f>发送配置!$E$76</f>
         <v>hmsg_template_server-84</v>
       </c>
-      <c r="G223" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H223" t="s">
+      <c r="G224" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H224" t="s">
         <v>324</v>
       </c>
-      <c r="I223" t="s">
-        <v>1093</v>
-      </c>
-      <c r="K223" t="s">
-        <v>1088</v>
-      </c>
-      <c r="M223" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="224" spans="5:13">
-      <c r="E224" t="s">
-        <v>1102</v>
-      </c>
-      <c r="F224" t="str">
+      <c r="I224" t="s">
+        <v>1097</v>
+      </c>
+      <c r="K224" t="s">
+        <v>1092</v>
+      </c>
+      <c r="M224" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="225" spans="5:13">
+      <c r="E225" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F225" t="str">
         <f>发送配置!$E$75</f>
         <v>hmsg_template_server-83</v>
       </c>
-      <c r="G224" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H224" t="s">
+      <c r="G225" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H225" t="s">
         <v>319</v>
       </c>
-      <c r="I224" t="s">
-        <v>1093</v>
-      </c>
-      <c r="K224" t="s">
-        <v>1088</v>
-      </c>
-      <c r="M224" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="225" spans="5:13">
-      <c r="E225" t="s">
-        <v>1103</v>
-      </c>
-      <c r="F225" t="str">
+      <c r="I225" t="s">
+        <v>1097</v>
+      </c>
+      <c r="K225" t="s">
+        <v>1092</v>
+      </c>
+      <c r="M225" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="226" spans="5:13">
+      <c r="E226" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F226" t="str">
         <f>发送配置!$E$78</f>
         <v>hmsg_template_server-86</v>
       </c>
-      <c r="G225" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H225" t="s">
+      <c r="G226" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H226" t="s">
         <v>335</v>
       </c>
-      <c r="I225" t="s">
-        <v>1093</v>
-      </c>
-      <c r="K225" t="s">
-        <v>1104</v>
-      </c>
-      <c r="M225" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="226" spans="5:13">
-      <c r="E226" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F226" t="str">
+      <c r="I226" t="s">
+        <v>1097</v>
+      </c>
+      <c r="K226" t="s">
+        <v>1108</v>
+      </c>
+      <c r="M226" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="227" spans="5:13">
+      <c r="E227" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F227" t="str">
         <f>发送配置!$E$72</f>
         <v>hmsg_template_server-80</v>
       </c>
-      <c r="G226" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H226" t="s">
+      <c r="G227" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H227" t="s">
         <v>298</v>
       </c>
-      <c r="I226" t="s">
-        <v>1093</v>
-      </c>
-      <c r="K226" t="s">
-        <v>1088</v>
-      </c>
-      <c r="M226" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="227" spans="5:13">
-      <c r="E227" t="s">
-        <v>1106</v>
-      </c>
-      <c r="F227" t="str">
+      <c r="I227" t="s">
+        <v>1097</v>
+      </c>
+      <c r="K227" t="s">
+        <v>1092</v>
+      </c>
+      <c r="M227" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="228" spans="5:13">
+      <c r="E228" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F228" t="str">
         <f>发送配置!$E$71</f>
         <v>hmsg_template_server-79</v>
       </c>
-      <c r="G227" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H227" t="s">
+      <c r="G228" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H228" t="s">
         <v>292</v>
       </c>
-      <c r="I227" t="s">
-        <v>1093</v>
-      </c>
-      <c r="K227" t="s">
-        <v>1088</v>
-      </c>
-      <c r="M227" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="228" spans="5:13">
-      <c r="E228" t="s">
-        <v>1107</v>
-      </c>
-      <c r="F228" t="str">
-        <f t="shared" ref="F228:F234" si="0">E81</f>
-        <v>hmsg_template_server-89</v>
-      </c>
-      <c r="G228" t="s">
-        <v>964</v>
-      </c>
-      <c r="H228" t="s">
-        <v>564</v>
-      </c>
-      <c r="L228">
-        <v>0</v>
-      </c>
-      <c r="M228">
-        <v>1</v>
+      <c r="I228" t="s">
+        <v>1097</v>
+      </c>
+      <c r="K228" t="s">
+        <v>1092</v>
+      </c>
+      <c r="M228" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="229" spans="5:13">
       <c r="E229" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="F229" t="str">
+        <f t="shared" ref="F229:F235" si="0">E81</f>
+        <v>hmsg_template_server-89</v>
+      </c>
+      <c r="G229" t="s">
+        <v>968</v>
+      </c>
+      <c r="H229" t="s">
+        <v>564</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="5:13">
+      <c r="E230" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F230" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-90</v>
       </c>
-      <c r="G229" t="s">
-        <v>969</v>
-      </c>
-      <c r="H229" t="s">
+      <c r="G230" t="s">
+        <v>973</v>
+      </c>
+      <c r="H230" t="s">
         <v>569</v>
       </c>
-      <c r="L229">
+      <c r="L230">
         <v>0</v>
       </c>
-      <c r="M229">
+      <c r="M230">
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="5:13">
-      <c r="E230" t="s">
-        <v>1109</v>
-      </c>
-      <c r="F230" t="str">
+    <row r="231" spans="5:13">
+      <c r="E231" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F231" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-91</v>
       </c>
-      <c r="G230" t="s">
-        <v>969</v>
-      </c>
-      <c r="H230" t="s">
+      <c r="G231" t="s">
+        <v>973</v>
+      </c>
+      <c r="H231" t="s">
         <v>574</v>
       </c>
-      <c r="L230">
+      <c r="L231">
         <v>0</v>
       </c>
-      <c r="M230">
+      <c r="M231">
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="5:13">
-      <c r="E231" t="s">
-        <v>1110</v>
-      </c>
-      <c r="F231" t="str">
+    <row r="232" spans="5:13">
+      <c r="E232" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F232" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-92</v>
       </c>
-      <c r="G231" t="s">
-        <v>969</v>
-      </c>
-      <c r="H231" t="s">
+      <c r="G232" t="s">
+        <v>973</v>
+      </c>
+      <c r="H232" t="s">
         <v>577</v>
       </c>
-      <c r="L231">
+      <c r="L232">
         <v>0</v>
       </c>
-      <c r="M231">
+      <c r="M232">
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="5:13">
-      <c r="E232" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F232" t="str">
+    <row r="233" spans="5:13">
+      <c r="E233" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F233" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-93</v>
       </c>
-      <c r="G232" t="s">
-        <v>969</v>
-      </c>
-      <c r="H232" t="s">
+      <c r="G233" t="s">
+        <v>973</v>
+      </c>
+      <c r="H233" t="s">
         <v>580</v>
       </c>
-      <c r="L232">
+      <c r="L233">
         <v>0</v>
       </c>
-      <c r="M232">
+      <c r="M233">
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="5:13">
-      <c r="E233" t="s">
-        <v>1112</v>
-      </c>
-      <c r="F233" t="str">
+    <row r="234" spans="5:13">
+      <c r="E234" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F234" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-94</v>
       </c>
-      <c r="G233" t="s">
-        <v>969</v>
-      </c>
-      <c r="H233" t="s">
+      <c r="G234" t="s">
+        <v>973</v>
+      </c>
+      <c r="H234" t="s">
         <v>583</v>
       </c>
-      <c r="L233">
+      <c r="L234">
         <v>0</v>
       </c>
-      <c r="M233">
+      <c r="M234">
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="5:13">
-      <c r="E234" t="s">
-        <v>1113</v>
-      </c>
-      <c r="F234" t="str">
+    <row r="235" spans="5:13">
+      <c r="E235" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F235" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-95</v>
       </c>
-      <c r="G234" t="s">
-        <v>969</v>
-      </c>
-      <c r="H234" t="s">
+      <c r="G235" t="s">
+        <v>973</v>
+      </c>
+      <c r="H235" t="s">
         <v>587</v>
       </c>
-      <c r="L234">
+      <c r="L235">
         <v>0</v>
       </c>
-      <c r="M234">
+      <c r="M235">
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
-      <c r="A236" s="8">
+    <row r="236" spans="5:13">
+      <c r="E236" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F236" t="str">
+        <f>E88</f>
+        <v>hmsg_template_server-96</v>
+      </c>
+      <c r="G236" t="s">
+        <v>968</v>
+      </c>
+      <c r="H236" t="s">
+        <v>556</v>
+      </c>
+      <c r="L236">
+        <v>0</v>
+      </c>
+      <c r="M236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="5:13">
+      <c r="E237" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F237" t="str">
+        <f>E88</f>
+        <v>hmsg_template_server-96</v>
+      </c>
+      <c r="G237" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H237" t="s">
+        <v>1120</v>
+      </c>
+      <c r="L237">
+        <v>0</v>
+      </c>
+      <c r="M237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" s="8">
         <v>44036</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B239" t="s">
         <v>51</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C239" t="s">
         <v>691</v>
       </c>
-      <c r="D236" s="1" t="s">
-        <v>1114</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>1115</v>
-      </c>
-      <c r="F236" s="3" t="s">
+      <c r="D239" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F239" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="G236" s="3" t="s">
-        <v>1116</v>
-      </c>
-      <c r="H236" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="237" spans="5:8">
-      <c r="E237" t="s">
-        <v>1118</v>
-      </c>
-      <c r="F237" t="s">
-        <v>702</v>
-      </c>
-      <c r="G237">
-        <v>0</v>
-      </c>
-      <c r="H237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="5:8">
-      <c r="E238" t="s">
-        <v>1119</v>
-      </c>
-      <c r="F238" t="s">
-        <v>708</v>
-      </c>
-      <c r="G238">
-        <v>1</v>
-      </c>
-      <c r="H238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="5:8">
-      <c r="E239" t="s">
-        <v>1120</v>
-      </c>
-      <c r="F239" t="s">
-        <v>714</v>
-      </c>
-      <c r="G239">
-        <v>1</v>
-      </c>
-      <c r="H239">
-        <v>0</v>
+      <c r="G239" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H239" t="s">
+        <v>1124</v>
       </c>
     </row>
     <row r="240" spans="5:8">
       <c r="E240" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="F240" t="s">
-        <v>717</v>
+        <v>702</v>
       </c>
       <c r="G240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H240">
         <v>0</v>
@@ -33436,10 +33489,10 @@
     </row>
     <row r="241" spans="5:8">
       <c r="E241" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="F241" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="G241">
         <v>1</v>
@@ -33450,13 +33503,13 @@
     </row>
     <row r="242" spans="5:8">
       <c r="E242" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="F242" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="G242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H242">
         <v>0</v>
@@ -33464,13 +33517,13 @@
     </row>
     <row r="243" spans="5:8">
       <c r="E243" t="s">
-        <v>1124</v>
+        <v>1128</v>
       </c>
       <c r="F243" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="G243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H243">
         <v>0</v>
@@ -33478,10 +33531,10 @@
     </row>
     <row r="244" spans="5:8">
       <c r="E244" t="s">
-        <v>1125</v>
+        <v>1129</v>
       </c>
       <c r="F244" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -33492,13 +33545,13 @@
     </row>
     <row r="245" spans="5:8">
       <c r="E245" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="F245" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="G245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H245">
         <v>0</v>
@@ -33506,13 +33559,13 @@
     </row>
     <row r="246" spans="5:8">
       <c r="E246" t="s">
-        <v>1127</v>
+        <v>1131</v>
       </c>
       <c r="F246" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="G246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H246">
         <v>0</v>
@@ -33520,10 +33573,10 @@
     </row>
     <row r="247" spans="5:8">
       <c r="E247" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="F247" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="G247">
         <v>1</v>
@@ -33534,10 +33587,10 @@
     </row>
     <row r="248" spans="5:8">
       <c r="E248" t="s">
-        <v>1129</v>
+        <v>1133</v>
       </c>
       <c r="F248" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="G248">
         <v>1</v>
@@ -33548,13 +33601,13 @@
     </row>
     <row r="249" spans="5:8">
       <c r="E249" t="s">
-        <v>1130</v>
+        <v>1134</v>
       </c>
       <c r="F249" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="G249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H249">
         <v>0</v>
@@ -33562,13 +33615,13 @@
     </row>
     <row r="250" spans="5:8">
       <c r="E250" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="F250" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="G250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H250">
         <v>0</v>
@@ -33576,10 +33629,10 @@
     </row>
     <row r="251" spans="5:8">
       <c r="E251" t="s">
-        <v>1132</v>
-      </c>
-      <c r="F251" s="9" t="s">
-        <v>759</v>
+        <v>1136</v>
+      </c>
+      <c r="F251" t="s">
+        <v>748</v>
       </c>
       <c r="G251">
         <v>1</v>
@@ -33590,10 +33643,10 @@
     </row>
     <row r="252" spans="5:8">
       <c r="E252" t="s">
-        <v>1133</v>
+        <v>1137</v>
       </c>
       <c r="F252" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -33604,10 +33657,10 @@
     </row>
     <row r="253" spans="5:8">
       <c r="E253" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
       <c r="F253" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -33618,13 +33671,13 @@
     </row>
     <row r="254" spans="5:8">
       <c r="E254" t="s">
-        <v>1135</v>
-      </c>
-      <c r="F254" t="s">
-        <v>770</v>
+        <v>1139</v>
+      </c>
+      <c r="F254" s="9" t="s">
+        <v>759</v>
       </c>
       <c r="G254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H254">
         <v>0</v>
@@ -33632,13 +33685,13 @@
     </row>
     <row r="255" spans="5:8">
       <c r="E255" t="s">
-        <v>1136</v>
+        <v>1140</v>
       </c>
       <c r="F255" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="G255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H255">
         <v>0</v>
@@ -33646,13 +33699,13 @@
     </row>
     <row r="256" spans="5:8">
       <c r="E256" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="F256" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="G256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H256">
         <v>0</v>
@@ -33660,10 +33713,10 @@
     </row>
     <row r="257" spans="5:8">
       <c r="E257" t="s">
-        <v>1138</v>
+        <v>1142</v>
       </c>
       <c r="F257" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -33674,13 +33727,13 @@
     </row>
     <row r="258" spans="5:8">
       <c r="E258" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
       <c r="F258" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="G258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H258">
         <v>0</v>
@@ -33688,10 +33741,10 @@
     </row>
     <row r="259" spans="5:8">
       <c r="E259" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="F259" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -33702,13 +33755,13 @@
     </row>
     <row r="260" spans="5:8">
       <c r="E260" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="F260" t="s">
-        <v>791</v>
+        <v>779</v>
       </c>
       <c r="G260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H260">
         <v>0</v>
@@ -33716,13 +33769,13 @@
     </row>
     <row r="261" spans="5:8">
       <c r="E261" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
       <c r="F261" t="s">
-        <v>1143</v>
+        <v>782</v>
       </c>
       <c r="G261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H261">
         <v>0</v>
@@ -33730,10 +33783,10 @@
     </row>
     <row r="262" spans="5:8">
       <c r="E262" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="F262" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="G262">
         <v>1</v>
@@ -33744,10 +33797,10 @@
     </row>
     <row r="263" spans="5:8">
       <c r="E263" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="F263" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="G263">
         <v>1</v>
@@ -33758,13 +33811,13 @@
     </row>
     <row r="264" spans="5:8">
       <c r="E264" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="F264" t="s">
-        <v>803</v>
+        <v>1150</v>
       </c>
       <c r="G264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H264">
         <v>0</v>
@@ -33772,10 +33825,10 @@
     </row>
     <row r="265" spans="5:8">
       <c r="E265" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="F265" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="G265">
         <v>1</v>
@@ -33786,10 +33839,10 @@
     </row>
     <row r="266" spans="5:8">
       <c r="E266" t="s">
-        <v>1148</v>
+        <v>1152</v>
       </c>
       <c r="F266" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="G266">
         <v>1</v>
@@ -33800,13 +33853,13 @@
     </row>
     <row r="267" spans="5:8">
       <c r="E267" t="s">
-        <v>1149</v>
+        <v>1153</v>
       </c>
       <c r="F267" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="G267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H267">
         <v>0</v>
@@ -33814,10 +33867,10 @@
     </row>
     <row r="268" spans="5:8">
       <c r="E268" t="s">
-        <v>1150</v>
+        <v>1154</v>
       </c>
       <c r="F268" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="G268">
         <v>1</v>
@@ -33828,10 +33881,10 @@
     </row>
     <row r="269" spans="5:8">
       <c r="E269" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
       <c r="F269" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="G269">
         <v>1</v>
@@ -33842,13 +33895,13 @@
     </row>
     <row r="270" spans="5:8">
       <c r="E270" t="s">
-        <v>1152</v>
+        <v>1156</v>
       </c>
       <c r="F270" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="G270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H270">
         <v>0</v>
@@ -33856,13 +33909,13 @@
     </row>
     <row r="271" spans="5:8">
       <c r="E271" t="s">
-        <v>1153</v>
+        <v>1157</v>
       </c>
       <c r="F271" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="G271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H271">
         <v>0</v>
@@ -33870,13 +33923,13 @@
     </row>
     <row r="272" spans="5:8">
       <c r="E272" t="s">
-        <v>1154</v>
+        <v>1158</v>
       </c>
       <c r="F272" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="G272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H272">
         <v>0</v>
@@ -33884,10 +33937,10 @@
     </row>
     <row r="273" spans="5:8">
       <c r="E273" t="s">
-        <v>1155</v>
+        <v>1159</v>
       </c>
       <c r="F273" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -33898,10 +33951,10 @@
     </row>
     <row r="274" spans="5:8">
       <c r="E274" t="s">
-        <v>1156</v>
+        <v>1160</v>
       </c>
       <c r="F274" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -33912,13 +33965,13 @@
     </row>
     <row r="275" spans="5:8">
       <c r="E275" t="s">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="F275" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="G275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H275">
         <v>0</v>
@@ -33926,13 +33979,13 @@
     </row>
     <row r="276" spans="5:8">
       <c r="E276" t="s">
-        <v>1158</v>
+        <v>1162</v>
       </c>
       <c r="F276" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="G276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H276">
         <v>0</v>
@@ -33940,13 +33993,13 @@
     </row>
     <row r="277" spans="5:8">
       <c r="E277" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
       <c r="F277" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="G277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H277">
         <v>0</v>
@@ -33954,10 +34007,10 @@
     </row>
     <row r="278" spans="5:8">
       <c r="E278" t="s">
-        <v>1160</v>
+        <v>1164</v>
       </c>
       <c r="F278" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="G278">
         <v>1</v>
@@ -33968,10 +34021,10 @@
     </row>
     <row r="279" spans="5:8">
       <c r="E279" t="s">
-        <v>1161</v>
+        <v>1165</v>
       </c>
       <c r="F279" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="G279">
         <v>1</v>
@@ -33982,10 +34035,10 @@
     </row>
     <row r="280" spans="5:8">
       <c r="E280" t="s">
-        <v>1162</v>
+        <v>1166</v>
       </c>
       <c r="F280" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="G280">
         <v>1</v>
@@ -33996,10 +34049,10 @@
     </row>
     <row r="281" spans="5:8">
       <c r="E281" t="s">
-        <v>1163</v>
+        <v>1167</v>
       </c>
       <c r="F281" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="G281">
         <v>1</v>
@@ -34010,10 +34063,10 @@
     </row>
     <row r="282" spans="5:8">
       <c r="E282" t="s">
-        <v>1164</v>
+        <v>1168</v>
       </c>
       <c r="F282" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="G282">
         <v>1</v>
@@ -34024,10 +34077,10 @@
     </row>
     <row r="283" spans="5:8">
       <c r="E283" t="s">
-        <v>1165</v>
+        <v>1169</v>
       </c>
       <c r="F283" t="s">
-        <v>869</v>
+        <v>857</v>
       </c>
       <c r="G283">
         <v>1</v>
@@ -34038,10 +34091,10 @@
     </row>
     <row r="284" spans="5:8">
       <c r="E284" t="s">
-        <v>1166</v>
+        <v>1170</v>
       </c>
       <c r="F284" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="G284">
         <v>1</v>
@@ -34052,10 +34105,10 @@
     </row>
     <row r="285" spans="5:8">
       <c r="E285" t="s">
-        <v>1167</v>
+        <v>1171</v>
       </c>
       <c r="F285" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="G285">
         <v>1</v>
@@ -34066,10 +34119,10 @@
     </row>
     <row r="286" spans="5:8">
       <c r="E286" t="s">
-        <v>1168</v>
+        <v>1172</v>
       </c>
       <c r="F286" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="G286">
         <v>1</v>
@@ -34080,10 +34133,10 @@
     </row>
     <row r="287" spans="5:8">
       <c r="E287" t="s">
-        <v>1169</v>
+        <v>1173</v>
       </c>
       <c r="F287" t="s">
-        <v>877</v>
+        <v>866</v>
       </c>
       <c r="G287">
         <v>1</v>
@@ -34094,10 +34147,10 @@
     </row>
     <row r="288" spans="5:8">
       <c r="E288" t="s">
-        <v>1170</v>
+        <v>1174</v>
       </c>
       <c r="F288" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="G288">
         <v>1</v>
@@ -34108,10 +34161,10 @@
     </row>
     <row r="289" spans="5:8">
       <c r="E289" t="s">
-        <v>1171</v>
+        <v>1175</v>
       </c>
       <c r="F289" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="G289">
         <v>1</v>
@@ -34122,13 +34175,13 @@
     </row>
     <row r="290" spans="5:8">
       <c r="E290" t="s">
-        <v>1172</v>
+        <v>1176</v>
       </c>
       <c r="F290" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="G290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H290">
         <v>0</v>
@@ -34136,10 +34189,10 @@
     </row>
     <row r="291" spans="5:8">
       <c r="E291" t="s">
-        <v>1173</v>
+        <v>1177</v>
       </c>
       <c r="F291" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="G291">
         <v>1</v>
@@ -34150,10 +34203,10 @@
     </row>
     <row r="292" spans="5:8">
       <c r="E292" t="s">
-        <v>1174</v>
+        <v>1178</v>
       </c>
       <c r="F292" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="G292">
         <v>1</v>
@@ -34164,13 +34217,13 @@
     </row>
     <row r="293" spans="5:8">
       <c r="E293" t="s">
-        <v>1175</v>
+        <v>1179</v>
       </c>
       <c r="F293" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="G293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H293">
         <v>0</v>
@@ -34178,10 +34231,10 @@
     </row>
     <row r="294" spans="5:8">
       <c r="E294" t="s">
-        <v>1176</v>
+        <v>1180</v>
       </c>
       <c r="F294" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="G294">
         <v>1</v>
@@ -34192,10 +34245,10 @@
     </row>
     <row r="295" spans="5:8">
       <c r="E295" t="s">
-        <v>1177</v>
+        <v>1181</v>
       </c>
       <c r="F295" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="G295">
         <v>1</v>
@@ -34206,10 +34259,10 @@
     </row>
     <row r="296" spans="5:8">
       <c r="E296" t="s">
-        <v>1178</v>
+        <v>1182</v>
       </c>
       <c r="F296" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="G296">
         <v>1</v>
@@ -34220,10 +34273,10 @@
     </row>
     <row r="297" spans="5:8">
       <c r="E297" t="s">
-        <v>1179</v>
+        <v>1183</v>
       </c>
       <c r="F297" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="G297">
         <v>1</v>
@@ -34234,10 +34287,10 @@
     </row>
     <row r="298" spans="5:8">
       <c r="E298" t="s">
-        <v>1180</v>
+        <v>1184</v>
       </c>
       <c r="F298" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="G298">
         <v>1</v>
@@ -34248,10 +34301,10 @@
     </row>
     <row r="299" spans="5:8">
       <c r="E299" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F299" t="s">
-        <v>1182</v>
+        <v>902</v>
       </c>
       <c r="G299">
         <v>1</v>
@@ -34262,10 +34315,10 @@
     </row>
     <row r="300" spans="5:8">
       <c r="E300" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="F300" t="s">
-        <v>929</v>
+        <v>902</v>
       </c>
       <c r="G300">
         <v>1</v>
@@ -34276,10 +34329,10 @@
     </row>
     <row r="301" spans="5:8">
       <c r="E301" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="F301" t="s">
-        <v>933</v>
+        <v>905</v>
       </c>
       <c r="G301">
         <v>1</v>
@@ -34290,10 +34343,10 @@
     </row>
     <row r="302" spans="5:8">
       <c r="E302" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="F302" t="s">
-        <v>936</v>
+        <v>951</v>
       </c>
       <c r="G302">
         <v>1</v>
@@ -34304,10 +34357,10 @@
     </row>
     <row r="303" spans="5:8">
       <c r="E303" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="F303" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
       <c r="G303">
         <v>1</v>
@@ -34318,10 +34371,10 @@
     </row>
     <row r="304" spans="5:8">
       <c r="E304" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="F304" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="G304">
         <v>1</v>
@@ -34332,10 +34385,10 @@
     </row>
     <row r="305" spans="5:8">
       <c r="E305" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="F305" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="G305">
         <v>1</v>
@@ -34346,15 +34399,57 @@
     </row>
     <row r="306" spans="5:8">
       <c r="E306" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="F306" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="G306">
         <v>1</v>
       </c>
       <c r="H306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="5:8">
+      <c r="E307" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F307" t="s">
+        <v>942</v>
+      </c>
+      <c r="G307">
+        <v>1</v>
+      </c>
+      <c r="H307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="5:8">
+      <c r="E308" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F308" t="s">
+        <v>945</v>
+      </c>
+      <c r="G308">
+        <v>1</v>
+      </c>
+      <c r="H308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="5:8">
+      <c r="E309" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F309" t="s">
+        <v>948</v>
+      </c>
+      <c r="G309">
+        <v>1</v>
+      </c>
+      <c r="H309">
         <v>0</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6077" uniqueCount="1196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5996" uniqueCount="1196">
   <si>
     <r>
       <rPr>
@@ -8045,9 +8045,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
@@ -8138,6 +8138,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -8147,6 +8155,42 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8167,22 +8211,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8190,7 +8221,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8204,33 +8243,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8252,7 +8268,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8260,23 +8276,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8370,7 +8370,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8388,7 +8412,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8400,25 +8454,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8430,31 +8484,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8466,19 +8526,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8490,61 +8538,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8661,6 +8661,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -8685,16 +8700,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8706,15 +8730,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8733,166 +8748,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -9612,7 +9612,7 @@
   <sheetPr/>
   <dimension ref="A1:Q876"/>
   <sheetViews>
-    <sheetView topLeftCell="A135" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="F141" sqref="F141"/>
     </sheetView>
   </sheetViews>
@@ -27291,8 +27291,8 @@
   <sheetPr/>
   <dimension ref="A1:O309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D227" workbookViewId="0">
-      <selection activeCell="F239" sqref="F239"/>
+    <sheetView tabSelected="1" topLeftCell="H76" workbookViewId="0">
+      <selection activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -27401,9 +27401,7 @@
       <c r="I8" t="s">
         <v>703</v>
       </c>
-      <c r="J8" t="s">
-        <v>703</v>
-      </c>
+      <c r="J8"/>
       <c r="K8" t="s">
         <v>74</v>
       </c>
@@ -27436,9 +27434,7 @@
       <c r="I9" t="s">
         <v>709</v>
       </c>
-      <c r="J9" t="s">
-        <v>709</v>
-      </c>
+      <c r="J9"/>
       <c r="K9" t="s">
         <v>74</v>
       </c>
@@ -27471,9 +27467,7 @@
       <c r="I10" t="s">
         <v>310</v>
       </c>
-      <c r="J10" t="s">
-        <v>310</v>
-      </c>
+      <c r="J10"/>
       <c r="K10" t="s">
         <v>74</v>
       </c>
@@ -27506,9 +27500,7 @@
       <c r="I11" t="s">
         <v>265</v>
       </c>
-      <c r="J11" t="s">
-        <v>265</v>
-      </c>
+      <c r="J11"/>
       <c r="K11" t="s">
         <v>74</v>
       </c>
@@ -27541,9 +27533,7 @@
       <c r="I12" t="s">
         <v>228</v>
       </c>
-      <c r="J12" t="s">
-        <v>228</v>
-      </c>
+      <c r="J12"/>
       <c r="K12" t="s">
         <v>74</v>
       </c>
@@ -27576,9 +27566,7 @@
       <c r="I13" t="s">
         <v>726</v>
       </c>
-      <c r="J13" t="s">
-        <v>726</v>
-      </c>
+      <c r="J13"/>
       <c r="K13" t="s">
         <v>74</v>
       </c>
@@ -27611,9 +27599,7 @@
       <c r="I14" t="s">
         <v>730</v>
       </c>
-      <c r="J14" t="s">
-        <v>730</v>
-      </c>
+      <c r="J14"/>
       <c r="K14" t="s">
         <v>74</v>
       </c>
@@ -27646,9 +27632,7 @@
       <c r="I15" t="s">
         <v>382</v>
       </c>
-      <c r="J15" t="s">
-        <v>382</v>
-      </c>
+      <c r="J15"/>
       <c r="K15" t="s">
         <v>74</v>
       </c>
@@ -27681,9 +27665,7 @@
       <c r="I16" t="s">
         <v>369</v>
       </c>
-      <c r="J16" t="s">
-        <v>369</v>
-      </c>
+      <c r="J16"/>
       <c r="K16" t="s">
         <v>74</v>
       </c>
@@ -27716,9 +27698,7 @@
       <c r="I17" t="s">
         <v>394</v>
       </c>
-      <c r="J17" t="s">
-        <v>394</v>
-      </c>
+      <c r="J17"/>
       <c r="K17" t="s">
         <v>74</v>
       </c>
@@ -27751,9 +27731,7 @@
       <c r="I18" t="s">
         <v>744</v>
       </c>
-      <c r="J18" t="s">
-        <v>744</v>
-      </c>
+      <c r="J18"/>
       <c r="K18" t="s">
         <v>74</v>
       </c>
@@ -27786,9 +27764,7 @@
       <c r="I19" t="s">
         <v>749</v>
       </c>
-      <c r="J19" t="s">
-        <v>749</v>
-      </c>
+      <c r="J19"/>
       <c r="K19" t="s">
         <v>74</v>
       </c>
@@ -27821,9 +27797,7 @@
       <c r="I20" t="s">
         <v>754</v>
       </c>
-      <c r="J20" t="s">
-        <v>754</v>
-      </c>
+      <c r="J20"/>
       <c r="K20" t="s">
         <v>74</v>
       </c>
@@ -27856,9 +27830,7 @@
       <c r="I21" t="s">
         <v>506</v>
       </c>
-      <c r="J21" t="s">
-        <v>506</v>
-      </c>
+      <c r="J21"/>
       <c r="K21" t="s">
         <v>74</v>
       </c>
@@ -27891,9 +27863,7 @@
       <c r="I22" t="s">
         <v>760</v>
       </c>
-      <c r="J22" t="s">
-        <v>760</v>
-      </c>
+      <c r="J22"/>
       <c r="K22" t="s">
         <v>74</v>
       </c>
@@ -27926,9 +27896,7 @@
       <c r="I23" t="s">
         <v>764</v>
       </c>
-      <c r="J23" t="s">
-        <v>764</v>
-      </c>
+      <c r="J23"/>
       <c r="K23" t="s">
         <v>74</v>
       </c>
@@ -27961,9 +27929,7 @@
       <c r="I24" t="s">
         <v>768</v>
       </c>
-      <c r="J24" t="s">
-        <v>768</v>
-      </c>
+      <c r="J24"/>
       <c r="K24" t="s">
         <v>74</v>
       </c>
@@ -27996,9 +27962,7 @@
       <c r="I25" t="s">
         <v>771</v>
       </c>
-      <c r="J25" t="s">
-        <v>771</v>
-      </c>
+      <c r="J25"/>
       <c r="K25" t="s">
         <v>74</v>
       </c>
@@ -28031,9 +27995,7 @@
       <c r="I26" t="s">
         <v>473</v>
       </c>
-      <c r="J26" t="s">
-        <v>473</v>
-      </c>
+      <c r="J26"/>
       <c r="K26" t="s">
         <v>74</v>
       </c>
@@ -28066,9 +28028,7 @@
       <c r="I27" t="s">
         <v>438</v>
       </c>
-      <c r="J27" t="s">
-        <v>438</v>
-      </c>
+      <c r="J27"/>
       <c r="K27" t="s">
         <v>74</v>
       </c>
@@ -28101,9 +28061,7 @@
       <c r="I28" t="s">
         <v>780</v>
       </c>
-      <c r="J28" t="s">
-        <v>780</v>
-      </c>
+      <c r="J28"/>
       <c r="K28" t="s">
         <v>74</v>
       </c>
@@ -28136,9 +28094,7 @@
       <c r="I29" t="s">
         <v>783</v>
       </c>
-      <c r="J29" t="s">
-        <v>783</v>
-      </c>
+      <c r="J29"/>
       <c r="K29" t="s">
         <v>74</v>
       </c>
@@ -28171,9 +28127,7 @@
       <c r="I30" t="s">
         <v>787</v>
       </c>
-      <c r="J30" t="s">
-        <v>787</v>
-      </c>
+      <c r="J30"/>
       <c r="K30" t="s">
         <v>74</v>
       </c>
@@ -28206,9 +28160,7 @@
       <c r="I31" t="s">
         <v>792</v>
       </c>
-      <c r="J31" t="s">
-        <v>792</v>
-      </c>
+      <c r="J31"/>
       <c r="K31" t="s">
         <v>74</v>
       </c>
@@ -28241,9 +28193,7 @@
       <c r="I32" t="s">
         <v>797</v>
       </c>
-      <c r="J32" t="s">
-        <v>797</v>
-      </c>
+      <c r="J32"/>
       <c r="K32" t="s">
         <v>74</v>
       </c>
@@ -28276,9 +28226,7 @@
       <c r="I33" t="s">
         <v>274</v>
       </c>
-      <c r="J33" t="s">
-        <v>274</v>
-      </c>
+      <c r="J33"/>
       <c r="K33" t="s">
         <v>74</v>
       </c>
@@ -28311,9 +28259,7 @@
       <c r="I34" t="s">
         <v>804</v>
       </c>
-      <c r="J34" t="s">
-        <v>804</v>
-      </c>
+      <c r="J34"/>
       <c r="K34" t="s">
         <v>74</v>
       </c>
@@ -28346,9 +28292,7 @@
       <c r="I35" t="s">
         <v>354</v>
       </c>
-      <c r="J35" t="s">
-        <v>354</v>
-      </c>
+      <c r="J35"/>
       <c r="K35" t="s">
         <v>74</v>
       </c>
@@ -28381,9 +28325,7 @@
       <c r="I36" t="s">
         <v>126</v>
       </c>
-      <c r="J36" t="s">
-        <v>126</v>
-      </c>
+      <c r="J36"/>
       <c r="K36" t="s">
         <v>74</v>
       </c>
@@ -28416,9 +28358,7 @@
       <c r="I37" t="s">
         <v>537</v>
       </c>
-      <c r="J37" t="s">
-        <v>537</v>
-      </c>
+      <c r="J37"/>
       <c r="K37" t="s">
         <v>74</v>
       </c>
@@ -28451,9 +28391,7 @@
       <c r="I38" t="s">
         <v>817</v>
       </c>
-      <c r="J38" t="s">
-        <v>817</v>
-      </c>
+      <c r="J38"/>
       <c r="K38" t="s">
         <v>74</v>
       </c>
@@ -28486,9 +28424,7 @@
       <c r="I39" t="s">
         <v>821</v>
       </c>
-      <c r="J39" t="s">
-        <v>821</v>
-      </c>
+      <c r="J39"/>
       <c r="K39" t="s">
         <v>74</v>
       </c>
@@ -28521,9 +28457,7 @@
       <c r="I40" t="s">
         <v>284</v>
       </c>
-      <c r="J40" t="s">
-        <v>284</v>
-      </c>
+      <c r="J40"/>
       <c r="K40" t="s">
         <v>74</v>
       </c>
@@ -28556,9 +28490,7 @@
       <c r="I41" t="s">
         <v>827</v>
       </c>
-      <c r="J41" t="s">
-        <v>827</v>
-      </c>
+      <c r="J41"/>
       <c r="K41" t="s">
         <v>74</v>
       </c>
@@ -28591,9 +28523,7 @@
       <c r="I42" t="s">
         <v>831</v>
       </c>
-      <c r="J42" t="s">
-        <v>831</v>
-      </c>
+      <c r="J42"/>
       <c r="K42" t="s">
         <v>74</v>
       </c>
@@ -28626,9 +28556,7 @@
       <c r="I43" t="s">
         <v>709</v>
       </c>
-      <c r="J43" t="s">
-        <v>709</v>
-      </c>
+      <c r="J43"/>
       <c r="K43" t="s">
         <v>74</v>
       </c>
@@ -28661,9 +28589,7 @@
       <c r="I44" t="s">
         <v>839</v>
       </c>
-      <c r="J44" t="s">
-        <v>839</v>
-      </c>
+      <c r="J44"/>
       <c r="K44" t="s">
         <v>74</v>
       </c>
@@ -28696,9 +28622,7 @@
       <c r="I45" t="s">
         <v>843</v>
       </c>
-      <c r="J45" t="s">
-        <v>843</v>
-      </c>
+      <c r="J45"/>
       <c r="K45" t="s">
         <v>74</v>
       </c>
@@ -28731,9 +28655,7 @@
       <c r="I46" t="s">
         <v>847</v>
       </c>
-      <c r="J46" t="s">
-        <v>847</v>
-      </c>
+      <c r="J46"/>
       <c r="K46" t="s">
         <v>74</v>
       </c>
@@ -28766,9 +28688,7 @@
       <c r="I47" t="s">
         <v>246</v>
       </c>
-      <c r="J47" t="s">
-        <v>246</v>
-      </c>
+      <c r="J47"/>
       <c r="K47" t="s">
         <v>74</v>
       </c>
@@ -28801,9 +28721,7 @@
       <c r="I48" t="s">
         <v>187</v>
       </c>
-      <c r="J48" t="s">
-        <v>187</v>
-      </c>
+      <c r="J48"/>
       <c r="K48" t="s">
         <v>74</v>
       </c>
@@ -28836,9 +28754,7 @@
       <c r="I49" t="s">
         <v>855</v>
       </c>
-      <c r="J49" t="s">
-        <v>855</v>
-      </c>
+      <c r="J49"/>
       <c r="K49" t="s">
         <v>74</v>
       </c>
@@ -28871,9 +28787,7 @@
       <c r="I50" t="s">
         <v>138</v>
       </c>
-      <c r="J50" t="s">
-        <v>138</v>
-      </c>
+      <c r="J50"/>
       <c r="K50" t="s">
         <v>74</v>
       </c>
@@ -28906,9 +28820,7 @@
       <c r="I51" t="s">
         <v>861</v>
       </c>
-      <c r="J51" t="s">
-        <v>861</v>
-      </c>
+      <c r="J51"/>
       <c r="K51" t="s">
         <v>74</v>
       </c>
@@ -28941,9 +28853,7 @@
       <c r="I52" t="s">
         <v>864</v>
       </c>
-      <c r="J52" t="s">
-        <v>864</v>
-      </c>
+      <c r="J52"/>
       <c r="K52" t="s">
         <v>74</v>
       </c>
@@ -28976,9 +28886,7 @@
       <c r="I53" t="s">
         <v>867</v>
       </c>
-      <c r="J53" t="s">
-        <v>867</v>
-      </c>
+      <c r="J53"/>
       <c r="K53" t="s">
         <v>74</v>
       </c>
@@ -29011,9 +28919,7 @@
       <c r="I54" t="s">
         <v>870</v>
       </c>
-      <c r="J54" t="s">
-        <v>870</v>
-      </c>
+      <c r="J54"/>
       <c r="K54" t="s">
         <v>74</v>
       </c>
@@ -29046,9 +28952,7 @@
       <c r="I55" t="s">
         <v>873</v>
       </c>
-      <c r="J55" t="s">
-        <v>873</v>
-      </c>
+      <c r="J55"/>
       <c r="K55" t="s">
         <v>74</v>
       </c>
@@ -29081,9 +28985,7 @@
       <c r="I56" t="s">
         <v>129</v>
       </c>
-      <c r="J56" t="s">
-        <v>129</v>
-      </c>
+      <c r="J56"/>
       <c r="K56" t="s">
         <v>74</v>
       </c>
@@ -29116,9 +29018,7 @@
       <c r="I57" t="s">
         <v>878</v>
       </c>
-      <c r="J57" t="s">
-        <v>878</v>
-      </c>
+      <c r="J57"/>
       <c r="K57" t="s">
         <v>74</v>
       </c>
@@ -29151,9 +29051,7 @@
       <c r="I58" t="s">
         <v>760</v>
       </c>
-      <c r="J58" t="s">
-        <v>760</v>
-      </c>
+      <c r="J58"/>
       <c r="K58" t="s">
         <v>74</v>
       </c>
@@ -29186,9 +29084,7 @@
       <c r="I59" t="s">
         <v>883</v>
       </c>
-      <c r="J59" t="s">
-        <v>883</v>
-      </c>
+      <c r="J59"/>
       <c r="K59" t="s">
         <v>74</v>
       </c>
@@ -29221,9 +29117,7 @@
       <c r="I60" t="s">
         <v>709</v>
       </c>
-      <c r="J60" t="s">
-        <v>709</v>
-      </c>
+      <c r="J60"/>
       <c r="K60" t="s">
         <v>74</v>
       </c>
@@ -29256,9 +29150,7 @@
       <c r="I61" t="s">
         <v>888</v>
       </c>
-      <c r="J61" t="s">
-        <v>888</v>
-      </c>
+      <c r="J61"/>
       <c r="K61" t="s">
         <v>74</v>
       </c>
@@ -29291,9 +29183,7 @@
       <c r="I62" t="s">
         <v>891</v>
       </c>
-      <c r="J62" t="s">
-        <v>891</v>
-      </c>
+      <c r="J62"/>
       <c r="K62" t="s">
         <v>74</v>
       </c>
@@ -29326,9 +29216,7 @@
       <c r="I63" t="s">
         <v>894</v>
       </c>
-      <c r="J63" t="s">
-        <v>894</v>
-      </c>
+      <c r="J63"/>
       <c r="K63" t="s">
         <v>74</v>
       </c>
@@ -29361,9 +29249,7 @@
       <c r="I64" t="s">
         <v>897</v>
       </c>
-      <c r="J64" t="s">
-        <v>897</v>
-      </c>
+      <c r="J64"/>
       <c r="K64" t="s">
         <v>74</v>
       </c>
@@ -29396,9 +29282,7 @@
       <c r="I65" t="s">
         <v>900</v>
       </c>
-      <c r="J65" t="s">
-        <v>900</v>
-      </c>
+      <c r="J65"/>
       <c r="K65" t="s">
         <v>74</v>
       </c>
@@ -29431,9 +29315,7 @@
       <c r="I66" t="s">
         <v>903</v>
       </c>
-      <c r="J66" t="s">
-        <v>903</v>
-      </c>
+      <c r="J66"/>
       <c r="K66" t="s">
         <v>74</v>
       </c>
@@ -29466,9 +29348,7 @@
       <c r="I67" t="s">
         <v>906</v>
       </c>
-      <c r="J67" t="s">
-        <v>906</v>
-      </c>
+      <c r="J67"/>
       <c r="K67" t="s">
         <v>74</v>
       </c>
@@ -29501,9 +29381,7 @@
       <c r="I68" t="s">
         <v>909</v>
       </c>
-      <c r="J68" t="s">
-        <v>909</v>
-      </c>
+      <c r="J68"/>
       <c r="K68" t="s">
         <v>74</v>
       </c>
@@ -29527,9 +29405,7 @@
       <c r="I69" t="s">
         <v>912</v>
       </c>
-      <c r="J69" t="s">
-        <v>912</v>
-      </c>
+      <c r="J69"/>
       <c r="K69" t="s">
         <v>74</v>
       </c>
@@ -29553,9 +29429,7 @@
       <c r="I70" t="s">
         <v>288</v>
       </c>
-      <c r="J70" t="s">
-        <v>288</v>
-      </c>
+      <c r="J70"/>
       <c r="K70" t="s">
         <v>74</v>
       </c>
@@ -29579,9 +29453,7 @@
       <c r="I71" t="s">
         <v>915</v>
       </c>
-      <c r="J71" t="s">
-        <v>915</v>
-      </c>
+      <c r="J71"/>
       <c r="K71" t="s">
         <v>74</v>
       </c>
@@ -29605,9 +29477,7 @@
       <c r="I72" t="s">
         <v>299</v>
       </c>
-      <c r="J72" t="s">
-        <v>299</v>
-      </c>
+      <c r="J72"/>
       <c r="K72" t="s">
         <v>74</v>
       </c>
@@ -29631,9 +29501,7 @@
       <c r="I73" t="s">
         <v>306</v>
       </c>
-      <c r="J73" t="s">
-        <v>306</v>
-      </c>
+      <c r="J73"/>
       <c r="K73" t="s">
         <v>74</v>
       </c>
@@ -29657,9 +29525,7 @@
       <c r="I74" t="s">
         <v>919</v>
       </c>
-      <c r="J74" t="s">
-        <v>919</v>
-      </c>
+      <c r="J74"/>
       <c r="K74" t="s">
         <v>74</v>
       </c>
@@ -29683,9 +29549,7 @@
       <c r="I75" t="s">
         <v>320</v>
       </c>
-      <c r="J75" t="s">
-        <v>320</v>
-      </c>
+      <c r="J75"/>
       <c r="K75" t="s">
         <v>74</v>
       </c>
@@ -29709,9 +29573,7 @@
       <c r="I76" t="s">
         <v>922</v>
       </c>
-      <c r="J76" t="s">
-        <v>922</v>
-      </c>
+      <c r="J76"/>
       <c r="K76" t="s">
         <v>74</v>
       </c>
@@ -29735,9 +29597,7 @@
       <c r="I77" t="s">
         <v>332</v>
       </c>
-      <c r="J77" t="s">
-        <v>332</v>
-      </c>
+      <c r="J77"/>
       <c r="K77" t="s">
         <v>74</v>
       </c>
@@ -29761,9 +29621,7 @@
       <c r="I78" t="s">
         <v>925</v>
       </c>
-      <c r="J78" t="s">
-        <v>925</v>
-      </c>
+      <c r="J78"/>
       <c r="K78" t="s">
         <v>74</v>
       </c>
@@ -29787,9 +29645,7 @@
       <c r="I79" t="s">
         <v>341</v>
       </c>
-      <c r="J79" t="s">
-        <v>341</v>
-      </c>
+      <c r="J79"/>
       <c r="K79" t="s">
         <v>74</v>
       </c>
@@ -29813,9 +29669,7 @@
       <c r="I80" t="s">
         <v>346</v>
       </c>
-      <c r="J80" t="s">
-        <v>346</v>
-      </c>
+      <c r="J80"/>
       <c r="K80" t="s">
         <v>74</v>
       </c>
@@ -29839,9 +29693,7 @@
       <c r="I81" s="7" t="s">
         <v>930</v>
       </c>
-      <c r="J81" s="7" t="s">
-        <v>930</v>
-      </c>
+      <c r="J81"/>
       <c r="K81">
         <v>1</v>
       </c>
@@ -29874,9 +29726,7 @@
       <c r="I82" s="7" t="s">
         <v>934</v>
       </c>
-      <c r="J82" s="7" t="s">
-        <v>934</v>
-      </c>
+      <c r="J82"/>
       <c r="K82">
         <v>1</v>
       </c>
@@ -29909,9 +29759,7 @@
       <c r="I83" s="7" t="s">
         <v>937</v>
       </c>
-      <c r="J83" s="7" t="s">
-        <v>937</v>
-      </c>
+      <c r="J83"/>
       <c r="K83">
         <v>1</v>
       </c>
@@ -29944,9 +29792,7 @@
       <c r="I84" s="7" t="s">
         <v>940</v>
       </c>
-      <c r="J84" s="7" t="s">
-        <v>940</v>
-      </c>
+      <c r="J84"/>
       <c r="K84">
         <v>1</v>
       </c>
@@ -29979,9 +29825,7 @@
       <c r="I85" s="7" t="s">
         <v>943</v>
       </c>
-      <c r="J85" s="7" t="s">
-        <v>943</v>
-      </c>
+      <c r="J85"/>
       <c r="K85">
         <v>1</v>
       </c>
@@ -30014,9 +29858,7 @@
       <c r="I86" s="7" t="s">
         <v>946</v>
       </c>
-      <c r="J86" s="7" t="s">
-        <v>946</v>
-      </c>
+      <c r="J86"/>
       <c r="K86">
         <v>1</v>
       </c>
@@ -30049,9 +29891,7 @@
       <c r="I87" s="7" t="s">
         <v>949</v>
       </c>
-      <c r="J87" s="7" t="s">
-        <v>949</v>
-      </c>
+      <c r="J87"/>
       <c r="K87">
         <v>1</v>
       </c>
@@ -30084,9 +29924,7 @@
       <c r="I88" s="7" t="s">
         <v>952</v>
       </c>
-      <c r="J88" s="7" t="s">
-        <v>952</v>
-      </c>
+      <c r="J88"/>
       <c r="K88">
         <v>1</v>
       </c>
@@ -33263,7 +33101,7 @@
         <v>1111</v>
       </c>
       <c r="F229" t="str">
-        <f t="shared" ref="F229:F235" si="0">E81</f>
+        <f t="shared" ref="F229:F236" si="0">E81</f>
         <v>hmsg_template_server-89</v>
       </c>
       <c r="G229" t="s">
@@ -33410,7 +33248,7 @@
         <v>1118</v>
       </c>
       <c r="F236" t="str">
-        <f>E88</f>
+        <f t="shared" si="0"/>
         <v>hmsg_template_server-96</v>
       </c>
       <c r="G236" t="s">

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="23256" windowHeight="9720" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5996" uniqueCount="1196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6077" uniqueCount="1197">
   <si>
     <r>
       <rPr>
@@ -6563,6 +6563,9 @@
     <t>忘记密码</t>
   </si>
   <si>
+    <t>default</t>
+  </si>
+  <si>
     <t>SITE</t>
   </si>
   <si>
@@ -8131,8 +8134,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8153,64 +8157,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -8227,9 +8173,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8242,9 +8225,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8266,9 +8262,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8276,7 +8279,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8364,7 +8367,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8376,7 +8475,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8388,31 +8493,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8424,13 +8523,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8442,109 +8541,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8651,30 +8654,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -8693,8 +8672,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8725,6 +8719,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -8734,17 +8737,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8754,10 +8757,10 @@
     <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8766,133 +8769,133 @@
     <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -27291,8 +27294,8 @@
   <sheetPr/>
   <dimension ref="A1:O309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H76" workbookViewId="0">
-      <selection activeCell="J87" sqref="J87"/>
+    <sheetView tabSelected="1" topLeftCell="H70" workbookViewId="0">
+      <selection activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -27401,26 +27404,28 @@
       <c r="I8" t="s">
         <v>703</v>
       </c>
-      <c r="J8"/>
+      <c r="J8" t="s">
+        <v>704</v>
+      </c>
       <c r="K8" t="s">
         <v>74</v>
       </c>
       <c r="L8" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="M8" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="N8" t="s">
         <v>75</v>
       </c>
       <c r="O8" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F9" t="s">
         <v>75</v>
@@ -27429,31 +27434,33 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="I9" t="s">
-        <v>709</v>
-      </c>
-      <c r="J9"/>
+        <v>710</v>
+      </c>
+      <c r="J9" t="s">
+        <v>704</v>
+      </c>
       <c r="K9" t="s">
         <v>74</v>
       </c>
       <c r="L9" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="M9" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="N9" t="s">
         <v>74</v>
       </c>
       <c r="O9" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F10" t="s">
         <v>75</v>
@@ -27462,31 +27469,33 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="I10" t="s">
         <v>310</v>
       </c>
-      <c r="J10"/>
+      <c r="J10" t="s">
+        <v>704</v>
+      </c>
       <c r="K10" t="s">
         <v>74</v>
       </c>
       <c r="L10" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="M10" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="N10" t="s">
         <v>74</v>
       </c>
       <c r="O10" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="F11" t="s">
         <v>75</v>
@@ -27495,31 +27504,33 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="I11" t="s">
         <v>265</v>
       </c>
-      <c r="J11"/>
+      <c r="J11" t="s">
+        <v>704</v>
+      </c>
       <c r="K11" t="s">
         <v>74</v>
       </c>
       <c r="L11" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M11" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="N11" t="s">
         <v>74</v>
       </c>
       <c r="O11" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -27528,31 +27539,33 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="I12" t="s">
         <v>228</v>
       </c>
-      <c r="J12"/>
+      <c r="J12" t="s">
+        <v>704</v>
+      </c>
       <c r="K12" t="s">
         <v>74</v>
       </c>
       <c r="L12" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M12" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="N12" t="s">
         <v>74</v>
       </c>
       <c r="O12" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="F13" t="s">
         <v>75</v>
@@ -27561,31 +27574,33 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="I13" t="s">
-        <v>726</v>
-      </c>
-      <c r="J13"/>
+        <v>727</v>
+      </c>
+      <c r="J13" t="s">
+        <v>704</v>
+      </c>
       <c r="K13" t="s">
         <v>74</v>
       </c>
       <c r="L13" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="M13" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="N13" t="s">
         <v>75</v>
       </c>
       <c r="O13" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F14" t="s">
         <v>75</v>
@@ -27594,31 +27609,33 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="I14" t="s">
-        <v>730</v>
-      </c>
-      <c r="J14"/>
+        <v>731</v>
+      </c>
+      <c r="J14" t="s">
+        <v>704</v>
+      </c>
       <c r="K14" t="s">
         <v>74</v>
       </c>
       <c r="L14" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="M14" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="N14" t="s">
         <v>75</v>
       </c>
       <c r="O14" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F15" t="s">
         <v>75</v>
@@ -27627,31 +27644,33 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="I15" t="s">
         <v>382</v>
       </c>
-      <c r="J15"/>
+      <c r="J15" t="s">
+        <v>704</v>
+      </c>
       <c r="K15" t="s">
         <v>74</v>
       </c>
       <c r="L15" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M15" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="N15" t="s">
         <v>74</v>
       </c>
       <c r="O15" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="F16" t="s">
         <v>75</v>
@@ -27660,31 +27679,33 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="I16" t="s">
         <v>369</v>
       </c>
-      <c r="J16"/>
+      <c r="J16" t="s">
+        <v>704</v>
+      </c>
       <c r="K16" t="s">
         <v>74</v>
       </c>
       <c r="L16" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M16" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="N16" t="s">
         <v>74</v>
       </c>
       <c r="O16" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F17" t="s">
         <v>75</v>
@@ -27693,31 +27714,33 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="I17" t="s">
         <v>394</v>
       </c>
-      <c r="J17"/>
+      <c r="J17" t="s">
+        <v>704</v>
+      </c>
       <c r="K17" t="s">
         <v>74</v>
       </c>
       <c r="L17" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M17" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="N17" t="s">
         <v>74</v>
       </c>
       <c r="O17" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="F18" t="s">
         <v>75</v>
@@ -27726,31 +27749,33 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="I18" t="s">
-        <v>744</v>
-      </c>
-      <c r="J18"/>
+        <v>745</v>
+      </c>
+      <c r="J18" t="s">
+        <v>704</v>
+      </c>
       <c r="K18" t="s">
         <v>74</v>
       </c>
       <c r="L18" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="M18" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="N18" t="s">
         <v>74</v>
       </c>
       <c r="O18" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F19" t="s">
         <v>75</v>
@@ -27759,31 +27784,33 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="I19" t="s">
-        <v>749</v>
-      </c>
-      <c r="J19"/>
+        <v>750</v>
+      </c>
+      <c r="J19" t="s">
+        <v>704</v>
+      </c>
       <c r="K19" t="s">
         <v>74</v>
       </c>
       <c r="L19" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="M19" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="N19" t="s">
         <v>74</v>
       </c>
       <c r="O19" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="F20" t="s">
         <v>75</v>
@@ -27792,31 +27819,33 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="I20" t="s">
-        <v>754</v>
-      </c>
-      <c r="J20"/>
+        <v>755</v>
+      </c>
+      <c r="J20" t="s">
+        <v>704</v>
+      </c>
       <c r="K20" t="s">
         <v>74</v>
       </c>
       <c r="L20" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="M20" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="N20" t="s">
         <v>75</v>
       </c>
       <c r="O20" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="F21" t="s">
         <v>75</v>
@@ -27825,31 +27854,33 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="I21" t="s">
         <v>506</v>
       </c>
-      <c r="J21"/>
+      <c r="J21" t="s">
+        <v>704</v>
+      </c>
       <c r="K21" t="s">
         <v>74</v>
       </c>
       <c r="L21" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="M21" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="N21" t="s">
         <v>75</v>
       </c>
       <c r="O21" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F22" t="s">
         <v>75</v>
@@ -27858,31 +27889,33 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="I22" t="s">
-        <v>760</v>
-      </c>
-      <c r="J22"/>
+        <v>761</v>
+      </c>
+      <c r="J22" t="s">
+        <v>704</v>
+      </c>
       <c r="K22" t="s">
         <v>74</v>
       </c>
       <c r="L22" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="M22" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="N22" t="s">
         <v>74</v>
       </c>
       <c r="O22" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F23" t="s">
         <v>75</v>
@@ -27891,31 +27924,33 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="I23" t="s">
-        <v>764</v>
-      </c>
-      <c r="J23"/>
+        <v>765</v>
+      </c>
+      <c r="J23" t="s">
+        <v>704</v>
+      </c>
       <c r="K23" t="s">
         <v>74</v>
       </c>
       <c r="L23" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M23" t="s">
+        <v>766</v>
+      </c>
+      <c r="N23" t="s">
+        <v>75</v>
+      </c>
+      <c r="O23" t="s">
         <v>765</v>
-      </c>
-      <c r="N23" t="s">
-        <v>75</v>
-      </c>
-      <c r="O23" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="F24" t="s">
         <v>75</v>
@@ -27924,17 +27959,19 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="I24" t="s">
-        <v>768</v>
-      </c>
-      <c r="J24"/>
+        <v>769</v>
+      </c>
+      <c r="J24" t="s">
+        <v>704</v>
+      </c>
       <c r="K24" t="s">
         <v>74</v>
       </c>
       <c r="L24" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M24" t="s">
         <v>567</v>
@@ -27943,12 +27980,12 @@
         <v>75</v>
       </c>
       <c r="O24" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="F25" t="s">
         <v>75</v>
@@ -27957,17 +27994,19 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="I25" t="s">
-        <v>771</v>
-      </c>
-      <c r="J25"/>
+        <v>772</v>
+      </c>
+      <c r="J25" t="s">
+        <v>704</v>
+      </c>
       <c r="K25" t="s">
         <v>74</v>
       </c>
       <c r="L25" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M25" t="s">
         <v>567</v>
@@ -27976,12 +28015,12 @@
         <v>75</v>
       </c>
       <c r="O25" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F26" t="s">
         <v>75</v>
@@ -27990,17 +28029,19 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="I26" t="s">
         <v>473</v>
       </c>
-      <c r="J26"/>
+      <c r="J26" t="s">
+        <v>704</v>
+      </c>
       <c r="K26" t="s">
         <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M26" t="s">
         <v>567</v>
@@ -28009,12 +28050,12 @@
         <v>74</v>
       </c>
       <c r="O26" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="27" spans="5:15">
       <c r="E27" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F27" t="s">
         <v>75</v>
@@ -28023,17 +28064,19 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="I27" t="s">
         <v>438</v>
       </c>
-      <c r="J27"/>
+      <c r="J27" t="s">
+        <v>704</v>
+      </c>
       <c r="K27" t="s">
         <v>74</v>
       </c>
       <c r="L27" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M27" t="s">
         <v>567</v>
@@ -28042,12 +28085,12 @@
         <v>74</v>
       </c>
       <c r="O27" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="28" spans="5:15">
       <c r="E28" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F28" t="s">
         <v>75</v>
@@ -28056,17 +28099,19 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="I28" t="s">
-        <v>780</v>
-      </c>
-      <c r="J28"/>
+        <v>781</v>
+      </c>
+      <c r="J28" t="s">
+        <v>704</v>
+      </c>
       <c r="K28" t="s">
         <v>74</v>
       </c>
       <c r="L28" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M28" t="s">
         <v>567</v>
@@ -28075,12 +28120,12 @@
         <v>75</v>
       </c>
       <c r="O28" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="29" spans="5:15">
       <c r="E29" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F29" t="s">
         <v>75</v>
@@ -28089,31 +28134,33 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="I29" t="s">
-        <v>783</v>
-      </c>
-      <c r="J29"/>
+        <v>784</v>
+      </c>
+      <c r="J29" t="s">
+        <v>704</v>
+      </c>
       <c r="K29" t="s">
         <v>74</v>
       </c>
       <c r="L29" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M29" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="N29" t="s">
         <v>75</v>
       </c>
       <c r="O29" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="30" spans="5:15">
       <c r="E30" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F30" t="s">
         <v>75</v>
@@ -28122,31 +28169,33 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="I30" t="s">
-        <v>787</v>
-      </c>
-      <c r="J30"/>
+        <v>788</v>
+      </c>
+      <c r="J30" t="s">
+        <v>704</v>
+      </c>
       <c r="K30" t="s">
         <v>74</v>
       </c>
       <c r="L30" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M30" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N30" t="s">
         <v>74</v>
       </c>
       <c r="O30" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="31" spans="5:15">
       <c r="E31" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F31" t="s">
         <v>75</v>
@@ -28155,31 +28204,33 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="I31" t="s">
-        <v>792</v>
-      </c>
-      <c r="J31"/>
+        <v>793</v>
+      </c>
+      <c r="J31" t="s">
+        <v>704</v>
+      </c>
       <c r="K31" t="s">
         <v>74</v>
       </c>
       <c r="L31" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M31" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="N31" t="s">
         <v>74</v>
       </c>
       <c r="O31" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="32" spans="5:15">
       <c r="E32" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="F32" t="s">
         <v>75</v>
@@ -28188,31 +28239,33 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="I32" t="s">
-        <v>797</v>
-      </c>
-      <c r="J32"/>
+        <v>798</v>
+      </c>
+      <c r="J32" t="s">
+        <v>704</v>
+      </c>
       <c r="K32" t="s">
         <v>74</v>
       </c>
       <c r="L32" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M32" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="N32" t="s">
         <v>74</v>
       </c>
       <c r="O32" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="33" spans="5:15">
       <c r="E33" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F33" t="s">
         <v>75</v>
@@ -28221,31 +28274,33 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="I33" t="s">
         <v>274</v>
       </c>
-      <c r="J33"/>
+      <c r="J33" t="s">
+        <v>704</v>
+      </c>
       <c r="K33" t="s">
         <v>74</v>
       </c>
       <c r="L33" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M33" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="N33" t="s">
         <v>74</v>
       </c>
       <c r="O33" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="34" spans="5:15">
       <c r="E34" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F34" t="s">
         <v>75</v>
@@ -28254,31 +28309,33 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="I34" t="s">
-        <v>804</v>
-      </c>
-      <c r="J34"/>
+        <v>805</v>
+      </c>
+      <c r="J34" t="s">
+        <v>704</v>
+      </c>
       <c r="K34" t="s">
         <v>74</v>
       </c>
       <c r="L34" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M34" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="N34" t="s">
         <v>75</v>
       </c>
       <c r="O34" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="35" spans="5:15">
       <c r="E35" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F35" t="s">
         <v>75</v>
@@ -28287,31 +28344,33 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="I35" t="s">
         <v>354</v>
       </c>
-      <c r="J35"/>
+      <c r="J35" t="s">
+        <v>704</v>
+      </c>
       <c r="K35" t="s">
         <v>74</v>
       </c>
       <c r="L35" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M35" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="N35" t="s">
         <v>74</v>
       </c>
       <c r="O35" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="36" spans="5:15">
       <c r="E36" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F36" t="s">
         <v>75</v>
@@ -28320,31 +28379,33 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="I36" t="s">
         <v>126</v>
       </c>
-      <c r="J36"/>
+      <c r="J36" t="s">
+        <v>704</v>
+      </c>
       <c r="K36" t="s">
         <v>74</v>
       </c>
       <c r="L36" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M36" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="N36" t="s">
         <v>74</v>
       </c>
       <c r="O36" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="37" spans="5:15">
       <c r="E37" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F37" t="s">
         <v>75</v>
@@ -28353,31 +28414,33 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="I37" t="s">
         <v>537</v>
       </c>
-      <c r="J37"/>
+      <c r="J37" t="s">
+        <v>704</v>
+      </c>
       <c r="K37" t="s">
         <v>74</v>
       </c>
       <c r="L37" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M37" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="N37" t="s">
         <v>74</v>
       </c>
       <c r="O37" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="38" spans="5:15">
       <c r="E38" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="F38" t="s">
         <v>75</v>
@@ -28386,31 +28449,33 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="I38" t="s">
-        <v>817</v>
-      </c>
-      <c r="J38"/>
+        <v>818</v>
+      </c>
+      <c r="J38" t="s">
+        <v>704</v>
+      </c>
       <c r="K38" t="s">
         <v>74</v>
       </c>
       <c r="L38" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M38" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N38" t="s">
         <v>74</v>
       </c>
       <c r="O38" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="39" spans="5:15">
       <c r="E39" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="F39" t="s">
         <v>75</v>
@@ -28419,31 +28484,33 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="I39" t="s">
-        <v>821</v>
-      </c>
-      <c r="J39"/>
+        <v>822</v>
+      </c>
+      <c r="J39" t="s">
+        <v>704</v>
+      </c>
       <c r="K39" t="s">
         <v>74</v>
       </c>
       <c r="L39" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M39" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N39" t="s">
         <v>74</v>
       </c>
       <c r="O39" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="40" spans="5:15">
       <c r="E40" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="F40" t="s">
         <v>75</v>
@@ -28452,20 +28519,22 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="I40" t="s">
         <v>284</v>
       </c>
-      <c r="J40"/>
+      <c r="J40" t="s">
+        <v>704</v>
+      </c>
       <c r="K40" t="s">
         <v>74</v>
       </c>
       <c r="L40" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="M40" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="N40" t="s">
         <v>75</v>
@@ -28476,7 +28545,7 @@
     </row>
     <row r="41" spans="5:15">
       <c r="E41" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F41" t="s">
         <v>75</v>
@@ -28485,31 +28554,33 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="I41" t="s">
-        <v>827</v>
-      </c>
-      <c r="J41"/>
+        <v>828</v>
+      </c>
+      <c r="J41" t="s">
+        <v>704</v>
+      </c>
       <c r="K41" t="s">
         <v>74</v>
       </c>
       <c r="L41" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="M41" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="N41" t="s">
         <v>75</v>
       </c>
       <c r="O41" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="42" spans="5:15">
       <c r="E42" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F42" t="s">
         <v>75</v>
@@ -28518,31 +28589,33 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="I42" t="s">
-        <v>831</v>
-      </c>
-      <c r="J42"/>
+        <v>832</v>
+      </c>
+      <c r="J42" t="s">
+        <v>704</v>
+      </c>
       <c r="K42" t="s">
         <v>74</v>
       </c>
       <c r="L42" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="M42" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="N42" t="s">
         <v>75</v>
       </c>
       <c r="O42" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="43" spans="5:15">
       <c r="E43" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="F43" t="s">
         <v>75</v>
@@ -28551,31 +28624,33 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="I43" t="s">
-        <v>709</v>
-      </c>
-      <c r="J43"/>
+        <v>710</v>
+      </c>
+      <c r="J43" t="s">
+        <v>704</v>
+      </c>
       <c r="K43" t="s">
         <v>74</v>
       </c>
       <c r="L43" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M43" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="N43" t="s">
         <v>75</v>
       </c>
       <c r="O43" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="44" spans="5:15">
       <c r="E44" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="F44" t="s">
         <v>75</v>
@@ -28584,31 +28659,33 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="I44" t="s">
-        <v>839</v>
-      </c>
-      <c r="J44"/>
+        <v>840</v>
+      </c>
+      <c r="J44" t="s">
+        <v>704</v>
+      </c>
       <c r="K44" t="s">
         <v>74</v>
       </c>
       <c r="L44" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="M44" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="N44" t="s">
         <v>75</v>
       </c>
       <c r="O44" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="45" spans="5:15">
       <c r="E45" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F45" t="s">
         <v>75</v>
@@ -28617,31 +28694,33 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="I45" t="s">
-        <v>843</v>
-      </c>
-      <c r="J45"/>
+        <v>844</v>
+      </c>
+      <c r="J45" t="s">
+        <v>704</v>
+      </c>
       <c r="K45" t="s">
         <v>74</v>
       </c>
       <c r="L45" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M45" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N45" t="s">
         <v>74</v>
       </c>
       <c r="O45" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="46" spans="5:15">
       <c r="E46" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F46" t="s">
         <v>75</v>
@@ -28650,31 +28729,33 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="I46" t="s">
-        <v>847</v>
-      </c>
-      <c r="J46"/>
+        <v>848</v>
+      </c>
+      <c r="J46" t="s">
+        <v>704</v>
+      </c>
       <c r="K46" t="s">
         <v>74</v>
       </c>
       <c r="L46" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M46" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="N46" t="s">
         <v>74</v>
       </c>
       <c r="O46" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="47" spans="5:15">
       <c r="E47" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F47" t="s">
         <v>75</v>
@@ -28683,20 +28764,22 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="I47" t="s">
         <v>246</v>
       </c>
-      <c r="J47"/>
+      <c r="J47" t="s">
+        <v>704</v>
+      </c>
       <c r="K47" t="s">
         <v>74</v>
       </c>
       <c r="L47" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M47" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="N47" t="s">
         <v>74</v>
@@ -28707,7 +28790,7 @@
     </row>
     <row r="48" spans="5:15">
       <c r="E48" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="F48" t="s">
         <v>75</v>
@@ -28716,20 +28799,22 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="I48" t="s">
         <v>187</v>
       </c>
-      <c r="J48"/>
+      <c r="J48" t="s">
+        <v>704</v>
+      </c>
       <c r="K48" t="s">
         <v>74</v>
       </c>
       <c r="L48" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M48" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="N48" t="s">
         <v>74</v>
@@ -28740,7 +28825,7 @@
     </row>
     <row r="49" spans="5:15">
       <c r="E49" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F49" t="s">
         <v>75</v>
@@ -28749,31 +28834,33 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="I49" t="s">
-        <v>855</v>
-      </c>
-      <c r="J49"/>
+        <v>856</v>
+      </c>
+      <c r="J49" t="s">
+        <v>704</v>
+      </c>
       <c r="K49" t="s">
         <v>74</v>
       </c>
       <c r="L49" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M49" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="N49" t="s">
         <v>74</v>
       </c>
       <c r="O49" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="50" spans="5:15">
       <c r="E50" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="F50" t="s">
         <v>75</v>
@@ -28782,20 +28869,22 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="I50" t="s">
         <v>138</v>
       </c>
-      <c r="J50"/>
+      <c r="J50" t="s">
+        <v>704</v>
+      </c>
       <c r="K50" t="s">
         <v>74</v>
       </c>
       <c r="L50" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M50" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="N50" t="s">
         <v>74</v>
@@ -28806,7 +28895,7 @@
     </row>
     <row r="51" spans="5:15">
       <c r="E51" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="F51" t="s">
         <v>75</v>
@@ -28815,31 +28904,33 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="I51" t="s">
-        <v>861</v>
-      </c>
-      <c r="J51"/>
+        <v>862</v>
+      </c>
+      <c r="J51" t="s">
+        <v>704</v>
+      </c>
       <c r="K51" t="s">
         <v>74</v>
       </c>
       <c r="L51" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M51" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="N51" t="s">
         <v>74</v>
       </c>
       <c r="O51" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="52" spans="5:15">
       <c r="E52" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="F52" t="s">
         <v>75</v>
@@ -28848,31 +28939,33 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="I52" t="s">
-        <v>864</v>
-      </c>
-      <c r="J52"/>
+        <v>865</v>
+      </c>
+      <c r="J52" t="s">
+        <v>704</v>
+      </c>
       <c r="K52" t="s">
         <v>74</v>
       </c>
       <c r="L52" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M52" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="N52" t="s">
         <v>74</v>
       </c>
       <c r="O52" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="53" spans="5:15">
       <c r="E53" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="F53" t="s">
         <v>75</v>
@@ -28881,31 +28974,33 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="I53" t="s">
-        <v>867</v>
-      </c>
-      <c r="J53"/>
+        <v>868</v>
+      </c>
+      <c r="J53" t="s">
+        <v>704</v>
+      </c>
       <c r="K53" t="s">
         <v>74</v>
       </c>
       <c r="L53" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M53" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="N53" t="s">
         <v>74</v>
       </c>
       <c r="O53" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="54" spans="5:15">
       <c r="E54" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="F54" t="s">
         <v>75</v>
@@ -28914,31 +29009,33 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="I54" t="s">
-        <v>870</v>
-      </c>
-      <c r="J54"/>
+        <v>871</v>
+      </c>
+      <c r="J54" t="s">
+        <v>704</v>
+      </c>
       <c r="K54" t="s">
         <v>74</v>
       </c>
       <c r="L54" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M54" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="N54" t="s">
         <v>74</v>
       </c>
       <c r="O54" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="55" spans="5:15">
       <c r="E55" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F55" t="s">
         <v>75</v>
@@ -28947,31 +29044,33 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="I55" t="s">
-        <v>873</v>
-      </c>
-      <c r="J55"/>
+        <v>874</v>
+      </c>
+      <c r="J55" t="s">
+        <v>704</v>
+      </c>
       <c r="K55" t="s">
         <v>74</v>
       </c>
       <c r="L55" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M55" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="N55" t="s">
         <v>74</v>
       </c>
       <c r="O55" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="56" spans="5:15">
       <c r="E56" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F56" t="s">
         <v>75</v>
@@ -28980,20 +29079,22 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="I56" t="s">
         <v>129</v>
       </c>
-      <c r="J56"/>
+      <c r="J56" t="s">
+        <v>704</v>
+      </c>
       <c r="K56" t="s">
         <v>74</v>
       </c>
       <c r="L56" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M56" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="N56" t="s">
         <v>74</v>
@@ -29004,7 +29105,7 @@
     </row>
     <row r="57" spans="5:15">
       <c r="E57" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="F57" t="s">
         <v>75</v>
@@ -29013,31 +29114,33 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="I57" t="s">
-        <v>878</v>
-      </c>
-      <c r="J57"/>
+        <v>879</v>
+      </c>
+      <c r="J57" t="s">
+        <v>704</v>
+      </c>
       <c r="K57" t="s">
         <v>74</v>
       </c>
       <c r="L57" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M57" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="N57" t="s">
         <v>74</v>
       </c>
       <c r="O57" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="58" spans="5:15">
       <c r="E58" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="F58" t="s">
         <v>75</v>
@@ -29046,31 +29149,33 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="I58" t="s">
-        <v>760</v>
-      </c>
-      <c r="J58"/>
+        <v>761</v>
+      </c>
+      <c r="J58" t="s">
+        <v>704</v>
+      </c>
       <c r="K58" t="s">
         <v>74</v>
       </c>
       <c r="L58" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="M58" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="N58" t="s">
         <v>74</v>
       </c>
       <c r="O58" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="59" spans="5:15">
       <c r="E59" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="F59" t="s">
         <v>75</v>
@@ -29079,31 +29184,33 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="I59" t="s">
-        <v>883</v>
-      </c>
-      <c r="J59"/>
+        <v>884</v>
+      </c>
+      <c r="J59" t="s">
+        <v>704</v>
+      </c>
       <c r="K59" t="s">
         <v>74</v>
       </c>
       <c r="L59" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M59" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="N59" t="s">
         <v>74</v>
       </c>
       <c r="O59" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="60" spans="5:15">
       <c r="E60" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F60" t="s">
         <v>75</v>
@@ -29112,31 +29219,33 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="I60" t="s">
-        <v>709</v>
-      </c>
-      <c r="J60"/>
+        <v>710</v>
+      </c>
+      <c r="J60" t="s">
+        <v>704</v>
+      </c>
       <c r="K60" t="s">
         <v>74</v>
       </c>
       <c r="L60" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M60" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="N60" t="s">
         <v>74</v>
       </c>
       <c r="O60" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="61" spans="5:15">
       <c r="E61" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="F61" t="s">
         <v>75</v>
@@ -29145,31 +29254,33 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="I61" t="s">
-        <v>888</v>
-      </c>
-      <c r="J61"/>
+        <v>889</v>
+      </c>
+      <c r="J61" t="s">
+        <v>704</v>
+      </c>
       <c r="K61" t="s">
         <v>74</v>
       </c>
       <c r="L61" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M61" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N61" t="s">
         <v>74</v>
       </c>
       <c r="O61" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="62" spans="5:15">
       <c r="E62" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="F62" t="s">
         <v>75</v>
@@ -29178,31 +29289,33 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="I62" t="s">
-        <v>891</v>
-      </c>
-      <c r="J62"/>
+        <v>892</v>
+      </c>
+      <c r="J62" t="s">
+        <v>704</v>
+      </c>
       <c r="K62" t="s">
         <v>74</v>
       </c>
       <c r="L62" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="M62" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="N62" t="s">
         <v>74</v>
       </c>
       <c r="O62" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="63" spans="5:15">
       <c r="E63" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="F63" t="s">
         <v>75</v>
@@ -29211,31 +29324,33 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="I63" t="s">
-        <v>894</v>
-      </c>
-      <c r="J63"/>
+        <v>895</v>
+      </c>
+      <c r="J63" t="s">
+        <v>704</v>
+      </c>
       <c r="K63" t="s">
         <v>74</v>
       </c>
       <c r="L63" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M63" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N63" t="s">
         <v>74</v>
       </c>
       <c r="O63" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="64" spans="5:15">
       <c r="E64" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="F64" t="s">
         <v>75</v>
@@ -29244,31 +29359,33 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="I64" t="s">
-        <v>897</v>
-      </c>
-      <c r="J64"/>
+        <v>898</v>
+      </c>
+      <c r="J64" t="s">
+        <v>704</v>
+      </c>
       <c r="K64" t="s">
         <v>74</v>
       </c>
       <c r="L64" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M64" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="N64" t="s">
         <v>74</v>
       </c>
       <c r="O64" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="65" spans="5:15">
       <c r="E65" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="F65" t="s">
         <v>75</v>
@@ -29277,31 +29394,33 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="I65" t="s">
-        <v>900</v>
-      </c>
-      <c r="J65"/>
+        <v>901</v>
+      </c>
+      <c r="J65" t="s">
+        <v>704</v>
+      </c>
       <c r="K65" t="s">
         <v>74</v>
       </c>
       <c r="L65" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M65" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="N65" t="s">
         <v>74</v>
       </c>
       <c r="O65" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="66" spans="5:15">
       <c r="E66" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="F66" t="s">
         <v>75</v>
@@ -29310,31 +29429,33 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I66" t="s">
-        <v>903</v>
-      </c>
-      <c r="J66"/>
+        <v>904</v>
+      </c>
+      <c r="J66" t="s">
+        <v>704</v>
+      </c>
       <c r="K66" t="s">
         <v>74</v>
       </c>
       <c r="L66" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M66" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="N66" t="s">
         <v>74</v>
       </c>
       <c r="O66" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="67" spans="5:15">
       <c r="E67" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="F67" t="s">
         <v>75</v>
@@ -29343,31 +29464,33 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="I67" t="s">
-        <v>906</v>
-      </c>
-      <c r="J67"/>
+        <v>907</v>
+      </c>
+      <c r="J67" t="s">
+        <v>704</v>
+      </c>
       <c r="K67" t="s">
         <v>74</v>
       </c>
       <c r="L67" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M67" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="N67" t="s">
         <v>74</v>
       </c>
       <c r="O67" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="68" spans="5:14">
       <c r="E68" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="F68" t="s">
         <v>75</v>
@@ -29376,12 +29499,14 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="I68" t="s">
-        <v>909</v>
-      </c>
-      <c r="J68"/>
+        <v>910</v>
+      </c>
+      <c r="J68" t="s">
+        <v>704</v>
+      </c>
       <c r="K68" t="s">
         <v>74</v>
       </c>
@@ -29391,7 +29516,7 @@
     </row>
     <row r="69" spans="5:14">
       <c r="E69" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="F69" t="s">
         <v>75</v>
@@ -29400,12 +29525,14 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="I69" t="s">
-        <v>912</v>
-      </c>
-      <c r="J69"/>
+        <v>913</v>
+      </c>
+      <c r="J69" t="s">
+        <v>704</v>
+      </c>
       <c r="K69" t="s">
         <v>74</v>
       </c>
@@ -29415,7 +29542,7 @@
     </row>
     <row r="70" spans="5:14">
       <c r="E70" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="F70" t="s">
         <v>75</v>
@@ -29429,7 +29556,9 @@
       <c r="I70" t="s">
         <v>288</v>
       </c>
-      <c r="J70"/>
+      <c r="J70" t="s">
+        <v>704</v>
+      </c>
       <c r="K70" t="s">
         <v>74</v>
       </c>
@@ -29439,7 +29568,7 @@
     </row>
     <row r="71" spans="5:14">
       <c r="E71" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="F71" t="s">
         <v>75</v>
@@ -29451,9 +29580,11 @@
         <v>292</v>
       </c>
       <c r="I71" t="s">
-        <v>915</v>
-      </c>
-      <c r="J71"/>
+        <v>916</v>
+      </c>
+      <c r="J71" t="s">
+        <v>704</v>
+      </c>
       <c r="K71" t="s">
         <v>74</v>
       </c>
@@ -29463,7 +29594,7 @@
     </row>
     <row r="72" spans="5:14">
       <c r="E72" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="F72" t="s">
         <v>75</v>
@@ -29477,7 +29608,9 @@
       <c r="I72" t="s">
         <v>299</v>
       </c>
-      <c r="J72"/>
+      <c r="J72" t="s">
+        <v>704</v>
+      </c>
       <c r="K72" t="s">
         <v>74</v>
       </c>
@@ -29487,7 +29620,7 @@
     </row>
     <row r="73" spans="5:14">
       <c r="E73" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="F73" t="s">
         <v>75</v>
@@ -29501,7 +29634,9 @@
       <c r="I73" t="s">
         <v>306</v>
       </c>
-      <c r="J73"/>
+      <c r="J73" t="s">
+        <v>704</v>
+      </c>
       <c r="K73" t="s">
         <v>74</v>
       </c>
@@ -29511,7 +29646,7 @@
     </row>
     <row r="74" spans="5:14">
       <c r="E74" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="F74" t="s">
         <v>75</v>
@@ -29523,9 +29658,11 @@
         <v>315</v>
       </c>
       <c r="I74" t="s">
-        <v>919</v>
-      </c>
-      <c r="J74"/>
+        <v>920</v>
+      </c>
+      <c r="J74" t="s">
+        <v>704</v>
+      </c>
       <c r="K74" t="s">
         <v>74</v>
       </c>
@@ -29535,7 +29672,7 @@
     </row>
     <row r="75" spans="5:14">
       <c r="E75" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="F75" t="s">
         <v>75</v>
@@ -29549,7 +29686,9 @@
       <c r="I75" t="s">
         <v>320</v>
       </c>
-      <c r="J75"/>
+      <c r="J75" t="s">
+        <v>704</v>
+      </c>
       <c r="K75" t="s">
         <v>74</v>
       </c>
@@ -29559,7 +29698,7 @@
     </row>
     <row r="76" spans="5:14">
       <c r="E76" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="F76" t="s">
         <v>75</v>
@@ -29571,9 +29710,11 @@
         <v>324</v>
       </c>
       <c r="I76" t="s">
-        <v>922</v>
-      </c>
-      <c r="J76"/>
+        <v>923</v>
+      </c>
+      <c r="J76" t="s">
+        <v>704</v>
+      </c>
       <c r="K76" t="s">
         <v>74</v>
       </c>
@@ -29583,7 +29724,7 @@
     </row>
     <row r="77" spans="5:14">
       <c r="E77" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="F77" t="s">
         <v>75</v>
@@ -29597,7 +29738,9 @@
       <c r="I77" t="s">
         <v>332</v>
       </c>
-      <c r="J77"/>
+      <c r="J77" t="s">
+        <v>704</v>
+      </c>
       <c r="K77" t="s">
         <v>74</v>
       </c>
@@ -29607,7 +29750,7 @@
     </row>
     <row r="78" spans="5:14">
       <c r="E78" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="F78" t="s">
         <v>75</v>
@@ -29619,9 +29762,11 @@
         <v>335</v>
       </c>
       <c r="I78" t="s">
-        <v>925</v>
-      </c>
-      <c r="J78"/>
+        <v>926</v>
+      </c>
+      <c r="J78" t="s">
+        <v>704</v>
+      </c>
       <c r="K78" t="s">
         <v>74</v>
       </c>
@@ -29631,7 +29776,7 @@
     </row>
     <row r="79" spans="5:14">
       <c r="E79" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -29645,7 +29790,9 @@
       <c r="I79" t="s">
         <v>341</v>
       </c>
-      <c r="J79"/>
+      <c r="J79" t="s">
+        <v>704</v>
+      </c>
       <c r="K79" t="s">
         <v>74</v>
       </c>
@@ -29655,7 +29802,7 @@
     </row>
     <row r="80" spans="5:14">
       <c r="E80" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -29669,7 +29816,9 @@
       <c r="I80" t="s">
         <v>346</v>
       </c>
-      <c r="J80"/>
+      <c r="J80" t="s">
+        <v>704</v>
+      </c>
       <c r="K80" t="s">
         <v>74</v>
       </c>
@@ -29679,7 +29828,7 @@
     </row>
     <row r="81" ht="34.8" spans="5:15">
       <c r="E81" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -29688,17 +29837,19 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>930</v>
-      </c>
-      <c r="J81"/>
+        <v>931</v>
+      </c>
+      <c r="J81" t="s">
+        <v>704</v>
+      </c>
       <c r="K81">
         <v>1</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M81" t="s">
         <v>567</v>
@@ -29707,12 +29858,12 @@
         <v>0</v>
       </c>
       <c r="O81" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="82" spans="5:15">
       <c r="E82" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -29721,17 +29872,19 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>934</v>
-      </c>
-      <c r="J82"/>
+        <v>935</v>
+      </c>
+      <c r="J82" t="s">
+        <v>704</v>
+      </c>
       <c r="K82">
         <v>1</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M82" t="s">
         <v>572</v>
@@ -29740,12 +29893,12 @@
         <v>0</v>
       </c>
       <c r="O82" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="83" spans="5:15">
       <c r="E83" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -29754,17 +29907,19 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>937</v>
-      </c>
-      <c r="J83"/>
+        <v>938</v>
+      </c>
+      <c r="J83" t="s">
+        <v>704</v>
+      </c>
       <c r="K83">
         <v>1</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M83" t="s">
         <v>572</v>
@@ -29773,12 +29928,12 @@
         <v>0</v>
       </c>
       <c r="O83" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="84" spans="5:15">
       <c r="E84" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -29787,17 +29942,19 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>940</v>
-      </c>
-      <c r="J84"/>
+        <v>941</v>
+      </c>
+      <c r="J84" t="s">
+        <v>704</v>
+      </c>
       <c r="K84">
         <v>1</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M84" t="s">
         <v>572</v>
@@ -29806,12 +29963,12 @@
         <v>0</v>
       </c>
       <c r="O84" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="85" spans="5:15">
       <c r="E85" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -29820,17 +29977,19 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J85"/>
+        <v>944</v>
+      </c>
+      <c r="J85" t="s">
+        <v>704</v>
+      </c>
       <c r="K85">
         <v>1</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M85" t="s">
         <v>572</v>
@@ -29839,12 +29998,12 @@
         <v>0</v>
       </c>
       <c r="O85" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="86" spans="5:15">
       <c r="E86" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -29853,17 +30012,19 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>946</v>
-      </c>
-      <c r="J86"/>
+        <v>947</v>
+      </c>
+      <c r="J86" t="s">
+        <v>704</v>
+      </c>
       <c r="K86">
         <v>1</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M86" t="s">
         <v>572</v>
@@ -29872,12 +30033,12 @@
         <v>0</v>
       </c>
       <c r="O86" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="87" spans="5:15">
       <c r="E87" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -29886,17 +30047,19 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>949</v>
-      </c>
-      <c r="J87"/>
+        <v>950</v>
+      </c>
+      <c r="J87" t="s">
+        <v>704</v>
+      </c>
       <c r="K87">
         <v>1</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M87" t="s">
         <v>572</v>
@@ -29905,12 +30068,12 @@
         <v>0</v>
       </c>
       <c r="O87" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="88" spans="5:15">
       <c r="E88" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -29919,26 +30082,28 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>952</v>
-      </c>
-      <c r="J88"/>
+        <v>953</v>
+      </c>
+      <c r="J88" t="s">
+        <v>704</v>
+      </c>
       <c r="K88">
         <v>1</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="M88" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="N88">
         <v>0</v>
       </c>
       <c r="O88" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -29949,34 +30114,34 @@
         <v>51</v>
       </c>
       <c r="C90" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H90" s="6" t="s">
         <v>55</v>
       </c>
       <c r="I90" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="J90" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="K90" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="L90" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="M90" t="s">
         <v>64</v>
@@ -29984,14 +30149,14 @@
     </row>
     <row r="91" spans="5:13">
       <c r="E91" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="F91" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G91" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H91" t="s">
         <v>269</v>
@@ -30000,7 +30165,7 @@
         <v>74</v>
       </c>
       <c r="K91" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="L91" t="s">
         <v>75</v>
@@ -30011,14 +30176,14 @@
     </row>
     <row r="92" spans="5:13">
       <c r="E92" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="F92" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G92" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H92" t="s">
         <v>91</v>
@@ -30027,7 +30192,7 @@
         <v>74</v>
       </c>
       <c r="K92" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="L92">
         <v>0</v>
@@ -30038,14 +30203,14 @@
     </row>
     <row r="93" spans="5:13">
       <c r="E93" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="F93" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G93" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H93" t="s">
         <v>95</v>
@@ -30059,14 +30224,14 @@
     </row>
     <row r="94" spans="5:13">
       <c r="E94" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="F94" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G94" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H94" t="s">
         <v>427</v>
@@ -30080,14 +30245,14 @@
     </row>
     <row r="95" spans="5:13">
       <c r="E95" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="F95" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G95" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H95" t="s">
         <v>264</v>
@@ -30096,7 +30261,7 @@
         <v>74</v>
       </c>
       <c r="K95" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="L95" t="s">
         <v>75</v>
@@ -30107,14 +30272,14 @@
     </row>
     <row r="96" spans="5:13">
       <c r="E96" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="F96" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G96" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H96" t="s">
         <v>267</v>
@@ -30128,14 +30293,14 @@
     </row>
     <row r="97" spans="5:13">
       <c r="E97" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="F97" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G97" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H97" t="s">
         <v>260</v>
@@ -30149,14 +30314,14 @@
     </row>
     <row r="98" spans="5:13">
       <c r="E98" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="F98" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G98" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H98" t="s">
         <v>257</v>
@@ -30170,14 +30335,14 @@
     </row>
     <row r="99" spans="5:13">
       <c r="E99" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="F99" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G99" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H99" t="s">
         <v>227</v>
@@ -30186,7 +30351,7 @@
         <v>74</v>
       </c>
       <c r="K99" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="L99" t="s">
         <v>75</v>
@@ -30197,14 +30362,14 @@
     </row>
     <row r="100" spans="5:13">
       <c r="E100" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="F100" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G100" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H100" t="s">
         <v>231</v>
@@ -30218,14 +30383,14 @@
     </row>
     <row r="101" spans="5:13">
       <c r="E101" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="F101" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G101" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H101" t="s">
         <v>223</v>
@@ -30239,14 +30404,14 @@
     </row>
     <row r="102" spans="5:13">
       <c r="E102" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="F102" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G102" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H102" t="s">
         <v>219</v>
@@ -30260,14 +30425,14 @@
     </row>
     <row r="103" spans="5:13">
       <c r="E103" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="F103" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G103" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H103" t="s">
         <v>255</v>
@@ -30281,14 +30446,14 @@
     </row>
     <row r="104" spans="5:13">
       <c r="E104" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="F104" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G104" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H104" t="s">
         <v>251</v>
@@ -30302,14 +30467,14 @@
     </row>
     <row r="105" spans="5:13">
       <c r="E105" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="F105" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G105" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H105" t="s">
         <v>248</v>
@@ -30323,14 +30488,14 @@
     </row>
     <row r="106" spans="5:13">
       <c r="E106" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="F106" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G106" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H106" t="s">
         <v>217</v>
@@ -30344,14 +30509,14 @@
     </row>
     <row r="107" spans="5:13">
       <c r="E107" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="F107" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G107" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H107" t="s">
         <v>213</v>
@@ -30365,14 +30530,14 @@
     </row>
     <row r="108" spans="5:13">
       <c r="E108" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="F108" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G108" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H108" t="s">
         <v>209</v>
@@ -30386,14 +30551,14 @@
     </row>
     <row r="109" spans="5:13">
       <c r="E109" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="F109" t="str">
         <f>发送配置!$E$15</f>
         <v>hmsg_template_server-15</v>
       </c>
       <c r="G109" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H109" t="s">
         <v>385</v>
@@ -30402,7 +30567,7 @@
         <v>74</v>
       </c>
       <c r="K109" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="L109" t="s">
         <v>74</v>
@@ -30413,14 +30578,14 @@
     </row>
     <row r="110" spans="5:13">
       <c r="E110" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="F110" t="str">
         <f>发送配置!$E$15</f>
         <v>hmsg_template_server-15</v>
       </c>
       <c r="G110" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H110" t="s">
         <v>388</v>
@@ -30434,14 +30599,14 @@
     </row>
     <row r="111" spans="5:13">
       <c r="E111" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="F111" t="str">
         <f>发送配置!$E$15</f>
         <v>hmsg_template_server-15</v>
       </c>
       <c r="G111" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H111" t="s">
         <v>381</v>
@@ -30455,14 +30620,14 @@
     </row>
     <row r="112" spans="5:13">
       <c r="E112" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="F112" t="str">
         <f>发送配置!$E$15</f>
         <v>hmsg_template_server-15</v>
       </c>
       <c r="G112" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H112" t="s">
         <v>378</v>
@@ -30476,14 +30641,14 @@
     </row>
     <row r="113" spans="5:13">
       <c r="E113" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="F113" t="str">
         <f>发送配置!$E$16</f>
         <v>hmsg_template_server-16</v>
       </c>
       <c r="G113" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H113" t="s">
         <v>372</v>
@@ -30492,7 +30657,7 @@
         <v>74</v>
       </c>
       <c r="K113" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="L113" t="s">
         <v>74</v>
@@ -30503,14 +30668,14 @@
     </row>
     <row r="114" spans="5:13">
       <c r="E114" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="F114" t="str">
         <f>发送配置!$E$16</f>
         <v>hmsg_template_server-16</v>
       </c>
       <c r="G114" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H114" t="s">
         <v>375</v>
@@ -30524,14 +30689,14 @@
     </row>
     <row r="115" spans="5:13">
       <c r="E115" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="F115" t="str">
         <f>发送配置!$E$16</f>
         <v>hmsg_template_server-16</v>
       </c>
       <c r="G115" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H115" t="s">
         <v>368</v>
@@ -30545,14 +30710,14 @@
     </row>
     <row r="116" spans="5:13">
       <c r="E116" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="F116" t="str">
         <f>发送配置!$E$16</f>
         <v>hmsg_template_server-16</v>
       </c>
       <c r="G116" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H116" t="s">
         <v>363</v>
@@ -30566,14 +30731,14 @@
     </row>
     <row r="117" spans="5:13">
       <c r="E117" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="F117" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-17</v>
       </c>
       <c r="G117" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H117" t="s">
         <v>397</v>
@@ -30582,7 +30747,7 @@
         <v>74</v>
       </c>
       <c r="K117" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="L117" t="s">
         <v>74</v>
@@ -30593,14 +30758,14 @@
     </row>
     <row r="118" spans="5:13">
       <c r="E118" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="F118" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-17</v>
       </c>
       <c r="G118" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H118" t="s">
         <v>400</v>
@@ -30614,14 +30779,14 @@
     </row>
     <row r="119" spans="5:13">
       <c r="E119" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="F119" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-17</v>
       </c>
       <c r="G119" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H119" t="s">
         <v>393</v>
@@ -30635,14 +30800,14 @@
     </row>
     <row r="120" spans="5:13">
       <c r="E120" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="F120" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-17</v>
       </c>
       <c r="G120" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H120" t="s">
         <v>390</v>
@@ -30656,14 +30821,14 @@
     </row>
     <row r="121" spans="5:13">
       <c r="E121" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="F121" t="str">
         <f>发送配置!$E$19</f>
         <v>hmsg_template_server-19</v>
       </c>
       <c r="G121" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H121" t="s">
         <v>413</v>
@@ -30677,14 +30842,14 @@
     </row>
     <row r="122" spans="5:13">
       <c r="E122" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F122" t="str">
         <f>发送配置!$E$20</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G122" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H122" t="s">
         <v>411</v>
@@ -30698,14 +30863,14 @@
     </row>
     <row r="123" spans="5:13">
       <c r="E123" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="F123" t="str">
         <f>发送配置!$E$20</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G123" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H123" t="s">
         <v>407</v>
@@ -30719,14 +30884,14 @@
     </row>
     <row r="124" spans="5:13">
       <c r="E124" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="F124" t="str">
         <f>发送配置!$E$20</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G124" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H124" t="s">
         <v>403</v>
@@ -30740,14 +30905,14 @@
     </row>
     <row r="125" spans="5:13">
       <c r="E125" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="F125" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-21</v>
       </c>
       <c r="G125" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H125" t="s">
         <v>505</v>
@@ -30756,7 +30921,7 @@
         <v>74</v>
       </c>
       <c r="K125" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="L125" t="s">
         <v>75</v>
@@ -30767,14 +30932,14 @@
     </row>
     <row r="126" spans="5:13">
       <c r="E126" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="F126" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-21</v>
       </c>
       <c r="G126" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H126" t="s">
         <v>509</v>
@@ -30788,14 +30953,14 @@
     </row>
     <row r="127" spans="5:13">
       <c r="E127" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="F127" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-22</v>
       </c>
       <c r="G127" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H127" t="s">
         <v>531</v>
@@ -30809,14 +30974,14 @@
     </row>
     <row r="128" spans="5:13">
       <c r="E128" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="F128" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-27</v>
       </c>
       <c r="G128" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H128" t="s">
         <v>512</v>
@@ -30825,7 +30990,7 @@
         <v>74</v>
       </c>
       <c r="K128" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="L128" t="s">
         <v>75</v>
@@ -30836,14 +31001,14 @@
     </row>
     <row r="129" spans="5:13">
       <c r="E129" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="F129" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-27</v>
       </c>
       <c r="G129" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H129" t="s">
         <v>521</v>
@@ -30857,14 +31022,14 @@
     </row>
     <row r="130" spans="5:13">
       <c r="E130" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F130" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-27</v>
       </c>
       <c r="G130" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H130" t="s">
         <v>516</v>
@@ -30873,7 +31038,7 @@
         <v>74</v>
       </c>
       <c r="K130" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="L130" t="s">
         <v>75</v>
@@ -30884,14 +31049,14 @@
     </row>
     <row r="131" spans="5:13">
       <c r="E131" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="F131" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-29</v>
       </c>
       <c r="G131" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H131" t="s">
         <v>456</v>
@@ -30900,7 +31065,7 @@
         <v>74</v>
       </c>
       <c r="K131" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="L131" t="s">
         <v>75</v>
@@ -30911,14 +31076,14 @@
     </row>
     <row r="132" spans="5:13">
       <c r="E132" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="F132" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-29</v>
       </c>
       <c r="G132" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H132" t="s">
         <v>459</v>
@@ -30932,14 +31097,14 @@
     </row>
     <row r="133" spans="5:13">
       <c r="E133" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="F133" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-29</v>
       </c>
       <c r="G133" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H133" t="s">
         <v>452</v>
@@ -30953,14 +31118,14 @@
     </row>
     <row r="134" spans="5:13">
       <c r="E134" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="F134" t="str">
         <f>发送配置!$E$25</f>
         <v>hmsg_template_server-30</v>
       </c>
       <c r="G134" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H134" t="s">
         <v>466</v>
@@ -30969,7 +31134,7 @@
         <v>74</v>
       </c>
       <c r="K134" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="L134" t="s">
         <v>75</v>
@@ -30980,14 +31145,14 @@
     </row>
     <row r="135" spans="5:13">
       <c r="E135" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="F135" t="str">
         <f>发送配置!$E$25</f>
         <v>hmsg_template_server-30</v>
       </c>
       <c r="G135" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H135" t="s">
         <v>469</v>
@@ -31001,14 +31166,14 @@
     </row>
     <row r="136" spans="5:13">
       <c r="E136" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="F136" t="str">
         <f>发送配置!$E$25</f>
         <v>hmsg_template_server-30</v>
       </c>
       <c r="G136" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H136" t="s">
         <v>463</v>
@@ -31022,14 +31187,14 @@
     </row>
     <row r="137" spans="5:13">
       <c r="E137" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="F137" t="str">
         <f>发送配置!$E$26</f>
         <v>hmsg_template_server-31</v>
       </c>
       <c r="G137" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H137" t="s">
         <v>479</v>
@@ -31038,7 +31203,7 @@
         <v>74</v>
       </c>
       <c r="K137" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="L137" t="s">
         <v>75</v>
@@ -31049,14 +31214,14 @@
     </row>
     <row r="138" spans="5:13">
       <c r="E138" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="F138" t="str">
         <f>发送配置!$E$26</f>
         <v>hmsg_template_server-31</v>
       </c>
       <c r="G138" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H138" t="s">
         <v>482</v>
@@ -31070,14 +31235,14 @@
     </row>
     <row r="139" spans="5:13">
       <c r="E139" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="F139" t="str">
         <f>发送配置!$E$26</f>
         <v>hmsg_template_server-31</v>
       </c>
       <c r="G139" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H139" t="s">
         <v>475</v>
@@ -31091,14 +31256,14 @@
     </row>
     <row r="140" spans="5:13">
       <c r="E140" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="F140" t="str">
         <f>发送配置!$E$26</f>
         <v>hmsg_template_server-31</v>
       </c>
       <c r="G140" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H140" t="s">
         <v>472</v>
@@ -31112,14 +31277,14 @@
     </row>
     <row r="141" spans="5:13">
       <c r="E141" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="F141" t="str">
         <f>发送配置!$E$27</f>
         <v>hmsg_template_server-32</v>
       </c>
       <c r="G141" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H141" t="s">
         <v>446</v>
@@ -31128,7 +31293,7 @@
         <v>74</v>
       </c>
       <c r="K141" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="L141" t="s">
         <v>75</v>
@@ -31139,14 +31304,14 @@
     </row>
     <row r="142" spans="5:13">
       <c r="E142" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="F142" t="str">
         <f>发送配置!$E$27</f>
         <v>hmsg_template_server-32</v>
       </c>
       <c r="G142" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H142" t="s">
         <v>449</v>
@@ -31160,14 +31325,14 @@
     </row>
     <row r="143" spans="5:13">
       <c r="E143" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="F143" t="str">
         <f>发送配置!$E$27</f>
         <v>hmsg_template_server-32</v>
       </c>
       <c r="G143" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H143" t="s">
         <v>442</v>
@@ -31181,14 +31346,14 @@
     </row>
     <row r="144" spans="5:13">
       <c r="E144" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="F144" t="str">
         <f>发送配置!$E$27</f>
         <v>hmsg_template_server-32</v>
       </c>
       <c r="G144" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H144" t="s">
         <v>437</v>
@@ -31202,14 +31367,14 @@
     </row>
     <row r="145" spans="5:13">
       <c r="E145" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="F145" t="str">
         <f>发送配置!$E$28</f>
         <v>hmsg_template_server-33</v>
       </c>
       <c r="G145" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H145" t="s">
         <v>430</v>
@@ -31218,7 +31383,7 @@
         <v>74</v>
       </c>
       <c r="K145" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="L145" t="s">
         <v>75</v>
@@ -31229,14 +31394,14 @@
     </row>
     <row r="146" spans="5:13">
       <c r="E146" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="F146" t="str">
         <f>发送配置!$E$28</f>
         <v>hmsg_template_server-33</v>
       </c>
       <c r="G146" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H146" t="s">
         <v>433</v>
@@ -31250,14 +31415,14 @@
     </row>
     <row r="147" spans="5:13">
       <c r="E147" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="F147" t="str">
         <f>发送配置!$E$29</f>
         <v>hmsg_template_server-35</v>
       </c>
       <c r="G147" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H147" t="s">
         <v>359</v>
@@ -31266,7 +31431,7 @@
         <v>74</v>
       </c>
       <c r="K147" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="L147" t="s">
         <v>75</v>
@@ -31277,14 +31442,14 @@
     </row>
     <row r="148" spans="5:13">
       <c r="E148" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="F148" t="str">
         <f>发送配置!$E$30</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G148" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H148" t="s">
         <v>240</v>
@@ -31293,7 +31458,7 @@
         <v>74</v>
       </c>
       <c r="K148" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="L148" t="s">
         <v>75</v>
@@ -31304,14 +31469,14 @@
     </row>
     <row r="149" spans="5:13">
       <c r="E149" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="F149" t="str">
         <f>发送配置!$E$30</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G149" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H149" t="s">
         <v>243</v>
@@ -31325,14 +31490,14 @@
     </row>
     <row r="150" spans="5:13">
       <c r="E150" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="F150" t="str">
         <f>发送配置!$E$30</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G150" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H150" t="s">
         <v>236</v>
@@ -31346,14 +31511,14 @@
     </row>
     <row r="151" spans="5:13">
       <c r="E151" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="F151" t="str">
         <f>发送配置!$E$30</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G151" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H151" t="s">
         <v>233</v>
@@ -31367,14 +31532,14 @@
     </row>
     <row r="152" spans="5:13">
       <c r="E152" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="F152" t="str">
         <f>发送配置!$E$31</f>
         <v>hmsg_template_server-38</v>
       </c>
       <c r="G152" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H152" t="s">
         <v>421</v>
@@ -31383,7 +31548,7 @@
         <v>74</v>
       </c>
       <c r="K152" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="L152" t="s">
         <v>75</v>
@@ -31394,14 +31559,14 @@
     </row>
     <row r="153" spans="5:13">
       <c r="E153" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="F153" t="str">
         <f>发送配置!$E$31</f>
         <v>hmsg_template_server-38</v>
       </c>
       <c r="G153" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H153" t="s">
         <v>424</v>
@@ -31415,14 +31580,14 @@
     </row>
     <row r="154" spans="5:13">
       <c r="E154" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="F154" t="str">
         <f>E83</f>
         <v>hmsg_template_server-91</v>
       </c>
       <c r="G154" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H154" t="s">
         <v>594</v>
@@ -31431,7 +31596,7 @@
         <v>74</v>
       </c>
       <c r="K154" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="L154" t="s">
         <v>75</v>
@@ -31442,14 +31607,14 @@
     </row>
     <row r="155" spans="5:13">
       <c r="E155" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F155" t="str">
         <f>E83</f>
         <v>hmsg_template_server-91</v>
       </c>
       <c r="G155" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H155" t="s">
         <v>590</v>
@@ -31463,14 +31628,14 @@
     </row>
     <row r="156" spans="5:13">
       <c r="E156" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="F156" t="str">
         <f>发送配置!$E$32</f>
         <v>hmsg_template_server-40</v>
       </c>
       <c r="G156" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H156" t="s">
         <v>415</v>
@@ -31479,7 +31644,7 @@
         <v>74</v>
       </c>
       <c r="K156" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="L156" t="s">
         <v>75</v>
@@ -31490,14 +31655,14 @@
     </row>
     <row r="157" spans="5:13">
       <c r="E157" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="F157" t="str">
         <f>发送配置!$E$32</f>
         <v>hmsg_template_server-40</v>
       </c>
       <c r="G157" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H157" t="s">
         <v>418</v>
@@ -31511,14 +31676,14 @@
     </row>
     <row r="158" spans="5:13">
       <c r="E158" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="F158" t="str">
         <f>发送配置!$E$33</f>
         <v>hmsg_template_server-41</v>
       </c>
       <c r="G158" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H158" t="s">
         <v>276</v>
@@ -31527,7 +31692,7 @@
         <v>74</v>
       </c>
       <c r="K158" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="L158" t="s">
         <v>75</v>
@@ -31538,14 +31703,14 @@
     </row>
     <row r="159" spans="5:13">
       <c r="E159" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="F159" t="str">
         <f>发送配置!$E$33</f>
         <v>hmsg_template_server-41</v>
       </c>
       <c r="G159" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H159" t="s">
         <v>279</v>
@@ -31559,14 +31724,14 @@
     </row>
     <row r="160" spans="5:13">
       <c r="E160" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F160" t="str">
         <f>发送配置!$E$33</f>
         <v>hmsg_template_server-41</v>
       </c>
       <c r="G160" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H160" t="s">
         <v>273</v>
@@ -31580,14 +31745,14 @@
     </row>
     <row r="161" spans="5:13">
       <c r="E161" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="F161" t="str">
         <f>发送配置!$E$34</f>
         <v>hmsg_template_server-42</v>
       </c>
       <c r="G161" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H161" t="s">
         <v>115</v>
@@ -31596,7 +31761,7 @@
         <v>74</v>
       </c>
       <c r="K161" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="L161" t="s">
         <v>75</v>
@@ -31607,14 +31772,14 @@
     </row>
     <row r="162" spans="5:13">
       <c r="E162" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="F162" t="str">
         <f>发送配置!$E$34</f>
         <v>hmsg_template_server-42</v>
       </c>
       <c r="G162" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H162" t="s">
         <v>119</v>
@@ -31628,14 +31793,14 @@
     </row>
     <row r="163" spans="5:13">
       <c r="E163" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="F163" t="str">
         <f>发送配置!$E$35</f>
         <v>hmsg_template_server-43</v>
       </c>
       <c r="G163" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H163" t="s">
         <v>350</v>
@@ -31644,7 +31809,7 @@
         <v>74</v>
       </c>
       <c r="K163" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="L163" t="s">
         <v>75</v>
@@ -31655,14 +31820,14 @@
     </row>
     <row r="164" spans="5:13">
       <c r="E164" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="F164" t="str">
         <f>发送配置!$E$35</f>
         <v>hmsg_template_server-43</v>
       </c>
       <c r="G164" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H164" t="s">
         <v>353</v>
@@ -31676,14 +31841,14 @@
     </row>
     <row r="165" spans="5:13">
       <c r="E165" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="F165" t="str">
         <f>发送配置!$E$36</f>
         <v>hmsg_template_server-44</v>
       </c>
       <c r="G165" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H165" t="s">
         <v>122</v>
@@ -31692,7 +31857,7 @@
         <v>74</v>
       </c>
       <c r="K165" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="L165" t="s">
         <v>75</v>
@@ -31703,14 +31868,14 @@
     </row>
     <row r="166" spans="5:13">
       <c r="E166" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="F166" t="str">
         <f>发送配置!$E$36</f>
         <v>hmsg_template_server-44</v>
       </c>
       <c r="G166" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H166" t="s">
         <v>125</v>
@@ -31724,14 +31889,14 @@
     </row>
     <row r="167" spans="5:13">
       <c r="E167" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="F167" t="str">
         <f>发送配置!$E$37</f>
         <v>hmsg_template_server-45</v>
       </c>
       <c r="G167" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H167" t="s">
         <v>533</v>
@@ -31740,7 +31905,7 @@
         <v>74</v>
       </c>
       <c r="K167" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="L167" t="s">
         <v>75</v>
@@ -31751,14 +31916,14 @@
     </row>
     <row r="168" spans="5:13">
       <c r="E168" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="F168" t="str">
         <f>发送配置!$E$37</f>
         <v>hmsg_template_server-45</v>
       </c>
       <c r="G168" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H168" t="s">
         <v>536</v>
@@ -31772,14 +31937,14 @@
     </row>
     <row r="169" spans="5:13">
       <c r="E169" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="F169" t="str">
         <f>发送配置!$E$38</f>
         <v>hmsg_template_server-46</v>
       </c>
       <c r="G169" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H169" t="s">
         <v>107</v>
@@ -31788,7 +31953,7 @@
         <v>74</v>
       </c>
       <c r="K169" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="L169" t="s">
         <v>75</v>
@@ -31799,14 +31964,14 @@
     </row>
     <row r="170" spans="5:13">
       <c r="E170" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="F170" t="str">
         <f>发送配置!$E$38</f>
         <v>hmsg_template_server-46</v>
       </c>
       <c r="G170" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H170" t="s">
         <v>111</v>
@@ -31820,14 +31985,14 @@
     </row>
     <row r="171" spans="5:13">
       <c r="E171" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="F171" t="str">
         <f>发送配置!$E$38</f>
         <v>hmsg_template_server-46</v>
       </c>
       <c r="G171" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H171" t="s">
         <v>102</v>
@@ -31841,14 +32006,14 @@
     </row>
     <row r="172" spans="5:13">
       <c r="E172" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="F172" t="str">
         <f>发送配置!$E$39</f>
         <v>hmsg_template_server-47</v>
       </c>
       <c r="G172" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H172" t="s">
         <v>201</v>
@@ -31857,7 +32022,7 @@
         <v>74</v>
       </c>
       <c r="K172" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="L172" t="s">
         <v>75</v>
@@ -31868,14 +32033,14 @@
     </row>
     <row r="173" spans="5:13">
       <c r="E173" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="F173" t="str">
         <f>发送配置!$E$39</f>
         <v>hmsg_template_server-47</v>
       </c>
       <c r="G173" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H173" t="s">
         <v>204</v>
@@ -31889,14 +32054,14 @@
     </row>
     <row r="174" spans="5:13">
       <c r="E174" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="F174" t="str">
         <f>发送配置!$E$39</f>
         <v>hmsg_template_server-47</v>
       </c>
       <c r="G174" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H174" t="s">
         <v>197</v>
@@ -31910,14 +32075,14 @@
     </row>
     <row r="175" spans="5:13">
       <c r="E175" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="F175" t="str">
         <f>发送配置!$E$39</f>
         <v>hmsg_template_server-47</v>
       </c>
       <c r="G175" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H175" t="s">
         <v>193</v>
@@ -31931,14 +32096,14 @@
     </row>
     <row r="176" spans="5:13">
       <c r="E176" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="F176" t="str">
         <f>发送配置!$E$40</f>
         <v>hmsg_template_server-48</v>
       </c>
       <c r="G176" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H176" t="s">
         <v>283</v>
@@ -31952,14 +32117,14 @@
     </row>
     <row r="177" spans="5:13">
       <c r="E177" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="F177" t="str">
         <f>发送配置!$E$41</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G177" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H177" t="s">
         <v>84</v>
@@ -31968,7 +32133,7 @@
         <v>74</v>
       </c>
       <c r="K177" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="L177" t="s">
         <v>75</v>
@@ -31979,14 +32144,14 @@
     </row>
     <row r="178" spans="5:13">
       <c r="E178" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="F178" t="str">
         <f>发送配置!$E$41</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G178" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H178" t="s">
         <v>88</v>
@@ -32000,14 +32165,14 @@
     </row>
     <row r="179" spans="5:13">
       <c r="E179" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="F179" t="str">
         <f>发送配置!$E$41</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G179" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H179" t="s">
         <v>78</v>
@@ -32021,14 +32186,14 @@
     </row>
     <row r="180" spans="5:13">
       <c r="E180" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="F180" t="str">
         <f>发送配置!$E$42</f>
         <v>hmsg_template_server-50</v>
       </c>
       <c r="G180" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H180" t="s">
         <v>545</v>
@@ -32037,7 +32202,7 @@
         <v>74</v>
       </c>
       <c r="K180" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="L180" t="s">
         <v>75</v>
@@ -32048,14 +32213,14 @@
     </row>
     <row r="181" spans="5:13">
       <c r="E181" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F181" t="str">
         <f>发送配置!$E$42</f>
         <v>hmsg_template_server-50</v>
       </c>
       <c r="G181" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H181" t="s">
         <v>549</v>
@@ -32069,14 +32234,14 @@
     </row>
     <row r="182" spans="5:13">
       <c r="E182" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="F182" t="str">
         <f>发送配置!$E$43</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G182" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H182" t="s">
         <v>488</v>
@@ -32085,7 +32250,7 @@
         <v>74</v>
       </c>
       <c r="K182" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="L182" t="s">
         <v>75</v>
@@ -32096,14 +32261,14 @@
     </row>
     <row r="183" spans="5:13">
       <c r="E183" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="F183" t="str">
         <f>发送配置!$E$43</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G183" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H183" t="s">
         <v>492</v>
@@ -32117,14 +32282,14 @@
     </row>
     <row r="184" spans="5:13">
       <c r="E184" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="F184" t="str">
         <f>发送配置!$E$43</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G184" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H184" t="s">
         <v>484</v>
@@ -32138,14 +32303,14 @@
     </row>
     <row r="185" spans="5:13">
       <c r="E185" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="F185" t="str">
         <f>发送配置!$E$44</f>
         <v>hmsg_template_server-52</v>
       </c>
       <c r="G185" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H185" t="s">
         <v>539</v>
@@ -32154,7 +32319,7 @@
         <v>74</v>
       </c>
       <c r="K185" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="L185" t="s">
         <v>75</v>
@@ -32165,14 +32330,14 @@
     </row>
     <row r="186" spans="5:13">
       <c r="E186" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="F186" t="str">
         <f>发送配置!$E$44</f>
         <v>hmsg_template_server-52</v>
       </c>
       <c r="G186" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H186" t="s">
         <v>542</v>
@@ -32186,14 +32351,14 @@
     </row>
     <row r="187" spans="5:13">
       <c r="E187" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="F187" t="str">
         <f>发送配置!$E$45</f>
         <v>hmsg_template_server-53</v>
       </c>
       <c r="G187" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H187" t="s">
         <v>173</v>
@@ -32202,7 +32367,7 @@
         <v>74</v>
       </c>
       <c r="K187" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="L187" t="s">
         <v>75</v>
@@ -32213,14 +32378,14 @@
     </row>
     <row r="188" spans="5:13">
       <c r="E188" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="F188" t="str">
         <f>发送配置!$E$45</f>
         <v>hmsg_template_server-53</v>
       </c>
       <c r="G188" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H188" t="s">
         <v>176</v>
@@ -32234,14 +32399,14 @@
     </row>
     <row r="189" spans="5:13">
       <c r="E189" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="F189" t="str">
         <f>发送配置!$E$45</f>
         <v>hmsg_template_server-53</v>
       </c>
       <c r="G189" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H189" t="s">
         <v>170</v>
@@ -32255,20 +32420,20 @@
     </row>
     <row r="190" spans="5:13">
       <c r="E190" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="F190" t="str">
         <f>发送配置!$E$46</f>
         <v>hmsg_template_server-54</v>
       </c>
       <c r="G190" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H190" t="s">
         <v>167</v>
       </c>
       <c r="L190" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="M190" t="s">
         <v>74</v>
@@ -32276,20 +32441,20 @@
     </row>
     <row r="191" spans="5:13">
       <c r="E191" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="F191" t="str">
         <f>发送配置!$E$47</f>
         <v>hmsg_template_server-55</v>
       </c>
       <c r="G191" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H191" t="s">
         <v>245</v>
       </c>
       <c r="L191" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="M191" t="s">
         <v>74</v>
@@ -32297,20 +32462,20 @@
     </row>
     <row r="192" spans="5:13">
       <c r="E192" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="F192" t="str">
         <f>发送配置!$E$48</f>
         <v>hmsg_template_server-56</v>
       </c>
       <c r="G192" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H192" t="s">
         <v>186</v>
       </c>
       <c r="L192" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="M192" t="s">
         <v>74</v>
@@ -32318,20 +32483,20 @@
     </row>
     <row r="193" spans="5:13">
       <c r="E193" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="F193" t="str">
         <f>发送配置!$E$49</f>
         <v>hmsg_template_server-57</v>
       </c>
       <c r="G193" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H193" t="s">
         <v>206</v>
       </c>
       <c r="L193" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="M193" t="s">
         <v>74</v>
@@ -32339,20 +32504,20 @@
     </row>
     <row r="194" spans="5:13">
       <c r="E194" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="F194" t="str">
         <f>发送配置!$E$50</f>
         <v>hmsg_template_server-58</v>
       </c>
       <c r="G194" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H194" t="s">
         <v>137</v>
       </c>
       <c r="L194" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="M194" t="s">
         <v>74</v>
@@ -32360,20 +32525,20 @@
     </row>
     <row r="195" spans="5:13">
       <c r="E195" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="F195" t="str">
         <f>发送配置!$E$51</f>
         <v>hmsg_template_server-59</v>
       </c>
       <c r="G195" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H195" t="s">
         <v>141</v>
       </c>
       <c r="L195" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="M195" t="s">
         <v>74</v>
@@ -32381,20 +32546,20 @@
     </row>
     <row r="196" spans="5:13">
       <c r="E196" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="F196" t="str">
         <f>发送配置!$E$52</f>
         <v>hmsg_template_server-60</v>
       </c>
       <c r="G196" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H196" t="s">
         <v>144</v>
       </c>
       <c r="L196" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="M196" t="s">
         <v>74</v>
@@ -32402,20 +32567,20 @@
     </row>
     <row r="197" spans="5:13">
       <c r="E197" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="F197" t="str">
         <f>发送配置!$E$53</f>
         <v>hmsg_template_server-61</v>
       </c>
       <c r="G197" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H197" t="s">
         <v>149</v>
       </c>
       <c r="L197" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="M197" t="s">
         <v>74</v>
@@ -32423,20 +32588,20 @@
     </row>
     <row r="198" spans="5:13">
       <c r="E198" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="F198" t="str">
         <f>发送配置!$E$54</f>
         <v>hmsg_template_server-62</v>
       </c>
       <c r="G198" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H198" t="s">
         <v>183</v>
       </c>
       <c r="L198" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="M198" t="s">
         <v>74</v>
@@ -32444,20 +32609,20 @@
     </row>
     <row r="199" spans="5:13">
       <c r="E199" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="F199" t="str">
         <f>发送配置!$E$55</f>
         <v>hmsg_template_server-63</v>
       </c>
       <c r="G199" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H199" t="s">
         <v>157</v>
       </c>
       <c r="L199" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="M199" t="s">
         <v>74</v>
@@ -32465,20 +32630,20 @@
     </row>
     <row r="200" spans="5:13">
       <c r="E200" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="F200" t="str">
         <f>发送配置!$E$56</f>
         <v>hmsg_template_server-64</v>
       </c>
       <c r="G200" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H200" t="s">
         <v>128</v>
       </c>
       <c r="L200" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="M200" t="s">
         <v>74</v>
@@ -32486,20 +32651,20 @@
     </row>
     <row r="201" spans="5:13">
       <c r="E201" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="F201" t="str">
         <f>发送配置!$E$57</f>
         <v>hmsg_template_server-65</v>
       </c>
       <c r="G201" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H201" t="s">
         <v>189</v>
       </c>
       <c r="L201" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="M201" t="s">
         <v>74</v>
@@ -32507,20 +32672,20 @@
     </row>
     <row r="202" spans="5:13">
       <c r="E202" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="F202" t="str">
         <f>发送配置!$E$59</f>
         <v>hmsg_template_server-67</v>
       </c>
       <c r="G202" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H202" t="s">
         <v>162</v>
       </c>
       <c r="L202" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="M202" t="s">
         <v>74</v>
@@ -32528,20 +32693,20 @@
     </row>
     <row r="203" spans="5:13">
       <c r="E203" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="F203" t="str">
         <f>发送配置!$E$60</f>
         <v>hmsg_template_server-68</v>
       </c>
       <c r="G203" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H203" t="s">
         <v>484</v>
       </c>
       <c r="L203" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="M203" t="s">
         <v>74</v>
@@ -32549,20 +32714,20 @@
     </row>
     <row r="204" spans="5:13">
       <c r="E204" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="F204" t="str">
         <f>发送配置!$E$62</f>
         <v>hmsg_template_server-70</v>
       </c>
       <c r="G204" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H204" t="s">
         <v>552</v>
       </c>
       <c r="L204" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="M204" t="s">
         <v>74</v>
@@ -32570,20 +32735,20 @@
     </row>
     <row r="205" spans="5:13">
       <c r="E205" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="F205" t="str">
         <f>发送配置!$E$63</f>
         <v>hmsg_template_server-71</v>
       </c>
       <c r="G205" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H205" t="s">
         <v>133</v>
       </c>
       <c r="L205" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="M205" t="s">
         <v>74</v>
@@ -32591,20 +32756,20 @@
     </row>
     <row r="206" spans="5:13">
       <c r="E206" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="F206" t="str">
         <f>发送配置!$E$64</f>
         <v>hmsg_template_server-72</v>
       </c>
       <c r="G206" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H206" t="s">
         <v>560</v>
       </c>
       <c r="L206" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="M206" t="s">
         <v>74</v>
@@ -32612,20 +32777,20 @@
     </row>
     <row r="207" spans="5:13">
       <c r="E207" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="F207" t="str">
         <f>发送配置!$E$65</f>
         <v>hmsg_template_server-73</v>
       </c>
       <c r="G207" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H207" t="s">
         <v>68</v>
       </c>
       <c r="L207" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="M207" t="s">
         <v>74</v>
@@ -32633,20 +32798,20 @@
     </row>
     <row r="208" spans="5:13">
       <c r="E208" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="F208" t="str">
         <f>发送配置!$E$66</f>
         <v>hmsg_template_server-74</v>
       </c>
       <c r="G208" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H208" t="s">
         <v>180</v>
       </c>
       <c r="L208" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="M208" t="s">
         <v>74</v>
@@ -32654,20 +32819,20 @@
     </row>
     <row r="209" spans="5:13">
       <c r="E209" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="F209" t="str">
         <f>发送配置!$E$67</f>
         <v>hmsg_template_server-75</v>
       </c>
       <c r="G209" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H209" t="s">
         <v>523</v>
       </c>
       <c r="L209" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="M209" t="s">
         <v>74</v>
@@ -32675,14 +32840,14 @@
     </row>
     <row r="210" spans="5:13">
       <c r="E210" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="F210" t="str">
         <f>发送配置!$E$68</f>
         <v>hmsg_template_server-76</v>
       </c>
       <c r="G210" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H210" t="s">
         <v>495</v>
@@ -32693,14 +32858,14 @@
     </row>
     <row r="211" spans="5:13">
       <c r="E211" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="F211" t="str">
         <f>发送配置!$E$69</f>
         <v>hmsg_template_server-77</v>
       </c>
       <c r="G211" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H211" t="s">
         <v>500</v>
@@ -32711,20 +32876,20 @@
     </row>
     <row r="212" spans="5:13">
       <c r="E212" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="F212" t="str">
         <f>发送配置!$E$79</f>
         <v>hmsg_template_server-87</v>
       </c>
       <c r="G212" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H212" t="s">
         <v>339</v>
       </c>
       <c r="K212" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="M212" t="s">
         <v>74</v>
@@ -32732,14 +32897,14 @@
     </row>
     <row r="213" spans="5:13">
       <c r="E213" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="F213" t="str">
         <f>发送配置!$E$61</f>
         <v>hmsg_template_server-69</v>
       </c>
       <c r="G213" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H213" t="s">
         <v>98</v>
@@ -32750,14 +32915,14 @@
     </row>
     <row r="214" spans="5:13">
       <c r="E214" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="F214" t="str">
         <f>发送配置!$E$74</f>
         <v>hmsg_template_server-82</v>
       </c>
       <c r="G214" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H214" t="s">
         <v>315</v>
@@ -32768,14 +32933,14 @@
     </row>
     <row r="215" spans="5:13">
       <c r="E215" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="F215" t="str">
         <f>发送配置!$E$58</f>
         <v>hmsg_template_server-66</v>
       </c>
       <c r="G215" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H215" t="s">
         <v>527</v>
@@ -32786,23 +32951,23 @@
     </row>
     <row r="216" spans="5:13">
       <c r="E216" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="F216" t="str">
         <f>发送配置!$E$80</f>
         <v>hmsg_template_server-88</v>
       </c>
       <c r="G216" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H216" t="s">
         <v>345</v>
       </c>
       <c r="I216" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="K216" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="M216" t="s">
         <v>74</v>
@@ -32810,23 +32975,23 @@
     </row>
     <row r="217" spans="5:13">
       <c r="E217" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="F217" t="str">
         <f>发送配置!$E$76</f>
         <v>hmsg_template_server-84</v>
       </c>
       <c r="G217" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H217" t="s">
         <v>324</v>
       </c>
       <c r="I217" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="K217" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="M217" t="s">
         <v>74</v>
@@ -32834,23 +32999,23 @@
     </row>
     <row r="218" spans="5:13">
       <c r="E218" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="F218" t="str">
         <f>发送配置!$E$73</f>
         <v>hmsg_template_server-81</v>
       </c>
       <c r="G218" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H218" t="s">
         <v>305</v>
       </c>
       <c r="I218" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="K218" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="M218" t="s">
         <v>74</v>
@@ -32858,23 +33023,23 @@
     </row>
     <row r="219" spans="5:13">
       <c r="E219" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F219" t="str">
         <f>发送配置!$E$77</f>
         <v>hmsg_template_server-85</v>
       </c>
       <c r="G219" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H219" t="s">
         <v>331</v>
       </c>
       <c r="I219" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="K219" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="M219" t="s">
         <v>74</v>
@@ -32882,23 +33047,23 @@
     </row>
     <row r="220" spans="5:13">
       <c r="E220" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F220" t="str">
         <f>发送配置!$E$72</f>
         <v>hmsg_template_server-80</v>
       </c>
       <c r="G220" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H220" t="s">
         <v>298</v>
       </c>
       <c r="I220" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="K220" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="M220" t="s">
         <v>74</v>
@@ -32906,23 +33071,23 @@
     </row>
     <row r="221" spans="5:13">
       <c r="E221" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="F221" t="str">
         <f>发送配置!$E$71</f>
         <v>hmsg_template_server-79</v>
       </c>
       <c r="G221" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H221" t="s">
         <v>292</v>
       </c>
       <c r="I221" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="K221" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="M221" t="s">
         <v>74</v>
@@ -32930,23 +33095,23 @@
     </row>
     <row r="222" spans="5:13">
       <c r="E222" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="F222" t="str">
         <f>发送配置!$E$70</f>
         <v>hmsg_template_server-78</v>
       </c>
       <c r="G222" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H222" t="s">
         <v>287</v>
       </c>
       <c r="I222" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="K222" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="M222" t="s">
         <v>74</v>
@@ -32954,23 +33119,23 @@
     </row>
     <row r="223" spans="5:13">
       <c r="E223" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="F223" t="str">
         <f>发送配置!$E$80</f>
         <v>hmsg_template_server-88</v>
       </c>
       <c r="G223" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H223" t="s">
         <v>345</v>
       </c>
       <c r="I223" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="K223" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="M223" t="s">
         <v>74</v>
@@ -32978,23 +33143,23 @@
     </row>
     <row r="224" spans="5:13">
       <c r="E224" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="F224" t="str">
         <f>发送配置!$E$76</f>
         <v>hmsg_template_server-84</v>
       </c>
       <c r="G224" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H224" t="s">
         <v>324</v>
       </c>
       <c r="I224" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="K224" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="M224" t="s">
         <v>74</v>
@@ -33002,23 +33167,23 @@
     </row>
     <row r="225" spans="5:13">
       <c r="E225" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="F225" t="str">
         <f>发送配置!$E$75</f>
         <v>hmsg_template_server-83</v>
       </c>
       <c r="G225" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H225" t="s">
         <v>319</v>
       </c>
       <c r="I225" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="K225" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="M225" t="s">
         <v>74</v>
@@ -33026,23 +33191,23 @@
     </row>
     <row r="226" spans="5:13">
       <c r="E226" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="F226" t="str">
         <f>发送配置!$E$78</f>
         <v>hmsg_template_server-86</v>
       </c>
       <c r="G226" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H226" t="s">
         <v>335</v>
       </c>
       <c r="I226" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="K226" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="M226" t="s">
         <v>74</v>
@@ -33050,23 +33215,23 @@
     </row>
     <row r="227" spans="5:13">
       <c r="E227" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="F227" t="str">
         <f>发送配置!$E$72</f>
         <v>hmsg_template_server-80</v>
       </c>
       <c r="G227" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H227" t="s">
         <v>298</v>
       </c>
       <c r="I227" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="K227" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="M227" t="s">
         <v>74</v>
@@ -33074,23 +33239,23 @@
     </row>
     <row r="228" spans="5:13">
       <c r="E228" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="F228" t="str">
         <f>发送配置!$E$71</f>
         <v>hmsg_template_server-79</v>
       </c>
       <c r="G228" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H228" t="s">
         <v>292</v>
       </c>
       <c r="I228" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="K228" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="M228" t="s">
         <v>74</v>
@@ -33098,14 +33263,14 @@
     </row>
     <row r="229" spans="5:13">
       <c r="E229" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="F229" t="str">
         <f t="shared" ref="F229:F236" si="0">E81</f>
         <v>hmsg_template_server-89</v>
       </c>
       <c r="G229" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H229" t="s">
         <v>564</v>
@@ -33119,14 +33284,14 @@
     </row>
     <row r="230" spans="5:13">
       <c r="E230" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="F230" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-90</v>
       </c>
       <c r="G230" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H230" t="s">
         <v>569</v>
@@ -33140,14 +33305,14 @@
     </row>
     <row r="231" spans="5:13">
       <c r="E231" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="F231" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-91</v>
       </c>
       <c r="G231" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H231" t="s">
         <v>574</v>
@@ -33161,14 +33326,14 @@
     </row>
     <row r="232" spans="5:13">
       <c r="E232" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="F232" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-92</v>
       </c>
       <c r="G232" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H232" t="s">
         <v>577</v>
@@ -33182,14 +33347,14 @@
     </row>
     <row r="233" spans="5:13">
       <c r="E233" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="F233" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-93</v>
       </c>
       <c r="G233" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H233" t="s">
         <v>580</v>
@@ -33203,14 +33368,14 @@
     </row>
     <row r="234" spans="5:13">
       <c r="E234" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="F234" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-94</v>
       </c>
       <c r="G234" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H234" t="s">
         <v>583</v>
@@ -33224,14 +33389,14 @@
     </row>
     <row r="235" spans="5:13">
       <c r="E235" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="F235" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-95</v>
       </c>
       <c r="G235" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H235" t="s">
         <v>587</v>
@@ -33245,14 +33410,14 @@
     </row>
     <row r="236" spans="5:13">
       <c r="E236" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="F236" t="str">
         <f t="shared" si="0"/>
         <v>hmsg_template_server-96</v>
       </c>
       <c r="G236" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H236" t="s">
         <v>556</v>
@@ -33266,17 +33431,17 @@
     </row>
     <row r="237" spans="5:13">
       <c r="E237" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="F237" t="str">
         <f>E88</f>
         <v>hmsg_template_server-96</v>
       </c>
       <c r="G237" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H237" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="L237">
         <v>0</v>
@@ -33296,24 +33461,24 @@
         <v>691</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="F239" s="3" t="s">
         <v>694</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="H239" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="240" spans="5:8">
       <c r="E240" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="F240" t="s">
         <v>702</v>
@@ -33327,10 +33492,10 @@
     </row>
     <row r="241" spans="5:8">
       <c r="E241" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="F241" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G241">
         <v>1</v>
@@ -33341,10 +33506,10 @@
     </row>
     <row r="242" spans="5:8">
       <c r="E242" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="F242" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -33355,10 +33520,10 @@
     </row>
     <row r="243" spans="5:8">
       <c r="E243" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="F243" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G243">
         <v>1</v>
@@ -33369,10 +33534,10 @@
     </row>
     <row r="244" spans="5:8">
       <c r="E244" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="F244" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -33383,10 +33548,10 @@
     </row>
     <row r="245" spans="5:8">
       <c r="E245" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="F245" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -33397,10 +33562,10 @@
     </row>
     <row r="246" spans="5:8">
       <c r="E246" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="F246" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -33411,10 +33576,10 @@
     </row>
     <row r="247" spans="5:8">
       <c r="E247" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="F247" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G247">
         <v>1</v>
@@ -33425,10 +33590,10 @@
     </row>
     <row r="248" spans="5:8">
       <c r="E248" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="F248" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G248">
         <v>1</v>
@@ -33439,10 +33604,10 @@
     </row>
     <row r="249" spans="5:8">
       <c r="E249" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="F249" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G249">
         <v>1</v>
@@ -33453,10 +33618,10 @@
     </row>
     <row r="250" spans="5:8">
       <c r="E250" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="F250" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G250">
         <v>1</v>
@@ -33467,10 +33632,10 @@
     </row>
     <row r="251" spans="5:8">
       <c r="E251" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="F251" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G251">
         <v>1</v>
@@ -33481,10 +33646,10 @@
     </row>
     <row r="252" spans="5:8">
       <c r="E252" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="F252" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -33495,10 +33660,10 @@
     </row>
     <row r="253" spans="5:8">
       <c r="E253" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="F253" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -33509,10 +33674,10 @@
     </row>
     <row r="254" spans="5:8">
       <c r="E254" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="F254" s="9" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G254">
         <v>1</v>
@@ -33523,10 +33688,10 @@
     </row>
     <row r="255" spans="5:8">
       <c r="E255" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="F255" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -33537,10 +33702,10 @@
     </row>
     <row r="256" spans="5:8">
       <c r="E256" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="F256" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -33551,10 +33716,10 @@
     </row>
     <row r="257" spans="5:8">
       <c r="E257" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="F257" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -33565,10 +33730,10 @@
     </row>
     <row r="258" spans="5:8">
       <c r="E258" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="F258" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="G258">
         <v>1</v>
@@ -33579,10 +33744,10 @@
     </row>
     <row r="259" spans="5:8">
       <c r="E259" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="F259" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -33593,10 +33758,10 @@
     </row>
     <row r="260" spans="5:8">
       <c r="E260" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="F260" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="G260">
         <v>0</v>
@@ -33607,10 +33772,10 @@
     </row>
     <row r="261" spans="5:8">
       <c r="E261" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="F261" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="G261">
         <v>0</v>
@@ -33621,10 +33786,10 @@
     </row>
     <row r="262" spans="5:8">
       <c r="E262" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="F262" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="G262">
         <v>1</v>
@@ -33635,10 +33800,10 @@
     </row>
     <row r="263" spans="5:8">
       <c r="E263" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="F263" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="G263">
         <v>1</v>
@@ -33649,10 +33814,10 @@
     </row>
     <row r="264" spans="5:8">
       <c r="E264" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="F264" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="G264">
         <v>1</v>
@@ -33663,10 +33828,10 @@
     </row>
     <row r="265" spans="5:8">
       <c r="E265" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="F265" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="G265">
         <v>1</v>
@@ -33677,10 +33842,10 @@
     </row>
     <row r="266" spans="5:8">
       <c r="E266" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="F266" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="G266">
         <v>1</v>
@@ -33691,10 +33856,10 @@
     </row>
     <row r="267" spans="5:8">
       <c r="E267" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="F267" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="G267">
         <v>0</v>
@@ -33705,10 +33870,10 @@
     </row>
     <row r="268" spans="5:8">
       <c r="E268" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="F268" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G268">
         <v>1</v>
@@ -33719,10 +33884,10 @@
     </row>
     <row r="269" spans="5:8">
       <c r="E269" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="F269" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G269">
         <v>1</v>
@@ -33733,10 +33898,10 @@
     </row>
     <row r="270" spans="5:8">
       <c r="E270" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="F270" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="G270">
         <v>1</v>
@@ -33747,10 +33912,10 @@
     </row>
     <row r="271" spans="5:8">
       <c r="E271" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="F271" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="G271">
         <v>1</v>
@@ -33761,10 +33926,10 @@
     </row>
     <row r="272" spans="5:8">
       <c r="E272" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="F272" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="G272">
         <v>1</v>
@@ -33775,10 +33940,10 @@
     </row>
     <row r="273" spans="5:8">
       <c r="E273" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="F273" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -33789,10 +33954,10 @@
     </row>
     <row r="274" spans="5:8">
       <c r="E274" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="F274" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -33803,10 +33968,10 @@
     </row>
     <row r="275" spans="5:8">
       <c r="E275" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="F275" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G275">
         <v>0</v>
@@ -33817,10 +33982,10 @@
     </row>
     <row r="276" spans="5:8">
       <c r="E276" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="F276" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="G276">
         <v>0</v>
@@ -33831,10 +33996,10 @@
     </row>
     <row r="277" spans="5:8">
       <c r="E277" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="F277" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="G277">
         <v>0</v>
@@ -33845,10 +34010,10 @@
     </row>
     <row r="278" spans="5:8">
       <c r="E278" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="F278" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G278">
         <v>1</v>
@@ -33859,10 +34024,10 @@
     </row>
     <row r="279" spans="5:8">
       <c r="E279" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="F279" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="G279">
         <v>1</v>
@@ -33873,10 +34038,10 @@
     </row>
     <row r="280" spans="5:8">
       <c r="E280" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="F280" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="G280">
         <v>1</v>
@@ -33887,10 +34052,10 @@
     </row>
     <row r="281" spans="5:8">
       <c r="E281" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="F281" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="G281">
         <v>1</v>
@@ -33901,10 +34066,10 @@
     </row>
     <row r="282" spans="5:8">
       <c r="E282" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="F282" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="G282">
         <v>1</v>
@@ -33915,10 +34080,10 @@
     </row>
     <row r="283" spans="5:8">
       <c r="E283" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="F283" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="G283">
         <v>1</v>
@@ -33929,10 +34094,10 @@
     </row>
     <row r="284" spans="5:8">
       <c r="E284" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="F284" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="G284">
         <v>1</v>
@@ -33943,10 +34108,10 @@
     </row>
     <row r="285" spans="5:8">
       <c r="E285" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="F285" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="G285">
         <v>1</v>
@@ -33957,10 +34122,10 @@
     </row>
     <row r="286" spans="5:8">
       <c r="E286" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="F286" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="G286">
         <v>1</v>
@@ -33971,10 +34136,10 @@
     </row>
     <row r="287" spans="5:8">
       <c r="E287" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="F287" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="G287">
         <v>1</v>
@@ -33985,10 +34150,10 @@
     </row>
     <row r="288" spans="5:8">
       <c r="E288" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="F288" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="G288">
         <v>1</v>
@@ -33999,10 +34164,10 @@
     </row>
     <row r="289" spans="5:8">
       <c r="E289" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="F289" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="G289">
         <v>1</v>
@@ -34013,10 +34178,10 @@
     </row>
     <row r="290" spans="5:8">
       <c r="E290" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="F290" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G290">
         <v>1</v>
@@ -34027,10 +34192,10 @@
     </row>
     <row r="291" spans="5:8">
       <c r="E291" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="F291" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="G291">
         <v>1</v>
@@ -34041,10 +34206,10 @@
     </row>
     <row r="292" spans="5:8">
       <c r="E292" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="F292" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="G292">
         <v>1</v>
@@ -34055,10 +34220,10 @@
     </row>
     <row r="293" spans="5:8">
       <c r="E293" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="F293" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="G293">
         <v>0</v>
@@ -34069,10 +34234,10 @@
     </row>
     <row r="294" spans="5:8">
       <c r="E294" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="F294" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="G294">
         <v>1</v>
@@ -34083,10 +34248,10 @@
     </row>
     <row r="295" spans="5:8">
       <c r="E295" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="F295" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="G295">
         <v>1</v>
@@ -34097,10 +34262,10 @@
     </row>
     <row r="296" spans="5:8">
       <c r="E296" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="F296" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="G296">
         <v>1</v>
@@ -34111,10 +34276,10 @@
     </row>
     <row r="297" spans="5:8">
       <c r="E297" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="F297" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="G297">
         <v>1</v>
@@ -34125,10 +34290,10 @@
     </row>
     <row r="298" spans="5:8">
       <c r="E298" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="F298" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="G298">
         <v>1</v>
@@ -34139,10 +34304,10 @@
     </row>
     <row r="299" spans="5:8">
       <c r="E299" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="F299" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="G299">
         <v>1</v>
@@ -34153,10 +34318,10 @@
     </row>
     <row r="300" spans="5:8">
       <c r="E300" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="F300" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="G300">
         <v>1</v>
@@ -34167,10 +34332,10 @@
     </row>
     <row r="301" spans="5:8">
       <c r="E301" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="F301" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="G301">
         <v>1</v>
@@ -34181,10 +34346,10 @@
     </row>
     <row r="302" spans="5:8">
       <c r="E302" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="F302" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="G302">
         <v>1</v>
@@ -34195,10 +34360,10 @@
     </row>
     <row r="303" spans="5:8">
       <c r="E303" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="F303" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="G303">
         <v>1</v>
@@ -34209,10 +34374,10 @@
     </row>
     <row r="304" spans="5:8">
       <c r="E304" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="F304" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="G304">
         <v>1</v>
@@ -34223,10 +34388,10 @@
     </row>
     <row r="305" spans="5:8">
       <c r="E305" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="F305" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G305">
         <v>1</v>
@@ -34237,10 +34402,10 @@
     </row>
     <row r="306" spans="5:8">
       <c r="E306" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="F306" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="G306">
         <v>1</v>
@@ -34251,10 +34416,10 @@
     </row>
     <row r="307" spans="5:8">
       <c r="E307" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="F307" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="G307">
         <v>1</v>
@@ -34265,10 +34430,10 @@
     </row>
     <row r="308" spans="5:8">
       <c r="E308" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="F308" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="G308">
         <v>1</v>
@@ -34279,10 +34444,10 @@
     </row>
     <row r="309" spans="5:8">
       <c r="E309" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="F309" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="G309">
         <v>1</v>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23256" windowHeight="9720" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="11268" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6077" uniqueCount="1197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6075" uniqueCount="1197">
   <si>
     <r>
       <rPr>
@@ -8049,8 +8049,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
@@ -8134,40 +8134,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -8182,7 +8157,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8196,16 +8171,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8225,6 +8192,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -8233,16 +8216,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8262,8 +8253,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8279,9 +8271,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8367,7 +8367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8379,7 +8379,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8391,25 +8469,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8421,13 +8511,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8439,67 +8529,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8511,43 +8541,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8654,6 +8654,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -8672,8 +8698,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8693,17 +8719,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8713,26 +8733,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8754,148 +8754,148 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -27294,8 +27294,8 @@
   <sheetPr/>
   <dimension ref="A1:O309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H70" workbookViewId="0">
-      <selection activeCell="J88" sqref="J88"/>
+    <sheetView tabSelected="1" topLeftCell="I159" workbookViewId="0">
+      <selection activeCell="M182" sqref="M182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -28632,8 +28632,8 @@
       <c r="J43" t="s">
         <v>704</v>
       </c>
-      <c r="K43" t="s">
-        <v>74</v>
+      <c r="K43">
+        <v>1</v>
       </c>
       <c r="L43" t="s">
         <v>719</v>
@@ -32255,8 +32255,8 @@
       <c r="L182" t="s">
         <v>75</v>
       </c>
-      <c r="M182" t="s">
-        <v>74</v>
+      <c r="M182">
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="5:13">

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12855" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -3306,7 +3306,135 @@
     <t>GitLab默认密码</t>
   </si>
   <si>
-    <t>您的GitLab仓库密码为: ${gitlabPassword}。为了您的账户安全，请尽快前往Choerodon&lt;a href='#/iam/user-info?type=site&amp;organizationId=${organizationId}'&gt;个人信息&lt;/a&gt;页面修改默认的GitLab密码</t>
+    <r>
+      <t>您的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>GitLab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仓库密码为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>${gitlabPassword}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。为了您的账户安全，请尽快前往</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Choerodon&lt;a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>href='#/rducm/personal-setting?type=site&amp;organizationId=${organizationId}'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个人设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页面修改默认的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>GitLab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>密码</t>
+    </r>
   </si>
   <si>
     <t>hmsg_message_template-70</t>
@@ -8051,12 +8179,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -8114,6 +8242,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -8131,59 +8265,100 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -8191,29 +8366,37 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -8221,76 +8404,27 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF003366"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans"/>
       <charset val="134"/>
     </font>
     <font>
@@ -8370,7 +8504,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8382,49 +8630,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8436,31 +8666,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8472,85 +8684,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8567,12 +8701,28 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -8597,6 +8747,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -8605,26 +8768,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -8639,15 +8782,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -8657,17 +8791,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8687,11 +8824,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8703,21 +8846,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8740,168 +8868,174 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -8916,10 +9050,10 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8930,112 +9064,112 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="50">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="常规 2" xfId="14"/>
+    <cellStyle name="Accent3" xfId="15" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="16" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="17" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="18" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="21" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="22" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="23" builtinId="32"/>
+    <cellStyle name="Bad" xfId="24" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="25" builtinId="42"/>
+    <cellStyle name="Total" xfId="26" builtinId="25"/>
+    <cellStyle name="Output" xfId="27" builtinId="21"/>
+    <cellStyle name="Currency" xfId="28" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="29" builtinId="38"/>
+    <cellStyle name="Note" xfId="30" builtinId="10"/>
+    <cellStyle name="Input" xfId="31" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="32" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="33" builtinId="22"/>
+    <cellStyle name="Good" xfId="34" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="35" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="36" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="37" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="38" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="41" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="42" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -9378,22 +9512,22 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5694444444444" style="12" customWidth="1"/>
-    <col min="2" max="2" width="10.2847222222222" style="13" customWidth="1"/>
-    <col min="3" max="3" width="28.1388888888889" customWidth="1"/>
-    <col min="4" max="4" width="35.2847222222222" style="11" customWidth="1"/>
-    <col min="5" max="5" width="38.5694444444444" customWidth="1"/>
-    <col min="6" max="6" width="23.4236111111111" customWidth="1"/>
-    <col min="7" max="7" width="21.5694444444444" customWidth="1"/>
+    <col min="1" max="1" width="15.5666666666667" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.2866666666667" style="13" customWidth="1"/>
+    <col min="3" max="3" width="28.14" customWidth="1"/>
+    <col min="4" max="4" width="35.2866666666667" style="10" customWidth="1"/>
+    <col min="5" max="5" width="38.5666666666667" customWidth="1"/>
+    <col min="6" max="6" width="23.4266666666667" customWidth="1"/>
+    <col min="7" max="7" width="21.5666666666667" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5694444444444" customWidth="1"/>
+    <col min="9" max="9" width="24.5666666666667" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1388888888889" customWidth="1"/>
-    <col min="12" max="12" width="18.5694444444444" customWidth="1"/>
-    <col min="13" max="13" width="13.1388888888889" customWidth="1"/>
-    <col min="14" max="1025" width="10.2847222222222" customWidth="1"/>
+    <col min="11" max="11" width="19.14" customWidth="1"/>
+    <col min="12" max="12" width="18.5666666666667" customWidth="1"/>
+    <col min="13" max="13" width="13.14" customWidth="1"/>
+    <col min="14" max="1025" width="10.2866666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
@@ -9403,130 +9537,130 @@
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="17"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="20" t="s">
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" ht="24" spans="3:7">
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="36" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" ht="24" spans="1:3">
       <c r="A5" s="14"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="37" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="29"/>
-    </row>
-    <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="30" t="s">
+      <c r="E8" s="38"/>
+    </row>
+    <row r="9" ht="72" spans="3:6">
+      <c r="C9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="39" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="33" t="s">
+    <row r="10" ht="65.25" spans="3:5">
+      <c r="C10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="39" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="27" t="s">
+    <row r="11" ht="96" spans="3:5">
+      <c r="C11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="39" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="27" t="s">
+    <row r="12" ht="24" spans="3:5">
+      <c r="C12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="40" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="38"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-    </row>
-    <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="35" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="38"/>
+    </row>
+    <row r="15" ht="48" spans="3:5">
+      <c r="C15" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="41" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9535,65 +9669,65 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="38" t="s">
+    <row r="19" ht="24" spans="3:5">
+      <c r="C19" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="39" t="s">
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+    </row>
+    <row r="20" ht="24" spans="3:4">
+      <c r="C20" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="39" t="s">
+    <row r="21" ht="24" spans="3:4">
+      <c r="C21" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="39" t="s">
+    <row r="22" ht="24" spans="3:4">
+      <c r="C22" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="39" t="s">
+    <row r="23" ht="24" spans="3:4">
+      <c r="C23" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="18"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="18"/>
-    </row>
-    <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="41" t="s">
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" ht="41.25" spans="3:3">
+      <c r="C27" s="31" t="s">
         <v>43</v>
       </c>
     </row>
@@ -9618,24 +9752,24 @@
   <sheetPr/>
   <dimension ref="A1:Q875"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F96" workbookViewId="0">
-      <selection activeCell="A97" sqref="$A97:$XFD97"/>
+    <sheetView tabSelected="1" topLeftCell="F56" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="4" max="4" width="22.5694444444444" customWidth="1"/>
+    <col min="4" max="4" width="22.5666666666667" customWidth="1"/>
     <col min="5" max="5" width="26.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="44.8541666666667" customWidth="1"/>
-    <col min="7" max="7" width="29.4236111111111" customWidth="1"/>
-    <col min="8" max="8" width="24.2847222222222" customWidth="1"/>
-    <col min="9" max="9" width="51.1388888888889" customWidth="1"/>
+    <col min="6" max="6" width="44.8533333333333" customWidth="1"/>
+    <col min="7" max="7" width="29.4266666666667" customWidth="1"/>
+    <col min="8" max="8" width="24.2866666666667" customWidth="1"/>
+    <col min="9" max="9" width="51.14" customWidth="1"/>
     <col min="10" max="10" width="19.6666666666667" customWidth="1"/>
     <col min="11" max="11" width="27.1666666666667" customWidth="1"/>
     <col min="13" max="13" width="33.1666666666667" customWidth="1"/>
-    <col min="14" max="14" width="23.4236111111111" customWidth="1"/>
-    <col min="15" max="15" width="29.4236111111111" customWidth="1"/>
-    <col min="16" max="16" width="29.8541666666667" customWidth="1"/>
+    <col min="14" max="14" width="23.4266666666667" customWidth="1"/>
+    <col min="15" max="15" width="29.4266666666667" customWidth="1"/>
+    <col min="16" max="16" width="29.8533333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10554,7 +10688,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" ht="104.4" spans="5:17">
+    <row r="34" ht="144" spans="5:17">
       <c r="E34" t="s">
         <v>175</v>
       </c>
@@ -11188,7 +11322,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" ht="104.4" spans="5:17">
+    <row r="54" ht="144" spans="5:17">
       <c r="E54" t="s">
         <v>242</v>
       </c>
@@ -11560,7 +11694,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" ht="87" spans="5:17">
+    <row r="66" ht="120" spans="5:17">
       <c r="E66" t="s">
         <v>278</v>
       </c>
@@ -11602,7 +11736,7 @@
       <c r="H67" t="s">
         <v>284</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I67" s="10" t="s">
         <v>285</v>
       </c>
       <c r="N67" t="s">
@@ -12210,7 +12344,7 @@
       <c r="H86" t="s">
         <v>364</v>
       </c>
-      <c r="I86" s="10" t="s">
+      <c r="I86" s="11" t="s">
         <v>373</v>
       </c>
       <c r="N86" t="s">
@@ -12239,7 +12373,7 @@
       <c r="H87" t="s">
         <v>369</v>
       </c>
-      <c r="I87" s="11" t="s">
+      <c r="I87" s="10" t="s">
         <v>376</v>
       </c>
       <c r="N87" t="s">
@@ -12454,7 +12588,7 @@
       <c r="H94" t="s">
         <v>391</v>
       </c>
-      <c r="I94" s="10" t="s">
+      <c r="I94" s="11" t="s">
         <v>398</v>
       </c>
       <c r="N94" t="s">
@@ -12483,7 +12617,7 @@
       <c r="H95" t="s">
         <v>394</v>
       </c>
-      <c r="I95" s="11" t="s">
+      <c r="I95" s="10" t="s">
         <v>401</v>
       </c>
       <c r="N95" t="s">
@@ -12650,7 +12784,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="101" ht="104.4" spans="5:17">
+    <row r="101" ht="120" spans="5:17">
       <c r="E101" t="s">
         <v>418</v>
       </c>
@@ -12795,7 +12929,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="106" ht="139.2" spans="5:17">
+    <row r="106" ht="151.5" spans="5:17">
       <c r="E106" t="s">
         <v>433</v>
       </c>
@@ -12917,7 +13051,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="110" ht="121.8" spans="5:17">
+    <row r="110" ht="134.25" spans="5:17">
       <c r="E110" t="s">
         <v>449</v>
       </c>
@@ -13010,7 +13144,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="113" ht="139.2" spans="5:17">
+    <row r="113" ht="158.25" spans="5:17">
       <c r="E113" t="s">
         <v>459</v>
       </c>
@@ -13103,7 +13237,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="116" ht="139.2" spans="5:17">
+    <row r="116" ht="158.25" spans="5:17">
       <c r="E116" t="s">
         <v>469</v>
       </c>
@@ -13167,7 +13301,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="118" ht="121.8" spans="5:17">
+    <row r="118" ht="168" spans="5:17">
       <c r="E118" t="s">
         <v>475</v>
       </c>
@@ -13225,7 +13359,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="120" ht="121.8" spans="5:17">
+    <row r="120" ht="168" spans="5:17">
       <c r="E120" t="s">
         <v>482</v>
       </c>
@@ -13916,7 +14050,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="143" ht="156.6" spans="5:17">
+    <row r="143" ht="192" spans="5:17">
       <c r="E143" t="s">
         <v>564</v>
       </c>
@@ -13951,7 +14085,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="144" ht="243.6" spans="5:17">
+    <row r="144" ht="336" spans="5:17">
       <c r="E144" t="s">
         <v>569</v>
       </c>
@@ -13986,7 +14120,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="145" ht="243.6" spans="5:17">
+    <row r="145" ht="336" spans="5:17">
       <c r="E145" t="s">
         <v>574</v>
       </c>
@@ -14021,7 +14155,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="146" ht="243.6" spans="5:17">
+    <row r="146" ht="336" spans="5:17">
       <c r="E146" t="s">
         <v>577</v>
       </c>
@@ -14056,7 +14190,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="147" ht="243.6" spans="5:17">
+    <row r="147" ht="336" spans="5:17">
       <c r="E147" t="s">
         <v>580</v>
       </c>
@@ -14091,7 +14225,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="148" ht="208.8" spans="5:17">
+    <row r="148" ht="288" spans="5:17">
       <c r="E148" t="s">
         <v>583</v>
       </c>
@@ -14126,7 +14260,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="149" ht="208.8" spans="5:17">
+    <row r="149" ht="288" spans="5:17">
       <c r="E149" t="s">
         <v>587</v>
       </c>
@@ -14161,7 +14295,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="150" ht="34.8" spans="5:17">
+    <row r="150" ht="48" spans="5:17">
       <c r="E150" t="s">
         <v>590</v>
       </c>
@@ -14196,7 +14330,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="151" ht="34.8" spans="5:17">
+    <row r="151" ht="48" spans="5:17">
       <c r="E151" t="s">
         <v>594</v>
       </c>
@@ -27283,21 +27417,21 @@
       <selection activeCell="M182" sqref="M182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="22.4236111111111" customWidth="1"/>
-    <col min="2" max="2" width="15.4236111111111" customWidth="1"/>
-    <col min="3" max="3" width="22.7083333333333" customWidth="1"/>
-    <col min="4" max="4" width="29.4236111111111" customWidth="1"/>
+    <col min="1" max="1" width="22.4266666666667" customWidth="1"/>
+    <col min="2" max="2" width="15.4266666666667" customWidth="1"/>
+    <col min="3" max="3" width="22.7066666666667" customWidth="1"/>
+    <col min="4" max="4" width="29.4266666666667" customWidth="1"/>
     <col min="5" max="5" width="43.6666666666667" customWidth="1"/>
-    <col min="6" max="7" width="34.4236111111111" customWidth="1"/>
-    <col min="8" max="8" width="37.9166666666667" customWidth="1"/>
-    <col min="9" max="10" width="41.4166666666667" customWidth="1"/>
+    <col min="6" max="7" width="34.4266666666667" customWidth="1"/>
+    <col min="8" max="8" width="37.92" customWidth="1"/>
+    <col min="9" max="10" width="41.42" customWidth="1"/>
     <col min="11" max="11" width="16.1666666666667" customWidth="1"/>
-    <col min="12" max="12" width="29.8541666666667" customWidth="1"/>
+    <col min="12" max="12" width="29.8533333333333" customWidth="1"/>
     <col min="13" max="13" width="24.8333333333333" customWidth="1"/>
-    <col min="14" max="14" width="17.5694444444444" customWidth="1"/>
-    <col min="15" max="15" width="15.7083333333333" customWidth="1"/>
+    <col min="14" max="14" width="17.5666666666667" customWidth="1"/>
+    <col min="15" max="15" width="15.7066666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -29811,7 +29945,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="81" ht="34.8" spans="5:15">
+    <row r="81" ht="34.5" spans="5:15">
       <c r="E81" t="s">
         <v>930</v>
       </c>
@@ -29846,7 +29980,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="82" spans="5:15">
+    <row r="82" ht="24" spans="5:15">
       <c r="E82" t="s">
         <v>934</v>
       </c>
@@ -29881,7 +30015,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="83" spans="5:15">
+    <row r="83" ht="24" spans="5:15">
       <c r="E83" t="s">
         <v>937</v>
       </c>
@@ -29916,7 +30050,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="84" spans="5:15">
+    <row r="84" ht="24" spans="5:15">
       <c r="E84" t="s">
         <v>940</v>
       </c>
@@ -29951,7 +30085,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="85" spans="5:15">
+    <row r="85" ht="24" spans="5:15">
       <c r="E85" t="s">
         <v>943</v>
       </c>
@@ -29986,7 +30120,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="86" spans="5:15">
+    <row r="86" ht="24" spans="5:15">
       <c r="E86" t="s">
         <v>946</v>
       </c>
@@ -30021,7 +30155,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="87" spans="5:15">
+    <row r="87" ht="24" spans="5:15">
       <c r="E87" t="s">
         <v>949</v>
       </c>
@@ -30056,7 +30190,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="88" spans="5:15">
+    <row r="88" ht="24" spans="5:15">
       <c r="E88" t="s">
         <v>952</v>
       </c>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new-choerodon\choerodon-message\src\main\resources\script\db\init-data\hzero_message\hzero_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43033B75-2F02-41F1-9DA7-78EFDC8076D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A0F9C6-15D0-433B-A733-8E42E6D0D9D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="597" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6058" uniqueCount="1247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6095" uniqueCount="1247">
   <si>
     <r>
       <rPr>
@@ -9679,8 +9679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q899"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="F157" sqref="F157"/>
+    <sheetView tabSelected="1" topLeftCell="G879" workbookViewId="0">
+      <selection activeCell="J881" sqref="J881:K899"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -9690,7 +9690,7 @@
     <col min="6" max="6" width="44.83203125" customWidth="1"/>
     <col min="7" max="7" width="29.4140625" customWidth="1"/>
     <col min="8" max="8" width="24.25" customWidth="1"/>
-    <col min="9" max="9" width="51.1640625" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" customWidth="1"/>
     <col min="10" max="10" width="29.33203125" customWidth="1"/>
     <col min="11" max="11" width="27.1640625" customWidth="1"/>
     <col min="13" max="13" width="33.1640625" customWidth="1"/>
@@ -27550,6 +27550,12 @@
       <c r="G882" s="37" t="s">
         <v>1174</v>
       </c>
+      <c r="J882" t="s">
+        <v>75</v>
+      </c>
+      <c r="K882" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="883" spans="5:11">
       <c r="E883" t="s">
@@ -27561,6 +27567,12 @@
       </c>
       <c r="G883" s="37" t="s">
         <v>1175</v>
+      </c>
+      <c r="J883" t="s">
+        <v>75</v>
+      </c>
+      <c r="K883" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="884" spans="5:11">
@@ -27571,6 +27583,12 @@
       <c r="G884" s="37" t="s">
         <v>1195</v>
       </c>
+      <c r="J884" t="s">
+        <v>75</v>
+      </c>
+      <c r="K884" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="885" spans="5:11">
       <c r="E885" t="s">
@@ -27583,6 +27601,12 @@
       <c r="G885" s="37" t="s">
         <v>1176</v>
       </c>
+      <c r="J885" t="s">
+        <v>75</v>
+      </c>
+      <c r="K885" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="886" spans="5:11">
       <c r="E886" t="s">
@@ -27595,6 +27619,12 @@
       <c r="G886" s="37" t="s">
         <v>1174</v>
       </c>
+      <c r="J886" t="s">
+        <v>75</v>
+      </c>
+      <c r="K886" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="887" spans="5:11">
       <c r="E887" t="s">
@@ -27607,6 +27637,12 @@
       <c r="G887" s="37" t="s">
         <v>1175</v>
       </c>
+      <c r="J887" t="s">
+        <v>75</v>
+      </c>
+      <c r="K887" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="888" spans="5:11">
       <c r="E888" t="s">
@@ -27619,6 +27655,12 @@
       <c r="G888" s="37" t="s">
         <v>1176</v>
       </c>
+      <c r="J888" t="s">
+        <v>75</v>
+      </c>
+      <c r="K888" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="889" spans="5:11">
       <c r="E889" t="s">
@@ -27631,6 +27673,12 @@
       <c r="G889" s="37" t="s">
         <v>1195</v>
       </c>
+      <c r="J889" t="s">
+        <v>75</v>
+      </c>
+      <c r="K889" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="890" spans="5:11">
       <c r="E890" t="s">
@@ -27643,6 +27691,12 @@
       <c r="G890" s="37" t="s">
         <v>1176</v>
       </c>
+      <c r="J890" t="s">
+        <v>75</v>
+      </c>
+      <c r="K890" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="891" spans="5:11">
       <c r="E891" t="s">
@@ -27655,6 +27709,12 @@
       <c r="G891" s="37" t="s">
         <v>1195</v>
       </c>
+      <c r="J891" t="s">
+        <v>75</v>
+      </c>
+      <c r="K891" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="892" spans="5:11">
       <c r="E892" t="s">
@@ -27667,6 +27727,12 @@
       <c r="G892" s="37" t="s">
         <v>1196</v>
       </c>
+      <c r="J892" t="s">
+        <v>75</v>
+      </c>
+      <c r="K892" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="893" spans="5:11">
       <c r="E893" t="s">
@@ -27679,6 +27745,12 @@
       <c r="G893" s="37" t="s">
         <v>1176</v>
       </c>
+      <c r="J893" t="s">
+        <v>75</v>
+      </c>
+      <c r="K893" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="894" spans="5:11">
       <c r="E894" t="s">
@@ -27691,6 +27763,12 @@
       <c r="G894" s="37" t="s">
         <v>1195</v>
       </c>
+      <c r="J894" t="s">
+        <v>75</v>
+      </c>
+      <c r="K894" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="895" spans="5:11">
       <c r="E895" t="s">
@@ -27703,6 +27781,12 @@
       <c r="G895" s="37" t="s">
         <v>1196</v>
       </c>
+      <c r="J895" t="s">
+        <v>75</v>
+      </c>
+      <c r="K895" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="896" spans="5:11">
       <c r="E896" t="s">
@@ -27715,8 +27799,14 @@
       <c r="G896" s="37" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="897" spans="5:7">
+      <c r="J896" t="s">
+        <v>75</v>
+      </c>
+      <c r="K896" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="897" spans="5:11">
       <c r="E897" t="s">
         <v>603</v>
       </c>
@@ -27727,8 +27817,14 @@
       <c r="G897" s="37" t="s">
         <v>1195</v>
       </c>
-    </row>
-    <row r="898" spans="5:7">
+      <c r="J897" t="s">
+        <v>75</v>
+      </c>
+      <c r="K897" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="898" spans="5:11">
       <c r="E898" t="s">
         <v>603</v>
       </c>
@@ -27739,8 +27835,14 @@
       <c r="G898" s="37" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="899" spans="5:7">
+      <c r="J898" t="s">
+        <v>75</v>
+      </c>
+      <c r="K898" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="899" spans="5:11">
       <c r="E899" t="s">
         <v>603</v>
       </c>
@@ -27750,6 +27852,12 @@
       </c>
       <c r="G899" s="37" t="s">
         <v>1195</v>
+      </c>
+      <c r="J899" t="s">
+        <v>75</v>
+      </c>
+      <c r="K899" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -27762,7 +27870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D39" workbookViewId="0">
+    <sheetView topLeftCell="F73" workbookViewId="0">
       <selection activeCell="M69" sqref="M69"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new-choerodon\choerodon-message\src\main\resources\script\db\init-data\hzero_message\hzero_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A0F9C6-15D0-433B-A733-8E42E6D0D9D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5709086-46AF-41D2-A280-A233B3441BD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6095" uniqueCount="1247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6096" uniqueCount="1247">
   <si>
     <r>
       <rPr>
@@ -9679,8 +9679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q899"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G879" workbookViewId="0">
-      <selection activeCell="J881" sqref="J881:K899"/>
+    <sheetView tabSelected="1" topLeftCell="A878" workbookViewId="0">
+      <selection activeCell="E883" sqref="E883:E884"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -10056,7 +10056,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="5:17" ht="104.4">
+    <row r="17" spans="5:17" ht="191.4">
       <c r="E17" t="s">
         <v>110</v>
       </c>
@@ -10615,7 +10615,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="5:17" ht="104.4">
+    <row r="34" spans="5:17" ht="191.4">
       <c r="E34" t="s">
         <v>174</v>
       </c>
@@ -11249,7 +11249,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="5:17" ht="104.4">
+    <row r="54" spans="5:17" ht="191.4">
       <c r="E54" t="s">
         <v>241</v>
       </c>
@@ -11621,7 +11621,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="5:17" ht="87">
+    <row r="66" spans="5:17" ht="174">
       <c r="E66" t="s">
         <v>277</v>
       </c>
@@ -12711,7 +12711,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="101" spans="5:17" ht="104.4">
+    <row r="101" spans="5:17" ht="208.8">
       <c r="E101" t="s">
         <v>417</v>
       </c>
@@ -12856,7 +12856,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="5:17" ht="139.19999999999999">
+    <row r="106" spans="5:17" ht="226.2">
       <c r="E106" t="s">
         <v>432</v>
       </c>
@@ -12978,7 +12978,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="110" spans="5:17" ht="121.8">
+    <row r="110" spans="5:17" ht="208.8">
       <c r="E110" t="s">
         <v>448</v>
       </c>
@@ -13071,7 +13071,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="113" spans="5:17" ht="139.19999999999999">
+    <row r="113" spans="5:17" ht="261">
       <c r="E113" t="s">
         <v>458</v>
       </c>
@@ -13164,7 +13164,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="116" spans="5:17" ht="139.19999999999999">
+    <row r="116" spans="5:17" ht="243.6">
       <c r="E116" t="s">
         <v>468</v>
       </c>
@@ -13228,7 +13228,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="118" spans="5:17" ht="121.8">
+    <row r="118" spans="5:17" ht="191.4">
       <c r="E118" t="s">
         <v>474</v>
       </c>
@@ -13286,7 +13286,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="120" spans="5:17" ht="121.8">
+    <row r="120" spans="5:17" ht="191.4">
       <c r="E120" t="s">
         <v>481</v>
       </c>
@@ -13977,7 +13977,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="143" spans="5:17" ht="156.6">
+    <row r="143" spans="5:17" ht="243.6">
       <c r="E143" t="s">
         <v>563</v>
       </c>
@@ -14012,7 +14012,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="144" spans="5:17" ht="243.6">
+    <row r="144" spans="5:17" ht="365.4">
       <c r="E144" t="s">
         <v>568</v>
       </c>
@@ -14047,7 +14047,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="145" spans="1:17" ht="243.6">
+    <row r="145" spans="1:17" ht="365.4">
       <c r="E145" t="s">
         <v>573</v>
       </c>
@@ -14082,7 +14082,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="146" spans="1:17" ht="243.6">
+    <row r="146" spans="1:17" ht="365.4">
       <c r="E146" t="s">
         <v>576</v>
       </c>
@@ -14117,7 +14117,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="147" spans="1:17" ht="243.6">
+    <row r="147" spans="1:17" ht="365.4">
       <c r="E147" t="s">
         <v>579</v>
       </c>
@@ -14152,7 +14152,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="148" spans="1:17" ht="208.8">
+    <row r="148" spans="1:17" ht="278.39999999999998">
       <c r="E148" t="s">
         <v>582</v>
       </c>
@@ -14187,7 +14187,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="149" spans="1:17" ht="208.8">
+    <row r="149" spans="1:17" ht="278.39999999999998">
       <c r="E149" t="s">
         <v>586</v>
       </c>
@@ -14222,7 +14222,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="150" spans="1:17" ht="34.799999999999997">
+    <row r="150" spans="1:17" ht="87">
       <c r="E150" t="s">
         <v>589</v>
       </c>
@@ -14257,7 +14257,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="151" spans="1:17" ht="34.799999999999997">
+    <row r="151" spans="1:17" ht="87">
       <c r="E151" s="37" t="s">
         <v>1170</v>
       </c>
@@ -14292,7 +14292,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="152" spans="1:17" ht="69.599999999999994">
+    <row r="152" spans="1:17" ht="104.4">
       <c r="E152" s="37" t="s">
         <v>1172</v>
       </c>
@@ -14327,7 +14327,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="153" spans="1:17" ht="139.19999999999999">
+    <row r="153" spans="1:17" ht="191.4">
       <c r="E153" s="37" t="s">
         <v>1173</v>
       </c>
@@ -14362,7 +14362,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="154" spans="1:17" ht="87">
+    <row r="154" spans="1:17" ht="139.19999999999999">
       <c r="E154" s="37" t="s">
         <v>1189</v>
       </c>
@@ -14397,7 +14397,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="155" spans="1:17" ht="139.19999999999999">
+    <row r="155" spans="1:17" ht="243.6">
       <c r="E155" s="37" t="s">
         <v>1190</v>
       </c>
@@ -14432,7 +14432,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="156" spans="1:17" ht="52.2">
+    <row r="156" spans="1:17" ht="87">
       <c r="E156" s="37" t="s">
         <v>1191</v>
       </c>
@@ -14467,7 +14467,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="157" spans="1:17" ht="87">
+    <row r="157" spans="1:17" ht="191.4">
       <c r="E157" s="37" t="s">
         <v>1192</v>
       </c>
@@ -27576,6 +27576,9 @@
       </c>
     </row>
     <row r="884" spans="5:11">
+      <c r="E884" t="s">
+        <v>603</v>
+      </c>
       <c r="F884" t="str">
         <f>E152</f>
         <v>hmsg_message_template-164</v>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new-choerodon\choerodon-message\src\main\resources\script\db\init-data\hzero_message\hzero_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5709086-46AF-41D2-A280-A233B3441BD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CF0672-9BF3-4641-A837-7A05CBB02827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6096" uniqueCount="1247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6096" uniqueCount="1248">
   <si>
     <r>
       <rPr>
@@ -8361,10 +8361,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>市场应用审核</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>default</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -8536,6 +8532,13 @@
   <si>
     <t>RDUCM_MEMBER</t>
     <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>MARKET_APP</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场应用通知</t>
   </si>
 </sst>
 </file>
@@ -9507,7 +9510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13CA427-A6FB-45E9-BDE8-D460F2D5C273}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -9545,52 +9548,52 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>1213</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>1214</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>1215</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" t="s">
         <v>1216</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>1217</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>1218</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>1219</v>
-      </c>
-      <c r="J7" t="s">
-        <v>1220</v>
       </c>
       <c r="K7" t="s">
         <v>943</v>
       </c>
       <c r="L7" t="s">
+        <v>1220</v>
+      </c>
+      <c r="M7" t="s">
         <v>1221</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>1222</v>
-      </c>
-      <c r="N7" t="s">
-        <v>1223</v>
       </c>
       <c r="O7" t="s">
         <v>64</v>
       </c>
       <c r="P7" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>601</v>
@@ -9601,34 +9604,34 @@
     </row>
     <row r="8" spans="1:18">
       <c r="E8" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F8" t="s">
         <v>946</v>
       </c>
       <c r="G8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H8" t="s">
         <v>1226</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>1227</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>1228</v>
-      </c>
-      <c r="J8" t="s">
-        <v>1229</v>
       </c>
       <c r="K8">
         <v>3</v>
       </c>
       <c r="L8" t="s">
+        <v>1229</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1229</v>
+      </c>
+      <c r="N8" t="s">
         <v>1230</v>
-      </c>
-      <c r="M8" t="s">
-        <v>1230</v>
-      </c>
-      <c r="N8" t="s">
-        <v>1231</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -9642,28 +9645,28 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B10" t="s">
         <v>51</v>
       </c>
       <c r="C10" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>1232</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>1233</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>1234</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>1235</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" t="s">
         <v>1236</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1237</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>65</v>
@@ -9679,7 +9682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q899"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A878" workbookViewId="0">
+    <sheetView topLeftCell="H21" workbookViewId="0">
       <selection activeCell="E883" sqref="E883:E884"/>
     </sheetView>
   </sheetViews>
@@ -14338,7 +14341,7 @@
         <v>1163</v>
       </c>
       <c r="H153" s="37" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="I153" s="38" t="s">
         <v>1193</v>
@@ -27873,8 +27876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O292"/>
   <sheetViews>
-    <sheetView topLeftCell="F73" workbookViewId="0">
-      <selection activeCell="M69" sqref="M69"/>
+    <sheetView topLeftCell="I62" workbookViewId="0">
+      <selection activeCell="M78" sqref="M78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -30070,7 +30073,7 @@
     </row>
     <row r="68" spans="5:15">
       <c r="E68" s="37" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="F68" t="s">
         <v>75</v>
@@ -30079,10 +30082,10 @@
         <v>0</v>
       </c>
       <c r="H68" s="37" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I68" s="37" t="s">
         <v>1241</v>
-      </c>
-      <c r="I68" s="37" t="s">
-        <v>1242</v>
       </c>
       <c r="J68" t="s">
         <v>703</v>
@@ -30091,16 +30094,16 @@
         <v>74</v>
       </c>
       <c r="L68" s="37" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="M68" s="37" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="N68" t="s">
         <v>75</v>
       </c>
       <c r="O68" s="37" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="69" spans="5:15">
@@ -30117,7 +30120,7 @@
         <v>908</v>
       </c>
       <c r="I69" s="37" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="J69" t="s">
         <v>703</v>
@@ -30126,16 +30129,16 @@
         <v>74</v>
       </c>
       <c r="L69" s="37" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="M69" s="37" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="N69" t="s">
         <v>75</v>
       </c>
       <c r="O69" s="37" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="70" spans="5:15" ht="34.799999999999997">
@@ -30400,13 +30403,13 @@
         <v>933</v>
       </c>
       <c r="J77" s="37" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K77">
         <v>1</v>
       </c>
       <c r="L77" s="38" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="M77" t="s">
         <v>750</v>
@@ -30420,7 +30423,7 @@
     </row>
     <row r="78" spans="5:15">
       <c r="E78" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -30429,22 +30432,22 @@
         <v>0</v>
       </c>
       <c r="H78" s="37" t="s">
-        <v>1159</v>
+        <v>1246</v>
       </c>
       <c r="I78" s="38" t="s">
+        <v>1247</v>
+      </c>
+      <c r="J78" s="37" t="s">
         <v>1197</v>
-      </c>
-      <c r="J78" s="37" t="s">
-        <v>1198</v>
       </c>
       <c r="K78">
         <v>1</v>
       </c>
       <c r="L78" s="38" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="M78" s="37" t="s">
-        <v>1159</v>
+        <v>1246</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -30455,7 +30458,7 @@
     </row>
     <row r="79" spans="5:15">
       <c r="E79" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -30470,16 +30473,16 @@
         <v>1178</v>
       </c>
       <c r="J79" s="37" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K79">
         <v>1</v>
       </c>
       <c r="L79" s="38" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="M79" s="37" t="s">
-        <v>1179</v>
+        <v>1246</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -30490,7 +30493,7 @@
     </row>
     <row r="80" spans="5:15" ht="16.8" customHeight="1">
       <c r="E80" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -30505,16 +30508,16 @@
         <v>1182</v>
       </c>
       <c r="J80" s="37" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K80">
         <v>1</v>
       </c>
       <c r="L80" s="38" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="M80" s="37" t="s">
-        <v>1186</v>
+        <v>1246</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -32466,7 +32469,7 @@
         <v>hmsg_email_server-9</v>
       </c>
       <c r="K164" s="37" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="L164" t="s">
         <v>75</v>
@@ -33550,14 +33553,14 @@
     </row>
     <row r="215" spans="1:13">
       <c r="E215" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="F215" t="str">
         <f>E78</f>
         <v>hmsg_template_server-97</v>
       </c>
       <c r="G215" s="37" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="H215" s="37" t="s">
         <v>1161</v>
@@ -33578,14 +33581,14 @@
     </row>
     <row r="216" spans="1:13">
       <c r="E216" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F216" t="str">
         <f>E78</f>
         <v>hmsg_template_server-97</v>
       </c>
       <c r="G216" s="37" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="H216" s="37" t="s">
         <v>1169</v>
@@ -33599,7 +33602,7 @@
     </row>
     <row r="217" spans="1:13">
       <c r="E217" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="F217" t="str">
         <f>E79</f>
@@ -33627,7 +33630,7 @@
     </row>
     <row r="218" spans="1:13">
       <c r="E218" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="F218" t="str">
         <f>E79</f>
@@ -33648,7 +33651,7 @@
     </row>
     <row r="219" spans="1:13">
       <c r="E219" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="F219" t="str">
         <f>E80</f>
@@ -33676,7 +33679,7 @@
     </row>
     <row r="220" spans="1:13">
       <c r="E220" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F220" t="str">
         <f>E80</f>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new-choerodon\choerodon-message\src\main\resources\script\db\init-data\hzero_message\hzero_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CF0672-9BF3-4641-A837-7A05CBB02827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4E38B3-85E9-4AD1-90FB-E9CE64D7D66B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="597" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6096" uniqueCount="1248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6096" uniqueCount="1247">
   <si>
     <r>
       <rPr>
@@ -8536,9 +8536,6 @@
   <si>
     <t>MARKET_APP</t>
     <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场应用通知</t>
   </si>
 </sst>
 </file>
@@ -9510,7 +9507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13CA427-A6FB-45E9-BDE8-D460F2D5C273}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -9682,7 +9679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q899"/>
   <sheetViews>
-    <sheetView topLeftCell="H21" workbookViewId="0">
+    <sheetView topLeftCell="A185" workbookViewId="0">
       <selection activeCell="E883" sqref="E883:E884"/>
     </sheetView>
   </sheetViews>
@@ -27876,8 +27873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O292"/>
   <sheetViews>
-    <sheetView topLeftCell="I62" workbookViewId="0">
-      <selection activeCell="M78" sqref="M78"/>
+    <sheetView tabSelected="1" topLeftCell="H74" workbookViewId="0">
+      <selection activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -30435,7 +30432,7 @@
         <v>1246</v>
       </c>
       <c r="I78" s="38" t="s">
-        <v>1247</v>
+        <v>1163</v>
       </c>
       <c r="J78" s="37" t="s">
         <v>1197</v>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new-choerodon\choerodon-message\src\main\resources\script\db\init-data\hzero_message\hzero_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4E38B3-85E9-4AD1-90FB-E9CE64D7D66B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933C45BA-0C1E-4426-BA28-FBDD78A97CB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="597" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27873,8 +27873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H74" workbookViewId="0">
-      <selection activeCell="I78" sqref="I78"/>
+    <sheetView tabSelected="1" topLeftCell="H68" workbookViewId="0">
+      <selection activeCell="M78" sqref="M78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -30429,7 +30429,7 @@
         <v>0</v>
       </c>
       <c r="H78" s="37" t="s">
-        <v>1246</v>
+        <v>1159</v>
       </c>
       <c r="I78" s="38" t="s">
         <v>1163</v>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new-choerodon\choerodon-message\src\main\resources\script\db\init-data\hzero_message\hzero_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE37D22A-115C-474B-8E5D-E27DAE0A55FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CC031D-F8B5-4040-B996-91E5674EA908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="597" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6526" uniqueCount="1328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6526" uniqueCount="1329">
   <si>
     <r>
       <rPr>
@@ -8846,6 +8846,10 @@
   </si>
   <si>
     <t>hmsg_template_server_line-266</t>
+  </si>
+  <si>
+    <t>新版本/修复版本审核通知</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10009,8 +10013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q963"/>
   <sheetViews>
-    <sheetView topLeftCell="E172" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E761" sqref="E761"/>
+    <sheetView topLeftCell="E151" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G152" sqref="G152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -14630,7 +14634,7 @@
         <v>1159</v>
       </c>
       <c r="G152" s="40" t="s">
-        <v>1161</v>
+        <v>1328</v>
       </c>
       <c r="H152" s="39" t="s">
         <v>1161</v>
@@ -14665,7 +14669,7 @@
         <v>1166</v>
       </c>
       <c r="G153" s="40" t="s">
-        <v>1161</v>
+        <v>1328</v>
       </c>
       <c r="H153" s="39" t="s">
         <v>1186</v>
@@ -29594,8 +29598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O90" sqref="O90"/>
+    <sheetView tabSelected="1" topLeftCell="L71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O78" sqref="O78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -32139,7 +32143,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="78" spans="5:15">
+    <row r="78" spans="5:15" ht="34.799999999999997">
       <c r="E78" t="s">
         <v>1188</v>
       </c>
@@ -32171,7 +32175,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="38" t="s">
-        <v>1161</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="79" spans="5:15" ht="34.799999999999997">

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new-choerodon\choerodon-message\src\main\resources\script\db\init-data\hzero_message\hzero_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CC031D-F8B5-4040-B996-91E5674EA908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266389B9-3D5F-40F8-B0B1-D2248D26BF8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="597" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -8482,13 +8482,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;p&gt;市场应用审核者，您好，
-【组织：${tenantName}-项目：${projectName}】提交了应用“${marketAppName}”-版本“${marketAppVersion}”的发布申请，请尽快审核。
-&lt;a href=#/devops/app-service?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情&lt;/a&gt;
-&lt;/p&gt;</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;p&gt;亲爱的应用管理者，您好！
 很遗憾，您提交的应用“${marketAppName}”-版本“${marketAppVersion}”的发布申请，未通过审核。不通过原因为：
 ${rejectedMsg}
@@ -8508,11 +8501,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;p&gt;亲爱的应用管理者，您好！
-您提交的应用“${marketAppName}”-版本“${marketAppVersion}”的发布申请，已通过审核。&lt;a href=#/devops/app-service?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情（点击后跳转至应用发布界面）。&lt;/p&gt;</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>市场应用审核</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -8522,22 +8510,12 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;p&gt;市场应用审核者，您好，
-【组织：${tenantName}-项目：${projectName}】提交了应用“${marketAppName}”的信息修改申请，请尽快审核。&lt;a href=#/devops/app-service?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情（点击后跳转至审核界面）。&lt;/p&gt;</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>下架审核</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>&lt;p&gt;市场应用审核者，您好，
 【组织：${tenantName}-项目：${projectName}】提交了应用“${marketAppName}”-版本“${marketAppVersion}”的下架申请，请尽快审核。&lt;/p&gt;</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;市场应用审核者，您好，
-【组织：${tenantName}-项目：${projectName}】提交了应用“${marketAppName}”-版本“${marketAppVersion}”的下架申请，请尽快审核。&lt;a href=#/devops/app-service?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情（点击后跳转至审核界面）。&lt;/p&gt;</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
@@ -8572,13 +8550,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;p&gt;亲爱的应用管理者，您好！
-很遗憾，您提交的应用“${marketAppName}”的信息修改申请，未通过审核。不通过原因为：
-${rejectedMsg}
-请修改后，再次申请。&lt;a href=#/devops/app-service?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情（点击后跳转至应用发布界面）。&lt;/a&gt;&lt;/p&gt;</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>修改应用信息/版本信息（通过）</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -8600,11 +8571,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;p&gt;亲爱的应用管理者，您好！
-您提交的应用“${marketAppName}”的信息修改，已通过审核。&lt;a href=#/devops/app-service?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情（点击后跳转至应用发布界面）。&lt;/p&gt;</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>MARKET_APP_MODIFY_AUDIT.EMAIL</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -8638,13 +8604,6 @@
   </si>
   <si>
     <t>应用下架申请（驳回）</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;亲爱的应用管理者，您好！
-很遗憾，您提交的应用“${marketAppName}”-版本“${marketAppVersion}”的下架申请，未通过审核。不通过原因为：
-${rejectedMsg}
-请修改后，再次申请。&lt;a href=#/devops/app-service?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情（点击后跳转至应用发布界面）。&lt;/a&gt;&lt;/p&gt;</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
@@ -8697,16 +8656,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;p&gt;亲爱的应用管理者，您好！
-您提交的应用“${marketAppName}”-版本“${marketAppVersion}”的下架申请，已通过审核。&lt;a href=#/devops/app-service?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情（点击后跳转至应用发布界面）。&lt;/a&gt;&lt;/p&gt;</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;亲爱的应用管理者，您好！
-您提交的应用“${marketAppName}”-版本“${marketAppVersion}”发布制品失败，请前往【应用发布】界面重试事务。&lt;a href=#/devops/app-service?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情（点击后跳转至应用发布界面）。&lt;/a&gt;&lt;/p&gt;</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>hmsg_message_template-165</t>
   </si>
   <si>
@@ -8849,6 +8798,57 @@
   </si>
   <si>
     <t>新版本/修复版本审核通知</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;市场应用审核者，您好，
+【组织：${tenantName}-项目：${projectName}】提交了应用“${marketAppName}”的信息修改申请，请尽快审核。&lt;a href=#/market/app-review&gt;查看详情（点击后跳转至审核界面）。&lt;/p&gt;</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;市场应用审核者，您好，
+【组织：${tenantName}-项目：${projectName}】提交了应用“${marketAppName}”-版本“${marketAppVersion}”的发布申请，请尽快审核。
+&lt;a href=#/market/app-review&gt;查看详情&lt;/a&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;市场应用审核者，您好，
+【组织：${tenantName}-项目：${projectName}】提交了应用“${marketAppName}”-版本“${marketAppVersion}”的下架申请，请尽快审核。&lt;a href=#/market/app-review&gt;查看详情（点击后跳转至审核界面）。&lt;/p&gt;</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;亲爱的应用管理者，您好！
+您提交的应用“${marketAppName}”-版本“${marketAppVersion}”的发布申请，已通过审核。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情（点击后跳转至应用发布界面）。&lt;/p&gt;</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;亲爱的应用管理者，您好！
+很遗憾，您提交的应用“${marketAppName}”的信息修改申请，未通过审核。不通过原因为：
+${rejectedMsg}
+请修改后，再次申请。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情（点击后跳转至应用发布界面）。&lt;/a&gt;&lt;/p&gt;</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;亲爱的应用管理者，您好！
+您提交的应用“${marketAppName}”的信息修改，已通过审核。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情（点击后跳转至应用发布界面）。&lt;/p&gt;</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;亲爱的应用管理者，您好！
+很遗憾，您提交的应用“${marketAppName}”-版本“${marketAppVersion}”的下架申请，未通过审核。不通过原因为：
+${rejectedMsg}
+请修改后，再次申请。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情（点击后跳转至应用发布界面）。&lt;/a&gt;&lt;/p&gt;</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;亲爱的应用管理者，您好！
+您提交的应用“${marketAppName}”-版本“${marketAppVersion}”的下架申请，已通过审核。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情（点击后跳转至应用发布界面）。&lt;/a&gt;&lt;/p&gt;</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;亲爱的应用管理者，您好！
+您提交的应用“${marketAppName}”-版本“${marketAppVersion}”发布制品失败，请前往【应用发布】界面重试事务。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情（点击后跳转至应用发布界面）。&lt;/a&gt;&lt;/p&gt;</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -10013,8 +10013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q963"/>
   <sheetViews>
-    <sheetView topLeftCell="E151" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G152" sqref="G152"/>
+    <sheetView tabSelected="1" topLeftCell="E168" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I171" sqref="I171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -14634,7 +14634,7 @@
         <v>1159</v>
       </c>
       <c r="G152" s="40" t="s">
-        <v>1328</v>
+        <v>1319</v>
       </c>
       <c r="H152" s="39" t="s">
         <v>1161</v>
@@ -14661,21 +14661,21 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="153" spans="5:17" s="41" customFormat="1" ht="139.19999999999999">
+    <row r="153" spans="5:17" s="41" customFormat="1" ht="104.4">
       <c r="E153" s="39" t="s">
-        <v>1283</v>
+        <v>1274</v>
       </c>
       <c r="F153" s="39" t="s">
         <v>1166</v>
       </c>
       <c r="G153" s="40" t="s">
-        <v>1328</v>
+        <v>1319</v>
       </c>
       <c r="H153" s="39" t="s">
         <v>1186</v>
       </c>
       <c r="I153" s="40" t="s">
-        <v>1235</v>
+        <v>1321</v>
       </c>
       <c r="J153" s="39" t="s">
         <v>1163</v>
@@ -14701,16 +14701,16 @@
         <v>1179</v>
       </c>
       <c r="F154" s="39" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="G154" s="40" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="H154" s="39" t="s">
         <v>1161</v>
       </c>
       <c r="I154" s="40" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="J154" s="39" t="s">
         <v>1163</v>
@@ -14731,21 +14731,21 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="155" spans="5:17" s="41" customFormat="1" ht="121.8">
+    <row r="155" spans="5:17" s="41" customFormat="1" ht="87">
       <c r="E155" s="39" t="s">
         <v>1180</v>
       </c>
       <c r="F155" s="39" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="G155" s="40" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="H155" s="39" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="I155" s="40" t="s">
-        <v>1242</v>
+        <v>1320</v>
       </c>
       <c r="J155" s="39" t="s">
         <v>1163</v>
@@ -14771,16 +14771,16 @@
         <v>1181</v>
       </c>
       <c r="F156" s="39" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="G156" s="40" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="H156" s="39" t="s">
         <v>1161</v>
       </c>
       <c r="I156" s="40" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="J156" s="39" t="s">
         <v>1163</v>
@@ -14801,21 +14801,21 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="157" spans="5:17" s="41" customFormat="1" ht="139.19999999999999">
+    <row r="157" spans="5:17" s="41" customFormat="1" ht="104.4">
       <c r="E157" s="39" t="s">
         <v>1182</v>
       </c>
       <c r="F157" s="39" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="G157" s="40" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="H157" s="39" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="I157" s="40" t="s">
-        <v>1245</v>
+        <v>1322</v>
       </c>
       <c r="J157" s="39" t="s">
         <v>1163</v>
@@ -14838,19 +14838,19 @@
     </row>
     <row r="158" spans="5:17" s="41" customFormat="1" ht="104.4">
       <c r="E158" s="39" t="s">
-        <v>1284</v>
+        <v>1275</v>
       </c>
       <c r="F158" s="39" t="s">
         <v>1173</v>
       </c>
       <c r="G158" s="40" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="H158" s="39" t="s">
         <v>1174</v>
       </c>
       <c r="I158" s="40" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="J158" s="39" t="s">
         <v>1163</v>
@@ -14873,19 +14873,19 @@
     </row>
     <row r="159" spans="5:17" s="41" customFormat="1" ht="156.6">
       <c r="E159" s="39" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
       <c r="F159" s="39" t="s">
         <v>1175</v>
       </c>
       <c r="G159" s="40" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="H159" s="39" t="s">
         <v>1174</v>
       </c>
       <c r="I159" s="40" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="J159" s="39" t="s">
         <v>1163</v>
@@ -14908,19 +14908,19 @@
     </row>
     <row r="160" spans="5:17" s="41" customFormat="1" ht="69.599999999999994">
       <c r="E160" s="39" t="s">
-        <v>1286</v>
+        <v>1277</v>
       </c>
       <c r="F160" s="39" t="s">
         <v>1176</v>
       </c>
       <c r="G160" s="40" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="H160" s="39" t="s">
         <v>1177</v>
       </c>
       <c r="I160" s="40" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="J160" s="39" t="s">
         <v>1163</v>
@@ -14943,19 +14943,19 @@
     </row>
     <row r="161" spans="1:17" s="41" customFormat="1" ht="121.8">
       <c r="E161" s="39" t="s">
-        <v>1287</v>
+        <v>1278</v>
       </c>
       <c r="F161" s="39" t="s">
         <v>1178</v>
       </c>
       <c r="G161" s="40" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="H161" s="39" t="s">
         <v>1177</v>
       </c>
       <c r="I161" s="40" t="s">
-        <v>1239</v>
+        <v>1323</v>
       </c>
       <c r="J161" s="39" t="s">
         <v>1163</v>
@@ -14978,19 +14978,19 @@
     </row>
     <row r="162" spans="1:17" s="41" customFormat="1" ht="87">
       <c r="E162" s="39" t="s">
-        <v>1288</v>
+        <v>1279</v>
       </c>
       <c r="F162" s="39" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G162" s="40" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H162" s="39" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I162" s="40" t="s">
         <v>1248</v>
-      </c>
-      <c r="G162" s="40" t="s">
-        <v>1249</v>
-      </c>
-      <c r="H162" s="39" t="s">
-        <v>1250</v>
-      </c>
-      <c r="I162" s="40" t="s">
-        <v>1252</v>
       </c>
       <c r="J162" s="39" t="s">
         <v>1163</v>
@@ -15013,19 +15013,19 @@
     </row>
     <row r="163" spans="1:17" s="41" customFormat="1" ht="139.19999999999999">
       <c r="E163" s="39" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
       <c r="F163" s="39" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="G163" s="40" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="H163" s="39" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="I163" s="40" t="s">
-        <v>1253</v>
+        <v>1324</v>
       </c>
       <c r="J163" s="39" t="s">
         <v>1163</v>
@@ -15048,19 +15048,19 @@
     </row>
     <row r="164" spans="1:17" s="41" customFormat="1" ht="52.2">
       <c r="E164" s="39" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
       <c r="F164" s="39" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="G164" s="40" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="H164" s="39" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="I164" s="40" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="J164" s="39" t="s">
         <v>1163</v>
@@ -15083,19 +15083,19 @@
     </row>
     <row r="165" spans="1:17" s="41" customFormat="1" ht="104.4">
       <c r="E165" s="39" t="s">
-        <v>1291</v>
+        <v>1282</v>
       </c>
       <c r="F165" s="39" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="G165" s="40" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="H165" s="39" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="I165" s="40" t="s">
-        <v>1259</v>
+        <v>1325</v>
       </c>
       <c r="J165" s="39" t="s">
         <v>1163</v>
@@ -15118,19 +15118,19 @@
     </row>
     <row r="166" spans="1:17" s="41" customFormat="1" ht="104.4">
       <c r="E166" s="39" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
       <c r="F166" s="39" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="G166" s="40" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="H166" s="40" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="I166" s="40" t="s">
-        <v>1270</v>
+        <v>1263</v>
       </c>
       <c r="J166" s="39" t="s">
         <v>1163</v>
@@ -15153,19 +15153,19 @@
     </row>
     <row r="167" spans="1:17" s="41" customFormat="1" ht="156.6">
       <c r="E167" s="39" t="s">
-        <v>1293</v>
+        <v>1284</v>
       </c>
       <c r="F167" s="39" t="s">
-        <v>1271</v>
+        <v>1264</v>
       </c>
       <c r="G167" s="40" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="H167" s="40" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="I167" s="40" t="s">
-        <v>1269</v>
+        <v>1326</v>
       </c>
       <c r="J167" s="39" t="s">
         <v>1163</v>
@@ -15188,19 +15188,19 @@
     </row>
     <row r="168" spans="1:17" s="41" customFormat="1" ht="69.599999999999994">
       <c r="E168" s="39" t="s">
-        <v>1294</v>
+        <v>1285</v>
       </c>
       <c r="F168" s="39" t="s">
-        <v>1272</v>
+        <v>1265</v>
       </c>
       <c r="G168" s="40" t="s">
-        <v>1274</v>
+        <v>1267</v>
       </c>
       <c r="H168" s="40" t="s">
-        <v>1275</v>
+        <v>1268</v>
       </c>
       <c r="I168" s="40" t="s">
-        <v>1276</v>
+        <v>1269</v>
       </c>
       <c r="J168" s="39" t="s">
         <v>1163</v>
@@ -15223,19 +15223,19 @@
     </row>
     <row r="169" spans="1:17" s="41" customFormat="1" ht="121.8">
       <c r="E169" s="39" t="s">
-        <v>1295</v>
+        <v>1286</v>
       </c>
       <c r="F169" s="39" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="G169" s="40" t="s">
-        <v>1274</v>
+        <v>1267</v>
       </c>
       <c r="H169" s="40" t="s">
-        <v>1275</v>
+        <v>1268</v>
       </c>
       <c r="I169" s="40" t="s">
-        <v>1281</v>
+        <v>1327</v>
       </c>
       <c r="J169" s="39" t="s">
         <v>1163</v>
@@ -15258,19 +15258,19 @@
     </row>
     <row r="170" spans="1:17" s="41" customFormat="1" ht="69.599999999999994">
       <c r="E170" s="39" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
       <c r="F170" s="39" t="s">
-        <v>1278</v>
+        <v>1271</v>
       </c>
       <c r="G170" s="40" t="s">
-        <v>1279</v>
+        <v>1272</v>
       </c>
       <c r="H170" s="40" t="s">
-        <v>1279</v>
+        <v>1272</v>
       </c>
       <c r="I170" s="40" t="s">
-        <v>1280</v>
+        <v>1273</v>
       </c>
       <c r="J170" s="39" t="s">
         <v>1163</v>
@@ -15293,19 +15293,19 @@
     </row>
     <row r="171" spans="1:17" s="41" customFormat="1" ht="121.8">
       <c r="E171" s="39" t="s">
-        <v>1297</v>
+        <v>1288</v>
       </c>
       <c r="F171" s="39" t="s">
-        <v>1277</v>
+        <v>1270</v>
       </c>
       <c r="G171" s="40" t="s">
-        <v>1279</v>
+        <v>1272</v>
       </c>
       <c r="H171" s="40" t="s">
-        <v>1279</v>
+        <v>1272</v>
       </c>
       <c r="I171" s="40" t="s">
-        <v>1282</v>
+        <v>1328</v>
       </c>
       <c r="J171" s="39" t="s">
         <v>1163</v>
@@ -29598,7 +29598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="F71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O78" sqref="O78"/>
     </sheetView>
   </sheetViews>
@@ -32175,7 +32175,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="38" t="s">
-        <v>1328</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="79" spans="5:15" ht="34.799999999999997">
@@ -32189,10 +32189,10 @@
         <v>0</v>
       </c>
       <c r="H79" s="37" t="s">
-        <v>1298</v>
+        <v>1289</v>
       </c>
       <c r="I79" s="38" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="J79" s="37" t="s">
         <v>1184</v>
@@ -32210,7 +32210,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="38" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="80" spans="5:15" ht="16.8" customHeight="1">
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="H80" s="37" t="s">
-        <v>1299</v>
+        <v>1290</v>
       </c>
       <c r="I80" s="38" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="J80" s="37" t="s">
         <v>1184</v>
@@ -32245,12 +32245,12 @@
         <v>0</v>
       </c>
       <c r="O80" s="38" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="16.8" customHeight="1">
       <c r="E81" t="s">
-        <v>1309</v>
+        <v>1300</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -32259,10 +32259,10 @@
         <v>0</v>
       </c>
       <c r="H81" s="37" t="s">
-        <v>1300</v>
+        <v>1291</v>
       </c>
       <c r="I81" s="38" t="s">
-        <v>1301</v>
+        <v>1292</v>
       </c>
       <c r="J81" s="37" t="s">
         <v>1184</v>
@@ -32280,12 +32280,12 @@
         <v>0</v>
       </c>
       <c r="O81" s="38" t="s">
-        <v>1301</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="16.8" customHeight="1">
       <c r="E82" t="s">
-        <v>1310</v>
+        <v>1301</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -32294,10 +32294,10 @@
         <v>0</v>
       </c>
       <c r="H82" s="37" t="s">
-        <v>1302</v>
+        <v>1293</v>
       </c>
       <c r="I82" s="38" t="s">
-        <v>1303</v>
+        <v>1294</v>
       </c>
       <c r="J82" s="37" t="s">
         <v>1184</v>
@@ -32315,12 +32315,12 @@
         <v>0</v>
       </c>
       <c r="O82" s="38" t="s">
-        <v>1303</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="16.8" customHeight="1">
       <c r="E83" t="s">
-        <v>1311</v>
+        <v>1302</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -32329,10 +32329,10 @@
         <v>0</v>
       </c>
       <c r="H83" s="38" t="s">
-        <v>1308</v>
+        <v>1299</v>
       </c>
       <c r="I83" s="38" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="J83" s="37" t="s">
         <v>1184</v>
@@ -32350,12 +32350,12 @@
         <v>0</v>
       </c>
       <c r="O83" s="42" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="16.8" customHeight="1">
       <c r="E84" t="s">
-        <v>1312</v>
+        <v>1303</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -32364,10 +32364,10 @@
         <v>0</v>
       </c>
       <c r="H84" s="38" t="s">
-        <v>1304</v>
+        <v>1295</v>
       </c>
       <c r="I84" s="38" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="J84" s="37" t="s">
         <v>1184</v>
@@ -32385,12 +32385,12 @@
         <v>0</v>
       </c>
       <c r="O84" s="42" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="16.8" customHeight="1">
       <c r="E85" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -32399,10 +32399,10 @@
         <v>0</v>
       </c>
       <c r="H85" s="38" t="s">
-        <v>1305</v>
+        <v>1296</v>
       </c>
       <c r="I85" s="38" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="J85" s="37" t="s">
         <v>1184</v>
@@ -32420,12 +32420,12 @@
         <v>0</v>
       </c>
       <c r="O85" s="42" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="16.8" customHeight="1">
       <c r="E86" t="s">
-        <v>1314</v>
+        <v>1305</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -32434,10 +32434,10 @@
         <v>0</v>
       </c>
       <c r="H86" s="38" t="s">
-        <v>1306</v>
+        <v>1297</v>
       </c>
       <c r="I86" s="38" t="s">
-        <v>1274</v>
+        <v>1267</v>
       </c>
       <c r="J86" s="37" t="s">
         <v>1184</v>
@@ -32455,12 +32455,12 @@
         <v>0</v>
       </c>
       <c r="O86" s="42" t="s">
-        <v>1274</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="16.8" customHeight="1">
       <c r="E87" t="s">
-        <v>1315</v>
+        <v>1306</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -32469,10 +32469,10 @@
         <v>0</v>
       </c>
       <c r="H87" s="38" t="s">
-        <v>1307</v>
+        <v>1298</v>
       </c>
       <c r="I87" s="38" t="s">
-        <v>1279</v>
+        <v>1272</v>
       </c>
       <c r="J87" s="37" t="s">
         <v>1184</v>
@@ -32490,7 +32490,7 @@
         <v>0</v>
       </c>
       <c r="O87" s="42" t="s">
-        <v>1279</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -35591,7 +35591,7 @@
         <v>944</v>
       </c>
       <c r="H224" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="I224" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -35619,7 +35619,7 @@
         <v>948</v>
       </c>
       <c r="H225" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="L225">
         <v>0</v>
@@ -35640,7 +35640,7 @@
         <v>944</v>
       </c>
       <c r="H226" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="I226" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -35668,7 +35668,7 @@
         <v>948</v>
       </c>
       <c r="H227" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="L227">
         <v>0</v>
@@ -35728,7 +35728,7 @@
     </row>
     <row r="230" spans="5:13">
       <c r="E230" t="s">
-        <v>1316</v>
+        <v>1307</v>
       </c>
       <c r="F230" t="str">
         <f>E82</f>
@@ -35756,7 +35756,7 @@
     </row>
     <row r="231" spans="5:13">
       <c r="E231" t="s">
-        <v>1317</v>
+        <v>1308</v>
       </c>
       <c r="F231" t="str">
         <f>E82</f>
@@ -35777,7 +35777,7 @@
     </row>
     <row r="232" spans="5:13">
       <c r="E232" t="s">
-        <v>1318</v>
+        <v>1309</v>
       </c>
       <c r="F232" t="str">
         <f>E83</f>
@@ -35787,7 +35787,7 @@
         <v>944</v>
       </c>
       <c r="H232" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="I232" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -35805,7 +35805,7 @@
     </row>
     <row r="233" spans="5:13">
       <c r="E233" t="s">
-        <v>1319</v>
+        <v>1310</v>
       </c>
       <c r="F233" t="str">
         <f>E83</f>
@@ -35815,7 +35815,7 @@
         <v>948</v>
       </c>
       <c r="H233" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="L233">
         <v>0</v>
@@ -35826,7 +35826,7 @@
     </row>
     <row r="234" spans="5:13">
       <c r="E234" t="s">
-        <v>1320</v>
+        <v>1311</v>
       </c>
       <c r="F234" t="str">
         <f>E84</f>
@@ -35836,7 +35836,7 @@
         <v>944</v>
       </c>
       <c r="H234" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="I234" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -35854,7 +35854,7 @@
     </row>
     <row r="235" spans="5:13">
       <c r="E235" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
       <c r="F235" t="str">
         <f>E84</f>
@@ -35864,7 +35864,7 @@
         <v>948</v>
       </c>
       <c r="H235" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="L235">
         <v>0</v>
@@ -35875,7 +35875,7 @@
     </row>
     <row r="236" spans="5:13">
       <c r="E236" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
       <c r="F236" t="str">
         <f>E85</f>
@@ -35885,7 +35885,7 @@
         <v>944</v>
       </c>
       <c r="H236" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="I236" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -35903,7 +35903,7 @@
     </row>
     <row r="237" spans="5:13">
       <c r="E237" t="s">
-        <v>1323</v>
+        <v>1314</v>
       </c>
       <c r="F237" t="str">
         <f>E85</f>
@@ -35913,7 +35913,7 @@
         <v>948</v>
       </c>
       <c r="H237" t="s">
-        <v>1271</v>
+        <v>1264</v>
       </c>
       <c r="L237">
         <v>0</v>
@@ -35924,7 +35924,7 @@
     </row>
     <row r="238" spans="5:13">
       <c r="E238" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
       <c r="F238" t="str">
         <f>E86</f>
@@ -35934,7 +35934,7 @@
         <v>944</v>
       </c>
       <c r="H238" t="s">
-        <v>1272</v>
+        <v>1265</v>
       </c>
       <c r="I238" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -35952,7 +35952,7 @@
     </row>
     <row r="239" spans="5:13">
       <c r="E239" t="s">
-        <v>1325</v>
+        <v>1316</v>
       </c>
       <c r="F239" t="str">
         <f>E86</f>
@@ -35962,7 +35962,7 @@
         <v>948</v>
       </c>
       <c r="H239" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="L239">
         <v>0</v>
@@ -35973,7 +35973,7 @@
     </row>
     <row r="240" spans="5:13" ht="18" customHeight="1">
       <c r="E240" t="s">
-        <v>1326</v>
+        <v>1317</v>
       </c>
       <c r="F240" t="str">
         <f>E87</f>
@@ -35983,7 +35983,7 @@
         <v>944</v>
       </c>
       <c r="H240" t="s">
-        <v>1278</v>
+        <v>1271</v>
       </c>
       <c r="I240" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -36001,7 +36001,7 @@
     </row>
     <row r="241" spans="1:13">
       <c r="E241" t="s">
-        <v>1327</v>
+        <v>1318</v>
       </c>
       <c r="F241" t="str">
         <f>E87</f>
@@ -36011,7 +36011,7 @@
         <v>948</v>
       </c>
       <c r="H241" t="s">
-        <v>1277</v>
+        <v>1270</v>
       </c>
       <c r="L241">
         <v>0</v>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new-choerodon\choerodon-message\src\main\resources\script\db\init-data\hzero_message\hzero_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84C1D7B-D4B2-4D72-81E6-961F3C22BA78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F0AF24-9B3B-48A0-B19F-BA4DAA44DF49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6526" uniqueCount="1329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6498" uniqueCount="1330">
   <si>
     <r>
       <rPr>
@@ -8850,6 +8850,10 @@
   </si>
   <si>
     <t>hmsg_message_template-155</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIPELINESTAGEAUDIT.WEB</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -9248,6 +9252,7 @@
     <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -9263,7 +9268,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9632,11 +9636,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="14"/>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
@@ -9645,21 +9649,21 @@
       <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="45" t="s">
+      <c r="D3" s="44"/>
+      <c r="E3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="46"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="29" t="s">
         <v>4</v>
       </c>
@@ -9770,11 +9774,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="24" t="s">
@@ -9812,19 +9816,19 @@
       <c r="C25" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="43"/>
+      <c r="E25" s="44"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="43"/>
+      <c r="E26" s="44"/>
     </row>
     <row r="27" spans="3:5" ht="52.2">
       <c r="C27" s="27" t="s">
@@ -10021,10 +10025,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q963"/>
+  <dimension ref="A1:Q956"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G143" sqref="G143"/>
+    <sheetView tabSelected="1" topLeftCell="A808" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F824" sqref="F824"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -14322,11 +14326,11 @@
       </c>
     </row>
     <row r="143" spans="5:17" ht="156.6">
-      <c r="E143" s="48" t="s">
+      <c r="E143" s="43" t="s">
         <v>1328</v>
       </c>
-      <c r="F143" t="s">
-        <v>563</v>
+      <c r="F143" s="37" t="s">
+        <v>1329</v>
       </c>
       <c r="G143" s="7" t="s">
         <v>564</v>
@@ -27136,11 +27140,11 @@
         <v>601</v>
       </c>
       <c r="F827" t="str">
-        <f>E143</f>
-        <v>hmsg_message_template-155</v>
+        <f>E144</f>
+        <v>hmsg_message_template-156</v>
       </c>
       <c r="G827" t="s">
-        <v>643</v>
+        <v>608</v>
       </c>
       <c r="J827" t="s">
         <v>75</v>
@@ -27154,11 +27158,11 @@
         <v>601</v>
       </c>
       <c r="F828" t="str">
-        <f>E143</f>
-        <v>hmsg_message_template-155</v>
+        <f>E144</f>
+        <v>hmsg_message_template-156</v>
       </c>
       <c r="G828" t="s">
-        <v>646</v>
+        <v>605</v>
       </c>
       <c r="J828" t="s">
         <v>75</v>
@@ -27172,11 +27176,11 @@
         <v>601</v>
       </c>
       <c r="F829" t="str">
-        <f>E143</f>
-        <v>hmsg_message_template-155</v>
+        <f>E144</f>
+        <v>hmsg_message_template-156</v>
       </c>
       <c r="G829" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="J829" t="s">
         <v>75</v>
@@ -27190,8 +27194,8 @@
         <v>601</v>
       </c>
       <c r="F830" t="str">
-        <f>E143</f>
-        <v>hmsg_message_template-155</v>
+        <f>E144</f>
+        <v>hmsg_message_template-156</v>
       </c>
       <c r="G830" t="s">
         <v>629</v>
@@ -27208,11 +27212,11 @@
         <v>601</v>
       </c>
       <c r="F831" t="str">
-        <f>E143</f>
-        <v>hmsg_message_template-155</v>
+        <f>E144</f>
+        <v>hmsg_message_template-156</v>
       </c>
       <c r="G831" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="J831" t="s">
         <v>75</v>
@@ -27226,11 +27230,11 @@
         <v>601</v>
       </c>
       <c r="F832" t="str">
-        <f>E143</f>
-        <v>hmsg_message_template-155</v>
+        <f>E144</f>
+        <v>hmsg_message_template-156</v>
       </c>
       <c r="G832" t="s">
-        <v>642</v>
+        <v>684</v>
       </c>
       <c r="J832" t="s">
         <v>75</v>
@@ -27244,11 +27248,11 @@
         <v>601</v>
       </c>
       <c r="F833" t="str">
-        <f>E143</f>
-        <v>hmsg_message_template-155</v>
+        <f>E144</f>
+        <v>hmsg_message_template-156</v>
       </c>
       <c r="G833" t="s">
-        <v>657</v>
+        <v>677</v>
       </c>
       <c r="J833" t="s">
         <v>75</v>
@@ -27266,7 +27270,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G834" t="s">
-        <v>608</v>
+        <v>685</v>
       </c>
       <c r="J834" t="s">
         <v>75</v>
@@ -27284,7 +27288,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G835" t="s">
-        <v>605</v>
+        <v>626</v>
       </c>
       <c r="J835" t="s">
         <v>75</v>
@@ -27302,7 +27306,7 @@
         <v>hmsg_message_template-156</v>
       </c>
       <c r="G836" t="s">
-        <v>606</v>
+        <v>686</v>
       </c>
       <c r="J836" t="s">
         <v>75</v>
@@ -27316,11 +27320,11 @@
         <v>601</v>
       </c>
       <c r="F837" t="str">
-        <f>E144</f>
-        <v>hmsg_message_template-156</v>
+        <f>E145</f>
+        <v>hmsg_message_template-157</v>
       </c>
       <c r="G837" t="s">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="J837" t="s">
         <v>75</v>
@@ -27334,11 +27338,11 @@
         <v>601</v>
       </c>
       <c r="F838" t="str">
-        <f>E144</f>
-        <v>hmsg_message_template-156</v>
+        <f>E145</f>
+        <v>hmsg_message_template-157</v>
       </c>
       <c r="G838" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="J838" t="s">
         <v>75</v>
@@ -27352,11 +27356,11 @@
         <v>601</v>
       </c>
       <c r="F839" t="str">
-        <f>E144</f>
-        <v>hmsg_message_template-156</v>
+        <f>E145</f>
+        <v>hmsg_message_template-157</v>
       </c>
       <c r="G839" t="s">
-        <v>684</v>
+        <v>606</v>
       </c>
       <c r="J839" t="s">
         <v>75</v>
@@ -27370,11 +27374,11 @@
         <v>601</v>
       </c>
       <c r="F840" t="str">
-        <f>E144</f>
-        <v>hmsg_message_template-156</v>
+        <f>E145</f>
+        <v>hmsg_message_template-157</v>
       </c>
       <c r="G840" t="s">
-        <v>677</v>
+        <v>629</v>
       </c>
       <c r="J840" t="s">
         <v>75</v>
@@ -27388,11 +27392,11 @@
         <v>601</v>
       </c>
       <c r="F841" t="str">
-        <f>E144</f>
-        <v>hmsg_message_template-156</v>
+        <f>E145</f>
+        <v>hmsg_message_template-157</v>
       </c>
       <c r="G841" t="s">
-        <v>685</v>
+        <v>621</v>
       </c>
       <c r="J841" t="s">
         <v>75</v>
@@ -27406,11 +27410,11 @@
         <v>601</v>
       </c>
       <c r="F842" t="str">
-        <f>E144</f>
-        <v>hmsg_message_template-156</v>
+        <f>E145</f>
+        <v>hmsg_message_template-157</v>
       </c>
       <c r="G842" t="s">
-        <v>626</v>
+        <v>684</v>
       </c>
       <c r="J842" t="s">
         <v>75</v>
@@ -27424,11 +27428,11 @@
         <v>601</v>
       </c>
       <c r="F843" t="str">
-        <f>E144</f>
-        <v>hmsg_message_template-156</v>
+        <f>E145</f>
+        <v>hmsg_message_template-157</v>
       </c>
       <c r="G843" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="J843" t="s">
         <v>75</v>
@@ -27446,7 +27450,7 @@
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G844" t="s">
-        <v>608</v>
+        <v>685</v>
       </c>
       <c r="J844" t="s">
         <v>75</v>
@@ -27464,7 +27468,7 @@
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G845" t="s">
-        <v>605</v>
+        <v>626</v>
       </c>
       <c r="J845" t="s">
         <v>75</v>
@@ -27482,7 +27486,7 @@
         <v>hmsg_message_template-157</v>
       </c>
       <c r="G846" t="s">
-        <v>606</v>
+        <v>686</v>
       </c>
       <c r="J846" t="s">
         <v>75</v>
@@ -27496,11 +27500,11 @@
         <v>601</v>
       </c>
       <c r="F847" t="str">
-        <f>E145</f>
-        <v>hmsg_message_template-157</v>
+        <f>E146</f>
+        <v>hmsg_message_template-158</v>
       </c>
       <c r="G847" t="s">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="J847" t="s">
         <v>75</v>
@@ -27514,11 +27518,11 @@
         <v>601</v>
       </c>
       <c r="F848" t="str">
-        <f>E145</f>
-        <v>hmsg_message_template-157</v>
+        <f>E146</f>
+        <v>hmsg_message_template-158</v>
       </c>
       <c r="G848" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="J848" t="s">
         <v>75</v>
@@ -27532,11 +27536,11 @@
         <v>601</v>
       </c>
       <c r="F849" t="str">
-        <f>E145</f>
-        <v>hmsg_message_template-157</v>
+        <f>E146</f>
+        <v>hmsg_message_template-158</v>
       </c>
       <c r="G849" t="s">
-        <v>684</v>
+        <v>606</v>
       </c>
       <c r="J849" t="s">
         <v>75</v>
@@ -27550,11 +27554,11 @@
         <v>601</v>
       </c>
       <c r="F850" t="str">
-        <f>E145</f>
-        <v>hmsg_message_template-157</v>
+        <f>E146</f>
+        <v>hmsg_message_template-158</v>
       </c>
       <c r="G850" t="s">
-        <v>677</v>
+        <v>629</v>
       </c>
       <c r="J850" t="s">
         <v>75</v>
@@ -27568,11 +27572,11 @@
         <v>601</v>
       </c>
       <c r="F851" t="str">
-        <f>E145</f>
-        <v>hmsg_message_template-157</v>
+        <f>E146</f>
+        <v>hmsg_message_template-158</v>
       </c>
       <c r="G851" t="s">
-        <v>685</v>
+        <v>621</v>
       </c>
       <c r="J851" t="s">
         <v>75</v>
@@ -27586,11 +27590,11 @@
         <v>601</v>
       </c>
       <c r="F852" t="str">
-        <f>E145</f>
-        <v>hmsg_message_template-157</v>
+        <f>E146</f>
+        <v>hmsg_message_template-158</v>
       </c>
       <c r="G852" t="s">
-        <v>626</v>
+        <v>684</v>
       </c>
       <c r="J852" t="s">
         <v>75</v>
@@ -27604,11 +27608,11 @@
         <v>601</v>
       </c>
       <c r="F853" t="str">
-        <f>E145</f>
-        <v>hmsg_message_template-157</v>
+        <f>E146</f>
+        <v>hmsg_message_template-158</v>
       </c>
       <c r="G853" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="J853" t="s">
         <v>75</v>
@@ -27626,7 +27630,7 @@
         <v>hmsg_message_template-158</v>
       </c>
       <c r="G854" t="s">
-        <v>608</v>
+        <v>685</v>
       </c>
       <c r="J854" t="s">
         <v>75</v>
@@ -27644,7 +27648,7 @@
         <v>hmsg_message_template-158</v>
       </c>
       <c r="G855" t="s">
-        <v>605</v>
+        <v>626</v>
       </c>
       <c r="J855" t="s">
         <v>75</v>
@@ -27662,7 +27666,7 @@
         <v>hmsg_message_template-158</v>
       </c>
       <c r="G856" t="s">
-        <v>606</v>
+        <v>686</v>
       </c>
       <c r="J856" t="s">
         <v>75</v>
@@ -27676,11 +27680,11 @@
         <v>601</v>
       </c>
       <c r="F857" t="str">
-        <f>E146</f>
-        <v>hmsg_message_template-158</v>
+        <f>E147</f>
+        <v>hmsg_message_template-159</v>
       </c>
       <c r="G857" t="s">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="J857" t="s">
         <v>75</v>
@@ -27694,11 +27698,11 @@
         <v>601</v>
       </c>
       <c r="F858" t="str">
-        <f>E146</f>
-        <v>hmsg_message_template-158</v>
+        <f>E147</f>
+        <v>hmsg_message_template-159</v>
       </c>
       <c r="G858" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="J858" t="s">
         <v>75</v>
@@ -27712,11 +27716,11 @@
         <v>601</v>
       </c>
       <c r="F859" t="str">
-        <f>E146</f>
-        <v>hmsg_message_template-158</v>
+        <f>E147</f>
+        <v>hmsg_message_template-159</v>
       </c>
       <c r="G859" t="s">
-        <v>684</v>
+        <v>606</v>
       </c>
       <c r="J859" t="s">
         <v>75</v>
@@ -27730,11 +27734,11 @@
         <v>601</v>
       </c>
       <c r="F860" t="str">
-        <f>E146</f>
-        <v>hmsg_message_template-158</v>
+        <f>E147</f>
+        <v>hmsg_message_template-159</v>
       </c>
       <c r="G860" t="s">
-        <v>677</v>
+        <v>629</v>
       </c>
       <c r="J860" t="s">
         <v>75</v>
@@ -27748,11 +27752,11 @@
         <v>601</v>
       </c>
       <c r="F861" t="str">
-        <f>E146</f>
-        <v>hmsg_message_template-158</v>
+        <f>E147</f>
+        <v>hmsg_message_template-159</v>
       </c>
       <c r="G861" t="s">
-        <v>685</v>
+        <v>621</v>
       </c>
       <c r="J861" t="s">
         <v>75</v>
@@ -27766,11 +27770,11 @@
         <v>601</v>
       </c>
       <c r="F862" t="str">
-        <f>E146</f>
-        <v>hmsg_message_template-158</v>
+        <f>E147</f>
+        <v>hmsg_message_template-159</v>
       </c>
       <c r="G862" t="s">
-        <v>626</v>
+        <v>684</v>
       </c>
       <c r="J862" t="s">
         <v>75</v>
@@ -27784,11 +27788,11 @@
         <v>601</v>
       </c>
       <c r="F863" t="str">
-        <f>E146</f>
-        <v>hmsg_message_template-158</v>
+        <f>E147</f>
+        <v>hmsg_message_template-159</v>
       </c>
       <c r="G863" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="J863" t="s">
         <v>75</v>
@@ -27806,7 +27810,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G864" t="s">
-        <v>608</v>
+        <v>685</v>
       </c>
       <c r="J864" t="s">
         <v>75</v>
@@ -27824,7 +27828,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G865" t="s">
-        <v>605</v>
+        <v>626</v>
       </c>
       <c r="J865" t="s">
         <v>75</v>
@@ -27842,7 +27846,7 @@
         <v>hmsg_message_template-159</v>
       </c>
       <c r="G866" t="s">
-        <v>606</v>
+        <v>686</v>
       </c>
       <c r="J866" t="s">
         <v>75</v>
@@ -27856,11 +27860,11 @@
         <v>601</v>
       </c>
       <c r="F867" t="str">
-        <f>E147</f>
-        <v>hmsg_message_template-159</v>
+        <f>E148</f>
+        <v>hmsg_message_template-160</v>
       </c>
       <c r="G867" t="s">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="J867" t="s">
         <v>75</v>
@@ -27874,11 +27878,11 @@
         <v>601</v>
       </c>
       <c r="F868" t="str">
-        <f>E147</f>
-        <v>hmsg_message_template-159</v>
+        <f>E148</f>
+        <v>hmsg_message_template-160</v>
       </c>
       <c r="G868" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="J868" t="s">
         <v>75</v>
@@ -27892,11 +27896,11 @@
         <v>601</v>
       </c>
       <c r="F869" t="str">
-        <f>E147</f>
-        <v>hmsg_message_template-159</v>
+        <f>E148</f>
+        <v>hmsg_message_template-160</v>
       </c>
       <c r="G869" t="s">
-        <v>684</v>
+        <v>606</v>
       </c>
       <c r="J869" t="s">
         <v>75</v>
@@ -27910,11 +27914,11 @@
         <v>601</v>
       </c>
       <c r="F870" t="str">
-        <f>E147</f>
-        <v>hmsg_message_template-159</v>
+        <f>E148</f>
+        <v>hmsg_message_template-160</v>
       </c>
       <c r="G870" t="s">
-        <v>677</v>
+        <v>629</v>
       </c>
       <c r="J870" t="s">
         <v>75</v>
@@ -27928,11 +27932,11 @@
         <v>601</v>
       </c>
       <c r="F871" t="str">
-        <f>E147</f>
-        <v>hmsg_message_template-159</v>
+        <f>E148</f>
+        <v>hmsg_message_template-160</v>
       </c>
       <c r="G871" t="s">
-        <v>685</v>
+        <v>621</v>
       </c>
       <c r="J871" t="s">
         <v>75</v>
@@ -27946,11 +27950,11 @@
         <v>601</v>
       </c>
       <c r="F872" t="str">
-        <f>E147</f>
-        <v>hmsg_message_template-159</v>
+        <f>E148</f>
+        <v>hmsg_message_template-160</v>
       </c>
       <c r="G872" t="s">
-        <v>626</v>
+        <v>677</v>
       </c>
       <c r="J872" t="s">
         <v>75</v>
@@ -27964,11 +27968,11 @@
         <v>601</v>
       </c>
       <c r="F873" t="str">
-        <f>E147</f>
-        <v>hmsg_message_template-159</v>
+        <f>E148</f>
+        <v>hmsg_message_template-160</v>
       </c>
       <c r="G873" t="s">
-        <v>686</v>
+        <v>634</v>
       </c>
       <c r="J873" t="s">
         <v>75</v>
@@ -27986,7 +27990,7 @@
         <v>hmsg_message_template-160</v>
       </c>
       <c r="G874" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="J874" t="s">
         <v>75</v>
@@ -28000,11 +28004,11 @@
         <v>601</v>
       </c>
       <c r="F875" t="str">
-        <f>E148</f>
-        <v>hmsg_message_template-160</v>
+        <f>E149</f>
+        <v>hmsg_message_template-161</v>
       </c>
       <c r="G875" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="J875" t="s">
         <v>75</v>
@@ -28018,11 +28022,11 @@
         <v>601</v>
       </c>
       <c r="F876" t="str">
-        <f>E148</f>
-        <v>hmsg_message_template-160</v>
+        <f>E149</f>
+        <v>hmsg_message_template-161</v>
       </c>
       <c r="G876" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="J876" t="s">
         <v>75</v>
@@ -28036,11 +28040,11 @@
         <v>601</v>
       </c>
       <c r="F877" t="str">
-        <f>E148</f>
-        <v>hmsg_message_template-160</v>
+        <f>E149</f>
+        <v>hmsg_message_template-161</v>
       </c>
       <c r="G877" t="s">
-        <v>629</v>
+        <v>606</v>
       </c>
       <c r="J877" t="s">
         <v>75</v>
@@ -28054,11 +28058,11 @@
         <v>601</v>
       </c>
       <c r="F878" t="str">
-        <f>E148</f>
-        <v>hmsg_message_template-160</v>
+        <f>E149</f>
+        <v>hmsg_message_template-161</v>
       </c>
       <c r="G878" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="J878" t="s">
         <v>75</v>
@@ -28072,11 +28076,11 @@
         <v>601</v>
       </c>
       <c r="F879" t="str">
-        <f>E148</f>
-        <v>hmsg_message_template-160</v>
+        <f>E149</f>
+        <v>hmsg_message_template-161</v>
       </c>
       <c r="G879" t="s">
-        <v>677</v>
+        <v>621</v>
       </c>
       <c r="J879" t="s">
         <v>75</v>
@@ -28090,11 +28094,11 @@
         <v>601</v>
       </c>
       <c r="F880" t="str">
-        <f>E148</f>
-        <v>hmsg_message_template-160</v>
+        <f>E149</f>
+        <v>hmsg_message_template-161</v>
       </c>
       <c r="G880" t="s">
-        <v>634</v>
+        <v>677</v>
       </c>
       <c r="J880" t="s">
         <v>75</v>
@@ -28108,11 +28112,11 @@
         <v>601</v>
       </c>
       <c r="F881" t="str">
-        <f>E148</f>
-        <v>hmsg_message_template-160</v>
+        <f>E149</f>
+        <v>hmsg_message_template-161</v>
       </c>
       <c r="G881" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="J881" t="s">
         <v>75</v>
@@ -28130,7 +28134,7 @@
         <v>hmsg_message_template-161</v>
       </c>
       <c r="G882" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="J882" t="s">
         <v>75</v>
@@ -28144,11 +28148,11 @@
         <v>601</v>
       </c>
       <c r="F883" t="str">
-        <f>E149</f>
-        <v>hmsg_message_template-161</v>
+        <f>E150</f>
+        <v>hmsg_message_template-162</v>
       </c>
       <c r="G883" t="s">
-        <v>605</v>
+        <v>629</v>
       </c>
       <c r="J883" t="s">
         <v>75</v>
@@ -28162,11 +28166,11 @@
         <v>601</v>
       </c>
       <c r="F884" t="str">
-        <f>E149</f>
-        <v>hmsg_message_template-161</v>
+        <f>E150</f>
+        <v>hmsg_message_template-162</v>
       </c>
       <c r="G884" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="J884" t="s">
         <v>75</v>
@@ -28180,11 +28184,11 @@
         <v>601</v>
       </c>
       <c r="F885" t="str">
-        <f>E149</f>
-        <v>hmsg_message_template-161</v>
+        <f>E150</f>
+        <v>hmsg_message_template-162</v>
       </c>
       <c r="G885" t="s">
-        <v>629</v>
+        <v>677</v>
       </c>
       <c r="J885" t="s">
         <v>75</v>
@@ -28198,11 +28202,11 @@
         <v>601</v>
       </c>
       <c r="F886" t="str">
-        <f>E149</f>
-        <v>hmsg_message_template-161</v>
+        <f>E151</f>
+        <v>hmsg_message_template-163</v>
       </c>
       <c r="G886" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="J886" t="s">
         <v>75</v>
@@ -28216,11 +28220,11 @@
         <v>601</v>
       </c>
       <c r="F887" t="str">
-        <f>E149</f>
-        <v>hmsg_message_template-161</v>
+        <f>E151</f>
+        <v>hmsg_message_template-163</v>
       </c>
       <c r="G887" t="s">
-        <v>677</v>
+        <v>621</v>
       </c>
       <c r="J887" t="s">
         <v>75</v>
@@ -28234,11 +28238,11 @@
         <v>601</v>
       </c>
       <c r="F888" t="str">
-        <f>E149</f>
-        <v>hmsg_message_template-161</v>
+        <f>E151</f>
+        <v>hmsg_message_template-163</v>
       </c>
       <c r="G888" t="s">
-        <v>634</v>
+        <v>677</v>
       </c>
       <c r="J888" t="s">
         <v>75</v>
@@ -28252,11 +28256,11 @@
         <v>601</v>
       </c>
       <c r="F889" t="str">
-        <f>E149</f>
-        <v>hmsg_message_template-161</v>
-      </c>
-      <c r="G889" t="s">
-        <v>626</v>
+        <f>E152</f>
+        <v>hmsg_message_template-164</v>
+      </c>
+      <c r="G889" s="37" t="s">
+        <v>1169</v>
       </c>
       <c r="J889" t="s">
         <v>75</v>
@@ -28270,11 +28274,11 @@
         <v>601</v>
       </c>
       <c r="F890" t="str">
-        <f>E150</f>
-        <v>hmsg_message_template-162</v>
-      </c>
-      <c r="G890" t="s">
-        <v>629</v>
+        <f>E152</f>
+        <v>hmsg_message_template-164</v>
+      </c>
+      <c r="G890" s="37" t="s">
+        <v>1170</v>
       </c>
       <c r="J890" t="s">
         <v>75</v>
@@ -28288,11 +28292,11 @@
         <v>601</v>
       </c>
       <c r="F891" t="str">
-        <f>E150</f>
-        <v>hmsg_message_template-162</v>
-      </c>
-      <c r="G891" t="s">
-        <v>621</v>
+        <f>E152</f>
+        <v>hmsg_message_template-164</v>
+      </c>
+      <c r="G891" s="37" t="s">
+        <v>1182</v>
       </c>
       <c r="J891" t="s">
         <v>75</v>
@@ -28306,11 +28310,11 @@
         <v>601</v>
       </c>
       <c r="F892" t="str">
-        <f>E150</f>
-        <v>hmsg_message_template-162</v>
-      </c>
-      <c r="G892" t="s">
-        <v>677</v>
+        <f>E152</f>
+        <v>hmsg_message_template-164</v>
+      </c>
+      <c r="G892" s="37" t="s">
+        <v>1171</v>
       </c>
       <c r="J892" t="s">
         <v>75</v>
@@ -28324,11 +28328,11 @@
         <v>601</v>
       </c>
       <c r="F893" t="str">
-        <f>E151</f>
-        <v>hmsg_message_template-163</v>
-      </c>
-      <c r="G893" t="s">
-        <v>629</v>
+        <f>E153</f>
+        <v>hmsg_message_template-165</v>
+      </c>
+      <c r="G893" s="37" t="s">
+        <v>1169</v>
       </c>
       <c r="J893" t="s">
         <v>75</v>
@@ -28342,11 +28346,11 @@
         <v>601</v>
       </c>
       <c r="F894" t="str">
-        <f>E151</f>
-        <v>hmsg_message_template-163</v>
-      </c>
-      <c r="G894" t="s">
-        <v>621</v>
+        <f>E153</f>
+        <v>hmsg_message_template-165</v>
+      </c>
+      <c r="G894" s="37" t="s">
+        <v>1170</v>
       </c>
       <c r="J894" t="s">
         <v>75</v>
@@ -28360,11 +28364,11 @@
         <v>601</v>
       </c>
       <c r="F895" t="str">
-        <f>E151</f>
-        <v>hmsg_message_template-163</v>
-      </c>
-      <c r="G895" t="s">
-        <v>677</v>
+        <f>E153</f>
+        <v>hmsg_message_template-165</v>
+      </c>
+      <c r="G895" s="37" t="s">
+        <v>1171</v>
       </c>
       <c r="J895" t="s">
         <v>75</v>
@@ -28378,11 +28382,11 @@
         <v>601</v>
       </c>
       <c r="F896" t="str">
-        <f>E152</f>
-        <v>hmsg_message_template-164</v>
+        <f>E153</f>
+        <v>hmsg_message_template-165</v>
       </c>
       <c r="G896" s="37" t="s">
-        <v>1169</v>
+        <v>1182</v>
       </c>
       <c r="J896" t="s">
         <v>75</v>
@@ -28396,11 +28400,11 @@
         <v>601</v>
       </c>
       <c r="F897" t="str">
-        <f>E152</f>
-        <v>hmsg_message_template-164</v>
+        <f>E154</f>
+        <v>hmsg_message_template-166</v>
       </c>
       <c r="G897" s="37" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="J897" t="s">
         <v>75</v>
@@ -28414,11 +28418,11 @@
         <v>601</v>
       </c>
       <c r="F898" t="str">
-        <f>E152</f>
-        <v>hmsg_message_template-164</v>
+        <f>E154</f>
+        <v>hmsg_message_template-166</v>
       </c>
       <c r="G898" s="37" t="s">
-        <v>1182</v>
+        <v>1170</v>
       </c>
       <c r="J898" t="s">
         <v>75</v>
@@ -28432,8 +28436,8 @@
         <v>601</v>
       </c>
       <c r="F899" t="str">
-        <f>E152</f>
-        <v>hmsg_message_template-164</v>
+        <f>E154</f>
+        <v>hmsg_message_template-166</v>
       </c>
       <c r="G899" s="37" t="s">
         <v>1171</v>
@@ -28450,8 +28454,8 @@
         <v>601</v>
       </c>
       <c r="F900" t="str">
-        <f>E153</f>
-        <v>hmsg_message_template-165</v>
+        <f>E155</f>
+        <v>hmsg_message_template-167</v>
       </c>
       <c r="G900" s="37" t="s">
         <v>1169</v>
@@ -28468,8 +28472,8 @@
         <v>601</v>
       </c>
       <c r="F901" t="str">
-        <f>E153</f>
-        <v>hmsg_message_template-165</v>
+        <f>E155</f>
+        <v>hmsg_message_template-167</v>
       </c>
       <c r="G901" s="37" t="s">
         <v>1170</v>
@@ -28486,8 +28490,8 @@
         <v>601</v>
       </c>
       <c r="F902" t="str">
-        <f>E153</f>
-        <v>hmsg_message_template-165</v>
+        <f>E155</f>
+        <v>hmsg_message_template-167</v>
       </c>
       <c r="G902" s="37" t="s">
         <v>1171</v>
@@ -28504,11 +28508,11 @@
         <v>601</v>
       </c>
       <c r="F903" t="str">
-        <f>E153</f>
-        <v>hmsg_message_template-165</v>
+        <f>E156</f>
+        <v>hmsg_message_template-168</v>
       </c>
       <c r="G903" s="37" t="s">
-        <v>1182</v>
+        <v>1169</v>
       </c>
       <c r="J903" t="s">
         <v>75</v>
@@ -28522,11 +28526,11 @@
         <v>601</v>
       </c>
       <c r="F904" t="str">
-        <f>E154</f>
-        <v>hmsg_message_template-166</v>
+        <f>E156</f>
+        <v>hmsg_message_template-168</v>
       </c>
       <c r="G904" s="37" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="J904" t="s">
         <v>75</v>
@@ -28540,11 +28544,11 @@
         <v>601</v>
       </c>
       <c r="F905" t="str">
-        <f>E154</f>
-        <v>hmsg_message_template-166</v>
+        <f>E156</f>
+        <v>hmsg_message_template-168</v>
       </c>
       <c r="G905" s="37" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="J905" t="s">
         <v>75</v>
@@ -28558,11 +28562,11 @@
         <v>601</v>
       </c>
       <c r="F906" t="str">
-        <f>E154</f>
-        <v>hmsg_message_template-166</v>
+        <f>E157</f>
+        <v>hmsg_message_template-169</v>
       </c>
       <c r="G906" s="37" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="J906" t="s">
         <v>75</v>
@@ -28576,11 +28580,11 @@
         <v>601</v>
       </c>
       <c r="F907" t="str">
-        <f>E155</f>
-        <v>hmsg_message_template-167</v>
+        <f>E157</f>
+        <v>hmsg_message_template-169</v>
       </c>
       <c r="G907" s="37" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="J907" t="s">
         <v>75</v>
@@ -28589,16 +28593,16 @@
         <v>75</v>
       </c>
     </row>
-    <row r="908" spans="5:11">
+    <row r="908" spans="5:11" ht="16.8" customHeight="1">
       <c r="E908" t="s">
         <v>601</v>
       </c>
       <c r="F908" t="str">
-        <f>E155</f>
-        <v>hmsg_message_template-167</v>
+        <f>E157</f>
+        <v>hmsg_message_template-169</v>
       </c>
       <c r="G908" s="37" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="J908" t="s">
         <v>75</v>
@@ -28612,8 +28616,8 @@
         <v>601</v>
       </c>
       <c r="F909" t="str">
-        <f>E155</f>
-        <v>hmsg_message_template-167</v>
+        <f>E158</f>
+        <v>hmsg_message_template-170</v>
       </c>
       <c r="G909" s="37" t="s">
         <v>1171</v>
@@ -28630,11 +28634,11 @@
         <v>601</v>
       </c>
       <c r="F910" t="str">
-        <f>E156</f>
-        <v>hmsg_message_template-168</v>
+        <f>E158</f>
+        <v>hmsg_message_template-170</v>
       </c>
       <c r="G910" s="37" t="s">
-        <v>1169</v>
+        <v>1182</v>
       </c>
       <c r="J910" t="s">
         <v>75</v>
@@ -28648,11 +28652,11 @@
         <v>601</v>
       </c>
       <c r="F911" t="str">
-        <f>E156</f>
-        <v>hmsg_message_template-168</v>
+        <f>E159</f>
+        <v>hmsg_message_template-171</v>
       </c>
       <c r="G911" s="37" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="J911" t="s">
         <v>75</v>
@@ -28666,11 +28670,11 @@
         <v>601</v>
       </c>
       <c r="F912" t="str">
-        <f>E156</f>
-        <v>hmsg_message_template-168</v>
+        <f>E159</f>
+        <v>hmsg_message_template-171</v>
       </c>
       <c r="G912" s="37" t="s">
-        <v>1171</v>
+        <v>1182</v>
       </c>
       <c r="J912" t="s">
         <v>75</v>
@@ -28684,11 +28688,11 @@
         <v>601</v>
       </c>
       <c r="F913" t="str">
-        <f>E157</f>
-        <v>hmsg_message_template-169</v>
+        <f>E160</f>
+        <v>hmsg_message_template-172</v>
       </c>
       <c r="G913" s="37" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="J913" t="s">
         <v>75</v>
@@ -28702,11 +28706,11 @@
         <v>601</v>
       </c>
       <c r="F914" t="str">
-        <f>E157</f>
-        <v>hmsg_message_template-169</v>
+        <f>E160</f>
+        <v>hmsg_message_template-172</v>
       </c>
       <c r="G914" s="37" t="s">
-        <v>1170</v>
+        <v>1182</v>
       </c>
       <c r="J914" t="s">
         <v>75</v>
@@ -28715,13 +28719,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="915" spans="5:11" ht="16.8" customHeight="1">
+    <row r="915" spans="5:11">
       <c r="E915" t="s">
         <v>601</v>
       </c>
       <c r="F915" t="str">
-        <f>E157</f>
-        <v>hmsg_message_template-169</v>
+        <f>E161</f>
+        <v>hmsg_message_template-173</v>
       </c>
       <c r="G915" s="37" t="s">
         <v>1171</v>
@@ -28738,11 +28742,11 @@
         <v>601</v>
       </c>
       <c r="F916" t="str">
-        <f>E158</f>
-        <v>hmsg_message_template-170</v>
+        <f>E161</f>
+        <v>hmsg_message_template-173</v>
       </c>
       <c r="G916" s="37" t="s">
-        <v>1171</v>
+        <v>1182</v>
       </c>
       <c r="J916" t="s">
         <v>75</v>
@@ -28756,11 +28760,11 @@
         <v>601</v>
       </c>
       <c r="F917" t="str">
-        <f>E158</f>
-        <v>hmsg_message_template-170</v>
+        <f>E162</f>
+        <v>hmsg_message_template-174</v>
       </c>
       <c r="G917" s="37" t="s">
-        <v>1182</v>
+        <v>1169</v>
       </c>
       <c r="J917" t="s">
         <v>75</v>
@@ -28774,11 +28778,11 @@
         <v>601</v>
       </c>
       <c r="F918" t="str">
-        <f>E159</f>
-        <v>hmsg_message_template-171</v>
+        <f>E162</f>
+        <v>hmsg_message_template-174</v>
       </c>
       <c r="G918" s="37" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="J918" t="s">
         <v>75</v>
@@ -28792,11 +28796,11 @@
         <v>601</v>
       </c>
       <c r="F919" t="str">
-        <f>E159</f>
-        <v>hmsg_message_template-171</v>
+        <f>E162</f>
+        <v>hmsg_message_template-174</v>
       </c>
       <c r="G919" s="37" t="s">
-        <v>1182</v>
+        <v>1171</v>
       </c>
       <c r="J919" t="s">
         <v>75</v>
@@ -28810,11 +28814,11 @@
         <v>601</v>
       </c>
       <c r="F920" t="str">
-        <f>E160</f>
-        <v>hmsg_message_template-172</v>
+        <f>E162</f>
+        <v>hmsg_message_template-174</v>
       </c>
       <c r="G920" s="37" t="s">
-        <v>1171</v>
+        <v>1182</v>
       </c>
       <c r="J920" t="s">
         <v>75</v>
@@ -28828,11 +28832,11 @@
         <v>601</v>
       </c>
       <c r="F921" t="str">
-        <f>E160</f>
-        <v>hmsg_message_template-172</v>
+        <f>E163</f>
+        <v>hmsg_message_template-175</v>
       </c>
       <c r="G921" s="37" t="s">
-        <v>1182</v>
+        <v>1169</v>
       </c>
       <c r="J921" t="s">
         <v>75</v>
@@ -28846,11 +28850,11 @@
         <v>601</v>
       </c>
       <c r="F922" t="str">
-        <f>E161</f>
-        <v>hmsg_message_template-173</v>
+        <f>E163</f>
+        <v>hmsg_message_template-175</v>
       </c>
       <c r="G922" s="37" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="J922" t="s">
         <v>75</v>
@@ -28864,11 +28868,11 @@
         <v>601</v>
       </c>
       <c r="F923" t="str">
-        <f>E161</f>
-        <v>hmsg_message_template-173</v>
+        <f>E163</f>
+        <v>hmsg_message_template-175</v>
       </c>
       <c r="G923" s="37" t="s">
-        <v>1182</v>
+        <v>1171</v>
       </c>
       <c r="J923" t="s">
         <v>75</v>
@@ -28882,11 +28886,11 @@
         <v>601</v>
       </c>
       <c r="F924" t="str">
-        <f>E162</f>
-        <v>hmsg_message_template-174</v>
+        <f>E163</f>
+        <v>hmsg_message_template-175</v>
       </c>
       <c r="G924" s="37" t="s">
-        <v>1169</v>
+        <v>1182</v>
       </c>
       <c r="J924" t="s">
         <v>75</v>
@@ -28900,11 +28904,11 @@
         <v>601</v>
       </c>
       <c r="F925" t="str">
-        <f>E162</f>
-        <v>hmsg_message_template-174</v>
+        <f>E164</f>
+        <v>hmsg_message_template-176</v>
       </c>
       <c r="G925" s="37" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="J925" t="s">
         <v>75</v>
@@ -28918,11 +28922,11 @@
         <v>601</v>
       </c>
       <c r="F926" t="str">
-        <f>E162</f>
-        <v>hmsg_message_template-174</v>
+        <f>E164</f>
+        <v>hmsg_message_template-176</v>
       </c>
       <c r="G926" s="37" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="J926" t="s">
         <v>75</v>
@@ -28936,11 +28940,11 @@
         <v>601</v>
       </c>
       <c r="F927" t="str">
-        <f>E162</f>
-        <v>hmsg_message_template-174</v>
+        <f>E164</f>
+        <v>hmsg_message_template-176</v>
       </c>
       <c r="G927" s="37" t="s">
-        <v>1182</v>
+        <v>1171</v>
       </c>
       <c r="J927" t="s">
         <v>75</v>
@@ -28954,11 +28958,11 @@
         <v>601</v>
       </c>
       <c r="F928" t="str">
-        <f>E163</f>
-        <v>hmsg_message_template-175</v>
+        <f>E164</f>
+        <v>hmsg_message_template-176</v>
       </c>
       <c r="G928" s="37" t="s">
-        <v>1169</v>
+        <v>1182</v>
       </c>
       <c r="J928" t="s">
         <v>75</v>
@@ -28972,11 +28976,11 @@
         <v>601</v>
       </c>
       <c r="F929" t="str">
-        <f>E163</f>
-        <v>hmsg_message_template-175</v>
+        <f>E165</f>
+        <v>hmsg_message_template-177</v>
       </c>
       <c r="G929" s="37" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="J929" t="s">
         <v>75</v>
@@ -28990,11 +28994,11 @@
         <v>601</v>
       </c>
       <c r="F930" t="str">
-        <f>E163</f>
-        <v>hmsg_message_template-175</v>
+        <f>E165</f>
+        <v>hmsg_message_template-177</v>
       </c>
       <c r="G930" s="37" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="J930" t="s">
         <v>75</v>
@@ -29008,11 +29012,11 @@
         <v>601</v>
       </c>
       <c r="F931" t="str">
-        <f>E163</f>
-        <v>hmsg_message_template-175</v>
+        <f>E165</f>
+        <v>hmsg_message_template-177</v>
       </c>
       <c r="G931" s="37" t="s">
-        <v>1182</v>
+        <v>1171</v>
       </c>
       <c r="J931" t="s">
         <v>75</v>
@@ -29026,11 +29030,11 @@
         <v>601</v>
       </c>
       <c r="F932" t="str">
-        <f>E164</f>
-        <v>hmsg_message_template-176</v>
+        <f>E165</f>
+        <v>hmsg_message_template-177</v>
       </c>
       <c r="G932" s="37" t="s">
-        <v>1169</v>
+        <v>1182</v>
       </c>
       <c r="J932" t="s">
         <v>75</v>
@@ -29044,11 +29048,11 @@
         <v>601</v>
       </c>
       <c r="F933" t="str">
-        <f>E164</f>
-        <v>hmsg_message_template-176</v>
+        <f>E166</f>
+        <v>hmsg_message_template-178</v>
       </c>
       <c r="G933" s="37" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="J933" t="s">
         <v>75</v>
@@ -29062,11 +29066,11 @@
         <v>601</v>
       </c>
       <c r="F934" t="str">
-        <f>E164</f>
-        <v>hmsg_message_template-176</v>
+        <f>E166</f>
+        <v>hmsg_message_template-178</v>
       </c>
       <c r="G934" s="37" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="J934" t="s">
         <v>75</v>
@@ -29080,11 +29084,11 @@
         <v>601</v>
       </c>
       <c r="F935" t="str">
-        <f>E164</f>
-        <v>hmsg_message_template-176</v>
+        <f>E166</f>
+        <v>hmsg_message_template-178</v>
       </c>
       <c r="G935" s="37" t="s">
-        <v>1182</v>
+        <v>1171</v>
       </c>
       <c r="J935" t="s">
         <v>75</v>
@@ -29098,11 +29102,11 @@
         <v>601</v>
       </c>
       <c r="F936" t="str">
-        <f>E165</f>
-        <v>hmsg_message_template-177</v>
+        <f>E166</f>
+        <v>hmsg_message_template-178</v>
       </c>
       <c r="G936" s="37" t="s">
-        <v>1169</v>
+        <v>1182</v>
       </c>
       <c r="J936" t="s">
         <v>75</v>
@@ -29116,11 +29120,11 @@
         <v>601</v>
       </c>
       <c r="F937" t="str">
-        <f>E165</f>
-        <v>hmsg_message_template-177</v>
+        <f>E167</f>
+        <v>hmsg_message_template-179</v>
       </c>
       <c r="G937" s="37" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="J937" t="s">
         <v>75</v>
@@ -29134,11 +29138,11 @@
         <v>601</v>
       </c>
       <c r="F938" t="str">
-        <f>E165</f>
-        <v>hmsg_message_template-177</v>
+        <f>E167</f>
+        <v>hmsg_message_template-179</v>
       </c>
       <c r="G938" s="37" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="J938" t="s">
         <v>75</v>
@@ -29152,11 +29156,11 @@
         <v>601</v>
       </c>
       <c r="F939" t="str">
-        <f>E165</f>
-        <v>hmsg_message_template-177</v>
+        <f>E167</f>
+        <v>hmsg_message_template-179</v>
       </c>
       <c r="G939" s="37" t="s">
-        <v>1182</v>
+        <v>1171</v>
       </c>
       <c r="J939" t="s">
         <v>75</v>
@@ -29170,11 +29174,11 @@
         <v>601</v>
       </c>
       <c r="F940" t="str">
-        <f>E166</f>
-        <v>hmsg_message_template-178</v>
+        <f>E167</f>
+        <v>hmsg_message_template-179</v>
       </c>
       <c r="G940" s="37" t="s">
-        <v>1169</v>
+        <v>1182</v>
       </c>
       <c r="J940" t="s">
         <v>75</v>
@@ -29188,11 +29192,11 @@
         <v>601</v>
       </c>
       <c r="F941" t="str">
-        <f>E166</f>
-        <v>hmsg_message_template-178</v>
+        <f>E168</f>
+        <v>hmsg_message_template-180</v>
       </c>
       <c r="G941" s="37" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="J941" t="s">
         <v>75</v>
@@ -29206,11 +29210,11 @@
         <v>601</v>
       </c>
       <c r="F942" t="str">
-        <f>E166</f>
-        <v>hmsg_message_template-178</v>
+        <f>E168</f>
+        <v>hmsg_message_template-180</v>
       </c>
       <c r="G942" s="37" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="J942" t="s">
         <v>75</v>
@@ -29224,11 +29228,11 @@
         <v>601</v>
       </c>
       <c r="F943" t="str">
-        <f>E166</f>
-        <v>hmsg_message_template-178</v>
+        <f>E168</f>
+        <v>hmsg_message_template-180</v>
       </c>
       <c r="G943" s="37" t="s">
-        <v>1182</v>
+        <v>1171</v>
       </c>
       <c r="J943" t="s">
         <v>75</v>
@@ -29242,11 +29246,11 @@
         <v>601</v>
       </c>
       <c r="F944" t="str">
-        <f>E167</f>
-        <v>hmsg_message_template-179</v>
+        <f>E168</f>
+        <v>hmsg_message_template-180</v>
       </c>
       <c r="G944" s="37" t="s">
-        <v>1169</v>
+        <v>1182</v>
       </c>
       <c r="J944" t="s">
         <v>75</v>
@@ -29260,11 +29264,11 @@
         <v>601</v>
       </c>
       <c r="F945" t="str">
-        <f>E167</f>
-        <v>hmsg_message_template-179</v>
+        <f>E169</f>
+        <v>hmsg_message_template-181</v>
       </c>
       <c r="G945" s="37" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="J945" t="s">
         <v>75</v>
@@ -29278,11 +29282,11 @@
         <v>601</v>
       </c>
       <c r="F946" t="str">
-        <f>E167</f>
-        <v>hmsg_message_template-179</v>
+        <f>E169</f>
+        <v>hmsg_message_template-181</v>
       </c>
       <c r="G946" s="37" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="J946" t="s">
         <v>75</v>
@@ -29296,11 +29300,11 @@
         <v>601</v>
       </c>
       <c r="F947" t="str">
-        <f>E167</f>
-        <v>hmsg_message_template-179</v>
+        <f>E169</f>
+        <v>hmsg_message_template-181</v>
       </c>
       <c r="G947" s="37" t="s">
-        <v>1182</v>
+        <v>1171</v>
       </c>
       <c r="J947" t="s">
         <v>75</v>
@@ -29314,11 +29318,11 @@
         <v>601</v>
       </c>
       <c r="F948" t="str">
-        <f>E168</f>
-        <v>hmsg_message_template-180</v>
+        <f>E169</f>
+        <v>hmsg_message_template-181</v>
       </c>
       <c r="G948" s="37" t="s">
-        <v>1169</v>
+        <v>1182</v>
       </c>
       <c r="J948" t="s">
         <v>75</v>
@@ -29331,12 +29335,12 @@
       <c r="E949" t="s">
         <v>601</v>
       </c>
-      <c r="F949" t="str">
-        <f>E168</f>
-        <v>hmsg_message_template-180</v>
+      <c r="F949" s="37" t="str">
+        <f>E170</f>
+        <v>hmsg_message_template-182</v>
       </c>
       <c r="G949" s="37" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="J949" t="s">
         <v>75</v>
@@ -29350,11 +29354,11 @@
         <v>601</v>
       </c>
       <c r="F950" t="str">
-        <f>E168</f>
-        <v>hmsg_message_template-180</v>
+        <f>E170</f>
+        <v>hmsg_message_template-182</v>
       </c>
       <c r="G950" s="37" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="J950" t="s">
         <v>75</v>
@@ -29368,11 +29372,11 @@
         <v>601</v>
       </c>
       <c r="F951" t="str">
-        <f>E168</f>
-        <v>hmsg_message_template-180</v>
+        <f>E170</f>
+        <v>hmsg_message_template-182</v>
       </c>
       <c r="G951" s="37" t="s">
-        <v>1182</v>
+        <v>1171</v>
       </c>
       <c r="J951" t="s">
         <v>75</v>
@@ -29386,11 +29390,11 @@
         <v>601</v>
       </c>
       <c r="F952" t="str">
-        <f>E169</f>
-        <v>hmsg_message_template-181</v>
+        <f>E170</f>
+        <v>hmsg_message_template-182</v>
       </c>
       <c r="G952" s="37" t="s">
-        <v>1169</v>
+        <v>1182</v>
       </c>
       <c r="J952" t="s">
         <v>75</v>
@@ -29404,11 +29408,11 @@
         <v>601</v>
       </c>
       <c r="F953" t="str">
-        <f>E169</f>
-        <v>hmsg_message_template-181</v>
+        <f>E171</f>
+        <v>hmsg_message_template-183</v>
       </c>
       <c r="G953" s="37" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="J953" t="s">
         <v>75</v>
@@ -29422,11 +29426,11 @@
         <v>601</v>
       </c>
       <c r="F954" t="str">
-        <f>E169</f>
-        <v>hmsg_message_template-181</v>
+        <f>E171</f>
+        <v>hmsg_message_template-183</v>
       </c>
       <c r="G954" s="37" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="J954" t="s">
         <v>75</v>
@@ -29440,11 +29444,11 @@
         <v>601</v>
       </c>
       <c r="F955" t="str">
-        <f>E169</f>
-        <v>hmsg_message_template-181</v>
+        <f>E171</f>
+        <v>hmsg_message_template-183</v>
       </c>
       <c r="G955" s="37" t="s">
-        <v>1182</v>
+        <v>1171</v>
       </c>
       <c r="J955" t="s">
         <v>75</v>
@@ -29457,143 +29461,17 @@
       <c r="E956" t="s">
         <v>601</v>
       </c>
-      <c r="F956" s="37" t="str">
-        <f>E170</f>
-        <v>hmsg_message_template-182</v>
-      </c>
-      <c r="G956" s="37" t="s">
-        <v>1169</v>
-      </c>
-      <c r="J956" t="s">
-        <v>75</v>
-      </c>
-      <c r="K956" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="957" spans="5:11">
-      <c r="E957" t="s">
-        <v>601</v>
-      </c>
-      <c r="F957" t="str">
-        <f>E170</f>
-        <v>hmsg_message_template-182</v>
-      </c>
-      <c r="G957" s="37" t="s">
-        <v>1170</v>
-      </c>
-      <c r="J957" t="s">
-        <v>75</v>
-      </c>
-      <c r="K957" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="958" spans="5:11">
-      <c r="E958" t="s">
-        <v>601</v>
-      </c>
-      <c r="F958" t="str">
-        <f>E170</f>
-        <v>hmsg_message_template-182</v>
-      </c>
-      <c r="G958" s="37" t="s">
-        <v>1171</v>
-      </c>
-      <c r="J958" t="s">
-        <v>75</v>
-      </c>
-      <c r="K958" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="959" spans="5:11">
-      <c r="E959" t="s">
-        <v>601</v>
-      </c>
-      <c r="F959" t="str">
-        <f>E170</f>
-        <v>hmsg_message_template-182</v>
-      </c>
-      <c r="G959" s="37" t="s">
-        <v>1182</v>
-      </c>
-      <c r="J959" t="s">
-        <v>75</v>
-      </c>
-      <c r="K959" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="960" spans="5:11">
-      <c r="E960" t="s">
-        <v>601</v>
-      </c>
-      <c r="F960" t="str">
+      <c r="F956" t="str">
         <f>E171</f>
         <v>hmsg_message_template-183</v>
       </c>
-      <c r="G960" s="37" t="s">
-        <v>1169</v>
-      </c>
-      <c r="J960" t="s">
-        <v>75</v>
-      </c>
-      <c r="K960" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="961" spans="5:11">
-      <c r="E961" t="s">
-        <v>601</v>
-      </c>
-      <c r="F961" t="str">
-        <f>E171</f>
-        <v>hmsg_message_template-183</v>
-      </c>
-      <c r="G961" s="37" t="s">
-        <v>1170</v>
-      </c>
-      <c r="J961" t="s">
-        <v>75</v>
-      </c>
-      <c r="K961" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="962" spans="5:11">
-      <c r="E962" t="s">
-        <v>601</v>
-      </c>
-      <c r="F962" t="str">
-        <f>E171</f>
-        <v>hmsg_message_template-183</v>
-      </c>
-      <c r="G962" s="37" t="s">
-        <v>1171</v>
-      </c>
-      <c r="J962" t="s">
-        <v>75</v>
-      </c>
-      <c r="K962" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="963" spans="5:11">
-      <c r="E963" t="s">
-        <v>601</v>
-      </c>
-      <c r="F963" t="str">
-        <f>E171</f>
-        <v>hmsg_message_template-183</v>
-      </c>
-      <c r="G963" s="37" t="s">
+      <c r="G956" s="37" t="s">
         <v>1182</v>
       </c>
-      <c r="J963" t="s">
-        <v>75</v>
-      </c>
-      <c r="K963" t="s">
+      <c r="J956" t="s">
+        <v>75</v>
+      </c>
+      <c r="K956" t="s">
         <v>75</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new-choerodon\choerodon-message\src\main\resources\script\db\init-data\hzero_message\hzero_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F0AF24-9B3B-48A0-B19F-BA4DAA44DF49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7D016B-FFA2-49E8-AFEF-B7446A0280BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8480,20 +8480,6 @@
   </si>
   <si>
     <t>&lt;p&gt;亲爱的应用管理者，您好！
-很遗憾，您提交的应用“${marketAppName}”-版本“${marketAppVersion}”的发布申请，未通过审核。不通过原因为：
-${rejectedMsg}
-请修改后，再次申请。&lt;/p&gt;</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;亲爱的应用管理者，您好！
-很遗憾，您提交的应用“${marketAppName}”-版本“${marketAppVersion}”的发布申请，未通过审核。不通过原因为：
-${rejectedMsg}
-请修改后，再次申请。&lt;a href=#/devops/app-service?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情（点击后跳转至应用发布界面）。&lt;/a&gt;&lt;/p&gt;</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;亲爱的应用管理者，您好！
 您提交的应用“${marketAppName}”-版本“${marketAppVersion}”的发布申请，已通过审核。&lt;/p&gt;</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -8540,13 +8526,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;p&gt;亲爱的应用管理者，您好！
-很遗憾，您提交的应用“${marketAppName}”的修改申请，未通过审核。不通过原因为：
-${rejectedMsg}
-请修改后，再次申请。&lt;/p&gt;</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>修改应用信息/版本信息（通过）</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -8601,13 +8580,6 @@
   </si>
   <si>
     <t>应用下架申请（驳回）</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;亲爱的应用管理者，您好！
-很遗憾，您提交的应用“${marketAppName}”-版本“${marketAppVersion}”的下架申请，未通过审核。不通过原因为：
-${rejectedMsg}
-请修改后，再次申请。&lt;/p&gt;</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
@@ -8821,21 +8793,7 @@
   </si>
   <si>
     <t>&lt;p&gt;亲爱的应用管理者，您好！
-很遗憾，您提交的应用“${marketAppName}”的信息修改申请，未通过审核。不通过原因为：
-${rejectedMsg}
-请修改后，再次申请。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情（点击后跳转至应用发布界面）。&lt;/a&gt;&lt;/p&gt;</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;亲爱的应用管理者，您好！
 您提交的应用“${marketAppName}”的信息修改，已通过审核。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情（点击后跳转至应用发布界面）。&lt;/p&gt;</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;亲爱的应用管理者，您好！
-很遗憾，您提交的应用“${marketAppName}”-版本“${marketAppVersion}”的下架申请，未通过审核。不通过原因为：
-${rejectedMsg}
-请修改后，再次申请。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情（点击后跳转至应用发布界面）。&lt;/a&gt;&lt;/p&gt;</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
@@ -8854,6 +8812,48 @@
   </si>
   <si>
     <t>PIPELINESTAGEAUDIT.WEB</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;亲爱的应用管理者，您好！
+很遗憾，您提交的应用“${marketAppName}”-版本“${marketAppVersion}”的发布申请，未通过审核。不通过原因为：
+${rejectedMsg}。
+请修改后，再次申请。&lt;a href=#/devops/app-service?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情（点击后跳转至应用发布界面）。&lt;/a&gt;&lt;/p&gt;</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;亲爱的应用管理者，您好！
+很遗憾，您提交的应用“${marketAppName}”-版本“${marketAppVersion}”的发布申请，未通过审核。不通过原因为：
+${rejectedMsg}。
+请修改后，再次申请。&lt;/p&gt;</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;亲爱的应用管理者，您好！
+很遗憾，您提交的应用“${marketAppName}”的信息修改申请，未通过审核。不通过原因为：
+${rejectedMsg}。
+请修改后，再次申请。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情（点击后跳转至应用发布界面）。&lt;/a&gt;&lt;/p&gt;</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;亲爱的应用管理者，您好！
+很遗憾，您提交的应用“${marketAppName}”的修改申请，未通过审核。不通过原因为：
+${rejectedMsg}。
+请修改后，再次申请。&lt;/p&gt;</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;亲爱的应用管理者，您好！
+很遗憾，您提交的应用“${marketAppName}”-版本“${marketAppVersion}”的下架申请，未通过审核。不通过原因为：
+${rejectedMsg}。
+请修改后，再次申请。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情（点击后跳转至应用发布界面）。&lt;/a&gt;&lt;/p&gt;</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;亲爱的应用管理者，您好！
+很遗憾，您提交的应用“${marketAppName}”-版本“${marketAppVersion}”的下架申请，未通过审核。不通过原因为：
+${rejectedMsg}。
+请修改后，再次申请。&lt;/p&gt;</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -10027,8 +10027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q956"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A808" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F824" sqref="F824"/>
+    <sheetView tabSelected="1" topLeftCell="E168" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I171" sqref="I171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -14327,10 +14327,10 @@
     </row>
     <row r="143" spans="5:17" ht="156.6">
       <c r="E143" s="43" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="F143" s="37" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="G143" s="7" t="s">
         <v>564</v>
@@ -14648,7 +14648,7 @@
         <v>1158</v>
       </c>
       <c r="G152" s="40" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="H152" s="39" t="s">
         <v>1160</v>
@@ -14677,19 +14677,19 @@
     </row>
     <row r="153" spans="5:17" s="41" customFormat="1" ht="104.4">
       <c r="E153" s="39" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="F153" s="39" t="s">
         <v>1165</v>
       </c>
       <c r="G153" s="40" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="H153" s="39" t="s">
         <v>1185</v>
       </c>
       <c r="I153" s="40" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="J153" s="39" t="s">
         <v>1162</v>
@@ -14715,16 +14715,16 @@
         <v>1178</v>
       </c>
       <c r="F154" s="39" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="G154" s="40" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="H154" s="39" t="s">
         <v>1160</v>
       </c>
       <c r="I154" s="40" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="J154" s="39" t="s">
         <v>1162</v>
@@ -14750,16 +14750,16 @@
         <v>1179</v>
       </c>
       <c r="F155" s="39" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="G155" s="40" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="H155" s="39" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="I155" s="40" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="J155" s="39" t="s">
         <v>1162</v>
@@ -14785,16 +14785,16 @@
         <v>1180</v>
       </c>
       <c r="F156" s="39" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="G156" s="40" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="H156" s="39" t="s">
         <v>1160</v>
       </c>
       <c r="I156" s="40" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="J156" s="39" t="s">
         <v>1162</v>
@@ -14820,16 +14820,16 @@
         <v>1181</v>
       </c>
       <c r="F157" s="39" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="G157" s="40" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="H157" s="39" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="I157" s="40" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="J157" s="39" t="s">
         <v>1162</v>
@@ -14852,19 +14852,19 @@
     </row>
     <row r="158" spans="5:17" s="41" customFormat="1" ht="104.4">
       <c r="E158" s="39" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="F158" s="39" t="s">
         <v>1172</v>
       </c>
       <c r="G158" s="40" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="H158" s="39" t="s">
         <v>1173</v>
       </c>
       <c r="I158" s="40" t="s">
-        <v>1234</v>
+        <v>1325</v>
       </c>
       <c r="J158" s="39" t="s">
         <v>1162</v>
@@ -14887,19 +14887,19 @@
     </row>
     <row r="159" spans="5:17" s="41" customFormat="1" ht="156.6">
       <c r="E159" s="39" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="F159" s="39" t="s">
         <v>1174</v>
       </c>
       <c r="G159" s="40" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="H159" s="39" t="s">
         <v>1173</v>
       </c>
       <c r="I159" s="40" t="s">
-        <v>1235</v>
+        <v>1324</v>
       </c>
       <c r="J159" s="39" t="s">
         <v>1162</v>
@@ -14922,19 +14922,19 @@
     </row>
     <row r="160" spans="5:17" s="41" customFormat="1" ht="69.599999999999994">
       <c r="E160" s="39" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="F160" s="39" t="s">
         <v>1175</v>
       </c>
       <c r="G160" s="40" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="H160" s="39" t="s">
         <v>1176</v>
       </c>
       <c r="I160" s="40" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="J160" s="39" t="s">
         <v>1162</v>
@@ -14957,19 +14957,19 @@
     </row>
     <row r="161" spans="1:17" s="41" customFormat="1" ht="121.8">
       <c r="E161" s="39" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="F161" s="39" t="s">
         <v>1177</v>
       </c>
       <c r="G161" s="40" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="H161" s="39" t="s">
         <v>1176</v>
       </c>
       <c r="I161" s="40" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="J161" s="39" t="s">
         <v>1162</v>
@@ -14992,19 +14992,19 @@
     </row>
     <row r="162" spans="1:17" s="41" customFormat="1" ht="87">
       <c r="E162" s="39" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="F162" s="39" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G162" s="40" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H162" s="39" t="s">
         <v>1243</v>
       </c>
-      <c r="G162" s="40" t="s">
-        <v>1244</v>
-      </c>
-      <c r="H162" s="39" t="s">
-        <v>1245</v>
-      </c>
       <c r="I162" s="40" t="s">
-        <v>1247</v>
+        <v>1327</v>
       </c>
       <c r="J162" s="39" t="s">
         <v>1162</v>
@@ -15027,19 +15027,19 @@
     </row>
     <row r="163" spans="1:17" s="41" customFormat="1" ht="139.19999999999999">
       <c r="E163" s="39" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="F163" s="39" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="G163" s="40" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="H163" s="39" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="I163" s="40" t="s">
-        <v>1323</v>
+        <v>1326</v>
       </c>
       <c r="J163" s="39" t="s">
         <v>1162</v>
@@ -15062,19 +15062,19 @@
     </row>
     <row r="164" spans="1:17" s="41" customFormat="1" ht="52.2">
       <c r="E164" s="39" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="F164" s="39" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="G164" s="40" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="H164" s="39" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I164" s="40" t="s">
         <v>1249</v>
-      </c>
-      <c r="I164" s="40" t="s">
-        <v>1252</v>
       </c>
       <c r="J164" s="39" t="s">
         <v>1162</v>
@@ -15097,19 +15097,19 @@
     </row>
     <row r="165" spans="1:17" s="41" customFormat="1" ht="104.4">
       <c r="E165" s="39" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="F165" s="39" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="G165" s="40" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="H165" s="39" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="I165" s="40" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
       <c r="J165" s="39" t="s">
         <v>1162</v>
@@ -15132,19 +15132,19 @@
     </row>
     <row r="166" spans="1:17" s="41" customFormat="1" ht="104.4">
       <c r="E166" s="39" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="F166" s="39" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="G166" s="40" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="H166" s="40" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="I166" s="40" t="s">
-        <v>1262</v>
+        <v>1329</v>
       </c>
       <c r="J166" s="39" t="s">
         <v>1162</v>
@@ -15167,19 +15167,19 @@
     </row>
     <row r="167" spans="1:17" s="41" customFormat="1" ht="156.6">
       <c r="E167" s="39" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="F167" s="39" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="G167" s="40" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="H167" s="40" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="I167" s="40" t="s">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="J167" s="39" t="s">
         <v>1162</v>
@@ -15202,19 +15202,19 @@
     </row>
     <row r="168" spans="1:17" s="41" customFormat="1" ht="69.599999999999994">
       <c r="E168" s="39" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="F168" s="39" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G168" s="40" t="s">
+        <v>1262</v>
+      </c>
+      <c r="H168" s="40" t="s">
+        <v>1263</v>
+      </c>
+      <c r="I168" s="40" t="s">
         <v>1264</v>
-      </c>
-      <c r="G168" s="40" t="s">
-        <v>1266</v>
-      </c>
-      <c r="H168" s="40" t="s">
-        <v>1267</v>
-      </c>
-      <c r="I168" s="40" t="s">
-        <v>1268</v>
       </c>
       <c r="J168" s="39" t="s">
         <v>1162</v>
@@ -15237,19 +15237,19 @@
     </row>
     <row r="169" spans="1:17" s="41" customFormat="1" ht="121.8">
       <c r="E169" s="39" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="F169" s="39" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="G169" s="40" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="H169" s="40" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="I169" s="40" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="J169" s="39" t="s">
         <v>1162</v>
@@ -15272,19 +15272,19 @@
     </row>
     <row r="170" spans="1:17" s="41" customFormat="1" ht="69.599999999999994">
       <c r="E170" s="39" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="F170" s="39" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="G170" s="40" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="H170" s="40" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="I170" s="40" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="J170" s="39" t="s">
         <v>1162</v>
@@ -15307,19 +15307,19 @@
     </row>
     <row r="171" spans="1:17" s="41" customFormat="1" ht="121.8">
       <c r="E171" s="39" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="F171" s="39" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="G171" s="40" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="H171" s="40" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="I171" s="40" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="J171" s="39" t="s">
         <v>1162</v>
@@ -32063,7 +32063,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="38" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="79" spans="5:15" ht="34.799999999999997">
@@ -32077,10 +32077,10 @@
         <v>0</v>
       </c>
       <c r="H79" s="37" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="I79" s="38" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="J79" s="37" t="s">
         <v>1183</v>
@@ -32098,7 +32098,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="38" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="80" spans="5:15" ht="16.8" customHeight="1">
@@ -32112,10 +32112,10 @@
         <v>0</v>
       </c>
       <c r="H80" s="37" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="I80" s="38" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="J80" s="37" t="s">
         <v>1183</v>
@@ -32133,12 +32133,12 @@
         <v>0</v>
       </c>
       <c r="O80" s="38" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="16.8" customHeight="1">
       <c r="E81" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="H81" s="37" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="I81" s="38" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="J81" s="37" t="s">
         <v>1183</v>
@@ -32168,12 +32168,12 @@
         <v>0</v>
       </c>
       <c r="O81" s="38" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="16.8" customHeight="1">
       <c r="E82" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -32182,10 +32182,10 @@
         <v>0</v>
       </c>
       <c r="H82" s="37" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="I82" s="38" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="J82" s="37" t="s">
         <v>1183</v>
@@ -32203,12 +32203,12 @@
         <v>0</v>
       </c>
       <c r="O82" s="38" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="16.8" customHeight="1">
       <c r="E83" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -32217,10 +32217,10 @@
         <v>0</v>
       </c>
       <c r="H83" s="38" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="I83" s="38" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="J83" s="37" t="s">
         <v>1183</v>
@@ -32238,12 +32238,12 @@
         <v>0</v>
       </c>
       <c r="O83" s="42" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="16.8" customHeight="1">
       <c r="E84" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -32252,10 +32252,10 @@
         <v>0</v>
       </c>
       <c r="H84" s="38" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="I84" s="38" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="J84" s="37" t="s">
         <v>1183</v>
@@ -32273,12 +32273,12 @@
         <v>0</v>
       </c>
       <c r="O84" s="42" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="16.8" customHeight="1">
       <c r="E85" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -32287,10 +32287,10 @@
         <v>0</v>
       </c>
       <c r="H85" s="38" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="I85" s="38" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="J85" s="37" t="s">
         <v>1183</v>
@@ -32308,12 +32308,12 @@
         <v>0</v>
       </c>
       <c r="O85" s="42" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="16.8" customHeight="1">
       <c r="E86" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -32322,10 +32322,10 @@
         <v>0</v>
       </c>
       <c r="H86" s="38" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="I86" s="38" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="J86" s="37" t="s">
         <v>1183</v>
@@ -32343,12 +32343,12 @@
         <v>0</v>
       </c>
       <c r="O86" s="42" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="16.8" customHeight="1">
       <c r="E87" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -32357,10 +32357,10 @@
         <v>0</v>
       </c>
       <c r="H87" s="38" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="I87" s="38" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="J87" s="37" t="s">
         <v>1183</v>
@@ -32378,7 +32378,7 @@
         <v>0</v>
       </c>
       <c r="O87" s="42" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -35479,7 +35479,7 @@
         <v>943</v>
       </c>
       <c r="H224" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="I224" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -35507,7 +35507,7 @@
         <v>947</v>
       </c>
       <c r="H225" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="L225">
         <v>0</v>
@@ -35528,7 +35528,7 @@
         <v>943</v>
       </c>
       <c r="H226" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="I226" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -35556,7 +35556,7 @@
         <v>947</v>
       </c>
       <c r="H227" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="L227">
         <v>0</v>
@@ -35616,7 +35616,7 @@
     </row>
     <row r="230" spans="5:13">
       <c r="E230" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="F230" t="str">
         <f>E82</f>
@@ -35644,7 +35644,7 @@
     </row>
     <row r="231" spans="5:13">
       <c r="E231" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="F231" t="str">
         <f>E82</f>
@@ -35665,7 +35665,7 @@
     </row>
     <row r="232" spans="5:13">
       <c r="E232" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="F232" t="str">
         <f>E83</f>
@@ -35675,7 +35675,7 @@
         <v>943</v>
       </c>
       <c r="H232" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="I232" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -35693,7 +35693,7 @@
     </row>
     <row r="233" spans="5:13">
       <c r="E233" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="F233" t="str">
         <f>E83</f>
@@ -35703,7 +35703,7 @@
         <v>947</v>
       </c>
       <c r="H233" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="L233">
         <v>0</v>
@@ -35714,7 +35714,7 @@
     </row>
     <row r="234" spans="5:13">
       <c r="E234" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="F234" t="str">
         <f>E84</f>
@@ -35724,7 +35724,7 @@
         <v>943</v>
       </c>
       <c r="H234" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="I234" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -35742,7 +35742,7 @@
     </row>
     <row r="235" spans="5:13">
       <c r="E235" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="F235" t="str">
         <f>E84</f>
@@ -35752,7 +35752,7 @@
         <v>947</v>
       </c>
       <c r="H235" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="L235">
         <v>0</v>
@@ -35763,7 +35763,7 @@
     </row>
     <row r="236" spans="5:13">
       <c r="E236" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="F236" t="str">
         <f>E85</f>
@@ -35773,7 +35773,7 @@
         <v>943</v>
       </c>
       <c r="H236" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="I236" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -35791,7 +35791,7 @@
     </row>
     <row r="237" spans="5:13">
       <c r="E237" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="F237" t="str">
         <f>E85</f>
@@ -35801,7 +35801,7 @@
         <v>947</v>
       </c>
       <c r="H237" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="L237">
         <v>0</v>
@@ -35812,7 +35812,7 @@
     </row>
     <row r="238" spans="5:13">
       <c r="E238" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="F238" t="str">
         <f>E86</f>
@@ -35822,7 +35822,7 @@
         <v>943</v>
       </c>
       <c r="H238" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="I238" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -35840,7 +35840,7 @@
     </row>
     <row r="239" spans="5:13">
       <c r="E239" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="F239" t="str">
         <f>E86</f>
@@ -35850,7 +35850,7 @@
         <v>947</v>
       </c>
       <c r="H239" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="L239">
         <v>0</v>
@@ -35861,7 +35861,7 @@
     </row>
     <row r="240" spans="5:13" ht="18" customHeight="1">
       <c r="E240" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="F240" t="str">
         <f>E87</f>
@@ -35871,7 +35871,7 @@
         <v>943</v>
       </c>
       <c r="H240" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="I240" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -35889,7 +35889,7 @@
     </row>
     <row r="241" spans="1:13">
       <c r="E241" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="F241" t="str">
         <f>E87</f>
@@ -35899,7 +35899,7 @@
         <v>947</v>
       </c>
       <c r="H241" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="L241">
         <v>0</v>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new-choerodon\choerodon-message\src\main\resources\script\db\init-data\hzero_message\hzero_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7D016B-FFA2-49E8-AFEF-B7446A0280BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90BF2DB-1AC3-47FE-AA4E-D5900C58BF61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8818,13 +8818,6 @@
     <t>&lt;p&gt;亲爱的应用管理者，您好！
 很遗憾，您提交的应用“${marketAppName}”-版本“${marketAppVersion}”的发布申请，未通过审核。不通过原因为：
 ${rejectedMsg}。
-请修改后，再次申请。&lt;a href=#/devops/app-service?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情（点击后跳转至应用发布界面）。&lt;/a&gt;&lt;/p&gt;</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;亲爱的应用管理者，您好！
-很遗憾，您提交的应用“${marketAppName}”-版本“${marketAppVersion}”的发布申请，未通过审核。不通过原因为：
-${rejectedMsg}。
 请修改后，再次申请。&lt;/p&gt;</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -8854,6 +8847,13 @@
 很遗憾，您提交的应用“${marketAppName}”-版本“${marketAppVersion}”的下架申请，未通过审核。不通过原因为：
 ${rejectedMsg}。
 请修改后，再次申请。&lt;/p&gt;</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;亲爱的应用管理者，您好！
+很遗憾，您提交的应用“${marketAppName}”-版本“${marketAppVersion}”的发布申请，未通过审核。不通过原因为：
+${rejectedMsg}。
+请修改后，再次申请。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情（点击后跳转至应用发布界面）。&lt;/a&gt;&lt;/p&gt;</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -10027,8 +10027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q956"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E168" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I171" sqref="I171"/>
+    <sheetView tabSelected="1" topLeftCell="E158" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I159" sqref="I159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -14864,7 +14864,7 @@
         <v>1173</v>
       </c>
       <c r="I158" s="40" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="J158" s="39" t="s">
         <v>1162</v>
@@ -14899,7 +14899,7 @@
         <v>1173</v>
       </c>
       <c r="I159" s="40" t="s">
-        <v>1324</v>
+        <v>1329</v>
       </c>
       <c r="J159" s="39" t="s">
         <v>1162</v>
@@ -15004,7 +15004,7 @@
         <v>1243</v>
       </c>
       <c r="I162" s="40" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="J162" s="39" t="s">
         <v>1162</v>
@@ -15039,7 +15039,7 @@
         <v>1243</v>
       </c>
       <c r="I163" s="40" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="J163" s="39" t="s">
         <v>1162</v>
@@ -15144,7 +15144,7 @@
         <v>1258</v>
       </c>
       <c r="I166" s="40" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="J166" s="39" t="s">
         <v>1162</v>
@@ -15179,7 +15179,7 @@
         <v>1258</v>
       </c>
       <c r="I167" s="40" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="J167" s="39" t="s">
         <v>1162</v>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new-choerodon\choerodon-message\src\main\resources\script\db\init-data\hzero_message\hzero_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90BF2DB-1AC3-47FE-AA4E-D5900C58BF61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DD74B0-08D8-4EE9-A3E4-E51A78411639}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8771,42 +8771,12 @@
   </si>
   <si>
     <t>&lt;p&gt;市场应用审核者，您好，
-【组织：${tenantName}-项目：${projectName}】提交了应用“${marketAppName}”的信息修改申请，请尽快审核。&lt;a href=#/market/app-review&gt;查看详情（点击后跳转至审核界面）。&lt;/p&gt;</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;市场应用审核者，您好，
 【组织：${tenantName}-项目：${projectName}】提交了应用“${marketAppName}”-版本“${marketAppVersion}”的发布申请，请尽快审核。
 &lt;a href=#/market/app-review&gt;查看详情&lt;/a&gt;
 &lt;/p&gt;</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;p&gt;市场应用审核者，您好，
-【组织：${tenantName}-项目：${projectName}】提交了应用“${marketAppName}”-版本“${marketAppVersion}”的下架申请，请尽快审核。&lt;a href=#/market/app-review&gt;查看详情（点击后跳转至审核界面）。&lt;/p&gt;</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;亲爱的应用管理者，您好！
-您提交的应用“${marketAppName}”-版本“${marketAppVersion}”的发布申请，已通过审核。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情（点击后跳转至应用发布界面）。&lt;/p&gt;</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;亲爱的应用管理者，您好！
-您提交的应用“${marketAppName}”的信息修改，已通过审核。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情（点击后跳转至应用发布界面）。&lt;/p&gt;</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;亲爱的应用管理者，您好！
-您提交的应用“${marketAppName}”-版本“${marketAppVersion}”的下架申请，已通过审核。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情（点击后跳转至应用发布界面）。&lt;/a&gt;&lt;/p&gt;</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;亲爱的应用管理者，您好！
-您提交的应用“${marketAppName}”-版本“${marketAppVersion}”发布制品失败，请前往【应用发布】界面重试事务。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情（点击后跳转至应用发布界面）。&lt;/a&gt;&lt;/p&gt;</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>hmsg_message_template-155</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -8815,45 +8785,75 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;p&gt;市场应用审核者，您好，
+【组织：${tenantName}-项目：${projectName}】提交了应用“${marketAppName}”的信息修改申请，请尽快审核。&lt;a href=#/market/app-review&gt;查看详情。&lt;/p&gt;</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;市场应用审核者，您好，
+【组织：${tenantName}-项目：${projectName}】提交了应用“${marketAppName}”-版本“${marketAppVersion}”的下架申请，请尽快审核。&lt;a href=#/market/app-review&gt;查看详情。&lt;/p&gt;</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;p&gt;亲爱的应用管理者，您好！
 很遗憾，您提交的应用“${marketAppName}”-版本“${marketAppVersion}”的发布申请，未通过审核。不通过原因为：
-${rejectedMsg}。
+${rejectedMsg}。&lt;br/&gt;
 请修改后，再次申请。&lt;/p&gt;</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>&lt;p&gt;亲爱的应用管理者，您好！
-很遗憾，您提交的应用“${marketAppName}”的信息修改申请，未通过审核。不通过原因为：
-${rejectedMsg}。
-请修改后，再次申请。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情（点击后跳转至应用发布界面）。&lt;/a&gt;&lt;/p&gt;</t>
+很遗憾，您提交的应用“${marketAppName}”-版本“${marketAppVersion}”的发布申请，未通过审核。不通过原因为：
+${rejectedMsg}。&lt;br/&gt;
+请修改后，再次申请。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情。&lt;/a&gt;&lt;/p&gt;</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;亲爱的应用管理者，您好！
+您提交的应用“${marketAppName}”-版本“${marketAppVersion}”的发布申请，已通过审核。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情。&lt;/p&gt;</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>&lt;p&gt;亲爱的应用管理者，您好！
 很遗憾，您提交的应用“${marketAppName}”的修改申请，未通过审核。不通过原因为：
-${rejectedMsg}。
+${rejectedMsg}。&lt;br/&gt;
 请修改后，再次申请。&lt;/p&gt;</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>&lt;p&gt;亲爱的应用管理者，您好！
-很遗憾，您提交的应用“${marketAppName}”-版本“${marketAppVersion}”的下架申请，未通过审核。不通过原因为：
-${rejectedMsg}。
-请修改后，再次申请。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情（点击后跳转至应用发布界面）。&lt;/a&gt;&lt;/p&gt;</t>
+您提交的应用“${marketAppName}”的信息修改，已通过审核。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情。&lt;/p&gt;</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>&lt;p&gt;亲爱的应用管理者，您好！
 很遗憾，您提交的应用“${marketAppName}”-版本“${marketAppVersion}”的下架申请，未通过审核。不通过原因为：
-${rejectedMsg}。
+${rejectedMsg}。&lt;br/&gt;
 请修改后，再次申请。&lt;/p&gt;</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>&lt;p&gt;亲爱的应用管理者，您好！
-很遗憾，您提交的应用“${marketAppName}”-版本“${marketAppVersion}”的发布申请，未通过审核。不通过原因为：
-${rejectedMsg}。
-请修改后，再次申请。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情（点击后跳转至应用发布界面）。&lt;/a&gt;&lt;/p&gt;</t>
+很遗憾，您提交的应用“${marketAppName}”-版本“${marketAppVersion}”的下架申请，未通过审核。不通过原因为：
+${rejectedMsg}。&lt;br/&gt;
+请修改后，再次申请。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情。&lt;/a&gt;&lt;/p&gt;</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;亲爱的应用管理者，您好！
+您提交的应用“${marketAppName}”-版本“${marketAppVersion}”的下架申请，已通过审核。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情。&lt;/a&gt;&lt;/p&gt;</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;亲爱的应用管理者，您好！
+您提交的应用“${marketAppName}”-版本“${marketAppVersion}”发布制品失败，请前往【应用发布】界面重试事务。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情。&lt;/a&gt;&lt;/p&gt;</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;亲爱的应用管理者，您好！
+很遗憾，您提交的应用“${marketAppName}”的信息修改申请，未通过审核。不通过原因为：
+${rejectedMsg}。&lt;br/&gt;
+请修改后，再次申请。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情。&lt;/a&gt;&lt;/p&gt;</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -10027,8 +10027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q956"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E158" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I159" sqref="I159"/>
+    <sheetView tabSelected="1" topLeftCell="E168" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I172" sqref="I172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -14327,10 +14327,10 @@
     </row>
     <row r="143" spans="5:17" ht="156.6">
       <c r="E143" s="43" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
       <c r="F143" s="37" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="G143" s="7" t="s">
         <v>564</v>
@@ -14689,7 +14689,7 @@
         <v>1185</v>
       </c>
       <c r="I153" s="40" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="J153" s="39" t="s">
         <v>1162</v>
@@ -14759,7 +14759,7 @@
         <v>1235</v>
       </c>
       <c r="I155" s="40" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="J155" s="39" t="s">
         <v>1162</v>
@@ -14815,7 +14815,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="157" spans="5:17" s="41" customFormat="1" ht="104.4">
+    <row r="157" spans="5:17" s="41" customFormat="1" ht="87">
       <c r="E157" s="39" t="s">
         <v>1181</v>
       </c>
@@ -14829,7 +14829,7 @@
         <v>1237</v>
       </c>
       <c r="I157" s="40" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="J157" s="39" t="s">
         <v>1162</v>
@@ -14864,7 +14864,7 @@
         <v>1173</v>
       </c>
       <c r="I158" s="40" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="J158" s="39" t="s">
         <v>1162</v>
@@ -14885,7 +14885,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="159" spans="5:17" s="41" customFormat="1" ht="156.6">
+    <row r="159" spans="5:17" s="41" customFormat="1" ht="139.19999999999999">
       <c r="E159" s="39" t="s">
         <v>1271</v>
       </c>
@@ -14899,7 +14899,7 @@
         <v>1173</v>
       </c>
       <c r="I159" s="40" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
       <c r="J159" s="39" t="s">
         <v>1162</v>
@@ -14955,7 +14955,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="161" spans="1:17" s="41" customFormat="1" ht="121.8">
+    <row r="161" spans="1:17" s="41" customFormat="1" ht="104.4">
       <c r="E161" s="39" t="s">
         <v>1273</v>
       </c>
@@ -14969,7 +14969,7 @@
         <v>1176</v>
       </c>
       <c r="I161" s="40" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="J161" s="39" t="s">
         <v>1162</v>
@@ -15004,7 +15004,7 @@
         <v>1243</v>
       </c>
       <c r="I162" s="40" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="J162" s="39" t="s">
         <v>1162</v>
@@ -15025,7 +15025,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="163" spans="1:17" s="41" customFormat="1" ht="139.19999999999999">
+    <row r="163" spans="1:17" s="41" customFormat="1" ht="121.8">
       <c r="E163" s="39" t="s">
         <v>1275</v>
       </c>
@@ -15039,7 +15039,7 @@
         <v>1243</v>
       </c>
       <c r="I163" s="40" t="s">
-        <v>1325</v>
+        <v>1329</v>
       </c>
       <c r="J163" s="39" t="s">
         <v>1162</v>
@@ -15095,7 +15095,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="165" spans="1:17" s="41" customFormat="1" ht="104.4">
+    <row r="165" spans="1:17" s="41" customFormat="1" ht="87">
       <c r="E165" s="39" t="s">
         <v>1277</v>
       </c>
@@ -15109,7 +15109,7 @@
         <v>1246</v>
       </c>
       <c r="I165" s="40" t="s">
-        <v>1319</v>
+        <v>1324</v>
       </c>
       <c r="J165" s="39" t="s">
         <v>1162</v>
@@ -15144,7 +15144,7 @@
         <v>1258</v>
       </c>
       <c r="I166" s="40" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="J166" s="39" t="s">
         <v>1162</v>
@@ -15165,7 +15165,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="167" spans="1:17" s="41" customFormat="1" ht="156.6">
+    <row r="167" spans="1:17" s="41" customFormat="1" ht="139.19999999999999">
       <c r="E167" s="39" t="s">
         <v>1279</v>
       </c>
@@ -15179,7 +15179,7 @@
         <v>1258</v>
       </c>
       <c r="I167" s="40" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="J167" s="39" t="s">
         <v>1162</v>
@@ -15235,7 +15235,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="169" spans="1:17" s="41" customFormat="1" ht="121.8">
+    <row r="169" spans="1:17" s="41" customFormat="1" ht="104.4">
       <c r="E169" s="39" t="s">
         <v>1281</v>
       </c>
@@ -15249,7 +15249,7 @@
         <v>1263</v>
       </c>
       <c r="I169" s="40" t="s">
-        <v>1320</v>
+        <v>1327</v>
       </c>
       <c r="J169" s="39" t="s">
         <v>1162</v>
@@ -15305,7 +15305,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="171" spans="1:17" s="41" customFormat="1" ht="121.8">
+    <row r="171" spans="1:17" s="41" customFormat="1" ht="104.4">
       <c r="E171" s="39" t="s">
         <v>1283</v>
       </c>
@@ -15319,7 +15319,7 @@
         <v>1267</v>
       </c>
       <c r="I171" s="40" t="s">
-        <v>1321</v>
+        <v>1328</v>
       </c>
       <c r="J171" s="39" t="s">
         <v>1162</v>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new-choerodon\choerodon-message\src\main\resources\script\db\init-data\hzero_message\hzero_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DD74B0-08D8-4EE9-A3E4-E51A78411639}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C38B0D4-131A-4F16-8DEB-CF303FDC3F1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8785,16 +8785,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;p&gt;市场应用审核者，您好，
-【组织：${tenantName}-项目：${projectName}】提交了应用“${marketAppName}”的信息修改申请，请尽快审核。&lt;a href=#/market/app-review&gt;查看详情。&lt;/p&gt;</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;市场应用审核者，您好，
-【组织：${tenantName}-项目：${projectName}】提交了应用“${marketAppName}”-版本“${marketAppVersion}”的下架申请，请尽快审核。&lt;a href=#/market/app-review&gt;查看详情。&lt;/p&gt;</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;p&gt;亲爱的应用管理者，您好！
 很遗憾，您提交的应用“${marketAppName}”-版本“${marketAppVersion}”的发布申请，未通过审核。不通过原因为：
 ${rejectedMsg}。&lt;br/&gt;
@@ -8803,26 +8793,9 @@
   </si>
   <si>
     <t>&lt;p&gt;亲爱的应用管理者，您好！
-很遗憾，您提交的应用“${marketAppName}”-版本“${marketAppVersion}”的发布申请，未通过审核。不通过原因为：
-${rejectedMsg}。&lt;br/&gt;
-请修改后，再次申请。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情。&lt;/a&gt;&lt;/p&gt;</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;亲爱的应用管理者，您好！
-您提交的应用“${marketAppName}”-版本“${marketAppVersion}”的发布申请，已通过审核。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情。&lt;/p&gt;</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;亲爱的应用管理者，您好！
 很遗憾，您提交的应用“${marketAppName}”的修改申请，未通过审核。不通过原因为：
 ${rejectedMsg}。&lt;br/&gt;
 请修改后，再次申请。&lt;/p&gt;</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;亲爱的应用管理者，您好！
-您提交的应用“${marketAppName}”的信息修改，已通过审核。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情。&lt;/p&gt;</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
@@ -8834,26 +8807,53 @@
   </si>
   <si>
     <t>&lt;p&gt;亲爱的应用管理者，您好！
+您提交的应用“${marketAppName}”-版本“${marketAppVersion}”发布制品失败，请前往【应用发布】界面重试事务。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;亲爱的应用管理者，您好！
+您提交的应用“${marketAppName}”-版本“${marketAppVersion}”的下架申请，已通过审核。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;亲爱的应用管理者，您好！
 很遗憾，您提交的应用“${marketAppName}”-版本“${marketAppVersion}”的下架申请，未通过审核。不通过原因为：
 ${rejectedMsg}。&lt;br/&gt;
-请修改后，再次申请。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情。&lt;/a&gt;&lt;/p&gt;</t>
+请修改后，再次申请。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>&lt;p&gt;亲爱的应用管理者，您好！
-您提交的应用“${marketAppName}”-版本“${marketAppVersion}”的下架申请，已通过审核。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情。&lt;/a&gt;&lt;/p&gt;</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;亲爱的应用管理者，您好！
-您提交的应用“${marketAppName}”-版本“${marketAppVersion}”发布制品失败，请前往【应用发布】界面重试事务。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情。&lt;/a&gt;&lt;/p&gt;</t>
+您提交的应用“${marketAppName}”的信息修改，已通过审核。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情&lt;/p&gt;</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>&lt;p&gt;亲爱的应用管理者，您好！
 很遗憾，您提交的应用“${marketAppName}”的信息修改申请，未通过审核。不通过原因为：
 ${rejectedMsg}。&lt;br/&gt;
-请修改后，再次申请。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情。&lt;/a&gt;&lt;/p&gt;</t>
+请修改后，再次申请。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;亲爱的应用管理者，您好！
+您提交的应用“${marketAppName}”-版本“${marketAppVersion}”的发布申请，已通过审核。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情&lt;/p&gt;</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;亲爱的应用管理者，您好！
+很遗憾，您提交的应用“${marketAppName}”-版本“${marketAppVersion}”的发布申请，未通过审核。不通过原因为：
+${rejectedMsg}。&lt;br/&gt;
+请修改后，再次申请。&lt;a href=#/market/app-release?type=project&amp;id=${projectId}&amp;organizationId=${organizationId}&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;市场应用审核者，您好，
+【组织：${tenantName}-项目：${projectName}】提交了应用“${marketAppName}”-版本“${marketAppVersion}”的下架申请，请尽快审核。&lt;a href=#/market/app-review&gt;查看详情&lt;/p&gt;</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;市场应用审核者，您好，
+【组织：${tenantName}-项目：${projectName}】提交了应用“${marketAppName}”的信息修改申请，请尽快审核。&lt;a href=#/market/app-review&gt;查看详情&lt;/p&gt;</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -10027,8 +10027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q956"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E168" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I172" sqref="I172"/>
+    <sheetView tabSelected="1" topLeftCell="E150" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I153" sqref="I153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -14759,7 +14759,7 @@
         <v>1235</v>
       </c>
       <c r="I155" s="40" t="s">
-        <v>1318</v>
+        <v>1329</v>
       </c>
       <c r="J155" s="39" t="s">
         <v>1162</v>
@@ -14829,7 +14829,7 @@
         <v>1237</v>
       </c>
       <c r="I157" s="40" t="s">
-        <v>1319</v>
+        <v>1328</v>
       </c>
       <c r="J157" s="39" t="s">
         <v>1162</v>
@@ -14864,7 +14864,7 @@
         <v>1173</v>
       </c>
       <c r="I158" s="40" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J158" s="39" t="s">
         <v>1162</v>
@@ -14899,7 +14899,7 @@
         <v>1173</v>
       </c>
       <c r="I159" s="40" t="s">
-        <v>1321</v>
+        <v>1327</v>
       </c>
       <c r="J159" s="39" t="s">
         <v>1162</v>
@@ -14969,7 +14969,7 @@
         <v>1176</v>
       </c>
       <c r="I161" s="40" t="s">
-        <v>1322</v>
+        <v>1326</v>
       </c>
       <c r="J161" s="39" t="s">
         <v>1162</v>
@@ -15004,7 +15004,7 @@
         <v>1243</v>
       </c>
       <c r="I162" s="40" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="J162" s="39" t="s">
         <v>1162</v>
@@ -15039,7 +15039,7 @@
         <v>1243</v>
       </c>
       <c r="I163" s="40" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="J163" s="39" t="s">
         <v>1162</v>
@@ -15144,7 +15144,7 @@
         <v>1258</v>
       </c>
       <c r="I166" s="40" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="J166" s="39" t="s">
         <v>1162</v>
@@ -15179,7 +15179,7 @@
         <v>1258</v>
       </c>
       <c r="I167" s="40" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="J167" s="39" t="s">
         <v>1162</v>
@@ -15249,7 +15249,7 @@
         <v>1263</v>
       </c>
       <c r="I169" s="40" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
       <c r="J169" s="39" t="s">
         <v>1162</v>
@@ -15319,7 +15319,7 @@
         <v>1267</v>
       </c>
       <c r="I171" s="40" t="s">
-        <v>1328</v>
+        <v>1321</v>
       </c>
       <c r="J171" s="39" t="s">
         <v>1162</v>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new-choerodon\choerodon-message\src\main\resources\script\db\init-data\hzero_message\hzero_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D9061F-2D82-4DC1-9DB2-04894AB94668}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1773E036-79DF-4DB4-8389-E4A503E0966B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5906" uniqueCount="1200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5906" uniqueCount="1201">
   <si>
     <r>
       <rPr>
@@ -8316,6 +8316,31 @@
   </si>
   <si>
     <t>PIPELINESTAGEAUDIT.WEB</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;p&gt;事务实例运行失败</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。&lt;/p&gt;&lt;p&gt;编号:${sagaInstanceId}&lt;/p&gt;&lt;p&gt;所属事务:${sagaCode}&lt;/p&gt;&lt;p&gt;层级:${level}&lt;/p&gt;&lt;p&gt;请自行重试或联系相关管理员&lt;/p&gt;</t>
+    </r>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -9469,8 +9494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q868"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A869" sqref="A869:XFD936"/>
+    <sheetView tabSelected="1" topLeftCell="G120" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I132" sqref="I132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -13449,8 +13474,8 @@
       <c r="H132" t="s">
         <v>528</v>
       </c>
-      <c r="I132" t="s">
-        <v>529</v>
+      <c r="I132" s="37" t="s">
+        <v>1200</v>
       </c>
       <c r="N132" t="s">
         <v>73</v>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\choerodon-message\src\main\resources\script\db\init-data\hzero_message\hzero_message\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,7 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -30,6 +35,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -48,6 +54,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -60,6 +67,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -78,6 +86,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -96,6 +105,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -114,6 +124,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -145,6 +156,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -163,6 +175,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -181,6 +194,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -202,6 +216,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -222,6 +237,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -242,6 +258,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -262,6 +279,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -282,6 +300,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -293,6 +312,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -311,6 +331,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -322,6 +343,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -340,6 +362,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -358,6 +381,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -376,6 +400,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -394,6 +419,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -441,6 +467,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -459,6 +486,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -477,6 +505,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -495,6 +524,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -506,6 +536,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -524,6 +555,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -542,6 +574,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -561,6 +594,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -579,6 +613,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -598,6 +633,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -616,6 +652,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -627,6 +664,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -645,6 +683,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -663,6 +702,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -686,6 +726,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -704,6 +745,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -722,6 +764,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -740,6 +783,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -758,6 +802,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -769,6 +814,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -787,6 +833,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -797,6 +844,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -817,6 +865,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -827,6 +876,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -845,6 +895,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -863,6 +914,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -886,6 +938,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -904,6 +957,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -923,6 +977,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -942,6 +997,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -961,6 +1017,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -981,6 +1038,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1000,6 +1058,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1034,6 +1093,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1054,6 +1114,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1065,6 +1126,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1083,6 +1145,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1103,6 +1166,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1121,6 +1185,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1133,6 +1198,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1151,6 +1217,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1169,6 +1236,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1187,6 +1255,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1201,6 +1270,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1219,6 +1289,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1237,6 +1308,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1255,6 +1327,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1273,6 +1346,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1288,6 +1362,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1297,6 +1372,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1315,6 +1391,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1330,6 +1407,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1339,6 +1417,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1357,6 +1436,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1371,6 +1451,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1389,6 +1470,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1407,6 +1489,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1426,6 +1509,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1449,6 +1533,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1467,6 +1552,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1485,6 +1571,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1504,6 +1591,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1524,6 +1612,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1534,6 +1623,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1543,6 +1633,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1554,6 +1645,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1572,6 +1664,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1590,6 +1683,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1608,6 +1702,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1627,6 +1722,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1645,6 +1741,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1663,6 +1760,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1682,6 +1780,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1700,6 +1799,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1718,6 +1818,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1736,6 +1837,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1755,6 +1857,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1766,6 +1869,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1776,6 +1880,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1785,6 +1890,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1796,6 +1902,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1814,6 +1921,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1825,6 +1933,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1843,6 +1952,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1862,6 +1972,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -3829,6 +3940,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>&lt;p&gt;事务实例运行失败</t>
@@ -3838,6 +3950,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>通知</t>
@@ -3847,6 +3960,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>。&lt;/p&gt;&lt;p&gt;编号:${sagaInstanceId}&lt;/p&gt;&lt;p&gt;所属事务:${sagaCode}&lt;/p&gt;&lt;p&gt;层级:${level}&lt;/p&gt;&lt;p&gt;请自行重试或联系相关管理员&lt;/p&gt;</t>
@@ -4553,6 +4667,7 @@
         <sz val="11"/>
         <color rgb="FF003366"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -4562,7 +4677,7 @@
         <sz val="11"/>
         <color rgb="FF003366"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>=</t>
     </r>
@@ -4571,6 +4686,7 @@
         <sz val="11"/>
         <color rgb="FF003366"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -4862,338 +4978,333 @@
     <t>SAGAINSTANCEFAILORG</t>
   </si>
   <si>
+    <t>PROJECT_ADD_USER</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-70</t>
+  </si>
+  <si>
+    <t>STOP_USER</t>
+  </si>
+  <si>
+    <t>停用用户</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-72</t>
+  </si>
+  <si>
+    <t>UPDATE_ENV_PERMISSIONS</t>
+  </si>
+  <si>
+    <t>权限分配</t>
+  </si>
+  <si>
+    <t>ENV-NOTICE</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-96</t>
+  </si>
+  <si>
+    <t>SYSTEMNOTIFICATION</t>
+  </si>
+  <si>
+    <t>系统公告</t>
+  </si>
+  <si>
+    <t>系统全平台公告</t>
+  </si>
+  <si>
+    <t>发送配置(其它)</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line</t>
+  </si>
+  <si>
+    <t>*temp_server_line_id</t>
+  </si>
+  <si>
+    <t>#temp_server_id</t>
+  </si>
+  <si>
+    <t>#type_code</t>
+  </si>
+  <si>
+    <t>server_id</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>server_code</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-91</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-92</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-93</t>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-94</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-95</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-96</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-97</t>
+  </si>
+  <si>
+    <t>WEB_HOOK</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-98</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-99</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-100</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-101</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-102</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-103</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-104</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-105</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-106</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-107</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-108</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-121</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-122</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-123</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-124</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-125</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-126</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-127</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-156</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-159</t>
+  </si>
+  <si>
+    <t>ENABLE_APP_SERVICE.EMAIL</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-160</t>
+  </si>
+  <si>
+    <t>ENABLE_APP_SERVICE.WEB</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-161</t>
+  </si>
+  <si>
+    <t>ENABLE_APP_SERVICE.DINGTALKANDWECHAT</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-162</t>
+  </si>
+  <si>
+    <t>ENABLE_APP_SERVICE_JSON</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-188</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-189</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-190</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-191</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-192</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-193</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-194</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-195</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-196</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-197</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-210</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-212</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-214</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-215</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-217</t>
+  </si>
+  <si>
+    <t>UPDATE_ENV_PERMISSIONS_JSON</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-226</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-247</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-248</t>
+  </si>
+  <si>
+    <t>SMS</t>
+  </si>
+  <si>
+    <t>SYSTEM_NOTIFICATION.SMS</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config</t>
+  </si>
+  <si>
+    <t>*id</t>
+  </si>
+  <si>
+    <t>#edit</t>
+  </si>
+  <si>
+    <t>#TENANT_ID</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-224</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-225</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-226</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-227</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-228</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-229</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-230</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-234</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-235</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-236</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-237</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-238</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-245</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-258</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-259</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-260</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-261</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-272</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-274</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-275</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-277</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-279</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config-286</t>
+  </si>
+  <si>
     <t>hmsg_template_server-68</t>
-  </si>
-  <si>
-    <t>PROJECT_ADD_USER</t>
-  </si>
-  <si>
-    <t>hmsg_template_server-70</t>
-  </si>
-  <si>
-    <t>STOP_USER</t>
-  </si>
-  <si>
-    <t>停用用户</t>
-  </si>
-  <si>
-    <t>hmsg_template_server-72</t>
-  </si>
-  <si>
-    <t>UPDATE_ENV_PERMISSIONS</t>
-  </si>
-  <si>
-    <t>权限分配</t>
-  </si>
-  <si>
-    <t>ENV-NOTICE</t>
-  </si>
-  <si>
-    <t>hmsg_template_server-96</t>
-  </si>
-  <si>
-    <t>SYSTEMNOTIFICATION</t>
-  </si>
-  <si>
-    <t>系统公告</t>
-  </si>
-  <si>
-    <t>系统全平台公告</t>
-  </si>
-  <si>
-    <t>发送配置(其它)</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line</t>
-  </si>
-  <si>
-    <t>*temp_server_line_id</t>
-  </si>
-  <si>
-    <t>#temp_server_id</t>
-  </si>
-  <si>
-    <t>#type_code</t>
-  </si>
-  <si>
-    <t>server_id</t>
-  </si>
-  <si>
-    <t>remark</t>
-  </si>
-  <si>
-    <t>server_code</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-91</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-92</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-93</t>
-  </si>
-  <si>
-    <t>WEB</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-94</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-95</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-96</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-97</t>
-  </si>
-  <si>
-    <t>WEB_HOOK</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-98</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-99</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-100</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-101</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-102</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-103</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-104</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-105</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-106</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-107</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-108</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-121</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-122</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-123</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-124</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-125</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-126</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-127</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-156</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-159</t>
-  </si>
-  <si>
-    <t>ENABLE_APP_SERVICE.EMAIL</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-160</t>
-  </si>
-  <si>
-    <t>ENABLE_APP_SERVICE.WEB</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-161</t>
-  </si>
-  <si>
-    <t>ENABLE_APP_SERVICE.DINGTALKANDWECHAT</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-162</t>
-  </si>
-  <si>
-    <t>ENABLE_APP_SERVICE_JSON</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-188</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-189</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-190</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-191</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-192</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-193</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-194</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-195</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-196</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-197</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-210</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-212</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-214</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-215</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-217</t>
-  </si>
-  <si>
-    <t>UPDATE_ENV_PERMISSIONS_JSON</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-226</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-247</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-248</t>
-  </si>
-  <si>
-    <t>SMS</t>
-  </si>
-  <si>
-    <t>SYSTEM_NOTIFICATION.SMS</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config</t>
-  </si>
-  <si>
-    <t>*id</t>
-  </si>
-  <si>
-    <t>#edit</t>
-  </si>
-  <si>
-    <t>#TENANT_ID</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-224</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-225</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-226</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-227</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-228</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-229</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-230</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-234</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-235</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-236</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-237</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-238</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-245</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-258</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-259</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-260</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-261</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-272</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-274</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-275</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-277</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-279</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config-286</t>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="42">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -5204,19 +5315,19 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5228,13 +5339,13 @@
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -5281,160 +5392,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF003366"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -5465,12 +5425,14 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -5479,8 +5441,58 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF003366"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5511,194 +5523,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -5799,254 +5625,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6071,20 +5655,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -6118,9 +5690,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6128,59 +5697,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -6253,6 +5791,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -6510,270 +6051,267 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.5833333333333" style="12" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" style="12" customWidth="1"/>
     <col min="2" max="2" width="10.25" style="13" customWidth="1"/>
-    <col min="3" max="3" width="28.1666666666667" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" customWidth="1"/>
     <col min="4" max="4" width="35.25" style="14" customWidth="1"/>
-    <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
-    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
-    <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
+    <col min="9" max="9" width="24.58203125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1666666666667" customWidth="1"/>
-    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
-    <col min="13" max="13" width="13.1666666666667" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" customWidth="1"/>
+    <col min="12" max="12" width="18.58203125" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" customWidth="1"/>
     <col min="14" max="1025" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="15"/>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="18"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="19" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="21" t="s">
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="41"/>
+      <c r="E4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="15"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="25" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="28" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="30"/>
-    </row>
-    <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="31" t="s">
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:8" ht="52.2">
+      <c r="C9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="29" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="34" t="s">
+    <row r="10" spans="1:8" ht="52.2">
+      <c r="C10" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="28" t="s">
+    <row r="11" spans="1:8" ht="69.599999999999994">
+      <c r="C11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="28" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
-    </row>
-    <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="36" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.799999999999997">
+      <c r="C15" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="40" t="s">
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="40" t="s">
+    <row r="21" spans="3:5">
+      <c r="C21" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="40" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="35" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="40" t="s">
+    <row r="23" spans="3:5">
+      <c r="C23" s="35" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="41" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="19"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="29" t="s">
+      <c r="E25" s="39"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="19"/>
-    </row>
-    <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="42" t="s">
+      <c r="E26" s="39"/>
+    </row>
+    <row r="27" spans="3:5" ht="52.2">
+      <c r="C27" s="37" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="27" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="5" max="5" width="23.25" customWidth="1"/>
     <col min="6" max="6" width="21.25" customWidth="1"/>
-    <col min="8" max="8" width="14.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -6787,7 +6325,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:18">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -6854,7 +6392,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="5:18">
+    <row r="8" spans="1:18">
       <c r="E8" t="s">
         <v>68</v>
       </c>
@@ -6895,7 +6433,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -6925,37 +6463,36 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q193"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A194" sqref="$A194:$XFD280"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="4" max="4" width="22.5833333333333" customWidth="1"/>
-    <col min="5" max="5" width="26.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="44.8333333333333" customWidth="1"/>
-    <col min="7" max="7" width="29.4166666666667" customWidth="1"/>
+    <col min="4" max="4" width="22.58203125" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="44.83203125" customWidth="1"/>
+    <col min="7" max="7" width="29.4140625" customWidth="1"/>
     <col min="8" max="8" width="24.25" customWidth="1"/>
-    <col min="9" max="9" width="41.4166666666667" customWidth="1"/>
-    <col min="10" max="10" width="29.3333333333333" customWidth="1"/>
-    <col min="11" max="11" width="32.1666666666667" customWidth="1"/>
-    <col min="13" max="13" width="33.1666666666667" customWidth="1"/>
-    <col min="14" max="14" width="23.4166666666667" customWidth="1"/>
-    <col min="15" max="15" width="29.4166666666667" customWidth="1"/>
-    <col min="16" max="16" width="29.8333333333333" customWidth="1"/>
+    <col min="9" max="9" width="41.4140625" customWidth="1"/>
+    <col min="10" max="10" width="29.33203125" customWidth="1"/>
+    <col min="11" max="11" width="32.1640625" customWidth="1"/>
+    <col min="13" max="13" width="33.1640625" customWidth="1"/>
+    <col min="14" max="14" width="23.4140625" customWidth="1"/>
+    <col min="15" max="15" width="29.4140625" customWidth="1"/>
+    <col min="16" max="16" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -6969,7 +6506,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:17">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -7033,7 +6570,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="5:17">
+    <row r="8" spans="1:17">
       <c r="E8" t="s">
         <v>98</v>
       </c>
@@ -7068,7 +6605,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="5:17">
+    <row r="9" spans="1:17">
       <c r="E9" t="s">
         <v>107</v>
       </c>
@@ -7097,7 +6634,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="5:17">
+    <row r="10" spans="1:17">
       <c r="E10" t="s">
         <v>111</v>
       </c>
@@ -7126,7 +6663,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="5:17">
+    <row r="11" spans="1:17">
       <c r="E11" t="s">
         <v>114</v>
       </c>
@@ -7155,7 +6692,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="5:17">
+    <row r="12" spans="1:17">
       <c r="E12" t="s">
         <v>118</v>
       </c>
@@ -7184,7 +6721,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="5:17">
+    <row r="13" spans="1:17">
       <c r="E13" t="s">
         <v>121</v>
       </c>
@@ -7219,7 +6756,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="5:17">
+    <row r="14" spans="1:17">
       <c r="E14" t="s">
         <v>125</v>
       </c>
@@ -7254,7 +6791,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="5:17">
+    <row r="15" spans="1:17">
       <c r="E15" t="s">
         <v>131</v>
       </c>
@@ -7289,7 +6826,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="5:17">
+    <row r="16" spans="1:17">
       <c r="E16" t="s">
         <v>135</v>
       </c>
@@ -8282,7 +7819,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="5:17">
+    <row r="49" spans="1:17">
       <c r="E49" t="s">
         <v>249</v>
       </c>
@@ -8317,7 +7854,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="5:17">
+    <row r="50" spans="1:17">
       <c r="E50" t="s">
         <v>253</v>
       </c>
@@ -8346,7 +7883,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:17">
       <c r="A52" t="s">
         <v>84</v>
       </c>
@@ -8381,7 +7918,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="5:11">
+    <row r="53" spans="1:17">
       <c r="E53" t="s">
         <v>264</v>
       </c>
@@ -8399,7 +7936,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="5:11">
+    <row r="54" spans="1:17">
       <c r="E54" t="s">
         <v>264</v>
       </c>
@@ -8417,7 +7954,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="5:11">
+    <row r="55" spans="1:17">
       <c r="E55" t="s">
         <v>264</v>
       </c>
@@ -8435,7 +7972,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="5:11">
+    <row r="56" spans="1:17">
       <c r="E56" t="s">
         <v>264</v>
       </c>
@@ -8453,7 +7990,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="5:11">
+    <row r="57" spans="1:17">
       <c r="E57" t="s">
         <v>264</v>
       </c>
@@ -8471,7 +8008,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="5:11">
+    <row r="58" spans="1:17">
       <c r="E58" t="s">
         <v>264</v>
       </c>
@@ -8489,7 +8026,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="5:11">
+    <row r="59" spans="1:17">
       <c r="E59" t="s">
         <v>264</v>
       </c>
@@ -8507,7 +8044,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="5:11">
+    <row r="60" spans="1:17">
       <c r="E60" t="s">
         <v>264</v>
       </c>
@@ -8525,7 +8062,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="5:11">
+    <row r="61" spans="1:17">
       <c r="E61" t="s">
         <v>264</v>
       </c>
@@ -8543,7 +8080,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="5:11">
+    <row r="62" spans="1:17">
       <c r="E62" t="s">
         <v>264</v>
       </c>
@@ -8561,7 +8098,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="5:11">
+    <row r="63" spans="1:17">
       <c r="E63" t="s">
         <v>264</v>
       </c>
@@ -8579,7 +8116,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="5:11">
+    <row r="64" spans="1:17">
       <c r="E64" t="s">
         <v>264</v>
       </c>
@@ -10920,40 +10457,39 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B94" workbookViewId="0">
-      <selection activeCell="B108" sqref="$A108:$XFD113"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="22.4166666666667" customWidth="1"/>
-    <col min="2" max="2" width="15.4166666666667" customWidth="1"/>
-    <col min="3" max="3" width="22.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="29.4166666666667" customWidth="1"/>
-    <col min="5" max="5" width="43.6666666666667" customWidth="1"/>
-    <col min="6" max="7" width="34.4166666666667" customWidth="1"/>
-    <col min="8" max="8" width="37.9166666666667" customWidth="1"/>
-    <col min="9" max="9" width="26.9166666666667" customWidth="1"/>
-    <col min="10" max="10" width="14.1666666666667" customWidth="1"/>
-    <col min="11" max="11" width="26.8333333333333" customWidth="1"/>
-    <col min="12" max="12" width="29.8333333333333" customWidth="1"/>
-    <col min="13" max="13" width="24.8333333333333" customWidth="1"/>
-    <col min="14" max="14" width="17.5833333333333" customWidth="1"/>
-    <col min="15" max="15" width="15.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="22.4140625" customWidth="1"/>
+    <col min="2" max="2" width="15.4140625" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.4140625" customWidth="1"/>
+    <col min="5" max="5" width="43.6640625" customWidth="1"/>
+    <col min="6" max="7" width="34.4140625" customWidth="1"/>
+    <col min="8" max="8" width="37.9140625" customWidth="1"/>
+    <col min="9" max="9" width="26.9140625" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="11" max="11" width="26.83203125" customWidth="1"/>
+    <col min="12" max="12" width="29.83203125" customWidth="1"/>
+    <col min="13" max="13" width="24.83203125" customWidth="1"/>
+    <col min="14" max="14" width="17.58203125" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -10967,7 +10503,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:8">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -11026,7 +10562,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>313</v>
       </c>
@@ -11061,7 +10597,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>320</v>
       </c>
@@ -11096,7 +10632,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>326</v>
       </c>
@@ -11131,7 +10667,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>329</v>
       </c>
@@ -11166,7 +10702,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>334</v>
       </c>
@@ -11201,7 +10737,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>337</v>
       </c>
@@ -11236,7 +10772,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>341</v>
       </c>
@@ -11271,7 +10807,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>345</v>
       </c>
@@ -11306,7 +10842,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>350</v>
       </c>
@@ -11762,8 +11298,8 @@
       </c>
     </row>
     <row r="29" spans="5:15">
-      <c r="E29" t="s">
-        <v>398</v>
+      <c r="E29" s="43" t="s">
+        <v>504</v>
       </c>
       <c r="F29" t="s">
         <v>76</v>
@@ -11772,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I29" t="s">
         <v>322</v>
@@ -11798,7 +11334,7 @@
     </row>
     <row r="30" spans="5:15">
       <c r="E30" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F30" t="s">
         <v>76</v>
@@ -11807,10 +11343,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
+        <v>400</v>
+      </c>
+      <c r="I30" t="s">
         <v>401</v>
-      </c>
-      <c r="I30" t="s">
-        <v>402</v>
       </c>
       <c r="J30" t="s">
         <v>316</v>
@@ -11828,12 +11364,12 @@
         <v>105</v>
       </c>
       <c r="O30" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="31" spans="5:15">
       <c r="E31" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F31" t="s">
         <v>76</v>
@@ -11842,10 +11378,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
+        <v>403</v>
+      </c>
+      <c r="I31" t="s">
         <v>404</v>
-      </c>
-      <c r="I31" t="s">
-        <v>405</v>
       </c>
       <c r="J31" t="s">
         <v>316</v>
@@ -11857,18 +11393,18 @@
         <v>331</v>
       </c>
       <c r="M31" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N31" t="s">
         <v>105</v>
       </c>
       <c r="O31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="32" spans="5:15">
       <c r="E32" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -11877,10 +11413,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
+        <v>407</v>
+      </c>
+      <c r="I32" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>316</v>
@@ -11898,7 +11434,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -11909,31 +11445,31 @@
         <v>51</v>
       </c>
       <c r="C34" t="s">
+        <v>410</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>414</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>415</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>88</v>
       </c>
       <c r="I34" t="s">
+        <v>415</v>
+      </c>
+      <c r="J34" t="s">
         <v>416</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>417</v>
-      </c>
-      <c r="K34" t="s">
-        <v>418</v>
       </c>
       <c r="L34" t="s">
         <v>60</v>
@@ -11942,16 +11478,16 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="5:13">
+    <row r="35" spans="1:13">
       <c r="E35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F35" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G35" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H35" t="s">
         <v>181</v>
@@ -11970,16 +11506,16 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="5:13">
+    <row r="36" spans="1:13">
       <c r="E36" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F36" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G36" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H36" t="s">
         <v>115</v>
@@ -11998,16 +11534,16 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="5:13">
+    <row r="37" spans="1:13">
       <c r="E37" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F37" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G37" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H37" t="s">
         <v>119</v>
@@ -12019,16 +11555,16 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="5:13">
+    <row r="38" spans="1:13">
       <c r="E38" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F38" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G38" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H38" t="s">
         <v>202</v>
@@ -12040,16 +11576,16 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="5:13">
+    <row r="39" spans="1:13">
       <c r="E39" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F39" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G39" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H39" t="s">
         <v>176</v>
@@ -12068,16 +11604,16 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="5:13">
+    <row r="40" spans="1:13">
       <c r="E40" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F40" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G40" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H40" t="s">
         <v>179</v>
@@ -12089,16 +11625,16 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="5:13">
+    <row r="41" spans="1:13">
       <c r="E41" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F41" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G41" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H41" t="s">
         <v>172</v>
@@ -12110,16 +11646,16 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="5:13">
+    <row r="42" spans="1:13">
       <c r="E42" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F42" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G42" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H42" t="s">
         <v>169</v>
@@ -12131,16 +11667,16 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="5:13">
+    <row r="43" spans="1:13">
       <c r="E43" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F43" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G43" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H43" t="s">
         <v>154</v>
@@ -12159,16 +11695,16 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="5:13">
+    <row r="44" spans="1:13">
       <c r="E44" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F44" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G44" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H44" t="s">
         <v>158</v>
@@ -12180,16 +11716,16 @@
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="5:13">
+    <row r="45" spans="1:13">
       <c r="E45" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F45" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G45" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H45" t="s">
         <v>150</v>
@@ -12201,16 +11737,16 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="5:13">
+    <row r="46" spans="1:13">
       <c r="E46" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F46" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G46" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H46" t="s">
         <v>146</v>
@@ -12222,16 +11758,16 @@
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="5:13">
+    <row r="47" spans="1:13">
       <c r="E47" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F47" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G47" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H47" t="s">
         <v>167</v>
@@ -12243,16 +11779,16 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="5:13">
+    <row r="48" spans="1:13">
       <c r="E48" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F48" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G48" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H48" t="s">
         <v>163</v>
@@ -12266,14 +11802,14 @@
     </row>
     <row r="49" spans="5:13">
       <c r="E49" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F49" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G49" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H49" t="s">
         <v>160</v>
@@ -12287,14 +11823,14 @@
     </row>
     <row r="50" spans="5:13">
       <c r="E50" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F50" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G50" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H50" t="s">
         <v>144</v>
@@ -12308,14 +11844,14 @@
     </row>
     <row r="51" spans="5:13">
       <c r="E51" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F51" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G51" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H51" t="s">
         <v>140</v>
@@ -12329,14 +11865,14 @@
     </row>
     <row r="52" spans="5:13">
       <c r="E52" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F52" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G52" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H52" t="s">
         <v>136</v>
@@ -12350,14 +11886,14 @@
     </row>
     <row r="53" spans="5:13">
       <c r="E53" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F53" t="str">
         <f>发送配置!$E$16</f>
         <v>hmsg_template_server-19</v>
       </c>
       <c r="G53" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H53" t="s">
         <v>200</v>
@@ -12371,14 +11907,14 @@
     </row>
     <row r="54" spans="5:13">
       <c r="E54" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F54" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G54" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H54" t="s">
         <v>197</v>
@@ -12392,14 +11928,14 @@
     </row>
     <row r="55" spans="5:13">
       <c r="E55" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F55" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G55" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H55" t="s">
         <v>193</v>
@@ -12413,14 +11949,14 @@
     </row>
     <row r="56" spans="5:13">
       <c r="E56" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F56" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G56" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H56" t="s">
         <v>189</v>
@@ -12434,14 +11970,14 @@
     </row>
     <row r="57" spans="5:13">
       <c r="E57" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F57" t="str">
         <f>发送配置!$E$18</f>
         <v>hmsg_template_server-21</v>
       </c>
       <c r="G57" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H57" t="s">
         <v>217</v>
@@ -12462,14 +11998,14 @@
     </row>
     <row r="58" spans="5:13">
       <c r="E58" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F58" t="str">
         <f>发送配置!$E$18</f>
         <v>hmsg_template_server-21</v>
       </c>
       <c r="G58" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H58" t="s">
         <v>221</v>
@@ -12483,14 +12019,14 @@
     </row>
     <row r="59" spans="5:13">
       <c r="E59" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F59" t="str">
         <f>发送配置!$E$19</f>
         <v>hmsg_template_server-22</v>
       </c>
       <c r="G59" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H59" t="s">
         <v>234</v>
@@ -12504,14 +12040,14 @@
     </row>
     <row r="60" spans="5:13">
       <c r="E60" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F60" t="str">
         <f>发送配置!$E$20</f>
         <v>hmsg_template_server-35</v>
       </c>
       <c r="G60" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H60" t="s">
         <v>185</v>
@@ -12532,17 +12068,17 @@
     </row>
     <row r="61" spans="5:13">
       <c r="E61" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F61" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G61" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H61" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I61" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -12560,17 +12096,17 @@
     </row>
     <row r="62" spans="5:13">
       <c r="E62" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F62" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G62" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H62" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L62" t="s">
         <v>76</v>
@@ -12581,17 +12117,17 @@
     </row>
     <row r="63" spans="5:13">
       <c r="E63" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F63" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G63" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H63" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L63" t="s">
         <v>76</v>
@@ -12602,17 +12138,17 @@
     </row>
     <row r="64" spans="5:13">
       <c r="E64" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F64" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G64" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H64" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L64" t="s">
         <v>76</v>
@@ -12623,14 +12159,14 @@
     </row>
     <row r="65" spans="5:13">
       <c r="E65" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F65" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G65" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H65" t="s">
         <v>108</v>
@@ -12651,14 +12187,14 @@
     </row>
     <row r="66" spans="5:13">
       <c r="E66" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F66" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G66" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H66" t="s">
         <v>112</v>
@@ -12672,14 +12208,14 @@
     </row>
     <row r="67" spans="5:13">
       <c r="E67" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F67" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G67" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H67" t="s">
         <v>99</v>
@@ -12693,14 +12229,14 @@
     </row>
     <row r="68" spans="5:13">
       <c r="E68" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F68" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-50</v>
       </c>
       <c r="G68" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H68" t="s">
         <v>243</v>
@@ -12721,14 +12257,14 @@
     </row>
     <row r="69" spans="5:13">
       <c r="E69" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F69" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-50</v>
       </c>
       <c r="G69" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H69" t="s">
         <v>247</v>
@@ -12742,14 +12278,14 @@
     </row>
     <row r="70" spans="5:13">
       <c r="E70" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F70" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G70" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H70" t="s">
         <v>210</v>
@@ -12770,14 +12306,14 @@
     </row>
     <row r="71" spans="5:13">
       <c r="E71" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F71" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G71" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H71" t="s">
         <v>214</v>
@@ -12791,14 +12327,14 @@
     </row>
     <row r="72" spans="5:13">
       <c r="E72" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F72" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G72" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H72" t="s">
         <v>206</v>
@@ -12812,14 +12348,14 @@
     </row>
     <row r="73" spans="5:13">
       <c r="E73" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F73" t="str">
         <f>发送配置!$E$25</f>
         <v>hmsg_template_server-52</v>
       </c>
       <c r="G73" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H73" t="s">
         <v>237</v>
@@ -12840,14 +12376,14 @@
     </row>
     <row r="74" spans="5:13">
       <c r="E74" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F74" t="str">
         <f>发送配置!$E$25</f>
         <v>hmsg_template_server-52</v>
       </c>
       <c r="G74" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H74" t="s">
         <v>240</v>
@@ -12861,20 +12397,20 @@
     </row>
     <row r="75" spans="5:13">
       <c r="E75" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F75" t="str">
         <f>发送配置!$E$26</f>
         <v>hmsg_template_server-63</v>
       </c>
       <c r="G75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H75" t="s">
         <v>126</v>
       </c>
       <c r="L75" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M75" t="s">
         <v>105</v>
@@ -12882,20 +12418,20 @@
     </row>
     <row r="76" spans="5:13">
       <c r="E76" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F76" t="str">
         <f>发送配置!$E$27</f>
         <v>hmsg_template_server-65</v>
       </c>
       <c r="G76" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H76" t="s">
         <v>132</v>
       </c>
       <c r="L76" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M76" t="s">
         <v>105</v>
@@ -12903,20 +12439,20 @@
     </row>
     <row r="77" spans="5:13">
       <c r="E77" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F77" t="str">
         <f>发送配置!$E$29</f>
         <v>hmsg_template_server-68</v>
       </c>
       <c r="G77" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H77" t="s">
         <v>206</v>
       </c>
       <c r="L77" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M77" t="s">
         <v>105</v>
@@ -12924,20 +12460,20 @@
     </row>
     <row r="78" spans="5:13">
       <c r="E78" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F78" t="str">
         <f>发送配置!$E$30</f>
         <v>hmsg_template_server-70</v>
       </c>
       <c r="G78" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H78" t="s">
         <v>250</v>
       </c>
       <c r="L78" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M78" t="s">
         <v>105</v>
@@ -12945,20 +12481,20 @@
     </row>
     <row r="79" spans="5:13">
       <c r="E79" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F79" t="str">
         <f>发送配置!$E$31</f>
         <v>hmsg_template_server-72</v>
       </c>
       <c r="G79" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H79" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L79" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M79" t="s">
         <v>105</v>
@@ -12966,14 +12502,14 @@
     </row>
     <row r="80" spans="5:13">
       <c r="E80" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F80" t="str">
         <f>发送配置!$E$28</f>
         <v>hmsg_template_server-66</v>
       </c>
       <c r="G80" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H80" t="s">
         <v>230</v>
@@ -12985,16 +12521,16 @@
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="5:13">
+    <row r="81" spans="1:13">
       <c r="E81" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F81" t="str">
         <f t="shared" ref="F81" si="0">E32</f>
         <v>hmsg_template_server-96</v>
       </c>
       <c r="G81" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H81" t="s">
         <v>254</v>
@@ -13006,19 +12542,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="5:13">
+    <row r="82" spans="1:13">
       <c r="E82" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F82" t="str">
         <f>E32</f>
         <v>hmsg_template_server-96</v>
       </c>
       <c r="G82" t="s">
+        <v>475</v>
+      </c>
+      <c r="H82" t="s">
         <v>476</v>
-      </c>
-      <c r="H82" t="s">
-        <v>477</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -13027,7 +12563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:13">
       <c r="A84" s="10">
         <v>44036</v>
       </c>
@@ -13038,24 +12574,24 @@
         <v>303</v>
       </c>
       <c r="D84" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>479</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>306</v>
       </c>
       <c r="G84" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="H84" t="s">
         <v>480</v>
       </c>
-      <c r="H84" t="s">
+    </row>
+    <row r="85" spans="1:13">
+      <c r="E85" t="s">
         <v>481</v>
-      </c>
-    </row>
-    <row r="85" spans="5:8">
-      <c r="E85" t="s">
-        <v>482</v>
       </c>
       <c r="F85" t="s">
         <v>314</v>
@@ -13067,9 +12603,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="5:8">
+    <row r="86" spans="1:13">
       <c r="E86" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F86" t="s">
         <v>321</v>
@@ -13081,9 +12617,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="5:8">
+    <row r="87" spans="1:13">
       <c r="E87" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F87" t="s">
         <v>327</v>
@@ -13095,9 +12631,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="5:8">
+    <row r="88" spans="1:13">
       <c r="E88" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F88" t="s">
         <v>330</v>
@@ -13109,9 +12645,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="5:8">
+    <row r="89" spans="1:13">
       <c r="E89" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F89" t="s">
         <v>335</v>
@@ -13123,9 +12659,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="5:8">
+    <row r="90" spans="1:13">
       <c r="E90" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F90" t="s">
         <v>338</v>
@@ -13137,9 +12673,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="5:8">
+    <row r="91" spans="1:13">
       <c r="E91" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F91" t="s">
         <v>342</v>
@@ -13151,9 +12687,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="5:8">
+    <row r="92" spans="1:13">
       <c r="E92" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F92" t="s">
         <v>346</v>
@@ -13165,9 +12701,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="5:8">
+    <row r="93" spans="1:13">
       <c r="E93" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F93" t="s">
         <v>351</v>
@@ -13179,9 +12715,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="5:8">
+    <row r="94" spans="1:13">
       <c r="E94" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F94" t="s">
         <v>356</v>
@@ -13193,9 +12729,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="5:8">
+    <row r="95" spans="1:13">
       <c r="E95" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F95" t="s">
         <v>359</v>
@@ -13207,9 +12743,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="5:8">
+    <row r="96" spans="1:13">
       <c r="E96" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F96" s="11" t="s">
         <v>362</v>
@@ -13223,7 +12759,7 @@
     </row>
     <row r="97" spans="5:8">
       <c r="E97" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F97" t="s">
         <v>366</v>
@@ -13237,7 +12773,7 @@
     </row>
     <row r="98" spans="5:8">
       <c r="E98" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F98" t="s">
         <v>375</v>
@@ -13251,7 +12787,7 @@
     </row>
     <row r="99" spans="5:8">
       <c r="E99" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F99" t="s">
         <v>379</v>
@@ -13265,7 +12801,7 @@
     </row>
     <row r="100" spans="5:8">
       <c r="E100" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F100" t="s">
         <v>384</v>
@@ -13279,7 +12815,7 @@
     </row>
     <row r="101" spans="5:8">
       <c r="E101" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F101" t="s">
         <v>387</v>
@@ -13293,7 +12829,7 @@
     </row>
     <row r="102" spans="5:8">
       <c r="E102" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F102" t="s">
         <v>391</v>
@@ -13307,7 +12843,7 @@
     </row>
     <row r="103" spans="5:8">
       <c r="E103" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F103" t="s">
         <v>394</v>
@@ -13321,7 +12857,7 @@
     </row>
     <row r="104" spans="5:8">
       <c r="E104" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F104" t="s">
         <v>397</v>
@@ -13335,10 +12871,10 @@
     </row>
     <row r="105" spans="5:8">
       <c r="E105" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F105" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -13349,10 +12885,10 @@
     </row>
     <row r="106" spans="5:8">
       <c r="E106" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F106" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -13363,10 +12899,10 @@
     </row>
     <row r="107" spans="5:8">
       <c r="E107" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F107" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -13376,8 +12912,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="504">
   <si>
     <r>
       <rPr>
@@ -5186,9 +5186,6 @@
   </si>
   <si>
     <t>hmsg_template_server_line-212</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-214</t>
   </si>
   <si>
     <t>hmsg_template_server_line-215</t>
@@ -5697,11 +5694,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5712,7 +5710,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6081,11 +6078,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="15"/>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
@@ -6098,17 +6095,17 @@
         <v>1</v>
       </c>
       <c r="D3" s="39"/>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="18" t="s">
         <v>4</v>
       </c>
@@ -6219,11 +6216,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="35" t="s">
@@ -10465,10 +10462,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O107"/>
+  <dimension ref="A1:O106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -11298,8 +11295,8 @@
       </c>
     </row>
     <row r="29" spans="5:15">
-      <c r="E29" s="43" t="s">
-        <v>504</v>
+      <c r="E29" s="38" t="s">
+        <v>503</v>
       </c>
       <c r="F29" t="s">
         <v>76</v>
@@ -12442,14 +12439,14 @@
         <v>468</v>
       </c>
       <c r="F77" t="str">
-        <f>发送配置!$E$29</f>
-        <v>hmsg_template_server-68</v>
+        <f>发送配置!$E$30</f>
+        <v>hmsg_template_server-70</v>
       </c>
       <c r="G77" t="s">
         <v>427</v>
       </c>
       <c r="H77" t="s">
-        <v>206</v>
+        <v>250</v>
       </c>
       <c r="L77" t="s">
         <v>466</v>
@@ -12463,14 +12460,14 @@
         <v>469</v>
       </c>
       <c r="F78" t="str">
-        <f>发送配置!$E$30</f>
-        <v>hmsg_template_server-70</v>
+        <f>发送配置!$E$31</f>
+        <v>hmsg_template_server-72</v>
       </c>
       <c r="G78" t="s">
         <v>427</v>
       </c>
       <c r="H78" t="s">
-        <v>250</v>
+        <v>470</v>
       </c>
       <c r="L78" t="s">
         <v>466</v>
@@ -12481,20 +12478,20 @@
     </row>
     <row r="79" spans="5:13">
       <c r="E79" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F79" t="str">
-        <f>发送配置!$E$31</f>
-        <v>hmsg_template_server-72</v>
+        <f>发送配置!$E$28</f>
+        <v>hmsg_template_server-66</v>
       </c>
       <c r="G79" t="s">
         <v>427</v>
       </c>
       <c r="H79" t="s">
-        <v>471</v>
+        <v>230</v>
       </c>
       <c r="L79" t="s">
-        <v>466</v>
+        <v>76</v>
       </c>
       <c r="M79" t="s">
         <v>105</v>
@@ -12505,20 +12502,20 @@
         <v>472</v>
       </c>
       <c r="F80" t="str">
-        <f>发送配置!$E$28</f>
-        <v>hmsg_template_server-66</v>
+        <f t="shared" ref="F80" si="0">E32</f>
+        <v>hmsg_template_server-96</v>
       </c>
       <c r="G80" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H80" t="s">
-        <v>230</v>
-      </c>
-      <c r="L80" t="s">
-        <v>76</v>
-      </c>
-      <c r="M80" t="s">
-        <v>105</v>
+        <v>254</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -12526,14 +12523,14 @@
         <v>473</v>
       </c>
       <c r="F81" t="str">
-        <f t="shared" ref="F81" si="0">E32</f>
+        <f>E32</f>
         <v>hmsg_template_server-96</v>
       </c>
       <c r="G81" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="H81" t="s">
-        <v>254</v>
+        <v>475</v>
       </c>
       <c r="L81">
         <v>0</v>
@@ -12542,51 +12539,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
-      <c r="E82" t="s">
-        <v>474</v>
-      </c>
-      <c r="F82" t="str">
-        <f>E32</f>
-        <v>hmsg_template_server-96</v>
-      </c>
-      <c r="G82" t="s">
-        <v>475</v>
-      </c>
-      <c r="H82" t="s">
+    <row r="83" spans="1:13">
+      <c r="A83" s="10">
+        <v>44036</v>
+      </c>
+      <c r="B83" t="s">
+        <v>51</v>
+      </c>
+      <c r="C83" t="s">
+        <v>303</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="L82">
+      <c r="E83" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="H83" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="E84" t="s">
+        <v>480</v>
+      </c>
+      <c r="F84" t="s">
+        <v>314</v>
+      </c>
+      <c r="G84">
         <v>0</v>
       </c>
-      <c r="M82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
-      <c r="A84" s="10">
-        <v>44036</v>
-      </c>
-      <c r="B84" t="s">
-        <v>51</v>
-      </c>
-      <c r="C84" t="s">
-        <v>303</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="H84" t="s">
-        <v>480</v>
+      <c r="H84">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -12594,10 +12584,10 @@
         <v>481</v>
       </c>
       <c r="F85" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -12608,7 +12598,7 @@
         <v>482</v>
       </c>
       <c r="F86" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -12622,7 +12612,7 @@
         <v>483</v>
       </c>
       <c r="F87" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -12636,7 +12626,7 @@
         <v>484</v>
       </c>
       <c r="F88" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -12650,10 +12640,10 @@
         <v>485</v>
       </c>
       <c r="F89" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -12664,7 +12654,7 @@
         <v>486</v>
       </c>
       <c r="F90" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -12678,10 +12668,10 @@
         <v>487</v>
       </c>
       <c r="F91" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -12692,7 +12682,7 @@
         <v>488</v>
       </c>
       <c r="F92" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -12706,10 +12696,10 @@
         <v>489</v>
       </c>
       <c r="F93" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -12720,7 +12710,7 @@
         <v>490</v>
       </c>
       <c r="F94" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -12733,11 +12723,11 @@
       <c r="E95" t="s">
         <v>491</v>
       </c>
-      <c r="F95" t="s">
-        <v>359</v>
+      <c r="F95" s="11" t="s">
+        <v>362</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -12747,11 +12737,11 @@
       <c r="E96" t="s">
         <v>492</v>
       </c>
-      <c r="F96" s="11" t="s">
-        <v>362</v>
+      <c r="F96" t="s">
+        <v>366</v>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -12762,7 +12752,7 @@
         <v>493</v>
       </c>
       <c r="F97" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -12776,7 +12766,7 @@
         <v>494</v>
       </c>
       <c r="F98" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -12790,7 +12780,7 @@
         <v>495</v>
       </c>
       <c r="F99" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -12804,7 +12794,7 @@
         <v>496</v>
       </c>
       <c r="F100" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -12818,10 +12808,10 @@
         <v>497</v>
       </c>
       <c r="F101" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -12832,7 +12822,7 @@
         <v>498</v>
       </c>
       <c r="F102" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -12846,7 +12836,7 @@
         <v>499</v>
       </c>
       <c r="F103" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -12860,10 +12850,10 @@
         <v>500</v>
       </c>
       <c r="F104" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -12874,10 +12864,10 @@
         <v>501</v>
       </c>
       <c r="F105" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -12888,26 +12878,12 @@
         <v>502</v>
       </c>
       <c r="F106" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="G106">
         <v>1</v>
       </c>
       <c r="H106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="5:8">
-      <c r="E107" t="s">
-        <v>503</v>
-      </c>
-      <c r="F107" t="s">
-        <v>407</v>
-      </c>
-      <c r="G107">
-        <v>1</v>
-      </c>
-      <c r="H107">
         <v>0</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="505">
   <si>
     <r>
       <rPr>
@@ -5294,6 +5294,10 @@
   </si>
   <si>
     <t>hmsg_template_server-68</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECTADDUSER</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -5627,7 +5631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5710,6 +5714,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6469,8 +6474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q193"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -10464,8 +10469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="I58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -11129,8 +11134,8 @@
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24" t="s">
-        <v>384</v>
+      <c r="H24" s="44" t="s">
+        <v>504</v>
       </c>
       <c r="I24" t="s">
         <v>322</v>
@@ -11527,8 +11532,8 @@
       <c r="L36">
         <v>0</v>
       </c>
-      <c r="M36" t="s">
-        <v>76</v>
+      <c r="M36">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -11597,8 +11602,8 @@
       <c r="L39" t="s">
         <v>76</v>
       </c>
-      <c r="M39" t="s">
-        <v>76</v>
+      <c r="M39">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -11688,8 +11693,8 @@
       <c r="L43" t="s">
         <v>76</v>
       </c>
-      <c r="M43" t="s">
-        <v>76</v>
+      <c r="M43">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -12298,7 +12303,7 @@
         <v>76</v>
       </c>
       <c r="M70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="5:13">

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
@@ -9,18 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="邮箱服务配置" sheetId="5" r:id="rId2"/>
-    <sheet name="消息模板" sheetId="2" r:id="rId3"/>
-    <sheet name="发送配置" sheetId="3" r:id="rId4"/>
+    <sheet name="短信服务配置" sheetId="6" r:id="rId2"/>
+    <sheet name="邮箱服务配置" sheetId="5" r:id="rId3"/>
+    <sheet name="消息模板" sheetId="2" r:id="rId4"/>
+    <sheet name="发送配置" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="qwe" localSheetId="1">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="wqewqe" localSheetId="1">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="524">
   <si>
     <r>
       <rPr>
@@ -2055,9 +2059,6 @@
   </si>
   <si>
     <t>CHOERODON-EMAIL</t>
-  </si>
-  <si>
-    <t>平台默认邮箱设置</t>
   </si>
   <si>
     <t>smtp.164.com</t>
@@ -5300,12 +5301,76 @@
     <t>PROJECTADDUSER</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
+  <si>
+    <t>2021-02-02</t>
+  </si>
+  <si>
+    <t>短信服务配置</t>
+  </si>
+  <si>
+    <t>hmsg_sms_server</t>
+  </si>
+  <si>
+    <t>server_name:zh_CN</t>
+  </si>
+  <si>
+    <t>server_name:en_US</t>
+  </si>
+  <si>
+    <t>server_type_code</t>
+  </si>
+  <si>
+    <t>end_point</t>
+  </si>
+  <si>
+    <t>access_key</t>
+  </si>
+  <si>
+    <t>access_key_secret</t>
+  </si>
+  <si>
+    <t>sign_name</t>
+  </si>
+  <si>
+    <t>#tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>#tenant_id:en_US</t>
+  </si>
+  <si>
+    <t>last_updated_by</t>
+  </si>
+  <si>
+    <t>hmsg_sms_server-8</t>
+  </si>
+  <si>
+    <t>BAIDU</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>CHOERODON-SMS</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台默认邮箱设置</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台默认短信设置</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sms.bj.baidubce.com</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -5492,6 +5557,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -5627,11 +5700,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5699,6 +5774,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5714,11 +5790,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -6083,11 +6166,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="15"/>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
@@ -6096,21 +6179,21 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="41" t="s">
+      <c r="D3" s="40"/>
+      <c r="E3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="18" t="s">
         <v>4</v>
       </c>
@@ -6221,11 +6304,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="35" t="s">
@@ -6263,19 +6346,19 @@
       <c r="C25" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="39"/>
+      <c r="E25" s="40"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="39"/>
+      <c r="E26" s="40"/>
     </row>
     <row r="27" spans="3:5" ht="52.2">
       <c r="C27" s="37" t="s">
@@ -6300,16 +6383,171 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="4" width="8.6640625" style="46"/>
+    <col min="5" max="5" width="19.58203125" style="46" customWidth="1"/>
+    <col min="6" max="6" width="17.58203125" style="46" customWidth="1"/>
+    <col min="7" max="7" width="25.83203125" style="46" customWidth="1"/>
+    <col min="8" max="8" width="21" style="46" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="46" customWidth="1"/>
+    <col min="10" max="10" width="35.83203125" style="46" customWidth="1"/>
+    <col min="11" max="11" width="19.75" style="46" customWidth="1"/>
+    <col min="12" max="12" width="22" style="46" customWidth="1"/>
+    <col min="13" max="13" width="23.33203125" style="46" customWidth="1"/>
+    <col min="14" max="16384" width="8.6640625" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="E4" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="46" t="s">
+        <v>504</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>505</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>506</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>507</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>508</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>509</v>
+      </c>
+      <c r="J7" s="46" t="s">
+        <v>510</v>
+      </c>
+      <c r="K7" s="46" t="s">
+        <v>511</v>
+      </c>
+      <c r="L7" s="46" t="s">
+        <v>512</v>
+      </c>
+      <c r="M7" s="46" t="s">
+        <v>513</v>
+      </c>
+      <c r="N7" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="48" t="s">
+        <v>514</v>
+      </c>
+      <c r="P7" s="48" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q7" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="R7" s="46" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="E8" s="46" t="s">
+        <v>517</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>520</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>522</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>522</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>518</v>
+      </c>
+      <c r="J8" s="50" t="s">
+        <v>523</v>
+      </c>
+      <c r="K8" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="N8" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="R8" s="46" t="s">
+        <v>519</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="27" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J8" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="5" max="5" width="23.25" customWidth="1"/>
     <col min="6" max="6" width="21.25" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6401,38 +6639,38 @@
       <c r="F8" t="s">
         <v>69</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="39" t="s">
+        <v>521</v>
+      </c>
+      <c r="H8" t="s">
         <v>70</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>71</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>72</v>
-      </c>
-      <c r="J8" t="s">
-        <v>73</v>
       </c>
       <c r="K8">
         <v>3</v>
       </c>
       <c r="L8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N8" t="s">
         <v>74</v>
-      </c>
-      <c r="M8" t="s">
-        <v>74</v>
-      </c>
-      <c r="N8" t="s">
-        <v>75</v>
       </c>
       <c r="O8">
         <v>1</v>
       </c>
       <c r="Q8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -6443,25 +6681,25 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" t="s">
         <v>81</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -6470,7 +6708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q193"/>
   <sheetViews>
@@ -6521,1397 +6759,1397 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" t="s">
         <v>88</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>89</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>90</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>91</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>92</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>93</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>94</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="O7" t="s">
         <v>64</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="E8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" t="s">
         <v>98</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>99</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" t="s">
         <v>100</v>
       </c>
-      <c r="H8" t="s">
-        <v>100</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="K8" t="s">
         <v>102</v>
       </c>
-      <c r="K8" t="s">
+      <c r="N8" t="s">
         <v>103</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>104</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" t="s">
         <v>105</v>
-      </c>
-      <c r="P8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="E9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" t="s">
         <v>107</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>108</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9" t="s">
         <v>109</v>
       </c>
-      <c r="H9" t="s">
-        <v>109</v>
-      </c>
-      <c r="I9" t="s">
-        <v>110</v>
-      </c>
       <c r="N9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" t="s">
         <v>104</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q9" t="s">
         <v>105</v>
-      </c>
-      <c r="P9" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="E10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" t="s">
         <v>111</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" t="s">
         <v>112</v>
       </c>
-      <c r="G10" t="s">
-        <v>109</v>
-      </c>
-      <c r="H10" t="s">
-        <v>109</v>
-      </c>
-      <c r="I10" t="s">
-        <v>113</v>
-      </c>
       <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
         <v>104</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q10" t="s">
         <v>105</v>
-      </c>
-      <c r="P10" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="E11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" t="s">
         <v>114</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>115</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" t="s">
         <v>116</v>
       </c>
-      <c r="H11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I11" t="s">
-        <v>117</v>
-      </c>
       <c r="N11" t="s">
+        <v>103</v>
+      </c>
+      <c r="O11" t="s">
         <v>104</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" t="s">
         <v>105</v>
-      </c>
-      <c r="P11" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="E12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" t="s">
         <v>118</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" t="s">
         <v>119</v>
       </c>
-      <c r="G12" t="s">
-        <v>116</v>
-      </c>
-      <c r="H12" t="s">
-        <v>116</v>
-      </c>
-      <c r="I12" t="s">
-        <v>120</v>
-      </c>
       <c r="N12" t="s">
+        <v>103</v>
+      </c>
+      <c r="O12" t="s">
         <v>104</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" t="s">
         <v>105</v>
-      </c>
-      <c r="P12" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="E13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" t="s">
         <v>121</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>122</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" t="s">
         <v>123</v>
       </c>
-      <c r="H13" t="s">
-        <v>123</v>
-      </c>
-      <c r="I13" t="s">
-        <v>124</v>
-      </c>
       <c r="J13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K13" t="s">
         <v>102</v>
       </c>
-      <c r="K13" t="s">
+      <c r="N13" t="s">
         <v>103</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>104</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" t="s">
         <v>105</v>
-      </c>
-      <c r="P13" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="E14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" t="s">
         <v>125</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>126</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
+        <v>126</v>
+      </c>
+      <c r="I14" t="s">
         <v>127</v>
       </c>
-      <c r="H14" t="s">
-        <v>127</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>128</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>129</v>
       </c>
-      <c r="K14" t="s">
-        <v>130</v>
-      </c>
       <c r="N14" t="s">
+        <v>103</v>
+      </c>
+      <c r="O14" t="s">
         <v>104</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q14" t="s">
         <v>105</v>
-      </c>
-      <c r="P14" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="E15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" t="s">
         <v>131</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>132</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
+        <v>132</v>
+      </c>
+      <c r="I15" t="s">
         <v>133</v>
       </c>
-      <c r="H15" t="s">
-        <v>133</v>
-      </c>
-      <c r="I15" t="s">
-        <v>134</v>
-      </c>
       <c r="J15" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15" t="s">
         <v>129</v>
       </c>
-      <c r="K15" t="s">
-        <v>130</v>
-      </c>
       <c r="N15" t="s">
+        <v>103</v>
+      </c>
+      <c r="O15" t="s">
         <v>104</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q15" t="s">
         <v>105</v>
-      </c>
-      <c r="P15" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="E16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" t="s">
         <v>135</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>136</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16" t="s">
         <v>137</v>
       </c>
-      <c r="H16" t="s">
-        <v>137</v>
-      </c>
-      <c r="I16" t="s">
-        <v>138</v>
-      </c>
       <c r="J16" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" t="s">
         <v>102</v>
       </c>
-      <c r="K16" t="s">
+      <c r="N16" t="s">
         <v>103</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>104</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q16" t="s">
         <v>105</v>
-      </c>
-      <c r="P16" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="5:17">
       <c r="E17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" t="s">
         <v>139</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>140</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
+        <v>140</v>
+      </c>
+      <c r="I17" t="s">
         <v>141</v>
       </c>
-      <c r="H17" t="s">
-        <v>141</v>
-      </c>
-      <c r="I17" t="s">
-        <v>142</v>
-      </c>
       <c r="N17" t="s">
+        <v>103</v>
+      </c>
+      <c r="O17" t="s">
         <v>104</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" t="s">
         <v>105</v>
-      </c>
-      <c r="P17" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="5:17">
       <c r="E18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" t="s">
         <v>143</v>
       </c>
-      <c r="F18" t="s">
-        <v>144</v>
-      </c>
       <c r="G18" t="s">
+        <v>140</v>
+      </c>
+      <c r="H18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I18" t="s">
         <v>141</v>
       </c>
-      <c r="H18" t="s">
-        <v>141</v>
-      </c>
-      <c r="I18" t="s">
-        <v>142</v>
-      </c>
       <c r="N18" t="s">
+        <v>103</v>
+      </c>
+      <c r="O18" t="s">
         <v>104</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q18" t="s">
         <v>105</v>
-      </c>
-      <c r="P18" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="19" spans="5:17">
       <c r="E19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" t="s">
         <v>145</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>146</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
+        <v>146</v>
+      </c>
+      <c r="I19" t="s">
         <v>147</v>
       </c>
-      <c r="H19" t="s">
-        <v>147</v>
-      </c>
-      <c r="I19" t="s">
-        <v>148</v>
-      </c>
       <c r="J19" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" t="s">
         <v>129</v>
       </c>
-      <c r="K19" t="s">
-        <v>130</v>
-      </c>
       <c r="N19" t="s">
+        <v>103</v>
+      </c>
+      <c r="O19" t="s">
         <v>104</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q19" t="s">
         <v>105</v>
-      </c>
-      <c r="P19" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="20" spans="5:17">
       <c r="E20" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" t="s">
         <v>149</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>150</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
+        <v>150</v>
+      </c>
+      <c r="I20" t="s">
         <v>151</v>
       </c>
-      <c r="H20" t="s">
-        <v>151</v>
-      </c>
-      <c r="I20" t="s">
-        <v>152</v>
-      </c>
       <c r="N20" t="s">
+        <v>103</v>
+      </c>
+      <c r="O20" t="s">
         <v>104</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q20" t="s">
         <v>105</v>
-      </c>
-      <c r="P20" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="21" spans="5:17">
       <c r="E21" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" t="s">
         <v>153</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>154</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
+        <v>154</v>
+      </c>
+      <c r="I21" t="s">
         <v>155</v>
       </c>
-      <c r="H21" t="s">
-        <v>155</v>
-      </c>
-      <c r="I21" t="s">
-        <v>156</v>
-      </c>
       <c r="N21" t="s">
+        <v>103</v>
+      </c>
+      <c r="O21" t="s">
         <v>104</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q21" t="s">
         <v>105</v>
-      </c>
-      <c r="P21" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="22" spans="5:17">
       <c r="E22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22" t="s">
         <v>157</v>
       </c>
-      <c r="F22" t="s">
-        <v>158</v>
-      </c>
       <c r="G22" t="s">
+        <v>150</v>
+      </c>
+      <c r="H22" t="s">
+        <v>150</v>
+      </c>
+      <c r="I22" t="s">
         <v>151</v>
       </c>
-      <c r="H22" t="s">
-        <v>151</v>
-      </c>
-      <c r="I22" t="s">
-        <v>152</v>
-      </c>
       <c r="N22" t="s">
+        <v>103</v>
+      </c>
+      <c r="O22" t="s">
         <v>104</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q22" t="s">
         <v>105</v>
-      </c>
-      <c r="P22" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="23" spans="5:17">
       <c r="E23" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" t="s">
         <v>159</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>160</v>
       </c>
-      <c r="G23" t="s">
-        <v>161</v>
-      </c>
       <c r="H23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J23" t="s">
+        <v>101</v>
+      </c>
+      <c r="K23" t="s">
         <v>102</v>
       </c>
-      <c r="K23" t="s">
+      <c r="N23" t="s">
         <v>103</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>104</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q23" t="s">
         <v>105</v>
-      </c>
-      <c r="P23" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="24" spans="5:17">
       <c r="E24" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" t="s">
         <v>162</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>163</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
+        <v>163</v>
+      </c>
+      <c r="I24" t="s">
         <v>164</v>
       </c>
-      <c r="H24" t="s">
-        <v>164</v>
-      </c>
-      <c r="I24" t="s">
-        <v>165</v>
-      </c>
       <c r="N24" t="s">
+        <v>103</v>
+      </c>
+      <c r="O24" t="s">
         <v>104</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q24" t="s">
         <v>105</v>
-      </c>
-      <c r="P24" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="25" spans="5:17">
       <c r="E25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" t="s">
         <v>166</v>
       </c>
-      <c r="F25" t="s">
-        <v>167</v>
-      </c>
       <c r="G25" t="s">
+        <v>163</v>
+      </c>
+      <c r="H25" t="s">
+        <v>163</v>
+      </c>
+      <c r="I25" t="s">
         <v>164</v>
       </c>
-      <c r="H25" t="s">
-        <v>164</v>
-      </c>
-      <c r="I25" t="s">
-        <v>165</v>
-      </c>
       <c r="N25" t="s">
+        <v>103</v>
+      </c>
+      <c r="O25" t="s">
         <v>104</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q25" t="s">
         <v>105</v>
-      </c>
-      <c r="P25" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="26" spans="5:17">
       <c r="E26" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" t="s">
         <v>168</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>169</v>
       </c>
-      <c r="G26" t="s">
-        <v>170</v>
-      </c>
       <c r="H26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J26" t="s">
+        <v>128</v>
+      </c>
+      <c r="K26" t="s">
         <v>129</v>
       </c>
-      <c r="K26" t="s">
-        <v>130</v>
-      </c>
       <c r="N26" t="s">
+        <v>103</v>
+      </c>
+      <c r="O26" t="s">
         <v>104</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q26" t="s">
         <v>105</v>
-      </c>
-      <c r="P26" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="27" spans="5:17">
       <c r="E27" t="s">
+        <v>170</v>
+      </c>
+      <c r="F27" t="s">
         <v>171</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>172</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
+        <v>172</v>
+      </c>
+      <c r="I27" t="s">
         <v>173</v>
       </c>
-      <c r="H27" t="s">
-        <v>173</v>
-      </c>
-      <c r="I27" t="s">
-        <v>174</v>
-      </c>
       <c r="N27" t="s">
+        <v>103</v>
+      </c>
+      <c r="O27" t="s">
         <v>104</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q27" t="s">
         <v>105</v>
-      </c>
-      <c r="P27" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="28" spans="5:17">
       <c r="E28" t="s">
+        <v>174</v>
+      </c>
+      <c r="F28" t="s">
         <v>175</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>176</v>
       </c>
-      <c r="G28" t="s">
-        <v>177</v>
-      </c>
       <c r="H28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N28" t="s">
+        <v>103</v>
+      </c>
+      <c r="O28" t="s">
         <v>104</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q28" t="s">
         <v>105</v>
-      </c>
-      <c r="P28" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="29" spans="5:17">
       <c r="E29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29" t="s">
         <v>178</v>
       </c>
-      <c r="F29" t="s">
-        <v>179</v>
-      </c>
       <c r="G29" t="s">
+        <v>172</v>
+      </c>
+      <c r="H29" t="s">
+        <v>172</v>
+      </c>
+      <c r="I29" t="s">
         <v>173</v>
       </c>
-      <c r="H29" t="s">
-        <v>173</v>
-      </c>
-      <c r="I29" t="s">
-        <v>174</v>
-      </c>
       <c r="N29" t="s">
+        <v>103</v>
+      </c>
+      <c r="O29" t="s">
         <v>104</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q29" t="s">
         <v>105</v>
-      </c>
-      <c r="P29" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="30" spans="5:17">
       <c r="E30" t="s">
+        <v>179</v>
+      </c>
+      <c r="F30" t="s">
         <v>180</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>181</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
+        <v>181</v>
+      </c>
+      <c r="I30" t="s">
         <v>182</v>
       </c>
-      <c r="H30" t="s">
-        <v>182</v>
-      </c>
-      <c r="I30" t="s">
-        <v>183</v>
-      </c>
       <c r="N30" t="s">
+        <v>103</v>
+      </c>
+      <c r="O30" t="s">
         <v>104</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q30" t="s">
         <v>105</v>
-      </c>
-      <c r="P30" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="31" spans="5:17">
       <c r="E31" t="s">
+        <v>183</v>
+      </c>
+      <c r="F31" t="s">
         <v>184</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>185</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
+        <v>185</v>
+      </c>
+      <c r="I31" t="s">
         <v>186</v>
       </c>
-      <c r="H31" t="s">
-        <v>186</v>
-      </c>
-      <c r="I31" t="s">
-        <v>187</v>
-      </c>
       <c r="N31" t="s">
+        <v>103</v>
+      </c>
+      <c r="O31" t="s">
         <v>104</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q31" t="s">
         <v>105</v>
-      </c>
-      <c r="P31" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="32" spans="5:17">
       <c r="E32" t="s">
+        <v>187</v>
+      </c>
+      <c r="F32" t="s">
         <v>188</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>189</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
+        <v>189</v>
+      </c>
+      <c r="I32" t="s">
         <v>190</v>
       </c>
-      <c r="H32" t="s">
-        <v>190</v>
-      </c>
-      <c r="I32" t="s">
-        <v>191</v>
-      </c>
       <c r="J32" t="s">
+        <v>101</v>
+      </c>
+      <c r="K32" t="s">
         <v>102</v>
       </c>
-      <c r="K32" t="s">
+      <c r="N32" t="s">
         <v>103</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>104</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q32" t="s">
         <v>105</v>
-      </c>
-      <c r="P32" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="33" spans="5:17">
       <c r="E33" t="s">
+        <v>191</v>
+      </c>
+      <c r="F33" t="s">
         <v>192</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>193</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
+        <v>193</v>
+      </c>
+      <c r="I33" t="s">
         <v>194</v>
       </c>
-      <c r="H33" t="s">
-        <v>194</v>
-      </c>
-      <c r="I33" t="s">
-        <v>195</v>
-      </c>
       <c r="N33" t="s">
+        <v>103</v>
+      </c>
+      <c r="O33" t="s">
         <v>104</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q33" t="s">
         <v>105</v>
-      </c>
-      <c r="P33" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="34" spans="5:17">
       <c r="E34" t="s">
+        <v>195</v>
+      </c>
+      <c r="F34" t="s">
         <v>196</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
+        <v>193</v>
+      </c>
+      <c r="H34" t="s">
+        <v>193</v>
+      </c>
+      <c r="I34" t="s">
         <v>197</v>
       </c>
-      <c r="G34" t="s">
-        <v>194</v>
-      </c>
-      <c r="H34" t="s">
-        <v>194</v>
-      </c>
-      <c r="I34" t="s">
-        <v>198</v>
-      </c>
       <c r="N34" t="s">
+        <v>103</v>
+      </c>
+      <c r="O34" t="s">
         <v>104</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q34" t="s">
         <v>105</v>
-      </c>
-      <c r="P34" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="35" spans="5:17">
       <c r="E35" t="s">
+        <v>198</v>
+      </c>
+      <c r="F35" t="s">
         <v>199</v>
       </c>
-      <c r="F35" t="s">
-        <v>200</v>
-      </c>
       <c r="G35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N35" t="s">
+        <v>103</v>
+      </c>
+      <c r="O35" t="s">
         <v>104</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q35" t="s">
         <v>105</v>
-      </c>
-      <c r="P35" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="36" spans="5:17">
       <c r="E36" t="s">
+        <v>200</v>
+      </c>
+      <c r="F36" t="s">
         <v>201</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>202</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
+        <v>202</v>
+      </c>
+      <c r="I36" t="s">
         <v>203</v>
       </c>
-      <c r="H36" t="s">
-        <v>203</v>
-      </c>
-      <c r="I36" t="s">
-        <v>204</v>
-      </c>
       <c r="N36" t="s">
+        <v>103</v>
+      </c>
+      <c r="O36" t="s">
         <v>104</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q36" t="s">
         <v>105</v>
-      </c>
-      <c r="P36" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="37" spans="5:17">
       <c r="E37" t="s">
+        <v>204</v>
+      </c>
+      <c r="F37" t="s">
         <v>205</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>206</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
+        <v>206</v>
+      </c>
+      <c r="I37" t="s">
+        <v>100</v>
+      </c>
+      <c r="J37" t="s">
+        <v>128</v>
+      </c>
+      <c r="K37" t="s">
         <v>207</v>
       </c>
-      <c r="H37" t="s">
-        <v>207</v>
-      </c>
-      <c r="I37" t="s">
-        <v>101</v>
-      </c>
-      <c r="J37" t="s">
-        <v>129</v>
-      </c>
-      <c r="K37" t="s">
-        <v>208</v>
-      </c>
       <c r="N37" t="s">
+        <v>103</v>
+      </c>
+      <c r="O37" t="s">
         <v>104</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q37" t="s">
         <v>105</v>
-      </c>
-      <c r="P37" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="38" spans="5:17">
       <c r="E38" t="s">
+        <v>208</v>
+      </c>
+      <c r="F38" t="s">
         <v>209</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>210</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
+        <v>210</v>
+      </c>
+      <c r="I38" t="s">
         <v>211</v>
       </c>
-      <c r="H38" t="s">
-        <v>211</v>
-      </c>
-      <c r="I38" t="s">
-        <v>212</v>
-      </c>
       <c r="N38" t="s">
+        <v>103</v>
+      </c>
+      <c r="O38" t="s">
         <v>104</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q38" t="s">
         <v>105</v>
-      </c>
-      <c r="P38" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="39" spans="5:17">
       <c r="E39" t="s">
+        <v>212</v>
+      </c>
+      <c r="F39" t="s">
         <v>213</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
+        <v>108</v>
+      </c>
+      <c r="H39" t="s">
+        <v>108</v>
+      </c>
+      <c r="I39" t="s">
         <v>214</v>
       </c>
-      <c r="G39" t="s">
-        <v>109</v>
-      </c>
-      <c r="H39" t="s">
-        <v>109</v>
-      </c>
-      <c r="I39" t="s">
-        <v>215</v>
-      </c>
       <c r="N39" t="s">
+        <v>103</v>
+      </c>
+      <c r="O39" t="s">
         <v>104</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q39" t="s">
         <v>105</v>
-      </c>
-      <c r="P39" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="40" spans="5:17">
       <c r="E40" t="s">
+        <v>215</v>
+      </c>
+      <c r="F40" t="s">
         <v>216</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>217</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
+        <v>217</v>
+      </c>
+      <c r="I40" t="s">
         <v>218</v>
       </c>
-      <c r="H40" t="s">
-        <v>218</v>
-      </c>
-      <c r="I40" t="s">
-        <v>219</v>
-      </c>
       <c r="N40" t="s">
+        <v>103</v>
+      </c>
+      <c r="O40" t="s">
         <v>104</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q40" t="s">
         <v>105</v>
-      </c>
-      <c r="P40" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="41" spans="5:17">
       <c r="E41" t="s">
+        <v>219</v>
+      </c>
+      <c r="F41" t="s">
         <v>220</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>221</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
+        <v>221</v>
+      </c>
+      <c r="I41" t="s">
         <v>222</v>
       </c>
-      <c r="H41" t="s">
-        <v>222</v>
-      </c>
-      <c r="I41" t="s">
-        <v>223</v>
-      </c>
       <c r="N41" t="s">
+        <v>103</v>
+      </c>
+      <c r="O41" t="s">
         <v>104</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q41" t="s">
         <v>105</v>
-      </c>
-      <c r="P41" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="42" spans="5:17">
       <c r="E42" t="s">
+        <v>223</v>
+      </c>
+      <c r="F42" t="s">
         <v>224</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>225</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>226</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>227</v>
       </c>
-      <c r="I42" t="s">
-        <v>228</v>
-      </c>
       <c r="N42" t="s">
+        <v>103</v>
+      </c>
+      <c r="O42" t="s">
         <v>104</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q42" t="s">
         <v>105</v>
-      </c>
-      <c r="P42" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="43" spans="5:17">
       <c r="E43" t="s">
+        <v>228</v>
+      </c>
+      <c r="F43" t="s">
         <v>229</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>230</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
+        <v>230</v>
+      </c>
+      <c r="I43" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="H43" t="s">
-        <v>231</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>232</v>
-      </c>
       <c r="N43" t="s">
+        <v>103</v>
+      </c>
+      <c r="O43" t="s">
         <v>104</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q43" t="s">
         <v>105</v>
-      </c>
-      <c r="P43" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="44" spans="5:17">
       <c r="E44" t="s">
+        <v>232</v>
+      </c>
+      <c r="F44" t="s">
         <v>233</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
+        <v>230</v>
+      </c>
+      <c r="H44" t="s">
+        <v>230</v>
+      </c>
+      <c r="I44" t="s">
         <v>234</v>
       </c>
-      <c r="G44" t="s">
-        <v>231</v>
-      </c>
-      <c r="H44" t="s">
-        <v>231</v>
-      </c>
-      <c r="I44" t="s">
-        <v>235</v>
-      </c>
       <c r="N44" t="s">
+        <v>103</v>
+      </c>
+      <c r="O44" t="s">
         <v>104</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q44" t="s">
         <v>105</v>
-      </c>
-      <c r="P44" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="45" spans="5:17">
       <c r="E45" t="s">
+        <v>235</v>
+      </c>
+      <c r="F45" t="s">
         <v>236</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
+        <v>210</v>
+      </c>
+      <c r="H45" t="s">
+        <v>210</v>
+      </c>
+      <c r="I45" t="s">
         <v>237</v>
       </c>
-      <c r="G45" t="s">
-        <v>211</v>
-      </c>
-      <c r="H45" t="s">
-        <v>211</v>
-      </c>
-      <c r="I45" t="s">
-        <v>238</v>
-      </c>
       <c r="N45" t="s">
+        <v>103</v>
+      </c>
+      <c r="O45" t="s">
         <v>104</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q45" t="s">
         <v>105</v>
-      </c>
-      <c r="P45" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="46" spans="5:17">
       <c r="E46" t="s">
+        <v>238</v>
+      </c>
+      <c r="F46" t="s">
         <v>239</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
+        <v>108</v>
+      </c>
+      <c r="H46" t="s">
+        <v>108</v>
+      </c>
+      <c r="I46" t="s">
         <v>240</v>
       </c>
-      <c r="G46" t="s">
-        <v>109</v>
-      </c>
-      <c r="H46" t="s">
-        <v>109</v>
-      </c>
-      <c r="I46" t="s">
-        <v>241</v>
-      </c>
       <c r="N46" t="s">
+        <v>103</v>
+      </c>
+      <c r="O46" t="s">
         <v>104</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q46" t="s">
         <v>105</v>
-      </c>
-      <c r="P46" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="47" spans="5:17">
       <c r="E47" t="s">
+        <v>241</v>
+      </c>
+      <c r="F47" t="s">
         <v>242</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>243</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
+        <v>243</v>
+      </c>
+      <c r="I47" t="s">
         <v>244</v>
       </c>
-      <c r="H47" t="s">
-        <v>244</v>
-      </c>
-      <c r="I47" t="s">
-        <v>245</v>
-      </c>
       <c r="N47" t="s">
+        <v>103</v>
+      </c>
+      <c r="O47" t="s">
         <v>104</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q47" t="s">
         <v>105</v>
-      </c>
-      <c r="P47" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="48" spans="5:17">
       <c r="E48" t="s">
+        <v>245</v>
+      </c>
+      <c r="F48" t="s">
         <v>246</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
+        <v>243</v>
+      </c>
+      <c r="H48" t="s">
+        <v>243</v>
+      </c>
+      <c r="I48" t="s">
         <v>247</v>
       </c>
-      <c r="G48" t="s">
-        <v>244</v>
-      </c>
-      <c r="H48" t="s">
-        <v>244</v>
-      </c>
-      <c r="I48" t="s">
-        <v>248</v>
-      </c>
       <c r="N48" t="s">
+        <v>103</v>
+      </c>
+      <c r="O48" t="s">
         <v>104</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q48" t="s">
         <v>105</v>
-      </c>
-      <c r="P48" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:17">
       <c r="E49" t="s">
+        <v>248</v>
+      </c>
+      <c r="F49" t="s">
         <v>249</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>250</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
+        <v>250</v>
+      </c>
+      <c r="I49" t="s">
         <v>251</v>
       </c>
-      <c r="H49" t="s">
-        <v>251</v>
-      </c>
-      <c r="I49" t="s">
-        <v>252</v>
-      </c>
       <c r="J49" t="s">
+        <v>101</v>
+      </c>
+      <c r="K49" t="s">
         <v>102</v>
       </c>
-      <c r="K49" t="s">
+      <c r="N49" t="s">
         <v>103</v>
       </c>
-      <c r="N49" t="s">
+      <c r="O49" t="s">
         <v>104</v>
       </c>
-      <c r="O49" t="s">
+      <c r="P49" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q49" t="s">
         <v>105</v>
-      </c>
-      <c r="P49" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:17">
       <c r="E50" t="s">
+        <v>252</v>
+      </c>
+      <c r="F50" t="s">
         <v>253</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>254</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
+        <v>254</v>
+      </c>
+      <c r="I50" t="s">
         <v>255</v>
       </c>
-      <c r="H50" t="s">
-        <v>255</v>
-      </c>
-      <c r="I50" t="s">
-        <v>256</v>
-      </c>
       <c r="N50" t="s">
+        <v>103</v>
+      </c>
+      <c r="O50" t="s">
         <v>104</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P50" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q50" t="s">
         <v>105</v>
-      </c>
-      <c r="P50" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:17">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B52" t="s">
         <v>51</v>
       </c>
       <c r="C52" t="s">
+        <v>256</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="F52" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="G52" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="H52" t="s">
         <v>261</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>262</v>
-      </c>
-      <c r="I52" t="s">
-        <v>263</v>
       </c>
       <c r="J52" t="s">
         <v>66</v>
@@ -7922,2540 +8160,2540 @@
     </row>
     <row r="53" spans="1:17">
       <c r="E53" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F53" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G53" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:17">
       <c r="E54" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F54" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G54" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:17">
       <c r="E55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F55" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G55" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:17">
       <c r="E56" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F56" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G56" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:17">
       <c r="E57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F57" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G57" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:17">
       <c r="E58" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F58" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G58" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:17">
       <c r="E59" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F59" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G59" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:17">
       <c r="E60" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F60" t="str">
         <f>消息模板!$E$8</f>
         <v>hmsg_message_template-9</v>
       </c>
       <c r="G60" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:17">
       <c r="E61" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F61" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G61" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="E62" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F62" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G62" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="E63" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F63" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G63" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="E64" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F64" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G64" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="5:11">
       <c r="E65" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F65" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G65" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="5:11">
       <c r="E66" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F66" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G66" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="5:11">
       <c r="E67" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F67" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G67" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="5:11">
       <c r="E68" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F68" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G68" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="5:11">
       <c r="E69" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F69" t="str">
         <f>消息模板!$E$13</f>
         <v>hmsg_message_template-30</v>
       </c>
       <c r="G69" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="5:11">
       <c r="E70" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F70" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G70" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="5:11">
       <c r="E71" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F71" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="5:11">
       <c r="E72" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F72" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G72" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="5:11">
       <c r="E73" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F73" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G73" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="5:11">
       <c r="E74" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F74" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G74" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="5:11">
       <c r="E75" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F75" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G75" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="5:11">
       <c r="E76" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F76" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G76" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="5:11">
       <c r="E77" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F77" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G77" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="5:11">
       <c r="E78" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F78" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G78" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="5:11">
       <c r="E79" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F79" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G79" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="5:11">
       <c r="E80" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F80" t="str">
         <f>消息模板!$E$14</f>
         <v>hmsg_message_template-31</v>
       </c>
       <c r="G80" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J80" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K80" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="5:11">
       <c r="E81" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F81" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-40</v>
       </c>
       <c r="G81" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J81" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K81" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="5:11">
       <c r="E82" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F82" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-40</v>
       </c>
       <c r="G82" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J82" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K82" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="5:11">
       <c r="E83" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F83" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-40</v>
       </c>
       <c r="G83" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J83" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K83" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="5:11">
       <c r="E84" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F84" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-40</v>
       </c>
       <c r="G84" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J84" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K84" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="5:11">
       <c r="E85" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F85" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-40</v>
       </c>
       <c r="G85" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="5:11">
       <c r="E86" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F86" t="str">
         <f>消息模板!$E$15</f>
         <v>hmsg_message_template-40</v>
       </c>
       <c r="G86" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J86" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K86" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="5:11">
       <c r="E87" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F87" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G87" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J87" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K87" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="88" spans="5:11">
       <c r="E88" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F88" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G88" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J88" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K88" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="5:11">
       <c r="E89" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F89" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G89" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J89" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K89" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="5:11">
       <c r="E90" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F90" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G90" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J90" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K90" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91" spans="5:11">
       <c r="E91" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F91" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G91" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J91" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K91" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92" spans="5:11">
       <c r="E92" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F92" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G92" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J92" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K92" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93" spans="5:11">
       <c r="E93" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F93" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G93" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J93" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K93" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="94" spans="5:11">
       <c r="E94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F94" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G94" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95" spans="5:11">
       <c r="E95" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F95" t="str">
         <f>消息模板!$E$16</f>
         <v>hmsg_message_template-46</v>
       </c>
       <c r="G95" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J95" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K95" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96" spans="5:11">
       <c r="E96" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F96" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G96" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J96" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K96" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97" spans="5:11">
       <c r="E97" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F97" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G97" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J97" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K97" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98" spans="5:11">
       <c r="E98" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F98" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G98" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J98" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K98" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99" spans="5:11">
       <c r="E99" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F99" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G99" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J99" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K99" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100" spans="5:11">
       <c r="E100" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F100" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G100" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J100" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K100" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101" spans="5:11">
       <c r="E101" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F101" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G101" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J101" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K101" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="102" spans="5:11">
       <c r="E102" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F102" t="str">
         <f>消息模板!$E$19</f>
         <v>hmsg_message_template-49</v>
       </c>
       <c r="G102" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J102" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K102" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="103" spans="5:11">
       <c r="E103" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F103" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G103" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J103" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K103" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104" spans="5:11">
       <c r="E104" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F104" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G104" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J104" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K104" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="5:11">
       <c r="E105" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F105" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G105" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J105" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K105" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="106" spans="5:11">
       <c r="E106" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F106" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G106" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J106" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K106" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" spans="5:11">
       <c r="E107" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F107" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G107" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J107" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K107" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108" spans="5:11">
       <c r="E108" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F108" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G108" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J108" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K108" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="109" spans="5:11">
       <c r="E109" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F109" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G109" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J109" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K109" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="110" spans="5:11">
       <c r="E110" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F110" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G110" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="111" spans="5:11">
       <c r="E111" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F111" t="str">
         <f>消息模板!$E$23</f>
         <v>hmsg_message_template-58</v>
       </c>
       <c r="G111" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J111" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K111" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="112" spans="5:11">
       <c r="E112" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F112" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G112" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J112" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K112" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="113" spans="5:11">
       <c r="E113" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F113" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G113" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J113" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K113" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="114" spans="5:11">
       <c r="E114" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F114" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G114" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J114" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K114" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="115" spans="5:11">
       <c r="E115" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F115" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G115" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J115" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K115" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116" spans="5:11">
       <c r="E116" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F116" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G116" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J116" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K116" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="117" spans="5:11">
       <c r="E117" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F117" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G117" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J117" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K117" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="118" spans="5:11">
       <c r="E118" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F118" t="str">
         <f>消息模板!$E$26</f>
         <v>hmsg_message_template-61</v>
       </c>
       <c r="G118" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J118" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K118" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="119" spans="5:11">
       <c r="E119" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F119" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G119" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J119" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K119" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="120" spans="5:11">
       <c r="E120" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F120" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G120" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J120" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K120" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="121" spans="5:11">
       <c r="E121" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F121" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G121" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="122" spans="5:11">
       <c r="E122" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F122" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G122" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J122" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K122" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="123" spans="5:11">
       <c r="E123" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F123" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G123" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J123" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K123" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="124" spans="5:11">
       <c r="E124" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F124" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G124" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J124" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K124" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="125" spans="5:11">
       <c r="E125" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F125" t="str">
         <f>消息模板!$E$32</f>
         <v>hmsg_message_template-99</v>
       </c>
       <c r="G125" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J125" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K125" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="126" spans="5:11">
       <c r="E126" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F126" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G126" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J126" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K126" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="127" spans="5:11">
       <c r="E127" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F127" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G127" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J127" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K127" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="128" spans="5:11">
       <c r="E128" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F128" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G128" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J128" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K128" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="129" spans="5:11">
       <c r="E129" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F129" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G129" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J129" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K129" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="130" spans="5:11">
       <c r="E130" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F130" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G130" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J130" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K130" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="131" spans="5:11">
       <c r="E131" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F131" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G131" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J131" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K131" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="132" spans="5:11">
       <c r="E132" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F132" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G132" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J132" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K132" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="133" spans="5:11">
       <c r="E133" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F133" t="str">
         <f>消息模板!$E$37</f>
         <v>hmsg_message_template-128</v>
       </c>
       <c r="G133" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J133" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K133" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="134" spans="5:11">
       <c r="E134" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F134" t="str">
         <f>消息模板!$E$49</f>
         <v>hmsg_message_template-152</v>
       </c>
       <c r="G134" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J134" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K134" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="135" spans="5:11">
       <c r="E135" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F135" t="str">
         <f>消息模板!$E$49</f>
         <v>hmsg_message_template-152</v>
       </c>
       <c r="G135" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J135" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K135" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="136" spans="5:11">
       <c r="E136" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F136" t="str">
         <f>消息模板!$E$49</f>
         <v>hmsg_message_template-152</v>
       </c>
       <c r="G136" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J136" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K136" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="137" spans="5:11">
       <c r="E137" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F137" t="str">
         <f>消息模板!$E$49</f>
         <v>hmsg_message_template-152</v>
       </c>
       <c r="G137" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J137" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K137" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="138" spans="5:11">
       <c r="E138" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F138" t="str">
         <f>消息模板!$E$49</f>
         <v>hmsg_message_template-152</v>
       </c>
       <c r="G138" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J138" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K138" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="139" spans="5:11">
       <c r="E139" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F139" t="str">
         <f>消息模板!$E$49</f>
         <v>hmsg_message_template-152</v>
       </c>
       <c r="G139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J139" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K139" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="140" spans="5:11">
       <c r="E140" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F140" t="str">
         <f>消息模板!$E$29</f>
         <v>hmsg_message_template-64</v>
       </c>
       <c r="G140" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J140" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K140" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="141" spans="5:11">
       <c r="E141" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F141" t="str">
         <f>消息模板!$E$27</f>
         <v>hmsg_message_template-62</v>
       </c>
       <c r="G141" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J141" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K141" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="142" spans="5:11">
       <c r="E142" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F142" t="str">
         <f>消息模板!$E$22</f>
         <v>hmsg_message_template-52</v>
       </c>
       <c r="G142" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J142" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K142" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="143" spans="5:11">
       <c r="E143" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F143" t="str">
         <f>消息模板!$E$20</f>
         <v>hmsg_message_template-50</v>
       </c>
       <c r="G143" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J143" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K143" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="144" spans="5:11">
       <c r="E144" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F144" t="str">
         <f>消息模板!$E$18</f>
         <v>hmsg_message_template-48</v>
       </c>
       <c r="G144" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J144" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K144" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="145" spans="5:11">
       <c r="E145" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F145" t="str">
         <f>消息模板!$E$17</f>
         <v>hmsg_message_template-47</v>
       </c>
       <c r="G145" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J145" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K145" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="146" spans="5:11">
       <c r="E146" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F146" t="str">
         <f>消息模板!$E$25</f>
         <v>hmsg_message_template-60</v>
       </c>
       <c r="G146" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J146" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K146" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="147" spans="5:11">
       <c r="E147" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F147" t="str">
         <f>消息模板!$E$24</f>
         <v>hmsg_message_template-59</v>
       </c>
       <c r="G147" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J147" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K147" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="148" spans="5:11">
       <c r="E148" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F148" t="str">
         <f>消息模板!$E$12</f>
         <v>hmsg_message_template-13</v>
       </c>
       <c r="G148" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J148" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K148" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="149" spans="5:11">
       <c r="E149" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F149" t="str">
         <f>消息模板!$E$36</f>
         <v>hmsg_message_template-107</v>
       </c>
       <c r="G149" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J149" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K149" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="150" spans="5:11">
       <c r="E150" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F150" t="str">
         <f>消息模板!$E$30</f>
         <v>hmsg_message_template-65</v>
       </c>
       <c r="G150" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J150" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K150" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="151" spans="5:11">
       <c r="E151" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F151" t="str">
         <f>消息模板!$E$30</f>
         <v>hmsg_message_template-65</v>
       </c>
       <c r="G151" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J151" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K151" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="152" spans="5:11">
       <c r="E152" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F152" t="str">
         <f>消息模板!$E$50</f>
         <v>hmsg_message_template-153</v>
       </c>
       <c r="G152" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J152" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K152" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="153" spans="5:11">
       <c r="E153" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F153" t="str">
         <f>消息模板!$E$50</f>
         <v>hmsg_message_template-153</v>
       </c>
       <c r="G153" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J153" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K153" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="154" spans="5:11">
       <c r="E154" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F154" t="str">
         <f>消息模板!$E$35</f>
         <v>hmsg_message_template-102</v>
       </c>
       <c r="G154" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J154" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K154" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="155" spans="5:11">
       <c r="E155" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F155" t="str">
         <f>消息模板!$E$35</f>
         <v>hmsg_message_template-102</v>
       </c>
       <c r="G155" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J155" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K155" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="156" spans="5:11">
       <c r="E156" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F156" t="str">
         <f>消息模板!$E$35</f>
         <v>hmsg_message_template-102</v>
       </c>
       <c r="G156" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J156" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K156" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="157" spans="5:11">
       <c r="E157" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F157" t="str">
         <f>消息模板!$E$34</f>
         <v>hmsg_message_template-101</v>
       </c>
       <c r="G157" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J157" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K157" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="158" spans="5:11">
       <c r="E158" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F158" t="str">
         <f>消息模板!$E$34</f>
         <v>hmsg_message_template-101</v>
       </c>
       <c r="G158" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J158" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K158" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="159" spans="5:11">
       <c r="E159" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F159" t="str">
         <f>消息模板!$E$34</f>
         <v>hmsg_message_template-101</v>
       </c>
       <c r="G159" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J159" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K159" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="160" spans="5:11">
       <c r="E160" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F160" t="str">
         <f>消息模板!$E$33</f>
         <v>hmsg_message_template-100</v>
       </c>
       <c r="G160" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J160" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K160" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="161" spans="5:11">
       <c r="E161" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F161" t="str">
         <f>消息模板!$E$33</f>
         <v>hmsg_message_template-100</v>
       </c>
       <c r="G161" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J161" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K161" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="162" spans="5:11">
       <c r="E162" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F162" t="str">
         <f>消息模板!$E$44</f>
         <v>hmsg_message_template-145</v>
       </c>
       <c r="G162" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J162" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K162" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="163" spans="5:11">
       <c r="E163" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F163" t="str">
         <f>消息模板!$E$44</f>
         <v>hmsg_message_template-145</v>
       </c>
       <c r="G163" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J163" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K163" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="164" spans="5:11">
       <c r="E164" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F164" t="str">
         <f>消息模板!$E$44</f>
         <v>hmsg_message_template-145</v>
       </c>
       <c r="G164" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J164" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K164" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="165" spans="5:11">
       <c r="E165" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F165" t="str">
         <f>消息模板!$E$44</f>
         <v>hmsg_message_template-145</v>
       </c>
       <c r="G165" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J165" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K165" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="166" spans="5:11">
       <c r="E166" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F166" t="str">
         <f>消息模板!$E$43</f>
         <v>hmsg_message_template-144</v>
       </c>
       <c r="G166" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J166" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K166" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="167" spans="5:11">
       <c r="E167" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F167" t="str">
         <f>消息模板!$E$43</f>
         <v>hmsg_message_template-144</v>
       </c>
       <c r="G167" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J167" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K167" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="168" spans="5:11">
       <c r="E168" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F168" t="str">
         <f>消息模板!$E$43</f>
         <v>hmsg_message_template-144</v>
       </c>
       <c r="G168" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J168" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K168" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="169" spans="5:11">
       <c r="E169" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F169" t="str">
         <f>消息模板!$E$43</f>
         <v>hmsg_message_template-144</v>
       </c>
       <c r="G169" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J169" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K169" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="170" spans="5:11">
       <c r="E170" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F170" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G170" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J170" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K170" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="171" spans="5:11">
       <c r="E171" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F171" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G171" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J171" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K171" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="172" spans="5:11">
       <c r="E172" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F172" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G172" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J172" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K172" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="173" spans="5:11">
       <c r="E173" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F173" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G173" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J173" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K173" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="174" spans="5:11">
       <c r="E174" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F174" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G174" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J174" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K174" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="175" spans="5:11">
       <c r="E175" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F175" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G175" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J175" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K175" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="176" spans="5:11">
       <c r="E176" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F176" t="str">
         <f>消息模板!$E$42</f>
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G176" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J176" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K176" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="177" spans="5:11">
       <c r="E177" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F177" t="str">
         <f>消息模板!$E$31</f>
         <v>hmsg_message_template-86</v>
       </c>
       <c r="G177" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J177" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K177" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="178" spans="5:11">
       <c r="E178" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F178" t="str">
         <f>消息模板!$E$31</f>
         <v>hmsg_message_template-86</v>
       </c>
       <c r="G178" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J178" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K178" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="179" spans="5:11">
       <c r="E179" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F179" t="str">
         <f>消息模板!$E$31</f>
         <v>hmsg_message_template-86</v>
       </c>
       <c r="G179" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J179" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K179" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="180" spans="5:11">
       <c r="E180" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F180" t="str">
         <f>消息模板!$E$31</f>
         <v>hmsg_message_template-86</v>
       </c>
       <c r="G180" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J180" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K180" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="181" spans="5:11">
       <c r="E181" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F181" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G181" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J181" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K181" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="182" spans="5:11">
       <c r="E182" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F182" t="str">
         <f>消息模板!$E$10</f>
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G182" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J182" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K182" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="183" spans="5:11">
       <c r="E183" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F183" t="str">
         <f>消息模板!$E$48</f>
         <v>hmsg_message_template-151</v>
       </c>
       <c r="G183" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J183" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K183" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="184" spans="5:11">
       <c r="E184" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F184" t="str">
         <f>消息模板!$E$39</f>
         <v>hmsg_message_template-130</v>
       </c>
       <c r="G184" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J184" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K184" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="185" spans="5:11">
       <c r="E185" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F185" t="str">
         <f>消息模板!$E$39</f>
         <v>hmsg_message_template-130</v>
       </c>
       <c r="G185" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J185" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K185" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="186" spans="5:11">
       <c r="E186" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F186" t="str">
         <f>消息模板!$E$41</f>
         <v>hmsg_message_template-139</v>
       </c>
       <c r="G186" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J186" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K186" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="187" spans="5:11">
       <c r="E187" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F187" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G187" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J187" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K187" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="188" spans="5:11">
       <c r="E188" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F188" t="str">
         <f>消息模板!$E$9</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G188" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J188" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K188" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="189" spans="5:11">
       <c r="E189" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F189" t="str">
         <f>消息模板!$E$38</f>
         <v>hmsg_message_template-129</v>
       </c>
       <c r="G189" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J189" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K189" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="190" spans="5:11">
       <c r="E190" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F190" t="str">
         <f>消息模板!$E$38</f>
         <v>hmsg_message_template-129</v>
       </c>
       <c r="G190" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J190" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K190" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="191" spans="5:11">
       <c r="E191" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F191" t="str">
         <f>消息模板!$E$40</f>
         <v>hmsg_message_template-138</v>
       </c>
       <c r="G191" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J191" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K191" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="192" spans="5:11">
       <c r="E192" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F192" t="str">
         <f>消息模板!$E$47</f>
         <v>hmsg_message_template-150</v>
       </c>
       <c r="G192" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J192" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K192" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="193" spans="5:11">
       <c r="E193" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F193" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-12</v>
       </c>
       <c r="G193" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J193" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K193" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -10465,12 +10703,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O66" sqref="N66:O68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -10513,25 +10751,25 @@
         <v>48</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H4" s="5"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>66</v>
@@ -10540,873 +10778,873 @@
         <v>67</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="I7" t="s">
         <v>306</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>307</v>
-      </c>
-      <c r="J7" t="s">
-        <v>308</v>
       </c>
       <c r="K7" t="s">
         <v>64</v>
       </c>
       <c r="L7" t="s">
+        <v>308</v>
+      </c>
+      <c r="M7" t="s">
         <v>309</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>310</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>311</v>
-      </c>
-      <c r="O7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="E8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
+        <v>313</v>
+      </c>
+      <c r="I8" t="s">
         <v>314</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>315</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
         <v>316</v>
       </c>
-      <c r="K8" t="s">
-        <v>105</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>317</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" t="s">
         <v>318</v>
-      </c>
-      <c r="N8" t="s">
-        <v>76</v>
-      </c>
-      <c r="O8" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="E9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
+        <v>320</v>
+      </c>
+      <c r="I9" t="s">
         <v>321</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
+        <v>315</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
         <v>322</v>
       </c>
-      <c r="J9" t="s">
-        <v>316</v>
-      </c>
-      <c r="K9" t="s">
-        <v>105</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>323</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
         <v>324</v>
-      </c>
-      <c r="N9" t="s">
-        <v>105</v>
-      </c>
-      <c r="O9" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="E10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
+        <v>326</v>
+      </c>
+      <c r="I10" t="s">
+        <v>202</v>
+      </c>
+      <c r="J10" t="s">
+        <v>315</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>316</v>
+      </c>
+      <c r="M10" t="s">
+        <v>317</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
         <v>327</v>
-      </c>
-      <c r="I10" t="s">
-        <v>203</v>
-      </c>
-      <c r="J10" t="s">
-        <v>316</v>
-      </c>
-      <c r="K10" t="s">
-        <v>105</v>
-      </c>
-      <c r="L10" t="s">
-        <v>317</v>
-      </c>
-      <c r="M10" t="s">
-        <v>318</v>
-      </c>
-      <c r="N10" t="s">
-        <v>105</v>
-      </c>
-      <c r="O10" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="E11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
+        <v>329</v>
+      </c>
+      <c r="I11" t="s">
+        <v>176</v>
+      </c>
+      <c r="J11" t="s">
+        <v>315</v>
+      </c>
+      <c r="K11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" t="s">
         <v>330</v>
       </c>
-      <c r="I11" t="s">
-        <v>177</v>
-      </c>
-      <c r="J11" t="s">
-        <v>316</v>
-      </c>
-      <c r="K11" t="s">
-        <v>105</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>331</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
+        <v>104</v>
+      </c>
+      <c r="O11" t="s">
         <v>332</v>
-      </c>
-      <c r="N11" t="s">
-        <v>105</v>
-      </c>
-      <c r="O11" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="E12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
+        <v>334</v>
+      </c>
+      <c r="I12" t="s">
+        <v>154</v>
+      </c>
+      <c r="J12" t="s">
+        <v>315</v>
+      </c>
+      <c r="K12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L12" t="s">
+        <v>330</v>
+      </c>
+      <c r="M12" t="s">
+        <v>331</v>
+      </c>
+      <c r="N12" t="s">
+        <v>104</v>
+      </c>
+      <c r="O12" t="s">
         <v>335</v>
-      </c>
-      <c r="I12" t="s">
-        <v>155</v>
-      </c>
-      <c r="J12" t="s">
-        <v>316</v>
-      </c>
-      <c r="K12" t="s">
-        <v>105</v>
-      </c>
-      <c r="L12" t="s">
-        <v>331</v>
-      </c>
-      <c r="M12" t="s">
-        <v>332</v>
-      </c>
-      <c r="N12" t="s">
-        <v>105</v>
-      </c>
-      <c r="O12" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="E13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13" t="s">
+        <v>337</v>
+      </c>
+      <c r="I13" t="s">
         <v>338</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
+        <v>315</v>
+      </c>
+      <c r="K13" t="s">
+        <v>104</v>
+      </c>
+      <c r="L13" t="s">
+        <v>322</v>
+      </c>
+      <c r="M13" t="s">
+        <v>323</v>
+      </c>
+      <c r="N13" t="s">
+        <v>75</v>
+      </c>
+      <c r="O13" t="s">
         <v>339</v>
-      </c>
-      <c r="J13" t="s">
-        <v>316</v>
-      </c>
-      <c r="K13" t="s">
-        <v>105</v>
-      </c>
-      <c r="L13" t="s">
-        <v>323</v>
-      </c>
-      <c r="M13" t="s">
-        <v>324</v>
-      </c>
-      <c r="N13" t="s">
-        <v>76</v>
-      </c>
-      <c r="O13" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="E14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14" t="s">
+        <v>341</v>
+      </c>
+      <c r="I14" t="s">
         <v>342</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
+        <v>315</v>
+      </c>
+      <c r="K14" t="s">
+        <v>104</v>
+      </c>
+      <c r="L14" t="s">
+        <v>322</v>
+      </c>
+      <c r="M14" t="s">
+        <v>323</v>
+      </c>
+      <c r="N14" t="s">
+        <v>75</v>
+      </c>
+      <c r="O14" t="s">
         <v>343</v>
-      </c>
-      <c r="J14" t="s">
-        <v>316</v>
-      </c>
-      <c r="K14" t="s">
-        <v>105</v>
-      </c>
-      <c r="L14" t="s">
-        <v>323</v>
-      </c>
-      <c r="M14" t="s">
-        <v>324</v>
-      </c>
-      <c r="N14" t="s">
-        <v>76</v>
-      </c>
-      <c r="O14" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="E15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
+        <v>345</v>
+      </c>
+      <c r="I15" t="s">
         <v>346</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
+        <v>315</v>
+      </c>
+      <c r="K15" t="s">
+        <v>104</v>
+      </c>
+      <c r="L15" t="s">
+        <v>322</v>
+      </c>
+      <c r="M15" t="s">
         <v>347</v>
       </c>
-      <c r="J15" t="s">
-        <v>316</v>
-      </c>
-      <c r="K15" t="s">
-        <v>105</v>
-      </c>
-      <c r="L15" t="s">
-        <v>323</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
+        <v>104</v>
+      </c>
+      <c r="O15" t="s">
         <v>348</v>
-      </c>
-      <c r="N15" t="s">
-        <v>105</v>
-      </c>
-      <c r="O15" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="E16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
+        <v>350</v>
+      </c>
+      <c r="I16" t="s">
         <v>351</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
+        <v>315</v>
+      </c>
+      <c r="K16" t="s">
+        <v>104</v>
+      </c>
+      <c r="L16" t="s">
+        <v>316</v>
+      </c>
+      <c r="M16" t="s">
         <v>352</v>
       </c>
-      <c r="J16" t="s">
-        <v>316</v>
-      </c>
-      <c r="K16" t="s">
-        <v>105</v>
-      </c>
-      <c r="L16" t="s">
-        <v>317</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
+        <v>104</v>
+      </c>
+      <c r="O16" t="s">
         <v>353</v>
-      </c>
-      <c r="N16" t="s">
-        <v>105</v>
-      </c>
-      <c r="O16" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17" t="s">
+        <v>355</v>
+      </c>
+      <c r="I17" t="s">
         <v>356</v>
       </c>
-      <c r="I17" t="s">
-        <v>357</v>
-      </c>
       <c r="J17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L17" t="s">
+        <v>322</v>
+      </c>
+      <c r="M17" t="s">
         <v>323</v>
       </c>
-      <c r="M17" t="s">
-        <v>324</v>
-      </c>
       <c r="N17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18" t="s">
+        <v>358</v>
+      </c>
+      <c r="I18" t="s">
+        <v>217</v>
+      </c>
+      <c r="J18" t="s">
+        <v>315</v>
+      </c>
+      <c r="K18" t="s">
+        <v>104</v>
+      </c>
+      <c r="L18" t="s">
+        <v>322</v>
+      </c>
+      <c r="M18" t="s">
+        <v>323</v>
+      </c>
+      <c r="N18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O18" t="s">
         <v>359</v>
-      </c>
-      <c r="I18" t="s">
-        <v>218</v>
-      </c>
-      <c r="J18" t="s">
-        <v>316</v>
-      </c>
-      <c r="K18" t="s">
-        <v>105</v>
-      </c>
-      <c r="L18" t="s">
-        <v>323</v>
-      </c>
-      <c r="M18" t="s">
-        <v>324</v>
-      </c>
-      <c r="N18" t="s">
-        <v>76</v>
-      </c>
-      <c r="O18" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19" t="s">
+        <v>361</v>
+      </c>
+      <c r="I19" t="s">
         <v>362</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
+        <v>315</v>
+      </c>
+      <c r="K19" t="s">
+        <v>104</v>
+      </c>
+      <c r="L19" t="s">
+        <v>316</v>
+      </c>
+      <c r="M19" t="s">
+        <v>352</v>
+      </c>
+      <c r="N19" t="s">
+        <v>104</v>
+      </c>
+      <c r="O19" t="s">
         <v>363</v>
-      </c>
-      <c r="J19" t="s">
-        <v>316</v>
-      </c>
-      <c r="K19" t="s">
-        <v>105</v>
-      </c>
-      <c r="L19" t="s">
-        <v>317</v>
-      </c>
-      <c r="M19" t="s">
-        <v>353</v>
-      </c>
-      <c r="N19" t="s">
-        <v>105</v>
-      </c>
-      <c r="O19" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20" t="s">
+        <v>365</v>
+      </c>
+      <c r="I20" t="s">
         <v>366</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
+        <v>315</v>
+      </c>
+      <c r="K20" t="s">
+        <v>104</v>
+      </c>
+      <c r="L20" t="s">
+        <v>330</v>
+      </c>
+      <c r="M20" t="s">
+        <v>331</v>
+      </c>
+      <c r="N20" t="s">
+        <v>75</v>
+      </c>
+      <c r="O20" t="s">
         <v>367</v>
-      </c>
-      <c r="J20" t="s">
-        <v>316</v>
-      </c>
-      <c r="K20" t="s">
-        <v>105</v>
-      </c>
-      <c r="L20" t="s">
-        <v>331</v>
-      </c>
-      <c r="M20" t="s">
-        <v>332</v>
-      </c>
-      <c r="N20" t="s">
-        <v>76</v>
-      </c>
-      <c r="O20" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21" t="s">
+        <v>369</v>
+      </c>
+      <c r="I21" t="s">
         <v>370</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
+        <v>315</v>
+      </c>
+      <c r="K21" t="s">
+        <v>104</v>
+      </c>
+      <c r="L21" t="s">
+        <v>330</v>
+      </c>
+      <c r="M21" t="s">
         <v>371</v>
       </c>
-      <c r="J21" t="s">
-        <v>316</v>
-      </c>
-      <c r="K21" t="s">
-        <v>105</v>
-      </c>
-      <c r="L21" t="s">
-        <v>331</v>
-      </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
+        <v>104</v>
+      </c>
+      <c r="O21" t="s">
         <v>372</v>
-      </c>
-      <c r="N21" t="s">
-        <v>105</v>
-      </c>
-      <c r="O21" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22" t="s">
+        <v>374</v>
+      </c>
+      <c r="I22" t="s">
         <v>375</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
+        <v>315</v>
+      </c>
+      <c r="K22" t="s">
+        <v>104</v>
+      </c>
+      <c r="L22" t="s">
+        <v>322</v>
+      </c>
+      <c r="M22" t="s">
+        <v>323</v>
+      </c>
+      <c r="N22" t="s">
+        <v>75</v>
+      </c>
+      <c r="O22" t="s">
         <v>376</v>
-      </c>
-      <c r="J22" t="s">
-        <v>316</v>
-      </c>
-      <c r="K22" t="s">
-        <v>105</v>
-      </c>
-      <c r="L22" t="s">
-        <v>323</v>
-      </c>
-      <c r="M22" t="s">
-        <v>324</v>
-      </c>
-      <c r="N22" t="s">
-        <v>76</v>
-      </c>
-      <c r="O22" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23" t="s">
+        <v>378</v>
+      </c>
+      <c r="I23" t="s">
         <v>379</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
+        <v>315</v>
+      </c>
+      <c r="K23" t="s">
+        <v>104</v>
+      </c>
+      <c r="L23" t="s">
+        <v>316</v>
+      </c>
+      <c r="M23" t="s">
         <v>380</v>
       </c>
-      <c r="J23" t="s">
-        <v>316</v>
-      </c>
-      <c r="K23" t="s">
-        <v>105</v>
-      </c>
-      <c r="L23" t="s">
-        <v>317</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
+        <v>75</v>
+      </c>
+      <c r="O23" t="s">
         <v>381</v>
-      </c>
-      <c r="N23" t="s">
-        <v>76</v>
-      </c>
-      <c r="O23" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24" s="44" t="s">
-        <v>504</v>
+      <c r="H24" s="39" t="s">
+        <v>503</v>
       </c>
       <c r="I24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25" t="s">
+        <v>386</v>
+      </c>
+      <c r="I25" t="s">
         <v>387</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
+        <v>315</v>
+      </c>
+      <c r="K25" t="s">
+        <v>104</v>
+      </c>
+      <c r="L25" t="s">
+        <v>316</v>
+      </c>
+      <c r="M25" t="s">
+        <v>380</v>
+      </c>
+      <c r="N25" t="s">
+        <v>75</v>
+      </c>
+      <c r="O25" t="s">
         <v>388</v>
-      </c>
-      <c r="J25" t="s">
-        <v>316</v>
-      </c>
-      <c r="K25" t="s">
-        <v>105</v>
-      </c>
-      <c r="L25" t="s">
-        <v>317</v>
-      </c>
-      <c r="M25" t="s">
-        <v>381</v>
-      </c>
-      <c r="N25" t="s">
-        <v>76</v>
-      </c>
-      <c r="O25" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26" t="s">
+        <v>390</v>
+      </c>
+      <c r="I26" t="s">
         <v>391</v>
       </c>
-      <c r="I26" t="s">
-        <v>392</v>
-      </c>
       <c r="J26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L26" t="s">
+        <v>330</v>
+      </c>
+      <c r="M26" t="s">
         <v>331</v>
       </c>
-      <c r="M26" t="s">
-        <v>332</v>
-      </c>
       <c r="N26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="27" spans="5:15">
       <c r="E27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27" t="s">
+        <v>393</v>
+      </c>
+      <c r="I27" t="s">
         <v>394</v>
       </c>
-      <c r="I27" t="s">
-        <v>395</v>
-      </c>
       <c r="J27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L27" t="s">
+        <v>330</v>
+      </c>
+      <c r="M27" t="s">
         <v>331</v>
       </c>
-      <c r="M27" t="s">
-        <v>332</v>
-      </c>
       <c r="N27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O27" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="5:15">
       <c r="E28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L28" t="s">
+        <v>322</v>
+      </c>
+      <c r="M28" t="s">
         <v>323</v>
       </c>
-      <c r="M28" t="s">
-        <v>324</v>
-      </c>
       <c r="N28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="29" spans="5:15">
       <c r="E29" s="38" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I29" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L29" t="s">
+        <v>330</v>
+      </c>
+      <c r="M29" t="s">
         <v>331</v>
       </c>
-      <c r="M29" t="s">
-        <v>332</v>
-      </c>
       <c r="N29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O29" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="5:15">
       <c r="E30" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30" t="s">
+        <v>399</v>
+      </c>
+      <c r="I30" t="s">
         <v>400</v>
       </c>
-      <c r="I30" t="s">
-        <v>401</v>
-      </c>
       <c r="J30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L30" t="s">
+        <v>322</v>
+      </c>
+      <c r="M30" t="s">
         <v>323</v>
       </c>
-      <c r="M30" t="s">
-        <v>324</v>
-      </c>
       <c r="N30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O30" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="5:15">
       <c r="E31" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31" t="s">
+        <v>402</v>
+      </c>
+      <c r="I31" t="s">
         <v>403</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
+        <v>315</v>
+      </c>
+      <c r="K31" t="s">
+        <v>104</v>
+      </c>
+      <c r="L31" t="s">
+        <v>330</v>
+      </c>
+      <c r="M31" t="s">
         <v>404</v>
       </c>
-      <c r="J31" t="s">
-        <v>316</v>
-      </c>
-      <c r="K31" t="s">
-        <v>105</v>
-      </c>
-      <c r="L31" t="s">
-        <v>331</v>
-      </c>
-      <c r="M31" t="s">
-        <v>405</v>
-      </c>
       <c r="N31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O31" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="5:15">
       <c r="E32" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -11415,63 +11653,63 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
+        <v>406</v>
+      </c>
+      <c r="I32" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="I32" s="7" t="s">
-        <v>408</v>
-      </c>
       <c r="J32" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M32" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B34" t="s">
         <v>51</v>
       </c>
       <c r="C34" t="s">
+        <v>409</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="H34" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I34" t="s">
         <v>414</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>415</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>416</v>
-      </c>
-      <c r="K34" t="s">
-        <v>417</v>
       </c>
       <c r="L34" t="s">
         <v>60</v>
@@ -11482,17 +11720,17 @@
     </row>
     <row r="35" spans="1:13">
       <c r="E35" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F35" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I35" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -11502,25 +11740,25 @@
         <v>69</v>
       </c>
       <c r="L35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="E36" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F36" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G36" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I36" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -11538,59 +11776,59 @@
     </row>
     <row r="37" spans="1:13">
       <c r="E37" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F37" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G37" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="E38" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F38" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G38" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="E39" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F39" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G39" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I39" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -11600,7 +11838,7 @@
         <v>69</v>
       </c>
       <c r="L39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -11608,80 +11846,80 @@
     </row>
     <row r="40" spans="1:13">
       <c r="E40" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F40" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G40" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="E41" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F41" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G41" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="E42" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F42" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G42" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="E43" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F43" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I43" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -11691,7 +11929,7 @@
         <v>69</v>
       </c>
       <c r="L43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M43">
         <v>1</v>
@@ -11699,290 +11937,290 @@
     </row>
     <row r="44" spans="1:13">
       <c r="E44" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F44" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G44" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="E45" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F45" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G45" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="E46" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F46" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G46" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="E47" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F47" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G47" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="E48" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F48" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G48" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="5:13">
       <c r="E49" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F49" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G49" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="5:13">
       <c r="E50" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F50" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G50" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="5:13">
       <c r="E51" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F51" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G51" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="5:13">
       <c r="E52" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F52" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G52" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="5:13">
       <c r="E53" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F53" t="str">
         <f>发送配置!$E$16</f>
         <v>hmsg_template_server-19</v>
       </c>
       <c r="G53" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H53" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="5:13">
       <c r="E54" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F54" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G54" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H54" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="5:13">
       <c r="E55" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F55" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G55" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H55" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="5:13">
       <c r="E56" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F56" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G56" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="5:13">
       <c r="E57" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F57" t="str">
         <f>发送配置!$E$18</f>
         <v>hmsg_template_server-21</v>
       </c>
       <c r="G57" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H57" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I57" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -11992,67 +12230,67 @@
         <v>69</v>
       </c>
       <c r="L57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="5:13">
       <c r="E58" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F58" t="str">
         <f>发送配置!$E$18</f>
         <v>hmsg_template_server-21</v>
       </c>
       <c r="G58" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H58" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="5:13">
       <c r="E59" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F59" t="str">
         <f>发送配置!$E$19</f>
         <v>hmsg_template_server-22</v>
       </c>
       <c r="G59" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H59" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="5:13">
       <c r="E60" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F60" t="str">
         <f>发送配置!$E$20</f>
         <v>hmsg_template_server-35</v>
       </c>
       <c r="G60" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I60" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -12062,25 +12300,25 @@
         <v>69</v>
       </c>
       <c r="L60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="5:13">
       <c r="E61" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F61" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G61" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H61" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I61" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -12090,88 +12328,88 @@
         <v>69</v>
       </c>
       <c r="L61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="5:13">
       <c r="E62" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F62" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G62" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H62" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="5:13">
       <c r="E63" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F63" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G63" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H63" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M63" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="5:13">
       <c r="E64" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F64" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G64" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H64" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="5:13">
       <c r="E65" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F65" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G65" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I65" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -12181,67 +12419,67 @@
         <v>69</v>
       </c>
       <c r="L65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="5:13">
       <c r="E66" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F66" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G66" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H66" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="5:13">
       <c r="E67" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F67" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G67" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M67" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="5:13">
       <c r="E68" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F68" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-50</v>
       </c>
       <c r="G68" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H68" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I68" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -12251,46 +12489,46 @@
         <v>69</v>
       </c>
       <c r="L68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M68" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="5:13">
       <c r="E69" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F69" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-50</v>
       </c>
       <c r="G69" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H69" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="5:13">
       <c r="E70" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F70" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G70" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H70" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I70" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -12300,7 +12538,7 @@
         <v>69</v>
       </c>
       <c r="L70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M70">
         <v>1</v>
@@ -12308,59 +12546,59 @@
     </row>
     <row r="71" spans="5:13">
       <c r="E71" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F71" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G71" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H71" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M71" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="5:13">
       <c r="E72" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F72" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G72" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H72" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M72" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="5:13">
       <c r="E73" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F73" t="str">
         <f>发送配置!$E$25</f>
         <v>hmsg_template_server-52</v>
       </c>
       <c r="G73" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H73" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I73" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -12370,151 +12608,151 @@
         <v>69</v>
       </c>
       <c r="L73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="5:13">
       <c r="E74" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F74" t="str">
         <f>发送配置!$E$25</f>
         <v>hmsg_template_server-52</v>
       </c>
       <c r="G74" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H74" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M74" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="5:13">
       <c r="E75" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F75" t="str">
         <f>发送配置!$E$26</f>
         <v>hmsg_template_server-63</v>
       </c>
       <c r="G75" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H75" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L75" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76" spans="5:13">
       <c r="E76" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F76" t="str">
         <f>发送配置!$E$27</f>
         <v>hmsg_template_server-65</v>
       </c>
       <c r="G76" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H76" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L76" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M76" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="5:13">
       <c r="E77" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F77" t="str">
         <f>发送配置!$E$30</f>
         <v>hmsg_template_server-70</v>
       </c>
       <c r="G77" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H77" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L77" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M77" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78" spans="5:13">
       <c r="E78" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F78" t="str">
         <f>发送配置!$E$31</f>
         <v>hmsg_template_server-72</v>
       </c>
       <c r="G78" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H78" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L78" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M78" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="5:13">
       <c r="E79" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F79" t="str">
         <f>发送配置!$E$28</f>
         <v>hmsg_template_server-66</v>
       </c>
       <c r="G79" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H79" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M79" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="5:13">
       <c r="E80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F80" t="str">
         <f t="shared" ref="F80" si="0">E32</f>
         <v>hmsg_template_server-96</v>
       </c>
       <c r="G80" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H80" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L80">
         <v>0</v>
@@ -12525,17 +12763,17 @@
     </row>
     <row r="81" spans="1:13">
       <c r="E81" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F81" t="str">
         <f>E32</f>
         <v>hmsg_template_server-96</v>
       </c>
       <c r="G81" t="s">
+        <v>473</v>
+      </c>
+      <c r="H81" t="s">
         <v>474</v>
-      </c>
-      <c r="H81" t="s">
-        <v>475</v>
       </c>
       <c r="L81">
         <v>0</v>
@@ -12552,30 +12790,30 @@
         <v>51</v>
       </c>
       <c r="C83" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D83" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="F83" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G83" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="G83" s="3" t="s">
+      <c r="H83" t="s">
         <v>478</v>
-      </c>
-      <c r="H83" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="E84" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F84" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -12586,10 +12824,10 @@
     </row>
     <row r="85" spans="1:13">
       <c r="E85" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F85" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -12600,10 +12838,10 @@
     </row>
     <row r="86" spans="1:13">
       <c r="E86" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F86" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -12614,10 +12852,10 @@
     </row>
     <row r="87" spans="1:13">
       <c r="E87" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F87" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -12628,10 +12866,10 @@
     </row>
     <row r="88" spans="1:13">
       <c r="E88" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F88" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -12642,10 +12880,10 @@
     </row>
     <row r="89" spans="1:13">
       <c r="E89" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F89" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -12656,10 +12894,10 @@
     </row>
     <row r="90" spans="1:13">
       <c r="E90" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F90" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -12670,10 +12908,10 @@
     </row>
     <row r="91" spans="1:13">
       <c r="E91" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F91" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -12684,10 +12922,10 @@
     </row>
     <row r="92" spans="1:13">
       <c r="E92" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F92" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -12698,10 +12936,10 @@
     </row>
     <row r="93" spans="1:13">
       <c r="E93" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F93" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -12712,10 +12950,10 @@
     </row>
     <row r="94" spans="1:13">
       <c r="E94" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F94" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -12726,10 +12964,10 @@
     </row>
     <row r="95" spans="1:13">
       <c r="E95" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -12740,10 +12978,10 @@
     </row>
     <row r="96" spans="1:13">
       <c r="E96" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F96" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -12754,10 +12992,10 @@
     </row>
     <row r="97" spans="5:8">
       <c r="E97" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F97" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -12768,10 +13006,10 @@
     </row>
     <row r="98" spans="5:8">
       <c r="E98" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F98" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -12782,10 +13020,10 @@
     </row>
     <row r="99" spans="5:8">
       <c r="E99" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F99" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -12796,10 +13034,10 @@
     </row>
     <row r="100" spans="5:8">
       <c r="E100" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F100" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -12810,10 +13048,10 @@
     </row>
     <row r="101" spans="5:8">
       <c r="E101" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F101" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -12824,10 +13062,10 @@
     </row>
     <row r="102" spans="5:8">
       <c r="E102" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F102" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -12838,10 +13076,10 @@
     </row>
     <row r="103" spans="5:8">
       <c r="E103" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F103" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -12852,10 +13090,10 @@
     </row>
     <row r="104" spans="5:8">
       <c r="E104" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F104" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -12866,10 +13104,10 @@
     </row>
     <row r="105" spans="5:8">
       <c r="E105" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F105" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -12880,10 +13118,10 @@
     </row>
     <row r="106" spans="5:8">
       <c r="E106" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F106" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G106">
         <v>1</v>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
@@ -2799,15 +2799,299 @@
       display: block;
       margin: 13px 0;
     }
-    .button {
-      background-color: #008CBA; /* Blue */
-      border: none;
-      color: white;
-      padding: 15px 32px;
+  &lt;/style&gt;
+  &lt;!--[if !mso]&gt;&lt;!--&gt;
+  &lt;style type="text/css"&gt;
+    @media only screen and (max-width:480px) {
+      @-ms-viewport {
+        width: 320px;
+      }
+      @viewport {
+        width: 320px;
+      }
+    }
+  &lt;/style&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;!--[if mso]&gt;
+  &lt;xml&gt;
+    &lt;o:OfficeDocumentSettings&gt;
+      &lt;o:AllowPNG/&gt;
+      &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
+    &lt;/o:OfficeDocumentSettings&gt;
+  &lt;/xml&gt;
+  &lt;![endif]--&gt;
+  &lt;!--[if lte mso 11]&gt;
+  &lt;style type="text/css"&gt;
+    .outlook-group-fix { width:100% !important; }
+  &lt;/style&gt;
+  &lt;![endif]--&gt;
+  &lt;!--[if !mso]&gt;&lt;!--&gt;
+  &lt;link href="https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700" rel="stylesheet" type="text/css"&gt;
+  &lt;style type="text/css"&gt;
+    @import url(https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700);
+  &lt;/style&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;style type="text/css"&gt;
+    @media only screen and (min-width:480px) {
+      .mj-column-per-100 {
+        width: 100% !important;
+        max-width: 100%;
+      }
+    }
+  &lt;/style&gt;
+  &lt;style type="text/css"&gt;
+  &lt;/style&gt;
+&lt;/head&gt;
+&lt;body&gt;
+&lt;div style=""&gt;
+  &lt;!--[if mso | IE]&gt;
+  &lt;table
+          align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:600px;" width="782"
+  &gt;
+    &lt;tr&gt;
+      &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
+  &lt;![endif]--&gt;
+  &lt;div style="Margin:0px auto;max-width:600px;"&gt;
+    &lt;table align="center" border="0" cellpadding="0" cellspacing="0" role="presentation" style="width:100%;"&gt;
+      &lt;tbody&gt;
+      &lt;tr&gt;
+        &lt;td style="direction:ltr;font-size:0px;padding:20px 0;text-align:center;vertical-align:top;"&gt;
+          &lt;!--[if mso | IE]&gt;
+          &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
+            &lt;tr&gt;
+              &lt;td
+                      class="" style="vertical-align:top;width:600px;"
+              &gt;
+          &lt;![endif]--&gt;
+          &lt;div class="mj-column-per-100 outlook-group-fix" style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
+            &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
+              &lt;tr&gt;
+                &lt;td align="left" style="font-size:0px;padding:20px 25px;word-break:break-word;"&gt;
+                  &lt;div style="font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;line-height:1;text-align:left;color:#000000;"&gt;
+                    &lt;body&gt;
+                    &lt;div style="width: 600px;
+      background: #FFFFFF;
+      margin: 0 auto;"&gt;
+                      &lt;div style="height: 55px;
+      background-color: #ffffff;
+      border-bottom: 8px solid #3F51B5;"&gt;
+                        &lt;table&gt;
+                          &lt;tr&gt;
+                            &lt;td style="padding-bottom: 0;vertical-align: bottom;"&gt;
+                              &lt;table&gt;
+                                &lt;tr&gt;
+                                  &lt;td style="width:190px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190" /&gt; &lt;/td&gt;
+                                &lt;/tr&gt;
+                              &lt;/table&gt;
+                            &lt;td&gt;
+                          &lt;/tr&gt;
+                        &lt;/table&gt;
+                      &lt;/div&gt;
+                      &lt;div style="padding: 30px 40px;
+      border-bottom: 0;
+      border-top: 0;
+      border-left:1px solid #E6E6E6;
+      border-right:1px solid #E6E6E6;
+      border-radius: 2px;
+      background: #FFFFFF;"&gt;
+                        &lt;div&gt;
+        &lt;p&gt;您好，&lt;/p&gt;&lt;p&gt;您所在的项目：${projectName} 已被停用。&lt;/p&gt;
+                        &lt;/div&gt;
+                      &lt;/div&gt;
+                      &lt;div&gt;
+                        &lt;div style="text-align: justify;"&gt;
+                          &lt;table style="height: 148px; background-color: #f7f7f7;width: 100%;"&gt;
+                            &lt;tr&gt;
+                              &lt;td style="padding-left: 29px;"&gt;
+                                &lt;table&gt;
+                                  &lt;tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:90px;" width="90" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/tr&gt;
+                                  &lt;tr&gt;
+                                    &lt;td style="text-align: center"&gt;微信公众号&lt;/td&gt;
+                                  &lt;/tr&gt;
+                                &lt;/table&gt;
+                              &lt;td&gt;
+                              &lt;td&gt;
+                                &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; vertical-align: top;"&gt;
+                                  &lt;p style="font-size: 12px;
+      color: #626774;
+      letter-spacing: 0;
+      text-align: left;
+      margin-bottom: 6px;
+      margin-top: 0;"&gt; 此邮件为系统邮件，请勿回复。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
+      color: #626774;
+      letter-spacing: 0;
+      text-align: left;
+      margin-bottom: 6px;
+      margin-top: 0;"&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/docs/"
+                                                                                                                                                                    target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
+      color: #626774;
+      letter-spacing: 0;
+      text-align: left;
+      margin-bottom: 6px;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://forum.choerodon.io/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
+      color: #626774;
+      letter-spacing: 0;
+      text-align: left;
+      margin-bottom: 6px;
+      margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：choerodon@vip.hand-china.com&lt;/p&gt;
+                                &lt;/div&gt;
+                              &lt;/td&gt;
+                            &lt;/tr&gt;
+                          &lt;/table&gt;
+                        &lt;/div&gt;
+                      &lt;/div&gt;
+                      &lt;div style="width: 600px;
+      height: 34px;
+      background: #3F51B5;
+      "&gt;
+                        &lt;p style="opacity: 0.8;
+      font-size: 10px;
+      color: #FFFFFF;
       text-align: center;
+      display: inline-block;
+      line-height: 34px;
+      width: 100%;
+      margin: 0 auto;"&gt;Copyright © The Choerodon Author. All rights reserved.&lt;/p&gt;
+                      &lt;/div&gt;
+                    &lt;/div&gt;
+                    &lt;/body&gt;
+                  &lt;/div&gt;
+                &lt;/td&gt;
+              &lt;/tr&gt;
+            &lt;/table&gt;
+          &lt;/div&gt;
+          &lt;!--[if mso | IE]&gt;
+          &lt;/td&gt;
+          &lt;/tr&gt;
+          &lt;/table&gt;
+          &lt;![endif]--&gt;
+        &lt;/td&gt;
+      &lt;/tr&gt;
+      &lt;/tbody&gt;
+    &lt;/table&gt;
+  &lt;/div&gt;
+  &lt;!--[if mso | IE]&gt;
+  &lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;/table&gt;
+  &lt;![endif]--&gt;
+&lt;/div&gt;
+&lt;/body&gt;
+&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-52</t>
+  </si>
+  <si>
+    <t>DISABLE_PROJECT.WEB</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-58</t>
+  </si>
+  <si>
+    <t>ENABLE_ORGANIZATION_JSON</t>
+  </si>
+  <si>
+    <t>启用组织Json</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-59</t>
+  </si>
+  <si>
+    <t>ENABLE_ORGANIZATION.DINGTALKANDWECHAT</t>
+  </si>
+  <si>
+    <t>组织启用</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;您好，&lt;/p&gt;&lt;p&gt;您所在的组织：${organizationName} 已被启用。&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-60</t>
+  </si>
+  <si>
+    <t>ENABLE_ORGANIZATION.WEB</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-61</t>
+  </si>
+  <si>
+    <t>ENABLE_PROJECT_JSON</t>
+  </si>
+  <si>
+    <t>启用项目Json</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-62</t>
+  </si>
+  <si>
+    <t>ENABLE_PROJECT.DINGTALKANDWECHAT</t>
+  </si>
+  <si>
+    <t>项目启用</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;您好，&lt;/p&gt;&lt;p&gt;您所在的项目：${projectName} 已被启用。&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-63</t>
+  </si>
+  <si>
+    <t>ENABLE_PROJECT.EMAIL</t>
+  </si>
+  <si>
+    <t>启用项目</t>
+  </si>
+  <si>
+    <t>&lt;!doctype html&gt;
+&lt;html xmlns="http://www.w3.org/1999/xhtml" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office"&gt;
+&lt;head&gt;
+  &lt;title&gt; &lt;/title&gt;
+  &lt;!--[if !mso]&gt;&lt;!-- --&gt;
+  &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;
+  &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
+  &lt;style type="text/css"&gt;
+    #outlook a {
+      padding: 0;
+    }
+    .ReadMsgBody {
+      width: 100%;
+    }
+    .ExternalClass {
+      width: 100%;
+    }
+    .ExternalClass * {
+      line-height: 100%;
+    }
+    body {
+      margin: 0;
+      padding: 0;
+      -webkit-text-size-adjust: 100%;
+      -ms-text-size-adjust: 100%;
+    }
+    table,
+    td {
+      border-collapse: collapse;
+      mso-table-lspace: 0pt;
+      mso-table-rspace: 0pt;
+    }
+    img {
+      border: 0;
+      height: auto;
+      line-height: 100%;
+      outline: none;
       text-decoration: none;
-      display: inline-block;
-      font-size: 16px;
+      -ms-interpolation-mode: bicubic;
+    }
+    p {
+      display: block;
+      margin: 13px 0;
     }
   &lt;/style&gt;
   &lt;!--[if !mso]&gt;&lt;!--&gt;
@@ -2856,7 +3140,7 @@
 &lt;div style=""&gt;
   &lt;!--[if mso | IE]&gt;
   &lt;table
-          align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:600px;" width="600"
+          align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:600px;" width="782"
   &gt;
     &lt;tr&gt;
       &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
@@ -2876,33 +3160,36 @@
           &lt;div class="mj-column-per-100 outlook-group-fix" style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
             &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
               &lt;tr&gt;
-                &lt;td align="left" style="font-size:0px;padding:10px 25px;word-break:break-word;"&gt;
+                &lt;td align="left" style="font-size:0px;padding:20px 25px;word-break:break-word;"&gt;
                   &lt;div style="font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;line-height:1;text-align:left;color:#000000;"&gt;
                     &lt;body&gt;
-                    &lt;div style="width: 600px;background: #FFFFFF;margin: 0 auto;"&gt;
-                      &lt;div style="height: 115px;background-color: #ffffff;border-bottom: 8px solid #3F51B5;"&gt;
+                    &lt;div style="width: 600px;
+      background: #FFFFFF;
+      margin: 0 auto;"&gt;
+                      &lt;div style="height: 55px;
+      background-color: #ffffff;
+      border-bottom: 8px solid #3F51B5;"&gt;
                         &lt;table&gt;
                           &lt;tr&gt;
                             &lt;td style="padding-bottom: 0;vertical-align: bottom;"&gt;
                               &lt;table&gt;
                                 &lt;tr&gt;
-                                  &lt;td style="width:190px;"&gt; 
-                                    &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:190px;" /&gt;
-                                  &lt;/td&gt;
+                                  &lt;td style="width:190px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190" /&gt; &lt;/td&gt;
                                 &lt;/tr&gt;
                               &lt;/table&gt;
                             &lt;td&gt;
-                              &lt;td style="vertical-align: bottom;"&gt;
-                                &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; "&gt;
-                                  &lt;p style="font-size: 14px;color: #252528;letter-spacing: 0;display: inline-block;text-align: right;width: 558px;padding-top: 55px;"&gt;&lt;/p&gt;
-                                &lt;/div&gt;
-                              &lt;/td&gt;
                           &lt;/tr&gt;
                         &lt;/table&gt;
                       &lt;/div&gt;
-                      &lt;div style="padding: 68px 40px;border: 1px solid #E6E6E6;border-bottom: 0;border-top: 0;border-radius: 2px;background: #FFFFFF;"&gt;
+                      &lt;div style="padding: 30px 40px;
+      border-bottom: 0;
+      border-top: 0;
+      border-left:1px solid #E6E6E6;
+      border-right:1px solid #E6E6E6;
+      border-radius: 2px;
+      background: #FFFFFF;"&gt;
                         &lt;div&gt;
-                           &lt;p&gt;您好，&lt;/p&gt;&lt;p&gt;您所在的项目：${projectName} 已被停用。&lt;/p&gt;
+       &lt;p&gt;您好，&lt;/p&gt;&lt;p&gt;您所在的项目：${projectName} 已被启用。&lt;/p&gt;
                         &lt;/div&gt;
                       &lt;/div&gt;
                       &lt;div&gt;
@@ -2920,288 +3207,49 @@
                               &lt;td&gt;
                               &lt;td&gt;
                                 &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; vertical-align: top;"&gt;
-                                  &lt;p style="font-size: 12px;color: #626774;letter-spacing: 0;text-align: left;margin-bottom: 6px;      margin-top: 0;"&gt; 此邮件为系统邮件，请勿回复。 &lt;/p&gt;
-                                  &lt;p style="font-size: 12px;color: #626774;letter-spacing: 0;text-align: left;margin-bottom: 6px;      margin-top: 0;"&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;。&lt;/p&gt;
-                                  &lt;p style="font-size: 12px;color: #626774;letter-spacing: 0;text-align: left;margin-bottom: 6px;margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://forum.choerodon.io/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
-                                  &lt;p style="font-size: 12px;color: #626774;letter-spacing: 0;text-align: left;margin-bottom: 6px;margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：choerodon@vip.hand-china.com&lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
+      color: #626774;
+      letter-spacing: 0;
+      text-align: left;
+      margin-bottom: 6px;
+      margin-top: 0;"&gt; 此邮件为系统邮件，请勿回复。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
+      color: #626774;
+      letter-spacing: 0;
+      text-align: left;
+      margin-bottom: 6px;
+      margin-top: 0;"&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/docs/"
+                                                                                                                                                                    target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
+      color: #626774;
+      letter-spacing: 0;
+      text-align: left;
+      margin-bottom: 6px;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://forum.choerodon.io/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
+      color: #626774;
+      letter-spacing: 0;
+      text-align: left;
+      margin-bottom: 6px;
+      margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：choerodon@vip.hand-china.com&lt;/p&gt;
                                 &lt;/div&gt;
                               &lt;/td&gt;
                             &lt;/tr&gt;
                           &lt;/table&gt;
                         &lt;/div&gt;
                       &lt;/div&gt;
-                      &lt;div style="width: 600px;height: 34px;background: #3F51B5;"&gt;
-                        &lt;p style="opacity: 0.8;font-size: 10px;color: #FFFFFF;text-align: center;display: inline-block;line-height: 34px;width: 100%;margin: 0 auto;"&gt;Copyright © The Choerodon Author. All rights reserved.&lt;/p&gt;
-                      &lt;/div&gt;
-                    &lt;/div&gt;
-                    &lt;/body&gt;
-                  &lt;/div&gt;
-                &lt;/td&gt;
-              &lt;/tr&gt;
-            &lt;/table&gt;
-          &lt;/div&gt;
-          &lt;!--[if mso | IE]&gt;
-          &lt;/td&gt;
-          &lt;/tr&gt;
-          &lt;/table&gt;
-          &lt;![endif]--&gt;
-        &lt;/td&gt;
-      &lt;/tr&gt;
-      &lt;/tbody&gt;
-    &lt;/table&gt;
-  &lt;/div&gt;
-  &lt;!--[if mso | IE]&gt;
-  &lt;/td&gt;
-  &lt;/tr&gt;
-  &lt;/table&gt;
-  &lt;![endif]--&gt;
-&lt;/div&gt;
-&lt;/body&gt;
-&lt;/html&gt;</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-52</t>
-  </si>
-  <si>
-    <t>DISABLE_PROJECT.WEB</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-58</t>
-  </si>
-  <si>
-    <t>ENABLE_ORGANIZATION_JSON</t>
-  </si>
-  <si>
-    <t>启用组织Json</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-59</t>
-  </si>
-  <si>
-    <t>ENABLE_ORGANIZATION.DINGTALKANDWECHAT</t>
-  </si>
-  <si>
-    <t>组织启用</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;您好，&lt;/p&gt;&lt;p&gt;您所在的组织：${organizationName} 已被启用。&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-60</t>
-  </si>
-  <si>
-    <t>ENABLE_ORGANIZATION.WEB</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-61</t>
-  </si>
-  <si>
-    <t>ENABLE_PROJECT_JSON</t>
-  </si>
-  <si>
-    <t>启用项目Json</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-62</t>
-  </si>
-  <si>
-    <t>ENABLE_PROJECT.DINGTALKANDWECHAT</t>
-  </si>
-  <si>
-    <t>项目启用</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;您好，&lt;/p&gt;&lt;p&gt;您所在的项目：${projectName} 已被启用。&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-63</t>
-  </si>
-  <si>
-    <t>ENABLE_PROJECT.EMAIL</t>
-  </si>
-  <si>
-    <t>启用项目</t>
-  </si>
-  <si>
-    <t>&lt;!doctype html&gt;
-&lt;html xmlns="http://www.w3.org/1999/xhtml" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office"&gt;
-&lt;head&gt;
-  &lt;title&gt; &lt;/title&gt;
-  &lt;!--[if !mso]&gt;&lt;!-- --&gt;
-  &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
-  &lt;!--&lt;![endif]--&gt;
-  &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;
-  &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
-  &lt;style type="text/css"&gt;
-    #outlook a {
-      padding: 0;
-    }
-    .ReadMsgBody {
+                      &lt;div style="width: 600px;
+      height: 34px;
+      background: #3F51B5;
+      "&gt;
+                        &lt;p style="opacity: 0.8;
+      font-size: 10px;
+      color: #FFFFFF;
+      text-align: center;
+      display: inline-block;
+      line-height: 34px;
       width: 100%;
-    }
-    .ExternalClass {
-      width: 100%;
-    }
-    .ExternalClass * {
-      line-height: 100%;
-    }
-    body {
-      margin: 0;
-      padding: 0;
-      -webkit-text-size-adjust: 100%;
-      -ms-text-size-adjust: 100%;
-    }
-    table,
-    td {
-      border-collapse: collapse;
-      mso-table-lspace: 0pt;
-      mso-table-rspace: 0pt;
-    }
-    img {
-      border: 0;
-      height: auto;
-      line-height: 100%;
-      outline: none;
-      text-decoration: none;
-      -ms-interpolation-mode: bicubic;
-    }
-    p {
-      display: block;
-      margin: 13px 0;
-    }
-    .button {
-      background-color: #008CBA; /* Blue */
-      border: none;
-      color: white;
-      padding: 15px 32px;
-      text-align: center;
-      text-decoration: none;
-      display: inline-block;
-      font-size: 16px;
-    }
-  &lt;/style&gt;
-  &lt;!--[if !mso]&gt;&lt;!--&gt;
-  &lt;style type="text/css"&gt;
-    @media only screen and (max-width:480px) {
-      @-ms-viewport {
-        width: 320px;
-      }
-      @viewport {
-        width: 320px;
-      }
-    }
-  &lt;/style&gt;
-  &lt;!--&lt;![endif]--&gt;
-  &lt;!--[if mso]&gt;
-  &lt;xml&gt;
-    &lt;o:OfficeDocumentSettings&gt;
-      &lt;o:AllowPNG/&gt;
-      &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
-    &lt;/o:OfficeDocumentSettings&gt;
-  &lt;/xml&gt;
-  &lt;![endif]--&gt;
-  &lt;!--[if lte mso 11]&gt;
-  &lt;style type="text/css"&gt;
-    .outlook-group-fix { width:100% !important; }
-  &lt;/style&gt;
-  &lt;![endif]--&gt;
-  &lt;!--[if !mso]&gt;&lt;!--&gt;
-  &lt;link href="https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700" rel="stylesheet" type="text/css"&gt;
-  &lt;style type="text/css"&gt;
-    @import url(https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700);
-  &lt;/style&gt;
-  &lt;!--&lt;![endif]--&gt;
-  &lt;style type="text/css"&gt;
-    @media only screen and (min-width:480px) {
-      .mj-column-per-100 {
-        width: 100% !important;
-        max-width: 100%;
-      }
-    }
-  &lt;/style&gt;
-  &lt;style type="text/css"&gt;
-  &lt;/style&gt;
-&lt;/head&gt;
-&lt;body&gt;
-&lt;div style=""&gt;
-  &lt;!--[if mso | IE]&gt;
-  &lt;table
-          align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:600px;" width="600"
-  &gt;
-    &lt;tr&gt;
-      &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
-  &lt;![endif]--&gt;
-  &lt;div style="Margin:0px auto;max-width:600px;"&gt;
-    &lt;table align="center" border="0" cellpadding="0" cellspacing="0" role="presentation" style="width:100%;"&gt;
-      &lt;tbody&gt;
-      &lt;tr&gt;
-        &lt;td style="direction:ltr;font-size:0px;padding:20px 0;text-align:center;vertical-align:top;"&gt;
-          &lt;!--[if mso | IE]&gt;
-          &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
-            &lt;tr&gt;
-              &lt;td
-                      class="" style="vertical-align:top;width:600px;"
-              &gt;
-          &lt;![endif]--&gt;
-          &lt;div class="mj-column-per-100 outlook-group-fix" style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
-            &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
-              &lt;tr&gt;
-                &lt;td align="left" style="font-size:0px;padding:10px 25px;word-break:break-word;"&gt;
-                  &lt;div style="font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;line-height:1;text-align:left;color:#000000;"&gt;
-                    &lt;body&gt;
-                    &lt;div style="width: 600px;background: #FFFFFF;margin: 0 auto;"&gt;
-                      &lt;div style="height: 115px;background-color: #ffffff;border-bottom: 8px solid #3F51B5;"&gt;
-                        &lt;table&gt;
-                          &lt;tr&gt;
-                            &lt;td style="padding-bottom: 0;vertical-align: bottom;"&gt;
-                              &lt;table&gt;
-                                &lt;tr&gt;
-                                  &lt;td style="width:190px;"&gt; 
-                                    &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:190px;" /&gt;
-                                  &lt;/td&gt;
-                                &lt;/tr&gt;
-                              &lt;/table&gt;
-                            &lt;td&gt;
-                              &lt;td style="vertical-align: bottom;"&gt;
-                                &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; "&gt;
-                                  &lt;p style="font-size: 14px;color: #252528;letter-spacing: 0;display: inline-block;text-align: right;width: 558px;padding-top: 55px;"&gt;&lt;/p&gt;
-                                &lt;/div&gt;
-                              &lt;/td&gt;
-                          &lt;/tr&gt;
-                        &lt;/table&gt;
-                      &lt;/div&gt;
-                      &lt;div style="padding: 68px 40px;border: 1px solid #E6E6E6;border-bottom: 0;border-top: 0;border-radius: 2px;background: #FFFFFF;"&gt;
-                        &lt;div&gt;
-                           &lt;p&gt;您好，&lt;/p&gt;&lt;p&gt;您所在的项目：${projectName} 已被启用。&lt;/p&gt;
-                        &lt;/div&gt;
-                      &lt;/div&gt;
-                      &lt;div&gt;
-                        &lt;div style="text-align: justify;"&gt;
-                          &lt;table style="height: 148px; background-color: #f7f7f7;width: 100%;"&gt;
-                            &lt;tr&gt;
-                              &lt;td style="padding-left: 29px;"&gt;
-                                &lt;table&gt;
-                                  &lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:90px;" width="90" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/tr&gt;
-                                  &lt;tr&gt;
-                                    &lt;td style="text-align: center"&gt;微信公众号&lt;/td&gt;
-                                  &lt;/tr&gt;
-                                &lt;/table&gt;
-                              &lt;td&gt;
-                              &lt;td&gt;
-                                &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; vertical-align: top;"&gt;
-                                  &lt;p style="font-size: 12px;color: #626774;letter-spacing: 0;text-align: left;margin-bottom: 6px;      margin-top: 0;"&gt; 此邮件为系统邮件，请勿回复。 &lt;/p&gt;
-                                  &lt;p style="font-size: 12px;color: #626774;letter-spacing: 0;text-align: left;margin-bottom: 6px;      margin-top: 0;"&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;。&lt;/p&gt;
-                                  &lt;p style="font-size: 12px;color: #626774;letter-spacing: 0;text-align: left;margin-bottom: 6px;margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://forum.choerodon.io/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
-                                  &lt;p style="font-size: 12px;color: #626774;letter-spacing: 0;text-align: left;margin-bottom: 6px;margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：choerodon@vip.hand-china.com&lt;/p&gt;
-                                &lt;/div&gt;
-                              &lt;/td&gt;
-                            &lt;/tr&gt;
-                          &lt;/table&gt;
-                        &lt;/div&gt;
-                      &lt;/div&gt;
-                      &lt;div style="width: 600px;height: 34px;background: #3F51B5;"&gt;
-                        &lt;p style="opacity: 0.8;font-size: 10px;color: #FFFFFF;text-align: center;display: inline-block;line-height: 34px;width: 100%;margin: 0 auto;"&gt;Copyright © The Choerodon Author. All rights reserved.&lt;/p&gt;
+      margin: 0 auto;"&gt;Copyright © The Choerodon Author. All rights reserved.&lt;/p&gt;
                       &lt;/div&gt;
                     &lt;/div&gt;
                     &lt;/body&gt;
@@ -5658,11 +5706,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -5697,12 +5745,6 @@
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -5763,14 +5805,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -5778,31 +5812,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5816,13 +5834,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -5830,7 +5841,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5838,7 +5849,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5852,18 +5863,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5883,6 +5887,37 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
@@ -5891,6 +5926,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -5908,19 +5950,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF003366"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF003366"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -5945,13 +5975,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -5964,12 +5987,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -6013,19 +6030,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6037,61 +6078,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6109,7 +6096,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6121,19 +6144,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6145,31 +6168,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6181,19 +6192,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6300,15 +6317,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -6327,8 +6335,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6348,21 +6386,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -6372,17 +6395,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6400,179 +6417,175 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="50"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="50" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6580,44 +6593,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -6630,7 +6643,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -7034,10 +7047,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5833333333333" style="21" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="22" customWidth="1"/>
+    <col min="1" max="1" width="15.5833333333333" style="19" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="20" customWidth="1"/>
     <col min="3" max="3" width="28.1666666666667" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="10" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="6" customWidth="1"/>
     <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
     <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
     <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
@@ -7051,79 +7064,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="23"/>
-      <c r="C1" s="24" t="s">
+      <c r="A1" s="21"/>
+      <c r="C1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="26"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="23"/>
+      <c r="A5" s="21"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="33" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="38"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="39" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -7131,56 +7144,56 @@
       </c>
     </row>
     <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="39" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="39" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="41" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="36"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
     </row>
     <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="44" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7190,64 +7203,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="24" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="24" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="27"/>
+      <c r="E26" s="25"/>
     </row>
     <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="48" t="s">
         <v>43</v>
       </c>
     </row>
@@ -7278,138 +7291,138 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="4" width="8.66666666666667" style="15"/>
-    <col min="5" max="5" width="19.5833333333333" style="15" customWidth="1"/>
-    <col min="6" max="6" width="17.5833333333333" style="15" customWidth="1"/>
-    <col min="7" max="7" width="25.8333333333333" style="15" customWidth="1"/>
-    <col min="8" max="8" width="21" style="15" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="15" customWidth="1"/>
-    <col min="10" max="10" width="35.8333333333333" style="15" customWidth="1"/>
-    <col min="11" max="11" width="19.75" style="15" customWidth="1"/>
-    <col min="12" max="12" width="22" style="15" customWidth="1"/>
-    <col min="13" max="13" width="23.3333333333333" style="15" customWidth="1"/>
-    <col min="14" max="16384" width="8.66666666666667" style="15"/>
+    <col min="1" max="4" width="8.66666666666667" style="13"/>
+    <col min="5" max="5" width="19.5833333333333" style="13" customWidth="1"/>
+    <col min="6" max="6" width="17.5833333333333" style="13" customWidth="1"/>
+    <col min="7" max="7" width="25.8333333333333" style="13" customWidth="1"/>
+    <col min="8" max="8" width="21" style="13" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="13" customWidth="1"/>
+    <col min="10" max="10" width="35.8333333333333" style="13" customWidth="1"/>
+    <col min="11" max="11" width="19.75" style="13" customWidth="1"/>
+    <col min="12" max="12" width="22" style="13" customWidth="1"/>
+    <col min="13" max="13" width="23.3333333333333" style="13" customWidth="1"/>
+    <col min="14" max="16384" width="8.66666666666667" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="5:7">
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O7" s="18" t="s">
+      <c r="O7" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="18" t="s">
+      <c r="P7" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="Q7" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="15" t="s">
+      <c r="R7" s="13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" spans="5:18">
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="O8" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="P8" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="R8" s="15" t="s">
+      <c r="O8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="R8" s="13" t="s">
         <v>76</v>
       </c>
     </row>
@@ -7601,8 +7614,8 @@
   <sheetPr/>
   <dimension ref="A1:Q193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B28" sqref="B21:B28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -7715,7 +7728,7 @@
       <c r="I8" t="s">
         <v>121</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="6" t="s">
         <v>122</v>
       </c>
       <c r="K8" t="s">
@@ -8125,7 +8138,7 @@
       <c r="H21" t="s">
         <v>174</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="9" t="s">
         <v>175</v>
       </c>
       <c r="N21" t="s">
@@ -8340,7 +8353,7 @@
       <c r="H28" t="s">
         <v>196</v>
       </c>
-      <c r="I28" s="14" t="s">
+      <c r="I28" s="9" t="s">
         <v>197</v>
       </c>
       <c r="N28" t="s">
@@ -8398,7 +8411,7 @@
       <c r="H30" t="s">
         <v>202</v>
       </c>
-      <c r="I30" s="14" t="s">
+      <c r="I30" s="9" t="s">
         <v>203</v>
       </c>
       <c r="N30" t="s">
@@ -8787,7 +8800,7 @@
       <c r="H43" t="s">
         <v>251</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="I43" s="6" t="s">
         <v>252</v>
       </c>
       <c r="N43" t="s">
@@ -12548,13 +12561,13 @@
       <c r="I32" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="J32" s="6" t="s">
         <v>336</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
-      <c r="L32" s="11" t="s">
+      <c r="L32" s="10" t="s">
         <v>337</v>
       </c>
       <c r="M32" t="s">
@@ -13673,7 +13686,7 @@
       </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="12">
+      <c r="A83" s="11">
         <v>44036</v>
       </c>
       <c r="B83" t="s">
@@ -13856,7 +13869,7 @@
       <c r="E95" t="s">
         <v>512</v>
       </c>
-      <c r="F95" s="13" t="s">
+      <c r="F95" s="12" t="s">
         <v>382</v>
       </c>
       <c r="G95">

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="525">
   <si>
     <r>
       <rPr>
@@ -3796,11 +3796,7 @@
     <t>Choerodon 角色添加通知</t>
   </si>
   <si>
-    <t>&lt;!doctype html&gt;
-&lt;html xmlns="http://www.w3.org/1999/xhtml" xmlns:v="urn:schemas-microsoft-com:vml"
-      xmlns:o="urn:schemas-microsoft-com:office:office"&gt;
-&lt;head&gt;
-  &lt;title&gt;&lt;/title&gt;
+    <t>&lt;title&gt; &lt;/title&gt;
   &lt;!--[if !mso]&gt;&lt;!-- --&gt;
   &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
   &lt;!--&lt;![endif]--&gt;
@@ -3846,7 +3842,7 @@
   &lt;/style&gt;
   &lt;!--[if !mso]&gt;&lt;!--&gt;
   &lt;style type="text/css"&gt;
-    @media only screen and (max-width: 480px) {
+    @media only screen and (max-width:480px) {
       @-ms-viewport {
         width: 320px;
       }
@@ -3866,9 +3862,7 @@
   &lt;![endif]--&gt;
   &lt;!--[if lte mso 11]&gt;
   &lt;style type="text/css"&gt;
-    .outlook-group-fix {
-      width: 100% !important;
-    }
+    .outlook-group-fix { width:100% !important; }
   &lt;/style&gt;
   &lt;![endif]--&gt;
   &lt;!--[if !mso]&gt;&lt;!--&gt;
@@ -3878,7 +3872,7 @@
   &lt;/style&gt;
   &lt;!--&lt;![endif]--&gt;
   &lt;style type="text/css"&gt;
-    @media only screen and (min-width: 480px) {
+    @media only screen and (min-width:480px) {
       .mj-column-per-100 {
         width: 100% !important;
         max-width: 100%;
@@ -3887,17 +3881,15 @@
   &lt;/style&gt;
   &lt;style type="text/css"&gt;
   &lt;/style&gt;
-&lt;/head&gt;
-&lt;body&gt;
 &lt;div style=""&gt;
   &lt;!--[if mso | IE]&gt;
   &lt;table
-          align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:600px;" width="782"
+          align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:782px;" width="782"
   &gt;
     &lt;tr&gt;
       &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
   &lt;![endif]--&gt;
-  &lt;div style="Margin:0px auto;max-width:600px;"&gt;
+  &lt;div style="Margin:0px auto;max-width:782px;"&gt;
     &lt;table align="center" border="0" cellpadding="0" cellspacing="0" role="presentation" style="width:100%;"&gt;
       &lt;tbody&gt;
       &lt;tr&gt;
@@ -3906,67 +3898,73 @@
           &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
             &lt;tr&gt;
               &lt;td
-                      class="" style="vertical-align:top;width:600px;"
+                      class="" style="vertical-align:top;width:782px;"
               &gt;
           &lt;![endif]--&gt;
-          &lt;div class="mj-column-per-100 outlook-group-fix"
-               style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
-            &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation"
-                   style="vertical-align:top;" width="100%"&gt;
-              &lt;tr&gt;
-                &lt;td align="left" style="font-size:0px;padding:20px 25px;word-break:break-word;"&gt;
-                  &lt;div style="font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;line-height:1;text-align:left;color:#000000;"&gt;
-                    &lt;body&gt;
-                    &lt;div style="width: 600px;
-      background: #FFFFFF;
-      margin: 0 auto;"&gt;
-                      &lt;div style="height: 55px;
-      background-color: #ffffff;
-      border-bottom: 8px solid #3F51B5;"&gt;
+          &lt;div class="mj-column-per-100 outlook-group-fix" style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
+            &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
+              &lt;tbody&gt;&lt;tr&gt;
+                &lt;td align="left" style="padding: 10px 25px; word-break: break-word;"&gt;
+                  &lt;div style="line-height: 1; text-align: left;"&gt;
+                    &lt;div style="width: 782px; background: rgb(255, 255, 255); margin: 0px auto;"&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; height: 115px; background-color: rgb(255, 255, 255); border-bottom: 8px solid rgb(63, 81, 181);"&gt;
                         &lt;table&gt;
-                          &lt;tr&gt;
+                          &lt;tbody&gt;&lt;tr&gt;
                             &lt;td style="padding-bottom: 0;vertical-align: bottom;"&gt;
                               &lt;table&gt;
-                                &lt;tr&gt;
-                                  &lt;td style="width:190px;"&gt;&lt;img height="auto"
-                                                                src="https://file.choerodon.com.cn/static/choerodon.png"
-                                                                style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;"
-                                                                width="190"/&gt;&lt;/td&gt;
+                                &lt;tbody&gt;&lt;tr&gt;
+                                  &lt;td style="width:190px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
                                 &lt;/tr&gt;
-                              &lt;/table&gt;
-                            &lt;td&gt;
+                              &lt;/tbody&gt;&lt;/table&gt;
+                            &lt;/td&gt;&lt;td&gt;
+                            &lt;/td&gt;&lt;td style="vertical-align: bottom;"&gt;
+                              &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; "&gt;
+                                &lt;p style="font-size: 14px;
+    color: #252528;
+    letter-spacing: 0;
+    display: inline-block;
+    text-align: right;
+    width: 558px;
+    padding-top: 55px;"&gt;&lt;/p&gt;
+                              &lt;/div&gt;
+                            &lt;/td&gt;
                           &lt;/tr&gt;
-                        &lt;/table&gt;
+                        &lt;/tbody&gt;&lt;/table&gt;
                       &lt;/div&gt;
-                      &lt;div style="padding: 30px 40px;
-      border-bottom: 0;
-      border-top: 0;
-      border-left:1px solid #E6E6E6;
-      border-right:1px solid #E6E6E6;
-      border-radius: 2px;
-      background: #FFFFFF;"&gt;
-                        &lt;div&gt;
-                          &lt;p&gt;您好，您已被添加为项目【${projectName}】中【${roleName}】的角色。&lt;/p&gt;
+                      &lt;div style="padding: 68px 40px; border-width: 0px 1px; border-bottom-style: initial; border-bottom-color: initial; border-top-style: initial; border-top-color: initial; border-left-style: solid; border-left-color: rgb(230, 230, 230); border-right-style: solid; border-right-color: rgb(230, 230, 230); border-radius: 2px; background: rgb(255, 255, 255);"&gt;
+                        &lt;div style=""&gt;
+                                    &lt;p&gt;您好，您已被添加为项目【${projectName}】中【${roleName}】的角色。&lt;/p&gt;
+                        &lt;/div&gt;
+                        &lt;div class="mj-column-per-100 outlook-group-fix" style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; text-align: left; direction: ltr; display: inline-block; vertical-align: top; width: 100%;"&gt;
+                          &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
+                            &lt;tbody&gt;&lt;tr&gt;
+                              &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
+                                &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
+                                  &lt;tbody&gt;&lt;tr&gt;
+                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#3f51b5;" valign="middle"&gt; &lt;a href="${resultDetailUrl}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
+                                      前往组织
+                                    &lt;/a&gt; &lt;/td&gt;
+                                  &lt;/tr&gt;
+                                &lt;/tbody&gt;&lt;/table&gt;&lt;br&gt;
+                              &lt;/td&gt;
+                            &lt;/tr&gt;
+                          &lt;/tbody&gt;&lt;/table&gt;
                         &lt;/div&gt;
                       &lt;/div&gt;
-                      &lt;div&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px;"&gt;
                         &lt;div style="text-align: justify;"&gt;
                           &lt;table style="height: 148px; background-color: #f7f7f7;width: 100%;"&gt;
-                            &lt;tr&gt;
+                            &lt;tbody&gt;&lt;tr&gt;
                               &lt;td style="padding-left: 29px;"&gt;
                                 &lt;table&gt;
-                                  &lt;tr&gt;
-                                    &lt;td&gt;&lt;img height="auto"
-                                             style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:90px;"
-                                             width="90"
-                                             src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt;
-                                  &lt;/tr&gt;
+                                  &lt;tbody&gt;&lt;tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:90px;" width="90" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center"&gt;微信公众号&lt;/td&gt;
                                   &lt;/tr&gt;
-                                &lt;/table&gt;
-                              &lt;td&gt;
-                              &lt;td&gt;
+                                &lt;/tbody&gt;&lt;/table&gt;
+                              &lt;/td&gt;&lt;td&gt;
+                              &lt;/td&gt;&lt;td&gt;
                                 &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; vertical-align: top;"&gt;
                                   &lt;p style="font-size: 12px;
       color: #626774;
@@ -3979,18 +3977,13 @@
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px"
-                                                          href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或 &lt;a
-                                          style="text-decoration:none;font-size: 12px"
-                                          href="http://choerodon.io/zh/docs/"
-                                          target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      margin-top: 0;"&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/docs/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px"
-                                               href="http://forum.choerodon.io/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://forum.choerodon.io/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
@@ -4000,13 +3993,10 @@
                                 &lt;/div&gt;
                               &lt;/td&gt;
                             &lt;/tr&gt;
-                          &lt;/table&gt;
+                          &lt;/tbody&gt;&lt;/table&gt;
                         &lt;/div&gt;
                       &lt;/div&gt;
-                      &lt;div style="width: 600px;
-      height: 34px;
-      background: #3F51B5;
-      "&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; width: 782px; height: 34px; background: rgb(63, 81, 181);"&gt;
                         &lt;p style="opacity: 0.8;
       font-size: 10px;
       color: #FFFFFF;
@@ -4017,11 +4007,10 @@
       margin: 0 auto;"&gt;Copyright © The Choerodon Author. All rights reserved.&lt;/p&gt;
                       &lt;/div&gt;
                     &lt;/div&gt;
-                    &lt;/body&gt;
                   &lt;/div&gt;
                 &lt;/td&gt;
               &lt;/tr&gt;
-            &lt;/table&gt;
+            &lt;/tbody&gt;&lt;/table&gt;
           &lt;/div&gt;
           &lt;!--[if mso | IE]&gt;
           &lt;/td&gt;
@@ -4031,16 +4020,14 @@
         &lt;/td&gt;
       &lt;/tr&gt;
       &lt;/tbody&gt;
-    &lt;/table&gt;
+    &lt;/table&gt;&lt;br&gt;
   &lt;/div&gt;
   &lt;!--[if mso | IE]&gt;
   &lt;/td&gt;
   &lt;/tr&gt;
   &lt;/table&gt;
   &lt;![endif]--&gt;
-&lt;/div&gt;
-&lt;/body&gt;
-&lt;/html&gt;</t>
+&lt;/div&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-130</t>
@@ -5068,6 +5055,9 @@
     <t>password</t>
   </si>
   <si>
+    <t>resultDetailUrl</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -5705,10 +5695,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -5806,7 +5796,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5820,14 +5825,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5840,8 +5845,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5850,14 +5878,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5872,10 +5892,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5886,11 +5906,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5903,21 +5923,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
@@ -5926,25 +5931,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6030,7 +6020,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6042,37 +6104,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6084,19 +6116,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6108,43 +6134,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6156,19 +6146,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6186,7 +6164,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6198,19 +6188,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6318,30 +6308,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -6352,21 +6318,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6390,7 +6341,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6400,6 +6351,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6414,155 +6380,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6580,6 +6570,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyFont="1"/>
@@ -7047,8 +7040,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5833333333333" style="19" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="20" customWidth="1"/>
+    <col min="1" max="1" width="15.5833333333333" style="20" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="21" customWidth="1"/>
     <col min="3" max="3" width="28.1666666666667" customWidth="1"/>
     <col min="4" max="4" width="35.25" style="6" customWidth="1"/>
     <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
@@ -7064,79 +7057,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="21"/>
-      <c r="C1" s="22" t="s">
+      <c r="A1" s="22"/>
+      <c r="C1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28" t="s">
+      <c r="D4" s="28"/>
+      <c r="E4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="34" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="36"/>
+      <c r="E8" s="37"/>
     </row>
     <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="40" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -7144,56 +7137,56 @@
       </c>
     </row>
     <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="40" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="40" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="42" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
     </row>
     <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="45" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7203,30 +7196,30 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="25" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="47" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -7234,7 +7227,7 @@
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="47" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -7242,25 +7235,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="25"/>
+      <c r="E25" s="26"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="25"/>
+      <c r="E26" s="26"/>
     </row>
     <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="49" t="s">
         <v>43</v>
       </c>
     </row>
@@ -7291,138 +7284,138 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="4" width="8.66666666666667" style="13"/>
-    <col min="5" max="5" width="19.5833333333333" style="13" customWidth="1"/>
-    <col min="6" max="6" width="17.5833333333333" style="13" customWidth="1"/>
-    <col min="7" max="7" width="25.8333333333333" style="13" customWidth="1"/>
-    <col min="8" max="8" width="21" style="13" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="13" customWidth="1"/>
-    <col min="10" max="10" width="35.8333333333333" style="13" customWidth="1"/>
-    <col min="11" max="11" width="19.75" style="13" customWidth="1"/>
-    <col min="12" max="12" width="22" style="13" customWidth="1"/>
-    <col min="13" max="13" width="23.3333333333333" style="13" customWidth="1"/>
-    <col min="14" max="16384" width="8.66666666666667" style="13"/>
+    <col min="1" max="4" width="8.66666666666667" style="14"/>
+    <col min="5" max="5" width="19.5833333333333" style="14" customWidth="1"/>
+    <col min="6" max="6" width="17.5833333333333" style="14" customWidth="1"/>
+    <col min="7" max="7" width="25.8333333333333" style="14" customWidth="1"/>
+    <col min="8" max="8" width="21" style="14" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="14" customWidth="1"/>
+    <col min="10" max="10" width="35.8333333333333" style="14" customWidth="1"/>
+    <col min="11" max="11" width="19.75" style="14" customWidth="1"/>
+    <col min="12" max="12" width="22" style="14" customWidth="1"/>
+    <col min="13" max="13" width="23.3333333333333" style="14" customWidth="1"/>
+    <col min="14" max="16384" width="8.66666666666667" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="5:7">
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="18" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M7" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="O7" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="16" t="s">
+      <c r="P7" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" s="13" t="s">
+      <c r="Q7" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="13" t="s">
+      <c r="R7" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" spans="5:18">
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="M8" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="N8" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="O8" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="P8" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="R8" s="13" t="s">
+      <c r="O8" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="R8" s="14" t="s">
         <v>76</v>
       </c>
     </row>
@@ -7612,10 +7605,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q193"/>
+  <dimension ref="A1:Q194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="G168" workbookViewId="0">
+      <selection activeCell="K192" sqref="K192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -8642,7 +8635,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="5:17">
+    <row r="38" ht="409.5" spans="5:17">
       <c r="E38" t="s">
         <v>229</v>
       </c>
@@ -8655,7 +8648,7 @@
       <c r="H38" t="s">
         <v>231</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="13" t="s">
         <v>232</v>
       </c>
       <c r="N38" t="s">
@@ -11531,70 +11524,88 @@
         <v>284</v>
       </c>
       <c r="F190" t="str">
+        <f>E38</f>
+        <v>hmsg_message_template-129</v>
+      </c>
+      <c r="G190" t="s">
+        <v>322</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="5:11">
+      <c r="E191" t="s">
+        <v>284</v>
+      </c>
+      <c r="F191" t="str">
         <f>消息模板!$E$38</f>
         <v>hmsg_message_template-129</v>
       </c>
-      <c r="G190" t="s">
+      <c r="G191" t="s">
         <v>320</v>
       </c>
-      <c r="J190" t="s">
-        <v>75</v>
-      </c>
-      <c r="K190" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="191" spans="5:11">
-      <c r="E191" t="s">
-        <v>284</v>
-      </c>
-      <c r="F191" t="str">
+      <c r="J191" t="s">
+        <v>75</v>
+      </c>
+      <c r="K191" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="192" spans="5:11">
+      <c r="E192" t="s">
+        <v>284</v>
+      </c>
+      <c r="F192" t="str">
         <f>消息模板!$E$40</f>
         <v>hmsg_message_template-138</v>
       </c>
-      <c r="G191" t="s">
+      <c r="G192" t="s">
         <v>321</v>
       </c>
-      <c r="J191" t="s">
-        <v>75</v>
-      </c>
-      <c r="K191" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="192" spans="5:11">
-      <c r="E192" t="s">
-        <v>284</v>
-      </c>
-      <c r="F192" t="str">
+      <c r="J192" t="s">
+        <v>75</v>
+      </c>
+      <c r="K192" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="193" spans="5:11">
+      <c r="E193" t="s">
+        <v>284</v>
+      </c>
+      <c r="F193" t="str">
         <f>消息模板!$E$47</f>
         <v>hmsg_message_template-150</v>
       </c>
-      <c r="G192" t="s">
+      <c r="G193" t="s">
         <v>320</v>
       </c>
-      <c r="J192" t="s">
-        <v>75</v>
-      </c>
-      <c r="K192" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="193" spans="5:11">
-      <c r="E193" t="s">
-        <v>284</v>
-      </c>
-      <c r="F193" t="str">
+      <c r="J193" t="s">
+        <v>75</v>
+      </c>
+      <c r="K193" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="194" spans="5:11">
+      <c r="E194" t="s">
+        <v>284</v>
+      </c>
+      <c r="F194" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-12</v>
       </c>
-      <c r="G193" t="s">
+      <c r="G194" t="s">
         <v>285</v>
       </c>
-      <c r="J193" t="s">
-        <v>75</v>
-      </c>
-      <c r="K193" t="s">
+      <c r="J194" t="s">
+        <v>75</v>
+      </c>
+      <c r="K194" t="s">
         <v>75</v>
       </c>
     </row>
@@ -11654,7 +11665,7 @@
         <v>48</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H4" s="5"/>
     </row>
@@ -11666,13 +11677,13 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>88</v>
@@ -11681,33 +11692,33 @@
         <v>89</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K7" t="s">
         <v>63</v>
       </c>
       <c r="L7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F8" t="s">
         <v>75</v>
@@ -11716,33 +11727,33 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K8" t="s">
         <v>74</v>
       </c>
       <c r="L8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N8" t="s">
         <v>75</v>
       </c>
       <c r="O8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F9" t="s">
         <v>75</v>
@@ -11751,33 +11762,33 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K9" t="s">
         <v>74</v>
       </c>
       <c r="L9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N9" t="s">
         <v>74</v>
       </c>
       <c r="O9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F10" t="s">
         <v>75</v>
@@ -11786,33 +11797,33 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I10" t="s">
         <v>223</v>
       </c>
       <c r="J10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K10" t="s">
         <v>74</v>
       </c>
       <c r="L10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N10" t="s">
         <v>74</v>
       </c>
       <c r="O10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F11" t="s">
         <v>75</v>
@@ -11821,33 +11832,33 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I11" t="s">
         <v>196</v>
       </c>
       <c r="J11" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K11" t="s">
         <v>74</v>
       </c>
       <c r="L11" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M11" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N11" t="s">
         <v>74</v>
       </c>
       <c r="O11" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -11856,33 +11867,33 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I12" t="s">
         <v>174</v>
       </c>
       <c r="J12" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K12" t="s">
         <v>74</v>
       </c>
       <c r="L12" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M12" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N12" t="s">
         <v>74</v>
       </c>
       <c r="O12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F13" t="s">
         <v>75</v>
@@ -11891,33 +11902,33 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J13" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K13" t="s">
         <v>74</v>
       </c>
       <c r="L13" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N13" t="s">
         <v>75</v>
       </c>
       <c r="O13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F14" t="s">
         <v>75</v>
@@ -11926,33 +11937,33 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I14" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="J14" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K14" t="s">
         <v>74</v>
       </c>
       <c r="L14" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M14" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N14" t="s">
         <v>75</v>
       </c>
       <c r="O14" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F15" t="s">
         <v>75</v>
@@ -11961,33 +11972,33 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I15" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J15" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K15" t="s">
         <v>74</v>
       </c>
       <c r="L15" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M15" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N15" t="s">
         <v>74</v>
       </c>
       <c r="O15" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F16" t="s">
         <v>75</v>
@@ -11996,33 +12007,33 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I16" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J16" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K16" t="s">
         <v>74</v>
       </c>
       <c r="L16" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M16" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N16" t="s">
         <v>74</v>
       </c>
       <c r="O16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F17" t="s">
         <v>75</v>
@@ -12031,33 +12042,33 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="J17" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K17" t="s">
         <v>74</v>
       </c>
       <c r="L17" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M17" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N17" t="s">
         <v>75</v>
       </c>
       <c r="O17" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F18" t="s">
         <v>75</v>
@@ -12066,33 +12077,33 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I18" t="s">
         <v>238</v>
       </c>
       <c r="J18" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K18" t="s">
         <v>74</v>
       </c>
       <c r="L18" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M18" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N18" t="s">
         <v>75</v>
       </c>
       <c r="O18" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F19" t="s">
         <v>75</v>
@@ -12101,33 +12112,33 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I19" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="J19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K19" t="s">
         <v>74</v>
       </c>
       <c r="L19" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M19" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N19" t="s">
         <v>74</v>
       </c>
       <c r="O19" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F20" t="s">
         <v>75</v>
@@ -12136,33 +12147,33 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I20" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="J20" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K20" t="s">
         <v>74</v>
       </c>
       <c r="L20" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M20" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N20" t="s">
         <v>75</v>
       </c>
       <c r="O20" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F21" t="s">
         <v>75</v>
@@ -12171,33 +12182,33 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I21" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J21" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K21" t="s">
         <v>74</v>
       </c>
       <c r="L21" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M21" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N21" t="s">
         <v>74</v>
       </c>
       <c r="O21" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F22" t="s">
         <v>75</v>
@@ -12206,33 +12217,33 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I22" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J22" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K22" t="s">
         <v>74</v>
       </c>
       <c r="L22" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M22" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N22" t="s">
         <v>75</v>
       </c>
       <c r="O22" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F23" t="s">
         <v>75</v>
@@ -12241,33 +12252,33 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I23" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J23" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K23" t="s">
         <v>74</v>
       </c>
       <c r="L23" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M23" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N23" t="s">
         <v>75</v>
       </c>
       <c r="O23" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F24" t="s">
         <v>75</v>
@@ -12276,33 +12287,33 @@
         <v>0</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I24" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J24" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M24" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N24" t="s">
         <v>75</v>
       </c>
       <c r="O24" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F25" t="s">
         <v>75</v>
@@ -12311,33 +12322,33 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I25" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="J25" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K25" t="s">
         <v>74</v>
       </c>
       <c r="L25" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M25" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N25" t="s">
         <v>75</v>
       </c>
       <c r="O25" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F26" t="s">
         <v>75</v>
@@ -12346,33 +12357,33 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I26" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="J26" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K26" t="s">
         <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M26" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N26" t="s">
         <v>74</v>
       </c>
       <c r="O26" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="27" spans="5:15">
       <c r="E27" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F27" t="s">
         <v>75</v>
@@ -12381,33 +12392,33 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I27" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="J27" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K27" t="s">
         <v>74</v>
       </c>
       <c r="L27" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M27" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N27" t="s">
         <v>74</v>
       </c>
       <c r="O27" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="28" spans="5:15">
       <c r="E28" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F28" t="s">
         <v>75</v>
@@ -12416,33 +12427,33 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="I28" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="J28" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K28" t="s">
         <v>74</v>
       </c>
       <c r="L28" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M28" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N28" t="s">
         <v>74</v>
       </c>
       <c r="O28" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="5:15">
       <c r="E29" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F29" t="s">
         <v>75</v>
@@ -12451,33 +12462,33 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I29" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J29" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K29" t="s">
         <v>74</v>
       </c>
       <c r="L29" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M29" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N29" t="s">
         <v>74</v>
       </c>
       <c r="O29" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="5:15">
       <c r="E30" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F30" t="s">
         <v>75</v>
@@ -12486,33 +12497,33 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I30" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="J30" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K30" t="s">
         <v>74</v>
       </c>
       <c r="L30" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M30" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N30" t="s">
         <v>74</v>
       </c>
       <c r="O30" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="31" spans="5:15">
       <c r="E31" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F31" t="s">
         <v>75</v>
@@ -12521,33 +12532,33 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I31" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J31" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K31" t="s">
         <v>74</v>
       </c>
       <c r="L31" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M31" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N31" t="s">
         <v>74</v>
       </c>
       <c r="O31" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="32" spans="5:15">
       <c r="E32" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -12556,28 +12567,28 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M32" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -12588,31 +12599,31 @@
         <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>108</v>
       </c>
       <c r="I34" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J34" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K34" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L34" t="s">
         <v>84</v>
@@ -12623,14 +12634,14 @@
     </row>
     <row r="35" spans="5:13">
       <c r="E35" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F35" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
       <c r="G35" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H35" t="s">
         <v>201</v>
@@ -12651,14 +12662,14 @@
     </row>
     <row r="36" spans="5:13">
       <c r="E36" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F36" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G36" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H36" t="s">
         <v>134</v>
@@ -12679,14 +12690,14 @@
     </row>
     <row r="37" spans="5:13">
       <c r="E37" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F37" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G37" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H37" t="s">
         <v>138</v>
@@ -12700,14 +12711,14 @@
     </row>
     <row r="38" spans="5:13">
       <c r="E38" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F38" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G38" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H38" t="s">
         <v>222</v>
@@ -12721,14 +12732,14 @@
     </row>
     <row r="39" spans="5:13">
       <c r="E39" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F39" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G39" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H39" t="s">
         <v>195</v>
@@ -12749,14 +12760,14 @@
     </row>
     <row r="40" spans="5:13">
       <c r="E40" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F40" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G40" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H40" t="s">
         <v>199</v>
@@ -12770,14 +12781,14 @@
     </row>
     <row r="41" spans="5:13">
       <c r="E41" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F41" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G41" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H41" t="s">
         <v>191</v>
@@ -12791,14 +12802,14 @@
     </row>
     <row r="42" spans="5:13">
       <c r="E42" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F42" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G42" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H42" t="s">
         <v>188</v>
@@ -12812,14 +12823,14 @@
     </row>
     <row r="43" spans="5:13">
       <c r="E43" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F43" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G43" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H43" t="s">
         <v>173</v>
@@ -12840,14 +12851,14 @@
     </row>
     <row r="44" spans="5:13">
       <c r="E44" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F44" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G44" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H44" t="s">
         <v>177</v>
@@ -12861,14 +12872,14 @@
     </row>
     <row r="45" spans="5:13">
       <c r="E45" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F45" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G45" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H45" t="s">
         <v>169</v>
@@ -12882,14 +12893,14 @@
     </row>
     <row r="46" spans="5:13">
       <c r="E46" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F46" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G46" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H46" t="s">
         <v>165</v>
@@ -12903,14 +12914,14 @@
     </row>
     <row r="47" spans="5:13">
       <c r="E47" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F47" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G47" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H47" t="s">
         <v>186</v>
@@ -12924,14 +12935,14 @@
     </row>
     <row r="48" spans="5:13">
       <c r="E48" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F48" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G48" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H48" t="s">
         <v>182</v>
@@ -12945,14 +12956,14 @@
     </row>
     <row r="49" spans="5:13">
       <c r="E49" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F49" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G49" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H49" t="s">
         <v>179</v>
@@ -12966,14 +12977,14 @@
     </row>
     <row r="50" spans="5:13">
       <c r="E50" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F50" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G50" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H50" t="s">
         <v>163</v>
@@ -12987,14 +12998,14 @@
     </row>
     <row r="51" spans="5:13">
       <c r="E51" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F51" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G51" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H51" t="s">
         <v>159</v>
@@ -13008,14 +13019,14 @@
     </row>
     <row r="52" spans="5:13">
       <c r="E52" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F52" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G52" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H52" t="s">
         <v>155</v>
@@ -13029,14 +13040,14 @@
     </row>
     <row r="53" spans="5:13">
       <c r="E53" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F53" t="str">
         <f>发送配置!$E$16</f>
         <v>hmsg_template_server-19</v>
       </c>
       <c r="G53" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H53" t="s">
         <v>220</v>
@@ -13050,14 +13061,14 @@
     </row>
     <row r="54" spans="5:13">
       <c r="E54" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F54" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G54" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H54" t="s">
         <v>217</v>
@@ -13071,14 +13082,14 @@
     </row>
     <row r="55" spans="5:13">
       <c r="E55" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F55" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G55" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H55" t="s">
         <v>213</v>
@@ -13092,14 +13103,14 @@
     </row>
     <row r="56" spans="5:13">
       <c r="E56" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F56" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G56" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H56" t="s">
         <v>209</v>
@@ -13113,14 +13124,14 @@
     </row>
     <row r="57" spans="5:13">
       <c r="E57" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F57" t="str">
         <f>发送配置!$E$18</f>
         <v>hmsg_template_server-21</v>
       </c>
       <c r="G57" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H57" t="s">
         <v>237</v>
@@ -13141,14 +13152,14 @@
     </row>
     <row r="58" spans="5:13">
       <c r="E58" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F58" t="str">
         <f>发送配置!$E$18</f>
         <v>hmsg_template_server-21</v>
       </c>
       <c r="G58" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H58" t="s">
         <v>241</v>
@@ -13162,14 +13173,14 @@
     </row>
     <row r="59" spans="5:13">
       <c r="E59" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F59" t="str">
         <f>发送配置!$E$19</f>
         <v>hmsg_template_server-22</v>
       </c>
       <c r="G59" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H59" t="s">
         <v>254</v>
@@ -13183,14 +13194,14 @@
     </row>
     <row r="60" spans="5:13">
       <c r="E60" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F60" t="str">
         <f>发送配置!$E$20</f>
         <v>hmsg_template_server-35</v>
       </c>
       <c r="G60" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H60" t="s">
         <v>205</v>
@@ -13211,17 +13222,17 @@
     </row>
     <row r="61" spans="5:13">
       <c r="E61" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F61" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G61" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H61" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I61" t="str">
         <f>邮箱服务配置!$E$8</f>
@@ -13239,17 +13250,17 @@
     </row>
     <row r="62" spans="5:13">
       <c r="E62" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F62" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G62" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H62" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L62" t="s">
         <v>75</v>
@@ -13260,17 +13271,17 @@
     </row>
     <row r="63" spans="5:13">
       <c r="E63" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F63" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G63" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H63" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L63" t="s">
         <v>75</v>
@@ -13281,17 +13292,17 @@
     </row>
     <row r="64" spans="5:13">
       <c r="E64" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F64" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G64" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H64" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L64" t="s">
         <v>75</v>
@@ -13302,14 +13313,14 @@
     </row>
     <row r="65" spans="5:13">
       <c r="E65" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F65" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G65" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H65" t="s">
         <v>127</v>
@@ -13330,14 +13341,14 @@
     </row>
     <row r="66" spans="5:13">
       <c r="E66" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F66" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G66" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H66" t="s">
         <v>131</v>
@@ -13351,14 +13362,14 @@
     </row>
     <row r="67" spans="5:13">
       <c r="E67" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F67" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G67" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H67" t="s">
         <v>119</v>
@@ -13372,14 +13383,14 @@
     </row>
     <row r="68" spans="5:13">
       <c r="E68" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F68" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-50</v>
       </c>
       <c r="G68" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H68" t="s">
         <v>263</v>
@@ -13400,14 +13411,14 @@
     </row>
     <row r="69" spans="5:13">
       <c r="E69" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F69" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-50</v>
       </c>
       <c r="G69" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H69" t="s">
         <v>267</v>
@@ -13421,14 +13432,14 @@
     </row>
     <row r="70" spans="5:13">
       <c r="E70" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F70" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G70" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H70" t="s">
         <v>230</v>
@@ -13449,14 +13460,14 @@
     </row>
     <row r="71" spans="5:13">
       <c r="E71" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F71" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G71" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H71" t="s">
         <v>234</v>
@@ -13470,14 +13481,14 @@
     </row>
     <row r="72" spans="5:13">
       <c r="E72" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F72" t="str">
         <f>发送配置!$E$24</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G72" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H72" t="s">
         <v>226</v>
@@ -13491,14 +13502,14 @@
     </row>
     <row r="73" spans="5:13">
       <c r="E73" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F73" t="str">
         <f>发送配置!$E$25</f>
         <v>hmsg_template_server-52</v>
       </c>
       <c r="G73" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H73" t="s">
         <v>257</v>
@@ -13519,14 +13530,14 @@
     </row>
     <row r="74" spans="5:13">
       <c r="E74" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F74" t="str">
         <f>发送配置!$E$25</f>
         <v>hmsg_template_server-52</v>
       </c>
       <c r="G74" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H74" t="s">
         <v>260</v>
@@ -13540,20 +13551,20 @@
     </row>
     <row r="75" spans="5:13">
       <c r="E75" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F75" t="str">
         <f>发送配置!$E$26</f>
         <v>hmsg_template_server-63</v>
       </c>
       <c r="G75" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H75" t="s">
         <v>145</v>
       </c>
       <c r="L75" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M75" t="s">
         <v>74</v>
@@ -13561,20 +13572,20 @@
     </row>
     <row r="76" spans="5:13">
       <c r="E76" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F76" t="str">
         <f>发送配置!$E$27</f>
         <v>hmsg_template_server-65</v>
       </c>
       <c r="G76" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H76" t="s">
         <v>151</v>
       </c>
       <c r="L76" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M76" t="s">
         <v>74</v>
@@ -13582,20 +13593,20 @@
     </row>
     <row r="77" spans="5:13">
       <c r="E77" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F77" t="str">
         <f>发送配置!$E$30</f>
         <v>hmsg_template_server-70</v>
       </c>
       <c r="G77" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H77" t="s">
         <v>270</v>
       </c>
       <c r="L77" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M77" t="s">
         <v>74</v>
@@ -13603,20 +13614,20 @@
     </row>
     <row r="78" spans="5:13">
       <c r="E78" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F78" t="str">
         <f>发送配置!$E$31</f>
         <v>hmsg_template_server-72</v>
       </c>
       <c r="G78" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H78" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L78" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M78" t="s">
         <v>74</v>
@@ -13624,14 +13635,14 @@
     </row>
     <row r="79" spans="5:13">
       <c r="E79" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F79" t="str">
         <f>发送配置!$E$28</f>
         <v>hmsg_template_server-66</v>
       </c>
       <c r="G79" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H79" t="s">
         <v>250</v>
@@ -13645,14 +13656,14 @@
     </row>
     <row r="80" spans="5:13">
       <c r="E80" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F80" t="str">
         <f t="shared" ref="F80" si="0">E32</f>
         <v>hmsg_template_server-96</v>
       </c>
       <c r="G80" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H80" t="s">
         <v>274</v>
@@ -13666,17 +13677,17 @@
     </row>
     <row r="81" spans="5:13">
       <c r="E81" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F81" t="str">
         <f>E32</f>
         <v>hmsg_template_server-96</v>
       </c>
       <c r="G81" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H81" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L81">
         <v>0</v>
@@ -13693,30 +13704,30 @@
         <v>51</v>
       </c>
       <c r="C83" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H83" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="84" spans="5:8">
       <c r="E84" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F84" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -13727,10 +13738,10 @@
     </row>
     <row r="85" spans="5:8">
       <c r="E85" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F85" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -13741,10 +13752,10 @@
     </row>
     <row r="86" spans="5:8">
       <c r="E86" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F86" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -13755,10 +13766,10 @@
     </row>
     <row r="87" spans="5:8">
       <c r="E87" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F87" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -13769,10 +13780,10 @@
     </row>
     <row r="88" spans="5:8">
       <c r="E88" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F88" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -13783,10 +13794,10 @@
     </row>
     <row r="89" spans="5:8">
       <c r="E89" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F89" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -13797,10 +13808,10 @@
     </row>
     <row r="90" spans="5:8">
       <c r="E90" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F90" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -13811,10 +13822,10 @@
     </row>
     <row r="91" spans="5:8">
       <c r="E91" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F91" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -13825,10 +13836,10 @@
     </row>
     <row r="92" spans="5:8">
       <c r="E92" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F92" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -13839,10 +13850,10 @@
     </row>
     <row r="93" spans="5:8">
       <c r="E93" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F93" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -13853,10 +13864,10 @@
     </row>
     <row r="94" spans="5:8">
       <c r="E94" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F94" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -13867,10 +13878,10 @@
     </row>
     <row r="95" spans="5:8">
       <c r="E95" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -13881,10 +13892,10 @@
     </row>
     <row r="96" spans="5:8">
       <c r="E96" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F96" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -13895,10 +13906,10 @@
     </row>
     <row r="97" spans="5:8">
       <c r="E97" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F97" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -13909,10 +13920,10 @@
     </row>
     <row r="98" spans="5:8">
       <c r="E98" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F98" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -13923,10 +13934,10 @@
     </row>
     <row r="99" spans="5:8">
       <c r="E99" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F99" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -13937,10 +13948,10 @@
     </row>
     <row r="100" spans="5:8">
       <c r="E100" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F100" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -13951,10 +13962,10 @@
     </row>
     <row r="101" spans="5:8">
       <c r="E101" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F101" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -13965,10 +13976,10 @@
     </row>
     <row r="102" spans="5:8">
       <c r="E102" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F102" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -13979,10 +13990,10 @@
     </row>
     <row r="103" spans="5:8">
       <c r="E103" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F103" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -13993,10 +14004,10 @@
     </row>
     <row r="104" spans="5:8">
       <c r="E104" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F104" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -14007,10 +14018,10 @@
     </row>
     <row r="105" spans="5:8">
       <c r="E105" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F105" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -14021,10 +14032,10 @@
     </row>
     <row r="106" spans="5:8">
       <c r="E106" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F106" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G106">
         <v>1</v>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="525">
   <si>
     <r>
       <rPr>
@@ -2127,11 +2127,7 @@
     <t>角色添加通知</t>
   </si>
   <si>
-    <t>&lt;!doctype html&gt;
-&lt;html xmlns="http://www.w3.org/1999/xhtml" xmlns:v="urn:schemas-microsoft-com:vml"
-      xmlns:o="urn:schemas-microsoft-com:office:office"&gt;
-&lt;head&gt;
-  &lt;title&gt;&lt;/title&gt;
+    <t>&lt;title&gt; &lt;/title&gt;
   &lt;!--[if !mso]&gt;&lt;!-- --&gt;
   &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
   &lt;!--&lt;![endif]--&gt;
@@ -2177,7 +2173,7 @@
   &lt;/style&gt;
   &lt;!--[if !mso]&gt;&lt;!--&gt;
   &lt;style type="text/css"&gt;
-    @media only screen and (max-width: 480px) {
+    @media only screen and (max-width:480px) {
       @-ms-viewport {
         width: 320px;
       }
@@ -2197,9 +2193,7 @@
   &lt;![endif]--&gt;
   &lt;!--[if lte mso 11]&gt;
   &lt;style type="text/css"&gt;
-    .outlook-group-fix {
-      width: 100% !important;
-    }
+    .outlook-group-fix { width:100% !important; }
   &lt;/style&gt;
   &lt;![endif]--&gt;
   &lt;!--[if !mso]&gt;&lt;!--&gt;
@@ -2209,7 +2203,7 @@
   &lt;/style&gt;
   &lt;!--&lt;![endif]--&gt;
   &lt;style type="text/css"&gt;
-    @media only screen and (min-width: 480px) {
+    @media only screen and (min-width:480px) {
       .mj-column-per-100 {
         width: 100% !important;
         max-width: 100%;
@@ -2218,17 +2212,15 @@
   &lt;/style&gt;
   &lt;style type="text/css"&gt;
   &lt;/style&gt;
-&lt;/head&gt;
-&lt;body&gt;
 &lt;div style=""&gt;
   &lt;!--[if mso | IE]&gt;
   &lt;table
-          align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:600px;" width="782"
+          align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:782px;" width="782"
   &gt;
     &lt;tr&gt;
       &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
   &lt;![endif]--&gt;
-  &lt;div style="Margin:0px auto;max-width:600px;"&gt;
+  &lt;div style="Margin:0px auto;max-width:782px;"&gt;
     &lt;table align="center" border="0" cellpadding="0" cellspacing="0" role="presentation" style="width:100%;"&gt;
       &lt;tbody&gt;
       &lt;tr&gt;
@@ -2237,67 +2229,73 @@
           &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
             &lt;tr&gt;
               &lt;td
-                      class="" style="vertical-align:top;width:600px;"
+                      class="" style="vertical-align:top;width:782px;"
               &gt;
           &lt;![endif]--&gt;
-          &lt;div class="mj-column-per-100 outlook-group-fix"
-               style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
-            &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation"
-                   style="vertical-align:top;" width="100%"&gt;
-              &lt;tr&gt;
-                &lt;td align="left" style="font-size:0px;padding:20px 25px;word-break:break-word;"&gt;
-                  &lt;div style="font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;line-height:1;text-align:left;color:#000000;"&gt;
-                    &lt;body&gt;
-                    &lt;div style="width: 600px;
-      background: #FFFFFF;
-      margin: 0 auto;"&gt;
-                      &lt;div style="height: 55px;
-      background-color: #ffffff;
-      border-bottom: 8px solid #3F51B5;"&gt;
+          &lt;div class="mj-column-per-100 outlook-group-fix" style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
+            &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
+              &lt;tbody&gt;&lt;tr&gt;
+                &lt;td align="left" style="padding: 10px 25px; word-break: break-word;"&gt;
+                  &lt;div style="line-height: 1; text-align: left;"&gt;
+                    &lt;div style="width: 782px; background: rgb(255, 255, 255); margin: 0px auto;"&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; height: 115px; background-color: rgb(255, 255, 255); border-bottom: 8px solid rgb(63, 81, 181);"&gt;
                         &lt;table&gt;
-                          &lt;tr&gt;
+                          &lt;tbody&gt;&lt;tr&gt;
                             &lt;td style="padding-bottom: 0;vertical-align: bottom;"&gt;
                               &lt;table&gt;
-                                &lt;tr&gt;
-                                  &lt;td style="width:190px;"&gt;&lt;img height="auto"
-                                                                src="https://file.choerodon.com.cn/static/choerodon.png"
-                                                                style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;"
-                                                                width="190"/&gt;&lt;/td&gt;
+                                &lt;tbody&gt;&lt;tr&gt;
+                                  &lt;td style="width:190px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
                                 &lt;/tr&gt;
-                              &lt;/table&gt;
-                            &lt;td&gt;
+                              &lt;/tbody&gt;&lt;/table&gt;
+                            &lt;/td&gt;&lt;td&gt;
+                            &lt;/td&gt;&lt;td style="vertical-align: bottom;"&gt;
+                              &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; "&gt;
+                                &lt;p style="font-size: 14px;
+    color: #252528;
+    letter-spacing: 0;
+    display: inline-block;
+    text-align: right;
+    width: 558px;
+    padding-top: 55px;"&gt;&lt;/p&gt;
+                              &lt;/div&gt;
+                            &lt;/td&gt;
                           &lt;/tr&gt;
-                        &lt;/table&gt;
+                        &lt;/tbody&gt;&lt;/table&gt;
                       &lt;/div&gt;
-                      &lt;div style="padding: 30px 40px;
-      border-bottom: 0;
-      border-top: 0;
-      border-left:1px solid #E6E6E6;
-      border-right:1px solid #E6E6E6;
-      border-radius: 2px;
-      background: #FFFFFF;"&gt;
-                        &lt;div&gt;
-                          &lt;p&gt;您好，&lt;/p&gt;&lt;p&gt;您已被添加为组织【${organizationName}】中【${roleName}】的角色。&lt;/p&gt;
+                      &lt;div style="padding: 68px 40px; border-width: 0px 1px; border-bottom-style: initial; border-bottom-color: initial; border-top-style: initial; border-top-color: initial; border-left-style: solid; border-left-color: rgb(230, 230, 230); border-right-style: solid; border-right-color: rgb(230, 230, 230); border-radius: 2px; background: rgb(255, 255, 255);"&gt;
+                        &lt;div style=""&gt;
+                                  &lt;p&gt;您好，&lt;/p&gt;&lt;p&gt;您已被添加为组织【${organizationName}】中【${roleName}】的角色。&lt;/p&gt;
+                        &lt;/div&gt;
+                        &lt;div class="mj-column-per-100 outlook-group-fix" style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; text-align: left; direction: ltr; display: inline-block; vertical-align: top; width: 100%;"&gt;
+                          &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
+                            &lt;tbody&gt;&lt;tr&gt;
+                              &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
+                                &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
+                                  &lt;tbody&gt;&lt;tr&gt;
+                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#3f51b5;" valign="middle"&gt; &lt;a href="${resultDetailUrl}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
+                                      前往组织
+                                    &lt;/a&gt; &lt;/td&gt;
+                                  &lt;/tr&gt;
+                                &lt;/tbody&gt;&lt;/table&gt;&lt;br&gt;
+                              &lt;/td&gt;
+                            &lt;/tr&gt;
+                          &lt;/tbody&gt;&lt;/table&gt;
                         &lt;/div&gt;
                       &lt;/div&gt;
-                      &lt;div&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px;"&gt;
                         &lt;div style="text-align: justify;"&gt;
                           &lt;table style="height: 148px; background-color: #f7f7f7;width: 100%;"&gt;
-                            &lt;tr&gt;
+                            &lt;tbody&gt;&lt;tr&gt;
                               &lt;td style="padding-left: 29px;"&gt;
                                 &lt;table&gt;
-                                  &lt;tr&gt;
-                                    &lt;td&gt;&lt;img height="auto"
-                                             style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:90px;"
-                                             width="90"
-                                             src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt;
-                                  &lt;/tr&gt;
+                                  &lt;tbody&gt;&lt;tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:90px;" width="90" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center"&gt;微信公众号&lt;/td&gt;
                                   &lt;/tr&gt;
-                                &lt;/table&gt;
-                              &lt;td&gt;
-                              &lt;td&gt;
+                                &lt;/tbody&gt;&lt;/table&gt;
+                              &lt;/td&gt;&lt;td&gt;
+                              &lt;/td&gt;&lt;td&gt;
                                 &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; vertical-align: top;"&gt;
                                   &lt;p style="font-size: 12px;
       color: #626774;
@@ -2310,18 +2308,13 @@
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px"
-                                                          href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或 &lt;a
-                                          style="text-decoration:none;font-size: 12px"
-                                          href="http://choerodon.io/zh/docs/"
-                                          target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      margin-top: 0;"&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/docs/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px"
-                                               href="http://forum.choerodon.io/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://forum.choerodon.io/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 12px;
       color: #626774;
       letter-spacing: 0;
@@ -2331,13 +2324,10 @@
                                 &lt;/div&gt;
                               &lt;/td&gt;
                             &lt;/tr&gt;
-                          &lt;/table&gt;
+                          &lt;/tbody&gt;&lt;/table&gt;
                         &lt;/div&gt;
                       &lt;/div&gt;
-                      &lt;div style="width: 600px;
-      height: 34px;
-      background: #3F51B5;
-      "&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; width: 782px; height: 34px; background: rgb(63, 81, 181);"&gt;
                         &lt;p style="opacity: 0.8;
       font-size: 10px;
       color: #FFFFFF;
@@ -2348,11 +2338,10 @@
       margin: 0 auto;"&gt;Copyright © The Choerodon Author. All rights reserved.&lt;/p&gt;
                       &lt;/div&gt;
                     &lt;/div&gt;
-                    &lt;/body&gt;
                   &lt;/div&gt;
                 &lt;/td&gt;
               &lt;/tr&gt;
-            &lt;/table&gt;
+            &lt;/tbody&gt;&lt;/table&gt;
           &lt;/div&gt;
           &lt;!--[if mso | IE]&gt;
           &lt;/td&gt;
@@ -2362,16 +2351,14 @@
         &lt;/td&gt;
       &lt;/tr&gt;
       &lt;/tbody&gt;
-    &lt;/table&gt;
+    &lt;/table&gt;&lt;br&gt;
   &lt;/div&gt;
   &lt;!--[if mso | IE]&gt;
   &lt;/td&gt;
   &lt;/tr&gt;
   &lt;/table&gt;
   &lt;![endif]--&gt;
-&lt;/div&gt;
-&lt;/body&gt;
-&lt;/html&gt;</t>
+&lt;/div&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-11</t>
@@ -3933,7 +3920,7 @@
                       &lt;/div&gt;
                       &lt;div style="padding: 68px 40px; border-width: 0px 1px; border-bottom-style: initial; border-bottom-color: initial; border-top-style: initial; border-top-color: initial; border-left-style: solid; border-left-color: rgb(230, 230, 230); border-right-style: solid; border-right-color: rgb(230, 230, 230); border-radius: 2px; background: rgb(255, 255, 255);"&gt;
                         &lt;div style=""&gt;
-                                    &lt;p&gt;您好，您已被添加为项目【${projectName}】中【${roleName}】的角色。&lt;/p&gt;
+                                &lt;p&gt;您好，您已被添加为项目【${projectName}】中【${roleName}】的角色。&lt;/p&gt;
                         &lt;/div&gt;
                         &lt;div class="mj-column-per-100 outlook-group-fix" style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; text-align: left; direction: ltr; display: inline-block; vertical-align: top; width: 100%;"&gt;
                           &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
@@ -3942,7 +3929,7 @@
                                 &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
                                     &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#3f51b5;" valign="middle"&gt; &lt;a href="${resultDetailUrl}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
-                                      前往组织
+                                      前往项目
                                     &lt;/a&gt; &lt;/td&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;&lt;br&gt;
@@ -5695,10 +5682,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -5796,24 +5783,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5824,22 +5803,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5854,7 +5835,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -5862,7 +5843,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5876,8 +5857,16 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5892,8 +5881,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5906,35 +5910,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6020,7 +6007,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6032,37 +6097,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6074,67 +6133,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6152,37 +6151,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6194,13 +6187,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6307,17 +6294,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6346,15 +6333,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -6370,6 +6348,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -6381,17 +6374,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6407,146 +6394,146 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -7605,10 +7592,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q194"/>
+  <dimension ref="A1:Q195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="G168" workbookViewId="0">
-      <selection activeCell="K192" sqref="K192"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B38" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -7740,7 +7727,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="5:17">
+    <row r="9" ht="409.5" spans="5:17">
       <c r="E9" t="s">
         <v>126</v>
       </c>
@@ -7753,7 +7740,7 @@
       <c r="H9" t="s">
         <v>128</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="13" t="s">
         <v>129</v>
       </c>
       <c r="N9" t="s">
@@ -8648,7 +8635,7 @@
       <c r="H38" t="s">
         <v>231</v>
       </c>
-      <c r="I38" s="13" t="s">
+      <c r="I38" s="9" t="s">
         <v>232</v>
       </c>
       <c r="N38" t="s">
@@ -11470,17 +11457,17 @@
         <v>284</v>
       </c>
       <c r="F187" t="str">
-        <f>消息模板!$E$9</f>
+        <f>E9</f>
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G187" t="s">
-        <v>303</v>
-      </c>
-      <c r="J187" t="s">
-        <v>75</v>
-      </c>
-      <c r="K187" t="s">
-        <v>75</v>
+        <v>322</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="5:11">
@@ -11492,7 +11479,7 @@
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G188" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="J188" t="s">
         <v>75</v>
@@ -11506,106 +11493,124 @@
         <v>284</v>
       </c>
       <c r="F189" t="str">
+        <f>消息模板!$E$9</f>
+        <v>hmsg_message_template-10</v>
+      </c>
+      <c r="G189" t="s">
+        <v>320</v>
+      </c>
+      <c r="J189" t="s">
+        <v>75</v>
+      </c>
+      <c r="K189" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="190" spans="5:11">
+      <c r="E190" t="s">
+        <v>284</v>
+      </c>
+      <c r="F190" t="str">
         <f>消息模板!$E$38</f>
         <v>hmsg_message_template-129</v>
       </c>
-      <c r="G189" t="s">
+      <c r="G190" t="s">
         <v>302</v>
       </c>
-      <c r="J189" t="s">
-        <v>75</v>
-      </c>
-      <c r="K189" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="190" spans="5:11">
-      <c r="E190" t="s">
-        <v>284</v>
-      </c>
-      <c r="F190" t="str">
+      <c r="J190" t="s">
+        <v>75</v>
+      </c>
+      <c r="K190" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="191" spans="5:11">
+      <c r="E191" t="s">
+        <v>284</v>
+      </c>
+      <c r="F191" t="str">
         <f>E38</f>
         <v>hmsg_message_template-129</v>
       </c>
-      <c r="G190" t="s">
+      <c r="G191" t="s">
         <v>322</v>
       </c>
-      <c r="J190">
+      <c r="J191">
         <v>0</v>
       </c>
-      <c r="K190">
+      <c r="K191">
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="5:11">
-      <c r="E191" t="s">
-        <v>284</v>
-      </c>
-      <c r="F191" t="str">
+    <row r="192" spans="5:11">
+      <c r="E192" t="s">
+        <v>284</v>
+      </c>
+      <c r="F192" t="str">
         <f>消息模板!$E$38</f>
         <v>hmsg_message_template-129</v>
       </c>
-      <c r="G191" t="s">
+      <c r="G192" t="s">
         <v>320</v>
       </c>
-      <c r="J191" t="s">
-        <v>75</v>
-      </c>
-      <c r="K191" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="192" spans="5:11">
-      <c r="E192" t="s">
-        <v>284</v>
-      </c>
-      <c r="F192" t="str">
+      <c r="J192" t="s">
+        <v>75</v>
+      </c>
+      <c r="K192" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="193" spans="5:11">
+      <c r="E193" t="s">
+        <v>284</v>
+      </c>
+      <c r="F193" t="str">
         <f>消息模板!$E$40</f>
         <v>hmsg_message_template-138</v>
       </c>
-      <c r="G192" t="s">
+      <c r="G193" t="s">
         <v>321</v>
       </c>
-      <c r="J192" t="s">
-        <v>75</v>
-      </c>
-      <c r="K192" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="193" spans="5:11">
-      <c r="E193" t="s">
-        <v>284</v>
-      </c>
-      <c r="F193" t="str">
+      <c r="J193" t="s">
+        <v>75</v>
+      </c>
+      <c r="K193" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="194" spans="5:11">
+      <c r="E194" t="s">
+        <v>284</v>
+      </c>
+      <c r="F194" t="str">
         <f>消息模板!$E$47</f>
         <v>hmsg_message_template-150</v>
       </c>
-      <c r="G193" t="s">
+      <c r="G194" t="s">
         <v>320</v>
       </c>
-      <c r="J193" t="s">
-        <v>75</v>
-      </c>
-      <c r="K193" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="194" spans="5:11">
-      <c r="E194" t="s">
-        <v>284</v>
-      </c>
-      <c r="F194" t="str">
+      <c r="J194" t="s">
+        <v>75</v>
+      </c>
+      <c r="K194" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="195" spans="5:11">
+      <c r="E195" t="s">
+        <v>284</v>
+      </c>
+      <c r="F195" t="str">
         <f>消息模板!$E$11</f>
         <v>hmsg_message_template-12</v>
       </c>
-      <c r="G194" t="s">
+      <c r="G195" t="s">
         <v>285</v>
       </c>
-      <c r="J194" t="s">
-        <v>75</v>
-      </c>
-      <c r="K194" t="s">
+      <c r="J195" t="s">
+        <v>75</v>
+      </c>
+      <c r="K195" t="s">
         <v>75</v>
       </c>
     </row>
